--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
@@ -58,7 +58,7 @@
     <t>JH_00001</t>
   </si>
   <si>
-    <t>002326.SZ</t>
+    <t>002326</t>
   </si>
   <si>
     <t>永太科技</t>
@@ -70,7 +70,7 @@
     <t>JH_00002</t>
   </si>
   <si>
-    <t>002529.SZ</t>
+    <t>002529</t>
   </si>
   <si>
     <t>海源复材</t>
@@ -82,7 +82,7 @@
     <t>JH_00003</t>
   </si>
   <si>
-    <t>603098.SH</t>
+    <t>603098</t>
   </si>
   <si>
     <t>森特股份</t>
@@ -2173,7 +2173,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4:B7"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>计划编码</t>
   </si>
@@ -64,7 +64,7 @@
     <t>永太科技</t>
   </si>
   <si>
-    <t>待执行</t>
+    <t>执行中</t>
   </si>
   <si>
     <t>JH_00002</t>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>海源复材</t>
-  </si>
-  <si>
-    <t>执行中</t>
   </si>
   <si>
     <t>JH_00003</t>
@@ -2173,7 +2170,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -2445,22 +2442,22 @@
         <v>0.102310231023102</v>
       </c>
       <c r="M4" s="45" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N4" s="48"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="13" spans="1:14">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="14">
         <v>44539</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="32">
         <v>51.15</v>
@@ -2498,7 +2495,7 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="13" spans="1:14">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="14">
         <v>44539</v>
@@ -2507,7 +2504,7 @@
         <v>600779</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="29">
         <v>143.8</v>
@@ -2538,12 +2535,14 @@
         <f t="shared" si="3"/>
         <v>0.102086230876217</v>
       </c>
-      <c r="M6" s="45"/>
+      <c r="M6" s="45" t="s">
+        <v>16</v>
+      </c>
       <c r="N6" s="49"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="13" spans="1:14">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="14">
         <v>44539</v>
@@ -2552,7 +2551,7 @@
         <v>600803</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="29">
         <v>20.44</v>
@@ -2583,7 +2582,9 @@
         <f t="shared" si="3"/>
         <v>0.146281800391389</v>
       </c>
-      <c r="M7" s="45"/>
+      <c r="M7" s="45" t="s">
+        <v>16</v>
+      </c>
       <c r="N7" s="49"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:14">
@@ -3175,7 +3176,7 @@
     </row>
     <row r="47" ht="13" spans="1:11">
       <c r="A47" s="53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B47" s="6"/>
       <c r="D47" s="6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>计划编码</t>
   </si>
@@ -89,6 +89,12 @@
     <t>浙江新能</t>
   </si>
   <si>
+    <t>JH_00005</t>
+  </si>
+  <si>
+    <t>石英股份</t>
+  </si>
+  <si>
     <t>000069</t>
   </si>
 </sst>
@@ -103,7 +109,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="33">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -155,6 +161,17 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1E2024"/>
+      <name val="Helvetica Neue Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="方正书宋_GBK"/>
       <charset val="134"/>
     </font>
     <font>
@@ -326,7 +343,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,6 +365,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,152 +700,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -877,19 +900,25 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -919,7 +948,7 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -934,7 +963,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
@@ -2110,7 +2139,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -2160,102 +2189,102 @@
       <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="37"/>
-      <c r="AQ1" s="37"/>
-      <c r="AR1" s="37"/>
-      <c r="AS1" s="37"/>
-      <c r="AU1" s="37"/>
-      <c r="AV1" s="37"/>
-      <c r="AW1" s="37"/>
-      <c r="AX1" s="37"/>
-      <c r="AY1" s="37"/>
-      <c r="AZ1" s="37"/>
-      <c r="BA1" s="37"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="39"/>
+      <c r="AO1" s="39"/>
+      <c r="AP1" s="39"/>
+      <c r="AQ1" s="39"/>
+      <c r="AR1" s="39"/>
+      <c r="AS1" s="39"/>
+      <c r="AU1" s="39"/>
+      <c r="AV1" s="39"/>
+      <c r="AW1" s="39"/>
+      <c r="AX1" s="39"/>
+      <c r="AY1" s="39"/>
+      <c r="AZ1" s="39"/>
+      <c r="BA1" s="39"/>
     </row>
     <row r="2" ht="23.6" spans="1:53">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="37"/>
-      <c r="AR2" s="37"/>
-      <c r="AS2" s="37"/>
-      <c r="AU2" s="37"/>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="37"/>
-      <c r="AX2" s="37"/>
-      <c r="AY2" s="37"/>
-      <c r="AZ2" s="37"/>
-      <c r="BA2" s="37"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="39"/>
+      <c r="AO2" s="39"/>
+      <c r="AP2" s="39"/>
+      <c r="AQ2" s="39"/>
+      <c r="AR2" s="39"/>
+      <c r="AS2" s="39"/>
+      <c r="AU2" s="39"/>
+      <c r="AV2" s="39"/>
+      <c r="AW2" s="39"/>
+      <c r="AX2" s="39"/>
+      <c r="AY2" s="39"/>
+      <c r="AZ2" s="39"/>
+      <c r="BA2" s="39"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="13" spans="1:14">
       <c r="A3" s="11" t="s">
@@ -2270,39 +2299,39 @@
       <c r="D3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="26">
         <v>51.15</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="26">
         <v>46.61</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="26">
         <v>59.59</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="26">
         <f>(E3-F3)*100</f>
         <v>454</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="26">
         <f>FLOOR(402/(E3-F3),100)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="27">
+      <c r="J3" s="29">
         <f>(G3-E3)/(E3-F3)</f>
         <v>1.85903083700441</v>
       </c>
-      <c r="K3" s="28">
+      <c r="K3" s="30">
         <f>(E3-F3)/E3</f>
         <v>0.0887585532746823</v>
       </c>
-      <c r="L3" s="29">
+      <c r="L3" s="31">
         <f>(G3-E3)/E3</f>
         <v>0.165004887585533</v>
       </c>
-      <c r="M3" s="35" t="s">
+      <c r="M3" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="36"/>
+      <c r="N3" s="38"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="13" spans="1:14">
       <c r="A4" s="11" t="s">
@@ -2317,39 +2346,39 @@
       <c r="D4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="23">
         <v>143.8</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="23">
         <v>135.13</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="23">
         <v>158.48</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="26">
         <f>(E4-F4)*100</f>
         <v>867.000000000002</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="26">
         <f>FLOOR(402/(E4-F4),100)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="29">
         <f>(G4-E4)/(E4-F4)</f>
         <v>1.69319492502883</v>
       </c>
-      <c r="K4" s="28">
+      <c r="K4" s="30">
         <f>(E4-F4)/E4</f>
         <v>0.0602920723226705</v>
       </c>
-      <c r="L4" s="29">
+      <c r="L4" s="31">
         <f>(G4-E4)/E4</f>
         <v>0.102086230876217</v>
       </c>
-      <c r="M4" s="35" t="s">
+      <c r="M4" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="36"/>
+      <c r="N4" s="38"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="36" spans="1:14">
       <c r="A5" s="11" t="s">
@@ -2364,39 +2393,39 @@
       <c r="D5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="23">
         <v>20.44</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="23">
         <v>19.09</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="23">
         <v>23.43</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="26">
         <f>(E5-F5)*100</f>
         <v>135</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="26">
         <f>FLOOR(402/(E5-F5),100)</f>
         <v>200</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="29">
         <f>(G5-E5)/(E5-F5)</f>
         <v>2.21481481481481</v>
       </c>
-      <c r="K5" s="28">
+      <c r="K5" s="30">
         <f>(E5-F5)/E5</f>
         <v>0.0660469667318983</v>
       </c>
-      <c r="L5" s="29">
+      <c r="L5" s="31">
         <f>(G5-E5)/E5</f>
         <v>0.146281800391389</v>
       </c>
-      <c r="M5" s="35" t="s">
+      <c r="M5" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="36"/>
+      <c r="N5" s="38"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="13" spans="1:14">
       <c r="A6" s="11" t="s">
@@ -2420,592 +2449,600 @@
       <c r="G6" s="11">
         <v>20.72</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="26">
         <f>(E6-F6)*100</f>
         <v>169</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="26">
         <f>FLOOR(402/(E6-F6),100)</f>
         <v>200</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="29">
         <f>(G6-E6)/(E6-F6)</f>
         <v>2.0887573964497</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K6" s="30">
         <f>(E6-F6)/E6</f>
         <v>0.0983129726585225</v>
       </c>
-      <c r="L6" s="29">
+      <c r="L6" s="31">
         <f>(G6-E6)/E6</f>
         <v>0.205351948807446</v>
       </c>
-      <c r="M6" s="35" t="s">
+      <c r="M6" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="36"/>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="1:13">
-      <c r="A7" s="11"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="11"/>
+      <c r="N6" s="38"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="13" spans="1:13">
+      <c r="A7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="12">
+        <v>44539</v>
+      </c>
+      <c r="C7" s="18">
+        <v>603688</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
-      <c r="H7" s="24"/>
+      <c r="H7" s="26"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="35"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="37"/>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:13">
       <c r="A8" s="11"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="24"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="35"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="37"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:14">
-      <c r="A9" s="20"/>
-      <c r="B9" s="18"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="15"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="24"/>
+      <c r="H9" s="26"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="36"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="38"/>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:13">
       <c r="A10" s="11"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="24"/>
+      <c r="H10" s="26"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="35"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="37"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:13">
       <c r="A11" s="11"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="24"/>
+      <c r="H11" s="26"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="35"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="37"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:13">
       <c r="A12" s="11"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="24"/>
+      <c r="H12" s="26"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="35"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="37"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:13">
       <c r="A13" s="11"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="24"/>
+      <c r="H13" s="26"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="35"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="37"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:13">
       <c r="A14" s="11"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="24"/>
+      <c r="H14" s="26"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="35"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="37"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:13">
       <c r="A15" s="11"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="24"/>
+      <c r="H15" s="26"/>
       <c r="I15" s="11"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="35"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="37"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:13">
       <c r="A16" s="11"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="24"/>
+      <c r="H16" s="26"/>
       <c r="I16" s="11"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="35"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="37"/>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:13">
       <c r="A17" s="11"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="24"/>
+      <c r="H17" s="26"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="35"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="37"/>
     </row>
     <row r="18" s="2" customFormat="1" spans="1:13">
       <c r="A18" s="11"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="24"/>
+      <c r="H18" s="26"/>
       <c r="I18" s="11"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="35"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="37"/>
     </row>
     <row r="19" s="2" customFormat="1" spans="1:13">
       <c r="A19" s="11"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="24"/>
+      <c r="H19" s="26"/>
       <c r="I19" s="11"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="35"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="37"/>
     </row>
     <row r="20" s="2" customFormat="1" spans="1:13">
       <c r="A20" s="11"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="24"/>
+      <c r="H20" s="26"/>
       <c r="I20" s="11"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="31"/>
       <c r="M20" s="11"/>
     </row>
     <row r="21" s="2" customFormat="1" spans="1:13">
       <c r="A21" s="11"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="24"/>
+      <c r="H21" s="26"/>
       <c r="I21" s="11"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="31"/>
       <c r="M21" s="11"/>
     </row>
     <row r="22" s="2" customFormat="1" spans="1:13">
       <c r="A22" s="11"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
-      <c r="H22" s="24"/>
+      <c r="H22" s="26"/>
       <c r="I22" s="11"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="31"/>
       <c r="M22" s="11"/>
     </row>
     <row r="23" s="2" customFormat="1" spans="1:13">
       <c r="A23" s="11"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
-      <c r="H23" s="24"/>
+      <c r="H23" s="26"/>
       <c r="I23" s="11"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="31"/>
       <c r="M23" s="11"/>
     </row>
     <row r="24" s="2" customFormat="1" spans="1:13">
       <c r="A24" s="11"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
-      <c r="H24" s="24"/>
+      <c r="H24" s="26"/>
       <c r="I24" s="11"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="35"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="37"/>
     </row>
     <row r="25" s="2" customFormat="1" spans="1:13">
       <c r="A25" s="11"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
-      <c r="H25" s="24"/>
+      <c r="H25" s="26"/>
       <c r="I25" s="11"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="35"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="37"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="21"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="21"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="23"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="21"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="23"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="21"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="23"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="21"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="23"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="21"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="23"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="21"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="23"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="21"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="23"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="21"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="23"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="21"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="23"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="21"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="23"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="21"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="23"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="21"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="23"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="21"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="23"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="21"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="23"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="21"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="23"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="21"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="23"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="21"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="23"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="21"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="23"/>
     </row>
     <row r="44" ht="13" spans="1:11">
-      <c r="A44" s="38" t="s">
-        <v>24</v>
+      <c r="A44" s="40" t="s">
+        <v>26</v>
       </c>
-      <c r="B44" s="3"/>
+      <c r="B44" s="23"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -3013,7 +3050,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
-      <c r="K44" s="31"/>
+      <c r="K44" s="33"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="3"/>
@@ -3025,7 +3062,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
-      <c r="K45" s="31"/>
+      <c r="K45" s="33"/>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="3"/>
@@ -3037,7 +3074,7 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
-      <c r="K46" s="31"/>
+      <c r="K46" s="33"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="3"/>
@@ -3049,7 +3086,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
-      <c r="K47" s="31"/>
+      <c r="K47" s="33"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="3"/>
@@ -3061,7 +3098,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
-      <c r="K48" s="31"/>
+      <c r="K48" s="33"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="3"/>
@@ -3073,7 +3110,7 @@
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
-      <c r="K49" s="31"/>
+      <c r="K49" s="33"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="3"/>
@@ -3085,7 +3122,7 @@
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
-      <c r="K50" s="31"/>
+      <c r="K50" s="33"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="3"/>
@@ -3097,7 +3134,7 @@
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
-      <c r="K51" s="31"/>
+      <c r="K51" s="33"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="3"/>
@@ -3109,7 +3146,7 @@
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
-      <c r="K52" s="31"/>
+      <c r="K52" s="33"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="3"/>
@@ -3121,7 +3158,7 @@
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
-      <c r="K53" s="31"/>
+      <c r="K53" s="33"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="3"/>
@@ -3133,7 +3170,7 @@
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
-      <c r="K54" s="31"/>
+      <c r="K54" s="33"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="3"/>
@@ -3145,7 +3182,7 @@
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
-      <c r="K55" s="31"/>
+      <c r="K55" s="33"/>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="3"/>
@@ -3157,7 +3194,7 @@
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
-      <c r="K56" s="31"/>
+      <c r="K56" s="33"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="3"/>
@@ -3169,7 +3206,7 @@
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
-      <c r="K57" s="31"/>
+      <c r="K57" s="33"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="3"/>
@@ -3181,7 +3218,7 @@
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
-      <c r="K58" s="31"/>
+      <c r="K58" s="33"/>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="3"/>
@@ -3193,7 +3230,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
-      <c r="K59" s="31"/>
+      <c r="K59" s="33"/>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="3"/>
@@ -3205,7 +3242,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
-      <c r="K60" s="31"/>
+      <c r="K60" s="33"/>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="3"/>
@@ -3217,7 +3254,7 @@
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
-      <c r="K61" s="31"/>
+      <c r="K61" s="33"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="3"/>
@@ -3229,7 +3266,7 @@
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
-      <c r="K62" s="31"/>
+      <c r="K62" s="33"/>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="3"/>
@@ -3241,7 +3278,7 @@
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
-      <c r="K63" s="31"/>
+      <c r="K63" s="33"/>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="3"/>
@@ -3253,7 +3290,7 @@
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
-      <c r="K64" s="31"/>
+      <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="3"/>
@@ -3265,7 +3302,7 @@
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
-      <c r="K65" s="31"/>
+      <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="3"/>
@@ -3277,7 +3314,7 @@
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
-      <c r="K66" s="31"/>
+      <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="3"/>
@@ -3289,7 +3326,7 @@
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
-      <c r="K67" s="31"/>
+      <c r="K67" s="33"/>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="3"/>
@@ -3301,7 +3338,7 @@
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
-      <c r="K68" s="31"/>
+      <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="3"/>
@@ -3313,7 +3350,7 @@
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
-      <c r="K69" s="31"/>
+      <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="3"/>
@@ -3325,7 +3362,7 @@
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
-      <c r="K70" s="31"/>
+      <c r="K70" s="33"/>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="3"/>
@@ -3337,7 +3374,7 @@
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
-      <c r="K71" s="31"/>
+      <c r="K71" s="33"/>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="3"/>
@@ -3349,7 +3386,7 @@
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
-      <c r="K72" s="31"/>
+      <c r="K72" s="33"/>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="3"/>
@@ -3361,7 +3398,7 @@
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
-      <c r="K73" s="31"/>
+      <c r="K73" s="33"/>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="3"/>
@@ -3373,7 +3410,7 @@
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
-      <c r="K74" s="31"/>
+      <c r="K74" s="33"/>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="3"/>
@@ -3385,7 +3422,7 @@
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
-      <c r="K75" s="31"/>
+      <c r="K75" s="33"/>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="3"/>
@@ -3397,7 +3434,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
-      <c r="K76" s="31"/>
+      <c r="K76" s="33"/>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="3"/>
@@ -3409,7 +3446,7 @@
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
-      <c r="K77" s="31"/>
+      <c r="K77" s="33"/>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="3"/>
@@ -3421,7 +3458,7 @@
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
-      <c r="K78" s="31"/>
+      <c r="K78" s="33"/>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="3"/>
@@ -3433,7 +3470,7 @@
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
-      <c r="K79" s="31"/>
+      <c r="K79" s="33"/>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="3"/>
@@ -3445,7 +3482,7 @@
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
-      <c r="K80" s="31"/>
+      <c r="K80" s="33"/>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="3"/>
@@ -3457,7 +3494,7 @@
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
-      <c r="K81" s="31"/>
+      <c r="K81" s="33"/>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="3"/>
@@ -3469,7 +3506,7 @@
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
-      <c r="K82" s="31"/>
+      <c r="K82" s="33"/>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="3"/>
@@ -3481,7 +3518,7 @@
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
-      <c r="K83" s="31"/>
+      <c r="K83" s="33"/>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="3"/>
@@ -3493,7 +3530,7 @@
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
-      <c r="K84" s="31"/>
+      <c r="K84" s="33"/>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="3"/>
@@ -3505,7 +3542,7 @@
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
-      <c r="K85" s="31"/>
+      <c r="K85" s="33"/>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="3"/>
@@ -3517,7 +3554,7 @@
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
-      <c r="K86" s="31"/>
+      <c r="K86" s="33"/>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="3"/>
@@ -3529,7 +3566,7 @@
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
-      <c r="K87" s="31"/>
+      <c r="K87" s="33"/>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="3"/>
@@ -3541,7 +3578,7 @@
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
-      <c r="K88" s="31"/>
+      <c r="K88" s="33"/>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="3"/>
@@ -3553,7 +3590,7 @@
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
-      <c r="K89" s="31"/>
+      <c r="K89" s="33"/>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="3"/>
@@ -3565,7 +3602,7 @@
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
-      <c r="K90" s="31"/>
+      <c r="K90" s="33"/>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="3"/>
@@ -3577,7 +3614,7 @@
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
-      <c r="K91" s="31"/>
+      <c r="K91" s="33"/>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="3"/>
@@ -3589,7 +3626,7 @@
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
-      <c r="K92" s="31"/>
+      <c r="K92" s="33"/>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="3"/>
@@ -3601,7 +3638,7 @@
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
-      <c r="K93" s="31"/>
+      <c r="K93" s="33"/>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="3"/>
@@ -3613,7 +3650,7 @@
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
-      <c r="K94" s="31"/>
+      <c r="K94" s="33"/>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="3"/>
@@ -3625,7 +3662,7 @@
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
-      <c r="K95" s="31"/>
+      <c r="K95" s="33"/>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="3"/>
@@ -3637,7 +3674,7 @@
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
-      <c r="K96" s="31"/>
+      <c r="K96" s="33"/>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="3"/>
@@ -3649,7 +3686,7 @@
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
-      <c r="K97" s="31"/>
+      <c r="K97" s="33"/>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="3"/>
@@ -3661,7 +3698,7 @@
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
-      <c r="K98" s="31"/>
+      <c r="K98" s="33"/>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="3"/>
@@ -3673,7 +3710,7 @@
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
-      <c r="K99" s="31"/>
+      <c r="K99" s="33"/>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="3"/>
@@ -3685,7 +3722,7 @@
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
-      <c r="K100" s="31"/>
+      <c r="K100" s="33"/>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="3"/>
@@ -3697,7 +3734,7 @@
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
-      <c r="K101" s="31"/>
+      <c r="K101" s="33"/>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="3"/>
@@ -3709,7 +3746,7 @@
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
-      <c r="K102" s="31"/>
+      <c r="K102" s="33"/>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="3"/>
@@ -3721,7 +3758,7 @@
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
-      <c r="K103" s="31"/>
+      <c r="K103" s="33"/>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="3"/>
@@ -3733,7 +3770,7 @@
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
-      <c r="K104" s="31"/>
+      <c r="K104" s="33"/>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="3"/>
@@ -3745,7 +3782,7 @@
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
-      <c r="K105" s="31"/>
+      <c r="K105" s="33"/>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="3"/>
@@ -3757,7 +3794,7 @@
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
-      <c r="K106" s="31"/>
+      <c r="K106" s="33"/>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="3"/>
@@ -3769,7 +3806,7 @@
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
-      <c r="K107" s="31"/>
+      <c r="K107" s="33"/>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="3"/>
@@ -3781,7 +3818,7 @@
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
-      <c r="K108" s="31"/>
+      <c r="K108" s="33"/>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="3"/>
@@ -3793,7 +3830,7 @@
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
-      <c r="K109" s="31"/>
+      <c r="K109" s="33"/>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="3"/>
@@ -3805,7 +3842,7 @@
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
-      <c r="K110" s="31"/>
+      <c r="K110" s="33"/>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="3"/>
@@ -3817,7 +3854,7 @@
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
-      <c r="K111" s="31"/>
+      <c r="K111" s="33"/>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="3"/>
@@ -3829,7 +3866,7 @@
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
-      <c r="K112" s="31"/>
+      <c r="K112" s="33"/>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="3"/>
@@ -3841,7 +3878,7 @@
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
-      <c r="K113" s="31"/>
+      <c r="K113" s="33"/>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="3"/>
@@ -3853,7 +3890,7 @@
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
-      <c r="K114" s="31"/>
+      <c r="K114" s="33"/>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="3"/>
@@ -3865,7 +3902,7 @@
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
-      <c r="K115" s="31"/>
+      <c r="K115" s="33"/>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="3"/>
@@ -3877,7 +3914,7 @@
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
-      <c r="K116" s="31"/>
+      <c r="K116" s="33"/>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="3"/>
@@ -3889,7 +3926,7 @@
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
-      <c r="K117" s="31"/>
+      <c r="K117" s="33"/>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="3"/>
@@ -3901,7 +3938,7 @@
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
-      <c r="K118" s="31"/>
+      <c r="K118" s="33"/>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="3"/>
@@ -3913,7 +3950,7 @@
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
-      <c r="K119" s="31"/>
+      <c r="K119" s="33"/>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="3"/>
@@ -3925,7 +3962,7 @@
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
-      <c r="K120" s="31"/>
+      <c r="K120" s="33"/>
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="3"/>
@@ -3937,7 +3974,7 @@
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
-      <c r="K121" s="31"/>
+      <c r="K121" s="33"/>
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="3"/>
@@ -3949,7 +3986,7 @@
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
-      <c r="K122" s="31"/>
+      <c r="K122" s="33"/>
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="3"/>
@@ -3961,7 +3998,7 @@
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
-      <c r="K123" s="31"/>
+      <c r="K123" s="33"/>
     </row>
     <row r="124" spans="1:11">
       <c r="A124" s="3"/>
@@ -3973,7 +4010,7 @@
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
-      <c r="K124" s="31"/>
+      <c r="K124" s="33"/>
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="3"/>
@@ -3985,7 +4022,7 @@
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
-      <c r="K125" s="31"/>
+      <c r="K125" s="33"/>
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="3"/>
@@ -3997,7 +4034,7 @@
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
-      <c r="K126" s="31"/>
+      <c r="K126" s="33"/>
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="3"/>
@@ -4009,7 +4046,7 @@
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
-      <c r="K127" s="31"/>
+      <c r="K127" s="33"/>
     </row>
     <row r="128" spans="1:11">
       <c r="A128" s="3"/>
@@ -4021,7 +4058,7 @@
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
-      <c r="K128" s="31"/>
+      <c r="K128" s="33"/>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="3"/>
@@ -4033,7 +4070,7 @@
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
-      <c r="K129" s="31"/>
+      <c r="K129" s="33"/>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="3"/>
@@ -4045,7 +4082,7 @@
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
-      <c r="K130" s="31"/>
+      <c r="K130" s="33"/>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="3"/>
@@ -4057,7 +4094,7 @@
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
-      <c r="K131" s="31"/>
+      <c r="K131" s="33"/>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="3"/>
@@ -4069,7 +4106,7 @@
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
-      <c r="K132" s="31"/>
+      <c r="K132" s="33"/>
     </row>
     <row r="133" spans="1:11">
       <c r="A133" s="3"/>
@@ -4081,7 +4118,7 @@
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
-      <c r="K133" s="31"/>
+      <c r="K133" s="33"/>
     </row>
     <row r="134" spans="1:11">
       <c r="A134" s="3"/>
@@ -4093,7 +4130,7 @@
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
-      <c r="K134" s="31"/>
+      <c r="K134" s="33"/>
     </row>
     <row r="135" spans="1:11">
       <c r="A135" s="3"/>
@@ -4105,7 +4142,7 @@
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
-      <c r="K135" s="31"/>
+      <c r="K135" s="33"/>
     </row>
     <row r="136" spans="1:11">
       <c r="A136" s="3"/>
@@ -4117,7 +4154,7 @@
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
-      <c r="K136" s="31"/>
+      <c r="K136" s="33"/>
     </row>
     <row r="137" spans="1:11">
       <c r="A137" s="3"/>
@@ -4129,7 +4166,7 @@
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
-      <c r="K137" s="31"/>
+      <c r="K137" s="33"/>
     </row>
     <row r="138" spans="1:11">
       <c r="A138" s="3"/>
@@ -4141,7 +4178,7 @@
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
-      <c r="K138" s="31"/>
+      <c r="K138" s="33"/>
     </row>
     <row r="139" spans="1:11">
       <c r="A139" s="3"/>
@@ -4153,7 +4190,7 @@
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
-      <c r="K139" s="31"/>
+      <c r="K139" s="33"/>
     </row>
     <row r="140" spans="1:11">
       <c r="A140" s="3"/>
@@ -4165,7 +4202,7 @@
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
-      <c r="K140" s="31"/>
+      <c r="K140" s="33"/>
     </row>
     <row r="141" spans="1:11">
       <c r="A141" s="3"/>
@@ -4177,7 +4214,7 @@
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
-      <c r="K141" s="31"/>
+      <c r="K141" s="33"/>
     </row>
     <row r="142" spans="1:11">
       <c r="A142" s="3"/>
@@ -4189,7 +4226,7 @@
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
-      <c r="K142" s="31"/>
+      <c r="K142" s="33"/>
     </row>
     <row r="143" spans="1:11">
       <c r="A143" s="3"/>
@@ -4201,7 +4238,7 @@
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
-      <c r="K143" s="31"/>
+      <c r="K143" s="33"/>
     </row>
     <row r="144" spans="1:11">
       <c r="A144" s="3"/>
@@ -4213,7 +4250,7 @@
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
-      <c r="K144" s="31"/>
+      <c r="K144" s="33"/>
     </row>
     <row r="145" spans="1:11">
       <c r="A145" s="3"/>
@@ -4225,7 +4262,7 @@
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
-      <c r="K145" s="31"/>
+      <c r="K145" s="33"/>
     </row>
     <row r="146" spans="1:11">
       <c r="A146" s="3"/>
@@ -4237,7 +4274,7 @@
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
-      <c r="K146" s="31"/>
+      <c r="K146" s="33"/>
     </row>
     <row r="147" spans="1:11">
       <c r="A147" s="3"/>
@@ -4249,7 +4286,7 @@
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
-      <c r="K147" s="31"/>
+      <c r="K147" s="33"/>
     </row>
     <row r="148" spans="1:11">
       <c r="A148" s="3"/>
@@ -4261,7 +4298,7 @@
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
-      <c r="K148" s="31"/>
+      <c r="K148" s="33"/>
     </row>
     <row r="149" spans="1:11">
       <c r="A149" s="3"/>
@@ -4273,7 +4310,7 @@
       <c r="H149" s="3"/>
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
-      <c r="K149" s="31"/>
+      <c r="K149" s="33"/>
     </row>
     <row r="150" spans="1:11">
       <c r="A150" s="3"/>
@@ -4285,7 +4322,7 @@
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
-      <c r="K150" s="31"/>
+      <c r="K150" s="33"/>
     </row>
     <row r="151" spans="1:11">
       <c r="A151" s="3"/>
@@ -4297,7 +4334,7 @@
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
-      <c r="K151" s="31"/>
+      <c r="K151" s="33"/>
     </row>
     <row r="152" spans="1:11">
       <c r="A152" s="3"/>
@@ -4309,7 +4346,7 @@
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
-      <c r="K152" s="31"/>
+      <c r="K152" s="33"/>
     </row>
     <row r="153" spans="1:11">
       <c r="A153" s="3"/>
@@ -4321,7 +4358,7 @@
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
-      <c r="K153" s="31"/>
+      <c r="K153" s="33"/>
     </row>
     <row r="154" spans="1:11">
       <c r="A154" s="3"/>
@@ -4333,7 +4370,7 @@
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
-      <c r="K154" s="31"/>
+      <c r="K154" s="33"/>
     </row>
     <row r="155" spans="1:11">
       <c r="A155" s="3"/>
@@ -4345,7 +4382,7 @@
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
-      <c r="K155" s="31"/>
+      <c r="K155" s="33"/>
     </row>
     <row r="156" spans="1:11">
       <c r="A156" s="3"/>
@@ -4357,7 +4394,7 @@
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
-      <c r="K156" s="31"/>
+      <c r="K156" s="33"/>
     </row>
     <row r="157" spans="1:11">
       <c r="A157" s="3"/>
@@ -4369,7 +4406,7 @@
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
-      <c r="K157" s="31"/>
+      <c r="K157" s="33"/>
     </row>
     <row r="158" spans="1:11">
       <c r="A158" s="3"/>
@@ -4381,7 +4418,7 @@
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
-      <c r="K158" s="31"/>
+      <c r="K158" s="33"/>
     </row>
     <row r="159" spans="1:11">
       <c r="A159" s="3"/>
@@ -4393,7 +4430,7 @@
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
-      <c r="K159" s="31"/>
+      <c r="K159" s="33"/>
     </row>
     <row r="160" spans="1:11">
       <c r="A160" s="3"/>
@@ -4405,7 +4442,7 @@
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
-      <c r="K160" s="31"/>
+      <c r="K160" s="33"/>
     </row>
     <row r="161" spans="1:11">
       <c r="A161" s="3"/>
@@ -4417,7 +4454,7 @@
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
-      <c r="K161" s="31"/>
+      <c r="K161" s="33"/>
     </row>
     <row r="162" spans="1:11">
       <c r="A162" s="3"/>
@@ -4429,7 +4466,7 @@
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
-      <c r="K162" s="31"/>
+      <c r="K162" s="33"/>
     </row>
     <row r="163" spans="1:11">
       <c r="A163" s="3"/>
@@ -4441,7 +4478,7 @@
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
-      <c r="K163" s="31"/>
+      <c r="K163" s="33"/>
     </row>
     <row r="164" spans="1:11">
       <c r="A164" s="3"/>
@@ -4453,7 +4490,7 @@
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
-      <c r="K164" s="31"/>
+      <c r="K164" s="33"/>
     </row>
     <row r="165" spans="1:11">
       <c r="A165" s="3"/>
@@ -4465,7 +4502,7 @@
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
-      <c r="K165" s="31"/>
+      <c r="K165" s="33"/>
     </row>
     <row r="166" spans="1:11">
       <c r="A166" s="3"/>
@@ -4477,7 +4514,7 @@
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
-      <c r="K166" s="31"/>
+      <c r="K166" s="33"/>
     </row>
     <row r="167" spans="1:11">
       <c r="A167" s="3"/>
@@ -4489,7 +4526,7 @@
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
-      <c r="K167" s="31"/>
+      <c r="K167" s="33"/>
     </row>
     <row r="168" spans="1:11">
       <c r="A168" s="3"/>
@@ -4501,7 +4538,7 @@
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
-      <c r="K168" s="31"/>
+      <c r="K168" s="33"/>
     </row>
     <row r="169" spans="1:11">
       <c r="A169" s="3"/>
@@ -4513,7 +4550,7 @@
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
-      <c r="K169" s="31"/>
+      <c r="K169" s="33"/>
     </row>
     <row r="170" spans="1:11">
       <c r="A170" s="3"/>
@@ -4525,7 +4562,7 @@
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
-      <c r="K170" s="31"/>
+      <c r="K170" s="33"/>
     </row>
     <row r="171" spans="1:11">
       <c r="A171" s="3"/>
@@ -4537,7 +4574,7 @@
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
-      <c r="K171" s="31"/>
+      <c r="K171" s="33"/>
     </row>
     <row r="172" spans="1:11">
       <c r="A172" s="3"/>
@@ -4549,7 +4586,7 @@
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
-      <c r="K172" s="31"/>
+      <c r="K172" s="33"/>
     </row>
     <row r="173" spans="1:11">
       <c r="A173" s="3"/>
@@ -4561,7 +4598,7 @@
       <c r="H173" s="3"/>
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
-      <c r="K173" s="31"/>
+      <c r="K173" s="33"/>
     </row>
     <row r="174" spans="1:11">
       <c r="A174" s="3"/>
@@ -4573,7 +4610,7 @@
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
-      <c r="K174" s="31"/>
+      <c r="K174" s="33"/>
     </row>
     <row r="175" spans="1:11">
       <c r="A175" s="3"/>
@@ -4585,7 +4622,7 @@
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
-      <c r="K175" s="31"/>
+      <c r="K175" s="33"/>
     </row>
     <row r="176" spans="1:11">
       <c r="A176" s="3"/>
@@ -4597,7 +4634,7 @@
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
-      <c r="K176" s="31"/>
+      <c r="K176" s="33"/>
     </row>
     <row r="177" spans="1:11">
       <c r="A177" s="3"/>
@@ -4609,7 +4646,7 @@
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
-      <c r="K177" s="31"/>
+      <c r="K177" s="33"/>
     </row>
     <row r="178" spans="1:11">
       <c r="A178" s="3"/>
@@ -4621,7 +4658,7 @@
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
-      <c r="K178" s="31"/>
+      <c r="K178" s="33"/>
     </row>
     <row r="179" spans="1:11">
       <c r="A179" s="3"/>
@@ -4633,7 +4670,7 @@
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
-      <c r="K179" s="31"/>
+      <c r="K179" s="33"/>
     </row>
     <row r="180" spans="1:11">
       <c r="A180" s="3"/>
@@ -4645,7 +4682,7 @@
       <c r="H180" s="3"/>
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
-      <c r="K180" s="31"/>
+      <c r="K180" s="33"/>
     </row>
     <row r="181" spans="1:11">
       <c r="A181" s="3"/>
@@ -4657,7 +4694,7 @@
       <c r="H181" s="3"/>
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
-      <c r="K181" s="31"/>
+      <c r="K181" s="33"/>
     </row>
     <row r="182" spans="1:11">
       <c r="A182" s="3"/>
@@ -4669,7 +4706,7 @@
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
-      <c r="K182" s="31"/>
+      <c r="K182" s="33"/>
     </row>
     <row r="183" spans="1:11">
       <c r="A183" s="3"/>
@@ -4681,7 +4718,7 @@
       <c r="H183" s="3"/>
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
-      <c r="K183" s="31"/>
+      <c r="K183" s="33"/>
     </row>
     <row r="184" spans="1:11">
       <c r="A184" s="3"/>
@@ -4693,7 +4730,7 @@
       <c r="H184" s="3"/>
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
-      <c r="K184" s="31"/>
+      <c r="K184" s="33"/>
     </row>
     <row r="185" spans="1:11">
       <c r="A185" s="3"/>
@@ -4705,7 +4742,7 @@
       <c r="H185" s="3"/>
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
-      <c r="K185" s="31"/>
+      <c r="K185" s="33"/>
     </row>
     <row r="186" spans="1:11">
       <c r="A186" s="3"/>
@@ -4717,7 +4754,7 @@
       <c r="H186" s="3"/>
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
-      <c r="K186" s="31"/>
+      <c r="K186" s="33"/>
     </row>
     <row r="187" spans="1:11">
       <c r="A187" s="3"/>
@@ -4729,7 +4766,7 @@
       <c r="H187" s="3"/>
       <c r="I187" s="3"/>
       <c r="J187" s="3"/>
-      <c r="K187" s="31"/>
+      <c r="K187" s="33"/>
     </row>
     <row r="188" spans="1:11">
       <c r="A188" s="3"/>
@@ -4741,7 +4778,7 @@
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
       <c r="J188" s="3"/>
-      <c r="K188" s="31"/>
+      <c r="K188" s="33"/>
     </row>
     <row r="189" spans="1:11">
       <c r="A189" s="3"/>
@@ -4753,7 +4790,7 @@
       <c r="H189" s="3"/>
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
-      <c r="K189" s="31"/>
+      <c r="K189" s="33"/>
     </row>
     <row r="190" spans="1:11">
       <c r="A190" s="3"/>
@@ -4765,7 +4802,7 @@
       <c r="H190" s="3"/>
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
-      <c r="K190" s="31"/>
+      <c r="K190" s="33"/>
     </row>
     <row r="191" spans="1:11">
       <c r="A191" s="3"/>
@@ -4777,7 +4814,7 @@
       <c r="H191" s="3"/>
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
-      <c r="K191" s="31"/>
+      <c r="K191" s="33"/>
     </row>
     <row r="192" spans="1:11">
       <c r="A192" s="3"/>
@@ -4789,7 +4826,7 @@
       <c r="H192" s="3"/>
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
-      <c r="K192" s="31"/>
+      <c r="K192" s="33"/>
     </row>
     <row r="193" spans="1:11">
       <c r="A193" s="3"/>
@@ -4801,7 +4838,7 @@
       <c r="H193" s="3"/>
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
-      <c r="K193" s="31"/>
+      <c r="K193" s="33"/>
     </row>
     <row r="194" spans="1:11">
       <c r="A194" s="3"/>
@@ -4813,7 +4850,7 @@
       <c r="H194" s="3"/>
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
-      <c r="K194" s="31"/>
+      <c r="K194" s="33"/>
     </row>
     <row r="195" spans="1:11">
       <c r="A195" s="3"/>
@@ -4825,7 +4862,7 @@
       <c r="H195" s="3"/>
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
-      <c r="K195" s="31"/>
+      <c r="K195" s="33"/>
     </row>
     <row r="196" spans="1:11">
       <c r="A196" s="3"/>
@@ -4837,7 +4874,7 @@
       <c r="H196" s="3"/>
       <c r="I196" s="3"/>
       <c r="J196" s="3"/>
-      <c r="K196" s="31"/>
+      <c r="K196" s="33"/>
     </row>
     <row r="197" spans="1:11">
       <c r="A197" s="3"/>
@@ -4849,7 +4886,7 @@
       <c r="H197" s="3"/>
       <c r="I197" s="3"/>
       <c r="J197" s="3"/>
-      <c r="K197" s="31"/>
+      <c r="K197" s="33"/>
     </row>
     <row r="198" spans="1:11">
       <c r="A198" s="3"/>
@@ -4861,7 +4898,7 @@
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
       <c r="J198" s="3"/>
-      <c r="K198" s="31"/>
+      <c r="K198" s="33"/>
     </row>
     <row r="199" spans="1:11">
       <c r="A199" s="3"/>
@@ -4873,7 +4910,7 @@
       <c r="H199" s="3"/>
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
-      <c r="K199" s="31"/>
+      <c r="K199" s="33"/>
     </row>
     <row r="200" spans="1:11">
       <c r="A200" s="3"/>
@@ -4885,7 +4922,7 @@
       <c r="H200" s="3"/>
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
-      <c r="K200" s="31"/>
+      <c r="K200" s="33"/>
     </row>
     <row r="201" spans="1:11">
       <c r="A201" s="3"/>
@@ -4897,7 +4934,7 @@
       <c r="H201" s="3"/>
       <c r="I201" s="3"/>
       <c r="J201" s="3"/>
-      <c r="K201" s="31"/>
+      <c r="K201" s="33"/>
     </row>
     <row r="202" spans="1:11">
       <c r="A202" s="3"/>
@@ -4909,7 +4946,7 @@
       <c r="H202" s="3"/>
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
-      <c r="K202" s="31"/>
+      <c r="K202" s="33"/>
     </row>
     <row r="203" spans="1:11">
       <c r="A203" s="3"/>
@@ -4921,7 +4958,7 @@
       <c r="H203" s="3"/>
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
-      <c r="K203" s="31"/>
+      <c r="K203" s="33"/>
     </row>
     <row r="204" spans="1:11">
       <c r="A204" s="3"/>
@@ -4933,7 +4970,7 @@
       <c r="H204" s="3"/>
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
-      <c r="K204" s="31"/>
+      <c r="K204" s="33"/>
     </row>
     <row r="205" spans="1:11">
       <c r="A205" s="3"/>
@@ -4945,7 +4982,7 @@
       <c r="H205" s="3"/>
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
-      <c r="K205" s="31"/>
+      <c r="K205" s="33"/>
     </row>
     <row r="206" spans="1:11">
       <c r="A206" s="3"/>
@@ -4957,7 +4994,7 @@
       <c r="H206" s="3"/>
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
-      <c r="K206" s="31"/>
+      <c r="K206" s="33"/>
     </row>
     <row r="207" spans="1:11">
       <c r="A207" s="3"/>
@@ -4969,7 +5006,7 @@
       <c r="H207" s="3"/>
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
-      <c r="K207" s="31"/>
+      <c r="K207" s="33"/>
     </row>
     <row r="208" spans="1:11">
       <c r="A208" s="3"/>
@@ -4981,7 +5018,7 @@
       <c r="H208" s="3"/>
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
-      <c r="K208" s="31"/>
+      <c r="K208" s="33"/>
     </row>
     <row r="209" spans="1:11">
       <c r="A209" s="3"/>
@@ -4993,7 +5030,7 @@
       <c r="H209" s="3"/>
       <c r="I209" s="3"/>
       <c r="J209" s="3"/>
-      <c r="K209" s="31"/>
+      <c r="K209" s="33"/>
     </row>
     <row r="210" spans="1:11">
       <c r="A210" s="3"/>
@@ -5005,7 +5042,7 @@
       <c r="H210" s="3"/>
       <c r="I210" s="3"/>
       <c r="J210" s="3"/>
-      <c r="K210" s="31"/>
+      <c r="K210" s="33"/>
     </row>
     <row r="211" spans="1:11">
       <c r="A211" s="3"/>
@@ -5017,7 +5054,7 @@
       <c r="H211" s="3"/>
       <c r="I211" s="3"/>
       <c r="J211" s="3"/>
-      <c r="K211" s="31"/>
+      <c r="K211" s="33"/>
     </row>
     <row r="212" spans="1:11">
       <c r="A212" s="3"/>
@@ -5029,7 +5066,7 @@
       <c r="H212" s="3"/>
       <c r="I212" s="3"/>
       <c r="J212" s="3"/>
-      <c r="K212" s="31"/>
+      <c r="K212" s="33"/>
     </row>
     <row r="213" spans="1:11">
       <c r="A213" s="3"/>
@@ -5041,7 +5078,7 @@
       <c r="H213" s="3"/>
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
-      <c r="K213" s="31"/>
+      <c r="K213" s="33"/>
     </row>
     <row r="214" spans="1:11">
       <c r="A214" s="3"/>
@@ -5053,7 +5090,7 @@
       <c r="H214" s="3"/>
       <c r="I214" s="3"/>
       <c r="J214" s="3"/>
-      <c r="K214" s="31"/>
+      <c r="K214" s="33"/>
     </row>
     <row r="215" spans="1:11">
       <c r="A215" s="3"/>
@@ -5065,7 +5102,7 @@
       <c r="H215" s="3"/>
       <c r="I215" s="3"/>
       <c r="J215" s="3"/>
-      <c r="K215" s="31"/>
+      <c r="K215" s="33"/>
     </row>
     <row r="216" spans="1:11">
       <c r="A216" s="3"/>
@@ -5077,7 +5114,7 @@
       <c r="H216" s="3"/>
       <c r="I216" s="3"/>
       <c r="J216" s="3"/>
-      <c r="K216" s="31"/>
+      <c r="K216" s="33"/>
     </row>
     <row r="217" spans="1:11">
       <c r="A217" s="3"/>
@@ -5089,7 +5126,7 @@
       <c r="H217" s="3"/>
       <c r="I217" s="3"/>
       <c r="J217" s="3"/>
-      <c r="K217" s="31"/>
+      <c r="K217" s="33"/>
     </row>
     <row r="218" spans="1:11">
       <c r="A218" s="3"/>
@@ -5101,7 +5138,7 @@
       <c r="H218" s="3"/>
       <c r="I218" s="3"/>
       <c r="J218" s="3"/>
-      <c r="K218" s="31"/>
+      <c r="K218" s="33"/>
     </row>
     <row r="219" spans="1:11">
       <c r="A219" s="3"/>
@@ -5113,7 +5150,7 @@
       <c r="H219" s="3"/>
       <c r="I219" s="3"/>
       <c r="J219" s="3"/>
-      <c r="K219" s="31"/>
+      <c r="K219" s="33"/>
     </row>
     <row r="220" spans="1:11">
       <c r="A220" s="3"/>
@@ -5125,7 +5162,7 @@
       <c r="H220" s="3"/>
       <c r="I220" s="3"/>
       <c r="J220" s="3"/>
-      <c r="K220" s="31"/>
+      <c r="K220" s="33"/>
     </row>
     <row r="221" spans="1:11">
       <c r="A221" s="3"/>
@@ -5137,7 +5174,7 @@
       <c r="H221" s="3"/>
       <c r="I221" s="3"/>
       <c r="J221" s="3"/>
-      <c r="K221" s="31"/>
+      <c r="K221" s="33"/>
     </row>
     <row r="222" spans="1:11">
       <c r="A222" s="3"/>
@@ -5149,7 +5186,7 @@
       <c r="H222" s="3"/>
       <c r="I222" s="3"/>
       <c r="J222" s="3"/>
-      <c r="K222" s="31"/>
+      <c r="K222" s="33"/>
     </row>
     <row r="223" spans="1:11">
       <c r="A223" s="3"/>
@@ -5161,7 +5198,7 @@
       <c r="H223" s="3"/>
       <c r="I223" s="3"/>
       <c r="J223" s="3"/>
-      <c r="K223" s="31"/>
+      <c r="K223" s="33"/>
     </row>
     <row r="224" spans="1:11">
       <c r="A224" s="3"/>
@@ -5173,7 +5210,7 @@
       <c r="H224" s="3"/>
       <c r="I224" s="3"/>
       <c r="J224" s="3"/>
-      <c r="K224" s="31"/>
+      <c r="K224" s="33"/>
     </row>
     <row r="225" spans="1:11">
       <c r="A225" s="3"/>
@@ -5185,7 +5222,7 @@
       <c r="H225" s="3"/>
       <c r="I225" s="3"/>
       <c r="J225" s="3"/>
-      <c r="K225" s="31"/>
+      <c r="K225" s="33"/>
     </row>
     <row r="226" spans="1:11">
       <c r="A226" s="3"/>
@@ -5197,7 +5234,7 @@
       <c r="H226" s="3"/>
       <c r="I226" s="3"/>
       <c r="J226" s="3"/>
-      <c r="K226" s="31"/>
+      <c r="K226" s="33"/>
     </row>
     <row r="227" spans="1:11">
       <c r="A227" s="3"/>
@@ -5209,7 +5246,7 @@
       <c r="H227" s="3"/>
       <c r="I227" s="3"/>
       <c r="J227" s="3"/>
-      <c r="K227" s="31"/>
+      <c r="K227" s="33"/>
     </row>
     <row r="228" spans="1:11">
       <c r="A228" s="3"/>
@@ -5221,7 +5258,7 @@
       <c r="H228" s="3"/>
       <c r="I228" s="3"/>
       <c r="J228" s="3"/>
-      <c r="K228" s="31"/>
+      <c r="K228" s="33"/>
     </row>
     <row r="229" spans="1:11">
       <c r="A229" s="3"/>
@@ -5233,7 +5270,7 @@
       <c r="H229" s="3"/>
       <c r="I229" s="3"/>
       <c r="J229" s="3"/>
-      <c r="K229" s="31"/>
+      <c r="K229" s="33"/>
     </row>
     <row r="230" spans="1:11">
       <c r="A230" s="3"/>
@@ -5245,7 +5282,7 @@
       <c r="H230" s="3"/>
       <c r="I230" s="3"/>
       <c r="J230" s="3"/>
-      <c r="K230" s="31"/>
+      <c r="K230" s="33"/>
     </row>
     <row r="231" spans="1:11">
       <c r="A231" s="3"/>
@@ -5257,7 +5294,7 @@
       <c r="H231" s="3"/>
       <c r="I231" s="3"/>
       <c r="J231" s="3"/>
-      <c r="K231" s="31"/>
+      <c r="K231" s="33"/>
     </row>
     <row r="232" spans="1:11">
       <c r="A232" s="3"/>
@@ -5269,7 +5306,7 @@
       <c r="H232" s="3"/>
       <c r="I232" s="3"/>
       <c r="J232" s="3"/>
-      <c r="K232" s="31"/>
+      <c r="K232" s="33"/>
     </row>
     <row r="233" spans="1:11">
       <c r="A233" s="3"/>
@@ -5281,7 +5318,7 @@
       <c r="H233" s="3"/>
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
-      <c r="K233" s="31"/>
+      <c r="K233" s="33"/>
     </row>
     <row r="234" spans="1:11">
       <c r="A234" s="3"/>
@@ -5293,7 +5330,7 @@
       <c r="H234" s="3"/>
       <c r="I234" s="3"/>
       <c r="J234" s="3"/>
-      <c r="K234" s="31"/>
+      <c r="K234" s="33"/>
     </row>
     <row r="235" spans="1:11">
       <c r="A235" s="3"/>
@@ -5305,7 +5342,7 @@
       <c r="H235" s="3"/>
       <c r="I235" s="3"/>
       <c r="J235" s="3"/>
-      <c r="K235" s="31"/>
+      <c r="K235" s="33"/>
     </row>
     <row r="236" spans="1:11">
       <c r="A236" s="3"/>
@@ -5317,7 +5354,7 @@
       <c r="H236" s="3"/>
       <c r="I236" s="3"/>
       <c r="J236" s="3"/>
-      <c r="K236" s="31"/>
+      <c r="K236" s="33"/>
     </row>
     <row r="237" spans="1:11">
       <c r="A237" s="3"/>
@@ -5329,7 +5366,7 @@
       <c r="H237" s="3"/>
       <c r="I237" s="3"/>
       <c r="J237" s="3"/>
-      <c r="K237" s="31"/>
+      <c r="K237" s="33"/>
     </row>
     <row r="238" spans="1:11">
       <c r="A238" s="3"/>
@@ -5341,7 +5378,7 @@
       <c r="H238" s="3"/>
       <c r="I238" s="3"/>
       <c r="J238" s="3"/>
-      <c r="K238" s="31"/>
+      <c r="K238" s="33"/>
     </row>
     <row r="239" spans="1:11">
       <c r="A239" s="3"/>
@@ -5353,7 +5390,7 @@
       <c r="H239" s="3"/>
       <c r="I239" s="3"/>
       <c r="J239" s="3"/>
-      <c r="K239" s="31"/>
+      <c r="K239" s="33"/>
     </row>
     <row r="240" spans="1:11">
       <c r="A240" s="3"/>
@@ -5365,7 +5402,7 @@
       <c r="H240" s="3"/>
       <c r="I240" s="3"/>
       <c r="J240" s="3"/>
-      <c r="K240" s="31"/>
+      <c r="K240" s="33"/>
     </row>
     <row r="241" spans="1:11">
       <c r="A241" s="3"/>
@@ -5377,7 +5414,7 @@
       <c r="H241" s="3"/>
       <c r="I241" s="3"/>
       <c r="J241" s="3"/>
-      <c r="K241" s="31"/>
+      <c r="K241" s="33"/>
     </row>
     <row r="242" spans="1:11">
       <c r="A242" s="3"/>
@@ -5389,7 +5426,7 @@
       <c r="H242" s="3"/>
       <c r="I242" s="3"/>
       <c r="J242" s="3"/>
-      <c r="K242" s="31"/>
+      <c r="K242" s="33"/>
     </row>
     <row r="243" spans="1:11">
       <c r="A243" s="3"/>
@@ -5401,7 +5438,7 @@
       <c r="H243" s="3"/>
       <c r="I243" s="3"/>
       <c r="J243" s="3"/>
-      <c r="K243" s="31"/>
+      <c r="K243" s="33"/>
     </row>
     <row r="244" spans="1:11">
       <c r="A244" s="3"/>
@@ -5413,7 +5450,7 @@
       <c r="H244" s="3"/>
       <c r="I244" s="3"/>
       <c r="J244" s="3"/>
-      <c r="K244" s="31"/>
+      <c r="K244" s="33"/>
     </row>
     <row r="245" spans="1:11">
       <c r="A245" s="3"/>
@@ -5425,7 +5462,7 @@
       <c r="H245" s="3"/>
       <c r="I245" s="3"/>
       <c r="J245" s="3"/>
-      <c r="K245" s="31"/>
+      <c r="K245" s="33"/>
     </row>
     <row r="246" spans="1:11">
       <c r="A246" s="3"/>
@@ -5437,7 +5474,7 @@
       <c r="H246" s="3"/>
       <c r="I246" s="3"/>
       <c r="J246" s="3"/>
-      <c r="K246" s="31"/>
+      <c r="K246" s="33"/>
     </row>
     <row r="247" spans="1:11">
       <c r="A247" s="3"/>
@@ -5449,7 +5486,7 @@
       <c r="H247" s="3"/>
       <c r="I247" s="3"/>
       <c r="J247" s="3"/>
-      <c r="K247" s="31"/>
+      <c r="K247" s="33"/>
     </row>
     <row r="248" spans="1:11">
       <c r="A248" s="3"/>
@@ -5461,7 +5498,7 @@
       <c r="H248" s="3"/>
       <c r="I248" s="3"/>
       <c r="J248" s="3"/>
-      <c r="K248" s="31"/>
+      <c r="K248" s="33"/>
     </row>
     <row r="249" spans="1:11">
       <c r="A249" s="3"/>
@@ -5473,7 +5510,7 @@
       <c r="H249" s="3"/>
       <c r="I249" s="3"/>
       <c r="J249" s="3"/>
-      <c r="K249" s="31"/>
+      <c r="K249" s="33"/>
     </row>
     <row r="250" spans="1:11">
       <c r="A250" s="3"/>
@@ -5485,7 +5522,7 @@
       <c r="H250" s="3"/>
       <c r="I250" s="3"/>
       <c r="J250" s="3"/>
-      <c r="K250" s="31"/>
+      <c r="K250" s="33"/>
     </row>
     <row r="251" spans="1:11">
       <c r="A251" s="3"/>
@@ -5497,7 +5534,7 @@
       <c r="H251" s="3"/>
       <c r="I251" s="3"/>
       <c r="J251" s="3"/>
-      <c r="K251" s="31"/>
+      <c r="K251" s="33"/>
     </row>
     <row r="252" spans="1:11">
       <c r="A252" s="3"/>
@@ -5509,7 +5546,7 @@
       <c r="H252" s="3"/>
       <c r="I252" s="3"/>
       <c r="J252" s="3"/>
-      <c r="K252" s="31"/>
+      <c r="K252" s="33"/>
     </row>
     <row r="253" spans="1:11">
       <c r="A253" s="3"/>
@@ -5521,7 +5558,7 @@
       <c r="H253" s="3"/>
       <c r="I253" s="3"/>
       <c r="J253" s="3"/>
-      <c r="K253" s="31"/>
+      <c r="K253" s="33"/>
     </row>
     <row r="254" spans="1:11">
       <c r="A254" s="3"/>
@@ -5533,7 +5570,7 @@
       <c r="H254" s="3"/>
       <c r="I254" s="3"/>
       <c r="J254" s="3"/>
-      <c r="K254" s="31"/>
+      <c r="K254" s="33"/>
     </row>
     <row r="255" spans="1:11">
       <c r="A255" s="3"/>
@@ -5545,7 +5582,7 @@
       <c r="H255" s="3"/>
       <c r="I255" s="3"/>
       <c r="J255" s="3"/>
-      <c r="K255" s="31"/>
+      <c r="K255" s="33"/>
     </row>
     <row r="256" spans="1:11">
       <c r="A256" s="3"/>
@@ -5557,7 +5594,7 @@
       <c r="H256" s="3"/>
       <c r="I256" s="3"/>
       <c r="J256" s="3"/>
-      <c r="K256" s="31"/>
+      <c r="K256" s="33"/>
     </row>
     <row r="257" spans="1:11">
       <c r="A257" s="3"/>
@@ -5569,7 +5606,7 @@
       <c r="H257" s="3"/>
       <c r="I257" s="3"/>
       <c r="J257" s="3"/>
-      <c r="K257" s="31"/>
+      <c r="K257" s="33"/>
     </row>
     <row r="258" spans="1:11">
       <c r="A258" s="3"/>
@@ -5581,7 +5618,7 @@
       <c r="H258" s="3"/>
       <c r="I258" s="3"/>
       <c r="J258" s="3"/>
-      <c r="K258" s="31"/>
+      <c r="K258" s="33"/>
     </row>
     <row r="259" spans="1:11">
       <c r="A259" s="3"/>
@@ -5593,7 +5630,7 @@
       <c r="H259" s="3"/>
       <c r="I259" s="3"/>
       <c r="J259" s="3"/>
-      <c r="K259" s="31"/>
+      <c r="K259" s="33"/>
     </row>
     <row r="260" spans="1:11">
       <c r="A260" s="3"/>
@@ -5605,7 +5642,7 @@
       <c r="H260" s="3"/>
       <c r="I260" s="3"/>
       <c r="J260" s="3"/>
-      <c r="K260" s="31"/>
+      <c r="K260" s="33"/>
     </row>
     <row r="261" spans="1:11">
       <c r="A261" s="3"/>
@@ -5617,7 +5654,7 @@
       <c r="H261" s="3"/>
       <c r="I261" s="3"/>
       <c r="J261" s="3"/>
-      <c r="K261" s="31"/>
+      <c r="K261" s="33"/>
     </row>
     <row r="262" spans="1:11">
       <c r="A262" s="3"/>
@@ -5629,7 +5666,7 @@
       <c r="H262" s="3"/>
       <c r="I262" s="3"/>
       <c r="J262" s="3"/>
-      <c r="K262" s="31"/>
+      <c r="K262" s="33"/>
     </row>
     <row r="263" spans="1:11">
       <c r="A263" s="3"/>
@@ -5641,7 +5678,7 @@
       <c r="H263" s="3"/>
       <c r="I263" s="3"/>
       <c r="J263" s="3"/>
-      <c r="K263" s="31"/>
+      <c r="K263" s="33"/>
     </row>
     <row r="264" spans="1:11">
       <c r="A264" s="3"/>
@@ -5653,7 +5690,7 @@
       <c r="H264" s="3"/>
       <c r="I264" s="3"/>
       <c r="J264" s="3"/>
-      <c r="K264" s="31"/>
+      <c r="K264" s="33"/>
     </row>
     <row r="265" spans="1:11">
       <c r="A265" s="3"/>
@@ -5665,7 +5702,7 @@
       <c r="H265" s="3"/>
       <c r="I265" s="3"/>
       <c r="J265" s="3"/>
-      <c r="K265" s="31"/>
+      <c r="K265" s="33"/>
     </row>
     <row r="266" spans="1:11">
       <c r="A266" s="3"/>
@@ -5677,7 +5714,7 @@
       <c r="H266" s="3"/>
       <c r="I266" s="3"/>
       <c r="J266" s="3"/>
-      <c r="K266" s="31"/>
+      <c r="K266" s="33"/>
     </row>
     <row r="267" spans="1:11">
       <c r="A267" s="3"/>
@@ -5689,7 +5726,7 @@
       <c r="H267" s="3"/>
       <c r="I267" s="3"/>
       <c r="J267" s="3"/>
-      <c r="K267" s="31"/>
+      <c r="K267" s="33"/>
     </row>
     <row r="268" spans="1:11">
       <c r="A268" s="3"/>
@@ -5701,7 +5738,7 @@
       <c r="H268" s="3"/>
       <c r="I268" s="3"/>
       <c r="J268" s="3"/>
-      <c r="K268" s="31"/>
+      <c r="K268" s="33"/>
     </row>
     <row r="269" spans="1:11">
       <c r="A269" s="3"/>
@@ -5713,7 +5750,7 @@
       <c r="H269" s="3"/>
       <c r="I269" s="3"/>
       <c r="J269" s="3"/>
-      <c r="K269" s="31"/>
+      <c r="K269" s="33"/>
     </row>
     <row r="270" spans="1:11">
       <c r="A270" s="3"/>
@@ -5725,7 +5762,7 @@
       <c r="H270" s="3"/>
       <c r="I270" s="3"/>
       <c r="J270" s="3"/>
-      <c r="K270" s="31"/>
+      <c r="K270" s="33"/>
     </row>
     <row r="271" spans="1:11">
       <c r="A271" s="3"/>
@@ -5737,7 +5774,7 @@
       <c r="H271" s="3"/>
       <c r="I271" s="3"/>
       <c r="J271" s="3"/>
-      <c r="K271" s="31"/>
+      <c r="K271" s="33"/>
     </row>
     <row r="272" spans="1:11">
       <c r="A272" s="3"/>
@@ -5749,7 +5786,7 @@
       <c r="H272" s="3"/>
       <c r="I272" s="3"/>
       <c r="J272" s="3"/>
-      <c r="K272" s="31"/>
+      <c r="K272" s="33"/>
     </row>
     <row r="273" spans="1:11">
       <c r="A273" s="3"/>
@@ -5761,7 +5798,7 @@
       <c r="H273" s="3"/>
       <c r="I273" s="3"/>
       <c r="J273" s="3"/>
-      <c r="K273" s="31"/>
+      <c r="K273" s="33"/>
     </row>
     <row r="274" spans="1:11">
       <c r="A274" s="3"/>
@@ -5773,7 +5810,7 @@
       <c r="H274" s="3"/>
       <c r="I274" s="3"/>
       <c r="J274" s="3"/>
-      <c r="K274" s="31"/>
+      <c r="K274" s="33"/>
     </row>
     <row r="275" spans="1:11">
       <c r="A275" s="3"/>
@@ -5785,7 +5822,7 @@
       <c r="H275" s="3"/>
       <c r="I275" s="3"/>
       <c r="J275" s="3"/>
-      <c r="K275" s="31"/>
+      <c r="K275" s="33"/>
     </row>
     <row r="276" spans="1:11">
       <c r="A276" s="3"/>
@@ -5797,7 +5834,7 @@
       <c r="H276" s="3"/>
       <c r="I276" s="3"/>
       <c r="J276" s="3"/>
-      <c r="K276" s="31"/>
+      <c r="K276" s="33"/>
     </row>
     <row r="277" spans="1:11">
       <c r="A277" s="3"/>
@@ -5809,7 +5846,7 @@
       <c r="H277" s="3"/>
       <c r="I277" s="3"/>
       <c r="J277" s="3"/>
-      <c r="K277" s="31"/>
+      <c r="K277" s="33"/>
     </row>
     <row r="278" spans="1:11">
       <c r="A278" s="3"/>
@@ -5821,7 +5858,7 @@
       <c r="H278" s="3"/>
       <c r="I278" s="3"/>
       <c r="J278" s="3"/>
-      <c r="K278" s="31"/>
+      <c r="K278" s="33"/>
     </row>
     <row r="279" spans="1:11">
       <c r="A279" s="3"/>
@@ -5833,7 +5870,7 @@
       <c r="H279" s="3"/>
       <c r="I279" s="3"/>
       <c r="J279" s="3"/>
-      <c r="K279" s="31"/>
+      <c r="K279" s="33"/>
     </row>
     <row r="280" spans="1:11">
       <c r="A280" s="3"/>
@@ -5845,7 +5882,7 @@
       <c r="H280" s="3"/>
       <c r="I280" s="3"/>
       <c r="J280" s="3"/>
-      <c r="K280" s="31"/>
+      <c r="K280" s="33"/>
     </row>
     <row r="281" spans="1:11">
       <c r="A281" s="3"/>
@@ -5857,7 +5894,7 @@
       <c r="H281" s="3"/>
       <c r="I281" s="3"/>
       <c r="J281" s="3"/>
-      <c r="K281" s="31"/>
+      <c r="K281" s="33"/>
     </row>
     <row r="282" spans="1:11">
       <c r="A282" s="3"/>
@@ -5869,7 +5906,7 @@
       <c r="H282" s="3"/>
       <c r="I282" s="3"/>
       <c r="J282" s="3"/>
-      <c r="K282" s="31"/>
+      <c r="K282" s="33"/>
     </row>
     <row r="283" spans="1:11">
       <c r="A283" s="3"/>
@@ -5881,7 +5918,7 @@
       <c r="H283" s="3"/>
       <c r="I283" s="3"/>
       <c r="J283" s="3"/>
-      <c r="K283" s="31"/>
+      <c r="K283" s="33"/>
     </row>
     <row r="284" spans="1:11">
       <c r="A284" s="3"/>
@@ -5893,7 +5930,7 @@
       <c r="H284" s="3"/>
       <c r="I284" s="3"/>
       <c r="J284" s="3"/>
-      <c r="K284" s="31"/>
+      <c r="K284" s="33"/>
     </row>
     <row r="285" spans="1:11">
       <c r="A285" s="3"/>
@@ -5905,7 +5942,7 @@
       <c r="H285" s="3"/>
       <c r="I285" s="3"/>
       <c r="J285" s="3"/>
-      <c r="K285" s="31"/>
+      <c r="K285" s="33"/>
     </row>
     <row r="286" spans="1:11">
       <c r="A286" s="3"/>
@@ -5917,7 +5954,7 @@
       <c r="H286" s="3"/>
       <c r="I286" s="3"/>
       <c r="J286" s="3"/>
-      <c r="K286" s="31"/>
+      <c r="K286" s="33"/>
     </row>
     <row r="287" spans="1:11">
       <c r="A287" s="3"/>
@@ -5929,7 +5966,7 @@
       <c r="H287" s="3"/>
       <c r="I287" s="3"/>
       <c r="J287" s="3"/>
-      <c r="K287" s="31"/>
+      <c r="K287" s="33"/>
     </row>
     <row r="288" spans="1:11">
       <c r="A288" s="3"/>
@@ -5941,7 +5978,7 @@
       <c r="H288" s="3"/>
       <c r="I288" s="3"/>
       <c r="J288" s="3"/>
-      <c r="K288" s="31"/>
+      <c r="K288" s="33"/>
     </row>
     <row r="289" spans="1:11">
       <c r="A289" s="3"/>
@@ -5953,7 +5990,7 @@
       <c r="H289" s="3"/>
       <c r="I289" s="3"/>
       <c r="J289" s="3"/>
-      <c r="K289" s="31"/>
+      <c r="K289" s="33"/>
     </row>
     <row r="290" spans="1:11">
       <c r="A290" s="3"/>
@@ -5965,7 +6002,7 @@
       <c r="H290" s="3"/>
       <c r="I290" s="3"/>
       <c r="J290" s="3"/>
-      <c r="K290" s="31"/>
+      <c r="K290" s="33"/>
     </row>
     <row r="291" spans="1:11">
       <c r="A291" s="3"/>
@@ -5977,7 +6014,7 @@
       <c r="H291" s="3"/>
       <c r="I291" s="3"/>
       <c r="J291" s="3"/>
-      <c r="K291" s="31"/>
+      <c r="K291" s="33"/>
     </row>
     <row r="292" spans="1:11">
       <c r="A292" s="3"/>
@@ -5989,7 +6026,7 @@
       <c r="H292" s="3"/>
       <c r="I292" s="3"/>
       <c r="J292" s="3"/>
-      <c r="K292" s="31"/>
+      <c r="K292" s="33"/>
     </row>
     <row r="293" spans="1:11">
       <c r="A293" s="3"/>
@@ -6001,7 +6038,7 @@
       <c r="H293" s="3"/>
       <c r="I293" s="3"/>
       <c r="J293" s="3"/>
-      <c r="K293" s="31"/>
+      <c r="K293" s="33"/>
     </row>
     <row r="294" spans="1:11">
       <c r="A294" s="3"/>
@@ -6013,7 +6050,7 @@
       <c r="H294" s="3"/>
       <c r="I294" s="3"/>
       <c r="J294" s="3"/>
-      <c r="K294" s="31"/>
+      <c r="K294" s="33"/>
     </row>
     <row r="295" spans="1:11">
       <c r="A295" s="3"/>
@@ -6025,7 +6062,7 @@
       <c r="H295" s="3"/>
       <c r="I295" s="3"/>
       <c r="J295" s="3"/>
-      <c r="K295" s="31"/>
+      <c r="K295" s="33"/>
     </row>
     <row r="296" spans="1:11">
       <c r="A296" s="3"/>
@@ -6037,7 +6074,7 @@
       <c r="H296" s="3"/>
       <c r="I296" s="3"/>
       <c r="J296" s="3"/>
-      <c r="K296" s="31"/>
+      <c r="K296" s="33"/>
     </row>
     <row r="297" spans="1:11">
       <c r="A297" s="3"/>
@@ -6049,7 +6086,7 @@
       <c r="H297" s="3"/>
       <c r="I297" s="3"/>
       <c r="J297" s="3"/>
-      <c r="K297" s="31"/>
+      <c r="K297" s="33"/>
     </row>
     <row r="298" spans="1:11">
       <c r="A298" s="3"/>
@@ -6061,7 +6098,7 @@
       <c r="H298" s="3"/>
       <c r="I298" s="3"/>
       <c r="J298" s="3"/>
-      <c r="K298" s="31"/>
+      <c r="K298" s="33"/>
     </row>
     <row r="299" spans="1:11">
       <c r="A299" s="3"/>
@@ -6073,7 +6110,7 @@
       <c r="H299" s="3"/>
       <c r="I299" s="3"/>
       <c r="J299" s="3"/>
-      <c r="K299" s="31"/>
+      <c r="K299" s="33"/>
     </row>
     <row r="300" spans="1:11">
       <c r="A300" s="3"/>
@@ -6085,7 +6122,7 @@
       <c r="H300" s="3"/>
       <c r="I300" s="3"/>
       <c r="J300" s="3"/>
-      <c r="K300" s="31"/>
+      <c r="K300" s="33"/>
     </row>
     <row r="301" spans="1:11">
       <c r="A301" s="3"/>
@@ -6097,7 +6134,7 @@
       <c r="H301" s="3"/>
       <c r="I301" s="3"/>
       <c r="J301" s="3"/>
-      <c r="K301" s="31"/>
+      <c r="K301" s="33"/>
     </row>
     <row r="302" spans="1:11">
       <c r="A302" s="3"/>
@@ -6109,7 +6146,7 @@
       <c r="H302" s="3"/>
       <c r="I302" s="3"/>
       <c r="J302" s="3"/>
-      <c r="K302" s="31"/>
+      <c r="K302" s="33"/>
     </row>
     <row r="303" spans="1:11">
       <c r="A303" s="3"/>
@@ -6121,7 +6158,7 @@
       <c r="H303" s="3"/>
       <c r="I303" s="3"/>
       <c r="J303" s="3"/>
-      <c r="K303" s="31"/>
+      <c r="K303" s="33"/>
     </row>
     <row r="304" spans="1:11">
       <c r="A304" s="3"/>
@@ -6133,7 +6170,7 @@
       <c r="H304" s="3"/>
       <c r="I304" s="3"/>
       <c r="J304" s="3"/>
-      <c r="K304" s="31"/>
+      <c r="K304" s="33"/>
     </row>
     <row r="305" spans="1:11">
       <c r="A305" s="3"/>
@@ -6145,7 +6182,7 @@
       <c r="H305" s="3"/>
       <c r="I305" s="3"/>
       <c r="J305" s="3"/>
-      <c r="K305" s="31"/>
+      <c r="K305" s="33"/>
     </row>
     <row r="306" spans="1:11">
       <c r="A306" s="3"/>
@@ -6157,7 +6194,7 @@
       <c r="H306" s="3"/>
       <c r="I306" s="3"/>
       <c r="J306" s="3"/>
-      <c r="K306" s="31"/>
+      <c r="K306" s="33"/>
     </row>
     <row r="307" spans="1:11">
       <c r="A307" s="3"/>
@@ -6169,7 +6206,7 @@
       <c r="H307" s="3"/>
       <c r="I307" s="3"/>
       <c r="J307" s="3"/>
-      <c r="K307" s="31"/>
+      <c r="K307" s="33"/>
     </row>
     <row r="308" spans="1:11">
       <c r="A308" s="3"/>
@@ -6181,7 +6218,7 @@
       <c r="H308" s="3"/>
       <c r="I308" s="3"/>
       <c r="J308" s="3"/>
-      <c r="K308" s="31"/>
+      <c r="K308" s="33"/>
     </row>
     <row r="309" spans="1:11">
       <c r="A309" s="3"/>
@@ -6193,7 +6230,7 @@
       <c r="H309" s="3"/>
       <c r="I309" s="3"/>
       <c r="J309" s="3"/>
-      <c r="K309" s="31"/>
+      <c r="K309" s="33"/>
     </row>
     <row r="310" spans="1:11">
       <c r="A310" s="3"/>
@@ -6205,7 +6242,7 @@
       <c r="H310" s="3"/>
       <c r="I310" s="3"/>
       <c r="J310" s="3"/>
-      <c r="K310" s="31"/>
+      <c r="K310" s="33"/>
     </row>
     <row r="311" spans="1:11">
       <c r="A311" s="3"/>
@@ -6217,7 +6254,7 @@
       <c r="H311" s="3"/>
       <c r="I311" s="3"/>
       <c r="J311" s="3"/>
-      <c r="K311" s="31"/>
+      <c r="K311" s="33"/>
     </row>
     <row r="312" spans="1:11">
       <c r="A312" s="3"/>
@@ -6229,7 +6266,7 @@
       <c r="H312" s="3"/>
       <c r="I312" s="3"/>
       <c r="J312" s="3"/>
-      <c r="K312" s="31"/>
+      <c r="K312" s="33"/>
     </row>
     <row r="313" spans="1:11">
       <c r="A313" s="3"/>
@@ -6241,7 +6278,7 @@
       <c r="H313" s="3"/>
       <c r="I313" s="3"/>
       <c r="J313" s="3"/>
-      <c r="K313" s="31"/>
+      <c r="K313" s="33"/>
     </row>
     <row r="314" spans="1:11">
       <c r="A314" s="3"/>
@@ -6253,7 +6290,7 @@
       <c r="H314" s="3"/>
       <c r="I314" s="3"/>
       <c r="J314" s="3"/>
-      <c r="K314" s="31"/>
+      <c r="K314" s="33"/>
     </row>
     <row r="315" spans="1:11">
       <c r="A315" s="3"/>
@@ -6265,7 +6302,7 @@
       <c r="H315" s="3"/>
       <c r="I315" s="3"/>
       <c r="J315" s="3"/>
-      <c r="K315" s="31"/>
+      <c r="K315" s="33"/>
     </row>
     <row r="316" spans="1:11">
       <c r="A316" s="3"/>
@@ -6277,7 +6314,7 @@
       <c r="H316" s="3"/>
       <c r="I316" s="3"/>
       <c r="J316" s="3"/>
-      <c r="K316" s="31"/>
+      <c r="K316" s="33"/>
     </row>
     <row r="317" spans="1:11">
       <c r="A317" s="3"/>
@@ -6289,7 +6326,7 @@
       <c r="H317" s="3"/>
       <c r="I317" s="3"/>
       <c r="J317" s="3"/>
-      <c r="K317" s="31"/>
+      <c r="K317" s="33"/>
     </row>
     <row r="318" spans="1:11">
       <c r="A318" s="3"/>
@@ -6301,7 +6338,7 @@
       <c r="H318" s="3"/>
       <c r="I318" s="3"/>
       <c r="J318" s="3"/>
-      <c r="K318" s="31"/>
+      <c r="K318" s="33"/>
     </row>
     <row r="319" spans="1:11">
       <c r="A319" s="3"/>
@@ -6313,7 +6350,7 @@
       <c r="H319" s="3"/>
       <c r="I319" s="3"/>
       <c r="J319" s="3"/>
-      <c r="K319" s="31"/>
+      <c r="K319" s="33"/>
     </row>
     <row r="320" spans="1:11">
       <c r="A320" s="3"/>
@@ -6325,7 +6362,7 @@
       <c r="H320" s="3"/>
       <c r="I320" s="3"/>
       <c r="J320" s="3"/>
-      <c r="K320" s="31"/>
+      <c r="K320" s="33"/>
     </row>
     <row r="321" spans="1:11">
       <c r="A321" s="3"/>
@@ -6337,7 +6374,7 @@
       <c r="H321" s="3"/>
       <c r="I321" s="3"/>
       <c r="J321" s="3"/>
-      <c r="K321" s="31"/>
+      <c r="K321" s="33"/>
     </row>
     <row r="322" spans="1:11">
       <c r="A322" s="3"/>
@@ -6349,7 +6386,7 @@
       <c r="H322" s="3"/>
       <c r="I322" s="3"/>
       <c r="J322" s="3"/>
-      <c r="K322" s="31"/>
+      <c r="K322" s="33"/>
     </row>
     <row r="323" spans="1:11">
       <c r="A323" s="3"/>
@@ -6361,7 +6398,7 @@
       <c r="H323" s="3"/>
       <c r="I323" s="3"/>
       <c r="J323" s="3"/>
-      <c r="K323" s="31"/>
+      <c r="K323" s="33"/>
     </row>
     <row r="324" spans="1:11">
       <c r="A324" s="3"/>
@@ -6373,7 +6410,7 @@
       <c r="H324" s="3"/>
       <c r="I324" s="3"/>
       <c r="J324" s="3"/>
-      <c r="K324" s="31"/>
+      <c r="K324" s="33"/>
     </row>
     <row r="325" spans="1:11">
       <c r="A325" s="3"/>
@@ -6385,7 +6422,7 @@
       <c r="H325" s="3"/>
       <c r="I325" s="3"/>
       <c r="J325" s="3"/>
-      <c r="K325" s="31"/>
+      <c r="K325" s="33"/>
     </row>
     <row r="326" spans="1:11">
       <c r="A326" s="3"/>
@@ -6397,7 +6434,7 @@
       <c r="H326" s="3"/>
       <c r="I326" s="3"/>
       <c r="J326" s="3"/>
-      <c r="K326" s="31"/>
+      <c r="K326" s="33"/>
     </row>
     <row r="327" spans="1:11">
       <c r="A327" s="3"/>
@@ -6409,7 +6446,7 @@
       <c r="H327" s="3"/>
       <c r="I327" s="3"/>
       <c r="J327" s="3"/>
-      <c r="K327" s="31"/>
+      <c r="K327" s="33"/>
     </row>
     <row r="328" spans="1:11">
       <c r="A328" s="3"/>
@@ -6421,7 +6458,7 @@
       <c r="H328" s="3"/>
       <c r="I328" s="3"/>
       <c r="J328" s="3"/>
-      <c r="K328" s="31"/>
+      <c r="K328" s="33"/>
     </row>
     <row r="329" spans="1:11">
       <c r="A329" s="3"/>
@@ -6433,7 +6470,7 @@
       <c r="H329" s="3"/>
       <c r="I329" s="3"/>
       <c r="J329" s="3"/>
-      <c r="K329" s="31"/>
+      <c r="K329" s="33"/>
     </row>
     <row r="330" spans="1:11">
       <c r="A330" s="3"/>
@@ -6445,7 +6482,7 @@
       <c r="H330" s="3"/>
       <c r="I330" s="3"/>
       <c r="J330" s="3"/>
-      <c r="K330" s="31"/>
+      <c r="K330" s="33"/>
     </row>
     <row r="331" spans="1:11">
       <c r="A331" s="3"/>
@@ -6457,7 +6494,7 @@
       <c r="H331" s="3"/>
       <c r="I331" s="3"/>
       <c r="J331" s="3"/>
-      <c r="K331" s="31"/>
+      <c r="K331" s="33"/>
     </row>
     <row r="332" spans="1:11">
       <c r="A332" s="3"/>
@@ -6469,7 +6506,7 @@
       <c r="H332" s="3"/>
       <c r="I332" s="3"/>
       <c r="J332" s="3"/>
-      <c r="K332" s="31"/>
+      <c r="K332" s="33"/>
     </row>
     <row r="333" spans="1:11">
       <c r="A333" s="3"/>
@@ -6481,7 +6518,7 @@
       <c r="H333" s="3"/>
       <c r="I333" s="3"/>
       <c r="J333" s="3"/>
-      <c r="K333" s="31"/>
+      <c r="K333" s="33"/>
     </row>
     <row r="334" spans="1:11">
       <c r="A334" s="3"/>
@@ -6493,7 +6530,7 @@
       <c r="H334" s="3"/>
       <c r="I334" s="3"/>
       <c r="J334" s="3"/>
-      <c r="K334" s="31"/>
+      <c r="K334" s="33"/>
     </row>
     <row r="335" spans="1:11">
       <c r="A335" s="3"/>
@@ -6505,7 +6542,7 @@
       <c r="H335" s="3"/>
       <c r="I335" s="3"/>
       <c r="J335" s="3"/>
-      <c r="K335" s="31"/>
+      <c r="K335" s="33"/>
     </row>
     <row r="336" spans="1:11">
       <c r="A336" s="3"/>
@@ -6517,7 +6554,7 @@
       <c r="H336" s="3"/>
       <c r="I336" s="3"/>
       <c r="J336" s="3"/>
-      <c r="K336" s="31"/>
+      <c r="K336" s="33"/>
     </row>
     <row r="337" spans="1:11">
       <c r="A337" s="3"/>
@@ -6529,7 +6566,7 @@
       <c r="H337" s="3"/>
       <c r="I337" s="3"/>
       <c r="J337" s="3"/>
-      <c r="K337" s="31"/>
+      <c r="K337" s="33"/>
     </row>
     <row r="338" spans="1:11">
       <c r="A338" s="3"/>
@@ -6541,7 +6578,7 @@
       <c r="H338" s="3"/>
       <c r="I338" s="3"/>
       <c r="J338" s="3"/>
-      <c r="K338" s="31"/>
+      <c r="K338" s="33"/>
     </row>
     <row r="339" spans="1:11">
       <c r="A339" s="3"/>
@@ -6553,7 +6590,7 @@
       <c r="H339" s="3"/>
       <c r="I339" s="3"/>
       <c r="J339" s="3"/>
-      <c r="K339" s="31"/>
+      <c r="K339" s="33"/>
     </row>
     <row r="340" spans="1:11">
       <c r="A340" s="3"/>
@@ -6565,7 +6602,7 @@
       <c r="H340" s="3"/>
       <c r="I340" s="3"/>
       <c r="J340" s="3"/>
-      <c r="K340" s="31"/>
+      <c r="K340" s="33"/>
     </row>
     <row r="341" spans="1:11">
       <c r="A341" s="3"/>
@@ -6577,7 +6614,7 @@
       <c r="H341" s="3"/>
       <c r="I341" s="3"/>
       <c r="J341" s="3"/>
-      <c r="K341" s="31"/>
+      <c r="K341" s="33"/>
     </row>
     <row r="342" spans="1:11">
       <c r="A342" s="3"/>
@@ -6589,7 +6626,7 @@
       <c r="H342" s="3"/>
       <c r="I342" s="3"/>
       <c r="J342" s="3"/>
-      <c r="K342" s="31"/>
+      <c r="K342" s="33"/>
     </row>
     <row r="343" spans="1:11">
       <c r="A343" s="3"/>
@@ -6601,7 +6638,7 @@
       <c r="H343" s="3"/>
       <c r="I343" s="3"/>
       <c r="J343" s="3"/>
-      <c r="K343" s="31"/>
+      <c r="K343" s="33"/>
     </row>
     <row r="344" spans="1:11">
       <c r="A344" s="3"/>
@@ -6613,7 +6650,7 @@
       <c r="H344" s="3"/>
       <c r="I344" s="3"/>
       <c r="J344" s="3"/>
-      <c r="K344" s="31"/>
+      <c r="K344" s="33"/>
     </row>
     <row r="345" spans="1:11">
       <c r="A345" s="3"/>
@@ -6625,7 +6662,7 @@
       <c r="H345" s="3"/>
       <c r="I345" s="3"/>
       <c r="J345" s="3"/>
-      <c r="K345" s="31"/>
+      <c r="K345" s="33"/>
     </row>
     <row r="346" spans="1:11">
       <c r="A346" s="3"/>
@@ -6637,7 +6674,7 @@
       <c r="H346" s="3"/>
       <c r="I346" s="3"/>
       <c r="J346" s="3"/>
-      <c r="K346" s="31"/>
+      <c r="K346" s="33"/>
     </row>
     <row r="347" spans="1:11">
       <c r="A347" s="3"/>
@@ -6649,7 +6686,7 @@
       <c r="H347" s="3"/>
       <c r="I347" s="3"/>
       <c r="J347" s="3"/>
-      <c r="K347" s="31"/>
+      <c r="K347" s="33"/>
     </row>
     <row r="348" spans="1:11">
       <c r="A348" s="3"/>
@@ -6661,7 +6698,7 @@
       <c r="H348" s="3"/>
       <c r="I348" s="3"/>
       <c r="J348" s="3"/>
-      <c r="K348" s="31"/>
+      <c r="K348" s="33"/>
     </row>
     <row r="349" spans="1:11">
       <c r="A349" s="3"/>
@@ -6673,7 +6710,7 @@
       <c r="H349" s="3"/>
       <c r="I349" s="3"/>
       <c r="J349" s="3"/>
-      <c r="K349" s="31"/>
+      <c r="K349" s="33"/>
     </row>
     <row r="350" spans="1:11">
       <c r="A350" s="3"/>
@@ -6685,7 +6722,7 @@
       <c r="H350" s="3"/>
       <c r="I350" s="3"/>
       <c r="J350" s="3"/>
-      <c r="K350" s="31"/>
+      <c r="K350" s="33"/>
     </row>
     <row r="351" spans="1:11">
       <c r="A351" s="3"/>
@@ -6697,7 +6734,7 @@
       <c r="H351" s="3"/>
       <c r="I351" s="3"/>
       <c r="J351" s="3"/>
-      <c r="K351" s="31"/>
+      <c r="K351" s="33"/>
     </row>
     <row r="352" spans="1:11">
       <c r="A352" s="3"/>
@@ -6709,7 +6746,7 @@
       <c r="H352" s="3"/>
       <c r="I352" s="3"/>
       <c r="J352" s="3"/>
-      <c r="K352" s="31"/>
+      <c r="K352" s="33"/>
     </row>
     <row r="353" spans="1:11">
       <c r="A353" s="3"/>
@@ -6721,7 +6758,7 @@
       <c r="H353" s="3"/>
       <c r="I353" s="3"/>
       <c r="J353" s="3"/>
-      <c r="K353" s="31"/>
+      <c r="K353" s="33"/>
     </row>
     <row r="354" spans="1:11">
       <c r="A354" s="3"/>
@@ -6733,7 +6770,7 @@
       <c r="H354" s="3"/>
       <c r="I354" s="3"/>
       <c r="J354" s="3"/>
-      <c r="K354" s="31"/>
+      <c r="K354" s="33"/>
     </row>
     <row r="355" spans="1:11">
       <c r="A355" s="3"/>
@@ -6745,7 +6782,7 @@
       <c r="H355" s="3"/>
       <c r="I355" s="3"/>
       <c r="J355" s="3"/>
-      <c r="K355" s="31"/>
+      <c r="K355" s="33"/>
     </row>
     <row r="356" spans="1:11">
       <c r="A356" s="3"/>
@@ -6757,7 +6794,7 @@
       <c r="H356" s="3"/>
       <c r="I356" s="3"/>
       <c r="J356" s="3"/>
-      <c r="K356" s="31"/>
+      <c r="K356" s="33"/>
     </row>
     <row r="357" spans="1:11">
       <c r="A357" s="3"/>
@@ -6769,7 +6806,7 @@
       <c r="H357" s="3"/>
       <c r="I357" s="3"/>
       <c r="J357" s="3"/>
-      <c r="K357" s="31"/>
+      <c r="K357" s="33"/>
     </row>
     <row r="358" spans="1:11">
       <c r="A358" s="3"/>
@@ -6781,7 +6818,7 @@
       <c r="H358" s="3"/>
       <c r="I358" s="3"/>
       <c r="J358" s="3"/>
-      <c r="K358" s="31"/>
+      <c r="K358" s="33"/>
     </row>
     <row r="359" spans="1:11">
       <c r="A359" s="3"/>
@@ -6793,7 +6830,7 @@
       <c r="H359" s="3"/>
       <c r="I359" s="3"/>
       <c r="J359" s="3"/>
-      <c r="K359" s="31"/>
+      <c r="K359" s="33"/>
     </row>
     <row r="360" spans="1:11">
       <c r="A360" s="3"/>
@@ -6805,7 +6842,7 @@
       <c r="H360" s="3"/>
       <c r="I360" s="3"/>
       <c r="J360" s="3"/>
-      <c r="K360" s="31"/>
+      <c r="K360" s="33"/>
     </row>
     <row r="361" spans="1:11">
       <c r="A361" s="3"/>
@@ -6817,7 +6854,7 @@
       <c r="H361" s="3"/>
       <c r="I361" s="3"/>
       <c r="J361" s="3"/>
-      <c r="K361" s="31"/>
+      <c r="K361" s="33"/>
     </row>
     <row r="362" spans="1:11">
       <c r="A362" s="3"/>
@@ -6829,7 +6866,7 @@
       <c r="H362" s="3"/>
       <c r="I362" s="3"/>
       <c r="J362" s="3"/>
-      <c r="K362" s="31"/>
+      <c r="K362" s="33"/>
     </row>
     <row r="363" spans="1:11">
       <c r="A363" s="3"/>
@@ -6841,7 +6878,7 @@
       <c r="H363" s="3"/>
       <c r="I363" s="3"/>
       <c r="J363" s="3"/>
-      <c r="K363" s="31"/>
+      <c r="K363" s="33"/>
     </row>
     <row r="364" spans="1:11">
       <c r="A364" s="3"/>
@@ -6853,7 +6890,7 @@
       <c r="H364" s="3"/>
       <c r="I364" s="3"/>
       <c r="J364" s="3"/>
-      <c r="K364" s="31"/>
+      <c r="K364" s="33"/>
     </row>
     <row r="365" spans="1:11">
       <c r="A365" s="3"/>
@@ -6865,7 +6902,7 @@
       <c r="H365" s="3"/>
       <c r="I365" s="3"/>
       <c r="J365" s="3"/>
-      <c r="K365" s="31"/>
+      <c r="K365" s="33"/>
     </row>
     <row r="366" spans="1:11">
       <c r="A366" s="3"/>
@@ -6877,7 +6914,7 @@
       <c r="H366" s="3"/>
       <c r="I366" s="3"/>
       <c r="J366" s="3"/>
-      <c r="K366" s="31"/>
+      <c r="K366" s="33"/>
     </row>
     <row r="367" spans="1:11">
       <c r="A367" s="3"/>
@@ -6889,7 +6926,7 @@
       <c r="H367" s="3"/>
       <c r="I367" s="3"/>
       <c r="J367" s="3"/>
-      <c r="K367" s="31"/>
+      <c r="K367" s="33"/>
     </row>
     <row r="368" spans="1:11">
       <c r="A368" s="3"/>
@@ -6901,7 +6938,7 @@
       <c r="H368" s="3"/>
       <c r="I368" s="3"/>
       <c r="J368" s="3"/>
-      <c r="K368" s="31"/>
+      <c r="K368" s="33"/>
     </row>
     <row r="369" spans="1:11">
       <c r="A369" s="3"/>
@@ -6913,7 +6950,7 @@
       <c r="H369" s="3"/>
       <c r="I369" s="3"/>
       <c r="J369" s="3"/>
-      <c r="K369" s="31"/>
+      <c r="K369" s="33"/>
     </row>
     <row r="370" spans="1:11">
       <c r="A370" s="3"/>
@@ -6925,7 +6962,7 @@
       <c r="H370" s="3"/>
       <c r="I370" s="3"/>
       <c r="J370" s="3"/>
-      <c r="K370" s="31"/>
+      <c r="K370" s="33"/>
     </row>
     <row r="371" spans="1:11">
       <c r="A371" s="3"/>
@@ -6937,7 +6974,7 @@
       <c r="H371" s="3"/>
       <c r="I371" s="3"/>
       <c r="J371" s="3"/>
-      <c r="K371" s="31"/>
+      <c r="K371" s="33"/>
     </row>
     <row r="372" spans="1:11">
       <c r="A372" s="3"/>
@@ -6949,7 +6986,7 @@
       <c r="H372" s="3"/>
       <c r="I372" s="3"/>
       <c r="J372" s="3"/>
-      <c r="K372" s="31"/>
+      <c r="K372" s="33"/>
     </row>
     <row r="373" spans="1:11">
       <c r="A373" s="3"/>
@@ -6961,7 +6998,7 @@
       <c r="H373" s="3"/>
       <c r="I373" s="3"/>
       <c r="J373" s="3"/>
-      <c r="K373" s="31"/>
+      <c r="K373" s="33"/>
     </row>
     <row r="374" spans="1:11">
       <c r="A374" s="3"/>
@@ -6973,7 +7010,7 @@
       <c r="H374" s="3"/>
       <c r="I374" s="3"/>
       <c r="J374" s="3"/>
-      <c r="K374" s="31"/>
+      <c r="K374" s="33"/>
     </row>
     <row r="375" spans="1:11">
       <c r="A375" s="3"/>
@@ -6985,7 +7022,7 @@
       <c r="H375" s="3"/>
       <c r="I375" s="3"/>
       <c r="J375" s="3"/>
-      <c r="K375" s="31"/>
+      <c r="K375" s="33"/>
     </row>
     <row r="376" spans="1:11">
       <c r="A376" s="3"/>
@@ -6997,7 +7034,7 @@
       <c r="H376" s="3"/>
       <c r="I376" s="3"/>
       <c r="J376" s="3"/>
-      <c r="K376" s="31"/>
+      <c r="K376" s="33"/>
     </row>
     <row r="377" spans="1:11">
       <c r="A377" s="3"/>
@@ -7009,7 +7046,7 @@
       <c r="H377" s="3"/>
       <c r="I377" s="3"/>
       <c r="J377" s="3"/>
-      <c r="K377" s="31"/>
+      <c r="K377" s="33"/>
     </row>
     <row r="378" spans="1:11">
       <c r="A378" s="3"/>
@@ -7021,7 +7058,7 @@
       <c r="H378" s="3"/>
       <c r="I378" s="3"/>
       <c r="J378" s="3"/>
-      <c r="K378" s="31"/>
+      <c r="K378" s="33"/>
     </row>
     <row r="379" spans="1:11">
       <c r="A379" s="3"/>
@@ -7033,7 +7070,7 @@
       <c r="H379" s="3"/>
       <c r="I379" s="3"/>
       <c r="J379" s="3"/>
-      <c r="K379" s="31"/>
+      <c r="K379" s="33"/>
     </row>
     <row r="380" spans="1:11">
       <c r="A380" s="3"/>
@@ -7045,7 +7082,7 @@
       <c r="H380" s="3"/>
       <c r="I380" s="3"/>
       <c r="J380" s="3"/>
-      <c r="K380" s="31"/>
+      <c r="K380" s="33"/>
     </row>
     <row r="381" spans="1:11">
       <c r="A381" s="3"/>
@@ -7057,7 +7094,7 @@
       <c r="H381" s="3"/>
       <c r="I381" s="3"/>
       <c r="J381" s="3"/>
-      <c r="K381" s="31"/>
+      <c r="K381" s="33"/>
     </row>
     <row r="382" spans="1:11">
       <c r="A382" s="3"/>
@@ -7069,7 +7106,7 @@
       <c r="H382" s="3"/>
       <c r="I382" s="3"/>
       <c r="J382" s="3"/>
-      <c r="K382" s="31"/>
+      <c r="K382" s="33"/>
     </row>
     <row r="383" spans="1:11">
       <c r="A383" s="3"/>
@@ -7081,7 +7118,7 @@
       <c r="H383" s="3"/>
       <c r="I383" s="3"/>
       <c r="J383" s="3"/>
-      <c r="K383" s="31"/>
+      <c r="K383" s="33"/>
     </row>
     <row r="384" spans="1:11">
       <c r="A384" s="3"/>
@@ -7093,7 +7130,7 @@
       <c r="H384" s="3"/>
       <c r="I384" s="3"/>
       <c r="J384" s="3"/>
-      <c r="K384" s="31"/>
+      <c r="K384" s="33"/>
     </row>
     <row r="385" spans="1:11">
       <c r="A385" s="3"/>
@@ -7105,7 +7142,7 @@
       <c r="H385" s="3"/>
       <c r="I385" s="3"/>
       <c r="J385" s="3"/>
-      <c r="K385" s="31"/>
+      <c r="K385" s="33"/>
     </row>
     <row r="386" spans="1:11">
       <c r="A386" s="3"/>
@@ -7117,7 +7154,7 @@
       <c r="H386" s="3"/>
       <c r="I386" s="3"/>
       <c r="J386" s="3"/>
-      <c r="K386" s="31"/>
+      <c r="K386" s="33"/>
     </row>
     <row r="387" spans="1:11">
       <c r="A387" s="3"/>
@@ -7129,7 +7166,7 @@
       <c r="H387" s="3"/>
       <c r="I387" s="3"/>
       <c r="J387" s="3"/>
-      <c r="K387" s="31"/>
+      <c r="K387" s="33"/>
     </row>
     <row r="388" spans="1:11">
       <c r="A388" s="3"/>
@@ -7141,7 +7178,7 @@
       <c r="H388" s="3"/>
       <c r="I388" s="3"/>
       <c r="J388" s="3"/>
-      <c r="K388" s="31"/>
+      <c r="K388" s="33"/>
     </row>
     <row r="389" spans="1:11">
       <c r="A389" s="3"/>
@@ -7153,7 +7190,7 @@
       <c r="H389" s="3"/>
       <c r="I389" s="3"/>
       <c r="J389" s="3"/>
-      <c r="K389" s="31"/>
+      <c r="K389" s="33"/>
     </row>
     <row r="390" spans="1:11">
       <c r="A390" s="3"/>
@@ -7165,7 +7202,7 @@
       <c r="H390" s="3"/>
       <c r="I390" s="3"/>
       <c r="J390" s="3"/>
-      <c r="K390" s="31"/>
+      <c r="K390" s="33"/>
     </row>
     <row r="391" spans="1:11">
       <c r="A391" s="3"/>
@@ -7177,7 +7214,7 @@
       <c r="H391" s="3"/>
       <c r="I391" s="3"/>
       <c r="J391" s="3"/>
-      <c r="K391" s="31"/>
+      <c r="K391" s="33"/>
     </row>
     <row r="392" spans="1:11">
       <c r="A392" s="3"/>
@@ -7189,7 +7226,7 @@
       <c r="H392" s="3"/>
       <c r="I392" s="3"/>
       <c r="J392" s="3"/>
-      <c r="K392" s="31"/>
+      <c r="K392" s="33"/>
     </row>
     <row r="393" spans="1:11">
       <c r="A393" s="3"/>
@@ -7201,7 +7238,7 @@
       <c r="H393" s="3"/>
       <c r="I393" s="3"/>
       <c r="J393" s="3"/>
-      <c r="K393" s="31"/>
+      <c r="K393" s="33"/>
     </row>
     <row r="394" spans="1:11">
       <c r="A394" s="3"/>
@@ -7213,7 +7250,7 @@
       <c r="H394" s="3"/>
       <c r="I394" s="3"/>
       <c r="J394" s="3"/>
-      <c r="K394" s="31"/>
+      <c r="K394" s="33"/>
     </row>
     <row r="395" spans="1:11">
       <c r="A395" s="3"/>
@@ -7225,7 +7262,7 @@
       <c r="H395" s="3"/>
       <c r="I395" s="3"/>
       <c r="J395" s="3"/>
-      <c r="K395" s="31"/>
+      <c r="K395" s="33"/>
     </row>
     <row r="396" spans="1:11">
       <c r="A396" s="3"/>
@@ -7237,7 +7274,7 @@
       <c r="H396" s="3"/>
       <c r="I396" s="3"/>
       <c r="J396" s="3"/>
-      <c r="K396" s="31"/>
+      <c r="K396" s="33"/>
     </row>
     <row r="397" spans="1:11">
       <c r="A397" s="3"/>
@@ -7249,7 +7286,7 @@
       <c r="H397" s="3"/>
       <c r="I397" s="3"/>
       <c r="J397" s="3"/>
-      <c r="K397" s="31"/>
+      <c r="K397" s="33"/>
     </row>
     <row r="398" spans="1:11">
       <c r="A398" s="3"/>
@@ -7261,7 +7298,7 @@
       <c r="H398" s="3"/>
       <c r="I398" s="3"/>
       <c r="J398" s="3"/>
-      <c r="K398" s="31"/>
+      <c r="K398" s="33"/>
     </row>
     <row r="399" spans="1:11">
       <c r="A399" s="3"/>
@@ -7273,7 +7310,7 @@
       <c r="H399" s="3"/>
       <c r="I399" s="3"/>
       <c r="J399" s="3"/>
-      <c r="K399" s="31"/>
+      <c r="K399" s="33"/>
     </row>
     <row r="400" spans="1:11">
       <c r="A400" s="3"/>
@@ -7285,7 +7322,7 @@
       <c r="H400" s="3"/>
       <c r="I400" s="3"/>
       <c r="J400" s="3"/>
-      <c r="K400" s="31"/>
+      <c r="K400" s="33"/>
     </row>
     <row r="401" spans="1:11">
       <c r="A401" s="3"/>
@@ -7297,7 +7334,7 @@
       <c r="H401" s="3"/>
       <c r="I401" s="3"/>
       <c r="J401" s="3"/>
-      <c r="K401" s="31"/>
+      <c r="K401" s="33"/>
     </row>
     <row r="402" spans="1:11">
       <c r="A402" s="3"/>
@@ -7309,7 +7346,7 @@
       <c r="H402" s="3"/>
       <c r="I402" s="3"/>
       <c r="J402" s="3"/>
-      <c r="K402" s="31"/>
+      <c r="K402" s="33"/>
     </row>
     <row r="403" spans="1:11">
       <c r="A403" s="3"/>
@@ -7321,7 +7358,7 @@
       <c r="H403" s="3"/>
       <c r="I403" s="3"/>
       <c r="J403" s="3"/>
-      <c r="K403" s="31"/>
+      <c r="K403" s="33"/>
     </row>
     <row r="404" spans="1:11">
       <c r="A404" s="3"/>
@@ -7333,7 +7370,7 @@
       <c r="H404" s="3"/>
       <c r="I404" s="3"/>
       <c r="J404" s="3"/>
-      <c r="K404" s="31"/>
+      <c r="K404" s="33"/>
     </row>
     <row r="405" spans="1:11">
       <c r="A405" s="3"/>
@@ -7345,7 +7382,7 @@
       <c r="H405" s="3"/>
       <c r="I405" s="3"/>
       <c r="J405" s="3"/>
-      <c r="K405" s="31"/>
+      <c r="K405" s="33"/>
     </row>
     <row r="406" spans="1:11">
       <c r="A406" s="3"/>
@@ -7357,7 +7394,7 @@
       <c r="H406" s="3"/>
       <c r="I406" s="3"/>
       <c r="J406" s="3"/>
-      <c r="K406" s="31"/>
+      <c r="K406" s="33"/>
     </row>
     <row r="407" spans="1:11">
       <c r="A407" s="3"/>
@@ -7369,7 +7406,7 @@
       <c r="H407" s="3"/>
       <c r="I407" s="3"/>
       <c r="J407" s="3"/>
-      <c r="K407" s="31"/>
+      <c r="K407" s="33"/>
     </row>
     <row r="408" spans="1:11">
       <c r="A408" s="3"/>
@@ -7381,7 +7418,7 @@
       <c r="H408" s="3"/>
       <c r="I408" s="3"/>
       <c r="J408" s="3"/>
-      <c r="K408" s="31"/>
+      <c r="K408" s="33"/>
     </row>
     <row r="409" spans="1:11">
       <c r="A409" s="3"/>
@@ -7393,7 +7430,7 @@
       <c r="H409" s="3"/>
       <c r="I409" s="3"/>
       <c r="J409" s="3"/>
-      <c r="K409" s="31"/>
+      <c r="K409" s="33"/>
     </row>
     <row r="410" spans="1:11">
       <c r="A410" s="3"/>
@@ -7405,7 +7442,7 @@
       <c r="H410" s="3"/>
       <c r="I410" s="3"/>
       <c r="J410" s="3"/>
-      <c r="K410" s="31"/>
+      <c r="K410" s="33"/>
     </row>
     <row r="411" spans="1:11">
       <c r="A411" s="3"/>
@@ -7417,7 +7454,7 @@
       <c r="H411" s="3"/>
       <c r="I411" s="3"/>
       <c r="J411" s="3"/>
-      <c r="K411" s="31"/>
+      <c r="K411" s="33"/>
     </row>
     <row r="412" spans="1:11">
       <c r="A412" s="3"/>
@@ -7429,7 +7466,7 @@
       <c r="H412" s="3"/>
       <c r="I412" s="3"/>
       <c r="J412" s="3"/>
-      <c r="K412" s="31"/>
+      <c r="K412" s="33"/>
     </row>
     <row r="413" spans="1:11">
       <c r="A413" s="3"/>
@@ -7441,7 +7478,7 @@
       <c r="H413" s="3"/>
       <c r="I413" s="3"/>
       <c r="J413" s="3"/>
-      <c r="K413" s="31"/>
+      <c r="K413" s="33"/>
     </row>
     <row r="414" spans="1:11">
       <c r="A414" s="3"/>
@@ -7453,7 +7490,7 @@
       <c r="H414" s="3"/>
       <c r="I414" s="3"/>
       <c r="J414" s="3"/>
-      <c r="K414" s="31"/>
+      <c r="K414" s="33"/>
     </row>
     <row r="415" spans="1:11">
       <c r="A415" s="3"/>
@@ -7465,7 +7502,7 @@
       <c r="H415" s="3"/>
       <c r="I415" s="3"/>
       <c r="J415" s="3"/>
-      <c r="K415" s="31"/>
+      <c r="K415" s="33"/>
     </row>
     <row r="416" spans="1:11">
       <c r="A416" s="3"/>
@@ -7477,7 +7514,7 @@
       <c r="H416" s="3"/>
       <c r="I416" s="3"/>
       <c r="J416" s="3"/>
-      <c r="K416" s="31"/>
+      <c r="K416" s="33"/>
     </row>
     <row r="417" spans="1:11">
       <c r="A417" s="3"/>
@@ -7489,7 +7526,7 @@
       <c r="H417" s="3"/>
       <c r="I417" s="3"/>
       <c r="J417" s="3"/>
-      <c r="K417" s="31"/>
+      <c r="K417" s="33"/>
     </row>
     <row r="418" spans="1:11">
       <c r="A418" s="3"/>
@@ -7501,7 +7538,7 @@
       <c r="H418" s="3"/>
       <c r="I418" s="3"/>
       <c r="J418" s="3"/>
-      <c r="K418" s="31"/>
+      <c r="K418" s="33"/>
     </row>
     <row r="419" spans="1:11">
       <c r="A419" s="3"/>
@@ -7513,7 +7550,7 @@
       <c r="H419" s="3"/>
       <c r="I419" s="3"/>
       <c r="J419" s="3"/>
-      <c r="K419" s="31"/>
+      <c r="K419" s="33"/>
     </row>
     <row r="420" spans="1:11">
       <c r="A420" s="3"/>
@@ -7525,7 +7562,7 @@
       <c r="H420" s="3"/>
       <c r="I420" s="3"/>
       <c r="J420" s="3"/>
-      <c r="K420" s="31"/>
+      <c r="K420" s="33"/>
     </row>
     <row r="421" spans="1:11">
       <c r="A421" s="3"/>
@@ -7537,7 +7574,7 @@
       <c r="H421" s="3"/>
       <c r="I421" s="3"/>
       <c r="J421" s="3"/>
-      <c r="K421" s="31"/>
+      <c r="K421" s="33"/>
     </row>
     <row r="422" spans="1:11">
       <c r="A422" s="3"/>
@@ -7549,7 +7586,7 @@
       <c r="H422" s="3"/>
       <c r="I422" s="3"/>
       <c r="J422" s="3"/>
-      <c r="K422" s="31"/>
+      <c r="K422" s="33"/>
     </row>
     <row r="423" spans="1:11">
       <c r="A423" s="3"/>
@@ -7561,7 +7598,7 @@
       <c r="H423" s="3"/>
       <c r="I423" s="3"/>
       <c r="J423" s="3"/>
-      <c r="K423" s="31"/>
+      <c r="K423" s="33"/>
     </row>
     <row r="424" spans="1:11">
       <c r="A424" s="3"/>
@@ -7573,7 +7610,7 @@
       <c r="H424" s="3"/>
       <c r="I424" s="3"/>
       <c r="J424" s="3"/>
-      <c r="K424" s="31"/>
+      <c r="K424" s="33"/>
     </row>
     <row r="425" spans="1:11">
       <c r="A425" s="3"/>
@@ -7585,7 +7622,7 @@
       <c r="H425" s="3"/>
       <c r="I425" s="3"/>
       <c r="J425" s="3"/>
-      <c r="K425" s="31"/>
+      <c r="K425" s="33"/>
     </row>
     <row r="426" spans="1:11">
       <c r="A426" s="3"/>
@@ -7597,7 +7634,7 @@
       <c r="H426" s="3"/>
       <c r="I426" s="3"/>
       <c r="J426" s="3"/>
-      <c r="K426" s="31"/>
+      <c r="K426" s="33"/>
     </row>
     <row r="427" spans="1:11">
       <c r="A427" s="3"/>
@@ -7609,7 +7646,7 @@
       <c r="H427" s="3"/>
       <c r="I427" s="3"/>
       <c r="J427" s="3"/>
-      <c r="K427" s="31"/>
+      <c r="K427" s="33"/>
     </row>
     <row r="428" spans="1:11">
       <c r="A428" s="3"/>
@@ -7621,7 +7658,7 @@
       <c r="H428" s="3"/>
       <c r="I428" s="3"/>
       <c r="J428" s="3"/>
-      <c r="K428" s="31"/>
+      <c r="K428" s="33"/>
     </row>
     <row r="429" spans="1:11">
       <c r="A429" s="3"/>
@@ -7633,7 +7670,7 @@
       <c r="H429" s="3"/>
       <c r="I429" s="3"/>
       <c r="J429" s="3"/>
-      <c r="K429" s="31"/>
+      <c r="K429" s="33"/>
     </row>
     <row r="430" spans="1:11">
       <c r="A430" s="3"/>
@@ -7645,7 +7682,7 @@
       <c r="H430" s="3"/>
       <c r="I430" s="3"/>
       <c r="J430" s="3"/>
-      <c r="K430" s="31"/>
+      <c r="K430" s="33"/>
     </row>
     <row r="431" spans="1:11">
       <c r="A431" s="3"/>
@@ -7657,7 +7694,7 @@
       <c r="H431" s="3"/>
       <c r="I431" s="3"/>
       <c r="J431" s="3"/>
-      <c r="K431" s="31"/>
+      <c r="K431" s="33"/>
     </row>
     <row r="432" spans="1:11">
       <c r="A432" s="3"/>
@@ -7669,7 +7706,7 @@
       <c r="H432" s="3"/>
       <c r="I432" s="3"/>
       <c r="J432" s="3"/>
-      <c r="K432" s="31"/>
+      <c r="K432" s="33"/>
     </row>
     <row r="433" spans="1:11">
       <c r="A433" s="3"/>
@@ -7681,7 +7718,7 @@
       <c r="H433" s="3"/>
       <c r="I433" s="3"/>
       <c r="J433" s="3"/>
-      <c r="K433" s="31"/>
+      <c r="K433" s="33"/>
     </row>
     <row r="434" spans="1:11">
       <c r="A434" s="3"/>
@@ -7693,7 +7730,7 @@
       <c r="H434" s="3"/>
       <c r="I434" s="3"/>
       <c r="J434" s="3"/>
-      <c r="K434" s="31"/>
+      <c r="K434" s="33"/>
     </row>
     <row r="435" spans="1:11">
       <c r="A435" s="3"/>
@@ -7705,7 +7742,7 @@
       <c r="H435" s="3"/>
       <c r="I435" s="3"/>
       <c r="J435" s="3"/>
-      <c r="K435" s="31"/>
+      <c r="K435" s="33"/>
     </row>
     <row r="436" spans="1:11">
       <c r="A436" s="3"/>
@@ -7717,7 +7754,7 @@
       <c r="H436" s="3"/>
       <c r="I436" s="3"/>
       <c r="J436" s="3"/>
-      <c r="K436" s="31"/>
+      <c r="K436" s="33"/>
     </row>
     <row r="437" spans="1:11">
       <c r="A437" s="3"/>
@@ -7729,7 +7766,7 @@
       <c r="H437" s="3"/>
       <c r="I437" s="3"/>
       <c r="J437" s="3"/>
-      <c r="K437" s="31"/>
+      <c r="K437" s="33"/>
     </row>
     <row r="438" spans="1:11">
       <c r="A438" s="3"/>
@@ -7741,7 +7778,7 @@
       <c r="H438" s="3"/>
       <c r="I438" s="3"/>
       <c r="J438" s="3"/>
-      <c r="K438" s="31"/>
+      <c r="K438" s="33"/>
     </row>
     <row r="439" spans="1:11">
       <c r="A439" s="3"/>
@@ -7753,7 +7790,7 @@
       <c r="H439" s="3"/>
       <c r="I439" s="3"/>
       <c r="J439" s="3"/>
-      <c r="K439" s="31"/>
+      <c r="K439" s="33"/>
     </row>
     <row r="440" spans="1:11">
       <c r="A440" s="3"/>
@@ -7765,7 +7802,7 @@
       <c r="H440" s="3"/>
       <c r="I440" s="3"/>
       <c r="J440" s="3"/>
-      <c r="K440" s="31"/>
+      <c r="K440" s="33"/>
     </row>
     <row r="441" spans="1:11">
       <c r="A441" s="3"/>
@@ -7777,7 +7814,7 @@
       <c r="H441" s="3"/>
       <c r="I441" s="3"/>
       <c r="J441" s="3"/>
-      <c r="K441" s="31"/>
+      <c r="K441" s="33"/>
     </row>
     <row r="442" spans="1:11">
       <c r="A442" s="3"/>
@@ -7789,7 +7826,7 @@
       <c r="H442" s="3"/>
       <c r="I442" s="3"/>
       <c r="J442" s="3"/>
-      <c r="K442" s="31"/>
+      <c r="K442" s="33"/>
     </row>
     <row r="443" spans="1:11">
       <c r="A443" s="3"/>
@@ -7801,7 +7838,7 @@
       <c r="H443" s="3"/>
       <c r="I443" s="3"/>
       <c r="J443" s="3"/>
-      <c r="K443" s="31"/>
+      <c r="K443" s="33"/>
     </row>
     <row r="444" spans="1:11">
       <c r="A444" s="3"/>
@@ -7813,7 +7850,7 @@
       <c r="H444" s="3"/>
       <c r="I444" s="3"/>
       <c r="J444" s="3"/>
-      <c r="K444" s="31"/>
+      <c r="K444" s="33"/>
     </row>
     <row r="445" spans="1:11">
       <c r="A445" s="3"/>
@@ -7825,7 +7862,7 @@
       <c r="H445" s="3"/>
       <c r="I445" s="3"/>
       <c r="J445" s="3"/>
-      <c r="K445" s="31"/>
+      <c r="K445" s="33"/>
     </row>
     <row r="446" spans="1:11">
       <c r="A446" s="3"/>
@@ -7837,7 +7874,7 @@
       <c r="H446" s="3"/>
       <c r="I446" s="3"/>
       <c r="J446" s="3"/>
-      <c r="K446" s="31"/>
+      <c r="K446" s="33"/>
     </row>
     <row r="447" spans="1:11">
       <c r="A447" s="3"/>
@@ -7849,7 +7886,7 @@
       <c r="H447" s="3"/>
       <c r="I447" s="3"/>
       <c r="J447" s="3"/>
-      <c r="K447" s="31"/>
+      <c r="K447" s="33"/>
     </row>
     <row r="448" spans="1:11">
       <c r="A448" s="3"/>
@@ -7861,7 +7898,7 @@
       <c r="H448" s="3"/>
       <c r="I448" s="3"/>
       <c r="J448" s="3"/>
-      <c r="K448" s="31"/>
+      <c r="K448" s="33"/>
     </row>
     <row r="449" spans="1:11">
       <c r="A449" s="3"/>
@@ -7873,7 +7910,7 @@
       <c r="H449" s="3"/>
       <c r="I449" s="3"/>
       <c r="J449" s="3"/>
-      <c r="K449" s="31"/>
+      <c r="K449" s="33"/>
     </row>
     <row r="450" spans="1:11">
       <c r="A450" s="3"/>
@@ -7885,7 +7922,7 @@
       <c r="H450" s="3"/>
       <c r="I450" s="3"/>
       <c r="J450" s="3"/>
-      <c r="K450" s="31"/>
+      <c r="K450" s="33"/>
     </row>
     <row r="451" spans="1:11">
       <c r="A451" s="3"/>
@@ -7897,7 +7934,7 @@
       <c r="H451" s="3"/>
       <c r="I451" s="3"/>
       <c r="J451" s="3"/>
-      <c r="K451" s="31"/>
+      <c r="K451" s="33"/>
     </row>
     <row r="452" spans="1:11">
       <c r="A452" s="3"/>
@@ -7909,7 +7946,7 @@
       <c r="H452" s="3"/>
       <c r="I452" s="3"/>
       <c r="J452" s="3"/>
-      <c r="K452" s="31"/>
+      <c r="K452" s="33"/>
     </row>
     <row r="453" spans="1:11">
       <c r="A453" s="3"/>
@@ -7921,7 +7958,7 @@
       <c r="H453" s="3"/>
       <c r="I453" s="3"/>
       <c r="J453" s="3"/>
-      <c r="K453" s="31"/>
+      <c r="K453" s="33"/>
     </row>
     <row r="454" spans="1:11">
       <c r="A454" s="3"/>
@@ -7933,7 +7970,7 @@
       <c r="H454" s="3"/>
       <c r="I454" s="3"/>
       <c r="J454" s="3"/>
-      <c r="K454" s="31"/>
+      <c r="K454" s="33"/>
     </row>
     <row r="455" spans="1:11">
       <c r="A455" s="3"/>
@@ -7945,7 +7982,7 @@
       <c r="H455" s="3"/>
       <c r="I455" s="3"/>
       <c r="J455" s="3"/>
-      <c r="K455" s="31"/>
+      <c r="K455" s="33"/>
     </row>
     <row r="456" spans="1:11">
       <c r="A456" s="3"/>
@@ -7957,7 +7994,7 @@
       <c r="H456" s="3"/>
       <c r="I456" s="3"/>
       <c r="J456" s="3"/>
-      <c r="K456" s="31"/>
+      <c r="K456" s="33"/>
     </row>
     <row r="457" spans="1:11">
       <c r="A457" s="3"/>
@@ -7969,7 +8006,7 @@
       <c r="H457" s="3"/>
       <c r="I457" s="3"/>
       <c r="J457" s="3"/>
-      <c r="K457" s="31"/>
+      <c r="K457" s="33"/>
     </row>
     <row r="458" spans="1:11">
       <c r="A458" s="3"/>
@@ -7981,7 +8018,7 @@
       <c r="H458" s="3"/>
       <c r="I458" s="3"/>
       <c r="J458" s="3"/>
-      <c r="K458" s="31"/>
+      <c r="K458" s="33"/>
     </row>
     <row r="459" spans="1:11">
       <c r="A459" s="3"/>
@@ -7993,7 +8030,7 @@
       <c r="H459" s="3"/>
       <c r="I459" s="3"/>
       <c r="J459" s="3"/>
-      <c r="K459" s="31"/>
+      <c r="K459" s="33"/>
     </row>
     <row r="460" spans="1:11">
       <c r="A460" s="3"/>
@@ -8005,7 +8042,7 @@
       <c r="H460" s="3"/>
       <c r="I460" s="3"/>
       <c r="J460" s="3"/>
-      <c r="K460" s="31"/>
+      <c r="K460" s="33"/>
     </row>
     <row r="461" spans="1:11">
       <c r="A461" s="3"/>
@@ -8017,10 +8054,11 @@
       <c r="H461" s="3"/>
       <c r="I461" s="3"/>
       <c r="J461" s="3"/>
-      <c r="K461" s="31"/>
-    </row>
-    <row r="462" spans="1:1">
+      <c r="K461" s="33"/>
+    </row>
+    <row r="462" spans="1:2">
       <c r="A462" s="3"/>
+      <c r="B462" s="3"/>
     </row>
     <row r="463" spans="1:1">
       <c r="A463" s="3"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>计划编码</t>
   </si>
@@ -93,6 +93,24 @@
   </si>
   <si>
     <t>石英股份</t>
+  </si>
+  <si>
+    <t>JH_00006</t>
+  </si>
+  <si>
+    <t>明泰铝业</t>
+  </si>
+  <si>
+    <t>JH_00007</t>
+  </si>
+  <si>
+    <t>000733</t>
+  </si>
+  <si>
+    <t>振华科技</t>
+  </si>
+  <si>
+    <t>JH_00008</t>
   </si>
   <si>
     <t>000069</t>
@@ -343,7 +361,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,6 +389,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,152 +724,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="37" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -906,12 +930,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -965,6 +998,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2139,7 +2175,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5:B7"/>
+      <selection pane="bottomLeft" activeCell="M8" sqref="M8:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -2189,102 +2225,102 @@
       <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="39"/>
-      <c r="AO1" s="39"/>
-      <c r="AP1" s="39"/>
-      <c r="AQ1" s="39"/>
-      <c r="AR1" s="39"/>
-      <c r="AS1" s="39"/>
-      <c r="AU1" s="39"/>
-      <c r="AV1" s="39"/>
-      <c r="AW1" s="39"/>
-      <c r="AX1" s="39"/>
-      <c r="AY1" s="39"/>
-      <c r="AZ1" s="39"/>
-      <c r="BA1" s="39"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="42"/>
+      <c r="AO1" s="42"/>
+      <c r="AP1" s="42"/>
+      <c r="AQ1" s="42"/>
+      <c r="AR1" s="42"/>
+      <c r="AS1" s="42"/>
+      <c r="AU1" s="42"/>
+      <c r="AV1" s="42"/>
+      <c r="AW1" s="42"/>
+      <c r="AX1" s="42"/>
+      <c r="AY1" s="42"/>
+      <c r="AZ1" s="42"/>
+      <c r="BA1" s="42"/>
     </row>
     <row r="2" ht="23.6" spans="1:53">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="39"/>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="39"/>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="39"/>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="39"/>
-      <c r="AI2" s="39"/>
-      <c r="AJ2" s="39"/>
-      <c r="AK2" s="39"/>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="39"/>
-      <c r="AO2" s="39"/>
-      <c r="AP2" s="39"/>
-      <c r="AQ2" s="39"/>
-      <c r="AR2" s="39"/>
-      <c r="AS2" s="39"/>
-      <c r="AU2" s="39"/>
-      <c r="AV2" s="39"/>
-      <c r="AW2" s="39"/>
-      <c r="AX2" s="39"/>
-      <c r="AY2" s="39"/>
-      <c r="AZ2" s="39"/>
-      <c r="BA2" s="39"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="42"/>
+      <c r="AO2" s="42"/>
+      <c r="AP2" s="42"/>
+      <c r="AQ2" s="42"/>
+      <c r="AR2" s="42"/>
+      <c r="AS2" s="42"/>
+      <c r="AU2" s="42"/>
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
+      <c r="BA2" s="42"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="13" spans="1:14">
       <c r="A3" s="11" t="s">
@@ -2299,39 +2335,39 @@
       <c r="D3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="29">
         <v>51.15</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="29">
         <v>46.61</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="29">
         <v>59.59</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="29">
         <f>(E3-F3)*100</f>
         <v>454</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="29">
         <f>FLOOR(402/(E3-F3),100)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="29">
+      <c r="J3" s="32">
         <f>(G3-E3)/(E3-F3)</f>
         <v>1.85903083700441</v>
       </c>
-      <c r="K3" s="30">
+      <c r="K3" s="33">
         <f>(E3-F3)/E3</f>
         <v>0.0887585532746823</v>
       </c>
-      <c r="L3" s="31">
+      <c r="L3" s="34">
         <f>(G3-E3)/E3</f>
         <v>0.165004887585533</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="38"/>
+      <c r="N3" s="41"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="13" spans="1:14">
       <c r="A4" s="11" t="s">
@@ -2346,39 +2382,39 @@
       <c r="D4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="26">
         <v>143.8</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="26">
         <v>135.13</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="26">
         <v>158.48</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="29">
         <f>(E4-F4)*100</f>
         <v>867.000000000002</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="29">
         <f>FLOOR(402/(E4-F4),100)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="29">
+      <c r="J4" s="32">
         <f>(G4-E4)/(E4-F4)</f>
         <v>1.69319492502883</v>
       </c>
-      <c r="K4" s="30">
+      <c r="K4" s="33">
         <f>(E4-F4)/E4</f>
         <v>0.0602920723226705</v>
       </c>
-      <c r="L4" s="31">
+      <c r="L4" s="34">
         <f>(G4-E4)/E4</f>
         <v>0.102086230876217</v>
       </c>
-      <c r="M4" s="37" t="s">
+      <c r="M4" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="38"/>
+      <c r="N4" s="41"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="36" spans="1:14">
       <c r="A5" s="11" t="s">
@@ -2393,39 +2429,39 @@
       <c r="D5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="26">
         <v>20.44</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="26">
         <v>19.09</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="26">
         <v>23.43</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="29">
         <f>(E5-F5)*100</f>
         <v>135</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="29">
         <f>FLOOR(402/(E5-F5),100)</f>
         <v>200</v>
       </c>
-      <c r="J5" s="29">
+      <c r="J5" s="32">
         <f>(G5-E5)/(E5-F5)</f>
         <v>2.21481481481481</v>
       </c>
-      <c r="K5" s="30">
+      <c r="K5" s="33">
         <f>(E5-F5)/E5</f>
         <v>0.0660469667318983</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="34">
         <f>(G5-E5)/E5</f>
         <v>0.146281800391389</v>
       </c>
-      <c r="M5" s="37" t="s">
+      <c r="M5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="38"/>
+      <c r="N5" s="41"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="13" spans="1:14">
       <c r="A6" s="11" t="s">
@@ -2449,30 +2485,30 @@
       <c r="G6" s="11">
         <v>20.72</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="29">
         <f>(E6-F6)*100</f>
         <v>169</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="29">
         <f>FLOOR(402/(E6-F6),100)</f>
         <v>200</v>
       </c>
-      <c r="J6" s="29">
+      <c r="J6" s="32">
         <f>(G6-E6)/(E6-F6)</f>
         <v>2.0887573964497</v>
       </c>
-      <c r="K6" s="30">
+      <c r="K6" s="33">
         <f>(E6-F6)/E6</f>
         <v>0.0983129726585225</v>
       </c>
-      <c r="L6" s="31">
+      <c r="L6" s="34">
         <f>(G6-E6)/E6</f>
         <v>0.205351948807446</v>
       </c>
-      <c r="M6" s="37" t="s">
+      <c r="M6" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="38"/>
+      <c r="N6" s="41"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="13" spans="1:13">
       <c r="A7" s="11" t="s">
@@ -2487,562 +2523,651 @@
       <c r="D7" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="37"/>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="1:13">
-      <c r="A8" s="11"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="37"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:14">
-      <c r="A9" s="22"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="38"/>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="1:13">
-      <c r="A10" s="11"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
+      <c r="E7" s="11">
+        <v>64.3</v>
+      </c>
+      <c r="F7" s="11">
+        <v>58.51</v>
+      </c>
+      <c r="G7" s="11">
+        <v>65.72</v>
+      </c>
+      <c r="H7" s="29">
+        <f>(E7-F7)*100</f>
+        <v>579</v>
+      </c>
+      <c r="I7" s="29">
+        <f>FLOOR(402/(E7-F7),100)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="32">
+        <f>(G7-E7)/(E7-F7)</f>
+        <v>0.24525043177893</v>
+      </c>
+      <c r="K7" s="33">
+        <f>(E7-F7)/E7</f>
+        <v>0.0900466562986003</v>
+      </c>
+      <c r="L7" s="34">
+        <f>(G7-E7)/E7</f>
+        <v>0.0220839813374806</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="13" spans="1:13">
+      <c r="A8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="12">
+        <v>44539</v>
+      </c>
+      <c r="C8" s="20">
+        <v>601677</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="11">
+        <v>39.15</v>
+      </c>
+      <c r="F8" s="11">
+        <v>35.91</v>
+      </c>
+      <c r="G8" s="11">
+        <v>44.28</v>
+      </c>
+      <c r="H8" s="29">
+        <f>(E8-F8)*100</f>
+        <v>324</v>
+      </c>
+      <c r="I8" s="29">
+        <f>FLOOR(402/(E8-F8),100)</f>
+        <v>100</v>
+      </c>
+      <c r="J8" s="32">
+        <f>(G8-E8)/(E8-F8)</f>
+        <v>1.58333333333333</v>
+      </c>
+      <c r="K8" s="33">
+        <f>(E8-F8)/E8</f>
+        <v>0.0827586206896552</v>
+      </c>
+      <c r="L8" s="34">
+        <f>(G8-E8)/E8</f>
+        <v>0.131034482758621</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="13" spans="1:14">
+      <c r="A9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="12">
+        <v>44539</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="11">
+        <v>117.8</v>
+      </c>
+      <c r="F9" s="11">
+        <v>110.4</v>
+      </c>
+      <c r="G9" s="11">
+        <v>131.73</v>
+      </c>
+      <c r="H9" s="29">
+        <f>(E9-F9)*100</f>
+        <v>739.999999999999</v>
+      </c>
+      <c r="I9" s="29">
+        <f>FLOOR(402/(E9-F9),100)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="32">
+        <f>(G9-E9)/(E9-F9)</f>
+        <v>1.88243243243243</v>
+      </c>
+      <c r="K9" s="33">
+        <f>(E9-F9)/E9</f>
+        <v>0.062818336162988</v>
+      </c>
+      <c r="L9" s="34">
+        <f>(G9-E9)/E9</f>
+        <v>0.118251273344652</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" s="41"/>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="13" spans="1:13">
+      <c r="A10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="12">
+        <v>44539</v>
+      </c>
+      <c r="C10" s="23"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="26"/>
+      <c r="H10" s="29"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="37"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="40"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:13">
       <c r="A11" s="11"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="26"/>
+      <c r="H11" s="29"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="37"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="40"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:13">
       <c r="A12" s="11"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="26"/>
+      <c r="H12" s="29"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="37"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="40"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:13">
       <c r="A13" s="11"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="26"/>
+      <c r="H13" s="29"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="37"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="40"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:13">
       <c r="A14" s="11"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="26"/>
+      <c r="H14" s="29"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="37"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="40"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:13">
       <c r="A15" s="11"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="26"/>
+      <c r="H15" s="29"/>
       <c r="I15" s="11"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="37"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="40"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:13">
       <c r="A16" s="11"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="26"/>
+      <c r="H16" s="29"/>
       <c r="I16" s="11"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="37"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="40"/>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:13">
       <c r="A17" s="11"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="26"/>
+      <c r="H17" s="29"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="37"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="40"/>
     </row>
     <row r="18" s="2" customFormat="1" spans="1:13">
       <c r="A18" s="11"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="26"/>
+      <c r="H18" s="29"/>
       <c r="I18" s="11"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="37"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="40"/>
     </row>
     <row r="19" s="2" customFormat="1" spans="1:13">
       <c r="A19" s="11"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="26"/>
+      <c r="H19" s="29"/>
       <c r="I19" s="11"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="37"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="40"/>
     </row>
     <row r="20" s="2" customFormat="1" spans="1:13">
       <c r="A20" s="11"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="26"/>
+      <c r="H20" s="29"/>
       <c r="I20" s="11"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="11"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="40"/>
     </row>
     <row r="21" s="2" customFormat="1" spans="1:13">
       <c r="A21" s="11"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="26"/>
+      <c r="H21" s="29"/>
       <c r="I21" s="11"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="31"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="34"/>
       <c r="M21" s="11"/>
     </row>
     <row r="22" s="2" customFormat="1" spans="1:13">
       <c r="A22" s="11"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="23"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
-      <c r="H22" s="26"/>
+      <c r="H22" s="29"/>
       <c r="I22" s="11"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="31"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="34"/>
       <c r="M22" s="11"/>
     </row>
     <row r="23" s="2" customFormat="1" spans="1:13">
       <c r="A23" s="11"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
-      <c r="H23" s="26"/>
+      <c r="H23" s="29"/>
       <c r="I23" s="11"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="31"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="34"/>
       <c r="M23" s="11"/>
     </row>
     <row r="24" s="2" customFormat="1" spans="1:13">
       <c r="A24" s="11"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="21"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
-      <c r="H24" s="26"/>
+      <c r="H24" s="29"/>
       <c r="I24" s="11"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="37"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="11"/>
     </row>
     <row r="25" s="2" customFormat="1" spans="1:13">
       <c r="A25" s="11"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="22"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
-      <c r="H25" s="26"/>
+      <c r="H25" s="29"/>
       <c r="I25" s="11"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="37"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="40"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="23"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="23"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="40"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="23"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="23"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="26"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="23"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="26"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="23"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="26"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="23"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="26"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="23"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="26"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="23"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="26"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="23"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="26"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="23"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="26"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="23"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="26"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="23"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="26"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="23"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="26"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="23"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="26"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="23"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="26"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="23"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="32"/>
-      <c r="M40" s="23"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="26"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="23"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="23"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="26"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="23"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="23"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="26"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="23"/>
-    </row>
-    <row r="44" ht="13" spans="1:11">
-      <c r="A44" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="B44" s="23"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="26"/>
+    </row>
+    <row r="44" ht="13" spans="1:13">
+      <c r="A44" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="26"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -3050,7 +3175,8 @@
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
-      <c r="K44" s="33"/>
+      <c r="K44" s="36"/>
+      <c r="M44" s="26"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="3"/>
@@ -3062,7 +3188,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
-      <c r="K45" s="33"/>
+      <c r="K45" s="36"/>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="3"/>
@@ -3074,7 +3200,7 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
-      <c r="K46" s="33"/>
+      <c r="K46" s="36"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="3"/>
@@ -3086,7 +3212,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
-      <c r="K47" s="33"/>
+      <c r="K47" s="36"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="3"/>
@@ -3098,7 +3224,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
-      <c r="K48" s="33"/>
+      <c r="K48" s="36"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="3"/>
@@ -3110,7 +3236,7 @@
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
-      <c r="K49" s="33"/>
+      <c r="K49" s="36"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="3"/>
@@ -3122,7 +3248,7 @@
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
-      <c r="K50" s="33"/>
+      <c r="K50" s="36"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="3"/>
@@ -3134,7 +3260,7 @@
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
-      <c r="K51" s="33"/>
+      <c r="K51" s="36"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="3"/>
@@ -3146,7 +3272,7 @@
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
-      <c r="K52" s="33"/>
+      <c r="K52" s="36"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="3"/>
@@ -3158,7 +3284,7 @@
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
-      <c r="K53" s="33"/>
+      <c r="K53" s="36"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="3"/>
@@ -3170,7 +3296,7 @@
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
-      <c r="K54" s="33"/>
+      <c r="K54" s="36"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="3"/>
@@ -3182,7 +3308,7 @@
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
-      <c r="K55" s="33"/>
+      <c r="K55" s="36"/>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="3"/>
@@ -3194,7 +3320,7 @@
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
-      <c r="K56" s="33"/>
+      <c r="K56" s="36"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="3"/>
@@ -3206,7 +3332,7 @@
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
-      <c r="K57" s="33"/>
+      <c r="K57" s="36"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="3"/>
@@ -3218,7 +3344,7 @@
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
-      <c r="K58" s="33"/>
+      <c r="K58" s="36"/>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="3"/>
@@ -3230,7 +3356,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
-      <c r="K59" s="33"/>
+      <c r="K59" s="36"/>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="3"/>
@@ -3242,7 +3368,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
-      <c r="K60" s="33"/>
+      <c r="K60" s="36"/>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="3"/>
@@ -3254,7 +3380,7 @@
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
-      <c r="K61" s="33"/>
+      <c r="K61" s="36"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="3"/>
@@ -3266,7 +3392,7 @@
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
-      <c r="K62" s="33"/>
+      <c r="K62" s="36"/>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="3"/>
@@ -3278,7 +3404,7 @@
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
-      <c r="K63" s="33"/>
+      <c r="K63" s="36"/>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="3"/>
@@ -3290,7 +3416,7 @@
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
-      <c r="K64" s="33"/>
+      <c r="K64" s="36"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="3"/>
@@ -3302,7 +3428,7 @@
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
-      <c r="K65" s="33"/>
+      <c r="K65" s="36"/>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="3"/>
@@ -3314,7 +3440,7 @@
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
-      <c r="K66" s="33"/>
+      <c r="K66" s="36"/>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="3"/>
@@ -3326,7 +3452,7 @@
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
-      <c r="K67" s="33"/>
+      <c r="K67" s="36"/>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="3"/>
@@ -3338,7 +3464,7 @@
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
-      <c r="K68" s="33"/>
+      <c r="K68" s="36"/>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="3"/>
@@ -3350,7 +3476,7 @@
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
-      <c r="K69" s="33"/>
+      <c r="K69" s="36"/>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="3"/>
@@ -3362,7 +3488,7 @@
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
-      <c r="K70" s="33"/>
+      <c r="K70" s="36"/>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="3"/>
@@ -3374,7 +3500,7 @@
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
-      <c r="K71" s="33"/>
+      <c r="K71" s="36"/>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="3"/>
@@ -3386,7 +3512,7 @@
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
-      <c r="K72" s="33"/>
+      <c r="K72" s="36"/>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="3"/>
@@ -3398,7 +3524,7 @@
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
-      <c r="K73" s="33"/>
+      <c r="K73" s="36"/>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="3"/>
@@ -3410,7 +3536,7 @@
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
-      <c r="K74" s="33"/>
+      <c r="K74" s="36"/>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="3"/>
@@ -3422,7 +3548,7 @@
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
-      <c r="K75" s="33"/>
+      <c r="K75" s="36"/>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="3"/>
@@ -3434,7 +3560,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
-      <c r="K76" s="33"/>
+      <c r="K76" s="36"/>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="3"/>
@@ -3446,7 +3572,7 @@
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
-      <c r="K77" s="33"/>
+      <c r="K77" s="36"/>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="3"/>
@@ -3458,7 +3584,7 @@
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
-      <c r="K78" s="33"/>
+      <c r="K78" s="36"/>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="3"/>
@@ -3470,7 +3596,7 @@
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
-      <c r="K79" s="33"/>
+      <c r="K79" s="36"/>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="3"/>
@@ -3482,7 +3608,7 @@
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
-      <c r="K80" s="33"/>
+      <c r="K80" s="36"/>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="3"/>
@@ -3494,7 +3620,7 @@
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
-      <c r="K81" s="33"/>
+      <c r="K81" s="36"/>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="3"/>
@@ -3506,7 +3632,7 @@
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
-      <c r="K82" s="33"/>
+      <c r="K82" s="36"/>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="3"/>
@@ -3518,7 +3644,7 @@
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
-      <c r="K83" s="33"/>
+      <c r="K83" s="36"/>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="3"/>
@@ -3530,7 +3656,7 @@
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
-      <c r="K84" s="33"/>
+      <c r="K84" s="36"/>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="3"/>
@@ -3542,7 +3668,7 @@
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
-      <c r="K85" s="33"/>
+      <c r="K85" s="36"/>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="3"/>
@@ -3554,7 +3680,7 @@
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
-      <c r="K86" s="33"/>
+      <c r="K86" s="36"/>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="3"/>
@@ -3566,7 +3692,7 @@
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
-      <c r="K87" s="33"/>
+      <c r="K87" s="36"/>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="3"/>
@@ -3578,7 +3704,7 @@
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
-      <c r="K88" s="33"/>
+      <c r="K88" s="36"/>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="3"/>
@@ -3590,7 +3716,7 @@
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
-      <c r="K89" s="33"/>
+      <c r="K89" s="36"/>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="3"/>
@@ -3602,7 +3728,7 @@
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
-      <c r="K90" s="33"/>
+      <c r="K90" s="36"/>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="3"/>
@@ -3614,7 +3740,7 @@
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
-      <c r="K91" s="33"/>
+      <c r="K91" s="36"/>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="3"/>
@@ -3626,7 +3752,7 @@
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
-      <c r="K92" s="33"/>
+      <c r="K92" s="36"/>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="3"/>
@@ -3638,7 +3764,7 @@
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
-      <c r="K93" s="33"/>
+      <c r="K93" s="36"/>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="3"/>
@@ -3650,7 +3776,7 @@
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
-      <c r="K94" s="33"/>
+      <c r="K94" s="36"/>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="3"/>
@@ -3662,7 +3788,7 @@
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
-      <c r="K95" s="33"/>
+      <c r="K95" s="36"/>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="3"/>
@@ -3674,7 +3800,7 @@
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
-      <c r="K96" s="33"/>
+      <c r="K96" s="36"/>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="3"/>
@@ -3686,7 +3812,7 @@
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
-      <c r="K97" s="33"/>
+      <c r="K97" s="36"/>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="3"/>
@@ -3698,7 +3824,7 @@
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
-      <c r="K98" s="33"/>
+      <c r="K98" s="36"/>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="3"/>
@@ -3710,7 +3836,7 @@
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
-      <c r="K99" s="33"/>
+      <c r="K99" s="36"/>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="3"/>
@@ -3722,7 +3848,7 @@
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
-      <c r="K100" s="33"/>
+      <c r="K100" s="36"/>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="3"/>
@@ -3734,7 +3860,7 @@
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
-      <c r="K101" s="33"/>
+      <c r="K101" s="36"/>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="3"/>
@@ -3746,7 +3872,7 @@
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
-      <c r="K102" s="33"/>
+      <c r="K102" s="36"/>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="3"/>
@@ -3758,7 +3884,7 @@
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
-      <c r="K103" s="33"/>
+      <c r="K103" s="36"/>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="3"/>
@@ -3770,7 +3896,7 @@
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
-      <c r="K104" s="33"/>
+      <c r="K104" s="36"/>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="3"/>
@@ -3782,7 +3908,7 @@
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
-      <c r="K105" s="33"/>
+      <c r="K105" s="36"/>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="3"/>
@@ -3794,7 +3920,7 @@
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
-      <c r="K106" s="33"/>
+      <c r="K106" s="36"/>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="3"/>
@@ -3806,7 +3932,7 @@
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
-      <c r="K107" s="33"/>
+      <c r="K107" s="36"/>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="3"/>
@@ -3818,7 +3944,7 @@
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
-      <c r="K108" s="33"/>
+      <c r="K108" s="36"/>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="3"/>
@@ -3830,7 +3956,7 @@
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
-      <c r="K109" s="33"/>
+      <c r="K109" s="36"/>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="3"/>
@@ -3842,7 +3968,7 @@
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
-      <c r="K110" s="33"/>
+      <c r="K110" s="36"/>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="3"/>
@@ -3854,7 +3980,7 @@
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
-      <c r="K111" s="33"/>
+      <c r="K111" s="36"/>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="3"/>
@@ -3866,7 +3992,7 @@
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
-      <c r="K112" s="33"/>
+      <c r="K112" s="36"/>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="3"/>
@@ -3878,7 +4004,7 @@
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
-      <c r="K113" s="33"/>
+      <c r="K113" s="36"/>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="3"/>
@@ -3890,7 +4016,7 @@
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
-      <c r="K114" s="33"/>
+      <c r="K114" s="36"/>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="3"/>
@@ -3902,7 +4028,7 @@
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
-      <c r="K115" s="33"/>
+      <c r="K115" s="36"/>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="3"/>
@@ -3914,7 +4040,7 @@
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
-      <c r="K116" s="33"/>
+      <c r="K116" s="36"/>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="3"/>
@@ -3926,7 +4052,7 @@
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
-      <c r="K117" s="33"/>
+      <c r="K117" s="36"/>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="3"/>
@@ -3938,7 +4064,7 @@
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
-      <c r="K118" s="33"/>
+      <c r="K118" s="36"/>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="3"/>
@@ -3950,7 +4076,7 @@
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
-      <c r="K119" s="33"/>
+      <c r="K119" s="36"/>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="3"/>
@@ -3962,7 +4088,7 @@
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
-      <c r="K120" s="33"/>
+      <c r="K120" s="36"/>
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="3"/>
@@ -3974,7 +4100,7 @@
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
-      <c r="K121" s="33"/>
+      <c r="K121" s="36"/>
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="3"/>
@@ -3986,7 +4112,7 @@
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
-      <c r="K122" s="33"/>
+      <c r="K122" s="36"/>
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="3"/>
@@ -3998,7 +4124,7 @@
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
-      <c r="K123" s="33"/>
+      <c r="K123" s="36"/>
     </row>
     <row r="124" spans="1:11">
       <c r="A124" s="3"/>
@@ -4010,7 +4136,7 @@
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
-      <c r="K124" s="33"/>
+      <c r="K124" s="36"/>
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="3"/>
@@ -4022,7 +4148,7 @@
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
-      <c r="K125" s="33"/>
+      <c r="K125" s="36"/>
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="3"/>
@@ -4034,7 +4160,7 @@
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
-      <c r="K126" s="33"/>
+      <c r="K126" s="36"/>
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="3"/>
@@ -4046,7 +4172,7 @@
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
-      <c r="K127" s="33"/>
+      <c r="K127" s="36"/>
     </row>
     <row r="128" spans="1:11">
       <c r="A128" s="3"/>
@@ -4058,7 +4184,7 @@
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
-      <c r="K128" s="33"/>
+      <c r="K128" s="36"/>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="3"/>
@@ -4070,7 +4196,7 @@
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
-      <c r="K129" s="33"/>
+      <c r="K129" s="36"/>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="3"/>
@@ -4082,7 +4208,7 @@
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
-      <c r="K130" s="33"/>
+      <c r="K130" s="36"/>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="3"/>
@@ -4094,7 +4220,7 @@
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
-      <c r="K131" s="33"/>
+      <c r="K131" s="36"/>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="3"/>
@@ -4106,7 +4232,7 @@
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
-      <c r="K132" s="33"/>
+      <c r="K132" s="36"/>
     </row>
     <row r="133" spans="1:11">
       <c r="A133" s="3"/>
@@ -4118,7 +4244,7 @@
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
-      <c r="K133" s="33"/>
+      <c r="K133" s="36"/>
     </row>
     <row r="134" spans="1:11">
       <c r="A134" s="3"/>
@@ -4130,7 +4256,7 @@
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
-      <c r="K134" s="33"/>
+      <c r="K134" s="36"/>
     </row>
     <row r="135" spans="1:11">
       <c r="A135" s="3"/>
@@ -4142,7 +4268,7 @@
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
-      <c r="K135" s="33"/>
+      <c r="K135" s="36"/>
     </row>
     <row r="136" spans="1:11">
       <c r="A136" s="3"/>
@@ -4154,7 +4280,7 @@
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
-      <c r="K136" s="33"/>
+      <c r="K136" s="36"/>
     </row>
     <row r="137" spans="1:11">
       <c r="A137" s="3"/>
@@ -4166,7 +4292,7 @@
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
-      <c r="K137" s="33"/>
+      <c r="K137" s="36"/>
     </row>
     <row r="138" spans="1:11">
       <c r="A138" s="3"/>
@@ -4178,7 +4304,7 @@
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
-      <c r="K138" s="33"/>
+      <c r="K138" s="36"/>
     </row>
     <row r="139" spans="1:11">
       <c r="A139" s="3"/>
@@ -4190,7 +4316,7 @@
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
-      <c r="K139" s="33"/>
+      <c r="K139" s="36"/>
     </row>
     <row r="140" spans="1:11">
       <c r="A140" s="3"/>
@@ -4202,7 +4328,7 @@
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
-      <c r="K140" s="33"/>
+      <c r="K140" s="36"/>
     </row>
     <row r="141" spans="1:11">
       <c r="A141" s="3"/>
@@ -4214,7 +4340,7 @@
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
-      <c r="K141" s="33"/>
+      <c r="K141" s="36"/>
     </row>
     <row r="142" spans="1:11">
       <c r="A142" s="3"/>
@@ -4226,7 +4352,7 @@
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
-      <c r="K142" s="33"/>
+      <c r="K142" s="36"/>
     </row>
     <row r="143" spans="1:11">
       <c r="A143" s="3"/>
@@ -4238,7 +4364,7 @@
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
-      <c r="K143" s="33"/>
+      <c r="K143" s="36"/>
     </row>
     <row r="144" spans="1:11">
       <c r="A144" s="3"/>
@@ -4250,7 +4376,7 @@
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
-      <c r="K144" s="33"/>
+      <c r="K144" s="36"/>
     </row>
     <row r="145" spans="1:11">
       <c r="A145" s="3"/>
@@ -4262,7 +4388,7 @@
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
-      <c r="K145" s="33"/>
+      <c r="K145" s="36"/>
     </row>
     <row r="146" spans="1:11">
       <c r="A146" s="3"/>
@@ -4274,7 +4400,7 @@
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
-      <c r="K146" s="33"/>
+      <c r="K146" s="36"/>
     </row>
     <row r="147" spans="1:11">
       <c r="A147" s="3"/>
@@ -4286,7 +4412,7 @@
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
-      <c r="K147" s="33"/>
+      <c r="K147" s="36"/>
     </row>
     <row r="148" spans="1:11">
       <c r="A148" s="3"/>
@@ -4298,7 +4424,7 @@
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
-      <c r="K148" s="33"/>
+      <c r="K148" s="36"/>
     </row>
     <row r="149" spans="1:11">
       <c r="A149" s="3"/>
@@ -4310,7 +4436,7 @@
       <c r="H149" s="3"/>
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
-      <c r="K149" s="33"/>
+      <c r="K149" s="36"/>
     </row>
     <row r="150" spans="1:11">
       <c r="A150" s="3"/>
@@ -4322,7 +4448,7 @@
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
-      <c r="K150" s="33"/>
+      <c r="K150" s="36"/>
     </row>
     <row r="151" spans="1:11">
       <c r="A151" s="3"/>
@@ -4334,7 +4460,7 @@
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
-      <c r="K151" s="33"/>
+      <c r="K151" s="36"/>
     </row>
     <row r="152" spans="1:11">
       <c r="A152" s="3"/>
@@ -4346,7 +4472,7 @@
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
-      <c r="K152" s="33"/>
+      <c r="K152" s="36"/>
     </row>
     <row r="153" spans="1:11">
       <c r="A153" s="3"/>
@@ -4358,7 +4484,7 @@
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
-      <c r="K153" s="33"/>
+      <c r="K153" s="36"/>
     </row>
     <row r="154" spans="1:11">
       <c r="A154" s="3"/>
@@ -4370,7 +4496,7 @@
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
-      <c r="K154" s="33"/>
+      <c r="K154" s="36"/>
     </row>
     <row r="155" spans="1:11">
       <c r="A155" s="3"/>
@@ -4382,7 +4508,7 @@
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
-      <c r="K155" s="33"/>
+      <c r="K155" s="36"/>
     </row>
     <row r="156" spans="1:11">
       <c r="A156" s="3"/>
@@ -4394,7 +4520,7 @@
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
-      <c r="K156" s="33"/>
+      <c r="K156" s="36"/>
     </row>
     <row r="157" spans="1:11">
       <c r="A157" s="3"/>
@@ -4406,7 +4532,7 @@
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
-      <c r="K157" s="33"/>
+      <c r="K157" s="36"/>
     </row>
     <row r="158" spans="1:11">
       <c r="A158" s="3"/>
@@ -4418,7 +4544,7 @@
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
-      <c r="K158" s="33"/>
+      <c r="K158" s="36"/>
     </row>
     <row r="159" spans="1:11">
       <c r="A159" s="3"/>
@@ -4430,7 +4556,7 @@
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
-      <c r="K159" s="33"/>
+      <c r="K159" s="36"/>
     </row>
     <row r="160" spans="1:11">
       <c r="A160" s="3"/>
@@ -4442,7 +4568,7 @@
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
-      <c r="K160" s="33"/>
+      <c r="K160" s="36"/>
     </row>
     <row r="161" spans="1:11">
       <c r="A161" s="3"/>
@@ -4454,7 +4580,7 @@
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
-      <c r="K161" s="33"/>
+      <c r="K161" s="36"/>
     </row>
     <row r="162" spans="1:11">
       <c r="A162" s="3"/>
@@ -4466,7 +4592,7 @@
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
-      <c r="K162" s="33"/>
+      <c r="K162" s="36"/>
     </row>
     <row r="163" spans="1:11">
       <c r="A163" s="3"/>
@@ -4478,7 +4604,7 @@
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
-      <c r="K163" s="33"/>
+      <c r="K163" s="36"/>
     </row>
     <row r="164" spans="1:11">
       <c r="A164" s="3"/>
@@ -4490,7 +4616,7 @@
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
-      <c r="K164" s="33"/>
+      <c r="K164" s="36"/>
     </row>
     <row r="165" spans="1:11">
       <c r="A165" s="3"/>
@@ -4502,7 +4628,7 @@
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
-      <c r="K165" s="33"/>
+      <c r="K165" s="36"/>
     </row>
     <row r="166" spans="1:11">
       <c r="A166" s="3"/>
@@ -4514,7 +4640,7 @@
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
-      <c r="K166" s="33"/>
+      <c r="K166" s="36"/>
     </row>
     <row r="167" spans="1:11">
       <c r="A167" s="3"/>
@@ -4526,7 +4652,7 @@
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
-      <c r="K167" s="33"/>
+      <c r="K167" s="36"/>
     </row>
     <row r="168" spans="1:11">
       <c r="A168" s="3"/>
@@ -4538,7 +4664,7 @@
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
-      <c r="K168" s="33"/>
+      <c r="K168" s="36"/>
     </row>
     <row r="169" spans="1:11">
       <c r="A169" s="3"/>
@@ -4550,7 +4676,7 @@
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
-      <c r="K169" s="33"/>
+      <c r="K169" s="36"/>
     </row>
     <row r="170" spans="1:11">
       <c r="A170" s="3"/>
@@ -4562,7 +4688,7 @@
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
-      <c r="K170" s="33"/>
+      <c r="K170" s="36"/>
     </row>
     <row r="171" spans="1:11">
       <c r="A171" s="3"/>
@@ -4574,7 +4700,7 @@
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
-      <c r="K171" s="33"/>
+      <c r="K171" s="36"/>
     </row>
     <row r="172" spans="1:11">
       <c r="A172" s="3"/>
@@ -4586,7 +4712,7 @@
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
-      <c r="K172" s="33"/>
+      <c r="K172" s="36"/>
     </row>
     <row r="173" spans="1:11">
       <c r="A173" s="3"/>
@@ -4598,7 +4724,7 @@
       <c r="H173" s="3"/>
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
-      <c r="K173" s="33"/>
+      <c r="K173" s="36"/>
     </row>
     <row r="174" spans="1:11">
       <c r="A174" s="3"/>
@@ -4610,7 +4736,7 @@
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
-      <c r="K174" s="33"/>
+      <c r="K174" s="36"/>
     </row>
     <row r="175" spans="1:11">
       <c r="A175" s="3"/>
@@ -4622,7 +4748,7 @@
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
-      <c r="K175" s="33"/>
+      <c r="K175" s="36"/>
     </row>
     <row r="176" spans="1:11">
       <c r="A176" s="3"/>
@@ -4634,7 +4760,7 @@
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
-      <c r="K176" s="33"/>
+      <c r="K176" s="36"/>
     </row>
     <row r="177" spans="1:11">
       <c r="A177" s="3"/>
@@ -4646,7 +4772,7 @@
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
-      <c r="K177" s="33"/>
+      <c r="K177" s="36"/>
     </row>
     <row r="178" spans="1:11">
       <c r="A178" s="3"/>
@@ -4658,7 +4784,7 @@
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
-      <c r="K178" s="33"/>
+      <c r="K178" s="36"/>
     </row>
     <row r="179" spans="1:11">
       <c r="A179" s="3"/>
@@ -4670,7 +4796,7 @@
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
-      <c r="K179" s="33"/>
+      <c r="K179" s="36"/>
     </row>
     <row r="180" spans="1:11">
       <c r="A180" s="3"/>
@@ -4682,7 +4808,7 @@
       <c r="H180" s="3"/>
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
-      <c r="K180" s="33"/>
+      <c r="K180" s="36"/>
     </row>
     <row r="181" spans="1:11">
       <c r="A181" s="3"/>
@@ -4694,7 +4820,7 @@
       <c r="H181" s="3"/>
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
-      <c r="K181" s="33"/>
+      <c r="K181" s="36"/>
     </row>
     <row r="182" spans="1:11">
       <c r="A182" s="3"/>
@@ -4706,7 +4832,7 @@
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
-      <c r="K182" s="33"/>
+      <c r="K182" s="36"/>
     </row>
     <row r="183" spans="1:11">
       <c r="A183" s="3"/>
@@ -4718,7 +4844,7 @@
       <c r="H183" s="3"/>
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
-      <c r="K183" s="33"/>
+      <c r="K183" s="36"/>
     </row>
     <row r="184" spans="1:11">
       <c r="A184" s="3"/>
@@ -4730,7 +4856,7 @@
       <c r="H184" s="3"/>
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
-      <c r="K184" s="33"/>
+      <c r="K184" s="36"/>
     </row>
     <row r="185" spans="1:11">
       <c r="A185" s="3"/>
@@ -4742,7 +4868,7 @@
       <c r="H185" s="3"/>
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
-      <c r="K185" s="33"/>
+      <c r="K185" s="36"/>
     </row>
     <row r="186" spans="1:11">
       <c r="A186" s="3"/>
@@ -4754,7 +4880,7 @@
       <c r="H186" s="3"/>
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
-      <c r="K186" s="33"/>
+      <c r="K186" s="36"/>
     </row>
     <row r="187" spans="1:11">
       <c r="A187" s="3"/>
@@ -4766,7 +4892,7 @@
       <c r="H187" s="3"/>
       <c r="I187" s="3"/>
       <c r="J187" s="3"/>
-      <c r="K187" s="33"/>
+      <c r="K187" s="36"/>
     </row>
     <row r="188" spans="1:11">
       <c r="A188" s="3"/>
@@ -4778,7 +4904,7 @@
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
       <c r="J188" s="3"/>
-      <c r="K188" s="33"/>
+      <c r="K188" s="36"/>
     </row>
     <row r="189" spans="1:11">
       <c r="A189" s="3"/>
@@ -4790,7 +4916,7 @@
       <c r="H189" s="3"/>
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
-      <c r="K189" s="33"/>
+      <c r="K189" s="36"/>
     </row>
     <row r="190" spans="1:11">
       <c r="A190" s="3"/>
@@ -4802,7 +4928,7 @@
       <c r="H190" s="3"/>
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
-      <c r="K190" s="33"/>
+      <c r="K190" s="36"/>
     </row>
     <row r="191" spans="1:11">
       <c r="A191" s="3"/>
@@ -4814,7 +4940,7 @@
       <c r="H191" s="3"/>
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
-      <c r="K191" s="33"/>
+      <c r="K191" s="36"/>
     </row>
     <row r="192" spans="1:11">
       <c r="A192" s="3"/>
@@ -4826,7 +4952,7 @@
       <c r="H192" s="3"/>
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
-      <c r="K192" s="33"/>
+      <c r="K192" s="36"/>
     </row>
     <row r="193" spans="1:11">
       <c r="A193" s="3"/>
@@ -4838,7 +4964,7 @@
       <c r="H193" s="3"/>
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
-      <c r="K193" s="33"/>
+      <c r="K193" s="36"/>
     </row>
     <row r="194" spans="1:11">
       <c r="A194" s="3"/>
@@ -4850,7 +4976,7 @@
       <c r="H194" s="3"/>
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
-      <c r="K194" s="33"/>
+      <c r="K194" s="36"/>
     </row>
     <row r="195" spans="1:11">
       <c r="A195" s="3"/>
@@ -4862,7 +4988,7 @@
       <c r="H195" s="3"/>
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
-      <c r="K195" s="33"/>
+      <c r="K195" s="36"/>
     </row>
     <row r="196" spans="1:11">
       <c r="A196" s="3"/>
@@ -4874,7 +5000,7 @@
       <c r="H196" s="3"/>
       <c r="I196" s="3"/>
       <c r="J196" s="3"/>
-      <c r="K196" s="33"/>
+      <c r="K196" s="36"/>
     </row>
     <row r="197" spans="1:11">
       <c r="A197" s="3"/>
@@ -4886,7 +5012,7 @@
       <c r="H197" s="3"/>
       <c r="I197" s="3"/>
       <c r="J197" s="3"/>
-      <c r="K197" s="33"/>
+      <c r="K197" s="36"/>
     </row>
     <row r="198" spans="1:11">
       <c r="A198" s="3"/>
@@ -4898,7 +5024,7 @@
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
       <c r="J198" s="3"/>
-      <c r="K198" s="33"/>
+      <c r="K198" s="36"/>
     </row>
     <row r="199" spans="1:11">
       <c r="A199" s="3"/>
@@ -4910,7 +5036,7 @@
       <c r="H199" s="3"/>
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
-      <c r="K199" s="33"/>
+      <c r="K199" s="36"/>
     </row>
     <row r="200" spans="1:11">
       <c r="A200" s="3"/>
@@ -4922,7 +5048,7 @@
       <c r="H200" s="3"/>
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
-      <c r="K200" s="33"/>
+      <c r="K200" s="36"/>
     </row>
     <row r="201" spans="1:11">
       <c r="A201" s="3"/>
@@ -4934,7 +5060,7 @@
       <c r="H201" s="3"/>
       <c r="I201" s="3"/>
       <c r="J201" s="3"/>
-      <c r="K201" s="33"/>
+      <c r="K201" s="36"/>
     </row>
     <row r="202" spans="1:11">
       <c r="A202" s="3"/>
@@ -4946,7 +5072,7 @@
       <c r="H202" s="3"/>
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
-      <c r="K202" s="33"/>
+      <c r="K202" s="36"/>
     </row>
     <row r="203" spans="1:11">
       <c r="A203" s="3"/>
@@ -4958,7 +5084,7 @@
       <c r="H203" s="3"/>
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
-      <c r="K203" s="33"/>
+      <c r="K203" s="36"/>
     </row>
     <row r="204" spans="1:11">
       <c r="A204" s="3"/>
@@ -4970,7 +5096,7 @@
       <c r="H204" s="3"/>
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
-      <c r="K204" s="33"/>
+      <c r="K204" s="36"/>
     </row>
     <row r="205" spans="1:11">
       <c r="A205" s="3"/>
@@ -4982,7 +5108,7 @@
       <c r="H205" s="3"/>
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
-      <c r="K205" s="33"/>
+      <c r="K205" s="36"/>
     </row>
     <row r="206" spans="1:11">
       <c r="A206" s="3"/>
@@ -4994,7 +5120,7 @@
       <c r="H206" s="3"/>
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
-      <c r="K206" s="33"/>
+      <c r="K206" s="36"/>
     </row>
     <row r="207" spans="1:11">
       <c r="A207" s="3"/>
@@ -5006,7 +5132,7 @@
       <c r="H207" s="3"/>
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
-      <c r="K207" s="33"/>
+      <c r="K207" s="36"/>
     </row>
     <row r="208" spans="1:11">
       <c r="A208" s="3"/>
@@ -5018,7 +5144,7 @@
       <c r="H208" s="3"/>
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
-      <c r="K208" s="33"/>
+      <c r="K208" s="36"/>
     </row>
     <row r="209" spans="1:11">
       <c r="A209" s="3"/>
@@ -5030,7 +5156,7 @@
       <c r="H209" s="3"/>
       <c r="I209" s="3"/>
       <c r="J209" s="3"/>
-      <c r="K209" s="33"/>
+      <c r="K209" s="36"/>
     </row>
     <row r="210" spans="1:11">
       <c r="A210" s="3"/>
@@ -5042,7 +5168,7 @@
       <c r="H210" s="3"/>
       <c r="I210" s="3"/>
       <c r="J210" s="3"/>
-      <c r="K210" s="33"/>
+      <c r="K210" s="36"/>
     </row>
     <row r="211" spans="1:11">
       <c r="A211" s="3"/>
@@ -5054,7 +5180,7 @@
       <c r="H211" s="3"/>
       <c r="I211" s="3"/>
       <c r="J211" s="3"/>
-      <c r="K211" s="33"/>
+      <c r="K211" s="36"/>
     </row>
     <row r="212" spans="1:11">
       <c r="A212" s="3"/>
@@ -5066,7 +5192,7 @@
       <c r="H212" s="3"/>
       <c r="I212" s="3"/>
       <c r="J212" s="3"/>
-      <c r="K212" s="33"/>
+      <c r="K212" s="36"/>
     </row>
     <row r="213" spans="1:11">
       <c r="A213" s="3"/>
@@ -5078,7 +5204,7 @@
       <c r="H213" s="3"/>
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
-      <c r="K213" s="33"/>
+      <c r="K213" s="36"/>
     </row>
     <row r="214" spans="1:11">
       <c r="A214" s="3"/>
@@ -5090,7 +5216,7 @@
       <c r="H214" s="3"/>
       <c r="I214" s="3"/>
       <c r="J214" s="3"/>
-      <c r="K214" s="33"/>
+      <c r="K214" s="36"/>
     </row>
     <row r="215" spans="1:11">
       <c r="A215" s="3"/>
@@ -5102,7 +5228,7 @@
       <c r="H215" s="3"/>
       <c r="I215" s="3"/>
       <c r="J215" s="3"/>
-      <c r="K215" s="33"/>
+      <c r="K215" s="36"/>
     </row>
     <row r="216" spans="1:11">
       <c r="A216" s="3"/>
@@ -5114,7 +5240,7 @@
       <c r="H216" s="3"/>
       <c r="I216" s="3"/>
       <c r="J216" s="3"/>
-      <c r="K216" s="33"/>
+      <c r="K216" s="36"/>
     </row>
     <row r="217" spans="1:11">
       <c r="A217" s="3"/>
@@ -5126,7 +5252,7 @@
       <c r="H217" s="3"/>
       <c r="I217" s="3"/>
       <c r="J217" s="3"/>
-      <c r="K217" s="33"/>
+      <c r="K217" s="36"/>
     </row>
     <row r="218" spans="1:11">
       <c r="A218" s="3"/>
@@ -5138,7 +5264,7 @@
       <c r="H218" s="3"/>
       <c r="I218" s="3"/>
       <c r="J218" s="3"/>
-      <c r="K218" s="33"/>
+      <c r="K218" s="36"/>
     </row>
     <row r="219" spans="1:11">
       <c r="A219" s="3"/>
@@ -5150,7 +5276,7 @@
       <c r="H219" s="3"/>
       <c r="I219" s="3"/>
       <c r="J219" s="3"/>
-      <c r="K219" s="33"/>
+      <c r="K219" s="36"/>
     </row>
     <row r="220" spans="1:11">
       <c r="A220" s="3"/>
@@ -5162,7 +5288,7 @@
       <c r="H220" s="3"/>
       <c r="I220" s="3"/>
       <c r="J220" s="3"/>
-      <c r="K220" s="33"/>
+      <c r="K220" s="36"/>
     </row>
     <row r="221" spans="1:11">
       <c r="A221" s="3"/>
@@ -5174,7 +5300,7 @@
       <c r="H221" s="3"/>
       <c r="I221" s="3"/>
       <c r="J221" s="3"/>
-      <c r="K221" s="33"/>
+      <c r="K221" s="36"/>
     </row>
     <row r="222" spans="1:11">
       <c r="A222" s="3"/>
@@ -5186,7 +5312,7 @@
       <c r="H222" s="3"/>
       <c r="I222" s="3"/>
       <c r="J222" s="3"/>
-      <c r="K222" s="33"/>
+      <c r="K222" s="36"/>
     </row>
     <row r="223" spans="1:11">
       <c r="A223" s="3"/>
@@ -5198,7 +5324,7 @@
       <c r="H223" s="3"/>
       <c r="I223" s="3"/>
       <c r="J223" s="3"/>
-      <c r="K223" s="33"/>
+      <c r="K223" s="36"/>
     </row>
     <row r="224" spans="1:11">
       <c r="A224" s="3"/>
@@ -5210,7 +5336,7 @@
       <c r="H224" s="3"/>
       <c r="I224" s="3"/>
       <c r="J224" s="3"/>
-      <c r="K224" s="33"/>
+      <c r="K224" s="36"/>
     </row>
     <row r="225" spans="1:11">
       <c r="A225" s="3"/>
@@ -5222,7 +5348,7 @@
       <c r="H225" s="3"/>
       <c r="I225" s="3"/>
       <c r="J225" s="3"/>
-      <c r="K225" s="33"/>
+      <c r="K225" s="36"/>
     </row>
     <row r="226" spans="1:11">
       <c r="A226" s="3"/>
@@ -5234,7 +5360,7 @@
       <c r="H226" s="3"/>
       <c r="I226" s="3"/>
       <c r="J226" s="3"/>
-      <c r="K226" s="33"/>
+      <c r="K226" s="36"/>
     </row>
     <row r="227" spans="1:11">
       <c r="A227" s="3"/>
@@ -5246,7 +5372,7 @@
       <c r="H227" s="3"/>
       <c r="I227" s="3"/>
       <c r="J227" s="3"/>
-      <c r="K227" s="33"/>
+      <c r="K227" s="36"/>
     </row>
     <row r="228" spans="1:11">
       <c r="A228" s="3"/>
@@ -5258,7 +5384,7 @@
       <c r="H228" s="3"/>
       <c r="I228" s="3"/>
       <c r="J228" s="3"/>
-      <c r="K228" s="33"/>
+      <c r="K228" s="36"/>
     </row>
     <row r="229" spans="1:11">
       <c r="A229" s="3"/>
@@ -5270,7 +5396,7 @@
       <c r="H229" s="3"/>
       <c r="I229" s="3"/>
       <c r="J229" s="3"/>
-      <c r="K229" s="33"/>
+      <c r="K229" s="36"/>
     </row>
     <row r="230" spans="1:11">
       <c r="A230" s="3"/>
@@ -5282,7 +5408,7 @@
       <c r="H230" s="3"/>
       <c r="I230" s="3"/>
       <c r="J230" s="3"/>
-      <c r="K230" s="33"/>
+      <c r="K230" s="36"/>
     </row>
     <row r="231" spans="1:11">
       <c r="A231" s="3"/>
@@ -5294,7 +5420,7 @@
       <c r="H231" s="3"/>
       <c r="I231" s="3"/>
       <c r="J231" s="3"/>
-      <c r="K231" s="33"/>
+      <c r="K231" s="36"/>
     </row>
     <row r="232" spans="1:11">
       <c r="A232" s="3"/>
@@ -5306,7 +5432,7 @@
       <c r="H232" s="3"/>
       <c r="I232" s="3"/>
       <c r="J232" s="3"/>
-      <c r="K232" s="33"/>
+      <c r="K232" s="36"/>
     </row>
     <row r="233" spans="1:11">
       <c r="A233" s="3"/>
@@ -5318,7 +5444,7 @@
       <c r="H233" s="3"/>
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
-      <c r="K233" s="33"/>
+      <c r="K233" s="36"/>
     </row>
     <row r="234" spans="1:11">
       <c r="A234" s="3"/>
@@ -5330,7 +5456,7 @@
       <c r="H234" s="3"/>
       <c r="I234" s="3"/>
       <c r="J234" s="3"/>
-      <c r="K234" s="33"/>
+      <c r="K234" s="36"/>
     </row>
     <row r="235" spans="1:11">
       <c r="A235" s="3"/>
@@ -5342,7 +5468,7 @@
       <c r="H235" s="3"/>
       <c r="I235" s="3"/>
       <c r="J235" s="3"/>
-      <c r="K235" s="33"/>
+      <c r="K235" s="36"/>
     </row>
     <row r="236" spans="1:11">
       <c r="A236" s="3"/>
@@ -5354,7 +5480,7 @@
       <c r="H236" s="3"/>
       <c r="I236" s="3"/>
       <c r="J236" s="3"/>
-      <c r="K236" s="33"/>
+      <c r="K236" s="36"/>
     </row>
     <row r="237" spans="1:11">
       <c r="A237" s="3"/>
@@ -5366,7 +5492,7 @@
       <c r="H237" s="3"/>
       <c r="I237" s="3"/>
       <c r="J237" s="3"/>
-      <c r="K237" s="33"/>
+      <c r="K237" s="36"/>
     </row>
     <row r="238" spans="1:11">
       <c r="A238" s="3"/>
@@ -5378,7 +5504,7 @@
       <c r="H238" s="3"/>
       <c r="I238" s="3"/>
       <c r="J238" s="3"/>
-      <c r="K238" s="33"/>
+      <c r="K238" s="36"/>
     </row>
     <row r="239" spans="1:11">
       <c r="A239" s="3"/>
@@ -5390,7 +5516,7 @@
       <c r="H239" s="3"/>
       <c r="I239" s="3"/>
       <c r="J239" s="3"/>
-      <c r="K239" s="33"/>
+      <c r="K239" s="36"/>
     </row>
     <row r="240" spans="1:11">
       <c r="A240" s="3"/>
@@ -5402,7 +5528,7 @@
       <c r="H240" s="3"/>
       <c r="I240" s="3"/>
       <c r="J240" s="3"/>
-      <c r="K240" s="33"/>
+      <c r="K240" s="36"/>
     </row>
     <row r="241" spans="1:11">
       <c r="A241" s="3"/>
@@ -5414,7 +5540,7 @@
       <c r="H241" s="3"/>
       <c r="I241" s="3"/>
       <c r="J241" s="3"/>
-      <c r="K241" s="33"/>
+      <c r="K241" s="36"/>
     </row>
     <row r="242" spans="1:11">
       <c r="A242" s="3"/>
@@ -5426,7 +5552,7 @@
       <c r="H242" s="3"/>
       <c r="I242" s="3"/>
       <c r="J242" s="3"/>
-      <c r="K242" s="33"/>
+      <c r="K242" s="36"/>
     </row>
     <row r="243" spans="1:11">
       <c r="A243" s="3"/>
@@ -5438,7 +5564,7 @@
       <c r="H243" s="3"/>
       <c r="I243" s="3"/>
       <c r="J243" s="3"/>
-      <c r="K243" s="33"/>
+      <c r="K243" s="36"/>
     </row>
     <row r="244" spans="1:11">
       <c r="A244" s="3"/>
@@ -5450,7 +5576,7 @@
       <c r="H244" s="3"/>
       <c r="I244" s="3"/>
       <c r="J244" s="3"/>
-      <c r="K244" s="33"/>
+      <c r="K244" s="36"/>
     </row>
     <row r="245" spans="1:11">
       <c r="A245" s="3"/>
@@ -5462,7 +5588,7 @@
       <c r="H245" s="3"/>
       <c r="I245" s="3"/>
       <c r="J245" s="3"/>
-      <c r="K245" s="33"/>
+      <c r="K245" s="36"/>
     </row>
     <row r="246" spans="1:11">
       <c r="A246" s="3"/>
@@ -5474,7 +5600,7 @@
       <c r="H246" s="3"/>
       <c r="I246" s="3"/>
       <c r="J246" s="3"/>
-      <c r="K246" s="33"/>
+      <c r="K246" s="36"/>
     </row>
     <row r="247" spans="1:11">
       <c r="A247" s="3"/>
@@ -5486,7 +5612,7 @@
       <c r="H247" s="3"/>
       <c r="I247" s="3"/>
       <c r="J247" s="3"/>
-      <c r="K247" s="33"/>
+      <c r="K247" s="36"/>
     </row>
     <row r="248" spans="1:11">
       <c r="A248" s="3"/>
@@ -5498,7 +5624,7 @@
       <c r="H248" s="3"/>
       <c r="I248" s="3"/>
       <c r="J248" s="3"/>
-      <c r="K248" s="33"/>
+      <c r="K248" s="36"/>
     </row>
     <row r="249" spans="1:11">
       <c r="A249" s="3"/>
@@ -5510,7 +5636,7 @@
       <c r="H249" s="3"/>
       <c r="I249" s="3"/>
       <c r="J249" s="3"/>
-      <c r="K249" s="33"/>
+      <c r="K249" s="36"/>
     </row>
     <row r="250" spans="1:11">
       <c r="A250" s="3"/>
@@ -5522,7 +5648,7 @@
       <c r="H250" s="3"/>
       <c r="I250" s="3"/>
       <c r="J250" s="3"/>
-      <c r="K250" s="33"/>
+      <c r="K250" s="36"/>
     </row>
     <row r="251" spans="1:11">
       <c r="A251" s="3"/>
@@ -5534,7 +5660,7 @@
       <c r="H251" s="3"/>
       <c r="I251" s="3"/>
       <c r="J251" s="3"/>
-      <c r="K251" s="33"/>
+      <c r="K251" s="36"/>
     </row>
     <row r="252" spans="1:11">
       <c r="A252" s="3"/>
@@ -5546,7 +5672,7 @@
       <c r="H252" s="3"/>
       <c r="I252" s="3"/>
       <c r="J252" s="3"/>
-      <c r="K252" s="33"/>
+      <c r="K252" s="36"/>
     </row>
     <row r="253" spans="1:11">
       <c r="A253" s="3"/>
@@ -5558,7 +5684,7 @@
       <c r="H253" s="3"/>
       <c r="I253" s="3"/>
       <c r="J253" s="3"/>
-      <c r="K253" s="33"/>
+      <c r="K253" s="36"/>
     </row>
     <row r="254" spans="1:11">
       <c r="A254" s="3"/>
@@ -5570,7 +5696,7 @@
       <c r="H254" s="3"/>
       <c r="I254" s="3"/>
       <c r="J254" s="3"/>
-      <c r="K254" s="33"/>
+      <c r="K254" s="36"/>
     </row>
     <row r="255" spans="1:11">
       <c r="A255" s="3"/>
@@ -5582,7 +5708,7 @@
       <c r="H255" s="3"/>
       <c r="I255" s="3"/>
       <c r="J255" s="3"/>
-      <c r="K255" s="33"/>
+      <c r="K255" s="36"/>
     </row>
     <row r="256" spans="1:11">
       <c r="A256" s="3"/>
@@ -5594,7 +5720,7 @@
       <c r="H256" s="3"/>
       <c r="I256" s="3"/>
       <c r="J256" s="3"/>
-      <c r="K256" s="33"/>
+      <c r="K256" s="36"/>
     </row>
     <row r="257" spans="1:11">
       <c r="A257" s="3"/>
@@ -5606,7 +5732,7 @@
       <c r="H257" s="3"/>
       <c r="I257" s="3"/>
       <c r="J257" s="3"/>
-      <c r="K257" s="33"/>
+      <c r="K257" s="36"/>
     </row>
     <row r="258" spans="1:11">
       <c r="A258" s="3"/>
@@ -5618,7 +5744,7 @@
       <c r="H258" s="3"/>
       <c r="I258" s="3"/>
       <c r="J258" s="3"/>
-      <c r="K258" s="33"/>
+      <c r="K258" s="36"/>
     </row>
     <row r="259" spans="1:11">
       <c r="A259" s="3"/>
@@ -5630,7 +5756,7 @@
       <c r="H259" s="3"/>
       <c r="I259" s="3"/>
       <c r="J259" s="3"/>
-      <c r="K259" s="33"/>
+      <c r="K259" s="36"/>
     </row>
     <row r="260" spans="1:11">
       <c r="A260" s="3"/>
@@ -5642,7 +5768,7 @@
       <c r="H260" s="3"/>
       <c r="I260" s="3"/>
       <c r="J260" s="3"/>
-      <c r="K260" s="33"/>
+      <c r="K260" s="36"/>
     </row>
     <row r="261" spans="1:11">
       <c r="A261" s="3"/>
@@ -5654,7 +5780,7 @@
       <c r="H261" s="3"/>
       <c r="I261" s="3"/>
       <c r="J261" s="3"/>
-      <c r="K261" s="33"/>
+      <c r="K261" s="36"/>
     </row>
     <row r="262" spans="1:11">
       <c r="A262" s="3"/>
@@ -5666,7 +5792,7 @@
       <c r="H262" s="3"/>
       <c r="I262" s="3"/>
       <c r="J262" s="3"/>
-      <c r="K262" s="33"/>
+      <c r="K262" s="36"/>
     </row>
     <row r="263" spans="1:11">
       <c r="A263" s="3"/>
@@ -5678,7 +5804,7 @@
       <c r="H263" s="3"/>
       <c r="I263" s="3"/>
       <c r="J263" s="3"/>
-      <c r="K263" s="33"/>
+      <c r="K263" s="36"/>
     </row>
     <row r="264" spans="1:11">
       <c r="A264" s="3"/>
@@ -5690,7 +5816,7 @@
       <c r="H264" s="3"/>
       <c r="I264" s="3"/>
       <c r="J264" s="3"/>
-      <c r="K264" s="33"/>
+      <c r="K264" s="36"/>
     </row>
     <row r="265" spans="1:11">
       <c r="A265" s="3"/>
@@ -5702,7 +5828,7 @@
       <c r="H265" s="3"/>
       <c r="I265" s="3"/>
       <c r="J265" s="3"/>
-      <c r="K265" s="33"/>
+      <c r="K265" s="36"/>
     </row>
     <row r="266" spans="1:11">
       <c r="A266" s="3"/>
@@ -5714,7 +5840,7 @@
       <c r="H266" s="3"/>
       <c r="I266" s="3"/>
       <c r="J266" s="3"/>
-      <c r="K266" s="33"/>
+      <c r="K266" s="36"/>
     </row>
     <row r="267" spans="1:11">
       <c r="A267" s="3"/>
@@ -5726,7 +5852,7 @@
       <c r="H267" s="3"/>
       <c r="I267" s="3"/>
       <c r="J267" s="3"/>
-      <c r="K267" s="33"/>
+      <c r="K267" s="36"/>
     </row>
     <row r="268" spans="1:11">
       <c r="A268" s="3"/>
@@ -5738,7 +5864,7 @@
       <c r="H268" s="3"/>
       <c r="I268" s="3"/>
       <c r="J268" s="3"/>
-      <c r="K268" s="33"/>
+      <c r="K268" s="36"/>
     </row>
     <row r="269" spans="1:11">
       <c r="A269" s="3"/>
@@ -5750,7 +5876,7 @@
       <c r="H269" s="3"/>
       <c r="I269" s="3"/>
       <c r="J269" s="3"/>
-      <c r="K269" s="33"/>
+      <c r="K269" s="36"/>
     </row>
     <row r="270" spans="1:11">
       <c r="A270" s="3"/>
@@ -5762,7 +5888,7 @@
       <c r="H270" s="3"/>
       <c r="I270" s="3"/>
       <c r="J270" s="3"/>
-      <c r="K270" s="33"/>
+      <c r="K270" s="36"/>
     </row>
     <row r="271" spans="1:11">
       <c r="A271" s="3"/>
@@ -5774,7 +5900,7 @@
       <c r="H271" s="3"/>
       <c r="I271" s="3"/>
       <c r="J271" s="3"/>
-      <c r="K271" s="33"/>
+      <c r="K271" s="36"/>
     </row>
     <row r="272" spans="1:11">
       <c r="A272" s="3"/>
@@ -5786,7 +5912,7 @@
       <c r="H272" s="3"/>
       <c r="I272" s="3"/>
       <c r="J272" s="3"/>
-      <c r="K272" s="33"/>
+      <c r="K272" s="36"/>
     </row>
     <row r="273" spans="1:11">
       <c r="A273" s="3"/>
@@ -5798,7 +5924,7 @@
       <c r="H273" s="3"/>
       <c r="I273" s="3"/>
       <c r="J273" s="3"/>
-      <c r="K273" s="33"/>
+      <c r="K273" s="36"/>
     </row>
     <row r="274" spans="1:11">
       <c r="A274" s="3"/>
@@ -5810,7 +5936,7 @@
       <c r="H274" s="3"/>
       <c r="I274" s="3"/>
       <c r="J274" s="3"/>
-      <c r="K274" s="33"/>
+      <c r="K274" s="36"/>
     </row>
     <row r="275" spans="1:11">
       <c r="A275" s="3"/>
@@ -5822,7 +5948,7 @@
       <c r="H275" s="3"/>
       <c r="I275" s="3"/>
       <c r="J275" s="3"/>
-      <c r="K275" s="33"/>
+      <c r="K275" s="36"/>
     </row>
     <row r="276" spans="1:11">
       <c r="A276" s="3"/>
@@ -5834,7 +5960,7 @@
       <c r="H276" s="3"/>
       <c r="I276" s="3"/>
       <c r="J276" s="3"/>
-      <c r="K276" s="33"/>
+      <c r="K276" s="36"/>
     </row>
     <row r="277" spans="1:11">
       <c r="A277" s="3"/>
@@ -5846,7 +5972,7 @@
       <c r="H277" s="3"/>
       <c r="I277" s="3"/>
       <c r="J277" s="3"/>
-      <c r="K277" s="33"/>
+      <c r="K277" s="36"/>
     </row>
     <row r="278" spans="1:11">
       <c r="A278" s="3"/>
@@ -5858,7 +5984,7 @@
       <c r="H278" s="3"/>
       <c r="I278" s="3"/>
       <c r="J278" s="3"/>
-      <c r="K278" s="33"/>
+      <c r="K278" s="36"/>
     </row>
     <row r="279" spans="1:11">
       <c r="A279" s="3"/>
@@ -5870,7 +5996,7 @@
       <c r="H279" s="3"/>
       <c r="I279" s="3"/>
       <c r="J279" s="3"/>
-      <c r="K279" s="33"/>
+      <c r="K279" s="36"/>
     </row>
     <row r="280" spans="1:11">
       <c r="A280" s="3"/>
@@ -5882,7 +6008,7 @@
       <c r="H280" s="3"/>
       <c r="I280" s="3"/>
       <c r="J280" s="3"/>
-      <c r="K280" s="33"/>
+      <c r="K280" s="36"/>
     </row>
     <row r="281" spans="1:11">
       <c r="A281" s="3"/>
@@ -5894,7 +6020,7 @@
       <c r="H281" s="3"/>
       <c r="I281" s="3"/>
       <c r="J281" s="3"/>
-      <c r="K281" s="33"/>
+      <c r="K281" s="36"/>
     </row>
     <row r="282" spans="1:11">
       <c r="A282" s="3"/>
@@ -5906,7 +6032,7 @@
       <c r="H282" s="3"/>
       <c r="I282" s="3"/>
       <c r="J282" s="3"/>
-      <c r="K282" s="33"/>
+      <c r="K282" s="36"/>
     </row>
     <row r="283" spans="1:11">
       <c r="A283" s="3"/>
@@ -5918,7 +6044,7 @@
       <c r="H283" s="3"/>
       <c r="I283" s="3"/>
       <c r="J283" s="3"/>
-      <c r="K283" s="33"/>
+      <c r="K283" s="36"/>
     </row>
     <row r="284" spans="1:11">
       <c r="A284" s="3"/>
@@ -5930,7 +6056,7 @@
       <c r="H284" s="3"/>
       <c r="I284" s="3"/>
       <c r="J284" s="3"/>
-      <c r="K284" s="33"/>
+      <c r="K284" s="36"/>
     </row>
     <row r="285" spans="1:11">
       <c r="A285" s="3"/>
@@ -5942,7 +6068,7 @@
       <c r="H285" s="3"/>
       <c r="I285" s="3"/>
       <c r="J285" s="3"/>
-      <c r="K285" s="33"/>
+      <c r="K285" s="36"/>
     </row>
     <row r="286" spans="1:11">
       <c r="A286" s="3"/>
@@ -5954,7 +6080,7 @@
       <c r="H286" s="3"/>
       <c r="I286" s="3"/>
       <c r="J286" s="3"/>
-      <c r="K286" s="33"/>
+      <c r="K286" s="36"/>
     </row>
     <row r="287" spans="1:11">
       <c r="A287" s="3"/>
@@ -5966,7 +6092,7 @@
       <c r="H287" s="3"/>
       <c r="I287" s="3"/>
       <c r="J287" s="3"/>
-      <c r="K287" s="33"/>
+      <c r="K287" s="36"/>
     </row>
     <row r="288" spans="1:11">
       <c r="A288" s="3"/>
@@ -5978,7 +6104,7 @@
       <c r="H288" s="3"/>
       <c r="I288" s="3"/>
       <c r="J288" s="3"/>
-      <c r="K288" s="33"/>
+      <c r="K288" s="36"/>
     </row>
     <row r="289" spans="1:11">
       <c r="A289" s="3"/>
@@ -5990,7 +6116,7 @@
       <c r="H289" s="3"/>
       <c r="I289" s="3"/>
       <c r="J289" s="3"/>
-      <c r="K289" s="33"/>
+      <c r="K289" s="36"/>
     </row>
     <row r="290" spans="1:11">
       <c r="A290" s="3"/>
@@ -6002,7 +6128,7 @@
       <c r="H290" s="3"/>
       <c r="I290" s="3"/>
       <c r="J290" s="3"/>
-      <c r="K290" s="33"/>
+      <c r="K290" s="36"/>
     </row>
     <row r="291" spans="1:11">
       <c r="A291" s="3"/>
@@ -6014,7 +6140,7 @@
       <c r="H291" s="3"/>
       <c r="I291" s="3"/>
       <c r="J291" s="3"/>
-      <c r="K291" s="33"/>
+      <c r="K291" s="36"/>
     </row>
     <row r="292" spans="1:11">
       <c r="A292" s="3"/>
@@ -6026,7 +6152,7 @@
       <c r="H292" s="3"/>
       <c r="I292" s="3"/>
       <c r="J292" s="3"/>
-      <c r="K292" s="33"/>
+      <c r="K292" s="36"/>
     </row>
     <row r="293" spans="1:11">
       <c r="A293" s="3"/>
@@ -6038,7 +6164,7 @@
       <c r="H293" s="3"/>
       <c r="I293" s="3"/>
       <c r="J293" s="3"/>
-      <c r="K293" s="33"/>
+      <c r="K293" s="36"/>
     </row>
     <row r="294" spans="1:11">
       <c r="A294" s="3"/>
@@ -6050,7 +6176,7 @@
       <c r="H294" s="3"/>
       <c r="I294" s="3"/>
       <c r="J294" s="3"/>
-      <c r="K294" s="33"/>
+      <c r="K294" s="36"/>
     </row>
     <row r="295" spans="1:11">
       <c r="A295" s="3"/>
@@ -6062,7 +6188,7 @@
       <c r="H295" s="3"/>
       <c r="I295" s="3"/>
       <c r="J295" s="3"/>
-      <c r="K295" s="33"/>
+      <c r="K295" s="36"/>
     </row>
     <row r="296" spans="1:11">
       <c r="A296" s="3"/>
@@ -6074,7 +6200,7 @@
       <c r="H296" s="3"/>
       <c r="I296" s="3"/>
       <c r="J296" s="3"/>
-      <c r="K296" s="33"/>
+      <c r="K296" s="36"/>
     </row>
     <row r="297" spans="1:11">
       <c r="A297" s="3"/>
@@ -6086,7 +6212,7 @@
       <c r="H297" s="3"/>
       <c r="I297" s="3"/>
       <c r="J297" s="3"/>
-      <c r="K297" s="33"/>
+      <c r="K297" s="36"/>
     </row>
     <row r="298" spans="1:11">
       <c r="A298" s="3"/>
@@ -6098,7 +6224,7 @@
       <c r="H298" s="3"/>
       <c r="I298" s="3"/>
       <c r="J298" s="3"/>
-      <c r="K298" s="33"/>
+      <c r="K298" s="36"/>
     </row>
     <row r="299" spans="1:11">
       <c r="A299" s="3"/>
@@ -6110,7 +6236,7 @@
       <c r="H299" s="3"/>
       <c r="I299" s="3"/>
       <c r="J299" s="3"/>
-      <c r="K299" s="33"/>
+      <c r="K299" s="36"/>
     </row>
     <row r="300" spans="1:11">
       <c r="A300" s="3"/>
@@ -6122,7 +6248,7 @@
       <c r="H300" s="3"/>
       <c r="I300" s="3"/>
       <c r="J300" s="3"/>
-      <c r="K300" s="33"/>
+      <c r="K300" s="36"/>
     </row>
     <row r="301" spans="1:11">
       <c r="A301" s="3"/>
@@ -6134,7 +6260,7 @@
       <c r="H301" s="3"/>
       <c r="I301" s="3"/>
       <c r="J301" s="3"/>
-      <c r="K301" s="33"/>
+      <c r="K301" s="36"/>
     </row>
     <row r="302" spans="1:11">
       <c r="A302" s="3"/>
@@ -6146,7 +6272,7 @@
       <c r="H302" s="3"/>
       <c r="I302" s="3"/>
       <c r="J302" s="3"/>
-      <c r="K302" s="33"/>
+      <c r="K302" s="36"/>
     </row>
     <row r="303" spans="1:11">
       <c r="A303" s="3"/>
@@ -6158,7 +6284,7 @@
       <c r="H303" s="3"/>
       <c r="I303" s="3"/>
       <c r="J303" s="3"/>
-      <c r="K303" s="33"/>
+      <c r="K303" s="36"/>
     </row>
     <row r="304" spans="1:11">
       <c r="A304" s="3"/>
@@ -6170,7 +6296,7 @@
       <c r="H304" s="3"/>
       <c r="I304" s="3"/>
       <c r="J304" s="3"/>
-      <c r="K304" s="33"/>
+      <c r="K304" s="36"/>
     </row>
     <row r="305" spans="1:11">
       <c r="A305" s="3"/>
@@ -6182,7 +6308,7 @@
       <c r="H305" s="3"/>
       <c r="I305" s="3"/>
       <c r="J305" s="3"/>
-      <c r="K305" s="33"/>
+      <c r="K305" s="36"/>
     </row>
     <row r="306" spans="1:11">
       <c r="A306" s="3"/>
@@ -6194,7 +6320,7 @@
       <c r="H306" s="3"/>
       <c r="I306" s="3"/>
       <c r="J306" s="3"/>
-      <c r="K306" s="33"/>
+      <c r="K306" s="36"/>
     </row>
     <row r="307" spans="1:11">
       <c r="A307" s="3"/>
@@ -6206,7 +6332,7 @@
       <c r="H307" s="3"/>
       <c r="I307" s="3"/>
       <c r="J307" s="3"/>
-      <c r="K307" s="33"/>
+      <c r="K307" s="36"/>
     </row>
     <row r="308" spans="1:11">
       <c r="A308" s="3"/>
@@ -6218,7 +6344,7 @@
       <c r="H308" s="3"/>
       <c r="I308" s="3"/>
       <c r="J308" s="3"/>
-      <c r="K308" s="33"/>
+      <c r="K308" s="36"/>
     </row>
     <row r="309" spans="1:11">
       <c r="A309" s="3"/>
@@ -6230,7 +6356,7 @@
       <c r="H309" s="3"/>
       <c r="I309" s="3"/>
       <c r="J309" s="3"/>
-      <c r="K309" s="33"/>
+      <c r="K309" s="36"/>
     </row>
     <row r="310" spans="1:11">
       <c r="A310" s="3"/>
@@ -6242,7 +6368,7 @@
       <c r="H310" s="3"/>
       <c r="I310" s="3"/>
       <c r="J310" s="3"/>
-      <c r="K310" s="33"/>
+      <c r="K310" s="36"/>
     </row>
     <row r="311" spans="1:11">
       <c r="A311" s="3"/>
@@ -6254,7 +6380,7 @@
       <c r="H311" s="3"/>
       <c r="I311" s="3"/>
       <c r="J311" s="3"/>
-      <c r="K311" s="33"/>
+      <c r="K311" s="36"/>
     </row>
     <row r="312" spans="1:11">
       <c r="A312" s="3"/>
@@ -6266,7 +6392,7 @@
       <c r="H312" s="3"/>
       <c r="I312" s="3"/>
       <c r="J312" s="3"/>
-      <c r="K312" s="33"/>
+      <c r="K312" s="36"/>
     </row>
     <row r="313" spans="1:11">
       <c r="A313" s="3"/>
@@ -6278,7 +6404,7 @@
       <c r="H313" s="3"/>
       <c r="I313" s="3"/>
       <c r="J313" s="3"/>
-      <c r="K313" s="33"/>
+      <c r="K313" s="36"/>
     </row>
     <row r="314" spans="1:11">
       <c r="A314" s="3"/>
@@ -6290,7 +6416,7 @@
       <c r="H314" s="3"/>
       <c r="I314" s="3"/>
       <c r="J314" s="3"/>
-      <c r="K314" s="33"/>
+      <c r="K314" s="36"/>
     </row>
     <row r="315" spans="1:11">
       <c r="A315" s="3"/>
@@ -6302,7 +6428,7 @@
       <c r="H315" s="3"/>
       <c r="I315" s="3"/>
       <c r="J315" s="3"/>
-      <c r="K315" s="33"/>
+      <c r="K315" s="36"/>
     </row>
     <row r="316" spans="1:11">
       <c r="A316" s="3"/>
@@ -6314,7 +6440,7 @@
       <c r="H316" s="3"/>
       <c r="I316" s="3"/>
       <c r="J316" s="3"/>
-      <c r="K316" s="33"/>
+      <c r="K316" s="36"/>
     </row>
     <row r="317" spans="1:11">
       <c r="A317" s="3"/>
@@ -6326,7 +6452,7 @@
       <c r="H317" s="3"/>
       <c r="I317" s="3"/>
       <c r="J317" s="3"/>
-      <c r="K317" s="33"/>
+      <c r="K317" s="36"/>
     </row>
     <row r="318" spans="1:11">
       <c r="A318" s="3"/>
@@ -6338,7 +6464,7 @@
       <c r="H318" s="3"/>
       <c r="I318" s="3"/>
       <c r="J318" s="3"/>
-      <c r="K318" s="33"/>
+      <c r="K318" s="36"/>
     </row>
     <row r="319" spans="1:11">
       <c r="A319" s="3"/>
@@ -6350,7 +6476,7 @@
       <c r="H319" s="3"/>
       <c r="I319" s="3"/>
       <c r="J319" s="3"/>
-      <c r="K319" s="33"/>
+      <c r="K319" s="36"/>
     </row>
     <row r="320" spans="1:11">
       <c r="A320" s="3"/>
@@ -6362,7 +6488,7 @@
       <c r="H320" s="3"/>
       <c r="I320" s="3"/>
       <c r="J320" s="3"/>
-      <c r="K320" s="33"/>
+      <c r="K320" s="36"/>
     </row>
     <row r="321" spans="1:11">
       <c r="A321" s="3"/>
@@ -6374,7 +6500,7 @@
       <c r="H321" s="3"/>
       <c r="I321" s="3"/>
       <c r="J321" s="3"/>
-      <c r="K321" s="33"/>
+      <c r="K321" s="36"/>
     </row>
     <row r="322" spans="1:11">
       <c r="A322" s="3"/>
@@ -6386,7 +6512,7 @@
       <c r="H322" s="3"/>
       <c r="I322" s="3"/>
       <c r="J322" s="3"/>
-      <c r="K322" s="33"/>
+      <c r="K322" s="36"/>
     </row>
     <row r="323" spans="1:11">
       <c r="A323" s="3"/>
@@ -6398,7 +6524,7 @@
       <c r="H323" s="3"/>
       <c r="I323" s="3"/>
       <c r="J323" s="3"/>
-      <c r="K323" s="33"/>
+      <c r="K323" s="36"/>
     </row>
     <row r="324" spans="1:11">
       <c r="A324" s="3"/>
@@ -6410,7 +6536,7 @@
       <c r="H324" s="3"/>
       <c r="I324" s="3"/>
       <c r="J324" s="3"/>
-      <c r="K324" s="33"/>
+      <c r="K324" s="36"/>
     </row>
     <row r="325" spans="1:11">
       <c r="A325" s="3"/>
@@ -6422,7 +6548,7 @@
       <c r="H325" s="3"/>
       <c r="I325" s="3"/>
       <c r="J325" s="3"/>
-      <c r="K325" s="33"/>
+      <c r="K325" s="36"/>
     </row>
     <row r="326" spans="1:11">
       <c r="A326" s="3"/>
@@ -6434,7 +6560,7 @@
       <c r="H326" s="3"/>
       <c r="I326" s="3"/>
       <c r="J326" s="3"/>
-      <c r="K326" s="33"/>
+      <c r="K326" s="36"/>
     </row>
     <row r="327" spans="1:11">
       <c r="A327" s="3"/>
@@ -6446,7 +6572,7 @@
       <c r="H327" s="3"/>
       <c r="I327" s="3"/>
       <c r="J327" s="3"/>
-      <c r="K327" s="33"/>
+      <c r="K327" s="36"/>
     </row>
     <row r="328" spans="1:11">
       <c r="A328" s="3"/>
@@ -6458,7 +6584,7 @@
       <c r="H328" s="3"/>
       <c r="I328" s="3"/>
       <c r="J328" s="3"/>
-      <c r="K328" s="33"/>
+      <c r="K328" s="36"/>
     </row>
     <row r="329" spans="1:11">
       <c r="A329" s="3"/>
@@ -6470,7 +6596,7 @@
       <c r="H329" s="3"/>
       <c r="I329" s="3"/>
       <c r="J329" s="3"/>
-      <c r="K329" s="33"/>
+      <c r="K329" s="36"/>
     </row>
     <row r="330" spans="1:11">
       <c r="A330" s="3"/>
@@ -6482,7 +6608,7 @@
       <c r="H330" s="3"/>
       <c r="I330" s="3"/>
       <c r="J330" s="3"/>
-      <c r="K330" s="33"/>
+      <c r="K330" s="36"/>
     </row>
     <row r="331" spans="1:11">
       <c r="A331" s="3"/>
@@ -6494,7 +6620,7 @@
       <c r="H331" s="3"/>
       <c r="I331" s="3"/>
       <c r="J331" s="3"/>
-      <c r="K331" s="33"/>
+      <c r="K331" s="36"/>
     </row>
     <row r="332" spans="1:11">
       <c r="A332" s="3"/>
@@ -6506,7 +6632,7 @@
       <c r="H332" s="3"/>
       <c r="I332" s="3"/>
       <c r="J332" s="3"/>
-      <c r="K332" s="33"/>
+      <c r="K332" s="36"/>
     </row>
     <row r="333" spans="1:11">
       <c r="A333" s="3"/>
@@ -6518,7 +6644,7 @@
       <c r="H333" s="3"/>
       <c r="I333" s="3"/>
       <c r="J333" s="3"/>
-      <c r="K333" s="33"/>
+      <c r="K333" s="36"/>
     </row>
     <row r="334" spans="1:11">
       <c r="A334" s="3"/>
@@ -6530,7 +6656,7 @@
       <c r="H334" s="3"/>
       <c r="I334" s="3"/>
       <c r="J334" s="3"/>
-      <c r="K334" s="33"/>
+      <c r="K334" s="36"/>
     </row>
     <row r="335" spans="1:11">
       <c r="A335" s="3"/>
@@ -6542,7 +6668,7 @@
       <c r="H335" s="3"/>
       <c r="I335" s="3"/>
       <c r="J335" s="3"/>
-      <c r="K335" s="33"/>
+      <c r="K335" s="36"/>
     </row>
     <row r="336" spans="1:11">
       <c r="A336" s="3"/>
@@ -6554,7 +6680,7 @@
       <c r="H336" s="3"/>
       <c r="I336" s="3"/>
       <c r="J336" s="3"/>
-      <c r="K336" s="33"/>
+      <c r="K336" s="36"/>
     </row>
     <row r="337" spans="1:11">
       <c r="A337" s="3"/>
@@ -6566,7 +6692,7 @@
       <c r="H337" s="3"/>
       <c r="I337" s="3"/>
       <c r="J337" s="3"/>
-      <c r="K337" s="33"/>
+      <c r="K337" s="36"/>
     </row>
     <row r="338" spans="1:11">
       <c r="A338" s="3"/>
@@ -6578,7 +6704,7 @@
       <c r="H338" s="3"/>
       <c r="I338" s="3"/>
       <c r="J338" s="3"/>
-      <c r="K338" s="33"/>
+      <c r="K338" s="36"/>
     </row>
     <row r="339" spans="1:11">
       <c r="A339" s="3"/>
@@ -6590,7 +6716,7 @@
       <c r="H339" s="3"/>
       <c r="I339" s="3"/>
       <c r="J339" s="3"/>
-      <c r="K339" s="33"/>
+      <c r="K339" s="36"/>
     </row>
     <row r="340" spans="1:11">
       <c r="A340" s="3"/>
@@ -6602,7 +6728,7 @@
       <c r="H340" s="3"/>
       <c r="I340" s="3"/>
       <c r="J340" s="3"/>
-      <c r="K340" s="33"/>
+      <c r="K340" s="36"/>
     </row>
     <row r="341" spans="1:11">
       <c r="A341" s="3"/>
@@ -6614,7 +6740,7 @@
       <c r="H341" s="3"/>
       <c r="I341" s="3"/>
       <c r="J341" s="3"/>
-      <c r="K341" s="33"/>
+      <c r="K341" s="36"/>
     </row>
     <row r="342" spans="1:11">
       <c r="A342" s="3"/>
@@ -6626,7 +6752,7 @@
       <c r="H342" s="3"/>
       <c r="I342" s="3"/>
       <c r="J342" s="3"/>
-      <c r="K342" s="33"/>
+      <c r="K342" s="36"/>
     </row>
     <row r="343" spans="1:11">
       <c r="A343" s="3"/>
@@ -6638,7 +6764,7 @@
       <c r="H343" s="3"/>
       <c r="I343" s="3"/>
       <c r="J343" s="3"/>
-      <c r="K343" s="33"/>
+      <c r="K343" s="36"/>
     </row>
     <row r="344" spans="1:11">
       <c r="A344" s="3"/>
@@ -6650,7 +6776,7 @@
       <c r="H344" s="3"/>
       <c r="I344" s="3"/>
       <c r="J344" s="3"/>
-      <c r="K344" s="33"/>
+      <c r="K344" s="36"/>
     </row>
     <row r="345" spans="1:11">
       <c r="A345" s="3"/>
@@ -6662,7 +6788,7 @@
       <c r="H345" s="3"/>
       <c r="I345" s="3"/>
       <c r="J345" s="3"/>
-      <c r="K345" s="33"/>
+      <c r="K345" s="36"/>
     </row>
     <row r="346" spans="1:11">
       <c r="A346" s="3"/>
@@ -6674,7 +6800,7 @@
       <c r="H346" s="3"/>
       <c r="I346" s="3"/>
       <c r="J346" s="3"/>
-      <c r="K346" s="33"/>
+      <c r="K346" s="36"/>
     </row>
     <row r="347" spans="1:11">
       <c r="A347" s="3"/>
@@ -6686,7 +6812,7 @@
       <c r="H347" s="3"/>
       <c r="I347" s="3"/>
       <c r="J347" s="3"/>
-      <c r="K347" s="33"/>
+      <c r="K347" s="36"/>
     </row>
     <row r="348" spans="1:11">
       <c r="A348" s="3"/>
@@ -6698,7 +6824,7 @@
       <c r="H348" s="3"/>
       <c r="I348" s="3"/>
       <c r="J348" s="3"/>
-      <c r="K348" s="33"/>
+      <c r="K348" s="36"/>
     </row>
     <row r="349" spans="1:11">
       <c r="A349" s="3"/>
@@ -6710,7 +6836,7 @@
       <c r="H349" s="3"/>
       <c r="I349" s="3"/>
       <c r="J349" s="3"/>
-      <c r="K349" s="33"/>
+      <c r="K349" s="36"/>
     </row>
     <row r="350" spans="1:11">
       <c r="A350" s="3"/>
@@ -6722,7 +6848,7 @@
       <c r="H350" s="3"/>
       <c r="I350" s="3"/>
       <c r="J350" s="3"/>
-      <c r="K350" s="33"/>
+      <c r="K350" s="36"/>
     </row>
     <row r="351" spans="1:11">
       <c r="A351" s="3"/>
@@ -6734,7 +6860,7 @@
       <c r="H351" s="3"/>
       <c r="I351" s="3"/>
       <c r="J351" s="3"/>
-      <c r="K351" s="33"/>
+      <c r="K351" s="36"/>
     </row>
     <row r="352" spans="1:11">
       <c r="A352" s="3"/>
@@ -6746,7 +6872,7 @@
       <c r="H352" s="3"/>
       <c r="I352" s="3"/>
       <c r="J352" s="3"/>
-      <c r="K352" s="33"/>
+      <c r="K352" s="36"/>
     </row>
     <row r="353" spans="1:11">
       <c r="A353" s="3"/>
@@ -6758,7 +6884,7 @@
       <c r="H353" s="3"/>
       <c r="I353" s="3"/>
       <c r="J353" s="3"/>
-      <c r="K353" s="33"/>
+      <c r="K353" s="36"/>
     </row>
     <row r="354" spans="1:11">
       <c r="A354" s="3"/>
@@ -6770,7 +6896,7 @@
       <c r="H354" s="3"/>
       <c r="I354" s="3"/>
       <c r="J354" s="3"/>
-      <c r="K354" s="33"/>
+      <c r="K354" s="36"/>
     </row>
     <row r="355" spans="1:11">
       <c r="A355" s="3"/>
@@ -6782,7 +6908,7 @@
       <c r="H355" s="3"/>
       <c r="I355" s="3"/>
       <c r="J355" s="3"/>
-      <c r="K355" s="33"/>
+      <c r="K355" s="36"/>
     </row>
     <row r="356" spans="1:11">
       <c r="A356" s="3"/>
@@ -6794,7 +6920,7 @@
       <c r="H356" s="3"/>
       <c r="I356" s="3"/>
       <c r="J356" s="3"/>
-      <c r="K356" s="33"/>
+      <c r="K356" s="36"/>
     </row>
     <row r="357" spans="1:11">
       <c r="A357" s="3"/>
@@ -6806,7 +6932,7 @@
       <c r="H357" s="3"/>
       <c r="I357" s="3"/>
       <c r="J357" s="3"/>
-      <c r="K357" s="33"/>
+      <c r="K357" s="36"/>
     </row>
     <row r="358" spans="1:11">
       <c r="A358" s="3"/>
@@ -6818,7 +6944,7 @@
       <c r="H358" s="3"/>
       <c r="I358" s="3"/>
       <c r="J358" s="3"/>
-      <c r="K358" s="33"/>
+      <c r="K358" s="36"/>
     </row>
     <row r="359" spans="1:11">
       <c r="A359" s="3"/>
@@ -6830,7 +6956,7 @@
       <c r="H359" s="3"/>
       <c r="I359" s="3"/>
       <c r="J359" s="3"/>
-      <c r="K359" s="33"/>
+      <c r="K359" s="36"/>
     </row>
     <row r="360" spans="1:11">
       <c r="A360" s="3"/>
@@ -6842,7 +6968,7 @@
       <c r="H360" s="3"/>
       <c r="I360" s="3"/>
       <c r="J360" s="3"/>
-      <c r="K360" s="33"/>
+      <c r="K360" s="36"/>
     </row>
     <row r="361" spans="1:11">
       <c r="A361" s="3"/>
@@ -6854,7 +6980,7 @@
       <c r="H361" s="3"/>
       <c r="I361" s="3"/>
       <c r="J361" s="3"/>
-      <c r="K361" s="33"/>
+      <c r="K361" s="36"/>
     </row>
     <row r="362" spans="1:11">
       <c r="A362" s="3"/>
@@ -6866,7 +6992,7 @@
       <c r="H362" s="3"/>
       <c r="I362" s="3"/>
       <c r="J362" s="3"/>
-      <c r="K362" s="33"/>
+      <c r="K362" s="36"/>
     </row>
     <row r="363" spans="1:11">
       <c r="A363" s="3"/>
@@ -6878,7 +7004,7 @@
       <c r="H363" s="3"/>
       <c r="I363" s="3"/>
       <c r="J363" s="3"/>
-      <c r="K363" s="33"/>
+      <c r="K363" s="36"/>
     </row>
     <row r="364" spans="1:11">
       <c r="A364" s="3"/>
@@ -6890,7 +7016,7 @@
       <c r="H364" s="3"/>
       <c r="I364" s="3"/>
       <c r="J364" s="3"/>
-      <c r="K364" s="33"/>
+      <c r="K364" s="36"/>
     </row>
     <row r="365" spans="1:11">
       <c r="A365" s="3"/>
@@ -6902,7 +7028,7 @@
       <c r="H365" s="3"/>
       <c r="I365" s="3"/>
       <c r="J365" s="3"/>
-      <c r="K365" s="33"/>
+      <c r="K365" s="36"/>
     </row>
     <row r="366" spans="1:11">
       <c r="A366" s="3"/>
@@ -6914,7 +7040,7 @@
       <c r="H366" s="3"/>
       <c r="I366" s="3"/>
       <c r="J366" s="3"/>
-      <c r="K366" s="33"/>
+      <c r="K366" s="36"/>
     </row>
     <row r="367" spans="1:11">
       <c r="A367" s="3"/>
@@ -6926,7 +7052,7 @@
       <c r="H367" s="3"/>
       <c r="I367" s="3"/>
       <c r="J367" s="3"/>
-      <c r="K367" s="33"/>
+      <c r="K367" s="36"/>
     </row>
     <row r="368" spans="1:11">
       <c r="A368" s="3"/>
@@ -6938,7 +7064,7 @@
       <c r="H368" s="3"/>
       <c r="I368" s="3"/>
       <c r="J368" s="3"/>
-      <c r="K368" s="33"/>
+      <c r="K368" s="36"/>
     </row>
     <row r="369" spans="1:11">
       <c r="A369" s="3"/>
@@ -6950,7 +7076,7 @@
       <c r="H369" s="3"/>
       <c r="I369" s="3"/>
       <c r="J369" s="3"/>
-      <c r="K369" s="33"/>
+      <c r="K369" s="36"/>
     </row>
     <row r="370" spans="1:11">
       <c r="A370" s="3"/>
@@ -6962,7 +7088,7 @@
       <c r="H370" s="3"/>
       <c r="I370" s="3"/>
       <c r="J370" s="3"/>
-      <c r="K370" s="33"/>
+      <c r="K370" s="36"/>
     </row>
     <row r="371" spans="1:11">
       <c r="A371" s="3"/>
@@ -6974,7 +7100,7 @@
       <c r="H371" s="3"/>
       <c r="I371" s="3"/>
       <c r="J371" s="3"/>
-      <c r="K371" s="33"/>
+      <c r="K371" s="36"/>
     </row>
     <row r="372" spans="1:11">
       <c r="A372" s="3"/>
@@ -6986,7 +7112,7 @@
       <c r="H372" s="3"/>
       <c r="I372" s="3"/>
       <c r="J372" s="3"/>
-      <c r="K372" s="33"/>
+      <c r="K372" s="36"/>
     </row>
     <row r="373" spans="1:11">
       <c r="A373" s="3"/>
@@ -6998,7 +7124,7 @@
       <c r="H373" s="3"/>
       <c r="I373" s="3"/>
       <c r="J373" s="3"/>
-      <c r="K373" s="33"/>
+      <c r="K373" s="36"/>
     </row>
     <row r="374" spans="1:11">
       <c r="A374" s="3"/>
@@ -7010,7 +7136,7 @@
       <c r="H374" s="3"/>
       <c r="I374" s="3"/>
       <c r="J374" s="3"/>
-      <c r="K374" s="33"/>
+      <c r="K374" s="36"/>
     </row>
     <row r="375" spans="1:11">
       <c r="A375" s="3"/>
@@ -7022,7 +7148,7 @@
       <c r="H375" s="3"/>
       <c r="I375" s="3"/>
       <c r="J375" s="3"/>
-      <c r="K375" s="33"/>
+      <c r="K375" s="36"/>
     </row>
     <row r="376" spans="1:11">
       <c r="A376" s="3"/>
@@ -7034,7 +7160,7 @@
       <c r="H376" s="3"/>
       <c r="I376" s="3"/>
       <c r="J376" s="3"/>
-      <c r="K376" s="33"/>
+      <c r="K376" s="36"/>
     </row>
     <row r="377" spans="1:11">
       <c r="A377" s="3"/>
@@ -7046,7 +7172,7 @@
       <c r="H377" s="3"/>
       <c r="I377" s="3"/>
       <c r="J377" s="3"/>
-      <c r="K377" s="33"/>
+      <c r="K377" s="36"/>
     </row>
     <row r="378" spans="1:11">
       <c r="A378" s="3"/>
@@ -7058,7 +7184,7 @@
       <c r="H378" s="3"/>
       <c r="I378" s="3"/>
       <c r="J378" s="3"/>
-      <c r="K378" s="33"/>
+      <c r="K378" s="36"/>
     </row>
     <row r="379" spans="1:11">
       <c r="A379" s="3"/>
@@ -7070,7 +7196,7 @@
       <c r="H379" s="3"/>
       <c r="I379" s="3"/>
       <c r="J379" s="3"/>
-      <c r="K379" s="33"/>
+      <c r="K379" s="36"/>
     </row>
     <row r="380" spans="1:11">
       <c r="A380" s="3"/>
@@ -7082,7 +7208,7 @@
       <c r="H380" s="3"/>
       <c r="I380" s="3"/>
       <c r="J380" s="3"/>
-      <c r="K380" s="33"/>
+      <c r="K380" s="36"/>
     </row>
     <row r="381" spans="1:11">
       <c r="A381" s="3"/>
@@ -7094,7 +7220,7 @@
       <c r="H381" s="3"/>
       <c r="I381" s="3"/>
       <c r="J381" s="3"/>
-      <c r="K381" s="33"/>
+      <c r="K381" s="36"/>
     </row>
     <row r="382" spans="1:11">
       <c r="A382" s="3"/>
@@ -7106,7 +7232,7 @@
       <c r="H382" s="3"/>
       <c r="I382" s="3"/>
       <c r="J382" s="3"/>
-      <c r="K382" s="33"/>
+      <c r="K382" s="36"/>
     </row>
     <row r="383" spans="1:11">
       <c r="A383" s="3"/>
@@ -7118,7 +7244,7 @@
       <c r="H383" s="3"/>
       <c r="I383" s="3"/>
       <c r="J383" s="3"/>
-      <c r="K383" s="33"/>
+      <c r="K383" s="36"/>
     </row>
     <row r="384" spans="1:11">
       <c r="A384" s="3"/>
@@ -7130,7 +7256,7 @@
       <c r="H384" s="3"/>
       <c r="I384" s="3"/>
       <c r="J384" s="3"/>
-      <c r="K384" s="33"/>
+      <c r="K384" s="36"/>
     </row>
     <row r="385" spans="1:11">
       <c r="A385" s="3"/>
@@ -7142,7 +7268,7 @@
       <c r="H385" s="3"/>
       <c r="I385" s="3"/>
       <c r="J385" s="3"/>
-      <c r="K385" s="33"/>
+      <c r="K385" s="36"/>
     </row>
     <row r="386" spans="1:11">
       <c r="A386" s="3"/>
@@ -7154,7 +7280,7 @@
       <c r="H386" s="3"/>
       <c r="I386" s="3"/>
       <c r="J386" s="3"/>
-      <c r="K386" s="33"/>
+      <c r="K386" s="36"/>
     </row>
     <row r="387" spans="1:11">
       <c r="A387" s="3"/>
@@ -7166,7 +7292,7 @@
       <c r="H387" s="3"/>
       <c r="I387" s="3"/>
       <c r="J387" s="3"/>
-      <c r="K387" s="33"/>
+      <c r="K387" s="36"/>
     </row>
     <row r="388" spans="1:11">
       <c r="A388" s="3"/>
@@ -7178,7 +7304,7 @@
       <c r="H388" s="3"/>
       <c r="I388" s="3"/>
       <c r="J388" s="3"/>
-      <c r="K388" s="33"/>
+      <c r="K388" s="36"/>
     </row>
     <row r="389" spans="1:11">
       <c r="A389" s="3"/>
@@ -7190,7 +7316,7 @@
       <c r="H389" s="3"/>
       <c r="I389" s="3"/>
       <c r="J389" s="3"/>
-      <c r="K389" s="33"/>
+      <c r="K389" s="36"/>
     </row>
     <row r="390" spans="1:11">
       <c r="A390" s="3"/>
@@ -7202,7 +7328,7 @@
       <c r="H390" s="3"/>
       <c r="I390" s="3"/>
       <c r="J390" s="3"/>
-      <c r="K390" s="33"/>
+      <c r="K390" s="36"/>
     </row>
     <row r="391" spans="1:11">
       <c r="A391" s="3"/>
@@ -7214,7 +7340,7 @@
       <c r="H391" s="3"/>
       <c r="I391" s="3"/>
       <c r="J391" s="3"/>
-      <c r="K391" s="33"/>
+      <c r="K391" s="36"/>
     </row>
     <row r="392" spans="1:11">
       <c r="A392" s="3"/>
@@ -7226,7 +7352,7 @@
       <c r="H392" s="3"/>
       <c r="I392" s="3"/>
       <c r="J392" s="3"/>
-      <c r="K392" s="33"/>
+      <c r="K392" s="36"/>
     </row>
     <row r="393" spans="1:11">
       <c r="A393" s="3"/>
@@ -7238,7 +7364,7 @@
       <c r="H393" s="3"/>
       <c r="I393" s="3"/>
       <c r="J393" s="3"/>
-      <c r="K393" s="33"/>
+      <c r="K393" s="36"/>
     </row>
     <row r="394" spans="1:11">
       <c r="A394" s="3"/>
@@ -7250,7 +7376,7 @@
       <c r="H394" s="3"/>
       <c r="I394" s="3"/>
       <c r="J394" s="3"/>
-      <c r="K394" s="33"/>
+      <c r="K394" s="36"/>
     </row>
     <row r="395" spans="1:11">
       <c r="A395" s="3"/>
@@ -7262,7 +7388,7 @@
       <c r="H395" s="3"/>
       <c r="I395" s="3"/>
       <c r="J395" s="3"/>
-      <c r="K395" s="33"/>
+      <c r="K395" s="36"/>
     </row>
     <row r="396" spans="1:11">
       <c r="A396" s="3"/>
@@ -7274,7 +7400,7 @@
       <c r="H396" s="3"/>
       <c r="I396" s="3"/>
       <c r="J396" s="3"/>
-      <c r="K396" s="33"/>
+      <c r="K396" s="36"/>
     </row>
     <row r="397" spans="1:11">
       <c r="A397" s="3"/>
@@ -7286,7 +7412,7 @@
       <c r="H397" s="3"/>
       <c r="I397" s="3"/>
       <c r="J397" s="3"/>
-      <c r="K397" s="33"/>
+      <c r="K397" s="36"/>
     </row>
     <row r="398" spans="1:11">
       <c r="A398" s="3"/>
@@ -7298,7 +7424,7 @@
       <c r="H398" s="3"/>
       <c r="I398" s="3"/>
       <c r="J398" s="3"/>
-      <c r="K398" s="33"/>
+      <c r="K398" s="36"/>
     </row>
     <row r="399" spans="1:11">
       <c r="A399" s="3"/>
@@ -7310,7 +7436,7 @@
       <c r="H399" s="3"/>
       <c r="I399" s="3"/>
       <c r="J399" s="3"/>
-      <c r="K399" s="33"/>
+      <c r="K399" s="36"/>
     </row>
     <row r="400" spans="1:11">
       <c r="A400" s="3"/>
@@ -7322,7 +7448,7 @@
       <c r="H400" s="3"/>
       <c r="I400" s="3"/>
       <c r="J400" s="3"/>
-      <c r="K400" s="33"/>
+      <c r="K400" s="36"/>
     </row>
     <row r="401" spans="1:11">
       <c r="A401" s="3"/>
@@ -7334,7 +7460,7 @@
       <c r="H401" s="3"/>
       <c r="I401" s="3"/>
       <c r="J401" s="3"/>
-      <c r="K401" s="33"/>
+      <c r="K401" s="36"/>
     </row>
     <row r="402" spans="1:11">
       <c r="A402" s="3"/>
@@ -7346,7 +7472,7 @@
       <c r="H402" s="3"/>
       <c r="I402" s="3"/>
       <c r="J402" s="3"/>
-      <c r="K402" s="33"/>
+      <c r="K402" s="36"/>
     </row>
     <row r="403" spans="1:11">
       <c r="A403" s="3"/>
@@ -7358,7 +7484,7 @@
       <c r="H403" s="3"/>
       <c r="I403" s="3"/>
       <c r="J403" s="3"/>
-      <c r="K403" s="33"/>
+      <c r="K403" s="36"/>
     </row>
     <row r="404" spans="1:11">
       <c r="A404" s="3"/>
@@ -7370,7 +7496,7 @@
       <c r="H404" s="3"/>
       <c r="I404" s="3"/>
       <c r="J404" s="3"/>
-      <c r="K404" s="33"/>
+      <c r="K404" s="36"/>
     </row>
     <row r="405" spans="1:11">
       <c r="A405" s="3"/>
@@ -7382,7 +7508,7 @@
       <c r="H405" s="3"/>
       <c r="I405" s="3"/>
       <c r="J405" s="3"/>
-      <c r="K405" s="33"/>
+      <c r="K405" s="36"/>
     </row>
     <row r="406" spans="1:11">
       <c r="A406" s="3"/>
@@ -7394,7 +7520,7 @@
       <c r="H406" s="3"/>
       <c r="I406" s="3"/>
       <c r="J406" s="3"/>
-      <c r="K406" s="33"/>
+      <c r="K406" s="36"/>
     </row>
     <row r="407" spans="1:11">
       <c r="A407" s="3"/>
@@ -7406,7 +7532,7 @@
       <c r="H407" s="3"/>
       <c r="I407" s="3"/>
       <c r="J407" s="3"/>
-      <c r="K407" s="33"/>
+      <c r="K407" s="36"/>
     </row>
     <row r="408" spans="1:11">
       <c r="A408" s="3"/>
@@ -7418,7 +7544,7 @@
       <c r="H408" s="3"/>
       <c r="I408" s="3"/>
       <c r="J408" s="3"/>
-      <c r="K408" s="33"/>
+      <c r="K408" s="36"/>
     </row>
     <row r="409" spans="1:11">
       <c r="A409" s="3"/>
@@ -7430,7 +7556,7 @@
       <c r="H409" s="3"/>
       <c r="I409" s="3"/>
       <c r="J409" s="3"/>
-      <c r="K409" s="33"/>
+      <c r="K409" s="36"/>
     </row>
     <row r="410" spans="1:11">
       <c r="A410" s="3"/>
@@ -7442,7 +7568,7 @@
       <c r="H410" s="3"/>
       <c r="I410" s="3"/>
       <c r="J410" s="3"/>
-      <c r="K410" s="33"/>
+      <c r="K410" s="36"/>
     </row>
     <row r="411" spans="1:11">
       <c r="A411" s="3"/>
@@ -7454,7 +7580,7 @@
       <c r="H411" s="3"/>
       <c r="I411" s="3"/>
       <c r="J411" s="3"/>
-      <c r="K411" s="33"/>
+      <c r="K411" s="36"/>
     </row>
     <row r="412" spans="1:11">
       <c r="A412" s="3"/>
@@ -7466,7 +7592,7 @@
       <c r="H412" s="3"/>
       <c r="I412" s="3"/>
       <c r="J412" s="3"/>
-      <c r="K412" s="33"/>
+      <c r="K412" s="36"/>
     </row>
     <row r="413" spans="1:11">
       <c r="A413" s="3"/>
@@ -7478,7 +7604,7 @@
       <c r="H413" s="3"/>
       <c r="I413" s="3"/>
       <c r="J413" s="3"/>
-      <c r="K413" s="33"/>
+      <c r="K413" s="36"/>
     </row>
     <row r="414" spans="1:11">
       <c r="A414" s="3"/>
@@ -7490,7 +7616,7 @@
       <c r="H414" s="3"/>
       <c r="I414" s="3"/>
       <c r="J414" s="3"/>
-      <c r="K414" s="33"/>
+      <c r="K414" s="36"/>
     </row>
     <row r="415" spans="1:11">
       <c r="A415" s="3"/>
@@ -7502,7 +7628,7 @@
       <c r="H415" s="3"/>
       <c r="I415" s="3"/>
       <c r="J415" s="3"/>
-      <c r="K415" s="33"/>
+      <c r="K415" s="36"/>
     </row>
     <row r="416" spans="1:11">
       <c r="A416" s="3"/>
@@ -7514,7 +7640,7 @@
       <c r="H416" s="3"/>
       <c r="I416" s="3"/>
       <c r="J416" s="3"/>
-      <c r="K416" s="33"/>
+      <c r="K416" s="36"/>
     </row>
     <row r="417" spans="1:11">
       <c r="A417" s="3"/>
@@ -7526,7 +7652,7 @@
       <c r="H417" s="3"/>
       <c r="I417" s="3"/>
       <c r="J417" s="3"/>
-      <c r="K417" s="33"/>
+      <c r="K417" s="36"/>
     </row>
     <row r="418" spans="1:11">
       <c r="A418" s="3"/>
@@ -7538,7 +7664,7 @@
       <c r="H418" s="3"/>
       <c r="I418" s="3"/>
       <c r="J418" s="3"/>
-      <c r="K418" s="33"/>
+      <c r="K418" s="36"/>
     </row>
     <row r="419" spans="1:11">
       <c r="A419" s="3"/>
@@ -7550,7 +7676,7 @@
       <c r="H419" s="3"/>
       <c r="I419" s="3"/>
       <c r="J419" s="3"/>
-      <c r="K419" s="33"/>
+      <c r="K419" s="36"/>
     </row>
     <row r="420" spans="1:11">
       <c r="A420" s="3"/>
@@ -7562,7 +7688,7 @@
       <c r="H420" s="3"/>
       <c r="I420" s="3"/>
       <c r="J420" s="3"/>
-      <c r="K420" s="33"/>
+      <c r="K420" s="36"/>
     </row>
     <row r="421" spans="1:11">
       <c r="A421" s="3"/>
@@ -7574,7 +7700,7 @@
       <c r="H421" s="3"/>
       <c r="I421" s="3"/>
       <c r="J421" s="3"/>
-      <c r="K421" s="33"/>
+      <c r="K421" s="36"/>
     </row>
     <row r="422" spans="1:11">
       <c r="A422" s="3"/>
@@ -7586,7 +7712,7 @@
       <c r="H422" s="3"/>
       <c r="I422" s="3"/>
       <c r="J422" s="3"/>
-      <c r="K422" s="33"/>
+      <c r="K422" s="36"/>
     </row>
     <row r="423" spans="1:11">
       <c r="A423" s="3"/>
@@ -7598,7 +7724,7 @@
       <c r="H423" s="3"/>
       <c r="I423" s="3"/>
       <c r="J423" s="3"/>
-      <c r="K423" s="33"/>
+      <c r="K423" s="36"/>
     </row>
     <row r="424" spans="1:11">
       <c r="A424" s="3"/>
@@ -7610,7 +7736,7 @@
       <c r="H424" s="3"/>
       <c r="I424" s="3"/>
       <c r="J424" s="3"/>
-      <c r="K424" s="33"/>
+      <c r="K424" s="36"/>
     </row>
     <row r="425" spans="1:11">
       <c r="A425" s="3"/>
@@ -7622,7 +7748,7 @@
       <c r="H425" s="3"/>
       <c r="I425" s="3"/>
       <c r="J425" s="3"/>
-      <c r="K425" s="33"/>
+      <c r="K425" s="36"/>
     </row>
     <row r="426" spans="1:11">
       <c r="A426" s="3"/>
@@ -7634,7 +7760,7 @@
       <c r="H426" s="3"/>
       <c r="I426" s="3"/>
       <c r="J426" s="3"/>
-      <c r="K426" s="33"/>
+      <c r="K426" s="36"/>
     </row>
     <row r="427" spans="1:11">
       <c r="A427" s="3"/>
@@ -7646,7 +7772,7 @@
       <c r="H427" s="3"/>
       <c r="I427" s="3"/>
       <c r="J427" s="3"/>
-      <c r="K427" s="33"/>
+      <c r="K427" s="36"/>
     </row>
     <row r="428" spans="1:11">
       <c r="A428" s="3"/>
@@ -7658,7 +7784,7 @@
       <c r="H428" s="3"/>
       <c r="I428" s="3"/>
       <c r="J428" s="3"/>
-      <c r="K428" s="33"/>
+      <c r="K428" s="36"/>
     </row>
     <row r="429" spans="1:11">
       <c r="A429" s="3"/>
@@ -7670,7 +7796,7 @@
       <c r="H429" s="3"/>
       <c r="I429" s="3"/>
       <c r="J429" s="3"/>
-      <c r="K429" s="33"/>
+      <c r="K429" s="36"/>
     </row>
     <row r="430" spans="1:11">
       <c r="A430" s="3"/>
@@ -7682,7 +7808,7 @@
       <c r="H430" s="3"/>
       <c r="I430" s="3"/>
       <c r="J430" s="3"/>
-      <c r="K430" s="33"/>
+      <c r="K430" s="36"/>
     </row>
     <row r="431" spans="1:11">
       <c r="A431" s="3"/>
@@ -7694,7 +7820,7 @@
       <c r="H431" s="3"/>
       <c r="I431" s="3"/>
       <c r="J431" s="3"/>
-      <c r="K431" s="33"/>
+      <c r="K431" s="36"/>
     </row>
     <row r="432" spans="1:11">
       <c r="A432" s="3"/>
@@ -7706,7 +7832,7 @@
       <c r="H432" s="3"/>
       <c r="I432" s="3"/>
       <c r="J432" s="3"/>
-      <c r="K432" s="33"/>
+      <c r="K432" s="36"/>
     </row>
     <row r="433" spans="1:11">
       <c r="A433" s="3"/>
@@ -7718,7 +7844,7 @@
       <c r="H433" s="3"/>
       <c r="I433" s="3"/>
       <c r="J433" s="3"/>
-      <c r="K433" s="33"/>
+      <c r="K433" s="36"/>
     </row>
     <row r="434" spans="1:11">
       <c r="A434" s="3"/>
@@ -7730,7 +7856,7 @@
       <c r="H434" s="3"/>
       <c r="I434" s="3"/>
       <c r="J434" s="3"/>
-      <c r="K434" s="33"/>
+      <c r="K434" s="36"/>
     </row>
     <row r="435" spans="1:11">
       <c r="A435" s="3"/>
@@ -7742,7 +7868,7 @@
       <c r="H435" s="3"/>
       <c r="I435" s="3"/>
       <c r="J435" s="3"/>
-      <c r="K435" s="33"/>
+      <c r="K435" s="36"/>
     </row>
     <row r="436" spans="1:11">
       <c r="A436" s="3"/>
@@ -7754,7 +7880,7 @@
       <c r="H436" s="3"/>
       <c r="I436" s="3"/>
       <c r="J436" s="3"/>
-      <c r="K436" s="33"/>
+      <c r="K436" s="36"/>
     </row>
     <row r="437" spans="1:11">
       <c r="A437" s="3"/>
@@ -7766,7 +7892,7 @@
       <c r="H437" s="3"/>
       <c r="I437" s="3"/>
       <c r="J437" s="3"/>
-      <c r="K437" s="33"/>
+      <c r="K437" s="36"/>
     </row>
     <row r="438" spans="1:11">
       <c r="A438" s="3"/>
@@ -7778,7 +7904,7 @@
       <c r="H438" s="3"/>
       <c r="I438" s="3"/>
       <c r="J438" s="3"/>
-      <c r="K438" s="33"/>
+      <c r="K438" s="36"/>
     </row>
     <row r="439" spans="1:11">
       <c r="A439" s="3"/>
@@ -7790,7 +7916,7 @@
       <c r="H439" s="3"/>
       <c r="I439" s="3"/>
       <c r="J439" s="3"/>
-      <c r="K439" s="33"/>
+      <c r="K439" s="36"/>
     </row>
     <row r="440" spans="1:11">
       <c r="A440" s="3"/>
@@ -7802,7 +7928,7 @@
       <c r="H440" s="3"/>
       <c r="I440" s="3"/>
       <c r="J440" s="3"/>
-      <c r="K440" s="33"/>
+      <c r="K440" s="36"/>
     </row>
     <row r="441" spans="1:11">
       <c r="A441" s="3"/>
@@ -7814,7 +7940,7 @@
       <c r="H441" s="3"/>
       <c r="I441" s="3"/>
       <c r="J441" s="3"/>
-      <c r="K441" s="33"/>
+      <c r="K441" s="36"/>
     </row>
     <row r="442" spans="1:11">
       <c r="A442" s="3"/>
@@ -7826,7 +7952,7 @@
       <c r="H442" s="3"/>
       <c r="I442" s="3"/>
       <c r="J442" s="3"/>
-      <c r="K442" s="33"/>
+      <c r="K442" s="36"/>
     </row>
     <row r="443" spans="1:11">
       <c r="A443" s="3"/>
@@ -7838,7 +7964,7 @@
       <c r="H443" s="3"/>
       <c r="I443" s="3"/>
       <c r="J443" s="3"/>
-      <c r="K443" s="33"/>
+      <c r="K443" s="36"/>
     </row>
     <row r="444" spans="1:11">
       <c r="A444" s="3"/>
@@ -7850,7 +7976,7 @@
       <c r="H444" s="3"/>
       <c r="I444" s="3"/>
       <c r="J444" s="3"/>
-      <c r="K444" s="33"/>
+      <c r="K444" s="36"/>
     </row>
     <row r="445" spans="1:11">
       <c r="A445" s="3"/>
@@ -7862,7 +7988,7 @@
       <c r="H445" s="3"/>
       <c r="I445" s="3"/>
       <c r="J445" s="3"/>
-      <c r="K445" s="33"/>
+      <c r="K445" s="36"/>
     </row>
     <row r="446" spans="1:11">
       <c r="A446" s="3"/>
@@ -7874,7 +8000,7 @@
       <c r="H446" s="3"/>
       <c r="I446" s="3"/>
       <c r="J446" s="3"/>
-      <c r="K446" s="33"/>
+      <c r="K446" s="36"/>
     </row>
     <row r="447" spans="1:11">
       <c r="A447" s="3"/>
@@ -7886,7 +8012,7 @@
       <c r="H447" s="3"/>
       <c r="I447" s="3"/>
       <c r="J447" s="3"/>
-      <c r="K447" s="33"/>
+      <c r="K447" s="36"/>
     </row>
     <row r="448" spans="1:11">
       <c r="A448" s="3"/>
@@ -7898,7 +8024,7 @@
       <c r="H448" s="3"/>
       <c r="I448" s="3"/>
       <c r="J448" s="3"/>
-      <c r="K448" s="33"/>
+      <c r="K448" s="36"/>
     </row>
     <row r="449" spans="1:11">
       <c r="A449" s="3"/>
@@ -7910,7 +8036,7 @@
       <c r="H449" s="3"/>
       <c r="I449" s="3"/>
       <c r="J449" s="3"/>
-      <c r="K449" s="33"/>
+      <c r="K449" s="36"/>
     </row>
     <row r="450" spans="1:11">
       <c r="A450" s="3"/>
@@ -7922,7 +8048,7 @@
       <c r="H450" s="3"/>
       <c r="I450" s="3"/>
       <c r="J450" s="3"/>
-      <c r="K450" s="33"/>
+      <c r="K450" s="36"/>
     </row>
     <row r="451" spans="1:11">
       <c r="A451" s="3"/>
@@ -7934,7 +8060,7 @@
       <c r="H451" s="3"/>
       <c r="I451" s="3"/>
       <c r="J451" s="3"/>
-      <c r="K451" s="33"/>
+      <c r="K451" s="36"/>
     </row>
     <row r="452" spans="1:11">
       <c r="A452" s="3"/>
@@ -7946,7 +8072,7 @@
       <c r="H452" s="3"/>
       <c r="I452" s="3"/>
       <c r="J452" s="3"/>
-      <c r="K452" s="33"/>
+      <c r="K452" s="36"/>
     </row>
     <row r="453" spans="1:11">
       <c r="A453" s="3"/>
@@ -7958,7 +8084,7 @@
       <c r="H453" s="3"/>
       <c r="I453" s="3"/>
       <c r="J453" s="3"/>
-      <c r="K453" s="33"/>
+      <c r="K453" s="36"/>
     </row>
     <row r="454" spans="1:11">
       <c r="A454" s="3"/>
@@ -7970,7 +8096,7 @@
       <c r="H454" s="3"/>
       <c r="I454" s="3"/>
       <c r="J454" s="3"/>
-      <c r="K454" s="33"/>
+      <c r="K454" s="36"/>
     </row>
     <row r="455" spans="1:11">
       <c r="A455" s="3"/>
@@ -7982,7 +8108,7 @@
       <c r="H455" s="3"/>
       <c r="I455" s="3"/>
       <c r="J455" s="3"/>
-      <c r="K455" s="33"/>
+      <c r="K455" s="36"/>
     </row>
     <row r="456" spans="1:11">
       <c r="A456" s="3"/>
@@ -7994,7 +8120,7 @@
       <c r="H456" s="3"/>
       <c r="I456" s="3"/>
       <c r="J456" s="3"/>
-      <c r="K456" s="33"/>
+      <c r="K456" s="36"/>
     </row>
     <row r="457" spans="1:11">
       <c r="A457" s="3"/>
@@ -8006,7 +8132,7 @@
       <c r="H457" s="3"/>
       <c r="I457" s="3"/>
       <c r="J457" s="3"/>
-      <c r="K457" s="33"/>
+      <c r="K457" s="36"/>
     </row>
     <row r="458" spans="1:11">
       <c r="A458" s="3"/>
@@ -8018,7 +8144,7 @@
       <c r="H458" s="3"/>
       <c r="I458" s="3"/>
       <c r="J458" s="3"/>
-      <c r="K458" s="33"/>
+      <c r="K458" s="36"/>
     </row>
     <row r="459" spans="1:11">
       <c r="A459" s="3"/>
@@ -8030,7 +8156,7 @@
       <c r="H459" s="3"/>
       <c r="I459" s="3"/>
       <c r="J459" s="3"/>
-      <c r="K459" s="33"/>
+      <c r="K459" s="36"/>
     </row>
     <row r="460" spans="1:11">
       <c r="A460" s="3"/>
@@ -8042,7 +8168,7 @@
       <c r="H460" s="3"/>
       <c r="I460" s="3"/>
       <c r="J460" s="3"/>
-      <c r="K460" s="33"/>
+      <c r="K460" s="36"/>
     </row>
     <row r="461" spans="1:11">
       <c r="A461" s="3"/>
@@ -8054,7 +8180,7 @@
       <c r="H461" s="3"/>
       <c r="I461" s="3"/>
       <c r="J461" s="3"/>
-      <c r="K461" s="33"/>
+      <c r="K461" s="36"/>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="3"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
@@ -2175,7 +2175,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M8" sqref="M8:M9"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -2349,8 +2349,8 @@
         <v>454</v>
       </c>
       <c r="I3" s="29">
-        <f>FLOOR(402/(E3-F3),100)</f>
-        <v>0</v>
+        <f>FLOOR(1000/(E3-F3),100)</f>
+        <v>200</v>
       </c>
       <c r="J3" s="32">
         <f>(G3-E3)/(E3-F3)</f>
@@ -2396,8 +2396,8 @@
         <v>867.000000000002</v>
       </c>
       <c r="I4" s="29">
-        <f>FLOOR(402/(E4-F4),100)</f>
-        <v>0</v>
+        <f t="shared" ref="I4:I9" si="0">FLOOR(1000/(E4-F4),100)</f>
+        <v>100</v>
       </c>
       <c r="J4" s="32">
         <f>(G4-E4)/(E4-F4)</f>
@@ -2443,8 +2443,8 @@
         <v>135</v>
       </c>
       <c r="I5" s="29">
-        <f>FLOOR(402/(E5-F5),100)</f>
-        <v>200</v>
+        <f t="shared" si="0"/>
+        <v>700</v>
       </c>
       <c r="J5" s="32">
         <f>(G5-E5)/(E5-F5)</f>
@@ -2490,8 +2490,8 @@
         <v>169</v>
       </c>
       <c r="I6" s="29">
-        <f>FLOOR(402/(E6-F6),100)</f>
-        <v>200</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="J6" s="32">
         <f>(G6-E6)/(E6-F6)</f>
@@ -2537,8 +2537,8 @@
         <v>579</v>
       </c>
       <c r="I7" s="29">
-        <f>FLOOR(402/(E7-F7),100)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="J7" s="32">
         <f>(G7-E7)/(E7-F7)</f>
@@ -2583,8 +2583,8 @@
         <v>324</v>
       </c>
       <c r="I8" s="29">
-        <f>FLOOR(402/(E8-F8),100)</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
       <c r="J8" s="32">
         <f>(G8-E8)/(E8-F8)</f>
@@ -2629,8 +2629,8 @@
         <v>739.999999999999</v>
       </c>
       <c r="I9" s="29">
-        <f>FLOOR(402/(E9-F9),100)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="J9" s="32">
         <f>(G9-E9)/(E9-F9)</f>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>计划编码</t>
   </si>
@@ -58,6 +58,33 @@
     <t>JH_00001</t>
   </si>
   <si>
+    <t>2021/11/17</t>
+  </si>
+  <si>
+    <t>600085</t>
+  </si>
+  <si>
+    <t>同仁堂</t>
+  </si>
+  <si>
+    <t>已执行</t>
+  </si>
+  <si>
+    <t>JH_00002</t>
+  </si>
+  <si>
+    <t>2021/11/19</t>
+  </si>
+  <si>
+    <t>603867</t>
+  </si>
+  <si>
+    <t>新化股份</t>
+  </si>
+  <si>
+    <t>JH_00003</t>
+  </si>
+  <si>
     <t>603098</t>
   </si>
   <si>
@@ -67,13 +94,13 @@
     <t>执行中</t>
   </si>
   <si>
-    <t>JH_00002</t>
+    <t>JH_00004</t>
   </si>
   <si>
     <t>水井坊</t>
   </si>
   <si>
-    <t>JH_00003</t>
+    <t>JH_00005</t>
   </si>
   <si>
     <t>新奥股份</t>
@@ -83,25 +110,25 @@
 (股票向反向突破，趋势发生变化，不再满足执行条件)</t>
   </si>
   <si>
-    <t>JH_00004</t>
+    <t>JH_00006</t>
   </si>
   <si>
     <t>浙江新能</t>
   </si>
   <si>
-    <t>JH_00005</t>
+    <t>JH_00007</t>
   </si>
   <si>
     <t>石英股份</t>
   </si>
   <si>
-    <t>JH_00006</t>
+    <t>JH_00008</t>
   </si>
   <si>
     <t>明泰铝业</t>
   </si>
   <si>
-    <t>JH_00007</t>
+    <t>JH_00009</t>
   </si>
   <si>
     <t>000733</t>
@@ -110,7 +137,7 @@
     <t>振华科技</t>
   </si>
   <si>
-    <t>JH_00008</t>
+    <t>JH_00010</t>
   </si>
   <si>
     <t>000069</t>
@@ -127,7 +154,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -162,6 +189,14 @@
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -724,152 +759,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="37" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -903,103 +938,115 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
@@ -2170,12 +2217,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:BA541"/>
+  <dimension ref="A1:BA543"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3:I9"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -2225,974 +2272,1111 @@
       <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="M1" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="42"/>
-      <c r="AJ1" s="42"/>
-      <c r="AK1" s="42"/>
-      <c r="AM1" s="42"/>
-      <c r="AN1" s="42"/>
-      <c r="AO1" s="42"/>
-      <c r="AP1" s="42"/>
-      <c r="AQ1" s="42"/>
-      <c r="AR1" s="42"/>
-      <c r="AS1" s="42"/>
-      <c r="AU1" s="42"/>
-      <c r="AV1" s="42"/>
-      <c r="AW1" s="42"/>
-      <c r="AX1" s="42"/>
-      <c r="AY1" s="42"/>
-      <c r="AZ1" s="42"/>
-      <c r="BA1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46"/>
+      <c r="AM1" s="46"/>
+      <c r="AN1" s="46"/>
+      <c r="AO1" s="46"/>
+      <c r="AP1" s="46"/>
+      <c r="AQ1" s="46"/>
+      <c r="AR1" s="46"/>
+      <c r="AS1" s="46"/>
+      <c r="AU1" s="46"/>
+      <c r="AV1" s="46"/>
+      <c r="AW1" s="46"/>
+      <c r="AX1" s="46"/>
+      <c r="AY1" s="46"/>
+      <c r="AZ1" s="46"/>
+      <c r="BA1" s="46"/>
     </row>
     <row r="2" ht="23.6" spans="1:53">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="42"/>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="42"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="42"/>
-      <c r="AO2" s="42"/>
-      <c r="AP2" s="42"/>
-      <c r="AQ2" s="42"/>
-      <c r="AR2" s="42"/>
-      <c r="AS2" s="42"/>
-      <c r="AU2" s="42"/>
-      <c r="AV2" s="42"/>
-      <c r="AW2" s="42"/>
-      <c r="AX2" s="42"/>
-      <c r="AY2" s="42"/>
-      <c r="AZ2" s="42"/>
-      <c r="BA2" s="42"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="13" spans="1:14">
+      <c r="J2" s="32"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="46"/>
+      <c r="AI2" s="46"/>
+      <c r="AJ2" s="46"/>
+      <c r="AK2" s="46"/>
+      <c r="AM2" s="46"/>
+      <c r="AN2" s="46"/>
+      <c r="AO2" s="46"/>
+      <c r="AP2" s="46"/>
+      <c r="AQ2" s="46"/>
+      <c r="AR2" s="46"/>
+      <c r="AS2" s="46"/>
+      <c r="AU2" s="46"/>
+      <c r="AV2" s="46"/>
+      <c r="AW2" s="46"/>
+      <c r="AX2" s="46"/>
+      <c r="AY2" s="46"/>
+      <c r="AZ2" s="46"/>
+      <c r="BA2" s="46"/>
+    </row>
+    <row r="3" customFormat="1" ht="23.6" spans="1:53">
       <c r="A3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="33">
+        <v>34.12</v>
+      </c>
+      <c r="F3" s="33">
+        <v>32.53</v>
+      </c>
+      <c r="G3" s="33">
+        <v>39.33</v>
+      </c>
+      <c r="H3" s="33">
+        <f>(E3-F3)*100</f>
+        <v>159</v>
+      </c>
+      <c r="I3" s="33">
+        <f>FLOOR(1000/(E3-F3),100)</f>
+        <v>600</v>
+      </c>
+      <c r="J3" s="36">
+        <f>(G3-E3)/(E3-F3)</f>
+        <v>3.27672955974844</v>
+      </c>
+      <c r="K3" s="37">
+        <f>(E3-F3)/E3</f>
+        <v>0.0466002344665884</v>
+      </c>
+      <c r="L3" s="37">
+        <f>(G3-E3)/E3</f>
+        <v>0.152696365767878</v>
+      </c>
+      <c r="M3" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AE3" s="46"/>
+      <c r="AF3" s="46"/>
+      <c r="AG3" s="46"/>
+      <c r="AH3" s="46"/>
+      <c r="AI3" s="46"/>
+      <c r="AJ3" s="46"/>
+      <c r="AK3" s="46"/>
+      <c r="AM3" s="46"/>
+      <c r="AN3" s="46"/>
+      <c r="AO3" s="46"/>
+      <c r="AP3" s="46"/>
+      <c r="AQ3" s="46"/>
+      <c r="AR3" s="46"/>
+      <c r="AS3" s="46"/>
+      <c r="AU3" s="46"/>
+      <c r="AV3" s="46"/>
+      <c r="AW3" s="46"/>
+      <c r="AX3" s="46"/>
+      <c r="AY3" s="46"/>
+      <c r="AZ3" s="46"/>
+      <c r="BA3" s="46"/>
+    </row>
+    <row r="4" customFormat="1" ht="23.6" spans="1:53">
+      <c r="A4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="33">
+        <v>32.65</v>
+      </c>
+      <c r="F4" s="33">
+        <v>30.89</v>
+      </c>
+      <c r="G4" s="33">
+        <v>36.22</v>
+      </c>
+      <c r="H4" s="33">
+        <f>(E4-F4)*100</f>
+        <v>176</v>
+      </c>
+      <c r="I4" s="33">
+        <f>FLOOR(1000/(E4-F4),100)</f>
+        <v>500</v>
+      </c>
+      <c r="J4" s="36">
+        <f>(G4-E4)/(E4-F4)</f>
+        <v>2.02840909090909</v>
+      </c>
+      <c r="K4" s="37">
+        <f>(E4-F4)/E4</f>
+        <v>0.0539050535987748</v>
+      </c>
+      <c r="L4" s="37">
+        <f>(G4-E4)/E4</f>
+        <v>0.109341500765697</v>
+      </c>
+      <c r="M4" s="44"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
+      <c r="AH4" s="46"/>
+      <c r="AI4" s="46"/>
+      <c r="AJ4" s="46"/>
+      <c r="AK4" s="46"/>
+      <c r="AM4" s="46"/>
+      <c r="AN4" s="46"/>
+      <c r="AO4" s="46"/>
+      <c r="AP4" s="46"/>
+      <c r="AQ4" s="46"/>
+      <c r="AR4" s="46"/>
+      <c r="AS4" s="46"/>
+      <c r="AU4" s="46"/>
+      <c r="AV4" s="46"/>
+      <c r="AW4" s="46"/>
+      <c r="AX4" s="46"/>
+      <c r="AY4" s="46"/>
+      <c r="AZ4" s="46"/>
+      <c r="BA4" s="46"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="13" spans="1:14">
+      <c r="A5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="16">
         <v>44539</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="29">
+      <c r="C5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="33">
         <v>51.15</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F5" s="33">
         <v>46.61</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G5" s="33">
         <v>59.59</v>
       </c>
-      <c r="H3" s="29">
-        <f>(E3-F3)*100</f>
+      <c r="H5" s="33">
+        <f>(E5-F5)*100</f>
         <v>454</v>
       </c>
-      <c r="I3" s="29">
-        <f>FLOOR(1000/(E3-F3),100)</f>
+      <c r="I5" s="33">
+        <f>FLOOR(1000/(E5-F5),100)</f>
         <v>200</v>
       </c>
-      <c r="J3" s="32">
-        <f>(G3-E3)/(E3-F3)</f>
+      <c r="J5" s="36">
+        <f>(G5-E5)/(E5-F5)</f>
         <v>1.85903083700441</v>
       </c>
-      <c r="K3" s="33">
-        <f>(E3-F3)/E3</f>
+      <c r="K5" s="38">
+        <f>(E5-F5)/E5</f>
         <v>0.0887585532746823</v>
       </c>
-      <c r="L3" s="34">
-        <f>(G3-E3)/E3</f>
+      <c r="L5" s="37">
+        <f>(G5-E5)/E5</f>
         <v>0.165004887585533</v>
       </c>
-      <c r="M3" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="41"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="13" spans="1:14">
-      <c r="A4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="12">
+      <c r="M5" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="45"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:14">
+      <c r="A6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="16">
         <v>44539</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C6" s="18">
         <v>600779</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="26">
+      <c r="D6" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="30">
         <v>143.8</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F6" s="30">
         <v>135.13</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G6" s="30">
         <v>158.48</v>
       </c>
-      <c r="H4" s="29">
-        <f>(E4-F4)*100</f>
+      <c r="H6" s="33">
+        <f>(E6-F6)*100</f>
         <v>867.000000000002</v>
       </c>
-      <c r="I4" s="29">
-        <f t="shared" ref="I4:I9" si="0">FLOOR(1000/(E4-F4),100)</f>
+      <c r="I6" s="33">
+        <f t="shared" ref="I6:I11" si="0">FLOOR(1000/(E6-F6),100)</f>
         <v>100</v>
       </c>
-      <c r="J4" s="32">
-        <f>(G4-E4)/(E4-F4)</f>
+      <c r="J6" s="36">
+        <f>(G6-E6)/(E6-F6)</f>
         <v>1.69319492502883</v>
       </c>
-      <c r="K4" s="33">
-        <f>(E4-F4)/E4</f>
+      <c r="K6" s="38">
+        <f>(E6-F6)/E6</f>
         <v>0.0602920723226705</v>
       </c>
-      <c r="L4" s="34">
-        <f>(G4-E4)/E4</f>
+      <c r="L6" s="37">
+        <f>(G6-E6)/E6</f>
         <v>0.102086230876217</v>
       </c>
-      <c r="M4" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="41"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="36" spans="1:14">
-      <c r="A5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="12">
+      <c r="M6" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="45"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="36" spans="1:14">
+      <c r="A7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="16">
         <v>44539</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C7" s="18">
         <v>600803</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="26">
+      <c r="D7" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="30">
         <v>20.44</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F7" s="30">
         <v>19.09</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G7" s="30">
         <v>23.43</v>
       </c>
-      <c r="H5" s="29">
-        <f>(E5-F5)*100</f>
+      <c r="H7" s="33">
+        <f>(E7-F7)*100</f>
         <v>135</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I7" s="33">
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
-      <c r="J5" s="32">
-        <f>(G5-E5)/(E5-F5)</f>
+      <c r="J7" s="36">
+        <f>(G7-E7)/(E7-F7)</f>
         <v>2.21481481481481</v>
       </c>
-      <c r="K5" s="33">
-        <f>(E5-F5)/E5</f>
+      <c r="K7" s="38">
+        <f>(E7-F7)/E7</f>
         <v>0.0660469667318983</v>
       </c>
-      <c r="L5" s="34">
-        <f>(G5-E5)/E5</f>
+      <c r="L7" s="37">
+        <f>(G7-E7)/E7</f>
         <v>0.146281800391389</v>
       </c>
-      <c r="M5" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="41"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="13" spans="1:14">
-      <c r="A6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="12">
+      <c r="M7" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="45"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:14">
+      <c r="A8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="16">
         <v>44539</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C8" s="20">
         <v>600032</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="11">
+      <c r="D8" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="27">
         <v>17.19</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F8" s="27">
         <v>15.5</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G8" s="27">
         <v>20.72</v>
       </c>
-      <c r="H6" s="29">
-        <f>(E6-F6)*100</f>
+      <c r="H8" s="33">
+        <f>(E8-F8)*100</f>
         <v>169</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I8" s="33">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="J6" s="32">
-        <f>(G6-E6)/(E6-F6)</f>
+      <c r="J8" s="36">
+        <f>(G8-E8)/(E8-F8)</f>
         <v>2.0887573964497</v>
       </c>
-      <c r="K6" s="33">
-        <f>(E6-F6)/E6</f>
+      <c r="K8" s="38">
+        <f>(E8-F8)/E8</f>
         <v>0.0983129726585225</v>
       </c>
-      <c r="L6" s="34">
-        <f>(G6-E6)/E6</f>
+      <c r="L8" s="37">
+        <f>(G8-E8)/E8</f>
         <v>0.205351948807446</v>
       </c>
-      <c r="M6" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="N6" s="41"/>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="13" spans="1:13">
-      <c r="A7" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="12">
+      <c r="M8" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="45"/>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:13">
+      <c r="A9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="16">
         <v>44539</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C9" s="21">
         <v>603688</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="11">
+      <c r="D9" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="27">
         <v>64.3</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F9" s="27">
         <v>58.51</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G9" s="27">
         <v>65.72</v>
       </c>
-      <c r="H7" s="29">
-        <f>(E7-F7)*100</f>
+      <c r="H9" s="33">
+        <f>(E9-F9)*100</f>
         <v>579</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I9" s="33">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="J7" s="32">
-        <f>(G7-E7)/(E7-F7)</f>
+      <c r="J9" s="36">
+        <f>(G9-E9)/(E9-F9)</f>
         <v>0.24525043177893</v>
       </c>
-      <c r="K7" s="33">
-        <f>(E7-F7)/E7</f>
+      <c r="K9" s="38">
+        <f>(E9-F9)/E9</f>
         <v>0.0900466562986003</v>
       </c>
-      <c r="L7" s="34">
-        <f>(G7-E7)/E7</f>
+      <c r="L9" s="37">
+        <f>(G9-E9)/E9</f>
         <v>0.0220839813374806</v>
       </c>
-      <c r="M7" s="40" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="13" spans="1:13">
-      <c r="A8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="12">
+      <c r="M9" s="44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="13" spans="1:13">
+      <c r="A10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="16">
         <v>44539</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C10" s="23">
         <v>601677</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="D10" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="27">
         <v>39.15</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F10" s="27">
         <v>35.91</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G10" s="27">
         <v>44.28</v>
       </c>
-      <c r="H8" s="29">
-        <f>(E8-F8)*100</f>
+      <c r="H10" s="33">
+        <f>(E10-F10)*100</f>
         <v>324</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I10" s="33">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="J8" s="32">
-        <f>(G8-E8)/(E8-F8)</f>
+      <c r="J10" s="36">
+        <f>(G10-E10)/(E10-F10)</f>
         <v>1.58333333333333</v>
       </c>
-      <c r="K8" s="33">
-        <f>(E8-F8)/E8</f>
+      <c r="K10" s="38">
+        <f>(E10-F10)/E10</f>
         <v>0.0827586206896552</v>
       </c>
-      <c r="L8" s="34">
-        <f>(G8-E8)/E8</f>
+      <c r="L10" s="37">
+        <f>(G10-E10)/E10</f>
         <v>0.131034482758621</v>
       </c>
-      <c r="M8" s="40" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="13" spans="1:14">
-      <c r="A9" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="12">
+      <c r="M10" s="44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="13" spans="1:14">
+      <c r="A11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="16">
         <v>44539</v>
       </c>
-      <c r="C9" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="11">
+      <c r="C11" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="27">
         <v>117.8</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F11" s="27">
         <v>110.4</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G11" s="27">
         <v>131.73</v>
       </c>
-      <c r="H9" s="29">
-        <f>(E9-F9)*100</f>
+      <c r="H11" s="33">
+        <f>(E11-F11)*100</f>
         <v>739.999999999999</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I11" s="33">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="J9" s="32">
-        <f>(G9-E9)/(E9-F9)</f>
+      <c r="J11" s="36">
+        <f>(G11-E11)/(E11-F11)</f>
         <v>1.88243243243243</v>
       </c>
-      <c r="K9" s="33">
-        <f>(E9-F9)/E9</f>
+      <c r="K11" s="38">
+        <f>(E11-F11)/E11</f>
         <v>0.062818336162988</v>
       </c>
-      <c r="L9" s="34">
-        <f>(G9-E9)/E9</f>
+      <c r="L11" s="37">
+        <f>(G11-E11)/E11</f>
         <v>0.118251273344652</v>
       </c>
-      <c r="M9" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="N9" s="41"/>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="13" spans="1:13">
-      <c r="A10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="12">
+      <c r="M11" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="45"/>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="13" spans="1:13">
+      <c r="A12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="16">
         <v>44539</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="40"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:13">
-      <c r="A11" s="11"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="40"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:13">
-      <c r="A12" s="11"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="40"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="44"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:13">
-      <c r="A13" s="11"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="40"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="44"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:13">
-      <c r="A14" s="11"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="40"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="44"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:13">
-      <c r="A15" s="11"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="40"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="44"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:13">
-      <c r="A16" s="11"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="40"/>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="1:13">
-      <c r="A17" s="11"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="40"/>
-    </row>
-    <row r="18" s="2" customFormat="1" spans="1:13">
-      <c r="A18" s="11"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="40"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="44"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:13">
+      <c r="A17" s="27"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="44"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:13">
+      <c r="A18" s="27"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="44"/>
     </row>
     <row r="19" s="2" customFormat="1" spans="1:13">
-      <c r="A19" s="11"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="40"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="44"/>
     </row>
     <row r="20" s="2" customFormat="1" spans="1:13">
-      <c r="A20" s="11"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="40"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="44"/>
     </row>
     <row r="21" s="2" customFormat="1" spans="1:13">
-      <c r="A21" s="11"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="11"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="44"/>
     </row>
     <row r="22" s="2" customFormat="1" spans="1:13">
-      <c r="A22" s="11"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="11"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="44"/>
     </row>
     <row r="23" s="2" customFormat="1" spans="1:13">
-      <c r="A23" s="11"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="11"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="27"/>
     </row>
     <row r="24" s="2" customFormat="1" spans="1:13">
-      <c r="A24" s="11"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="11"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="27"/>
     </row>
     <row r="25" s="2" customFormat="1" spans="1:13">
-      <c r="A25" s="11"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="40"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="26"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="40"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="26"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="26"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="27"/>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="1:13">
+      <c r="A26" s="27"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="27"/>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="1:13">
+      <c r="A27" s="27"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="44"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="26"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="44"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="26"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="30"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="26"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="30"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="26"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="30"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="26"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="30"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="26"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="30"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="26"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="30"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="26"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="30"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="26"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="30"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="26"/>
+      <c r="A37" s="30"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="30"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="26"/>
+      <c r="A38" s="30"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="30"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="26"/>
+      <c r="A39" s="30"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="30"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="26"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="30"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="26"/>
+      <c r="A41" s="30"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="30"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="26"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="26"/>
+      <c r="A42" s="30"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="30"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="26"/>
-    </row>
-    <row r="44" ht="13" spans="1:13">
-      <c r="A44" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="B44" s="26"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="36"/>
-      <c r="M44" s="26"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="36"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
+      <c r="A43" s="30"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="30"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="30"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="30"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="30"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="30"/>
+    </row>
+    <row r="46" ht="13" spans="1:13">
+      <c r="A46" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="30"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -3200,7 +3384,8 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
-      <c r="K46" s="36"/>
+      <c r="K46" s="40"/>
+      <c r="M46" s="30"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="3"/>
@@ -3212,7 +3397,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
-      <c r="K47" s="36"/>
+      <c r="K47" s="40"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="3"/>
@@ -3224,7 +3409,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
-      <c r="K48" s="36"/>
+      <c r="K48" s="40"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="3"/>
@@ -3236,7 +3421,7 @@
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
-      <c r="K49" s="36"/>
+      <c r="K49" s="40"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="3"/>
@@ -3248,7 +3433,7 @@
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
-      <c r="K50" s="36"/>
+      <c r="K50" s="40"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="3"/>
@@ -3260,7 +3445,7 @@
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
-      <c r="K51" s="36"/>
+      <c r="K51" s="40"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="3"/>
@@ -3272,7 +3457,7 @@
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
-      <c r="K52" s="36"/>
+      <c r="K52" s="40"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="3"/>
@@ -3284,7 +3469,7 @@
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
-      <c r="K53" s="36"/>
+      <c r="K53" s="40"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="3"/>
@@ -3296,7 +3481,7 @@
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
-      <c r="K54" s="36"/>
+      <c r="K54" s="40"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="3"/>
@@ -3308,7 +3493,7 @@
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
-      <c r="K55" s="36"/>
+      <c r="K55" s="40"/>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="3"/>
@@ -3320,7 +3505,7 @@
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
-      <c r="K56" s="36"/>
+      <c r="K56" s="40"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="3"/>
@@ -3332,7 +3517,7 @@
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
-      <c r="K57" s="36"/>
+      <c r="K57" s="40"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="3"/>
@@ -3344,7 +3529,7 @@
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
-      <c r="K58" s="36"/>
+      <c r="K58" s="40"/>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="3"/>
@@ -3356,7 +3541,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
-      <c r="K59" s="36"/>
+      <c r="K59" s="40"/>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="3"/>
@@ -3368,7 +3553,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
-      <c r="K60" s="36"/>
+      <c r="K60" s="40"/>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="3"/>
@@ -3380,7 +3565,7 @@
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
-      <c r="K61" s="36"/>
+      <c r="K61" s="40"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="3"/>
@@ -3392,7 +3577,7 @@
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
-      <c r="K62" s="36"/>
+      <c r="K62" s="40"/>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="3"/>
@@ -3404,7 +3589,7 @@
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
-      <c r="K63" s="36"/>
+      <c r="K63" s="40"/>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="3"/>
@@ -3416,7 +3601,7 @@
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
-      <c r="K64" s="36"/>
+      <c r="K64" s="40"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="3"/>
@@ -3428,7 +3613,7 @@
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
-      <c r="K65" s="36"/>
+      <c r="K65" s="40"/>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="3"/>
@@ -3440,7 +3625,7 @@
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
-      <c r="K66" s="36"/>
+      <c r="K66" s="40"/>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="3"/>
@@ -3452,7 +3637,7 @@
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
-      <c r="K67" s="36"/>
+      <c r="K67" s="40"/>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="3"/>
@@ -3464,7 +3649,7 @@
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
-      <c r="K68" s="36"/>
+      <c r="K68" s="40"/>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="3"/>
@@ -3476,7 +3661,7 @@
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
-      <c r="K69" s="36"/>
+      <c r="K69" s="40"/>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="3"/>
@@ -3488,7 +3673,7 @@
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
-      <c r="K70" s="36"/>
+      <c r="K70" s="40"/>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="3"/>
@@ -3500,7 +3685,7 @@
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
-      <c r="K71" s="36"/>
+      <c r="K71" s="40"/>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="3"/>
@@ -3512,7 +3697,7 @@
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
-      <c r="K72" s="36"/>
+      <c r="K72" s="40"/>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="3"/>
@@ -3524,7 +3709,7 @@
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
-      <c r="K73" s="36"/>
+      <c r="K73" s="40"/>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="3"/>
@@ -3536,7 +3721,7 @@
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
-      <c r="K74" s="36"/>
+      <c r="K74" s="40"/>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="3"/>
@@ -3548,7 +3733,7 @@
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
-      <c r="K75" s="36"/>
+      <c r="K75" s="40"/>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="3"/>
@@ -3560,7 +3745,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
-      <c r="K76" s="36"/>
+      <c r="K76" s="40"/>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="3"/>
@@ -3572,7 +3757,7 @@
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
-      <c r="K77" s="36"/>
+      <c r="K77" s="40"/>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="3"/>
@@ -3584,7 +3769,7 @@
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
-      <c r="K78" s="36"/>
+      <c r="K78" s="40"/>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="3"/>
@@ -3596,7 +3781,7 @@
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
-      <c r="K79" s="36"/>
+      <c r="K79" s="40"/>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="3"/>
@@ -3608,7 +3793,7 @@
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
-      <c r="K80" s="36"/>
+      <c r="K80" s="40"/>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="3"/>
@@ -3620,7 +3805,7 @@
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
-      <c r="K81" s="36"/>
+      <c r="K81" s="40"/>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="3"/>
@@ -3632,7 +3817,7 @@
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
-      <c r="K82" s="36"/>
+      <c r="K82" s="40"/>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="3"/>
@@ -3644,7 +3829,7 @@
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
-      <c r="K83" s="36"/>
+      <c r="K83" s="40"/>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="3"/>
@@ -3656,7 +3841,7 @@
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
-      <c r="K84" s="36"/>
+      <c r="K84" s="40"/>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="3"/>
@@ -3668,7 +3853,7 @@
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
-      <c r="K85" s="36"/>
+      <c r="K85" s="40"/>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="3"/>
@@ -3680,7 +3865,7 @@
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
-      <c r="K86" s="36"/>
+      <c r="K86" s="40"/>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="3"/>
@@ -3692,7 +3877,7 @@
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
-      <c r="K87" s="36"/>
+      <c r="K87" s="40"/>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="3"/>
@@ -3704,7 +3889,7 @@
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
-      <c r="K88" s="36"/>
+      <c r="K88" s="40"/>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="3"/>
@@ -3716,7 +3901,7 @@
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
-      <c r="K89" s="36"/>
+      <c r="K89" s="40"/>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="3"/>
@@ -3728,7 +3913,7 @@
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
-      <c r="K90" s="36"/>
+      <c r="K90" s="40"/>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="3"/>
@@ -3740,7 +3925,7 @@
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
-      <c r="K91" s="36"/>
+      <c r="K91" s="40"/>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="3"/>
@@ -3752,7 +3937,7 @@
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
-      <c r="K92" s="36"/>
+      <c r="K92" s="40"/>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="3"/>
@@ -3764,7 +3949,7 @@
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
-      <c r="K93" s="36"/>
+      <c r="K93" s="40"/>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="3"/>
@@ -3776,7 +3961,7 @@
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
-      <c r="K94" s="36"/>
+      <c r="K94" s="40"/>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="3"/>
@@ -3788,7 +3973,7 @@
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
-      <c r="K95" s="36"/>
+      <c r="K95" s="40"/>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="3"/>
@@ -3800,7 +3985,7 @@
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
-      <c r="K96" s="36"/>
+      <c r="K96" s="40"/>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="3"/>
@@ -3812,7 +3997,7 @@
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
-      <c r="K97" s="36"/>
+      <c r="K97" s="40"/>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="3"/>
@@ -3824,7 +4009,7 @@
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
-      <c r="K98" s="36"/>
+      <c r="K98" s="40"/>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="3"/>
@@ -3836,7 +4021,7 @@
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
-      <c r="K99" s="36"/>
+      <c r="K99" s="40"/>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="3"/>
@@ -3848,7 +4033,7 @@
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
-      <c r="K100" s="36"/>
+      <c r="K100" s="40"/>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="3"/>
@@ -3860,7 +4045,7 @@
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
-      <c r="K101" s="36"/>
+      <c r="K101" s="40"/>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="3"/>
@@ -3872,7 +4057,7 @@
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
-      <c r="K102" s="36"/>
+      <c r="K102" s="40"/>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="3"/>
@@ -3884,7 +4069,7 @@
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
-      <c r="K103" s="36"/>
+      <c r="K103" s="40"/>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="3"/>
@@ -3896,7 +4081,7 @@
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
-      <c r="K104" s="36"/>
+      <c r="K104" s="40"/>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="3"/>
@@ -3908,7 +4093,7 @@
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
-      <c r="K105" s="36"/>
+      <c r="K105" s="40"/>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="3"/>
@@ -3920,7 +4105,7 @@
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
-      <c r="K106" s="36"/>
+      <c r="K106" s="40"/>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="3"/>
@@ -3932,7 +4117,7 @@
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
-      <c r="K107" s="36"/>
+      <c r="K107" s="40"/>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="3"/>
@@ -3944,7 +4129,7 @@
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
-      <c r="K108" s="36"/>
+      <c r="K108" s="40"/>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="3"/>
@@ -3956,7 +4141,7 @@
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
-      <c r="K109" s="36"/>
+      <c r="K109" s="40"/>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="3"/>
@@ -3968,7 +4153,7 @@
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
-      <c r="K110" s="36"/>
+      <c r="K110" s="40"/>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="3"/>
@@ -3980,7 +4165,7 @@
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
-      <c r="K111" s="36"/>
+      <c r="K111" s="40"/>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="3"/>
@@ -3992,7 +4177,7 @@
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
-      <c r="K112" s="36"/>
+      <c r="K112" s="40"/>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="3"/>
@@ -4004,7 +4189,7 @@
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
-      <c r="K113" s="36"/>
+      <c r="K113" s="40"/>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="3"/>
@@ -4016,7 +4201,7 @@
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
-      <c r="K114" s="36"/>
+      <c r="K114" s="40"/>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="3"/>
@@ -4028,7 +4213,7 @@
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
-      <c r="K115" s="36"/>
+      <c r="K115" s="40"/>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="3"/>
@@ -4040,7 +4225,7 @@
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
-      <c r="K116" s="36"/>
+      <c r="K116" s="40"/>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="3"/>
@@ -4052,7 +4237,7 @@
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
-      <c r="K117" s="36"/>
+      <c r="K117" s="40"/>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="3"/>
@@ -4064,7 +4249,7 @@
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
-      <c r="K118" s="36"/>
+      <c r="K118" s="40"/>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="3"/>
@@ -4076,7 +4261,7 @@
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
-      <c r="K119" s="36"/>
+      <c r="K119" s="40"/>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="3"/>
@@ -4088,7 +4273,7 @@
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
-      <c r="K120" s="36"/>
+      <c r="K120" s="40"/>
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="3"/>
@@ -4100,7 +4285,7 @@
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
-      <c r="K121" s="36"/>
+      <c r="K121" s="40"/>
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="3"/>
@@ -4112,7 +4297,7 @@
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
-      <c r="K122" s="36"/>
+      <c r="K122" s="40"/>
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="3"/>
@@ -4124,7 +4309,7 @@
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
-      <c r="K123" s="36"/>
+      <c r="K123" s="40"/>
     </row>
     <row r="124" spans="1:11">
       <c r="A124" s="3"/>
@@ -4136,7 +4321,7 @@
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
-      <c r="K124" s="36"/>
+      <c r="K124" s="40"/>
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="3"/>
@@ -4148,7 +4333,7 @@
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
-      <c r="K125" s="36"/>
+      <c r="K125" s="40"/>
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="3"/>
@@ -4160,7 +4345,7 @@
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
-      <c r="K126" s="36"/>
+      <c r="K126" s="40"/>
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="3"/>
@@ -4172,7 +4357,7 @@
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
-      <c r="K127" s="36"/>
+      <c r="K127" s="40"/>
     </row>
     <row r="128" spans="1:11">
       <c r="A128" s="3"/>
@@ -4184,7 +4369,7 @@
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
-      <c r="K128" s="36"/>
+      <c r="K128" s="40"/>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="3"/>
@@ -4196,7 +4381,7 @@
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
-      <c r="K129" s="36"/>
+      <c r="K129" s="40"/>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="3"/>
@@ -4208,7 +4393,7 @@
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
-      <c r="K130" s="36"/>
+      <c r="K130" s="40"/>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="3"/>
@@ -4220,7 +4405,7 @@
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
-      <c r="K131" s="36"/>
+      <c r="K131" s="40"/>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="3"/>
@@ -4232,7 +4417,7 @@
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
-      <c r="K132" s="36"/>
+      <c r="K132" s="40"/>
     </row>
     <row r="133" spans="1:11">
       <c r="A133" s="3"/>
@@ -4244,7 +4429,7 @@
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
-      <c r="K133" s="36"/>
+      <c r="K133" s="40"/>
     </row>
     <row r="134" spans="1:11">
       <c r="A134" s="3"/>
@@ -4256,7 +4441,7 @@
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
-      <c r="K134" s="36"/>
+      <c r="K134" s="40"/>
     </row>
     <row r="135" spans="1:11">
       <c r="A135" s="3"/>
@@ -4268,7 +4453,7 @@
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
-      <c r="K135" s="36"/>
+      <c r="K135" s="40"/>
     </row>
     <row r="136" spans="1:11">
       <c r="A136" s="3"/>
@@ -4280,7 +4465,7 @@
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
-      <c r="K136" s="36"/>
+      <c r="K136" s="40"/>
     </row>
     <row r="137" spans="1:11">
       <c r="A137" s="3"/>
@@ -4292,7 +4477,7 @@
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
-      <c r="K137" s="36"/>
+      <c r="K137" s="40"/>
     </row>
     <row r="138" spans="1:11">
       <c r="A138" s="3"/>
@@ -4304,7 +4489,7 @@
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
-      <c r="K138" s="36"/>
+      <c r="K138" s="40"/>
     </row>
     <row r="139" spans="1:11">
       <c r="A139" s="3"/>
@@ -4316,7 +4501,7 @@
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
-      <c r="K139" s="36"/>
+      <c r="K139" s="40"/>
     </row>
     <row r="140" spans="1:11">
       <c r="A140" s="3"/>
@@ -4328,7 +4513,7 @@
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
-      <c r="K140" s="36"/>
+      <c r="K140" s="40"/>
     </row>
     <row r="141" spans="1:11">
       <c r="A141" s="3"/>
@@ -4340,7 +4525,7 @@
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
-      <c r="K141" s="36"/>
+      <c r="K141" s="40"/>
     </row>
     <row r="142" spans="1:11">
       <c r="A142" s="3"/>
@@ -4352,7 +4537,7 @@
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
-      <c r="K142" s="36"/>
+      <c r="K142" s="40"/>
     </row>
     <row r="143" spans="1:11">
       <c r="A143" s="3"/>
@@ -4364,7 +4549,7 @@
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
-      <c r="K143" s="36"/>
+      <c r="K143" s="40"/>
     </row>
     <row r="144" spans="1:11">
       <c r="A144" s="3"/>
@@ -4376,7 +4561,7 @@
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
-      <c r="K144" s="36"/>
+      <c r="K144" s="40"/>
     </row>
     <row r="145" spans="1:11">
       <c r="A145" s="3"/>
@@ -4388,7 +4573,7 @@
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
-      <c r="K145" s="36"/>
+      <c r="K145" s="40"/>
     </row>
     <row r="146" spans="1:11">
       <c r="A146" s="3"/>
@@ -4400,7 +4585,7 @@
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
-      <c r="K146" s="36"/>
+      <c r="K146" s="40"/>
     </row>
     <row r="147" spans="1:11">
       <c r="A147" s="3"/>
@@ -4412,7 +4597,7 @@
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
-      <c r="K147" s="36"/>
+      <c r="K147" s="40"/>
     </row>
     <row r="148" spans="1:11">
       <c r="A148" s="3"/>
@@ -4424,7 +4609,7 @@
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
-      <c r="K148" s="36"/>
+      <c r="K148" s="40"/>
     </row>
     <row r="149" spans="1:11">
       <c r="A149" s="3"/>
@@ -4436,7 +4621,7 @@
       <c r="H149" s="3"/>
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
-      <c r="K149" s="36"/>
+      <c r="K149" s="40"/>
     </row>
     <row r="150" spans="1:11">
       <c r="A150" s="3"/>
@@ -4448,7 +4633,7 @@
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
-      <c r="K150" s="36"/>
+      <c r="K150" s="40"/>
     </row>
     <row r="151" spans="1:11">
       <c r="A151" s="3"/>
@@ -4460,7 +4645,7 @@
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
-      <c r="K151" s="36"/>
+      <c r="K151" s="40"/>
     </row>
     <row r="152" spans="1:11">
       <c r="A152" s="3"/>
@@ -4472,7 +4657,7 @@
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
-      <c r="K152" s="36"/>
+      <c r="K152" s="40"/>
     </row>
     <row r="153" spans="1:11">
       <c r="A153" s="3"/>
@@ -4484,7 +4669,7 @@
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
-      <c r="K153" s="36"/>
+      <c r="K153" s="40"/>
     </row>
     <row r="154" spans="1:11">
       <c r="A154" s="3"/>
@@ -4496,7 +4681,7 @@
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
-      <c r="K154" s="36"/>
+      <c r="K154" s="40"/>
     </row>
     <row r="155" spans="1:11">
       <c r="A155" s="3"/>
@@ -4508,7 +4693,7 @@
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
-      <c r="K155" s="36"/>
+      <c r="K155" s="40"/>
     </row>
     <row r="156" spans="1:11">
       <c r="A156" s="3"/>
@@ -4520,7 +4705,7 @@
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
-      <c r="K156" s="36"/>
+      <c r="K156" s="40"/>
     </row>
     <row r="157" spans="1:11">
       <c r="A157" s="3"/>
@@ -4532,7 +4717,7 @@
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
-      <c r="K157" s="36"/>
+      <c r="K157" s="40"/>
     </row>
     <row r="158" spans="1:11">
       <c r="A158" s="3"/>
@@ -4544,7 +4729,7 @@
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
-      <c r="K158" s="36"/>
+      <c r="K158" s="40"/>
     </row>
     <row r="159" spans="1:11">
       <c r="A159" s="3"/>
@@ -4556,7 +4741,7 @@
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
-      <c r="K159" s="36"/>
+      <c r="K159" s="40"/>
     </row>
     <row r="160" spans="1:11">
       <c r="A160" s="3"/>
@@ -4568,7 +4753,7 @@
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
-      <c r="K160" s="36"/>
+      <c r="K160" s="40"/>
     </row>
     <row r="161" spans="1:11">
       <c r="A161" s="3"/>
@@ -4580,7 +4765,7 @@
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
-      <c r="K161" s="36"/>
+      <c r="K161" s="40"/>
     </row>
     <row r="162" spans="1:11">
       <c r="A162" s="3"/>
@@ -4592,7 +4777,7 @@
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
-      <c r="K162" s="36"/>
+      <c r="K162" s="40"/>
     </row>
     <row r="163" spans="1:11">
       <c r="A163" s="3"/>
@@ -4604,7 +4789,7 @@
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
-      <c r="K163" s="36"/>
+      <c r="K163" s="40"/>
     </row>
     <row r="164" spans="1:11">
       <c r="A164" s="3"/>
@@ -4616,7 +4801,7 @@
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
-      <c r="K164" s="36"/>
+      <c r="K164" s="40"/>
     </row>
     <row r="165" spans="1:11">
       <c r="A165" s="3"/>
@@ -4628,7 +4813,7 @@
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
-      <c r="K165" s="36"/>
+      <c r="K165" s="40"/>
     </row>
     <row r="166" spans="1:11">
       <c r="A166" s="3"/>
@@ -4640,7 +4825,7 @@
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
-      <c r="K166" s="36"/>
+      <c r="K166" s="40"/>
     </row>
     <row r="167" spans="1:11">
       <c r="A167" s="3"/>
@@ -4652,7 +4837,7 @@
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
-      <c r="K167" s="36"/>
+      <c r="K167" s="40"/>
     </row>
     <row r="168" spans="1:11">
       <c r="A168" s="3"/>
@@ -4664,7 +4849,7 @@
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
-      <c r="K168" s="36"/>
+      <c r="K168" s="40"/>
     </row>
     <row r="169" spans="1:11">
       <c r="A169" s="3"/>
@@ -4676,7 +4861,7 @@
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
-      <c r="K169" s="36"/>
+      <c r="K169" s="40"/>
     </row>
     <row r="170" spans="1:11">
       <c r="A170" s="3"/>
@@ -4688,7 +4873,7 @@
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
-      <c r="K170" s="36"/>
+      <c r="K170" s="40"/>
     </row>
     <row r="171" spans="1:11">
       <c r="A171" s="3"/>
@@ -4700,7 +4885,7 @@
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
-      <c r="K171" s="36"/>
+      <c r="K171" s="40"/>
     </row>
     <row r="172" spans="1:11">
       <c r="A172" s="3"/>
@@ -4712,7 +4897,7 @@
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
-      <c r="K172" s="36"/>
+      <c r="K172" s="40"/>
     </row>
     <row r="173" spans="1:11">
       <c r="A173" s="3"/>
@@ -4724,7 +4909,7 @@
       <c r="H173" s="3"/>
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
-      <c r="K173" s="36"/>
+      <c r="K173" s="40"/>
     </row>
     <row r="174" spans="1:11">
       <c r="A174" s="3"/>
@@ -4736,7 +4921,7 @@
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
-      <c r="K174" s="36"/>
+      <c r="K174" s="40"/>
     </row>
     <row r="175" spans="1:11">
       <c r="A175" s="3"/>
@@ -4748,7 +4933,7 @@
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
-      <c r="K175" s="36"/>
+      <c r="K175" s="40"/>
     </row>
     <row r="176" spans="1:11">
       <c r="A176" s="3"/>
@@ -4760,7 +4945,7 @@
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
-      <c r="K176" s="36"/>
+      <c r="K176" s="40"/>
     </row>
     <row r="177" spans="1:11">
       <c r="A177" s="3"/>
@@ -4772,7 +4957,7 @@
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
-      <c r="K177" s="36"/>
+      <c r="K177" s="40"/>
     </row>
     <row r="178" spans="1:11">
       <c r="A178" s="3"/>
@@ -4784,7 +4969,7 @@
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
-      <c r="K178" s="36"/>
+      <c r="K178" s="40"/>
     </row>
     <row r="179" spans="1:11">
       <c r="A179" s="3"/>
@@ -4796,7 +4981,7 @@
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
-      <c r="K179" s="36"/>
+      <c r="K179" s="40"/>
     </row>
     <row r="180" spans="1:11">
       <c r="A180" s="3"/>
@@ -4808,7 +4993,7 @@
       <c r="H180" s="3"/>
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
-      <c r="K180" s="36"/>
+      <c r="K180" s="40"/>
     </row>
     <row r="181" spans="1:11">
       <c r="A181" s="3"/>
@@ -4820,7 +5005,7 @@
       <c r="H181" s="3"/>
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
-      <c r="K181" s="36"/>
+      <c r="K181" s="40"/>
     </row>
     <row r="182" spans="1:11">
       <c r="A182" s="3"/>
@@ -4832,7 +5017,7 @@
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
-      <c r="K182" s="36"/>
+      <c r="K182" s="40"/>
     </row>
     <row r="183" spans="1:11">
       <c r="A183" s="3"/>
@@ -4844,7 +5029,7 @@
       <c r="H183" s="3"/>
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
-      <c r="K183" s="36"/>
+      <c r="K183" s="40"/>
     </row>
     <row r="184" spans="1:11">
       <c r="A184" s="3"/>
@@ -4856,7 +5041,7 @@
       <c r="H184" s="3"/>
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
-      <c r="K184" s="36"/>
+      <c r="K184" s="40"/>
     </row>
     <row r="185" spans="1:11">
       <c r="A185" s="3"/>
@@ -4868,7 +5053,7 @@
       <c r="H185" s="3"/>
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
-      <c r="K185" s="36"/>
+      <c r="K185" s="40"/>
     </row>
     <row r="186" spans="1:11">
       <c r="A186" s="3"/>
@@ -4880,7 +5065,7 @@
       <c r="H186" s="3"/>
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
-      <c r="K186" s="36"/>
+      <c r="K186" s="40"/>
     </row>
     <row r="187" spans="1:11">
       <c r="A187" s="3"/>
@@ -4892,7 +5077,7 @@
       <c r="H187" s="3"/>
       <c r="I187" s="3"/>
       <c r="J187" s="3"/>
-      <c r="K187" s="36"/>
+      <c r="K187" s="40"/>
     </row>
     <row r="188" spans="1:11">
       <c r="A188" s="3"/>
@@ -4904,7 +5089,7 @@
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
       <c r="J188" s="3"/>
-      <c r="K188" s="36"/>
+      <c r="K188" s="40"/>
     </row>
     <row r="189" spans="1:11">
       <c r="A189" s="3"/>
@@ -4916,7 +5101,7 @@
       <c r="H189" s="3"/>
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
-      <c r="K189" s="36"/>
+      <c r="K189" s="40"/>
     </row>
     <row r="190" spans="1:11">
       <c r="A190" s="3"/>
@@ -4928,7 +5113,7 @@
       <c r="H190" s="3"/>
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
-      <c r="K190" s="36"/>
+      <c r="K190" s="40"/>
     </row>
     <row r="191" spans="1:11">
       <c r="A191" s="3"/>
@@ -4940,7 +5125,7 @@
       <c r="H191" s="3"/>
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
-      <c r="K191" s="36"/>
+      <c r="K191" s="40"/>
     </row>
     <row r="192" spans="1:11">
       <c r="A192" s="3"/>
@@ -4952,7 +5137,7 @@
       <c r="H192" s="3"/>
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
-      <c r="K192" s="36"/>
+      <c r="K192" s="40"/>
     </row>
     <row r="193" spans="1:11">
       <c r="A193" s="3"/>
@@ -4964,7 +5149,7 @@
       <c r="H193" s="3"/>
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
-      <c r="K193" s="36"/>
+      <c r="K193" s="40"/>
     </row>
     <row r="194" spans="1:11">
       <c r="A194" s="3"/>
@@ -4976,7 +5161,7 @@
       <c r="H194" s="3"/>
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
-      <c r="K194" s="36"/>
+      <c r="K194" s="40"/>
     </row>
     <row r="195" spans="1:11">
       <c r="A195" s="3"/>
@@ -4988,7 +5173,7 @@
       <c r="H195" s="3"/>
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
-      <c r="K195" s="36"/>
+      <c r="K195" s="40"/>
     </row>
     <row r="196" spans="1:11">
       <c r="A196" s="3"/>
@@ -5000,7 +5185,7 @@
       <c r="H196" s="3"/>
       <c r="I196" s="3"/>
       <c r="J196" s="3"/>
-      <c r="K196" s="36"/>
+      <c r="K196" s="40"/>
     </row>
     <row r="197" spans="1:11">
       <c r="A197" s="3"/>
@@ -5012,7 +5197,7 @@
       <c r="H197" s="3"/>
       <c r="I197" s="3"/>
       <c r="J197" s="3"/>
-      <c r="K197" s="36"/>
+      <c r="K197" s="40"/>
     </row>
     <row r="198" spans="1:11">
       <c r="A198" s="3"/>
@@ -5024,7 +5209,7 @@
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
       <c r="J198" s="3"/>
-      <c r="K198" s="36"/>
+      <c r="K198" s="40"/>
     </row>
     <row r="199" spans="1:11">
       <c r="A199" s="3"/>
@@ -5036,7 +5221,7 @@
       <c r="H199" s="3"/>
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
-      <c r="K199" s="36"/>
+      <c r="K199" s="40"/>
     </row>
     <row r="200" spans="1:11">
       <c r="A200" s="3"/>
@@ -5048,7 +5233,7 @@
       <c r="H200" s="3"/>
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
-      <c r="K200" s="36"/>
+      <c r="K200" s="40"/>
     </row>
     <row r="201" spans="1:11">
       <c r="A201" s="3"/>
@@ -5060,7 +5245,7 @@
       <c r="H201" s="3"/>
       <c r="I201" s="3"/>
       <c r="J201" s="3"/>
-      <c r="K201" s="36"/>
+      <c r="K201" s="40"/>
     </row>
     <row r="202" spans="1:11">
       <c r="A202" s="3"/>
@@ -5072,7 +5257,7 @@
       <c r="H202" s="3"/>
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
-      <c r="K202" s="36"/>
+      <c r="K202" s="40"/>
     </row>
     <row r="203" spans="1:11">
       <c r="A203" s="3"/>
@@ -5084,7 +5269,7 @@
       <c r="H203" s="3"/>
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
-      <c r="K203" s="36"/>
+      <c r="K203" s="40"/>
     </row>
     <row r="204" spans="1:11">
       <c r="A204" s="3"/>
@@ -5096,7 +5281,7 @@
       <c r="H204" s="3"/>
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
-      <c r="K204" s="36"/>
+      <c r="K204" s="40"/>
     </row>
     <row r="205" spans="1:11">
       <c r="A205" s="3"/>
@@ -5108,7 +5293,7 @@
       <c r="H205" s="3"/>
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
-      <c r="K205" s="36"/>
+      <c r="K205" s="40"/>
     </row>
     <row r="206" spans="1:11">
       <c r="A206" s="3"/>
@@ -5120,7 +5305,7 @@
       <c r="H206" s="3"/>
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
-      <c r="K206" s="36"/>
+      <c r="K206" s="40"/>
     </row>
     <row r="207" spans="1:11">
       <c r="A207" s="3"/>
@@ -5132,7 +5317,7 @@
       <c r="H207" s="3"/>
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
-      <c r="K207" s="36"/>
+      <c r="K207" s="40"/>
     </row>
     <row r="208" spans="1:11">
       <c r="A208" s="3"/>
@@ -5144,7 +5329,7 @@
       <c r="H208" s="3"/>
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
-      <c r="K208" s="36"/>
+      <c r="K208" s="40"/>
     </row>
     <row r="209" spans="1:11">
       <c r="A209" s="3"/>
@@ -5156,7 +5341,7 @@
       <c r="H209" s="3"/>
       <c r="I209" s="3"/>
       <c r="J209" s="3"/>
-      <c r="K209" s="36"/>
+      <c r="K209" s="40"/>
     </row>
     <row r="210" spans="1:11">
       <c r="A210" s="3"/>
@@ -5168,7 +5353,7 @@
       <c r="H210" s="3"/>
       <c r="I210" s="3"/>
       <c r="J210" s="3"/>
-      <c r="K210" s="36"/>
+      <c r="K210" s="40"/>
     </row>
     <row r="211" spans="1:11">
       <c r="A211" s="3"/>
@@ -5180,7 +5365,7 @@
       <c r="H211" s="3"/>
       <c r="I211" s="3"/>
       <c r="J211" s="3"/>
-      <c r="K211" s="36"/>
+      <c r="K211" s="40"/>
     </row>
     <row r="212" spans="1:11">
       <c r="A212" s="3"/>
@@ -5192,7 +5377,7 @@
       <c r="H212" s="3"/>
       <c r="I212" s="3"/>
       <c r="J212" s="3"/>
-      <c r="K212" s="36"/>
+      <c r="K212" s="40"/>
     </row>
     <row r="213" spans="1:11">
       <c r="A213" s="3"/>
@@ -5204,7 +5389,7 @@
       <c r="H213" s="3"/>
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
-      <c r="K213" s="36"/>
+      <c r="K213" s="40"/>
     </row>
     <row r="214" spans="1:11">
       <c r="A214" s="3"/>
@@ -5216,7 +5401,7 @@
       <c r="H214" s="3"/>
       <c r="I214" s="3"/>
       <c r="J214" s="3"/>
-      <c r="K214" s="36"/>
+      <c r="K214" s="40"/>
     </row>
     <row r="215" spans="1:11">
       <c r="A215" s="3"/>
@@ -5228,7 +5413,7 @@
       <c r="H215" s="3"/>
       <c r="I215" s="3"/>
       <c r="J215" s="3"/>
-      <c r="K215" s="36"/>
+      <c r="K215" s="40"/>
     </row>
     <row r="216" spans="1:11">
       <c r="A216" s="3"/>
@@ -5240,7 +5425,7 @@
       <c r="H216" s="3"/>
       <c r="I216" s="3"/>
       <c r="J216" s="3"/>
-      <c r="K216" s="36"/>
+      <c r="K216" s="40"/>
     </row>
     <row r="217" spans="1:11">
       <c r="A217" s="3"/>
@@ -5252,7 +5437,7 @@
       <c r="H217" s="3"/>
       <c r="I217" s="3"/>
       <c r="J217" s="3"/>
-      <c r="K217" s="36"/>
+      <c r="K217" s="40"/>
     </row>
     <row r="218" spans="1:11">
       <c r="A218" s="3"/>
@@ -5264,7 +5449,7 @@
       <c r="H218" s="3"/>
       <c r="I218" s="3"/>
       <c r="J218" s="3"/>
-      <c r="K218" s="36"/>
+      <c r="K218" s="40"/>
     </row>
     <row r="219" spans="1:11">
       <c r="A219" s="3"/>
@@ -5276,7 +5461,7 @@
       <c r="H219" s="3"/>
       <c r="I219" s="3"/>
       <c r="J219" s="3"/>
-      <c r="K219" s="36"/>
+      <c r="K219" s="40"/>
     </row>
     <row r="220" spans="1:11">
       <c r="A220" s="3"/>
@@ -5288,7 +5473,7 @@
       <c r="H220" s="3"/>
       <c r="I220" s="3"/>
       <c r="J220" s="3"/>
-      <c r="K220" s="36"/>
+      <c r="K220" s="40"/>
     </row>
     <row r="221" spans="1:11">
       <c r="A221" s="3"/>
@@ -5300,7 +5485,7 @@
       <c r="H221" s="3"/>
       <c r="I221" s="3"/>
       <c r="J221" s="3"/>
-      <c r="K221" s="36"/>
+      <c r="K221" s="40"/>
     </row>
     <row r="222" spans="1:11">
       <c r="A222" s="3"/>
@@ -5312,7 +5497,7 @@
       <c r="H222" s="3"/>
       <c r="I222" s="3"/>
       <c r="J222" s="3"/>
-      <c r="K222" s="36"/>
+      <c r="K222" s="40"/>
     </row>
     <row r="223" spans="1:11">
       <c r="A223" s="3"/>
@@ -5324,7 +5509,7 @@
       <c r="H223" s="3"/>
       <c r="I223" s="3"/>
       <c r="J223" s="3"/>
-      <c r="K223" s="36"/>
+      <c r="K223" s="40"/>
     </row>
     <row r="224" spans="1:11">
       <c r="A224" s="3"/>
@@ -5336,7 +5521,7 @@
       <c r="H224" s="3"/>
       <c r="I224" s="3"/>
       <c r="J224" s="3"/>
-      <c r="K224" s="36"/>
+      <c r="K224" s="40"/>
     </row>
     <row r="225" spans="1:11">
       <c r="A225" s="3"/>
@@ -5348,7 +5533,7 @@
       <c r="H225" s="3"/>
       <c r="I225" s="3"/>
       <c r="J225" s="3"/>
-      <c r="K225" s="36"/>
+      <c r="K225" s="40"/>
     </row>
     <row r="226" spans="1:11">
       <c r="A226" s="3"/>
@@ -5360,7 +5545,7 @@
       <c r="H226" s="3"/>
       <c r="I226" s="3"/>
       <c r="J226" s="3"/>
-      <c r="K226" s="36"/>
+      <c r="K226" s="40"/>
     </row>
     <row r="227" spans="1:11">
       <c r="A227" s="3"/>
@@ -5372,7 +5557,7 @@
       <c r="H227" s="3"/>
       <c r="I227" s="3"/>
       <c r="J227" s="3"/>
-      <c r="K227" s="36"/>
+      <c r="K227" s="40"/>
     </row>
     <row r="228" spans="1:11">
       <c r="A228" s="3"/>
@@ -5384,7 +5569,7 @@
       <c r="H228" s="3"/>
       <c r="I228" s="3"/>
       <c r="J228" s="3"/>
-      <c r="K228" s="36"/>
+      <c r="K228" s="40"/>
     </row>
     <row r="229" spans="1:11">
       <c r="A229" s="3"/>
@@ -5396,7 +5581,7 @@
       <c r="H229" s="3"/>
       <c r="I229" s="3"/>
       <c r="J229" s="3"/>
-      <c r="K229" s="36"/>
+      <c r="K229" s="40"/>
     </row>
     <row r="230" spans="1:11">
       <c r="A230" s="3"/>
@@ -5408,7 +5593,7 @@
       <c r="H230" s="3"/>
       <c r="I230" s="3"/>
       <c r="J230" s="3"/>
-      <c r="K230" s="36"/>
+      <c r="K230" s="40"/>
     </row>
     <row r="231" spans="1:11">
       <c r="A231" s="3"/>
@@ -5420,7 +5605,7 @@
       <c r="H231" s="3"/>
       <c r="I231" s="3"/>
       <c r="J231" s="3"/>
-      <c r="K231" s="36"/>
+      <c r="K231" s="40"/>
     </row>
     <row r="232" spans="1:11">
       <c r="A232" s="3"/>
@@ -5432,7 +5617,7 @@
       <c r="H232" s="3"/>
       <c r="I232" s="3"/>
       <c r="J232" s="3"/>
-      <c r="K232" s="36"/>
+      <c r="K232" s="40"/>
     </row>
     <row r="233" spans="1:11">
       <c r="A233" s="3"/>
@@ -5444,7 +5629,7 @@
       <c r="H233" s="3"/>
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
-      <c r="K233" s="36"/>
+      <c r="K233" s="40"/>
     </row>
     <row r="234" spans="1:11">
       <c r="A234" s="3"/>
@@ -5456,7 +5641,7 @@
       <c r="H234" s="3"/>
       <c r="I234" s="3"/>
       <c r="J234" s="3"/>
-      <c r="K234" s="36"/>
+      <c r="K234" s="40"/>
     </row>
     <row r="235" spans="1:11">
       <c r="A235" s="3"/>
@@ -5468,7 +5653,7 @@
       <c r="H235" s="3"/>
       <c r="I235" s="3"/>
       <c r="J235" s="3"/>
-      <c r="K235" s="36"/>
+      <c r="K235" s="40"/>
     </row>
     <row r="236" spans="1:11">
       <c r="A236" s="3"/>
@@ -5480,7 +5665,7 @@
       <c r="H236" s="3"/>
       <c r="I236" s="3"/>
       <c r="J236" s="3"/>
-      <c r="K236" s="36"/>
+      <c r="K236" s="40"/>
     </row>
     <row r="237" spans="1:11">
       <c r="A237" s="3"/>
@@ -5492,7 +5677,7 @@
       <c r="H237" s="3"/>
       <c r="I237" s="3"/>
       <c r="J237" s="3"/>
-      <c r="K237" s="36"/>
+      <c r="K237" s="40"/>
     </row>
     <row r="238" spans="1:11">
       <c r="A238" s="3"/>
@@ -5504,7 +5689,7 @@
       <c r="H238" s="3"/>
       <c r="I238" s="3"/>
       <c r="J238" s="3"/>
-      <c r="K238" s="36"/>
+      <c r="K238" s="40"/>
     </row>
     <row r="239" spans="1:11">
       <c r="A239" s="3"/>
@@ -5516,7 +5701,7 @@
       <c r="H239" s="3"/>
       <c r="I239" s="3"/>
       <c r="J239" s="3"/>
-      <c r="K239" s="36"/>
+      <c r="K239" s="40"/>
     </row>
     <row r="240" spans="1:11">
       <c r="A240" s="3"/>
@@ -5528,7 +5713,7 @@
       <c r="H240" s="3"/>
       <c r="I240" s="3"/>
       <c r="J240" s="3"/>
-      <c r="K240" s="36"/>
+      <c r="K240" s="40"/>
     </row>
     <row r="241" spans="1:11">
       <c r="A241" s="3"/>
@@ -5540,7 +5725,7 @@
       <c r="H241" s="3"/>
       <c r="I241" s="3"/>
       <c r="J241" s="3"/>
-      <c r="K241" s="36"/>
+      <c r="K241" s="40"/>
     </row>
     <row r="242" spans="1:11">
       <c r="A242" s="3"/>
@@ -5552,7 +5737,7 @@
       <c r="H242" s="3"/>
       <c r="I242" s="3"/>
       <c r="J242" s="3"/>
-      <c r="K242" s="36"/>
+      <c r="K242" s="40"/>
     </row>
     <row r="243" spans="1:11">
       <c r="A243" s="3"/>
@@ -5564,7 +5749,7 @@
       <c r="H243" s="3"/>
       <c r="I243" s="3"/>
       <c r="J243" s="3"/>
-      <c r="K243" s="36"/>
+      <c r="K243" s="40"/>
     </row>
     <row r="244" spans="1:11">
       <c r="A244" s="3"/>
@@ -5576,7 +5761,7 @@
       <c r="H244" s="3"/>
       <c r="I244" s="3"/>
       <c r="J244" s="3"/>
-      <c r="K244" s="36"/>
+      <c r="K244" s="40"/>
     </row>
     <row r="245" spans="1:11">
       <c r="A245" s="3"/>
@@ -5588,7 +5773,7 @@
       <c r="H245" s="3"/>
       <c r="I245" s="3"/>
       <c r="J245" s="3"/>
-      <c r="K245" s="36"/>
+      <c r="K245" s="40"/>
     </row>
     <row r="246" spans="1:11">
       <c r="A246" s="3"/>
@@ -5600,7 +5785,7 @@
       <c r="H246" s="3"/>
       <c r="I246" s="3"/>
       <c r="J246" s="3"/>
-      <c r="K246" s="36"/>
+      <c r="K246" s="40"/>
     </row>
     <row r="247" spans="1:11">
       <c r="A247" s="3"/>
@@ -5612,7 +5797,7 @@
       <c r="H247" s="3"/>
       <c r="I247" s="3"/>
       <c r="J247" s="3"/>
-      <c r="K247" s="36"/>
+      <c r="K247" s="40"/>
     </row>
     <row r="248" spans="1:11">
       <c r="A248" s="3"/>
@@ -5624,7 +5809,7 @@
       <c r="H248" s="3"/>
       <c r="I248" s="3"/>
       <c r="J248" s="3"/>
-      <c r="K248" s="36"/>
+      <c r="K248" s="40"/>
     </row>
     <row r="249" spans="1:11">
       <c r="A249" s="3"/>
@@ -5636,7 +5821,7 @@
       <c r="H249" s="3"/>
       <c r="I249" s="3"/>
       <c r="J249" s="3"/>
-      <c r="K249" s="36"/>
+      <c r="K249" s="40"/>
     </row>
     <row r="250" spans="1:11">
       <c r="A250" s="3"/>
@@ -5648,7 +5833,7 @@
       <c r="H250" s="3"/>
       <c r="I250" s="3"/>
       <c r="J250" s="3"/>
-      <c r="K250" s="36"/>
+      <c r="K250" s="40"/>
     </row>
     <row r="251" spans="1:11">
       <c r="A251" s="3"/>
@@ -5660,7 +5845,7 @@
       <c r="H251" s="3"/>
       <c r="I251" s="3"/>
       <c r="J251" s="3"/>
-      <c r="K251" s="36"/>
+      <c r="K251" s="40"/>
     </row>
     <row r="252" spans="1:11">
       <c r="A252" s="3"/>
@@ -5672,7 +5857,7 @@
       <c r="H252" s="3"/>
       <c r="I252" s="3"/>
       <c r="J252" s="3"/>
-      <c r="K252" s="36"/>
+      <c r="K252" s="40"/>
     </row>
     <row r="253" spans="1:11">
       <c r="A253" s="3"/>
@@ -5684,7 +5869,7 @@
       <c r="H253" s="3"/>
       <c r="I253" s="3"/>
       <c r="J253" s="3"/>
-      <c r="K253" s="36"/>
+      <c r="K253" s="40"/>
     </row>
     <row r="254" spans="1:11">
       <c r="A254" s="3"/>
@@ -5696,7 +5881,7 @@
       <c r="H254" s="3"/>
       <c r="I254" s="3"/>
       <c r="J254" s="3"/>
-      <c r="K254" s="36"/>
+      <c r="K254" s="40"/>
     </row>
     <row r="255" spans="1:11">
       <c r="A255" s="3"/>
@@ -5708,7 +5893,7 @@
       <c r="H255" s="3"/>
       <c r="I255" s="3"/>
       <c r="J255" s="3"/>
-      <c r="K255" s="36"/>
+      <c r="K255" s="40"/>
     </row>
     <row r="256" spans="1:11">
       <c r="A256" s="3"/>
@@ -5720,7 +5905,7 @@
       <c r="H256" s="3"/>
       <c r="I256" s="3"/>
       <c r="J256" s="3"/>
-      <c r="K256" s="36"/>
+      <c r="K256" s="40"/>
     </row>
     <row r="257" spans="1:11">
       <c r="A257" s="3"/>
@@ -5732,7 +5917,7 @@
       <c r="H257" s="3"/>
       <c r="I257" s="3"/>
       <c r="J257" s="3"/>
-      <c r="K257" s="36"/>
+      <c r="K257" s="40"/>
     </row>
     <row r="258" spans="1:11">
       <c r="A258" s="3"/>
@@ -5744,7 +5929,7 @@
       <c r="H258" s="3"/>
       <c r="I258" s="3"/>
       <c r="J258" s="3"/>
-      <c r="K258" s="36"/>
+      <c r="K258" s="40"/>
     </row>
     <row r="259" spans="1:11">
       <c r="A259" s="3"/>
@@ -5756,7 +5941,7 @@
       <c r="H259" s="3"/>
       <c r="I259" s="3"/>
       <c r="J259" s="3"/>
-      <c r="K259" s="36"/>
+      <c r="K259" s="40"/>
     </row>
     <row r="260" spans="1:11">
       <c r="A260" s="3"/>
@@ -5768,7 +5953,7 @@
       <c r="H260" s="3"/>
       <c r="I260" s="3"/>
       <c r="J260" s="3"/>
-      <c r="K260" s="36"/>
+      <c r="K260" s="40"/>
     </row>
     <row r="261" spans="1:11">
       <c r="A261" s="3"/>
@@ -5780,7 +5965,7 @@
       <c r="H261" s="3"/>
       <c r="I261" s="3"/>
       <c r="J261" s="3"/>
-      <c r="K261" s="36"/>
+      <c r="K261" s="40"/>
     </row>
     <row r="262" spans="1:11">
       <c r="A262" s="3"/>
@@ -5792,7 +5977,7 @@
       <c r="H262" s="3"/>
       <c r="I262" s="3"/>
       <c r="J262" s="3"/>
-      <c r="K262" s="36"/>
+      <c r="K262" s="40"/>
     </row>
     <row r="263" spans="1:11">
       <c r="A263" s="3"/>
@@ -5804,7 +5989,7 @@
       <c r="H263" s="3"/>
       <c r="I263" s="3"/>
       <c r="J263" s="3"/>
-      <c r="K263" s="36"/>
+      <c r="K263" s="40"/>
     </row>
     <row r="264" spans="1:11">
       <c r="A264" s="3"/>
@@ -5816,7 +6001,7 @@
       <c r="H264" s="3"/>
       <c r="I264" s="3"/>
       <c r="J264" s="3"/>
-      <c r="K264" s="36"/>
+      <c r="K264" s="40"/>
     </row>
     <row r="265" spans="1:11">
       <c r="A265" s="3"/>
@@ -5828,7 +6013,7 @@
       <c r="H265" s="3"/>
       <c r="I265" s="3"/>
       <c r="J265" s="3"/>
-      <c r="K265" s="36"/>
+      <c r="K265" s="40"/>
     </row>
     <row r="266" spans="1:11">
       <c r="A266" s="3"/>
@@ -5840,7 +6025,7 @@
       <c r="H266" s="3"/>
       <c r="I266" s="3"/>
       <c r="J266" s="3"/>
-      <c r="K266" s="36"/>
+      <c r="K266" s="40"/>
     </row>
     <row r="267" spans="1:11">
       <c r="A267" s="3"/>
@@ -5852,7 +6037,7 @@
       <c r="H267" s="3"/>
       <c r="I267" s="3"/>
       <c r="J267" s="3"/>
-      <c r="K267" s="36"/>
+      <c r="K267" s="40"/>
     </row>
     <row r="268" spans="1:11">
       <c r="A268" s="3"/>
@@ -5864,7 +6049,7 @@
       <c r="H268" s="3"/>
       <c r="I268" s="3"/>
       <c r="J268" s="3"/>
-      <c r="K268" s="36"/>
+      <c r="K268" s="40"/>
     </row>
     <row r="269" spans="1:11">
       <c r="A269" s="3"/>
@@ -5876,7 +6061,7 @@
       <c r="H269" s="3"/>
       <c r="I269" s="3"/>
       <c r="J269" s="3"/>
-      <c r="K269" s="36"/>
+      <c r="K269" s="40"/>
     </row>
     <row r="270" spans="1:11">
       <c r="A270" s="3"/>
@@ -5888,7 +6073,7 @@
       <c r="H270" s="3"/>
       <c r="I270" s="3"/>
       <c r="J270" s="3"/>
-      <c r="K270" s="36"/>
+      <c r="K270" s="40"/>
     </row>
     <row r="271" spans="1:11">
       <c r="A271" s="3"/>
@@ -5900,7 +6085,7 @@
       <c r="H271" s="3"/>
       <c r="I271" s="3"/>
       <c r="J271" s="3"/>
-      <c r="K271" s="36"/>
+      <c r="K271" s="40"/>
     </row>
     <row r="272" spans="1:11">
       <c r="A272" s="3"/>
@@ -5912,7 +6097,7 @@
       <c r="H272" s="3"/>
       <c r="I272" s="3"/>
       <c r="J272" s="3"/>
-      <c r="K272" s="36"/>
+      <c r="K272" s="40"/>
     </row>
     <row r="273" spans="1:11">
       <c r="A273" s="3"/>
@@ -5924,7 +6109,7 @@
       <c r="H273" s="3"/>
       <c r="I273" s="3"/>
       <c r="J273" s="3"/>
-      <c r="K273" s="36"/>
+      <c r="K273" s="40"/>
     </row>
     <row r="274" spans="1:11">
       <c r="A274" s="3"/>
@@ -5936,7 +6121,7 @@
       <c r="H274" s="3"/>
       <c r="I274" s="3"/>
       <c r="J274" s="3"/>
-      <c r="K274" s="36"/>
+      <c r="K274" s="40"/>
     </row>
     <row r="275" spans="1:11">
       <c r="A275" s="3"/>
@@ -5948,7 +6133,7 @@
       <c r="H275" s="3"/>
       <c r="I275" s="3"/>
       <c r="J275" s="3"/>
-      <c r="K275" s="36"/>
+      <c r="K275" s="40"/>
     </row>
     <row r="276" spans="1:11">
       <c r="A276" s="3"/>
@@ -5960,7 +6145,7 @@
       <c r="H276" s="3"/>
       <c r="I276" s="3"/>
       <c r="J276" s="3"/>
-      <c r="K276" s="36"/>
+      <c r="K276" s="40"/>
     </row>
     <row r="277" spans="1:11">
       <c r="A277" s="3"/>
@@ -5972,7 +6157,7 @@
       <c r="H277" s="3"/>
       <c r="I277" s="3"/>
       <c r="J277" s="3"/>
-      <c r="K277" s="36"/>
+      <c r="K277" s="40"/>
     </row>
     <row r="278" spans="1:11">
       <c r="A278" s="3"/>
@@ -5984,7 +6169,7 @@
       <c r="H278" s="3"/>
       <c r="I278" s="3"/>
       <c r="J278" s="3"/>
-      <c r="K278" s="36"/>
+      <c r="K278" s="40"/>
     </row>
     <row r="279" spans="1:11">
       <c r="A279" s="3"/>
@@ -5996,7 +6181,7 @@
       <c r="H279" s="3"/>
       <c r="I279" s="3"/>
       <c r="J279" s="3"/>
-      <c r="K279" s="36"/>
+      <c r="K279" s="40"/>
     </row>
     <row r="280" spans="1:11">
       <c r="A280" s="3"/>
@@ -6008,7 +6193,7 @@
       <c r="H280" s="3"/>
       <c r="I280" s="3"/>
       <c r="J280" s="3"/>
-      <c r="K280" s="36"/>
+      <c r="K280" s="40"/>
     </row>
     <row r="281" spans="1:11">
       <c r="A281" s="3"/>
@@ -6020,7 +6205,7 @@
       <c r="H281" s="3"/>
       <c r="I281" s="3"/>
       <c r="J281" s="3"/>
-      <c r="K281" s="36"/>
+      <c r="K281" s="40"/>
     </row>
     <row r="282" spans="1:11">
       <c r="A282" s="3"/>
@@ -6032,7 +6217,7 @@
       <c r="H282" s="3"/>
       <c r="I282" s="3"/>
       <c r="J282" s="3"/>
-      <c r="K282" s="36"/>
+      <c r="K282" s="40"/>
     </row>
     <row r="283" spans="1:11">
       <c r="A283" s="3"/>
@@ -6044,7 +6229,7 @@
       <c r="H283" s="3"/>
       <c r="I283" s="3"/>
       <c r="J283" s="3"/>
-      <c r="K283" s="36"/>
+      <c r="K283" s="40"/>
     </row>
     <row r="284" spans="1:11">
       <c r="A284" s="3"/>
@@ -6056,7 +6241,7 @@
       <c r="H284" s="3"/>
       <c r="I284" s="3"/>
       <c r="J284" s="3"/>
-      <c r="K284" s="36"/>
+      <c r="K284" s="40"/>
     </row>
     <row r="285" spans="1:11">
       <c r="A285" s="3"/>
@@ -6068,7 +6253,7 @@
       <c r="H285" s="3"/>
       <c r="I285" s="3"/>
       <c r="J285" s="3"/>
-      <c r="K285" s="36"/>
+      <c r="K285" s="40"/>
     </row>
     <row r="286" spans="1:11">
       <c r="A286" s="3"/>
@@ -6080,7 +6265,7 @@
       <c r="H286" s="3"/>
       <c r="I286" s="3"/>
       <c r="J286" s="3"/>
-      <c r="K286" s="36"/>
+      <c r="K286" s="40"/>
     </row>
     <row r="287" spans="1:11">
       <c r="A287" s="3"/>
@@ -6092,7 +6277,7 @@
       <c r="H287" s="3"/>
       <c r="I287" s="3"/>
       <c r="J287" s="3"/>
-      <c r="K287" s="36"/>
+      <c r="K287" s="40"/>
     </row>
     <row r="288" spans="1:11">
       <c r="A288" s="3"/>
@@ -6104,7 +6289,7 @@
       <c r="H288" s="3"/>
       <c r="I288" s="3"/>
       <c r="J288" s="3"/>
-      <c r="K288" s="36"/>
+      <c r="K288" s="40"/>
     </row>
     <row r="289" spans="1:11">
       <c r="A289" s="3"/>
@@ -6116,7 +6301,7 @@
       <c r="H289" s="3"/>
       <c r="I289" s="3"/>
       <c r="J289" s="3"/>
-      <c r="K289" s="36"/>
+      <c r="K289" s="40"/>
     </row>
     <row r="290" spans="1:11">
       <c r="A290" s="3"/>
@@ -6128,7 +6313,7 @@
       <c r="H290" s="3"/>
       <c r="I290" s="3"/>
       <c r="J290" s="3"/>
-      <c r="K290" s="36"/>
+      <c r="K290" s="40"/>
     </row>
     <row r="291" spans="1:11">
       <c r="A291" s="3"/>
@@ -6140,7 +6325,7 @@
       <c r="H291" s="3"/>
       <c r="I291" s="3"/>
       <c r="J291" s="3"/>
-      <c r="K291" s="36"/>
+      <c r="K291" s="40"/>
     </row>
     <row r="292" spans="1:11">
       <c r="A292" s="3"/>
@@ -6152,7 +6337,7 @@
       <c r="H292" s="3"/>
       <c r="I292" s="3"/>
       <c r="J292" s="3"/>
-      <c r="K292" s="36"/>
+      <c r="K292" s="40"/>
     </row>
     <row r="293" spans="1:11">
       <c r="A293" s="3"/>
@@ -6164,7 +6349,7 @@
       <c r="H293" s="3"/>
       <c r="I293" s="3"/>
       <c r="J293" s="3"/>
-      <c r="K293" s="36"/>
+      <c r="K293" s="40"/>
     </row>
     <row r="294" spans="1:11">
       <c r="A294" s="3"/>
@@ -6176,7 +6361,7 @@
       <c r="H294" s="3"/>
       <c r="I294" s="3"/>
       <c r="J294" s="3"/>
-      <c r="K294" s="36"/>
+      <c r="K294" s="40"/>
     </row>
     <row r="295" spans="1:11">
       <c r="A295" s="3"/>
@@ -6188,7 +6373,7 @@
       <c r="H295" s="3"/>
       <c r="I295" s="3"/>
       <c r="J295" s="3"/>
-      <c r="K295" s="36"/>
+      <c r="K295" s="40"/>
     </row>
     <row r="296" spans="1:11">
       <c r="A296" s="3"/>
@@ -6200,7 +6385,7 @@
       <c r="H296" s="3"/>
       <c r="I296" s="3"/>
       <c r="J296" s="3"/>
-      <c r="K296" s="36"/>
+      <c r="K296" s="40"/>
     </row>
     <row r="297" spans="1:11">
       <c r="A297" s="3"/>
@@ -6212,7 +6397,7 @@
       <c r="H297" s="3"/>
       <c r="I297" s="3"/>
       <c r="J297" s="3"/>
-      <c r="K297" s="36"/>
+      <c r="K297" s="40"/>
     </row>
     <row r="298" spans="1:11">
       <c r="A298" s="3"/>
@@ -6224,7 +6409,7 @@
       <c r="H298" s="3"/>
       <c r="I298" s="3"/>
       <c r="J298" s="3"/>
-      <c r="K298" s="36"/>
+      <c r="K298" s="40"/>
     </row>
     <row r="299" spans="1:11">
       <c r="A299" s="3"/>
@@ -6236,7 +6421,7 @@
       <c r="H299" s="3"/>
       <c r="I299" s="3"/>
       <c r="J299" s="3"/>
-      <c r="K299" s="36"/>
+      <c r="K299" s="40"/>
     </row>
     <row r="300" spans="1:11">
       <c r="A300" s="3"/>
@@ -6248,7 +6433,7 @@
       <c r="H300" s="3"/>
       <c r="I300" s="3"/>
       <c r="J300" s="3"/>
-      <c r="K300" s="36"/>
+      <c r="K300" s="40"/>
     </row>
     <row r="301" spans="1:11">
       <c r="A301" s="3"/>
@@ -6260,7 +6445,7 @@
       <c r="H301" s="3"/>
       <c r="I301" s="3"/>
       <c r="J301" s="3"/>
-      <c r="K301" s="36"/>
+      <c r="K301" s="40"/>
     </row>
     <row r="302" spans="1:11">
       <c r="A302" s="3"/>
@@ -6272,7 +6457,7 @@
       <c r="H302" s="3"/>
       <c r="I302" s="3"/>
       <c r="J302" s="3"/>
-      <c r="K302" s="36"/>
+      <c r="K302" s="40"/>
     </row>
     <row r="303" spans="1:11">
       <c r="A303" s="3"/>
@@ -6284,7 +6469,7 @@
       <c r="H303" s="3"/>
       <c r="I303" s="3"/>
       <c r="J303" s="3"/>
-      <c r="K303" s="36"/>
+      <c r="K303" s="40"/>
     </row>
     <row r="304" spans="1:11">
       <c r="A304" s="3"/>
@@ -6296,7 +6481,7 @@
       <c r="H304" s="3"/>
       <c r="I304" s="3"/>
       <c r="J304" s="3"/>
-      <c r="K304" s="36"/>
+      <c r="K304" s="40"/>
     </row>
     <row r="305" spans="1:11">
       <c r="A305" s="3"/>
@@ -6308,7 +6493,7 @@
       <c r="H305" s="3"/>
       <c r="I305" s="3"/>
       <c r="J305" s="3"/>
-      <c r="K305" s="36"/>
+      <c r="K305" s="40"/>
     </row>
     <row r="306" spans="1:11">
       <c r="A306" s="3"/>
@@ -6320,7 +6505,7 @@
       <c r="H306" s="3"/>
       <c r="I306" s="3"/>
       <c r="J306" s="3"/>
-      <c r="K306" s="36"/>
+      <c r="K306" s="40"/>
     </row>
     <row r="307" spans="1:11">
       <c r="A307" s="3"/>
@@ -6332,7 +6517,7 @@
       <c r="H307" s="3"/>
       <c r="I307" s="3"/>
       <c r="J307" s="3"/>
-      <c r="K307" s="36"/>
+      <c r="K307" s="40"/>
     </row>
     <row r="308" spans="1:11">
       <c r="A308" s="3"/>
@@ -6344,7 +6529,7 @@
       <c r="H308" s="3"/>
       <c r="I308" s="3"/>
       <c r="J308" s="3"/>
-      <c r="K308" s="36"/>
+      <c r="K308" s="40"/>
     </row>
     <row r="309" spans="1:11">
       <c r="A309" s="3"/>
@@ -6356,7 +6541,7 @@
       <c r="H309" s="3"/>
       <c r="I309" s="3"/>
       <c r="J309" s="3"/>
-      <c r="K309" s="36"/>
+      <c r="K309" s="40"/>
     </row>
     <row r="310" spans="1:11">
       <c r="A310" s="3"/>
@@ -6368,7 +6553,7 @@
       <c r="H310" s="3"/>
       <c r="I310" s="3"/>
       <c r="J310" s="3"/>
-      <c r="K310" s="36"/>
+      <c r="K310" s="40"/>
     </row>
     <row r="311" spans="1:11">
       <c r="A311" s="3"/>
@@ -6380,7 +6565,7 @@
       <c r="H311" s="3"/>
       <c r="I311" s="3"/>
       <c r="J311" s="3"/>
-      <c r="K311" s="36"/>
+      <c r="K311" s="40"/>
     </row>
     <row r="312" spans="1:11">
       <c r="A312" s="3"/>
@@ -6392,7 +6577,7 @@
       <c r="H312" s="3"/>
       <c r="I312" s="3"/>
       <c r="J312" s="3"/>
-      <c r="K312" s="36"/>
+      <c r="K312" s="40"/>
     </row>
     <row r="313" spans="1:11">
       <c r="A313" s="3"/>
@@ -6404,7 +6589,7 @@
       <c r="H313" s="3"/>
       <c r="I313" s="3"/>
       <c r="J313" s="3"/>
-      <c r="K313" s="36"/>
+      <c r="K313" s="40"/>
     </row>
     <row r="314" spans="1:11">
       <c r="A314" s="3"/>
@@ -6416,7 +6601,7 @@
       <c r="H314" s="3"/>
       <c r="I314" s="3"/>
       <c r="J314" s="3"/>
-      <c r="K314" s="36"/>
+      <c r="K314" s="40"/>
     </row>
     <row r="315" spans="1:11">
       <c r="A315" s="3"/>
@@ -6428,7 +6613,7 @@
       <c r="H315" s="3"/>
       <c r="I315" s="3"/>
       <c r="J315" s="3"/>
-      <c r="K315" s="36"/>
+      <c r="K315" s="40"/>
     </row>
     <row r="316" spans="1:11">
       <c r="A316" s="3"/>
@@ -6440,7 +6625,7 @@
       <c r="H316" s="3"/>
       <c r="I316" s="3"/>
       <c r="J316" s="3"/>
-      <c r="K316" s="36"/>
+      <c r="K316" s="40"/>
     </row>
     <row r="317" spans="1:11">
       <c r="A317" s="3"/>
@@ -6452,7 +6637,7 @@
       <c r="H317" s="3"/>
       <c r="I317" s="3"/>
       <c r="J317" s="3"/>
-      <c r="K317" s="36"/>
+      <c r="K317" s="40"/>
     </row>
     <row r="318" spans="1:11">
       <c r="A318" s="3"/>
@@ -6464,7 +6649,7 @@
       <c r="H318" s="3"/>
       <c r="I318" s="3"/>
       <c r="J318" s="3"/>
-      <c r="K318" s="36"/>
+      <c r="K318" s="40"/>
     </row>
     <row r="319" spans="1:11">
       <c r="A319" s="3"/>
@@ -6476,7 +6661,7 @@
       <c r="H319" s="3"/>
       <c r="I319" s="3"/>
       <c r="J319" s="3"/>
-      <c r="K319" s="36"/>
+      <c r="K319" s="40"/>
     </row>
     <row r="320" spans="1:11">
       <c r="A320" s="3"/>
@@ -6488,7 +6673,7 @@
       <c r="H320" s="3"/>
       <c r="I320" s="3"/>
       <c r="J320" s="3"/>
-      <c r="K320" s="36"/>
+      <c r="K320" s="40"/>
     </row>
     <row r="321" spans="1:11">
       <c r="A321" s="3"/>
@@ -6500,7 +6685,7 @@
       <c r="H321" s="3"/>
       <c r="I321" s="3"/>
       <c r="J321" s="3"/>
-      <c r="K321" s="36"/>
+      <c r="K321" s="40"/>
     </row>
     <row r="322" spans="1:11">
       <c r="A322" s="3"/>
@@ -6512,7 +6697,7 @@
       <c r="H322" s="3"/>
       <c r="I322" s="3"/>
       <c r="J322" s="3"/>
-      <c r="K322" s="36"/>
+      <c r="K322" s="40"/>
     </row>
     <row r="323" spans="1:11">
       <c r="A323" s="3"/>
@@ -6524,7 +6709,7 @@
       <c r="H323" s="3"/>
       <c r="I323" s="3"/>
       <c r="J323" s="3"/>
-      <c r="K323" s="36"/>
+      <c r="K323" s="40"/>
     </row>
     <row r="324" spans="1:11">
       <c r="A324" s="3"/>
@@ -6536,7 +6721,7 @@
       <c r="H324" s="3"/>
       <c r="I324" s="3"/>
       <c r="J324" s="3"/>
-      <c r="K324" s="36"/>
+      <c r="K324" s="40"/>
     </row>
     <row r="325" spans="1:11">
       <c r="A325" s="3"/>
@@ -6548,7 +6733,7 @@
       <c r="H325" s="3"/>
       <c r="I325" s="3"/>
       <c r="J325" s="3"/>
-      <c r="K325" s="36"/>
+      <c r="K325" s="40"/>
     </row>
     <row r="326" spans="1:11">
       <c r="A326" s="3"/>
@@ -6560,7 +6745,7 @@
       <c r="H326" s="3"/>
       <c r="I326" s="3"/>
       <c r="J326" s="3"/>
-      <c r="K326" s="36"/>
+      <c r="K326" s="40"/>
     </row>
     <row r="327" spans="1:11">
       <c r="A327" s="3"/>
@@ -6572,7 +6757,7 @@
       <c r="H327" s="3"/>
       <c r="I327" s="3"/>
       <c r="J327" s="3"/>
-      <c r="K327" s="36"/>
+      <c r="K327" s="40"/>
     </row>
     <row r="328" spans="1:11">
       <c r="A328" s="3"/>
@@ -6584,7 +6769,7 @@
       <c r="H328" s="3"/>
       <c r="I328" s="3"/>
       <c r="J328" s="3"/>
-      <c r="K328" s="36"/>
+      <c r="K328" s="40"/>
     </row>
     <row r="329" spans="1:11">
       <c r="A329" s="3"/>
@@ -6596,7 +6781,7 @@
       <c r="H329" s="3"/>
       <c r="I329" s="3"/>
       <c r="J329" s="3"/>
-      <c r="K329" s="36"/>
+      <c r="K329" s="40"/>
     </row>
     <row r="330" spans="1:11">
       <c r="A330" s="3"/>
@@ -6608,7 +6793,7 @@
       <c r="H330" s="3"/>
       <c r="I330" s="3"/>
       <c r="J330" s="3"/>
-      <c r="K330" s="36"/>
+      <c r="K330" s="40"/>
     </row>
     <row r="331" spans="1:11">
       <c r="A331" s="3"/>
@@ -6620,7 +6805,7 @@
       <c r="H331" s="3"/>
       <c r="I331" s="3"/>
       <c r="J331" s="3"/>
-      <c r="K331" s="36"/>
+      <c r="K331" s="40"/>
     </row>
     <row r="332" spans="1:11">
       <c r="A332" s="3"/>
@@ -6632,7 +6817,7 @@
       <c r="H332" s="3"/>
       <c r="I332" s="3"/>
       <c r="J332" s="3"/>
-      <c r="K332" s="36"/>
+      <c r="K332" s="40"/>
     </row>
     <row r="333" spans="1:11">
       <c r="A333" s="3"/>
@@ -6644,7 +6829,7 @@
       <c r="H333" s="3"/>
       <c r="I333" s="3"/>
       <c r="J333" s="3"/>
-      <c r="K333" s="36"/>
+      <c r="K333" s="40"/>
     </row>
     <row r="334" spans="1:11">
       <c r="A334" s="3"/>
@@ -6656,7 +6841,7 @@
       <c r="H334" s="3"/>
       <c r="I334" s="3"/>
       <c r="J334" s="3"/>
-      <c r="K334" s="36"/>
+      <c r="K334" s="40"/>
     </row>
     <row r="335" spans="1:11">
       <c r="A335" s="3"/>
@@ -6668,7 +6853,7 @@
       <c r="H335" s="3"/>
       <c r="I335" s="3"/>
       <c r="J335" s="3"/>
-      <c r="K335" s="36"/>
+      <c r="K335" s="40"/>
     </row>
     <row r="336" spans="1:11">
       <c r="A336" s="3"/>
@@ -6680,7 +6865,7 @@
       <c r="H336" s="3"/>
       <c r="I336" s="3"/>
       <c r="J336" s="3"/>
-      <c r="K336" s="36"/>
+      <c r="K336" s="40"/>
     </row>
     <row r="337" spans="1:11">
       <c r="A337" s="3"/>
@@ -6692,7 +6877,7 @@
       <c r="H337" s="3"/>
       <c r="I337" s="3"/>
       <c r="J337" s="3"/>
-      <c r="K337" s="36"/>
+      <c r="K337" s="40"/>
     </row>
     <row r="338" spans="1:11">
       <c r="A338" s="3"/>
@@ -6704,7 +6889,7 @@
       <c r="H338" s="3"/>
       <c r="I338" s="3"/>
       <c r="J338" s="3"/>
-      <c r="K338" s="36"/>
+      <c r="K338" s="40"/>
     </row>
     <row r="339" spans="1:11">
       <c r="A339" s="3"/>
@@ -6716,7 +6901,7 @@
       <c r="H339" s="3"/>
       <c r="I339" s="3"/>
       <c r="J339" s="3"/>
-      <c r="K339" s="36"/>
+      <c r="K339" s="40"/>
     </row>
     <row r="340" spans="1:11">
       <c r="A340" s="3"/>
@@ -6728,7 +6913,7 @@
       <c r="H340" s="3"/>
       <c r="I340" s="3"/>
       <c r="J340" s="3"/>
-      <c r="K340" s="36"/>
+      <c r="K340" s="40"/>
     </row>
     <row r="341" spans="1:11">
       <c r="A341" s="3"/>
@@ -6740,7 +6925,7 @@
       <c r="H341" s="3"/>
       <c r="I341" s="3"/>
       <c r="J341" s="3"/>
-      <c r="K341" s="36"/>
+      <c r="K341" s="40"/>
     </row>
     <row r="342" spans="1:11">
       <c r="A342" s="3"/>
@@ -6752,7 +6937,7 @@
       <c r="H342" s="3"/>
       <c r="I342" s="3"/>
       <c r="J342" s="3"/>
-      <c r="K342" s="36"/>
+      <c r="K342" s="40"/>
     </row>
     <row r="343" spans="1:11">
       <c r="A343" s="3"/>
@@ -6764,7 +6949,7 @@
       <c r="H343" s="3"/>
       <c r="I343" s="3"/>
       <c r="J343" s="3"/>
-      <c r="K343" s="36"/>
+      <c r="K343" s="40"/>
     </row>
     <row r="344" spans="1:11">
       <c r="A344" s="3"/>
@@ -6776,7 +6961,7 @@
       <c r="H344" s="3"/>
       <c r="I344" s="3"/>
       <c r="J344" s="3"/>
-      <c r="K344" s="36"/>
+      <c r="K344" s="40"/>
     </row>
     <row r="345" spans="1:11">
       <c r="A345" s="3"/>
@@ -6788,7 +6973,7 @@
       <c r="H345" s="3"/>
       <c r="I345" s="3"/>
       <c r="J345" s="3"/>
-      <c r="K345" s="36"/>
+      <c r="K345" s="40"/>
     </row>
     <row r="346" spans="1:11">
       <c r="A346" s="3"/>
@@ -6800,7 +6985,7 @@
       <c r="H346" s="3"/>
       <c r="I346" s="3"/>
       <c r="J346" s="3"/>
-      <c r="K346" s="36"/>
+      <c r="K346" s="40"/>
     </row>
     <row r="347" spans="1:11">
       <c r="A347" s="3"/>
@@ -6812,7 +6997,7 @@
       <c r="H347" s="3"/>
       <c r="I347" s="3"/>
       <c r="J347" s="3"/>
-      <c r="K347" s="36"/>
+      <c r="K347" s="40"/>
     </row>
     <row r="348" spans="1:11">
       <c r="A348" s="3"/>
@@ -6824,7 +7009,7 @@
       <c r="H348" s="3"/>
       <c r="I348" s="3"/>
       <c r="J348" s="3"/>
-      <c r="K348" s="36"/>
+      <c r="K348" s="40"/>
     </row>
     <row r="349" spans="1:11">
       <c r="A349" s="3"/>
@@ -6836,7 +7021,7 @@
       <c r="H349" s="3"/>
       <c r="I349" s="3"/>
       <c r="J349" s="3"/>
-      <c r="K349" s="36"/>
+      <c r="K349" s="40"/>
     </row>
     <row r="350" spans="1:11">
       <c r="A350" s="3"/>
@@ -6848,7 +7033,7 @@
       <c r="H350" s="3"/>
       <c r="I350" s="3"/>
       <c r="J350" s="3"/>
-      <c r="K350" s="36"/>
+      <c r="K350" s="40"/>
     </row>
     <row r="351" spans="1:11">
       <c r="A351" s="3"/>
@@ -6860,7 +7045,7 @@
       <c r="H351" s="3"/>
       <c r="I351" s="3"/>
       <c r="J351" s="3"/>
-      <c r="K351" s="36"/>
+      <c r="K351" s="40"/>
     </row>
     <row r="352" spans="1:11">
       <c r="A352" s="3"/>
@@ -6872,7 +7057,7 @@
       <c r="H352" s="3"/>
       <c r="I352" s="3"/>
       <c r="J352" s="3"/>
-      <c r="K352" s="36"/>
+      <c r="K352" s="40"/>
     </row>
     <row r="353" spans="1:11">
       <c r="A353" s="3"/>
@@ -6884,7 +7069,7 @@
       <c r="H353" s="3"/>
       <c r="I353" s="3"/>
       <c r="J353" s="3"/>
-      <c r="K353" s="36"/>
+      <c r="K353" s="40"/>
     </row>
     <row r="354" spans="1:11">
       <c r="A354" s="3"/>
@@ -6896,7 +7081,7 @@
       <c r="H354" s="3"/>
       <c r="I354" s="3"/>
       <c r="J354" s="3"/>
-      <c r="K354" s="36"/>
+      <c r="K354" s="40"/>
     </row>
     <row r="355" spans="1:11">
       <c r="A355" s="3"/>
@@ -6908,7 +7093,7 @@
       <c r="H355" s="3"/>
       <c r="I355" s="3"/>
       <c r="J355" s="3"/>
-      <c r="K355" s="36"/>
+      <c r="K355" s="40"/>
     </row>
     <row r="356" spans="1:11">
       <c r="A356" s="3"/>
@@ -6920,7 +7105,7 @@
       <c r="H356" s="3"/>
       <c r="I356" s="3"/>
       <c r="J356" s="3"/>
-      <c r="K356" s="36"/>
+      <c r="K356" s="40"/>
     </row>
     <row r="357" spans="1:11">
       <c r="A357" s="3"/>
@@ -6932,7 +7117,7 @@
       <c r="H357" s="3"/>
       <c r="I357" s="3"/>
       <c r="J357" s="3"/>
-      <c r="K357" s="36"/>
+      <c r="K357" s="40"/>
     </row>
     <row r="358" spans="1:11">
       <c r="A358" s="3"/>
@@ -6944,7 +7129,7 @@
       <c r="H358" s="3"/>
       <c r="I358" s="3"/>
       <c r="J358" s="3"/>
-      <c r="K358" s="36"/>
+      <c r="K358" s="40"/>
     </row>
     <row r="359" spans="1:11">
       <c r="A359" s="3"/>
@@ -6956,7 +7141,7 @@
       <c r="H359" s="3"/>
       <c r="I359" s="3"/>
       <c r="J359" s="3"/>
-      <c r="K359" s="36"/>
+      <c r="K359" s="40"/>
     </row>
     <row r="360" spans="1:11">
       <c r="A360" s="3"/>
@@ -6968,7 +7153,7 @@
       <c r="H360" s="3"/>
       <c r="I360" s="3"/>
       <c r="J360" s="3"/>
-      <c r="K360" s="36"/>
+      <c r="K360" s="40"/>
     </row>
     <row r="361" spans="1:11">
       <c r="A361" s="3"/>
@@ -6980,7 +7165,7 @@
       <c r="H361" s="3"/>
       <c r="I361" s="3"/>
       <c r="J361" s="3"/>
-      <c r="K361" s="36"/>
+      <c r="K361" s="40"/>
     </row>
     <row r="362" spans="1:11">
       <c r="A362" s="3"/>
@@ -6992,7 +7177,7 @@
       <c r="H362" s="3"/>
       <c r="I362" s="3"/>
       <c r="J362" s="3"/>
-      <c r="K362" s="36"/>
+      <c r="K362" s="40"/>
     </row>
     <row r="363" spans="1:11">
       <c r="A363" s="3"/>
@@ -7004,7 +7189,7 @@
       <c r="H363" s="3"/>
       <c r="I363" s="3"/>
       <c r="J363" s="3"/>
-      <c r="K363" s="36"/>
+      <c r="K363" s="40"/>
     </row>
     <row r="364" spans="1:11">
       <c r="A364" s="3"/>
@@ -7016,7 +7201,7 @@
       <c r="H364" s="3"/>
       <c r="I364" s="3"/>
       <c r="J364" s="3"/>
-      <c r="K364" s="36"/>
+      <c r="K364" s="40"/>
     </row>
     <row r="365" spans="1:11">
       <c r="A365" s="3"/>
@@ -7028,7 +7213,7 @@
       <c r="H365" s="3"/>
       <c r="I365" s="3"/>
       <c r="J365" s="3"/>
-      <c r="K365" s="36"/>
+      <c r="K365" s="40"/>
     </row>
     <row r="366" spans="1:11">
       <c r="A366" s="3"/>
@@ -7040,7 +7225,7 @@
       <c r="H366" s="3"/>
       <c r="I366" s="3"/>
       <c r="J366" s="3"/>
-      <c r="K366" s="36"/>
+      <c r="K366" s="40"/>
     </row>
     <row r="367" spans="1:11">
       <c r="A367" s="3"/>
@@ -7052,7 +7237,7 @@
       <c r="H367" s="3"/>
       <c r="I367" s="3"/>
       <c r="J367" s="3"/>
-      <c r="K367" s="36"/>
+      <c r="K367" s="40"/>
     </row>
     <row r="368" spans="1:11">
       <c r="A368" s="3"/>
@@ -7064,7 +7249,7 @@
       <c r="H368" s="3"/>
       <c r="I368" s="3"/>
       <c r="J368" s="3"/>
-      <c r="K368" s="36"/>
+      <c r="K368" s="40"/>
     </row>
     <row r="369" spans="1:11">
       <c r="A369" s="3"/>
@@ -7076,7 +7261,7 @@
       <c r="H369" s="3"/>
       <c r="I369" s="3"/>
       <c r="J369" s="3"/>
-      <c r="K369" s="36"/>
+      <c r="K369" s="40"/>
     </row>
     <row r="370" spans="1:11">
       <c r="A370" s="3"/>
@@ -7088,7 +7273,7 @@
       <c r="H370" s="3"/>
       <c r="I370" s="3"/>
       <c r="J370" s="3"/>
-      <c r="K370" s="36"/>
+      <c r="K370" s="40"/>
     </row>
     <row r="371" spans="1:11">
       <c r="A371" s="3"/>
@@ -7100,7 +7285,7 @@
       <c r="H371" s="3"/>
       <c r="I371" s="3"/>
       <c r="J371" s="3"/>
-      <c r="K371" s="36"/>
+      <c r="K371" s="40"/>
     </row>
     <row r="372" spans="1:11">
       <c r="A372" s="3"/>
@@ -7112,7 +7297,7 @@
       <c r="H372" s="3"/>
       <c r="I372" s="3"/>
       <c r="J372" s="3"/>
-      <c r="K372" s="36"/>
+      <c r="K372" s="40"/>
     </row>
     <row r="373" spans="1:11">
       <c r="A373" s="3"/>
@@ -7124,7 +7309,7 @@
       <c r="H373" s="3"/>
       <c r="I373" s="3"/>
       <c r="J373" s="3"/>
-      <c r="K373" s="36"/>
+      <c r="K373" s="40"/>
     </row>
     <row r="374" spans="1:11">
       <c r="A374" s="3"/>
@@ -7136,7 +7321,7 @@
       <c r="H374" s="3"/>
       <c r="I374" s="3"/>
       <c r="J374" s="3"/>
-      <c r="K374" s="36"/>
+      <c r="K374" s="40"/>
     </row>
     <row r="375" spans="1:11">
       <c r="A375" s="3"/>
@@ -7148,7 +7333,7 @@
       <c r="H375" s="3"/>
       <c r="I375" s="3"/>
       <c r="J375" s="3"/>
-      <c r="K375" s="36"/>
+      <c r="K375" s="40"/>
     </row>
     <row r="376" spans="1:11">
       <c r="A376" s="3"/>
@@ -7160,7 +7345,7 @@
       <c r="H376" s="3"/>
       <c r="I376" s="3"/>
       <c r="J376" s="3"/>
-      <c r="K376" s="36"/>
+      <c r="K376" s="40"/>
     </row>
     <row r="377" spans="1:11">
       <c r="A377" s="3"/>
@@ -7172,7 +7357,7 @@
       <c r="H377" s="3"/>
       <c r="I377" s="3"/>
       <c r="J377" s="3"/>
-      <c r="K377" s="36"/>
+      <c r="K377" s="40"/>
     </row>
     <row r="378" spans="1:11">
       <c r="A378" s="3"/>
@@ -7184,7 +7369,7 @@
       <c r="H378" s="3"/>
       <c r="I378" s="3"/>
       <c r="J378" s="3"/>
-      <c r="K378" s="36"/>
+      <c r="K378" s="40"/>
     </row>
     <row r="379" spans="1:11">
       <c r="A379" s="3"/>
@@ -7196,7 +7381,7 @@
       <c r="H379" s="3"/>
       <c r="I379" s="3"/>
       <c r="J379" s="3"/>
-      <c r="K379" s="36"/>
+      <c r="K379" s="40"/>
     </row>
     <row r="380" spans="1:11">
       <c r="A380" s="3"/>
@@ -7208,7 +7393,7 @@
       <c r="H380" s="3"/>
       <c r="I380" s="3"/>
       <c r="J380" s="3"/>
-      <c r="K380" s="36"/>
+      <c r="K380" s="40"/>
     </row>
     <row r="381" spans="1:11">
       <c r="A381" s="3"/>
@@ -7220,7 +7405,7 @@
       <c r="H381" s="3"/>
       <c r="I381" s="3"/>
       <c r="J381" s="3"/>
-      <c r="K381" s="36"/>
+      <c r="K381" s="40"/>
     </row>
     <row r="382" spans="1:11">
       <c r="A382" s="3"/>
@@ -7232,7 +7417,7 @@
       <c r="H382" s="3"/>
       <c r="I382" s="3"/>
       <c r="J382" s="3"/>
-      <c r="K382" s="36"/>
+      <c r="K382" s="40"/>
     </row>
     <row r="383" spans="1:11">
       <c r="A383" s="3"/>
@@ -7244,7 +7429,7 @@
       <c r="H383" s="3"/>
       <c r="I383" s="3"/>
       <c r="J383" s="3"/>
-      <c r="K383" s="36"/>
+      <c r="K383" s="40"/>
     </row>
     <row r="384" spans="1:11">
       <c r="A384" s="3"/>
@@ -7256,7 +7441,7 @@
       <c r="H384" s="3"/>
       <c r="I384" s="3"/>
       <c r="J384" s="3"/>
-      <c r="K384" s="36"/>
+      <c r="K384" s="40"/>
     </row>
     <row r="385" spans="1:11">
       <c r="A385" s="3"/>
@@ -7268,7 +7453,7 @@
       <c r="H385" s="3"/>
       <c r="I385" s="3"/>
       <c r="J385" s="3"/>
-      <c r="K385" s="36"/>
+      <c r="K385" s="40"/>
     </row>
     <row r="386" spans="1:11">
       <c r="A386" s="3"/>
@@ -7280,7 +7465,7 @@
       <c r="H386" s="3"/>
       <c r="I386" s="3"/>
       <c r="J386" s="3"/>
-      <c r="K386" s="36"/>
+      <c r="K386" s="40"/>
     </row>
     <row r="387" spans="1:11">
       <c r="A387" s="3"/>
@@ -7292,7 +7477,7 @@
       <c r="H387" s="3"/>
       <c r="I387" s="3"/>
       <c r="J387" s="3"/>
-      <c r="K387" s="36"/>
+      <c r="K387" s="40"/>
     </row>
     <row r="388" spans="1:11">
       <c r="A388" s="3"/>
@@ -7304,7 +7489,7 @@
       <c r="H388" s="3"/>
       <c r="I388" s="3"/>
       <c r="J388" s="3"/>
-      <c r="K388" s="36"/>
+      <c r="K388" s="40"/>
     </row>
     <row r="389" spans="1:11">
       <c r="A389" s="3"/>
@@ -7316,7 +7501,7 @@
       <c r="H389" s="3"/>
       <c r="I389" s="3"/>
       <c r="J389" s="3"/>
-      <c r="K389" s="36"/>
+      <c r="K389" s="40"/>
     </row>
     <row r="390" spans="1:11">
       <c r="A390" s="3"/>
@@ -7328,7 +7513,7 @@
       <c r="H390" s="3"/>
       <c r="I390" s="3"/>
       <c r="J390" s="3"/>
-      <c r="K390" s="36"/>
+      <c r="K390" s="40"/>
     </row>
     <row r="391" spans="1:11">
       <c r="A391" s="3"/>
@@ -7340,7 +7525,7 @@
       <c r="H391" s="3"/>
       <c r="I391" s="3"/>
       <c r="J391" s="3"/>
-      <c r="K391" s="36"/>
+      <c r="K391" s="40"/>
     </row>
     <row r="392" spans="1:11">
       <c r="A392" s="3"/>
@@ -7352,7 +7537,7 @@
       <c r="H392" s="3"/>
       <c r="I392" s="3"/>
       <c r="J392" s="3"/>
-      <c r="K392" s="36"/>
+      <c r="K392" s="40"/>
     </row>
     <row r="393" spans="1:11">
       <c r="A393" s="3"/>
@@ -7364,7 +7549,7 @@
       <c r="H393" s="3"/>
       <c r="I393" s="3"/>
       <c r="J393" s="3"/>
-      <c r="K393" s="36"/>
+      <c r="K393" s="40"/>
     </row>
     <row r="394" spans="1:11">
       <c r="A394" s="3"/>
@@ -7376,7 +7561,7 @@
       <c r="H394" s="3"/>
       <c r="I394" s="3"/>
       <c r="J394" s="3"/>
-      <c r="K394" s="36"/>
+      <c r="K394" s="40"/>
     </row>
     <row r="395" spans="1:11">
       <c r="A395" s="3"/>
@@ -7388,7 +7573,7 @@
       <c r="H395" s="3"/>
       <c r="I395" s="3"/>
       <c r="J395" s="3"/>
-      <c r="K395" s="36"/>
+      <c r="K395" s="40"/>
     </row>
     <row r="396" spans="1:11">
       <c r="A396" s="3"/>
@@ -7400,7 +7585,7 @@
       <c r="H396" s="3"/>
       <c r="I396" s="3"/>
       <c r="J396" s="3"/>
-      <c r="K396" s="36"/>
+      <c r="K396" s="40"/>
     </row>
     <row r="397" spans="1:11">
       <c r="A397" s="3"/>
@@ -7412,7 +7597,7 @@
       <c r="H397" s="3"/>
       <c r="I397" s="3"/>
       <c r="J397" s="3"/>
-      <c r="K397" s="36"/>
+      <c r="K397" s="40"/>
     </row>
     <row r="398" spans="1:11">
       <c r="A398" s="3"/>
@@ -7424,7 +7609,7 @@
       <c r="H398" s="3"/>
       <c r="I398" s="3"/>
       <c r="J398" s="3"/>
-      <c r="K398" s="36"/>
+      <c r="K398" s="40"/>
     </row>
     <row r="399" spans="1:11">
       <c r="A399" s="3"/>
@@ -7436,7 +7621,7 @@
       <c r="H399" s="3"/>
       <c r="I399" s="3"/>
       <c r="J399" s="3"/>
-      <c r="K399" s="36"/>
+      <c r="K399" s="40"/>
     </row>
     <row r="400" spans="1:11">
       <c r="A400" s="3"/>
@@ -7448,7 +7633,7 @@
       <c r="H400" s="3"/>
       <c r="I400" s="3"/>
       <c r="J400" s="3"/>
-      <c r="K400" s="36"/>
+      <c r="K400" s="40"/>
     </row>
     <row r="401" spans="1:11">
       <c r="A401" s="3"/>
@@ -7460,7 +7645,7 @@
       <c r="H401" s="3"/>
       <c r="I401" s="3"/>
       <c r="J401" s="3"/>
-      <c r="K401" s="36"/>
+      <c r="K401" s="40"/>
     </row>
     <row r="402" spans="1:11">
       <c r="A402" s="3"/>
@@ -7472,7 +7657,7 @@
       <c r="H402" s="3"/>
       <c r="I402" s="3"/>
       <c r="J402" s="3"/>
-      <c r="K402" s="36"/>
+      <c r="K402" s="40"/>
     </row>
     <row r="403" spans="1:11">
       <c r="A403" s="3"/>
@@ -7484,7 +7669,7 @@
       <c r="H403" s="3"/>
       <c r="I403" s="3"/>
       <c r="J403" s="3"/>
-      <c r="K403" s="36"/>
+      <c r="K403" s="40"/>
     </row>
     <row r="404" spans="1:11">
       <c r="A404" s="3"/>
@@ -7496,7 +7681,7 @@
       <c r="H404" s="3"/>
       <c r="I404" s="3"/>
       <c r="J404" s="3"/>
-      <c r="K404" s="36"/>
+      <c r="K404" s="40"/>
     </row>
     <row r="405" spans="1:11">
       <c r="A405" s="3"/>
@@ -7508,7 +7693,7 @@
       <c r="H405" s="3"/>
       <c r="I405" s="3"/>
       <c r="J405" s="3"/>
-      <c r="K405" s="36"/>
+      <c r="K405" s="40"/>
     </row>
     <row r="406" spans="1:11">
       <c r="A406" s="3"/>
@@ -7520,7 +7705,7 @@
       <c r="H406" s="3"/>
       <c r="I406" s="3"/>
       <c r="J406" s="3"/>
-      <c r="K406" s="36"/>
+      <c r="K406" s="40"/>
     </row>
     <row r="407" spans="1:11">
       <c r="A407" s="3"/>
@@ -7532,7 +7717,7 @@
       <c r="H407" s="3"/>
       <c r="I407" s="3"/>
       <c r="J407" s="3"/>
-      <c r="K407" s="36"/>
+      <c r="K407" s="40"/>
     </row>
     <row r="408" spans="1:11">
       <c r="A408" s="3"/>
@@ -7544,7 +7729,7 @@
       <c r="H408" s="3"/>
       <c r="I408" s="3"/>
       <c r="J408" s="3"/>
-      <c r="K408" s="36"/>
+      <c r="K408" s="40"/>
     </row>
     <row r="409" spans="1:11">
       <c r="A409" s="3"/>
@@ -7556,7 +7741,7 @@
       <c r="H409" s="3"/>
       <c r="I409" s="3"/>
       <c r="J409" s="3"/>
-      <c r="K409" s="36"/>
+      <c r="K409" s="40"/>
     </row>
     <row r="410" spans="1:11">
       <c r="A410" s="3"/>
@@ -7568,7 +7753,7 @@
       <c r="H410" s="3"/>
       <c r="I410" s="3"/>
       <c r="J410" s="3"/>
-      <c r="K410" s="36"/>
+      <c r="K410" s="40"/>
     </row>
     <row r="411" spans="1:11">
       <c r="A411" s="3"/>
@@ -7580,7 +7765,7 @@
       <c r="H411" s="3"/>
       <c r="I411" s="3"/>
       <c r="J411" s="3"/>
-      <c r="K411" s="36"/>
+      <c r="K411" s="40"/>
     </row>
     <row r="412" spans="1:11">
       <c r="A412" s="3"/>
@@ -7592,7 +7777,7 @@
       <c r="H412" s="3"/>
       <c r="I412" s="3"/>
       <c r="J412" s="3"/>
-      <c r="K412" s="36"/>
+      <c r="K412" s="40"/>
     </row>
     <row r="413" spans="1:11">
       <c r="A413" s="3"/>
@@ -7604,7 +7789,7 @@
       <c r="H413" s="3"/>
       <c r="I413" s="3"/>
       <c r="J413" s="3"/>
-      <c r="K413" s="36"/>
+      <c r="K413" s="40"/>
     </row>
     <row r="414" spans="1:11">
       <c r="A414" s="3"/>
@@ -7616,7 +7801,7 @@
       <c r="H414" s="3"/>
       <c r="I414" s="3"/>
       <c r="J414" s="3"/>
-      <c r="K414" s="36"/>
+      <c r="K414" s="40"/>
     </row>
     <row r="415" spans="1:11">
       <c r="A415" s="3"/>
@@ -7628,7 +7813,7 @@
       <c r="H415" s="3"/>
       <c r="I415" s="3"/>
       <c r="J415" s="3"/>
-      <c r="K415" s="36"/>
+      <c r="K415" s="40"/>
     </row>
     <row r="416" spans="1:11">
       <c r="A416" s="3"/>
@@ -7640,7 +7825,7 @@
       <c r="H416" s="3"/>
       <c r="I416" s="3"/>
       <c r="J416" s="3"/>
-      <c r="K416" s="36"/>
+      <c r="K416" s="40"/>
     </row>
     <row r="417" spans="1:11">
       <c r="A417" s="3"/>
@@ -7652,7 +7837,7 @@
       <c r="H417" s="3"/>
       <c r="I417" s="3"/>
       <c r="J417" s="3"/>
-      <c r="K417" s="36"/>
+      <c r="K417" s="40"/>
     </row>
     <row r="418" spans="1:11">
       <c r="A418" s="3"/>
@@ -7664,7 +7849,7 @@
       <c r="H418" s="3"/>
       <c r="I418" s="3"/>
       <c r="J418" s="3"/>
-      <c r="K418" s="36"/>
+      <c r="K418" s="40"/>
     </row>
     <row r="419" spans="1:11">
       <c r="A419" s="3"/>
@@ -7676,7 +7861,7 @@
       <c r="H419" s="3"/>
       <c r="I419" s="3"/>
       <c r="J419" s="3"/>
-      <c r="K419" s="36"/>
+      <c r="K419" s="40"/>
     </row>
     <row r="420" spans="1:11">
       <c r="A420" s="3"/>
@@ -7688,7 +7873,7 @@
       <c r="H420" s="3"/>
       <c r="I420" s="3"/>
       <c r="J420" s="3"/>
-      <c r="K420" s="36"/>
+      <c r="K420" s="40"/>
     </row>
     <row r="421" spans="1:11">
       <c r="A421" s="3"/>
@@ -7700,7 +7885,7 @@
       <c r="H421" s="3"/>
       <c r="I421" s="3"/>
       <c r="J421" s="3"/>
-      <c r="K421" s="36"/>
+      <c r="K421" s="40"/>
     </row>
     <row r="422" spans="1:11">
       <c r="A422" s="3"/>
@@ -7712,7 +7897,7 @@
       <c r="H422" s="3"/>
       <c r="I422" s="3"/>
       <c r="J422" s="3"/>
-      <c r="K422" s="36"/>
+      <c r="K422" s="40"/>
     </row>
     <row r="423" spans="1:11">
       <c r="A423" s="3"/>
@@ -7724,7 +7909,7 @@
       <c r="H423" s="3"/>
       <c r="I423" s="3"/>
       <c r="J423" s="3"/>
-      <c r="K423" s="36"/>
+      <c r="K423" s="40"/>
     </row>
     <row r="424" spans="1:11">
       <c r="A424" s="3"/>
@@ -7736,7 +7921,7 @@
       <c r="H424" s="3"/>
       <c r="I424" s="3"/>
       <c r="J424" s="3"/>
-      <c r="K424" s="36"/>
+      <c r="K424" s="40"/>
     </row>
     <row r="425" spans="1:11">
       <c r="A425" s="3"/>
@@ -7748,7 +7933,7 @@
       <c r="H425" s="3"/>
       <c r="I425" s="3"/>
       <c r="J425" s="3"/>
-      <c r="K425" s="36"/>
+      <c r="K425" s="40"/>
     </row>
     <row r="426" spans="1:11">
       <c r="A426" s="3"/>
@@ -7760,7 +7945,7 @@
       <c r="H426" s="3"/>
       <c r="I426" s="3"/>
       <c r="J426" s="3"/>
-      <c r="K426" s="36"/>
+      <c r="K426" s="40"/>
     </row>
     <row r="427" spans="1:11">
       <c r="A427" s="3"/>
@@ -7772,7 +7957,7 @@
       <c r="H427" s="3"/>
       <c r="I427" s="3"/>
       <c r="J427" s="3"/>
-      <c r="K427" s="36"/>
+      <c r="K427" s="40"/>
     </row>
     <row r="428" spans="1:11">
       <c r="A428" s="3"/>
@@ -7784,7 +7969,7 @@
       <c r="H428" s="3"/>
       <c r="I428" s="3"/>
       <c r="J428" s="3"/>
-      <c r="K428" s="36"/>
+      <c r="K428" s="40"/>
     </row>
     <row r="429" spans="1:11">
       <c r="A429" s="3"/>
@@ -7796,7 +7981,7 @@
       <c r="H429" s="3"/>
       <c r="I429" s="3"/>
       <c r="J429" s="3"/>
-      <c r="K429" s="36"/>
+      <c r="K429" s="40"/>
     </row>
     <row r="430" spans="1:11">
       <c r="A430" s="3"/>
@@ -7808,7 +7993,7 @@
       <c r="H430" s="3"/>
       <c r="I430" s="3"/>
       <c r="J430" s="3"/>
-      <c r="K430" s="36"/>
+      <c r="K430" s="40"/>
     </row>
     <row r="431" spans="1:11">
       <c r="A431" s="3"/>
@@ -7820,7 +8005,7 @@
       <c r="H431" s="3"/>
       <c r="I431" s="3"/>
       <c r="J431" s="3"/>
-      <c r="K431" s="36"/>
+      <c r="K431" s="40"/>
     </row>
     <row r="432" spans="1:11">
       <c r="A432" s="3"/>
@@ -7832,7 +8017,7 @@
       <c r="H432" s="3"/>
       <c r="I432" s="3"/>
       <c r="J432" s="3"/>
-      <c r="K432" s="36"/>
+      <c r="K432" s="40"/>
     </row>
     <row r="433" spans="1:11">
       <c r="A433" s="3"/>
@@ -7844,7 +8029,7 @@
       <c r="H433" s="3"/>
       <c r="I433" s="3"/>
       <c r="J433" s="3"/>
-      <c r="K433" s="36"/>
+      <c r="K433" s="40"/>
     </row>
     <row r="434" spans="1:11">
       <c r="A434" s="3"/>
@@ -7856,7 +8041,7 @@
       <c r="H434" s="3"/>
       <c r="I434" s="3"/>
       <c r="J434" s="3"/>
-      <c r="K434" s="36"/>
+      <c r="K434" s="40"/>
     </row>
     <row r="435" spans="1:11">
       <c r="A435" s="3"/>
@@ -7868,7 +8053,7 @@
       <c r="H435" s="3"/>
       <c r="I435" s="3"/>
       <c r="J435" s="3"/>
-      <c r="K435" s="36"/>
+      <c r="K435" s="40"/>
     </row>
     <row r="436" spans="1:11">
       <c r="A436" s="3"/>
@@ -7880,7 +8065,7 @@
       <c r="H436" s="3"/>
       <c r="I436" s="3"/>
       <c r="J436" s="3"/>
-      <c r="K436" s="36"/>
+      <c r="K436" s="40"/>
     </row>
     <row r="437" spans="1:11">
       <c r="A437" s="3"/>
@@ -7892,7 +8077,7 @@
       <c r="H437" s="3"/>
       <c r="I437" s="3"/>
       <c r="J437" s="3"/>
-      <c r="K437" s="36"/>
+      <c r="K437" s="40"/>
     </row>
     <row r="438" spans="1:11">
       <c r="A438" s="3"/>
@@ -7904,7 +8089,7 @@
       <c r="H438" s="3"/>
       <c r="I438" s="3"/>
       <c r="J438" s="3"/>
-      <c r="K438" s="36"/>
+      <c r="K438" s="40"/>
     </row>
     <row r="439" spans="1:11">
       <c r="A439" s="3"/>
@@ -7916,7 +8101,7 @@
       <c r="H439" s="3"/>
       <c r="I439" s="3"/>
       <c r="J439" s="3"/>
-      <c r="K439" s="36"/>
+      <c r="K439" s="40"/>
     </row>
     <row r="440" spans="1:11">
       <c r="A440" s="3"/>
@@ -7928,7 +8113,7 @@
       <c r="H440" s="3"/>
       <c r="I440" s="3"/>
       <c r="J440" s="3"/>
-      <c r="K440" s="36"/>
+      <c r="K440" s="40"/>
     </row>
     <row r="441" spans="1:11">
       <c r="A441" s="3"/>
@@ -7940,7 +8125,7 @@
       <c r="H441" s="3"/>
       <c r="I441" s="3"/>
       <c r="J441" s="3"/>
-      <c r="K441" s="36"/>
+      <c r="K441" s="40"/>
     </row>
     <row r="442" spans="1:11">
       <c r="A442" s="3"/>
@@ -7952,7 +8137,7 @@
       <c r="H442" s="3"/>
       <c r="I442" s="3"/>
       <c r="J442" s="3"/>
-      <c r="K442" s="36"/>
+      <c r="K442" s="40"/>
     </row>
     <row r="443" spans="1:11">
       <c r="A443" s="3"/>
@@ -7964,7 +8149,7 @@
       <c r="H443" s="3"/>
       <c r="I443" s="3"/>
       <c r="J443" s="3"/>
-      <c r="K443" s="36"/>
+      <c r="K443" s="40"/>
     </row>
     <row r="444" spans="1:11">
       <c r="A444" s="3"/>
@@ -7976,7 +8161,7 @@
       <c r="H444" s="3"/>
       <c r="I444" s="3"/>
       <c r="J444" s="3"/>
-      <c r="K444" s="36"/>
+      <c r="K444" s="40"/>
     </row>
     <row r="445" spans="1:11">
       <c r="A445" s="3"/>
@@ -7988,7 +8173,7 @@
       <c r="H445" s="3"/>
       <c r="I445" s="3"/>
       <c r="J445" s="3"/>
-      <c r="K445" s="36"/>
+      <c r="K445" s="40"/>
     </row>
     <row r="446" spans="1:11">
       <c r="A446" s="3"/>
@@ -8000,7 +8185,7 @@
       <c r="H446" s="3"/>
       <c r="I446" s="3"/>
       <c r="J446" s="3"/>
-      <c r="K446" s="36"/>
+      <c r="K446" s="40"/>
     </row>
     <row r="447" spans="1:11">
       <c r="A447" s="3"/>
@@ -8012,7 +8197,7 @@
       <c r="H447" s="3"/>
       <c r="I447" s="3"/>
       <c r="J447" s="3"/>
-      <c r="K447" s="36"/>
+      <c r="K447" s="40"/>
     </row>
     <row r="448" spans="1:11">
       <c r="A448" s="3"/>
@@ -8024,7 +8209,7 @@
       <c r="H448" s="3"/>
       <c r="I448" s="3"/>
       <c r="J448" s="3"/>
-      <c r="K448" s="36"/>
+      <c r="K448" s="40"/>
     </row>
     <row r="449" spans="1:11">
       <c r="A449" s="3"/>
@@ -8036,7 +8221,7 @@
       <c r="H449" s="3"/>
       <c r="I449" s="3"/>
       <c r="J449" s="3"/>
-      <c r="K449" s="36"/>
+      <c r="K449" s="40"/>
     </row>
     <row r="450" spans="1:11">
       <c r="A450" s="3"/>
@@ -8048,7 +8233,7 @@
       <c r="H450" s="3"/>
       <c r="I450" s="3"/>
       <c r="J450" s="3"/>
-      <c r="K450" s="36"/>
+      <c r="K450" s="40"/>
     </row>
     <row r="451" spans="1:11">
       <c r="A451" s="3"/>
@@ -8060,7 +8245,7 @@
       <c r="H451" s="3"/>
       <c r="I451" s="3"/>
       <c r="J451" s="3"/>
-      <c r="K451" s="36"/>
+      <c r="K451" s="40"/>
     </row>
     <row r="452" spans="1:11">
       <c r="A452" s="3"/>
@@ -8072,7 +8257,7 @@
       <c r="H452" s="3"/>
       <c r="I452" s="3"/>
       <c r="J452" s="3"/>
-      <c r="K452" s="36"/>
+      <c r="K452" s="40"/>
     </row>
     <row r="453" spans="1:11">
       <c r="A453" s="3"/>
@@ -8084,7 +8269,7 @@
       <c r="H453" s="3"/>
       <c r="I453" s="3"/>
       <c r="J453" s="3"/>
-      <c r="K453" s="36"/>
+      <c r="K453" s="40"/>
     </row>
     <row r="454" spans="1:11">
       <c r="A454" s="3"/>
@@ -8096,7 +8281,7 @@
       <c r="H454" s="3"/>
       <c r="I454" s="3"/>
       <c r="J454" s="3"/>
-      <c r="K454" s="36"/>
+      <c r="K454" s="40"/>
     </row>
     <row r="455" spans="1:11">
       <c r="A455" s="3"/>
@@ -8108,7 +8293,7 @@
       <c r="H455" s="3"/>
       <c r="I455" s="3"/>
       <c r="J455" s="3"/>
-      <c r="K455" s="36"/>
+      <c r="K455" s="40"/>
     </row>
     <row r="456" spans="1:11">
       <c r="A456" s="3"/>
@@ -8120,7 +8305,7 @@
       <c r="H456" s="3"/>
       <c r="I456" s="3"/>
       <c r="J456" s="3"/>
-      <c r="K456" s="36"/>
+      <c r="K456" s="40"/>
     </row>
     <row r="457" spans="1:11">
       <c r="A457" s="3"/>
@@ -8132,7 +8317,7 @@
       <c r="H457" s="3"/>
       <c r="I457" s="3"/>
       <c r="J457" s="3"/>
-      <c r="K457" s="36"/>
+      <c r="K457" s="40"/>
     </row>
     <row r="458" spans="1:11">
       <c r="A458" s="3"/>
@@ -8144,7 +8329,7 @@
       <c r="H458" s="3"/>
       <c r="I458" s="3"/>
       <c r="J458" s="3"/>
-      <c r="K458" s="36"/>
+      <c r="K458" s="40"/>
     </row>
     <row r="459" spans="1:11">
       <c r="A459" s="3"/>
@@ -8156,7 +8341,7 @@
       <c r="H459" s="3"/>
       <c r="I459" s="3"/>
       <c r="J459" s="3"/>
-      <c r="K459" s="36"/>
+      <c r="K459" s="40"/>
     </row>
     <row r="460" spans="1:11">
       <c r="A460" s="3"/>
@@ -8168,7 +8353,7 @@
       <c r="H460" s="3"/>
       <c r="I460" s="3"/>
       <c r="J460" s="3"/>
-      <c r="K460" s="36"/>
+      <c r="K460" s="40"/>
     </row>
     <row r="461" spans="1:11">
       <c r="A461" s="3"/>
@@ -8180,17 +8365,35 @@
       <c r="H461" s="3"/>
       <c r="I461" s="3"/>
       <c r="J461" s="3"/>
-      <c r="K461" s="36"/>
-    </row>
-    <row r="462" spans="1:2">
+      <c r="K461" s="40"/>
+    </row>
+    <row r="462" spans="1:11">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
-    </row>
-    <row r="463" spans="1:1">
+      <c r="D462" s="3"/>
+      <c r="E462" s="3"/>
+      <c r="F462" s="3"/>
+      <c r="G462" s="3"/>
+      <c r="H462" s="3"/>
+      <c r="I462" s="3"/>
+      <c r="J462" s="3"/>
+      <c r="K462" s="40"/>
+    </row>
+    <row r="463" spans="1:11">
       <c r="A463" s="3"/>
-    </row>
-    <row r="464" spans="1:1">
+      <c r="B463" s="3"/>
+      <c r="D463" s="3"/>
+      <c r="E463" s="3"/>
+      <c r="F463" s="3"/>
+      <c r="G463" s="3"/>
+      <c r="H463" s="3"/>
+      <c r="I463" s="3"/>
+      <c r="J463" s="3"/>
+      <c r="K463" s="40"/>
+    </row>
+    <row r="464" spans="1:2">
       <c r="A464" s="3"/>
+      <c r="B464" s="3"/>
     </row>
     <row r="465" spans="1:1">
       <c r="A465" s="3"/>
@@ -8422,6 +8625,12 @@
     </row>
     <row r="541" spans="1:1">
       <c r="A541" s="3"/>
+    </row>
+    <row r="542" spans="1:1">
+      <c r="A542" s="3"/>
+    </row>
+    <row r="543" spans="1:1">
+      <c r="A543" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
@@ -149,10 +149,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -254,6 +254,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -268,6 +282,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
@@ -276,7 +306,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,23 +337,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,80 +390,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,7 +429,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,43 +597,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,133 +609,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,8 +654,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,7 +664,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,26 +714,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,17 +734,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,148 +753,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -977,11 +971,8 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1016,12 +1007,12 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1042,6 +1033,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2222,7 +2216,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -2272,22 +2266,22 @@
       <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="M1" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
       <c r="V1" s="46"/>
       <c r="W1" s="46"/>
       <c r="X1" s="46"/>
@@ -2323,22 +2317,22 @@
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
       <c r="V2" s="46"/>
       <c r="W2" s="46"/>
       <c r="X2" s="46"/>
@@ -2382,45 +2376,45 @@
       <c r="D3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="32">
         <v>34.12</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="32">
         <v>32.53</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="32">
         <v>39.33</v>
       </c>
-      <c r="H3" s="33">
-        <f>(E3-F3)*100</f>
+      <c r="H3" s="32">
+        <f t="shared" ref="H3:H11" si="0">(E3-F3)*100</f>
         <v>159</v>
       </c>
-      <c r="I3" s="33">
+      <c r="I3" s="32">
         <f>FLOOR(1000/(E3-F3),100)</f>
         <v>600</v>
       </c>
-      <c r="J3" s="36">
-        <f>(G3-E3)/(E3-F3)</f>
+      <c r="J3" s="35">
+        <f t="shared" ref="J3:J11" si="1">(G3-E3)/(E3-F3)</f>
         <v>3.27672955974844</v>
       </c>
-      <c r="K3" s="37">
-        <f>(E3-F3)/E3</f>
+      <c r="K3" s="36">
+        <f t="shared" ref="K3:K11" si="2">(E3-F3)/E3</f>
         <v>0.0466002344665884</v>
       </c>
       <c r="L3" s="37">
-        <f>(G3-E3)/E3</f>
+        <f t="shared" ref="L3:L11" si="3">(G3-E3)/E3</f>
         <v>0.152696365767878</v>
       </c>
-      <c r="M3" s="44" t="s">
+      <c r="M3" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
       <c r="V3" s="46"/>
       <c r="W3" s="46"/>
       <c r="X3" s="46"/>
@@ -2464,43 +2458,43 @@
       <c r="D4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="32">
         <v>32.65</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="32">
         <v>30.89</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="32">
         <v>36.22</v>
       </c>
-      <c r="H4" s="33">
-        <f>(E4-F4)*100</f>
+      <c r="H4" s="32">
+        <f t="shared" si="0"/>
         <v>176</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="32">
         <f>FLOOR(1000/(E4-F4),100)</f>
         <v>500</v>
       </c>
-      <c r="J4" s="36">
-        <f>(G4-E4)/(E4-F4)</f>
+      <c r="J4" s="35">
+        <f t="shared" si="1"/>
         <v>2.02840909090909</v>
       </c>
-      <c r="K4" s="37">
-        <f>(E4-F4)/E4</f>
+      <c r="K4" s="36">
+        <f t="shared" si="2"/>
         <v>0.0539050535987748</v>
       </c>
       <c r="L4" s="37">
-        <f>(G4-E4)/E4</f>
+        <f t="shared" si="3"/>
         <v>0.109341500765697</v>
       </c>
-      <c r="M4" s="44"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
       <c r="V4" s="46"/>
       <c r="W4" s="46"/>
       <c r="X4" s="46"/>
@@ -2544,39 +2538,39 @@
       <c r="D5" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="32">
         <v>51.15</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="32">
         <v>46.61</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="32">
         <v>59.59</v>
       </c>
-      <c r="H5" s="33">
-        <f>(E5-F5)*100</f>
+      <c r="H5" s="32">
+        <f t="shared" si="0"/>
         <v>454</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="32">
         <f>FLOOR(1000/(E5-F5),100)</f>
         <v>200</v>
       </c>
-      <c r="J5" s="36">
-        <f>(G5-E5)/(E5-F5)</f>
+      <c r="J5" s="35">
+        <f t="shared" si="1"/>
         <v>1.85903083700441</v>
       </c>
-      <c r="K5" s="38">
-        <f>(E5-F5)/E5</f>
+      <c r="K5" s="36">
+        <f t="shared" si="2"/>
         <v>0.0887585532746823</v>
       </c>
       <c r="L5" s="37">
-        <f>(G5-E5)/E5</f>
+        <f t="shared" si="3"/>
         <v>0.165004887585533</v>
       </c>
-      <c r="M5" s="44" t="s">
+      <c r="M5" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="45"/>
+      <c r="N5" s="44"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:14">
       <c r="A6" s="11" t="s">
@@ -2591,39 +2585,39 @@
       <c r="D6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="29">
         <v>143.8</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="29">
         <v>135.13</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="29">
         <v>158.48</v>
       </c>
-      <c r="H6" s="33">
-        <f>(E6-F6)*100</f>
+      <c r="H6" s="32">
+        <f t="shared" si="0"/>
         <v>867.000000000002</v>
       </c>
-      <c r="I6" s="33">
-        <f t="shared" ref="I6:I11" si="0">FLOOR(1000/(E6-F6),100)</f>
+      <c r="I6" s="32">
+        <f t="shared" ref="I6:I11" si="4">FLOOR(1000/(E6-F6),100)</f>
         <v>100</v>
       </c>
-      <c r="J6" s="36">
-        <f>(G6-E6)/(E6-F6)</f>
+      <c r="J6" s="35">
+        <f t="shared" si="1"/>
         <v>1.69319492502883</v>
       </c>
-      <c r="K6" s="38">
-        <f>(E6-F6)/E6</f>
+      <c r="K6" s="36">
+        <f t="shared" si="2"/>
         <v>0.0602920723226705</v>
       </c>
       <c r="L6" s="37">
-        <f>(G6-E6)/E6</f>
+        <f t="shared" si="3"/>
         <v>0.102086230876217</v>
       </c>
-      <c r="M6" s="44" t="s">
+      <c r="M6" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="45"/>
+      <c r="N6" s="44"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="36" spans="1:14">
       <c r="A7" s="11" t="s">
@@ -2638,39 +2632,39 @@
       <c r="D7" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="29">
         <v>20.44</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="29">
         <v>19.09</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="29">
         <v>23.43</v>
       </c>
-      <c r="H7" s="33">
-        <f>(E7-F7)*100</f>
+      <c r="H7" s="32">
+        <f t="shared" si="0"/>
         <v>135</v>
       </c>
-      <c r="I7" s="33">
-        <f t="shared" si="0"/>
+      <c r="I7" s="32">
+        <f t="shared" si="4"/>
         <v>700</v>
       </c>
-      <c r="J7" s="36">
-        <f>(G7-E7)/(E7-F7)</f>
+      <c r="J7" s="35">
+        <f t="shared" si="1"/>
         <v>2.21481481481481</v>
       </c>
-      <c r="K7" s="38">
-        <f>(E7-F7)/E7</f>
+      <c r="K7" s="36">
+        <f t="shared" si="2"/>
         <v>0.0660469667318983</v>
       </c>
       <c r="L7" s="37">
-        <f>(G7-E7)/E7</f>
+        <f t="shared" si="3"/>
         <v>0.146281800391389</v>
       </c>
-      <c r="M7" s="44" t="s">
+      <c r="M7" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="N7" s="45"/>
+      <c r="N7" s="44"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:14">
       <c r="A8" s="11" t="s">
@@ -2685,39 +2679,39 @@
       <c r="D8" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="26">
         <v>17.19</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="26">
         <v>15.5</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="26">
         <v>20.72</v>
       </c>
-      <c r="H8" s="33">
-        <f>(E8-F8)*100</f>
+      <c r="H8" s="32">
+        <f t="shared" si="0"/>
         <v>169</v>
       </c>
-      <c r="I8" s="33">
-        <f t="shared" si="0"/>
+      <c r="I8" s="32">
+        <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="J8" s="36">
-        <f>(G8-E8)/(E8-F8)</f>
+      <c r="J8" s="35">
+        <f t="shared" si="1"/>
         <v>2.0887573964497</v>
       </c>
-      <c r="K8" s="38">
-        <f>(E8-F8)/E8</f>
+      <c r="K8" s="36">
+        <f t="shared" si="2"/>
         <v>0.0983129726585225</v>
       </c>
       <c r="L8" s="37">
-        <f>(G8-E8)/E8</f>
+        <f t="shared" si="3"/>
         <v>0.205351948807446</v>
       </c>
-      <c r="M8" s="44" t="s">
+      <c r="M8" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="45"/>
+      <c r="N8" s="44"/>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:13">
       <c r="A9" s="11" t="s">
@@ -2732,40 +2726,40 @@
       <c r="D9" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="26">
         <v>64.3</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="26">
         <v>58.51</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="26">
         <v>65.72</v>
       </c>
-      <c r="H9" s="33">
-        <f>(E9-F9)*100</f>
+      <c r="H9" s="32">
+        <f t="shared" si="0"/>
         <v>579</v>
       </c>
-      <c r="I9" s="33">
-        <f t="shared" si="0"/>
+      <c r="I9" s="32">
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J9" s="36">
-        <f>(G9-E9)/(E9-F9)</f>
+      <c r="J9" s="35">
+        <f t="shared" si="1"/>
         <v>0.24525043177893</v>
       </c>
-      <c r="K9" s="38">
-        <f>(E9-F9)/E9</f>
+      <c r="K9" s="36">
+        <f t="shared" si="2"/>
         <v>0.0900466562986003</v>
       </c>
       <c r="L9" s="37">
-        <f>(G9-E9)/E9</f>
+        <f t="shared" si="3"/>
         <v>0.0220839813374806</v>
       </c>
-      <c r="M9" s="44" t="s">
+      <c r="M9" s="43" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="13" spans="1:13">
+    <row r="10" s="2" customFormat="1" spans="1:13">
       <c r="A10" s="11" t="s">
         <v>35</v>
       </c>
@@ -2778,36 +2772,36 @@
       <c r="D10" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="26">
         <v>39.15</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="26">
         <v>35.91</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="26">
         <v>44.28</v>
       </c>
-      <c r="H10" s="33">
-        <f>(E10-F10)*100</f>
+      <c r="H10" s="32">
+        <f t="shared" si="0"/>
         <v>324</v>
       </c>
-      <c r="I10" s="33">
-        <f t="shared" si="0"/>
+      <c r="I10" s="32">
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J10" s="36">
-        <f>(G10-E10)/(E10-F10)</f>
+      <c r="J10" s="35">
+        <f t="shared" si="1"/>
         <v>1.58333333333333</v>
       </c>
-      <c r="K10" s="38">
-        <f>(E10-F10)/E10</f>
+      <c r="K10" s="36">
+        <f t="shared" si="2"/>
         <v>0.0827586206896552</v>
       </c>
       <c r="L10" s="37">
-        <f>(G10-E10)/E10</f>
+        <f t="shared" si="3"/>
         <v>0.131034482758621</v>
       </c>
-      <c r="M10" s="44" t="s">
+      <c r="M10" s="43" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2824,559 +2818,559 @@
       <c r="D11" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="26">
         <v>117.8</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="26">
         <v>110.4</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="26">
         <v>131.73</v>
       </c>
-      <c r="H11" s="33">
-        <f>(E11-F11)*100</f>
+      <c r="H11" s="32">
+        <f t="shared" si="0"/>
         <v>739.999999999999</v>
       </c>
-      <c r="I11" s="33">
-        <f t="shared" si="0"/>
+      <c r="I11" s="32">
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J11" s="36">
-        <f>(G11-E11)/(E11-F11)</f>
+      <c r="J11" s="35">
+        <f t="shared" si="1"/>
         <v>1.88243243243243</v>
       </c>
-      <c r="K11" s="38">
-        <f>(E11-F11)/E11</f>
+      <c r="K11" s="36">
+        <f t="shared" si="2"/>
         <v>0.062818336162988</v>
       </c>
       <c r="L11" s="37">
-        <f>(G11-E11)/E11</f>
+        <f t="shared" si="3"/>
         <v>0.118251273344652</v>
       </c>
-      <c r="M11" s="44" t="s">
+      <c r="M11" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="45"/>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="13" spans="1:13">
+      <c r="N11" s="44"/>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:13">
       <c r="A12" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="16">
         <v>44539</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="38"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="36"/>
       <c r="L12" s="37"/>
-      <c r="M12" s="44"/>
+      <c r="M12" s="43"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:13">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="38"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="36"/>
       <c r="L13" s="37"/>
-      <c r="M13" s="44"/>
+      <c r="M13" s="43"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:13">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="38"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="36"/>
       <c r="L14" s="37"/>
-      <c r="M14" s="44"/>
+      <c r="M14" s="43"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:13">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="38"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="36"/>
       <c r="L15" s="37"/>
-      <c r="M15" s="44"/>
+      <c r="M15" s="43"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:13">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="38"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="36"/>
       <c r="L16" s="37"/>
-      <c r="M16" s="44"/>
+      <c r="M16" s="43"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:13">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="38"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="36"/>
       <c r="L17" s="37"/>
-      <c r="M17" s="44"/>
+      <c r="M17" s="43"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:13">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="38"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="36"/>
       <c r="L18" s="37"/>
-      <c r="M18" s="44"/>
+      <c r="M18" s="43"/>
     </row>
     <row r="19" s="2" customFormat="1" spans="1:13">
-      <c r="A19" s="27"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="38"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="36"/>
       <c r="L19" s="37"/>
-      <c r="M19" s="44"/>
+      <c r="M19" s="43"/>
     </row>
     <row r="20" s="2" customFormat="1" spans="1:13">
-      <c r="A20" s="27"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="38"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="36"/>
       <c r="L20" s="37"/>
-      <c r="M20" s="44"/>
+      <c r="M20" s="43"/>
     </row>
     <row r="21" s="2" customFormat="1" spans="1:13">
-      <c r="A21" s="27"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="38"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="36"/>
       <c r="L21" s="37"/>
-      <c r="M21" s="44"/>
+      <c r="M21" s="43"/>
     </row>
     <row r="22" s="2" customFormat="1" spans="1:13">
-      <c r="A22" s="27"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="38"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="36"/>
       <c r="L22" s="37"/>
-      <c r="M22" s="44"/>
+      <c r="M22" s="43"/>
     </row>
     <row r="23" s="2" customFormat="1" spans="1:13">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="38"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="36"/>
       <c r="L23" s="37"/>
-      <c r="M23" s="27"/>
+      <c r="M23" s="26"/>
     </row>
     <row r="24" s="2" customFormat="1" spans="1:13">
-      <c r="A24" s="27"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="38"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="36"/>
       <c r="L24" s="37"/>
-      <c r="M24" s="27"/>
+      <c r="M24" s="26"/>
     </row>
     <row r="25" s="2" customFormat="1" spans="1:13">
-      <c r="A25" s="27"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="38"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="36"/>
       <c r="L25" s="37"/>
-      <c r="M25" s="27"/>
+      <c r="M25" s="26"/>
     </row>
     <row r="26" s="2" customFormat="1" spans="1:13">
-      <c r="A26" s="27"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="38"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="36"/>
       <c r="L26" s="37"/>
-      <c r="M26" s="27"/>
+      <c r="M26" s="26"/>
     </row>
     <row r="27" s="2" customFormat="1" spans="1:13">
-      <c r="A27" s="27"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="38"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="36"/>
       <c r="L27" s="37"/>
-      <c r="M27" s="44"/>
+      <c r="M27" s="43"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="30"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="44"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="43"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="30"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="30"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="29"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="30"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="29"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="30"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="29"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="30"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="29"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="30"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="29"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="30"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="29"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="30"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="29"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="30"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="30"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="29"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="30"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="30"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="29"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="30"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="29"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="30"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="29"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="30"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="29"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="30"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="29"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="30"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="29"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="30"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="29"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="39"/>
-      <c r="M44" s="30"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="29"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="30"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="29"/>
     </row>
     <row r="46" ht="13" spans="1:13">
       <c r="A46" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="30"/>
+      <c r="B46" s="29"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -3384,8 +3378,8 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
-      <c r="K46" s="40"/>
-      <c r="M46" s="30"/>
+      <c r="K46" s="39"/>
+      <c r="M46" s="29"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="3"/>
@@ -3397,7 +3391,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
-      <c r="K47" s="40"/>
+      <c r="K47" s="39"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="3"/>
@@ -3409,7 +3403,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
-      <c r="K48" s="40"/>
+      <c r="K48" s="39"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="3"/>
@@ -3421,7 +3415,7 @@
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
-      <c r="K49" s="40"/>
+      <c r="K49" s="39"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="3"/>
@@ -3433,7 +3427,7 @@
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
-      <c r="K50" s="40"/>
+      <c r="K50" s="39"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="3"/>
@@ -3445,7 +3439,7 @@
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
-      <c r="K51" s="40"/>
+      <c r="K51" s="39"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="3"/>
@@ -3457,7 +3451,7 @@
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
-      <c r="K52" s="40"/>
+      <c r="K52" s="39"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="3"/>
@@ -3469,7 +3463,7 @@
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
-      <c r="K53" s="40"/>
+      <c r="K53" s="39"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="3"/>
@@ -3481,7 +3475,7 @@
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
-      <c r="K54" s="40"/>
+      <c r="K54" s="39"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="3"/>
@@ -3493,7 +3487,7 @@
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
-      <c r="K55" s="40"/>
+      <c r="K55" s="39"/>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="3"/>
@@ -3505,7 +3499,7 @@
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
-      <c r="K56" s="40"/>
+      <c r="K56" s="39"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="3"/>
@@ -3517,7 +3511,7 @@
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
-      <c r="K57" s="40"/>
+      <c r="K57" s="39"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="3"/>
@@ -3529,7 +3523,7 @@
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
-      <c r="K58" s="40"/>
+      <c r="K58" s="39"/>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="3"/>
@@ -3541,7 +3535,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
-      <c r="K59" s="40"/>
+      <c r="K59" s="39"/>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="3"/>
@@ -3553,7 +3547,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
-      <c r="K60" s="40"/>
+      <c r="K60" s="39"/>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="3"/>
@@ -3565,7 +3559,7 @@
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
-      <c r="K61" s="40"/>
+      <c r="K61" s="39"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="3"/>
@@ -3577,7 +3571,7 @@
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
-      <c r="K62" s="40"/>
+      <c r="K62" s="39"/>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="3"/>
@@ -3589,7 +3583,7 @@
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
-      <c r="K63" s="40"/>
+      <c r="K63" s="39"/>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="3"/>
@@ -3601,7 +3595,7 @@
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
-      <c r="K64" s="40"/>
+      <c r="K64" s="39"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="3"/>
@@ -3613,7 +3607,7 @@
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
-      <c r="K65" s="40"/>
+      <c r="K65" s="39"/>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="3"/>
@@ -3625,7 +3619,7 @@
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
-      <c r="K66" s="40"/>
+      <c r="K66" s="39"/>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="3"/>
@@ -3637,7 +3631,7 @@
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
-      <c r="K67" s="40"/>
+      <c r="K67" s="39"/>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="3"/>
@@ -3649,7 +3643,7 @@
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
-      <c r="K68" s="40"/>
+      <c r="K68" s="39"/>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="3"/>
@@ -3661,7 +3655,7 @@
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
-      <c r="K69" s="40"/>
+      <c r="K69" s="39"/>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="3"/>
@@ -3673,7 +3667,7 @@
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
-      <c r="K70" s="40"/>
+      <c r="K70" s="39"/>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="3"/>
@@ -3685,7 +3679,7 @@
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
-      <c r="K71" s="40"/>
+      <c r="K71" s="39"/>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="3"/>
@@ -3697,7 +3691,7 @@
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
-      <c r="K72" s="40"/>
+      <c r="K72" s="39"/>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="3"/>
@@ -3709,7 +3703,7 @@
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
-      <c r="K73" s="40"/>
+      <c r="K73" s="39"/>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="3"/>
@@ -3721,7 +3715,7 @@
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
-      <c r="K74" s="40"/>
+      <c r="K74" s="39"/>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="3"/>
@@ -3733,7 +3727,7 @@
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
-      <c r="K75" s="40"/>
+      <c r="K75" s="39"/>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="3"/>
@@ -3745,7 +3739,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
-      <c r="K76" s="40"/>
+      <c r="K76" s="39"/>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="3"/>
@@ -3757,7 +3751,7 @@
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
-      <c r="K77" s="40"/>
+      <c r="K77" s="39"/>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="3"/>
@@ -3769,7 +3763,7 @@
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
-      <c r="K78" s="40"/>
+      <c r="K78" s="39"/>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="3"/>
@@ -3781,7 +3775,7 @@
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
-      <c r="K79" s="40"/>
+      <c r="K79" s="39"/>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="3"/>
@@ -3793,7 +3787,7 @@
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
-      <c r="K80" s="40"/>
+      <c r="K80" s="39"/>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="3"/>
@@ -3805,7 +3799,7 @@
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
-      <c r="K81" s="40"/>
+      <c r="K81" s="39"/>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="3"/>
@@ -3817,7 +3811,7 @@
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
-      <c r="K82" s="40"/>
+      <c r="K82" s="39"/>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="3"/>
@@ -3829,7 +3823,7 @@
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
-      <c r="K83" s="40"/>
+      <c r="K83" s="39"/>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="3"/>
@@ -3841,7 +3835,7 @@
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
-      <c r="K84" s="40"/>
+      <c r="K84" s="39"/>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="3"/>
@@ -3853,7 +3847,7 @@
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
-      <c r="K85" s="40"/>
+      <c r="K85" s="39"/>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="3"/>
@@ -3865,7 +3859,7 @@
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
-      <c r="K86" s="40"/>
+      <c r="K86" s="39"/>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="3"/>
@@ -3877,7 +3871,7 @@
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
-      <c r="K87" s="40"/>
+      <c r="K87" s="39"/>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="3"/>
@@ -3889,7 +3883,7 @@
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
-      <c r="K88" s="40"/>
+      <c r="K88" s="39"/>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="3"/>
@@ -3901,7 +3895,7 @@
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
-      <c r="K89" s="40"/>
+      <c r="K89" s="39"/>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="3"/>
@@ -3913,7 +3907,7 @@
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
-      <c r="K90" s="40"/>
+      <c r="K90" s="39"/>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="3"/>
@@ -3925,7 +3919,7 @@
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
-      <c r="K91" s="40"/>
+      <c r="K91" s="39"/>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="3"/>
@@ -3937,7 +3931,7 @@
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
-      <c r="K92" s="40"/>
+      <c r="K92" s="39"/>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="3"/>
@@ -3949,7 +3943,7 @@
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
-      <c r="K93" s="40"/>
+      <c r="K93" s="39"/>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="3"/>
@@ -3961,7 +3955,7 @@
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
-      <c r="K94" s="40"/>
+      <c r="K94" s="39"/>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="3"/>
@@ -3973,7 +3967,7 @@
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
-      <c r="K95" s="40"/>
+      <c r="K95" s="39"/>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="3"/>
@@ -3985,7 +3979,7 @@
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
-      <c r="K96" s="40"/>
+      <c r="K96" s="39"/>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="3"/>
@@ -3997,7 +3991,7 @@
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
-      <c r="K97" s="40"/>
+      <c r="K97" s="39"/>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="3"/>
@@ -4009,7 +4003,7 @@
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
-      <c r="K98" s="40"/>
+      <c r="K98" s="39"/>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="3"/>
@@ -4021,7 +4015,7 @@
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
-      <c r="K99" s="40"/>
+      <c r="K99" s="39"/>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="3"/>
@@ -4033,7 +4027,7 @@
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
-      <c r="K100" s="40"/>
+      <c r="K100" s="39"/>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="3"/>
@@ -4045,7 +4039,7 @@
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
-      <c r="K101" s="40"/>
+      <c r="K101" s="39"/>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="3"/>
@@ -4057,7 +4051,7 @@
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
-      <c r="K102" s="40"/>
+      <c r="K102" s="39"/>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="3"/>
@@ -4069,7 +4063,7 @@
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
-      <c r="K103" s="40"/>
+      <c r="K103" s="39"/>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="3"/>
@@ -4081,7 +4075,7 @@
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
-      <c r="K104" s="40"/>
+      <c r="K104" s="39"/>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="3"/>
@@ -4093,7 +4087,7 @@
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
-      <c r="K105" s="40"/>
+      <c r="K105" s="39"/>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="3"/>
@@ -4105,7 +4099,7 @@
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
-      <c r="K106" s="40"/>
+      <c r="K106" s="39"/>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="3"/>
@@ -4117,7 +4111,7 @@
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
-      <c r="K107" s="40"/>
+      <c r="K107" s="39"/>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="3"/>
@@ -4129,7 +4123,7 @@
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
-      <c r="K108" s="40"/>
+      <c r="K108" s="39"/>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="3"/>
@@ -4141,7 +4135,7 @@
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
-      <c r="K109" s="40"/>
+      <c r="K109" s="39"/>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="3"/>
@@ -4153,7 +4147,7 @@
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
-      <c r="K110" s="40"/>
+      <c r="K110" s="39"/>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="3"/>
@@ -4165,7 +4159,7 @@
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
-      <c r="K111" s="40"/>
+      <c r="K111" s="39"/>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="3"/>
@@ -4177,7 +4171,7 @@
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
-      <c r="K112" s="40"/>
+      <c r="K112" s="39"/>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="3"/>
@@ -4189,7 +4183,7 @@
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
-      <c r="K113" s="40"/>
+      <c r="K113" s="39"/>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="3"/>
@@ -4201,7 +4195,7 @@
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
-      <c r="K114" s="40"/>
+      <c r="K114" s="39"/>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="3"/>
@@ -4213,7 +4207,7 @@
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
-      <c r="K115" s="40"/>
+      <c r="K115" s="39"/>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="3"/>
@@ -4225,7 +4219,7 @@
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
-      <c r="K116" s="40"/>
+      <c r="K116" s="39"/>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="3"/>
@@ -4237,7 +4231,7 @@
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
-      <c r="K117" s="40"/>
+      <c r="K117" s="39"/>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="3"/>
@@ -4249,7 +4243,7 @@
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
-      <c r="K118" s="40"/>
+      <c r="K118" s="39"/>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="3"/>
@@ -4261,7 +4255,7 @@
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
-      <c r="K119" s="40"/>
+      <c r="K119" s="39"/>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="3"/>
@@ -4273,7 +4267,7 @@
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
-      <c r="K120" s="40"/>
+      <c r="K120" s="39"/>
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="3"/>
@@ -4285,7 +4279,7 @@
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
-      <c r="K121" s="40"/>
+      <c r="K121" s="39"/>
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="3"/>
@@ -4297,7 +4291,7 @@
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
-      <c r="K122" s="40"/>
+      <c r="K122" s="39"/>
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="3"/>
@@ -4309,7 +4303,7 @@
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
-      <c r="K123" s="40"/>
+      <c r="K123" s="39"/>
     </row>
     <row r="124" spans="1:11">
       <c r="A124" s="3"/>
@@ -4321,7 +4315,7 @@
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
-      <c r="K124" s="40"/>
+      <c r="K124" s="39"/>
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="3"/>
@@ -4333,7 +4327,7 @@
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
-      <c r="K125" s="40"/>
+      <c r="K125" s="39"/>
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="3"/>
@@ -4345,7 +4339,7 @@
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
-      <c r="K126" s="40"/>
+      <c r="K126" s="39"/>
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="3"/>
@@ -4357,7 +4351,7 @@
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
-      <c r="K127" s="40"/>
+      <c r="K127" s="39"/>
     </row>
     <row r="128" spans="1:11">
       <c r="A128" s="3"/>
@@ -4369,7 +4363,7 @@
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
-      <c r="K128" s="40"/>
+      <c r="K128" s="39"/>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="3"/>
@@ -4381,7 +4375,7 @@
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
-      <c r="K129" s="40"/>
+      <c r="K129" s="39"/>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="3"/>
@@ -4393,7 +4387,7 @@
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
-      <c r="K130" s="40"/>
+      <c r="K130" s="39"/>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="3"/>
@@ -4405,7 +4399,7 @@
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
-      <c r="K131" s="40"/>
+      <c r="K131" s="39"/>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="3"/>
@@ -4417,7 +4411,7 @@
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
-      <c r="K132" s="40"/>
+      <c r="K132" s="39"/>
     </row>
     <row r="133" spans="1:11">
       <c r="A133" s="3"/>
@@ -4429,7 +4423,7 @@
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
-      <c r="K133" s="40"/>
+      <c r="K133" s="39"/>
     </row>
     <row r="134" spans="1:11">
       <c r="A134" s="3"/>
@@ -4441,7 +4435,7 @@
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
-      <c r="K134" s="40"/>
+      <c r="K134" s="39"/>
     </row>
     <row r="135" spans="1:11">
       <c r="A135" s="3"/>
@@ -4453,7 +4447,7 @@
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
-      <c r="K135" s="40"/>
+      <c r="K135" s="39"/>
     </row>
     <row r="136" spans="1:11">
       <c r="A136" s="3"/>
@@ -4465,7 +4459,7 @@
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
-      <c r="K136" s="40"/>
+      <c r="K136" s="39"/>
     </row>
     <row r="137" spans="1:11">
       <c r="A137" s="3"/>
@@ -4477,7 +4471,7 @@
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
-      <c r="K137" s="40"/>
+      <c r="K137" s="39"/>
     </row>
     <row r="138" spans="1:11">
       <c r="A138" s="3"/>
@@ -4489,7 +4483,7 @@
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
-      <c r="K138" s="40"/>
+      <c r="K138" s="39"/>
     </row>
     <row r="139" spans="1:11">
       <c r="A139" s="3"/>
@@ -4501,7 +4495,7 @@
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
-      <c r="K139" s="40"/>
+      <c r="K139" s="39"/>
     </row>
     <row r="140" spans="1:11">
       <c r="A140" s="3"/>
@@ -4513,7 +4507,7 @@
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
-      <c r="K140" s="40"/>
+      <c r="K140" s="39"/>
     </row>
     <row r="141" spans="1:11">
       <c r="A141" s="3"/>
@@ -4525,7 +4519,7 @@
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
-      <c r="K141" s="40"/>
+      <c r="K141" s="39"/>
     </row>
     <row r="142" spans="1:11">
       <c r="A142" s="3"/>
@@ -4537,7 +4531,7 @@
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
-      <c r="K142" s="40"/>
+      <c r="K142" s="39"/>
     </row>
     <row r="143" spans="1:11">
       <c r="A143" s="3"/>
@@ -4549,7 +4543,7 @@
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
-      <c r="K143" s="40"/>
+      <c r="K143" s="39"/>
     </row>
     <row r="144" spans="1:11">
       <c r="A144" s="3"/>
@@ -4561,7 +4555,7 @@
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
-      <c r="K144" s="40"/>
+      <c r="K144" s="39"/>
     </row>
     <row r="145" spans="1:11">
       <c r="A145" s="3"/>
@@ -4573,7 +4567,7 @@
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
-      <c r="K145" s="40"/>
+      <c r="K145" s="39"/>
     </row>
     <row r="146" spans="1:11">
       <c r="A146" s="3"/>
@@ -4585,7 +4579,7 @@
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
-      <c r="K146" s="40"/>
+      <c r="K146" s="39"/>
     </row>
     <row r="147" spans="1:11">
       <c r="A147" s="3"/>
@@ -4597,7 +4591,7 @@
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
-      <c r="K147" s="40"/>
+      <c r="K147" s="39"/>
     </row>
     <row r="148" spans="1:11">
       <c r="A148" s="3"/>
@@ -4609,7 +4603,7 @@
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
-      <c r="K148" s="40"/>
+      <c r="K148" s="39"/>
     </row>
     <row r="149" spans="1:11">
       <c r="A149" s="3"/>
@@ -4621,7 +4615,7 @@
       <c r="H149" s="3"/>
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
-      <c r="K149" s="40"/>
+      <c r="K149" s="39"/>
     </row>
     <row r="150" spans="1:11">
       <c r="A150" s="3"/>
@@ -4633,7 +4627,7 @@
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
-      <c r="K150" s="40"/>
+      <c r="K150" s="39"/>
     </row>
     <row r="151" spans="1:11">
       <c r="A151" s="3"/>
@@ -4645,7 +4639,7 @@
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
-      <c r="K151" s="40"/>
+      <c r="K151" s="39"/>
     </row>
     <row r="152" spans="1:11">
       <c r="A152" s="3"/>
@@ -4657,7 +4651,7 @@
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
-      <c r="K152" s="40"/>
+      <c r="K152" s="39"/>
     </row>
     <row r="153" spans="1:11">
       <c r="A153" s="3"/>
@@ -4669,7 +4663,7 @@
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
-      <c r="K153" s="40"/>
+      <c r="K153" s="39"/>
     </row>
     <row r="154" spans="1:11">
       <c r="A154" s="3"/>
@@ -4681,7 +4675,7 @@
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
-      <c r="K154" s="40"/>
+      <c r="K154" s="39"/>
     </row>
     <row r="155" spans="1:11">
       <c r="A155" s="3"/>
@@ -4693,7 +4687,7 @@
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
-      <c r="K155" s="40"/>
+      <c r="K155" s="39"/>
     </row>
     <row r="156" spans="1:11">
       <c r="A156" s="3"/>
@@ -4705,7 +4699,7 @@
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
-      <c r="K156" s="40"/>
+      <c r="K156" s="39"/>
     </row>
     <row r="157" spans="1:11">
       <c r="A157" s="3"/>
@@ -4717,7 +4711,7 @@
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
-      <c r="K157" s="40"/>
+      <c r="K157" s="39"/>
     </row>
     <row r="158" spans="1:11">
       <c r="A158" s="3"/>
@@ -4729,7 +4723,7 @@
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
-      <c r="K158" s="40"/>
+      <c r="K158" s="39"/>
     </row>
     <row r="159" spans="1:11">
       <c r="A159" s="3"/>
@@ -4741,7 +4735,7 @@
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
-      <c r="K159" s="40"/>
+      <c r="K159" s="39"/>
     </row>
     <row r="160" spans="1:11">
       <c r="A160" s="3"/>
@@ -4753,7 +4747,7 @@
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
-      <c r="K160" s="40"/>
+      <c r="K160" s="39"/>
     </row>
     <row r="161" spans="1:11">
       <c r="A161" s="3"/>
@@ -4765,7 +4759,7 @@
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
-      <c r="K161" s="40"/>
+      <c r="K161" s="39"/>
     </row>
     <row r="162" spans="1:11">
       <c r="A162" s="3"/>
@@ -4777,7 +4771,7 @@
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
-      <c r="K162" s="40"/>
+      <c r="K162" s="39"/>
     </row>
     <row r="163" spans="1:11">
       <c r="A163" s="3"/>
@@ -4789,7 +4783,7 @@
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
-      <c r="K163" s="40"/>
+      <c r="K163" s="39"/>
     </row>
     <row r="164" spans="1:11">
       <c r="A164" s="3"/>
@@ -4801,7 +4795,7 @@
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
-      <c r="K164" s="40"/>
+      <c r="K164" s="39"/>
     </row>
     <row r="165" spans="1:11">
       <c r="A165" s="3"/>
@@ -4813,7 +4807,7 @@
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
-      <c r="K165" s="40"/>
+      <c r="K165" s="39"/>
     </row>
     <row r="166" spans="1:11">
       <c r="A166" s="3"/>
@@ -4825,7 +4819,7 @@
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
-      <c r="K166" s="40"/>
+      <c r="K166" s="39"/>
     </row>
     <row r="167" spans="1:11">
       <c r="A167" s="3"/>
@@ -4837,7 +4831,7 @@
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
-      <c r="K167" s="40"/>
+      <c r="K167" s="39"/>
     </row>
     <row r="168" spans="1:11">
       <c r="A168" s="3"/>
@@ -4849,7 +4843,7 @@
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
-      <c r="K168" s="40"/>
+      <c r="K168" s="39"/>
     </row>
     <row r="169" spans="1:11">
       <c r="A169" s="3"/>
@@ -4861,7 +4855,7 @@
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
-      <c r="K169" s="40"/>
+      <c r="K169" s="39"/>
     </row>
     <row r="170" spans="1:11">
       <c r="A170" s="3"/>
@@ -4873,7 +4867,7 @@
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
-      <c r="K170" s="40"/>
+      <c r="K170" s="39"/>
     </row>
     <row r="171" spans="1:11">
       <c r="A171" s="3"/>
@@ -4885,7 +4879,7 @@
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
-      <c r="K171" s="40"/>
+      <c r="K171" s="39"/>
     </row>
     <row r="172" spans="1:11">
       <c r="A172" s="3"/>
@@ -4897,7 +4891,7 @@
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
-      <c r="K172" s="40"/>
+      <c r="K172" s="39"/>
     </row>
     <row r="173" spans="1:11">
       <c r="A173" s="3"/>
@@ -4909,7 +4903,7 @@
       <c r="H173" s="3"/>
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
-      <c r="K173" s="40"/>
+      <c r="K173" s="39"/>
     </row>
     <row r="174" spans="1:11">
       <c r="A174" s="3"/>
@@ -4921,7 +4915,7 @@
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
-      <c r="K174" s="40"/>
+      <c r="K174" s="39"/>
     </row>
     <row r="175" spans="1:11">
       <c r="A175" s="3"/>
@@ -4933,7 +4927,7 @@
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
-      <c r="K175" s="40"/>
+      <c r="K175" s="39"/>
     </row>
     <row r="176" spans="1:11">
       <c r="A176" s="3"/>
@@ -4945,7 +4939,7 @@
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
-      <c r="K176" s="40"/>
+      <c r="K176" s="39"/>
     </row>
     <row r="177" spans="1:11">
       <c r="A177" s="3"/>
@@ -4957,7 +4951,7 @@
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
-      <c r="K177" s="40"/>
+      <c r="K177" s="39"/>
     </row>
     <row r="178" spans="1:11">
       <c r="A178" s="3"/>
@@ -4969,7 +4963,7 @@
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
-      <c r="K178" s="40"/>
+      <c r="K178" s="39"/>
     </row>
     <row r="179" spans="1:11">
       <c r="A179" s="3"/>
@@ -4981,7 +4975,7 @@
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
-      <c r="K179" s="40"/>
+      <c r="K179" s="39"/>
     </row>
     <row r="180" spans="1:11">
       <c r="A180" s="3"/>
@@ -4993,7 +4987,7 @@
       <c r="H180" s="3"/>
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
-      <c r="K180" s="40"/>
+      <c r="K180" s="39"/>
     </row>
     <row r="181" spans="1:11">
       <c r="A181" s="3"/>
@@ -5005,7 +4999,7 @@
       <c r="H181" s="3"/>
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
-      <c r="K181" s="40"/>
+      <c r="K181" s="39"/>
     </row>
     <row r="182" spans="1:11">
       <c r="A182" s="3"/>
@@ -5017,7 +5011,7 @@
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
-      <c r="K182" s="40"/>
+      <c r="K182" s="39"/>
     </row>
     <row r="183" spans="1:11">
       <c r="A183" s="3"/>
@@ -5029,7 +5023,7 @@
       <c r="H183" s="3"/>
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
-      <c r="K183" s="40"/>
+      <c r="K183" s="39"/>
     </row>
     <row r="184" spans="1:11">
       <c r="A184" s="3"/>
@@ -5041,7 +5035,7 @@
       <c r="H184" s="3"/>
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
-      <c r="K184" s="40"/>
+      <c r="K184" s="39"/>
     </row>
     <row r="185" spans="1:11">
       <c r="A185" s="3"/>
@@ -5053,7 +5047,7 @@
       <c r="H185" s="3"/>
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
-      <c r="K185" s="40"/>
+      <c r="K185" s="39"/>
     </row>
     <row r="186" spans="1:11">
       <c r="A186" s="3"/>
@@ -5065,7 +5059,7 @@
       <c r="H186" s="3"/>
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
-      <c r="K186" s="40"/>
+      <c r="K186" s="39"/>
     </row>
     <row r="187" spans="1:11">
       <c r="A187" s="3"/>
@@ -5077,7 +5071,7 @@
       <c r="H187" s="3"/>
       <c r="I187" s="3"/>
       <c r="J187" s="3"/>
-      <c r="K187" s="40"/>
+      <c r="K187" s="39"/>
     </row>
     <row r="188" spans="1:11">
       <c r="A188" s="3"/>
@@ -5089,7 +5083,7 @@
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
       <c r="J188" s="3"/>
-      <c r="K188" s="40"/>
+      <c r="K188" s="39"/>
     </row>
     <row r="189" spans="1:11">
       <c r="A189" s="3"/>
@@ -5101,7 +5095,7 @@
       <c r="H189" s="3"/>
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
-      <c r="K189" s="40"/>
+      <c r="K189" s="39"/>
     </row>
     <row r="190" spans="1:11">
       <c r="A190" s="3"/>
@@ -5113,7 +5107,7 @@
       <c r="H190" s="3"/>
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
-      <c r="K190" s="40"/>
+      <c r="K190" s="39"/>
     </row>
     <row r="191" spans="1:11">
       <c r="A191" s="3"/>
@@ -5125,7 +5119,7 @@
       <c r="H191" s="3"/>
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
-      <c r="K191" s="40"/>
+      <c r="K191" s="39"/>
     </row>
     <row r="192" spans="1:11">
       <c r="A192" s="3"/>
@@ -5137,7 +5131,7 @@
       <c r="H192" s="3"/>
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
-      <c r="K192" s="40"/>
+      <c r="K192" s="39"/>
     </row>
     <row r="193" spans="1:11">
       <c r="A193" s="3"/>
@@ -5149,7 +5143,7 @@
       <c r="H193" s="3"/>
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
-      <c r="K193" s="40"/>
+      <c r="K193" s="39"/>
     </row>
     <row r="194" spans="1:11">
       <c r="A194" s="3"/>
@@ -5161,7 +5155,7 @@
       <c r="H194" s="3"/>
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
-      <c r="K194" s="40"/>
+      <c r="K194" s="39"/>
     </row>
     <row r="195" spans="1:11">
       <c r="A195" s="3"/>
@@ -5173,7 +5167,7 @@
       <c r="H195" s="3"/>
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
-      <c r="K195" s="40"/>
+      <c r="K195" s="39"/>
     </row>
     <row r="196" spans="1:11">
       <c r="A196" s="3"/>
@@ -5185,7 +5179,7 @@
       <c r="H196" s="3"/>
       <c r="I196" s="3"/>
       <c r="J196" s="3"/>
-      <c r="K196" s="40"/>
+      <c r="K196" s="39"/>
     </row>
     <row r="197" spans="1:11">
       <c r="A197" s="3"/>
@@ -5197,7 +5191,7 @@
       <c r="H197" s="3"/>
       <c r="I197" s="3"/>
       <c r="J197" s="3"/>
-      <c r="K197" s="40"/>
+      <c r="K197" s="39"/>
     </row>
     <row r="198" spans="1:11">
       <c r="A198" s="3"/>
@@ -5209,7 +5203,7 @@
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
       <c r="J198" s="3"/>
-      <c r="K198" s="40"/>
+      <c r="K198" s="39"/>
     </row>
     <row r="199" spans="1:11">
       <c r="A199" s="3"/>
@@ -5221,7 +5215,7 @@
       <c r="H199" s="3"/>
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
-      <c r="K199" s="40"/>
+      <c r="K199" s="39"/>
     </row>
     <row r="200" spans="1:11">
       <c r="A200" s="3"/>
@@ -5233,7 +5227,7 @@
       <c r="H200" s="3"/>
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
-      <c r="K200" s="40"/>
+      <c r="K200" s="39"/>
     </row>
     <row r="201" spans="1:11">
       <c r="A201" s="3"/>
@@ -5245,7 +5239,7 @@
       <c r="H201" s="3"/>
       <c r="I201" s="3"/>
       <c r="J201" s="3"/>
-      <c r="K201" s="40"/>
+      <c r="K201" s="39"/>
     </row>
     <row r="202" spans="1:11">
       <c r="A202" s="3"/>
@@ -5257,7 +5251,7 @@
       <c r="H202" s="3"/>
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
-      <c r="K202" s="40"/>
+      <c r="K202" s="39"/>
     </row>
     <row r="203" spans="1:11">
       <c r="A203" s="3"/>
@@ -5269,7 +5263,7 @@
       <c r="H203" s="3"/>
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
-      <c r="K203" s="40"/>
+      <c r="K203" s="39"/>
     </row>
     <row r="204" spans="1:11">
       <c r="A204" s="3"/>
@@ -5281,7 +5275,7 @@
       <c r="H204" s="3"/>
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
-      <c r="K204" s="40"/>
+      <c r="K204" s="39"/>
     </row>
     <row r="205" spans="1:11">
       <c r="A205" s="3"/>
@@ -5293,7 +5287,7 @@
       <c r="H205" s="3"/>
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
-      <c r="K205" s="40"/>
+      <c r="K205" s="39"/>
     </row>
     <row r="206" spans="1:11">
       <c r="A206" s="3"/>
@@ -5305,7 +5299,7 @@
       <c r="H206" s="3"/>
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
-      <c r="K206" s="40"/>
+      <c r="K206" s="39"/>
     </row>
     <row r="207" spans="1:11">
       <c r="A207" s="3"/>
@@ -5317,7 +5311,7 @@
       <c r="H207" s="3"/>
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
-      <c r="K207" s="40"/>
+      <c r="K207" s="39"/>
     </row>
     <row r="208" spans="1:11">
       <c r="A208" s="3"/>
@@ -5329,7 +5323,7 @@
       <c r="H208" s="3"/>
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
-      <c r="K208" s="40"/>
+      <c r="K208" s="39"/>
     </row>
     <row r="209" spans="1:11">
       <c r="A209" s="3"/>
@@ -5341,7 +5335,7 @@
       <c r="H209" s="3"/>
       <c r="I209" s="3"/>
       <c r="J209" s="3"/>
-      <c r="K209" s="40"/>
+      <c r="K209" s="39"/>
     </row>
     <row r="210" spans="1:11">
       <c r="A210" s="3"/>
@@ -5353,7 +5347,7 @@
       <c r="H210" s="3"/>
       <c r="I210" s="3"/>
       <c r="J210" s="3"/>
-      <c r="K210" s="40"/>
+      <c r="K210" s="39"/>
     </row>
     <row r="211" spans="1:11">
       <c r="A211" s="3"/>
@@ -5365,7 +5359,7 @@
       <c r="H211" s="3"/>
       <c r="I211" s="3"/>
       <c r="J211" s="3"/>
-      <c r="K211" s="40"/>
+      <c r="K211" s="39"/>
     </row>
     <row r="212" spans="1:11">
       <c r="A212" s="3"/>
@@ -5377,7 +5371,7 @@
       <c r="H212" s="3"/>
       <c r="I212" s="3"/>
       <c r="J212" s="3"/>
-      <c r="K212" s="40"/>
+      <c r="K212" s="39"/>
     </row>
     <row r="213" spans="1:11">
       <c r="A213" s="3"/>
@@ -5389,7 +5383,7 @@
       <c r="H213" s="3"/>
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
-      <c r="K213" s="40"/>
+      <c r="K213" s="39"/>
     </row>
     <row r="214" spans="1:11">
       <c r="A214" s="3"/>
@@ -5401,7 +5395,7 @@
       <c r="H214" s="3"/>
       <c r="I214" s="3"/>
       <c r="J214" s="3"/>
-      <c r="K214" s="40"/>
+      <c r="K214" s="39"/>
     </row>
     <row r="215" spans="1:11">
       <c r="A215" s="3"/>
@@ -5413,7 +5407,7 @@
       <c r="H215" s="3"/>
       <c r="I215" s="3"/>
       <c r="J215" s="3"/>
-      <c r="K215" s="40"/>
+      <c r="K215" s="39"/>
     </row>
     <row r="216" spans="1:11">
       <c r="A216" s="3"/>
@@ -5425,7 +5419,7 @@
       <c r="H216" s="3"/>
       <c r="I216" s="3"/>
       <c r="J216" s="3"/>
-      <c r="K216" s="40"/>
+      <c r="K216" s="39"/>
     </row>
     <row r="217" spans="1:11">
       <c r="A217" s="3"/>
@@ -5437,7 +5431,7 @@
       <c r="H217" s="3"/>
       <c r="I217" s="3"/>
       <c r="J217" s="3"/>
-      <c r="K217" s="40"/>
+      <c r="K217" s="39"/>
     </row>
     <row r="218" spans="1:11">
       <c r="A218" s="3"/>
@@ -5449,7 +5443,7 @@
       <c r="H218" s="3"/>
       <c r="I218" s="3"/>
       <c r="J218" s="3"/>
-      <c r="K218" s="40"/>
+      <c r="K218" s="39"/>
     </row>
     <row r="219" spans="1:11">
       <c r="A219" s="3"/>
@@ -5461,7 +5455,7 @@
       <c r="H219" s="3"/>
       <c r="I219" s="3"/>
       <c r="J219" s="3"/>
-      <c r="K219" s="40"/>
+      <c r="K219" s="39"/>
     </row>
     <row r="220" spans="1:11">
       <c r="A220" s="3"/>
@@ -5473,7 +5467,7 @@
       <c r="H220" s="3"/>
       <c r="I220" s="3"/>
       <c r="J220" s="3"/>
-      <c r="K220" s="40"/>
+      <c r="K220" s="39"/>
     </row>
     <row r="221" spans="1:11">
       <c r="A221" s="3"/>
@@ -5485,7 +5479,7 @@
       <c r="H221" s="3"/>
       <c r="I221" s="3"/>
       <c r="J221" s="3"/>
-      <c r="K221" s="40"/>
+      <c r="K221" s="39"/>
     </row>
     <row r="222" spans="1:11">
       <c r="A222" s="3"/>
@@ -5497,7 +5491,7 @@
       <c r="H222" s="3"/>
       <c r="I222" s="3"/>
       <c r="J222" s="3"/>
-      <c r="K222" s="40"/>
+      <c r="K222" s="39"/>
     </row>
     <row r="223" spans="1:11">
       <c r="A223" s="3"/>
@@ -5509,7 +5503,7 @@
       <c r="H223" s="3"/>
       <c r="I223" s="3"/>
       <c r="J223" s="3"/>
-      <c r="K223" s="40"/>
+      <c r="K223" s="39"/>
     </row>
     <row r="224" spans="1:11">
       <c r="A224" s="3"/>
@@ -5521,7 +5515,7 @@
       <c r="H224" s="3"/>
       <c r="I224" s="3"/>
       <c r="J224" s="3"/>
-      <c r="K224" s="40"/>
+      <c r="K224" s="39"/>
     </row>
     <row r="225" spans="1:11">
       <c r="A225" s="3"/>
@@ -5533,7 +5527,7 @@
       <c r="H225" s="3"/>
       <c r="I225" s="3"/>
       <c r="J225" s="3"/>
-      <c r="K225" s="40"/>
+      <c r="K225" s="39"/>
     </row>
     <row r="226" spans="1:11">
       <c r="A226" s="3"/>
@@ -5545,7 +5539,7 @@
       <c r="H226" s="3"/>
       <c r="I226" s="3"/>
       <c r="J226" s="3"/>
-      <c r="K226" s="40"/>
+      <c r="K226" s="39"/>
     </row>
     <row r="227" spans="1:11">
       <c r="A227" s="3"/>
@@ -5557,7 +5551,7 @@
       <c r="H227" s="3"/>
       <c r="I227" s="3"/>
       <c r="J227" s="3"/>
-      <c r="K227" s="40"/>
+      <c r="K227" s="39"/>
     </row>
     <row r="228" spans="1:11">
       <c r="A228" s="3"/>
@@ -5569,7 +5563,7 @@
       <c r="H228" s="3"/>
       <c r="I228" s="3"/>
       <c r="J228" s="3"/>
-      <c r="K228" s="40"/>
+      <c r="K228" s="39"/>
     </row>
     <row r="229" spans="1:11">
       <c r="A229" s="3"/>
@@ -5581,7 +5575,7 @@
       <c r="H229" s="3"/>
       <c r="I229" s="3"/>
       <c r="J229" s="3"/>
-      <c r="K229" s="40"/>
+      <c r="K229" s="39"/>
     </row>
     <row r="230" spans="1:11">
       <c r="A230" s="3"/>
@@ -5593,7 +5587,7 @@
       <c r="H230" s="3"/>
       <c r="I230" s="3"/>
       <c r="J230" s="3"/>
-      <c r="K230" s="40"/>
+      <c r="K230" s="39"/>
     </row>
     <row r="231" spans="1:11">
       <c r="A231" s="3"/>
@@ -5605,7 +5599,7 @@
       <c r="H231" s="3"/>
       <c r="I231" s="3"/>
       <c r="J231" s="3"/>
-      <c r="K231" s="40"/>
+      <c r="K231" s="39"/>
     </row>
     <row r="232" spans="1:11">
       <c r="A232" s="3"/>
@@ -5617,7 +5611,7 @@
       <c r="H232" s="3"/>
       <c r="I232" s="3"/>
       <c r="J232" s="3"/>
-      <c r="K232" s="40"/>
+      <c r="K232" s="39"/>
     </row>
     <row r="233" spans="1:11">
       <c r="A233" s="3"/>
@@ -5629,7 +5623,7 @@
       <c r="H233" s="3"/>
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
-      <c r="K233" s="40"/>
+      <c r="K233" s="39"/>
     </row>
     <row r="234" spans="1:11">
       <c r="A234" s="3"/>
@@ -5641,7 +5635,7 @@
       <c r="H234" s="3"/>
       <c r="I234" s="3"/>
       <c r="J234" s="3"/>
-      <c r="K234" s="40"/>
+      <c r="K234" s="39"/>
     </row>
     <row r="235" spans="1:11">
       <c r="A235" s="3"/>
@@ -5653,7 +5647,7 @@
       <c r="H235" s="3"/>
       <c r="I235" s="3"/>
       <c r="J235" s="3"/>
-      <c r="K235" s="40"/>
+      <c r="K235" s="39"/>
     </row>
     <row r="236" spans="1:11">
       <c r="A236" s="3"/>
@@ -5665,7 +5659,7 @@
       <c r="H236" s="3"/>
       <c r="I236" s="3"/>
       <c r="J236" s="3"/>
-      <c r="K236" s="40"/>
+      <c r="K236" s="39"/>
     </row>
     <row r="237" spans="1:11">
       <c r="A237" s="3"/>
@@ -5677,7 +5671,7 @@
       <c r="H237" s="3"/>
       <c r="I237" s="3"/>
       <c r="J237" s="3"/>
-      <c r="K237" s="40"/>
+      <c r="K237" s="39"/>
     </row>
     <row r="238" spans="1:11">
       <c r="A238" s="3"/>
@@ -5689,7 +5683,7 @@
       <c r="H238" s="3"/>
       <c r="I238" s="3"/>
       <c r="J238" s="3"/>
-      <c r="K238" s="40"/>
+      <c r="K238" s="39"/>
     </row>
     <row r="239" spans="1:11">
       <c r="A239" s="3"/>
@@ -5701,7 +5695,7 @@
       <c r="H239" s="3"/>
       <c r="I239" s="3"/>
       <c r="J239" s="3"/>
-      <c r="K239" s="40"/>
+      <c r="K239" s="39"/>
     </row>
     <row r="240" spans="1:11">
       <c r="A240" s="3"/>
@@ -5713,7 +5707,7 @@
       <c r="H240" s="3"/>
       <c r="I240" s="3"/>
       <c r="J240" s="3"/>
-      <c r="K240" s="40"/>
+      <c r="K240" s="39"/>
     </row>
     <row r="241" spans="1:11">
       <c r="A241" s="3"/>
@@ -5725,7 +5719,7 @@
       <c r="H241" s="3"/>
       <c r="I241" s="3"/>
       <c r="J241" s="3"/>
-      <c r="K241" s="40"/>
+      <c r="K241" s="39"/>
     </row>
     <row r="242" spans="1:11">
       <c r="A242" s="3"/>
@@ -5737,7 +5731,7 @@
       <c r="H242" s="3"/>
       <c r="I242" s="3"/>
       <c r="J242" s="3"/>
-      <c r="K242" s="40"/>
+      <c r="K242" s="39"/>
     </row>
     <row r="243" spans="1:11">
       <c r="A243" s="3"/>
@@ -5749,7 +5743,7 @@
       <c r="H243" s="3"/>
       <c r="I243" s="3"/>
       <c r="J243" s="3"/>
-      <c r="K243" s="40"/>
+      <c r="K243" s="39"/>
     </row>
     <row r="244" spans="1:11">
       <c r="A244" s="3"/>
@@ -5761,7 +5755,7 @@
       <c r="H244" s="3"/>
       <c r="I244" s="3"/>
       <c r="J244" s="3"/>
-      <c r="K244" s="40"/>
+      <c r="K244" s="39"/>
     </row>
     <row r="245" spans="1:11">
       <c r="A245" s="3"/>
@@ -5773,7 +5767,7 @@
       <c r="H245" s="3"/>
       <c r="I245" s="3"/>
       <c r="J245" s="3"/>
-      <c r="K245" s="40"/>
+      <c r="K245" s="39"/>
     </row>
     <row r="246" spans="1:11">
       <c r="A246" s="3"/>
@@ -5785,7 +5779,7 @@
       <c r="H246" s="3"/>
       <c r="I246" s="3"/>
       <c r="J246" s="3"/>
-      <c r="K246" s="40"/>
+      <c r="K246" s="39"/>
     </row>
     <row r="247" spans="1:11">
       <c r="A247" s="3"/>
@@ -5797,7 +5791,7 @@
       <c r="H247" s="3"/>
       <c r="I247" s="3"/>
       <c r="J247" s="3"/>
-      <c r="K247" s="40"/>
+      <c r="K247" s="39"/>
     </row>
     <row r="248" spans="1:11">
       <c r="A248" s="3"/>
@@ -5809,7 +5803,7 @@
       <c r="H248" s="3"/>
       <c r="I248" s="3"/>
       <c r="J248" s="3"/>
-      <c r="K248" s="40"/>
+      <c r="K248" s="39"/>
     </row>
     <row r="249" spans="1:11">
       <c r="A249" s="3"/>
@@ -5821,7 +5815,7 @@
       <c r="H249" s="3"/>
       <c r="I249" s="3"/>
       <c r="J249" s="3"/>
-      <c r="K249" s="40"/>
+      <c r="K249" s="39"/>
     </row>
     <row r="250" spans="1:11">
       <c r="A250" s="3"/>
@@ -5833,7 +5827,7 @@
       <c r="H250" s="3"/>
       <c r="I250" s="3"/>
       <c r="J250" s="3"/>
-      <c r="K250" s="40"/>
+      <c r="K250" s="39"/>
     </row>
     <row r="251" spans="1:11">
       <c r="A251" s="3"/>
@@ -5845,7 +5839,7 @@
       <c r="H251" s="3"/>
       <c r="I251" s="3"/>
       <c r="J251" s="3"/>
-      <c r="K251" s="40"/>
+      <c r="K251" s="39"/>
     </row>
     <row r="252" spans="1:11">
       <c r="A252" s="3"/>
@@ -5857,7 +5851,7 @@
       <c r="H252" s="3"/>
       <c r="I252" s="3"/>
       <c r="J252" s="3"/>
-      <c r="K252" s="40"/>
+      <c r="K252" s="39"/>
     </row>
     <row r="253" spans="1:11">
       <c r="A253" s="3"/>
@@ -5869,7 +5863,7 @@
       <c r="H253" s="3"/>
       <c r="I253" s="3"/>
       <c r="J253" s="3"/>
-      <c r="K253" s="40"/>
+      <c r="K253" s="39"/>
     </row>
     <row r="254" spans="1:11">
       <c r="A254" s="3"/>
@@ -5881,7 +5875,7 @@
       <c r="H254" s="3"/>
       <c r="I254" s="3"/>
       <c r="J254" s="3"/>
-      <c r="K254" s="40"/>
+      <c r="K254" s="39"/>
     </row>
     <row r="255" spans="1:11">
       <c r="A255" s="3"/>
@@ -5893,7 +5887,7 @@
       <c r="H255" s="3"/>
       <c r="I255" s="3"/>
       <c r="J255" s="3"/>
-      <c r="K255" s="40"/>
+      <c r="K255" s="39"/>
     </row>
     <row r="256" spans="1:11">
       <c r="A256" s="3"/>
@@ -5905,7 +5899,7 @@
       <c r="H256" s="3"/>
       <c r="I256" s="3"/>
       <c r="J256" s="3"/>
-      <c r="K256" s="40"/>
+      <c r="K256" s="39"/>
     </row>
     <row r="257" spans="1:11">
       <c r="A257" s="3"/>
@@ -5917,7 +5911,7 @@
       <c r="H257" s="3"/>
       <c r="I257" s="3"/>
       <c r="J257" s="3"/>
-      <c r="K257" s="40"/>
+      <c r="K257" s="39"/>
     </row>
     <row r="258" spans="1:11">
       <c r="A258" s="3"/>
@@ -5929,7 +5923,7 @@
       <c r="H258" s="3"/>
       <c r="I258" s="3"/>
       <c r="J258" s="3"/>
-      <c r="K258" s="40"/>
+      <c r="K258" s="39"/>
     </row>
     <row r="259" spans="1:11">
       <c r="A259" s="3"/>
@@ -5941,7 +5935,7 @@
       <c r="H259" s="3"/>
       <c r="I259" s="3"/>
       <c r="J259" s="3"/>
-      <c r="K259" s="40"/>
+      <c r="K259" s="39"/>
     </row>
     <row r="260" spans="1:11">
       <c r="A260" s="3"/>
@@ -5953,7 +5947,7 @@
       <c r="H260" s="3"/>
       <c r="I260" s="3"/>
       <c r="J260" s="3"/>
-      <c r="K260" s="40"/>
+      <c r="K260" s="39"/>
     </row>
     <row r="261" spans="1:11">
       <c r="A261" s="3"/>
@@ -5965,7 +5959,7 @@
       <c r="H261" s="3"/>
       <c r="I261" s="3"/>
       <c r="J261" s="3"/>
-      <c r="K261" s="40"/>
+      <c r="K261" s="39"/>
     </row>
     <row r="262" spans="1:11">
       <c r="A262" s="3"/>
@@ -5977,7 +5971,7 @@
       <c r="H262" s="3"/>
       <c r="I262" s="3"/>
       <c r="J262" s="3"/>
-      <c r="K262" s="40"/>
+      <c r="K262" s="39"/>
     </row>
     <row r="263" spans="1:11">
       <c r="A263" s="3"/>
@@ -5989,7 +5983,7 @@
       <c r="H263" s="3"/>
       <c r="I263" s="3"/>
       <c r="J263" s="3"/>
-      <c r="K263" s="40"/>
+      <c r="K263" s="39"/>
     </row>
     <row r="264" spans="1:11">
       <c r="A264" s="3"/>
@@ -6001,7 +5995,7 @@
       <c r="H264" s="3"/>
       <c r="I264" s="3"/>
       <c r="J264" s="3"/>
-      <c r="K264" s="40"/>
+      <c r="K264" s="39"/>
     </row>
     <row r="265" spans="1:11">
       <c r="A265" s="3"/>
@@ -6013,7 +6007,7 @@
       <c r="H265" s="3"/>
       <c r="I265" s="3"/>
       <c r="J265" s="3"/>
-      <c r="K265" s="40"/>
+      <c r="K265" s="39"/>
     </row>
     <row r="266" spans="1:11">
       <c r="A266" s="3"/>
@@ -6025,7 +6019,7 @@
       <c r="H266" s="3"/>
       <c r="I266" s="3"/>
       <c r="J266" s="3"/>
-      <c r="K266" s="40"/>
+      <c r="K266" s="39"/>
     </row>
     <row r="267" spans="1:11">
       <c r="A267" s="3"/>
@@ -6037,7 +6031,7 @@
       <c r="H267" s="3"/>
       <c r="I267" s="3"/>
       <c r="J267" s="3"/>
-      <c r="K267" s="40"/>
+      <c r="K267" s="39"/>
     </row>
     <row r="268" spans="1:11">
       <c r="A268" s="3"/>
@@ -6049,7 +6043,7 @@
       <c r="H268" s="3"/>
       <c r="I268" s="3"/>
       <c r="J268" s="3"/>
-      <c r="K268" s="40"/>
+      <c r="K268" s="39"/>
     </row>
     <row r="269" spans="1:11">
       <c r="A269" s="3"/>
@@ -6061,7 +6055,7 @@
       <c r="H269" s="3"/>
       <c r="I269" s="3"/>
       <c r="J269" s="3"/>
-      <c r="K269" s="40"/>
+      <c r="K269" s="39"/>
     </row>
     <row r="270" spans="1:11">
       <c r="A270" s="3"/>
@@ -6073,7 +6067,7 @@
       <c r="H270" s="3"/>
       <c r="I270" s="3"/>
       <c r="J270" s="3"/>
-      <c r="K270" s="40"/>
+      <c r="K270" s="39"/>
     </row>
     <row r="271" spans="1:11">
       <c r="A271" s="3"/>
@@ -6085,7 +6079,7 @@
       <c r="H271" s="3"/>
       <c r="I271" s="3"/>
       <c r="J271" s="3"/>
-      <c r="K271" s="40"/>
+      <c r="K271" s="39"/>
     </row>
     <row r="272" spans="1:11">
       <c r="A272" s="3"/>
@@ -6097,7 +6091,7 @@
       <c r="H272" s="3"/>
       <c r="I272" s="3"/>
       <c r="J272" s="3"/>
-      <c r="K272" s="40"/>
+      <c r="K272" s="39"/>
     </row>
     <row r="273" spans="1:11">
       <c r="A273" s="3"/>
@@ -6109,7 +6103,7 @@
       <c r="H273" s="3"/>
       <c r="I273" s="3"/>
       <c r="J273" s="3"/>
-      <c r="K273" s="40"/>
+      <c r="K273" s="39"/>
     </row>
     <row r="274" spans="1:11">
       <c r="A274" s="3"/>
@@ -6121,7 +6115,7 @@
       <c r="H274" s="3"/>
       <c r="I274" s="3"/>
       <c r="J274" s="3"/>
-      <c r="K274" s="40"/>
+      <c r="K274" s="39"/>
     </row>
     <row r="275" spans="1:11">
       <c r="A275" s="3"/>
@@ -6133,7 +6127,7 @@
       <c r="H275" s="3"/>
       <c r="I275" s="3"/>
       <c r="J275" s="3"/>
-      <c r="K275" s="40"/>
+      <c r="K275" s="39"/>
     </row>
     <row r="276" spans="1:11">
       <c r="A276" s="3"/>
@@ -6145,7 +6139,7 @@
       <c r="H276" s="3"/>
       <c r="I276" s="3"/>
       <c r="J276" s="3"/>
-      <c r="K276" s="40"/>
+      <c r="K276" s="39"/>
     </row>
     <row r="277" spans="1:11">
       <c r="A277" s="3"/>
@@ -6157,7 +6151,7 @@
       <c r="H277" s="3"/>
       <c r="I277" s="3"/>
       <c r="J277" s="3"/>
-      <c r="K277" s="40"/>
+      <c r="K277" s="39"/>
     </row>
     <row r="278" spans="1:11">
       <c r="A278" s="3"/>
@@ -6169,7 +6163,7 @@
       <c r="H278" s="3"/>
       <c r="I278" s="3"/>
       <c r="J278" s="3"/>
-      <c r="K278" s="40"/>
+      <c r="K278" s="39"/>
     </row>
     <row r="279" spans="1:11">
       <c r="A279" s="3"/>
@@ -6181,7 +6175,7 @@
       <c r="H279" s="3"/>
       <c r="I279" s="3"/>
       <c r="J279" s="3"/>
-      <c r="K279" s="40"/>
+      <c r="K279" s="39"/>
     </row>
     <row r="280" spans="1:11">
       <c r="A280" s="3"/>
@@ -6193,7 +6187,7 @@
       <c r="H280" s="3"/>
       <c r="I280" s="3"/>
       <c r="J280" s="3"/>
-      <c r="K280" s="40"/>
+      <c r="K280" s="39"/>
     </row>
     <row r="281" spans="1:11">
       <c r="A281" s="3"/>
@@ -6205,7 +6199,7 @@
       <c r="H281" s="3"/>
       <c r="I281" s="3"/>
       <c r="J281" s="3"/>
-      <c r="K281" s="40"/>
+      <c r="K281" s="39"/>
     </row>
     <row r="282" spans="1:11">
       <c r="A282" s="3"/>
@@ -6217,7 +6211,7 @@
       <c r="H282" s="3"/>
       <c r="I282" s="3"/>
       <c r="J282" s="3"/>
-      <c r="K282" s="40"/>
+      <c r="K282" s="39"/>
     </row>
     <row r="283" spans="1:11">
       <c r="A283" s="3"/>
@@ -6229,7 +6223,7 @@
       <c r="H283" s="3"/>
       <c r="I283" s="3"/>
       <c r="J283" s="3"/>
-      <c r="K283" s="40"/>
+      <c r="K283" s="39"/>
     </row>
     <row r="284" spans="1:11">
       <c r="A284" s="3"/>
@@ -6241,7 +6235,7 @@
       <c r="H284" s="3"/>
       <c r="I284" s="3"/>
       <c r="J284" s="3"/>
-      <c r="K284" s="40"/>
+      <c r="K284" s="39"/>
     </row>
     <row r="285" spans="1:11">
       <c r="A285" s="3"/>
@@ -6253,7 +6247,7 @@
       <c r="H285" s="3"/>
       <c r="I285" s="3"/>
       <c r="J285" s="3"/>
-      <c r="K285" s="40"/>
+      <c r="K285" s="39"/>
     </row>
     <row r="286" spans="1:11">
       <c r="A286" s="3"/>
@@ -6265,7 +6259,7 @@
       <c r="H286" s="3"/>
       <c r="I286" s="3"/>
       <c r="J286" s="3"/>
-      <c r="K286" s="40"/>
+      <c r="K286" s="39"/>
     </row>
     <row r="287" spans="1:11">
       <c r="A287" s="3"/>
@@ -6277,7 +6271,7 @@
       <c r="H287" s="3"/>
       <c r="I287" s="3"/>
       <c r="J287" s="3"/>
-      <c r="K287" s="40"/>
+      <c r="K287" s="39"/>
     </row>
     <row r="288" spans="1:11">
       <c r="A288" s="3"/>
@@ -6289,7 +6283,7 @@
       <c r="H288" s="3"/>
       <c r="I288" s="3"/>
       <c r="J288" s="3"/>
-      <c r="K288" s="40"/>
+      <c r="K288" s="39"/>
     </row>
     <row r="289" spans="1:11">
       <c r="A289" s="3"/>
@@ -6301,7 +6295,7 @@
       <c r="H289" s="3"/>
       <c r="I289" s="3"/>
       <c r="J289" s="3"/>
-      <c r="K289" s="40"/>
+      <c r="K289" s="39"/>
     </row>
     <row r="290" spans="1:11">
       <c r="A290" s="3"/>
@@ -6313,7 +6307,7 @@
       <c r="H290" s="3"/>
       <c r="I290" s="3"/>
       <c r="J290" s="3"/>
-      <c r="K290" s="40"/>
+      <c r="K290" s="39"/>
     </row>
     <row r="291" spans="1:11">
       <c r="A291" s="3"/>
@@ -6325,7 +6319,7 @@
       <c r="H291" s="3"/>
       <c r="I291" s="3"/>
       <c r="J291" s="3"/>
-      <c r="K291" s="40"/>
+      <c r="K291" s="39"/>
     </row>
     <row r="292" spans="1:11">
       <c r="A292" s="3"/>
@@ -6337,7 +6331,7 @@
       <c r="H292" s="3"/>
       <c r="I292" s="3"/>
       <c r="J292" s="3"/>
-      <c r="K292" s="40"/>
+      <c r="K292" s="39"/>
     </row>
     <row r="293" spans="1:11">
       <c r="A293" s="3"/>
@@ -6349,7 +6343,7 @@
       <c r="H293" s="3"/>
       <c r="I293" s="3"/>
       <c r="J293" s="3"/>
-      <c r="K293" s="40"/>
+      <c r="K293" s="39"/>
     </row>
     <row r="294" spans="1:11">
       <c r="A294" s="3"/>
@@ -6361,7 +6355,7 @@
       <c r="H294" s="3"/>
       <c r="I294" s="3"/>
       <c r="J294" s="3"/>
-      <c r="K294" s="40"/>
+      <c r="K294" s="39"/>
     </row>
     <row r="295" spans="1:11">
       <c r="A295" s="3"/>
@@ -6373,7 +6367,7 @@
       <c r="H295" s="3"/>
       <c r="I295" s="3"/>
       <c r="J295" s="3"/>
-      <c r="K295" s="40"/>
+      <c r="K295" s="39"/>
     </row>
     <row r="296" spans="1:11">
       <c r="A296" s="3"/>
@@ -6385,7 +6379,7 @@
       <c r="H296" s="3"/>
       <c r="I296" s="3"/>
       <c r="J296" s="3"/>
-      <c r="K296" s="40"/>
+      <c r="K296" s="39"/>
     </row>
     <row r="297" spans="1:11">
       <c r="A297" s="3"/>
@@ -6397,7 +6391,7 @@
       <c r="H297" s="3"/>
       <c r="I297" s="3"/>
       <c r="J297" s="3"/>
-      <c r="K297" s="40"/>
+      <c r="K297" s="39"/>
     </row>
     <row r="298" spans="1:11">
       <c r="A298" s="3"/>
@@ -6409,7 +6403,7 @@
       <c r="H298" s="3"/>
       <c r="I298" s="3"/>
       <c r="J298" s="3"/>
-      <c r="K298" s="40"/>
+      <c r="K298" s="39"/>
     </row>
     <row r="299" spans="1:11">
       <c r="A299" s="3"/>
@@ -6421,7 +6415,7 @@
       <c r="H299" s="3"/>
       <c r="I299" s="3"/>
       <c r="J299" s="3"/>
-      <c r="K299" s="40"/>
+      <c r="K299" s="39"/>
     </row>
     <row r="300" spans="1:11">
       <c r="A300" s="3"/>
@@ -6433,7 +6427,7 @@
       <c r="H300" s="3"/>
       <c r="I300" s="3"/>
       <c r="J300" s="3"/>
-      <c r="K300" s="40"/>
+      <c r="K300" s="39"/>
     </row>
     <row r="301" spans="1:11">
       <c r="A301" s="3"/>
@@ -6445,7 +6439,7 @@
       <c r="H301" s="3"/>
       <c r="I301" s="3"/>
       <c r="J301" s="3"/>
-      <c r="K301" s="40"/>
+      <c r="K301" s="39"/>
     </row>
     <row r="302" spans="1:11">
       <c r="A302" s="3"/>
@@ -6457,7 +6451,7 @@
       <c r="H302" s="3"/>
       <c r="I302" s="3"/>
       <c r="J302" s="3"/>
-      <c r="K302" s="40"/>
+      <c r="K302" s="39"/>
     </row>
     <row r="303" spans="1:11">
       <c r="A303" s="3"/>
@@ -6469,7 +6463,7 @@
       <c r="H303" s="3"/>
       <c r="I303" s="3"/>
       <c r="J303" s="3"/>
-      <c r="K303" s="40"/>
+      <c r="K303" s="39"/>
     </row>
     <row r="304" spans="1:11">
       <c r="A304" s="3"/>
@@ -6481,7 +6475,7 @@
       <c r="H304" s="3"/>
       <c r="I304" s="3"/>
       <c r="J304" s="3"/>
-      <c r="K304" s="40"/>
+      <c r="K304" s="39"/>
     </row>
     <row r="305" spans="1:11">
       <c r="A305" s="3"/>
@@ -6493,7 +6487,7 @@
       <c r="H305" s="3"/>
       <c r="I305" s="3"/>
       <c r="J305" s="3"/>
-      <c r="K305" s="40"/>
+      <c r="K305" s="39"/>
     </row>
     <row r="306" spans="1:11">
       <c r="A306" s="3"/>
@@ -6505,7 +6499,7 @@
       <c r="H306" s="3"/>
       <c r="I306" s="3"/>
       <c r="J306" s="3"/>
-      <c r="K306" s="40"/>
+      <c r="K306" s="39"/>
     </row>
     <row r="307" spans="1:11">
       <c r="A307" s="3"/>
@@ -6517,7 +6511,7 @@
       <c r="H307" s="3"/>
       <c r="I307" s="3"/>
       <c r="J307" s="3"/>
-      <c r="K307" s="40"/>
+      <c r="K307" s="39"/>
     </row>
     <row r="308" spans="1:11">
       <c r="A308" s="3"/>
@@ -6529,7 +6523,7 @@
       <c r="H308" s="3"/>
       <c r="I308" s="3"/>
       <c r="J308" s="3"/>
-      <c r="K308" s="40"/>
+      <c r="K308" s="39"/>
     </row>
     <row r="309" spans="1:11">
       <c r="A309" s="3"/>
@@ -6541,7 +6535,7 @@
       <c r="H309" s="3"/>
       <c r="I309" s="3"/>
       <c r="J309" s="3"/>
-      <c r="K309" s="40"/>
+      <c r="K309" s="39"/>
     </row>
     <row r="310" spans="1:11">
       <c r="A310" s="3"/>
@@ -6553,7 +6547,7 @@
       <c r="H310" s="3"/>
       <c r="I310" s="3"/>
       <c r="J310" s="3"/>
-      <c r="K310" s="40"/>
+      <c r="K310" s="39"/>
     </row>
     <row r="311" spans="1:11">
       <c r="A311" s="3"/>
@@ -6565,7 +6559,7 @@
       <c r="H311" s="3"/>
       <c r="I311" s="3"/>
       <c r="J311" s="3"/>
-      <c r="K311" s="40"/>
+      <c r="K311" s="39"/>
     </row>
     <row r="312" spans="1:11">
       <c r="A312" s="3"/>
@@ -6577,7 +6571,7 @@
       <c r="H312" s="3"/>
       <c r="I312" s="3"/>
       <c r="J312" s="3"/>
-      <c r="K312" s="40"/>
+      <c r="K312" s="39"/>
     </row>
     <row r="313" spans="1:11">
       <c r="A313" s="3"/>
@@ -6589,7 +6583,7 @@
       <c r="H313" s="3"/>
       <c r="I313" s="3"/>
       <c r="J313" s="3"/>
-      <c r="K313" s="40"/>
+      <c r="K313" s="39"/>
     </row>
     <row r="314" spans="1:11">
       <c r="A314" s="3"/>
@@ -6601,7 +6595,7 @@
       <c r="H314" s="3"/>
       <c r="I314" s="3"/>
       <c r="J314" s="3"/>
-      <c r="K314" s="40"/>
+      <c r="K314" s="39"/>
     </row>
     <row r="315" spans="1:11">
       <c r="A315" s="3"/>
@@ -6613,7 +6607,7 @@
       <c r="H315" s="3"/>
       <c r="I315" s="3"/>
       <c r="J315" s="3"/>
-      <c r="K315" s="40"/>
+      <c r="K315" s="39"/>
     </row>
     <row r="316" spans="1:11">
       <c r="A316" s="3"/>
@@ -6625,7 +6619,7 @@
       <c r="H316" s="3"/>
       <c r="I316" s="3"/>
       <c r="J316" s="3"/>
-      <c r="K316" s="40"/>
+      <c r="K316" s="39"/>
     </row>
     <row r="317" spans="1:11">
       <c r="A317" s="3"/>
@@ -6637,7 +6631,7 @@
       <c r="H317" s="3"/>
       <c r="I317" s="3"/>
       <c r="J317" s="3"/>
-      <c r="K317" s="40"/>
+      <c r="K317" s="39"/>
     </row>
     <row r="318" spans="1:11">
       <c r="A318" s="3"/>
@@ -6649,7 +6643,7 @@
       <c r="H318" s="3"/>
       <c r="I318" s="3"/>
       <c r="J318" s="3"/>
-      <c r="K318" s="40"/>
+      <c r="K318" s="39"/>
     </row>
     <row r="319" spans="1:11">
       <c r="A319" s="3"/>
@@ -6661,7 +6655,7 @@
       <c r="H319" s="3"/>
       <c r="I319" s="3"/>
       <c r="J319" s="3"/>
-      <c r="K319" s="40"/>
+      <c r="K319" s="39"/>
     </row>
     <row r="320" spans="1:11">
       <c r="A320" s="3"/>
@@ -6673,7 +6667,7 @@
       <c r="H320" s="3"/>
       <c r="I320" s="3"/>
       <c r="J320" s="3"/>
-      <c r="K320" s="40"/>
+      <c r="K320" s="39"/>
     </row>
     <row r="321" spans="1:11">
       <c r="A321" s="3"/>
@@ -6685,7 +6679,7 @@
       <c r="H321" s="3"/>
       <c r="I321" s="3"/>
       <c r="J321" s="3"/>
-      <c r="K321" s="40"/>
+      <c r="K321" s="39"/>
     </row>
     <row r="322" spans="1:11">
       <c r="A322" s="3"/>
@@ -6697,7 +6691,7 @@
       <c r="H322" s="3"/>
       <c r="I322" s="3"/>
       <c r="J322" s="3"/>
-      <c r="K322" s="40"/>
+      <c r="K322" s="39"/>
     </row>
     <row r="323" spans="1:11">
       <c r="A323" s="3"/>
@@ -6709,7 +6703,7 @@
       <c r="H323" s="3"/>
       <c r="I323" s="3"/>
       <c r="J323" s="3"/>
-      <c r="K323" s="40"/>
+      <c r="K323" s="39"/>
     </row>
     <row r="324" spans="1:11">
       <c r="A324" s="3"/>
@@ -6721,7 +6715,7 @@
       <c r="H324" s="3"/>
       <c r="I324" s="3"/>
       <c r="J324" s="3"/>
-      <c r="K324" s="40"/>
+      <c r="K324" s="39"/>
     </row>
     <row r="325" spans="1:11">
       <c r="A325" s="3"/>
@@ -6733,7 +6727,7 @@
       <c r="H325" s="3"/>
       <c r="I325" s="3"/>
       <c r="J325" s="3"/>
-      <c r="K325" s="40"/>
+      <c r="K325" s="39"/>
     </row>
     <row r="326" spans="1:11">
       <c r="A326" s="3"/>
@@ -6745,7 +6739,7 @@
       <c r="H326" s="3"/>
       <c r="I326" s="3"/>
       <c r="J326" s="3"/>
-      <c r="K326" s="40"/>
+      <c r="K326" s="39"/>
     </row>
     <row r="327" spans="1:11">
       <c r="A327" s="3"/>
@@ -6757,7 +6751,7 @@
       <c r="H327" s="3"/>
       <c r="I327" s="3"/>
       <c r="J327" s="3"/>
-      <c r="K327" s="40"/>
+      <c r="K327" s="39"/>
     </row>
     <row r="328" spans="1:11">
       <c r="A328" s="3"/>
@@ -6769,7 +6763,7 @@
       <c r="H328" s="3"/>
       <c r="I328" s="3"/>
       <c r="J328" s="3"/>
-      <c r="K328" s="40"/>
+      <c r="K328" s="39"/>
     </row>
     <row r="329" spans="1:11">
       <c r="A329" s="3"/>
@@ -6781,7 +6775,7 @@
       <c r="H329" s="3"/>
       <c r="I329" s="3"/>
       <c r="J329" s="3"/>
-      <c r="K329" s="40"/>
+      <c r="K329" s="39"/>
     </row>
     <row r="330" spans="1:11">
       <c r="A330" s="3"/>
@@ -6793,7 +6787,7 @@
       <c r="H330" s="3"/>
       <c r="I330" s="3"/>
       <c r="J330" s="3"/>
-      <c r="K330" s="40"/>
+      <c r="K330" s="39"/>
     </row>
     <row r="331" spans="1:11">
       <c r="A331" s="3"/>
@@ -6805,7 +6799,7 @@
       <c r="H331" s="3"/>
       <c r="I331" s="3"/>
       <c r="J331" s="3"/>
-      <c r="K331" s="40"/>
+      <c r="K331" s="39"/>
     </row>
     <row r="332" spans="1:11">
       <c r="A332" s="3"/>
@@ -6817,7 +6811,7 @@
       <c r="H332" s="3"/>
       <c r="I332" s="3"/>
       <c r="J332" s="3"/>
-      <c r="K332" s="40"/>
+      <c r="K332" s="39"/>
     </row>
     <row r="333" spans="1:11">
       <c r="A333" s="3"/>
@@ -6829,7 +6823,7 @@
       <c r="H333" s="3"/>
       <c r="I333" s="3"/>
       <c r="J333" s="3"/>
-      <c r="K333" s="40"/>
+      <c r="K333" s="39"/>
     </row>
     <row r="334" spans="1:11">
       <c r="A334" s="3"/>
@@ -6841,7 +6835,7 @@
       <c r="H334" s="3"/>
       <c r="I334" s="3"/>
       <c r="J334" s="3"/>
-      <c r="K334" s="40"/>
+      <c r="K334" s="39"/>
     </row>
     <row r="335" spans="1:11">
       <c r="A335" s="3"/>
@@ -6853,7 +6847,7 @@
       <c r="H335" s="3"/>
       <c r="I335" s="3"/>
       <c r="J335" s="3"/>
-      <c r="K335" s="40"/>
+      <c r="K335" s="39"/>
     </row>
     <row r="336" spans="1:11">
       <c r="A336" s="3"/>
@@ -6865,7 +6859,7 @@
       <c r="H336" s="3"/>
       <c r="I336" s="3"/>
       <c r="J336" s="3"/>
-      <c r="K336" s="40"/>
+      <c r="K336" s="39"/>
     </row>
     <row r="337" spans="1:11">
       <c r="A337" s="3"/>
@@ -6877,7 +6871,7 @@
       <c r="H337" s="3"/>
       <c r="I337" s="3"/>
       <c r="J337" s="3"/>
-      <c r="K337" s="40"/>
+      <c r="K337" s="39"/>
     </row>
     <row r="338" spans="1:11">
       <c r="A338" s="3"/>
@@ -6889,7 +6883,7 @@
       <c r="H338" s="3"/>
       <c r="I338" s="3"/>
       <c r="J338" s="3"/>
-      <c r="K338" s="40"/>
+      <c r="K338" s="39"/>
     </row>
     <row r="339" spans="1:11">
       <c r="A339" s="3"/>
@@ -6901,7 +6895,7 @@
       <c r="H339" s="3"/>
       <c r="I339" s="3"/>
       <c r="J339" s="3"/>
-      <c r="K339" s="40"/>
+      <c r="K339" s="39"/>
     </row>
     <row r="340" spans="1:11">
       <c r="A340" s="3"/>
@@ -6913,7 +6907,7 @@
       <c r="H340" s="3"/>
       <c r="I340" s="3"/>
       <c r="J340" s="3"/>
-      <c r="K340" s="40"/>
+      <c r="K340" s="39"/>
     </row>
     <row r="341" spans="1:11">
       <c r="A341" s="3"/>
@@ -6925,7 +6919,7 @@
       <c r="H341" s="3"/>
       <c r="I341" s="3"/>
       <c r="J341" s="3"/>
-      <c r="K341" s="40"/>
+      <c r="K341" s="39"/>
     </row>
     <row r="342" spans="1:11">
       <c r="A342" s="3"/>
@@ -6937,7 +6931,7 @@
       <c r="H342" s="3"/>
       <c r="I342" s="3"/>
       <c r="J342" s="3"/>
-      <c r="K342" s="40"/>
+      <c r="K342" s="39"/>
     </row>
     <row r="343" spans="1:11">
       <c r="A343" s="3"/>
@@ -6949,7 +6943,7 @@
       <c r="H343" s="3"/>
       <c r="I343" s="3"/>
       <c r="J343" s="3"/>
-      <c r="K343" s="40"/>
+      <c r="K343" s="39"/>
     </row>
     <row r="344" spans="1:11">
       <c r="A344" s="3"/>
@@ -6961,7 +6955,7 @@
       <c r="H344" s="3"/>
       <c r="I344" s="3"/>
       <c r="J344" s="3"/>
-      <c r="K344" s="40"/>
+      <c r="K344" s="39"/>
     </row>
     <row r="345" spans="1:11">
       <c r="A345" s="3"/>
@@ -6973,7 +6967,7 @@
       <c r="H345" s="3"/>
       <c r="I345" s="3"/>
       <c r="J345" s="3"/>
-      <c r="K345" s="40"/>
+      <c r="K345" s="39"/>
     </row>
     <row r="346" spans="1:11">
       <c r="A346" s="3"/>
@@ -6985,7 +6979,7 @@
       <c r="H346" s="3"/>
       <c r="I346" s="3"/>
       <c r="J346" s="3"/>
-      <c r="K346" s="40"/>
+      <c r="K346" s="39"/>
     </row>
     <row r="347" spans="1:11">
       <c r="A347" s="3"/>
@@ -6997,7 +6991,7 @@
       <c r="H347" s="3"/>
       <c r="I347" s="3"/>
       <c r="J347" s="3"/>
-      <c r="K347" s="40"/>
+      <c r="K347" s="39"/>
     </row>
     <row r="348" spans="1:11">
       <c r="A348" s="3"/>
@@ -7009,7 +7003,7 @@
       <c r="H348" s="3"/>
       <c r="I348" s="3"/>
       <c r="J348" s="3"/>
-      <c r="K348" s="40"/>
+      <c r="K348" s="39"/>
     </row>
     <row r="349" spans="1:11">
       <c r="A349" s="3"/>
@@ -7021,7 +7015,7 @@
       <c r="H349" s="3"/>
       <c r="I349" s="3"/>
       <c r="J349" s="3"/>
-      <c r="K349" s="40"/>
+      <c r="K349" s="39"/>
     </row>
     <row r="350" spans="1:11">
       <c r="A350" s="3"/>
@@ -7033,7 +7027,7 @@
       <c r="H350" s="3"/>
       <c r="I350" s="3"/>
       <c r="J350" s="3"/>
-      <c r="K350" s="40"/>
+      <c r="K350" s="39"/>
     </row>
     <row r="351" spans="1:11">
       <c r="A351" s="3"/>
@@ -7045,7 +7039,7 @@
       <c r="H351" s="3"/>
       <c r="I351" s="3"/>
       <c r="J351" s="3"/>
-      <c r="K351" s="40"/>
+      <c r="K351" s="39"/>
     </row>
     <row r="352" spans="1:11">
       <c r="A352" s="3"/>
@@ -7057,7 +7051,7 @@
       <c r="H352" s="3"/>
       <c r="I352" s="3"/>
       <c r="J352" s="3"/>
-      <c r="K352" s="40"/>
+      <c r="K352" s="39"/>
     </row>
     <row r="353" spans="1:11">
       <c r="A353" s="3"/>
@@ -7069,7 +7063,7 @@
       <c r="H353" s="3"/>
       <c r="I353" s="3"/>
       <c r="J353" s="3"/>
-      <c r="K353" s="40"/>
+      <c r="K353" s="39"/>
     </row>
     <row r="354" spans="1:11">
       <c r="A354" s="3"/>
@@ -7081,7 +7075,7 @@
       <c r="H354" s="3"/>
       <c r="I354" s="3"/>
       <c r="J354" s="3"/>
-      <c r="K354" s="40"/>
+      <c r="K354" s="39"/>
     </row>
     <row r="355" spans="1:11">
       <c r="A355" s="3"/>
@@ -7093,7 +7087,7 @@
       <c r="H355" s="3"/>
       <c r="I355" s="3"/>
       <c r="J355" s="3"/>
-      <c r="K355" s="40"/>
+      <c r="K355" s="39"/>
     </row>
     <row r="356" spans="1:11">
       <c r="A356" s="3"/>
@@ -7105,7 +7099,7 @@
       <c r="H356" s="3"/>
       <c r="I356" s="3"/>
       <c r="J356" s="3"/>
-      <c r="K356" s="40"/>
+      <c r="K356" s="39"/>
     </row>
     <row r="357" spans="1:11">
       <c r="A357" s="3"/>
@@ -7117,7 +7111,7 @@
       <c r="H357" s="3"/>
       <c r="I357" s="3"/>
       <c r="J357" s="3"/>
-      <c r="K357" s="40"/>
+      <c r="K357" s="39"/>
     </row>
     <row r="358" spans="1:11">
       <c r="A358" s="3"/>
@@ -7129,7 +7123,7 @@
       <c r="H358" s="3"/>
       <c r="I358" s="3"/>
       <c r="J358" s="3"/>
-      <c r="K358" s="40"/>
+      <c r="K358" s="39"/>
     </row>
     <row r="359" spans="1:11">
       <c r="A359" s="3"/>
@@ -7141,7 +7135,7 @@
       <c r="H359" s="3"/>
       <c r="I359" s="3"/>
       <c r="J359" s="3"/>
-      <c r="K359" s="40"/>
+      <c r="K359" s="39"/>
     </row>
     <row r="360" spans="1:11">
       <c r="A360" s="3"/>
@@ -7153,7 +7147,7 @@
       <c r="H360" s="3"/>
       <c r="I360" s="3"/>
       <c r="J360" s="3"/>
-      <c r="K360" s="40"/>
+      <c r="K360" s="39"/>
     </row>
     <row r="361" spans="1:11">
       <c r="A361" s="3"/>
@@ -7165,7 +7159,7 @@
       <c r="H361" s="3"/>
       <c r="I361" s="3"/>
       <c r="J361" s="3"/>
-      <c r="K361" s="40"/>
+      <c r="K361" s="39"/>
     </row>
     <row r="362" spans="1:11">
       <c r="A362" s="3"/>
@@ -7177,7 +7171,7 @@
       <c r="H362" s="3"/>
       <c r="I362" s="3"/>
       <c r="J362" s="3"/>
-      <c r="K362" s="40"/>
+      <c r="K362" s="39"/>
     </row>
     <row r="363" spans="1:11">
       <c r="A363" s="3"/>
@@ -7189,7 +7183,7 @@
       <c r="H363" s="3"/>
       <c r="I363" s="3"/>
       <c r="J363" s="3"/>
-      <c r="K363" s="40"/>
+      <c r="K363" s="39"/>
     </row>
     <row r="364" spans="1:11">
       <c r="A364" s="3"/>
@@ -7201,7 +7195,7 @@
       <c r="H364" s="3"/>
       <c r="I364" s="3"/>
       <c r="J364" s="3"/>
-      <c r="K364" s="40"/>
+      <c r="K364" s="39"/>
     </row>
     <row r="365" spans="1:11">
       <c r="A365" s="3"/>
@@ -7213,7 +7207,7 @@
       <c r="H365" s="3"/>
       <c r="I365" s="3"/>
       <c r="J365" s="3"/>
-      <c r="K365" s="40"/>
+      <c r="K365" s="39"/>
     </row>
     <row r="366" spans="1:11">
       <c r="A366" s="3"/>
@@ -7225,7 +7219,7 @@
       <c r="H366" s="3"/>
       <c r="I366" s="3"/>
       <c r="J366" s="3"/>
-      <c r="K366" s="40"/>
+      <c r="K366" s="39"/>
     </row>
     <row r="367" spans="1:11">
       <c r="A367" s="3"/>
@@ -7237,7 +7231,7 @@
       <c r="H367" s="3"/>
       <c r="I367" s="3"/>
       <c r="J367" s="3"/>
-      <c r="K367" s="40"/>
+      <c r="K367" s="39"/>
     </row>
     <row r="368" spans="1:11">
       <c r="A368" s="3"/>
@@ -7249,7 +7243,7 @@
       <c r="H368" s="3"/>
       <c r="I368" s="3"/>
       <c r="J368" s="3"/>
-      <c r="K368" s="40"/>
+      <c r="K368" s="39"/>
     </row>
     <row r="369" spans="1:11">
       <c r="A369" s="3"/>
@@ -7261,7 +7255,7 @@
       <c r="H369" s="3"/>
       <c r="I369" s="3"/>
       <c r="J369" s="3"/>
-      <c r="K369" s="40"/>
+      <c r="K369" s="39"/>
     </row>
     <row r="370" spans="1:11">
       <c r="A370" s="3"/>
@@ -7273,7 +7267,7 @@
       <c r="H370" s="3"/>
       <c r="I370" s="3"/>
       <c r="J370" s="3"/>
-      <c r="K370" s="40"/>
+      <c r="K370" s="39"/>
     </row>
     <row r="371" spans="1:11">
       <c r="A371" s="3"/>
@@ -7285,7 +7279,7 @@
       <c r="H371" s="3"/>
       <c r="I371" s="3"/>
       <c r="J371" s="3"/>
-      <c r="K371" s="40"/>
+      <c r="K371" s="39"/>
     </row>
     <row r="372" spans="1:11">
       <c r="A372" s="3"/>
@@ -7297,7 +7291,7 @@
       <c r="H372" s="3"/>
       <c r="I372" s="3"/>
       <c r="J372" s="3"/>
-      <c r="K372" s="40"/>
+      <c r="K372" s="39"/>
     </row>
     <row r="373" spans="1:11">
       <c r="A373" s="3"/>
@@ -7309,7 +7303,7 @@
       <c r="H373" s="3"/>
       <c r="I373" s="3"/>
       <c r="J373" s="3"/>
-      <c r="K373" s="40"/>
+      <c r="K373" s="39"/>
     </row>
     <row r="374" spans="1:11">
       <c r="A374" s="3"/>
@@ -7321,7 +7315,7 @@
       <c r="H374" s="3"/>
       <c r="I374" s="3"/>
       <c r="J374" s="3"/>
-      <c r="K374" s="40"/>
+      <c r="K374" s="39"/>
     </row>
     <row r="375" spans="1:11">
       <c r="A375" s="3"/>
@@ -7333,7 +7327,7 @@
       <c r="H375" s="3"/>
       <c r="I375" s="3"/>
       <c r="J375" s="3"/>
-      <c r="K375" s="40"/>
+      <c r="K375" s="39"/>
     </row>
     <row r="376" spans="1:11">
       <c r="A376" s="3"/>
@@ -7345,7 +7339,7 @@
       <c r="H376" s="3"/>
       <c r="I376" s="3"/>
       <c r="J376" s="3"/>
-      <c r="K376" s="40"/>
+      <c r="K376" s="39"/>
     </row>
     <row r="377" spans="1:11">
       <c r="A377" s="3"/>
@@ -7357,7 +7351,7 @@
       <c r="H377" s="3"/>
       <c r="I377" s="3"/>
       <c r="J377" s="3"/>
-      <c r="K377" s="40"/>
+      <c r="K377" s="39"/>
     </row>
     <row r="378" spans="1:11">
       <c r="A378" s="3"/>
@@ -7369,7 +7363,7 @@
       <c r="H378" s="3"/>
       <c r="I378" s="3"/>
       <c r="J378" s="3"/>
-      <c r="K378" s="40"/>
+      <c r="K378" s="39"/>
     </row>
     <row r="379" spans="1:11">
       <c r="A379" s="3"/>
@@ -7381,7 +7375,7 @@
       <c r="H379" s="3"/>
       <c r="I379" s="3"/>
       <c r="J379" s="3"/>
-      <c r="K379" s="40"/>
+      <c r="K379" s="39"/>
     </row>
     <row r="380" spans="1:11">
       <c r="A380" s="3"/>
@@ -7393,7 +7387,7 @@
       <c r="H380" s="3"/>
       <c r="I380" s="3"/>
       <c r="J380" s="3"/>
-      <c r="K380" s="40"/>
+      <c r="K380" s="39"/>
     </row>
     <row r="381" spans="1:11">
       <c r="A381" s="3"/>
@@ -7405,7 +7399,7 @@
       <c r="H381" s="3"/>
       <c r="I381" s="3"/>
       <c r="J381" s="3"/>
-      <c r="K381" s="40"/>
+      <c r="K381" s="39"/>
     </row>
     <row r="382" spans="1:11">
       <c r="A382" s="3"/>
@@ -7417,7 +7411,7 @@
       <c r="H382" s="3"/>
       <c r="I382" s="3"/>
       <c r="J382" s="3"/>
-      <c r="K382" s="40"/>
+      <c r="K382" s="39"/>
     </row>
     <row r="383" spans="1:11">
       <c r="A383" s="3"/>
@@ -7429,7 +7423,7 @@
       <c r="H383" s="3"/>
       <c r="I383" s="3"/>
       <c r="J383" s="3"/>
-      <c r="K383" s="40"/>
+      <c r="K383" s="39"/>
     </row>
     <row r="384" spans="1:11">
       <c r="A384" s="3"/>
@@ -7441,7 +7435,7 @@
       <c r="H384" s="3"/>
       <c r="I384" s="3"/>
       <c r="J384" s="3"/>
-      <c r="K384" s="40"/>
+      <c r="K384" s="39"/>
     </row>
     <row r="385" spans="1:11">
       <c r="A385" s="3"/>
@@ -7453,7 +7447,7 @@
       <c r="H385" s="3"/>
       <c r="I385" s="3"/>
       <c r="J385" s="3"/>
-      <c r="K385" s="40"/>
+      <c r="K385" s="39"/>
     </row>
     <row r="386" spans="1:11">
       <c r="A386" s="3"/>
@@ -7465,7 +7459,7 @@
       <c r="H386" s="3"/>
       <c r="I386" s="3"/>
       <c r="J386" s="3"/>
-      <c r="K386" s="40"/>
+      <c r="K386" s="39"/>
     </row>
     <row r="387" spans="1:11">
       <c r="A387" s="3"/>
@@ -7477,7 +7471,7 @@
       <c r="H387" s="3"/>
       <c r="I387" s="3"/>
       <c r="J387" s="3"/>
-      <c r="K387" s="40"/>
+      <c r="K387" s="39"/>
     </row>
     <row r="388" spans="1:11">
       <c r="A388" s="3"/>
@@ -7489,7 +7483,7 @@
       <c r="H388" s="3"/>
       <c r="I388" s="3"/>
       <c r="J388" s="3"/>
-      <c r="K388" s="40"/>
+      <c r="K388" s="39"/>
     </row>
     <row r="389" spans="1:11">
       <c r="A389" s="3"/>
@@ -7501,7 +7495,7 @@
       <c r="H389" s="3"/>
       <c r="I389" s="3"/>
       <c r="J389" s="3"/>
-      <c r="K389" s="40"/>
+      <c r="K389" s="39"/>
     </row>
     <row r="390" spans="1:11">
       <c r="A390" s="3"/>
@@ -7513,7 +7507,7 @@
       <c r="H390" s="3"/>
       <c r="I390" s="3"/>
       <c r="J390" s="3"/>
-      <c r="K390" s="40"/>
+      <c r="K390" s="39"/>
     </row>
     <row r="391" spans="1:11">
       <c r="A391" s="3"/>
@@ -7525,7 +7519,7 @@
       <c r="H391" s="3"/>
       <c r="I391" s="3"/>
       <c r="J391" s="3"/>
-      <c r="K391" s="40"/>
+      <c r="K391" s="39"/>
     </row>
     <row r="392" spans="1:11">
       <c r="A392" s="3"/>
@@ -7537,7 +7531,7 @@
       <c r="H392" s="3"/>
       <c r="I392" s="3"/>
       <c r="J392" s="3"/>
-      <c r="K392" s="40"/>
+      <c r="K392" s="39"/>
     </row>
     <row r="393" spans="1:11">
       <c r="A393" s="3"/>
@@ -7549,7 +7543,7 @@
       <c r="H393" s="3"/>
       <c r="I393" s="3"/>
       <c r="J393" s="3"/>
-      <c r="K393" s="40"/>
+      <c r="K393" s="39"/>
     </row>
     <row r="394" spans="1:11">
       <c r="A394" s="3"/>
@@ -7561,7 +7555,7 @@
       <c r="H394" s="3"/>
       <c r="I394" s="3"/>
       <c r="J394" s="3"/>
-      <c r="K394" s="40"/>
+      <c r="K394" s="39"/>
     </row>
     <row r="395" spans="1:11">
       <c r="A395" s="3"/>
@@ -7573,7 +7567,7 @@
       <c r="H395" s="3"/>
       <c r="I395" s="3"/>
       <c r="J395" s="3"/>
-      <c r="K395" s="40"/>
+      <c r="K395" s="39"/>
     </row>
     <row r="396" spans="1:11">
       <c r="A396" s="3"/>
@@ -7585,7 +7579,7 @@
       <c r="H396" s="3"/>
       <c r="I396" s="3"/>
       <c r="J396" s="3"/>
-      <c r="K396" s="40"/>
+      <c r="K396" s="39"/>
     </row>
     <row r="397" spans="1:11">
       <c r="A397" s="3"/>
@@ -7597,7 +7591,7 @@
       <c r="H397" s="3"/>
       <c r="I397" s="3"/>
       <c r="J397" s="3"/>
-      <c r="K397" s="40"/>
+      <c r="K397" s="39"/>
     </row>
     <row r="398" spans="1:11">
       <c r="A398" s="3"/>
@@ -7609,7 +7603,7 @@
       <c r="H398" s="3"/>
       <c r="I398" s="3"/>
       <c r="J398" s="3"/>
-      <c r="K398" s="40"/>
+      <c r="K398" s="39"/>
     </row>
     <row r="399" spans="1:11">
       <c r="A399" s="3"/>
@@ -7621,7 +7615,7 @@
       <c r="H399" s="3"/>
       <c r="I399" s="3"/>
       <c r="J399" s="3"/>
-      <c r="K399" s="40"/>
+      <c r="K399" s="39"/>
     </row>
     <row r="400" spans="1:11">
       <c r="A400" s="3"/>
@@ -7633,7 +7627,7 @@
       <c r="H400" s="3"/>
       <c r="I400" s="3"/>
       <c r="J400" s="3"/>
-      <c r="K400" s="40"/>
+      <c r="K400" s="39"/>
     </row>
     <row r="401" spans="1:11">
       <c r="A401" s="3"/>
@@ -7645,7 +7639,7 @@
       <c r="H401" s="3"/>
       <c r="I401" s="3"/>
       <c r="J401" s="3"/>
-      <c r="K401" s="40"/>
+      <c r="K401" s="39"/>
     </row>
     <row r="402" spans="1:11">
       <c r="A402" s="3"/>
@@ -7657,7 +7651,7 @@
       <c r="H402" s="3"/>
       <c r="I402" s="3"/>
       <c r="J402" s="3"/>
-      <c r="K402" s="40"/>
+      <c r="K402" s="39"/>
     </row>
     <row r="403" spans="1:11">
       <c r="A403" s="3"/>
@@ -7669,7 +7663,7 @@
       <c r="H403" s="3"/>
       <c r="I403" s="3"/>
       <c r="J403" s="3"/>
-      <c r="K403" s="40"/>
+      <c r="K403" s="39"/>
     </row>
     <row r="404" spans="1:11">
       <c r="A404" s="3"/>
@@ -7681,7 +7675,7 @@
       <c r="H404" s="3"/>
       <c r="I404" s="3"/>
       <c r="J404" s="3"/>
-      <c r="K404" s="40"/>
+      <c r="K404" s="39"/>
     </row>
     <row r="405" spans="1:11">
       <c r="A405" s="3"/>
@@ -7693,7 +7687,7 @@
       <c r="H405" s="3"/>
       <c r="I405" s="3"/>
       <c r="J405" s="3"/>
-      <c r="K405" s="40"/>
+      <c r="K405" s="39"/>
     </row>
     <row r="406" spans="1:11">
       <c r="A406" s="3"/>
@@ -7705,7 +7699,7 @@
       <c r="H406" s="3"/>
       <c r="I406" s="3"/>
       <c r="J406" s="3"/>
-      <c r="K406" s="40"/>
+      <c r="K406" s="39"/>
     </row>
     <row r="407" spans="1:11">
       <c r="A407" s="3"/>
@@ -7717,7 +7711,7 @@
       <c r="H407" s="3"/>
       <c r="I407" s="3"/>
       <c r="J407" s="3"/>
-      <c r="K407" s="40"/>
+      <c r="K407" s="39"/>
     </row>
     <row r="408" spans="1:11">
       <c r="A408" s="3"/>
@@ -7729,7 +7723,7 @@
       <c r="H408" s="3"/>
       <c r="I408" s="3"/>
       <c r="J408" s="3"/>
-      <c r="K408" s="40"/>
+      <c r="K408" s="39"/>
     </row>
     <row r="409" spans="1:11">
       <c r="A409" s="3"/>
@@ -7741,7 +7735,7 @@
       <c r="H409" s="3"/>
       <c r="I409" s="3"/>
       <c r="J409" s="3"/>
-      <c r="K409" s="40"/>
+      <c r="K409" s="39"/>
     </row>
     <row r="410" spans="1:11">
       <c r="A410" s="3"/>
@@ -7753,7 +7747,7 @@
       <c r="H410" s="3"/>
       <c r="I410" s="3"/>
       <c r="J410" s="3"/>
-      <c r="K410" s="40"/>
+      <c r="K410" s="39"/>
     </row>
     <row r="411" spans="1:11">
       <c r="A411" s="3"/>
@@ -7765,7 +7759,7 @@
       <c r="H411" s="3"/>
       <c r="I411" s="3"/>
       <c r="J411" s="3"/>
-      <c r="K411" s="40"/>
+      <c r="K411" s="39"/>
     </row>
     <row r="412" spans="1:11">
       <c r="A412" s="3"/>
@@ -7777,7 +7771,7 @@
       <c r="H412" s="3"/>
       <c r="I412" s="3"/>
       <c r="J412" s="3"/>
-      <c r="K412" s="40"/>
+      <c r="K412" s="39"/>
     </row>
     <row r="413" spans="1:11">
       <c r="A413" s="3"/>
@@ -7789,7 +7783,7 @@
       <c r="H413" s="3"/>
       <c r="I413" s="3"/>
       <c r="J413" s="3"/>
-      <c r="K413" s="40"/>
+      <c r="K413" s="39"/>
     </row>
     <row r="414" spans="1:11">
       <c r="A414" s="3"/>
@@ -7801,7 +7795,7 @@
       <c r="H414" s="3"/>
       <c r="I414" s="3"/>
       <c r="J414" s="3"/>
-      <c r="K414" s="40"/>
+      <c r="K414" s="39"/>
     </row>
     <row r="415" spans="1:11">
       <c r="A415" s="3"/>
@@ -7813,7 +7807,7 @@
       <c r="H415" s="3"/>
       <c r="I415" s="3"/>
       <c r="J415" s="3"/>
-      <c r="K415" s="40"/>
+      <c r="K415" s="39"/>
     </row>
     <row r="416" spans="1:11">
       <c r="A416" s="3"/>
@@ -7825,7 +7819,7 @@
       <c r="H416" s="3"/>
       <c r="I416" s="3"/>
       <c r="J416" s="3"/>
-      <c r="K416" s="40"/>
+      <c r="K416" s="39"/>
     </row>
     <row r="417" spans="1:11">
       <c r="A417" s="3"/>
@@ -7837,7 +7831,7 @@
       <c r="H417" s="3"/>
       <c r="I417" s="3"/>
       <c r="J417" s="3"/>
-      <c r="K417" s="40"/>
+      <c r="K417" s="39"/>
     </row>
     <row r="418" spans="1:11">
       <c r="A418" s="3"/>
@@ -7849,7 +7843,7 @@
       <c r="H418" s="3"/>
       <c r="I418" s="3"/>
       <c r="J418" s="3"/>
-      <c r="K418" s="40"/>
+      <c r="K418" s="39"/>
     </row>
     <row r="419" spans="1:11">
       <c r="A419" s="3"/>
@@ -7861,7 +7855,7 @@
       <c r="H419" s="3"/>
       <c r="I419" s="3"/>
       <c r="J419" s="3"/>
-      <c r="K419" s="40"/>
+      <c r="K419" s="39"/>
     </row>
     <row r="420" spans="1:11">
       <c r="A420" s="3"/>
@@ -7873,7 +7867,7 @@
       <c r="H420" s="3"/>
       <c r="I420" s="3"/>
       <c r="J420" s="3"/>
-      <c r="K420" s="40"/>
+      <c r="K420" s="39"/>
     </row>
     <row r="421" spans="1:11">
       <c r="A421" s="3"/>
@@ -7885,7 +7879,7 @@
       <c r="H421" s="3"/>
       <c r="I421" s="3"/>
       <c r="J421" s="3"/>
-      <c r="K421" s="40"/>
+      <c r="K421" s="39"/>
     </row>
     <row r="422" spans="1:11">
       <c r="A422" s="3"/>
@@ -7897,7 +7891,7 @@
       <c r="H422" s="3"/>
       <c r="I422" s="3"/>
       <c r="J422" s="3"/>
-      <c r="K422" s="40"/>
+      <c r="K422" s="39"/>
     </row>
     <row r="423" spans="1:11">
       <c r="A423" s="3"/>
@@ -7909,7 +7903,7 @@
       <c r="H423" s="3"/>
       <c r="I423" s="3"/>
       <c r="J423" s="3"/>
-      <c r="K423" s="40"/>
+      <c r="K423" s="39"/>
     </row>
     <row r="424" spans="1:11">
       <c r="A424" s="3"/>
@@ -7921,7 +7915,7 @@
       <c r="H424" s="3"/>
       <c r="I424" s="3"/>
       <c r="J424" s="3"/>
-      <c r="K424" s="40"/>
+      <c r="K424" s="39"/>
     </row>
     <row r="425" spans="1:11">
       <c r="A425" s="3"/>
@@ -7933,7 +7927,7 @@
       <c r="H425" s="3"/>
       <c r="I425" s="3"/>
       <c r="J425" s="3"/>
-      <c r="K425" s="40"/>
+      <c r="K425" s="39"/>
     </row>
     <row r="426" spans="1:11">
       <c r="A426" s="3"/>
@@ -7945,7 +7939,7 @@
       <c r="H426" s="3"/>
       <c r="I426" s="3"/>
       <c r="J426" s="3"/>
-      <c r="K426" s="40"/>
+      <c r="K426" s="39"/>
     </row>
     <row r="427" spans="1:11">
       <c r="A427" s="3"/>
@@ -7957,7 +7951,7 @@
       <c r="H427" s="3"/>
       <c r="I427" s="3"/>
       <c r="J427" s="3"/>
-      <c r="K427" s="40"/>
+      <c r="K427" s="39"/>
     </row>
     <row r="428" spans="1:11">
       <c r="A428" s="3"/>
@@ -7969,7 +7963,7 @@
       <c r="H428" s="3"/>
       <c r="I428" s="3"/>
       <c r="J428" s="3"/>
-      <c r="K428" s="40"/>
+      <c r="K428" s="39"/>
     </row>
     <row r="429" spans="1:11">
       <c r="A429" s="3"/>
@@ -7981,7 +7975,7 @@
       <c r="H429" s="3"/>
       <c r="I429" s="3"/>
       <c r="J429" s="3"/>
-      <c r="K429" s="40"/>
+      <c r="K429" s="39"/>
     </row>
     <row r="430" spans="1:11">
       <c r="A430" s="3"/>
@@ -7993,7 +7987,7 @@
       <c r="H430" s="3"/>
       <c r="I430" s="3"/>
       <c r="J430" s="3"/>
-      <c r="K430" s="40"/>
+      <c r="K430" s="39"/>
     </row>
     <row r="431" spans="1:11">
       <c r="A431" s="3"/>
@@ -8005,7 +7999,7 @@
       <c r="H431" s="3"/>
       <c r="I431" s="3"/>
       <c r="J431" s="3"/>
-      <c r="K431" s="40"/>
+      <c r="K431" s="39"/>
     </row>
     <row r="432" spans="1:11">
       <c r="A432" s="3"/>
@@ -8017,7 +8011,7 @@
       <c r="H432" s="3"/>
       <c r="I432" s="3"/>
       <c r="J432" s="3"/>
-      <c r="K432" s="40"/>
+      <c r="K432" s="39"/>
     </row>
     <row r="433" spans="1:11">
       <c r="A433" s="3"/>
@@ -8029,7 +8023,7 @@
       <c r="H433" s="3"/>
       <c r="I433" s="3"/>
       <c r="J433" s="3"/>
-      <c r="K433" s="40"/>
+      <c r="K433" s="39"/>
     </row>
     <row r="434" spans="1:11">
       <c r="A434" s="3"/>
@@ -8041,7 +8035,7 @@
       <c r="H434" s="3"/>
       <c r="I434" s="3"/>
       <c r="J434" s="3"/>
-      <c r="K434" s="40"/>
+      <c r="K434" s="39"/>
     </row>
     <row r="435" spans="1:11">
       <c r="A435" s="3"/>
@@ -8053,7 +8047,7 @@
       <c r="H435" s="3"/>
       <c r="I435" s="3"/>
       <c r="J435" s="3"/>
-      <c r="K435" s="40"/>
+      <c r="K435" s="39"/>
     </row>
     <row r="436" spans="1:11">
       <c r="A436" s="3"/>
@@ -8065,7 +8059,7 @@
       <c r="H436" s="3"/>
       <c r="I436" s="3"/>
       <c r="J436" s="3"/>
-      <c r="K436" s="40"/>
+      <c r="K436" s="39"/>
     </row>
     <row r="437" spans="1:11">
       <c r="A437" s="3"/>
@@ -8077,7 +8071,7 @@
       <c r="H437" s="3"/>
       <c r="I437" s="3"/>
       <c r="J437" s="3"/>
-      <c r="K437" s="40"/>
+      <c r="K437" s="39"/>
     </row>
     <row r="438" spans="1:11">
       <c r="A438" s="3"/>
@@ -8089,7 +8083,7 @@
       <c r="H438" s="3"/>
       <c r="I438" s="3"/>
       <c r="J438" s="3"/>
-      <c r="K438" s="40"/>
+      <c r="K438" s="39"/>
     </row>
     <row r="439" spans="1:11">
       <c r="A439" s="3"/>
@@ -8101,7 +8095,7 @@
       <c r="H439" s="3"/>
       <c r="I439" s="3"/>
       <c r="J439" s="3"/>
-      <c r="K439" s="40"/>
+      <c r="K439" s="39"/>
     </row>
     <row r="440" spans="1:11">
       <c r="A440" s="3"/>
@@ -8113,7 +8107,7 @@
       <c r="H440" s="3"/>
       <c r="I440" s="3"/>
       <c r="J440" s="3"/>
-      <c r="K440" s="40"/>
+      <c r="K440" s="39"/>
     </row>
     <row r="441" spans="1:11">
       <c r="A441" s="3"/>
@@ -8125,7 +8119,7 @@
       <c r="H441" s="3"/>
       <c r="I441" s="3"/>
       <c r="J441" s="3"/>
-      <c r="K441" s="40"/>
+      <c r="K441" s="39"/>
     </row>
     <row r="442" spans="1:11">
       <c r="A442" s="3"/>
@@ -8137,7 +8131,7 @@
       <c r="H442" s="3"/>
       <c r="I442" s="3"/>
       <c r="J442" s="3"/>
-      <c r="K442" s="40"/>
+      <c r="K442" s="39"/>
     </row>
     <row r="443" spans="1:11">
       <c r="A443" s="3"/>
@@ -8149,7 +8143,7 @@
       <c r="H443" s="3"/>
       <c r="I443" s="3"/>
       <c r="J443" s="3"/>
-      <c r="K443" s="40"/>
+      <c r="K443" s="39"/>
     </row>
     <row r="444" spans="1:11">
       <c r="A444" s="3"/>
@@ -8161,7 +8155,7 @@
       <c r="H444" s="3"/>
       <c r="I444" s="3"/>
       <c r="J444" s="3"/>
-      <c r="K444" s="40"/>
+      <c r="K444" s="39"/>
     </row>
     <row r="445" spans="1:11">
       <c r="A445" s="3"/>
@@ -8173,7 +8167,7 @@
       <c r="H445" s="3"/>
       <c r="I445" s="3"/>
       <c r="J445" s="3"/>
-      <c r="K445" s="40"/>
+      <c r="K445" s="39"/>
     </row>
     <row r="446" spans="1:11">
       <c r="A446" s="3"/>
@@ -8185,7 +8179,7 @@
       <c r="H446" s="3"/>
       <c r="I446" s="3"/>
       <c r="J446" s="3"/>
-      <c r="K446" s="40"/>
+      <c r="K446" s="39"/>
     </row>
     <row r="447" spans="1:11">
       <c r="A447" s="3"/>
@@ -8197,7 +8191,7 @@
       <c r="H447" s="3"/>
       <c r="I447" s="3"/>
       <c r="J447" s="3"/>
-      <c r="K447" s="40"/>
+      <c r="K447" s="39"/>
     </row>
     <row r="448" spans="1:11">
       <c r="A448" s="3"/>
@@ -8209,7 +8203,7 @@
       <c r="H448" s="3"/>
       <c r="I448" s="3"/>
       <c r="J448" s="3"/>
-      <c r="K448" s="40"/>
+      <c r="K448" s="39"/>
     </row>
     <row r="449" spans="1:11">
       <c r="A449" s="3"/>
@@ -8221,7 +8215,7 @@
       <c r="H449" s="3"/>
       <c r="I449" s="3"/>
       <c r="J449" s="3"/>
-      <c r="K449" s="40"/>
+      <c r="K449" s="39"/>
     </row>
     <row r="450" spans="1:11">
       <c r="A450" s="3"/>
@@ -8233,7 +8227,7 @@
       <c r="H450" s="3"/>
       <c r="I450" s="3"/>
       <c r="J450" s="3"/>
-      <c r="K450" s="40"/>
+      <c r="K450" s="39"/>
     </row>
     <row r="451" spans="1:11">
       <c r="A451" s="3"/>
@@ -8245,7 +8239,7 @@
       <c r="H451" s="3"/>
       <c r="I451" s="3"/>
       <c r="J451" s="3"/>
-      <c r="K451" s="40"/>
+      <c r="K451" s="39"/>
     </row>
     <row r="452" spans="1:11">
       <c r="A452" s="3"/>
@@ -8257,7 +8251,7 @@
       <c r="H452" s="3"/>
       <c r="I452" s="3"/>
       <c r="J452" s="3"/>
-      <c r="K452" s="40"/>
+      <c r="K452" s="39"/>
     </row>
     <row r="453" spans="1:11">
       <c r="A453" s="3"/>
@@ -8269,7 +8263,7 @@
       <c r="H453" s="3"/>
       <c r="I453" s="3"/>
       <c r="J453" s="3"/>
-      <c r="K453" s="40"/>
+      <c r="K453" s="39"/>
     </row>
     <row r="454" spans="1:11">
       <c r="A454" s="3"/>
@@ -8281,7 +8275,7 @@
       <c r="H454" s="3"/>
       <c r="I454" s="3"/>
       <c r="J454" s="3"/>
-      <c r="K454" s="40"/>
+      <c r="K454" s="39"/>
     </row>
     <row r="455" spans="1:11">
       <c r="A455" s="3"/>
@@ -8293,7 +8287,7 @@
       <c r="H455" s="3"/>
       <c r="I455" s="3"/>
       <c r="J455" s="3"/>
-      <c r="K455" s="40"/>
+      <c r="K455" s="39"/>
     </row>
     <row r="456" spans="1:11">
       <c r="A456" s="3"/>
@@ -8305,7 +8299,7 @@
       <c r="H456" s="3"/>
       <c r="I456" s="3"/>
       <c r="J456" s="3"/>
-      <c r="K456" s="40"/>
+      <c r="K456" s="39"/>
     </row>
     <row r="457" spans="1:11">
       <c r="A457" s="3"/>
@@ -8317,7 +8311,7 @@
       <c r="H457" s="3"/>
       <c r="I457" s="3"/>
       <c r="J457" s="3"/>
-      <c r="K457" s="40"/>
+      <c r="K457" s="39"/>
     </row>
     <row r="458" spans="1:11">
       <c r="A458" s="3"/>
@@ -8329,7 +8323,7 @@
       <c r="H458" s="3"/>
       <c r="I458" s="3"/>
       <c r="J458" s="3"/>
-      <c r="K458" s="40"/>
+      <c r="K458" s="39"/>
     </row>
     <row r="459" spans="1:11">
       <c r="A459" s="3"/>
@@ -8341,7 +8335,7 @@
       <c r="H459" s="3"/>
       <c r="I459" s="3"/>
       <c r="J459" s="3"/>
-      <c r="K459" s="40"/>
+      <c r="K459" s="39"/>
     </row>
     <row r="460" spans="1:11">
       <c r="A460" s="3"/>
@@ -8353,7 +8347,7 @@
       <c r="H460" s="3"/>
       <c r="I460" s="3"/>
       <c r="J460" s="3"/>
-      <c r="K460" s="40"/>
+      <c r="K460" s="39"/>
     </row>
     <row r="461" spans="1:11">
       <c r="A461" s="3"/>
@@ -8365,7 +8359,7 @@
       <c r="H461" s="3"/>
       <c r="I461" s="3"/>
       <c r="J461" s="3"/>
-      <c r="K461" s="40"/>
+      <c r="K461" s="39"/>
     </row>
     <row r="462" spans="1:11">
       <c r="A462" s="3"/>
@@ -8377,7 +8371,7 @@
       <c r="H462" s="3"/>
       <c r="I462" s="3"/>
       <c r="J462" s="3"/>
-      <c r="K462" s="40"/>
+      <c r="K462" s="39"/>
     </row>
     <row r="463" spans="1:11">
       <c r="A463" s="3"/>
@@ -8389,7 +8383,7 @@
       <c r="H463" s="3"/>
       <c r="I463" s="3"/>
       <c r="J463" s="3"/>
-      <c r="K463" s="40"/>
+      <c r="K463" s="39"/>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="3"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
@@ -2216,7 +2216,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
+      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -2487,7 +2487,9 @@
         <f t="shared" si="3"/>
         <v>0.109341500765697</v>
       </c>
-      <c r="M4" s="43"/>
+      <c r="M4" s="43" t="s">
+        <v>17</v>
+      </c>
       <c r="N4" s="41"/>
       <c r="O4" s="41"/>
       <c r="P4" s="41"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
@@ -148,11 +148,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -254,7 +254,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,13 +262,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,19 +275,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -305,8 +297,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,16 +359,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,48 +382,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -429,7 +429,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,7 +459,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,163 +609,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,6 +654,54 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -662,9 +710,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,21 +735,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -713,188 +748,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2213,10 +2213,10 @@
   <sheetPr/>
   <dimension ref="A1:BA543"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -2591,14 +2591,14 @@
         <v>143.8</v>
       </c>
       <c r="F6" s="29">
-        <v>135.13</v>
+        <v>137.88</v>
       </c>
       <c r="G6" s="29">
         <v>158.48</v>
       </c>
       <c r="H6" s="32">
         <f t="shared" si="0"/>
-        <v>867.000000000002</v>
+        <v>592.000000000002</v>
       </c>
       <c r="I6" s="32">
         <f t="shared" ref="I6:I11" si="4">FLOOR(1000/(E6-F6),100)</f>
@@ -2606,11 +2606,11 @@
       </c>
       <c r="J6" s="35">
         <f t="shared" si="1"/>
-        <v>1.69319492502883</v>
+        <v>2.47972972972972</v>
       </c>
       <c r="K6" s="36">
         <f t="shared" si="2"/>
-        <v>0.0602920723226705</v>
+        <v>0.0411682892906816</v>
       </c>
       <c r="L6" s="37">
         <f t="shared" si="3"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
@@ -2216,7 +2216,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
@@ -2216,7 +2216,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="11360"/>
+    <workbookView windowWidth="19940" windowHeight="11360"/>
   </bookViews>
   <sheets>
     <sheet name="交易计划及执行表" sheetId="7" r:id="rId1"/>
@@ -2216,7 +2216,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19940" windowHeight="11360"/>
+    <workbookView windowWidth="26500" windowHeight="11360"/>
   </bookViews>
   <sheets>
     <sheet name="交易计划及执行表" sheetId="7" r:id="rId1"/>
@@ -148,11 +148,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -254,6 +254,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -275,18 +282,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -294,6 +294,13 @@
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -313,20 +320,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,17 +328,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,9 +358,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,25 +388,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -441,19 +441,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,25 +471,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,103 +507,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,6 +526,90 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,8 +654,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,15 +689,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,20 +710,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,114 +748,99 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -849,52 +849,52 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2216,7 +2216,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
@@ -148,11 +148,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -274,17 +274,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,8 +288,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,6 +314,22 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -322,7 +346,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,23 +374,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,33 +389,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -435,12 +435,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -453,7 +447,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,7 +471,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,25 +513,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,43 +561,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,49 +579,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,16 +679,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,32 +708,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -748,147 +722,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2216,7 +2216,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>计划编码</t>
   </si>
@@ -140,6 +140,9 @@
     <t>JH_00010</t>
   </si>
   <si>
+    <t>JH_00011</t>
+  </si>
+  <si>
     <t>000069</t>
   </si>
 </sst>
@@ -148,11 +151,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -254,14 +257,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,13 +273,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,31 +286,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -329,16 +310,67 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,21 +385,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,21 +396,6 @@
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -435,7 +438,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,7 +450,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,37 +474,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,13 +510,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,7 +528,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,79 +612,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,33 +654,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -708,6 +684,48 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -733,168 +751,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2216,7 +2219,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -2859,7 +2862,7 @@
         <v>40</v>
       </c>
       <c r="B12" s="16">
-        <v>44539</v>
+        <v>44542</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="26"/>
@@ -2874,8 +2877,12 @@
       <c r="M12" s="43"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:13">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27"/>
+      <c r="A13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="27">
+        <v>44542</v>
+      </c>
       <c r="C13" s="25"/>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
@@ -3370,7 +3377,7 @@
     </row>
     <row r="46" ht="13" spans="1:13">
       <c r="A46" s="48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B46" s="29"/>
       <c r="D46" s="3"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>计划编码</t>
   </si>
@@ -91,7 +91,8 @@
     <t>森特股份</t>
   </si>
   <si>
-    <t>执行中</t>
+    <t>执行失败
+(股票向反向突破，趋势发生变化，不再满足执行条件)</t>
   </si>
   <si>
     <t>JH_00004</t>
@@ -100,14 +101,13 @@
     <t>水井坊</t>
   </si>
   <si>
+    <t>执行中</t>
+  </si>
+  <si>
     <t>JH_00005</t>
   </si>
   <si>
     <t>新奥股份</t>
-  </si>
-  <si>
-    <t>执行失败
-(股票向反向突破，趋势发生变化，不再满足执行条件)</t>
   </si>
   <si>
     <t>JH_00006</t>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>JH_00010</t>
+  </si>
+  <si>
+    <t>维远股份</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>JH_00011</t>
@@ -980,12 +986,15 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1031,14 +1040,11 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2219,7 +2225,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -2269,22 +2275,22 @@
       <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="M1" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
       <c r="V1" s="46"/>
       <c r="W1" s="46"/>
       <c r="X1" s="46"/>
@@ -2320,22 +2326,22 @@
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
       <c r="V2" s="46"/>
       <c r="W2" s="46"/>
       <c r="X2" s="46"/>
@@ -2379,45 +2385,45 @@
       <c r="D3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="33">
         <v>34.12</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="33">
         <v>32.53</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="33">
         <v>39.33</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="33">
         <f t="shared" ref="H3:H11" si="0">(E3-F3)*100</f>
         <v>159</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="33">
         <f>FLOOR(1000/(E3-F3),100)</f>
         <v>600</v>
       </c>
-      <c r="J3" s="35">
+      <c r="J3" s="36">
         <f t="shared" ref="J3:J11" si="1">(G3-E3)/(E3-F3)</f>
         <v>3.27672955974844</v>
       </c>
-      <c r="K3" s="36">
+      <c r="K3" s="37">
         <f t="shared" ref="K3:K11" si="2">(E3-F3)/E3</f>
         <v>0.0466002344665884</v>
       </c>
-      <c r="L3" s="37">
+      <c r="L3" s="38">
         <f t="shared" ref="L3:L11" si="3">(G3-E3)/E3</f>
         <v>0.152696365767878</v>
       </c>
-      <c r="M3" s="43" t="s">
+      <c r="M3" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
       <c r="V3" s="46"/>
       <c r="W3" s="46"/>
       <c r="X3" s="46"/>
@@ -2461,45 +2467,45 @@
       <c r="D4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="33">
         <v>32.65</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="33">
         <v>30.89</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="33">
         <v>36.22</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="33">
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-      <c r="I4" s="32">
+      <c r="I4" s="33">
         <f>FLOOR(1000/(E4-F4),100)</f>
         <v>500</v>
       </c>
-      <c r="J4" s="35">
+      <c r="J4" s="36">
         <f t="shared" si="1"/>
         <v>2.02840909090909</v>
       </c>
-      <c r="K4" s="36">
+      <c r="K4" s="37">
         <f t="shared" si="2"/>
         <v>0.0539050535987748</v>
       </c>
-      <c r="L4" s="37">
+      <c r="L4" s="38">
         <f t="shared" si="3"/>
         <v>0.109341500765697</v>
       </c>
-      <c r="M4" s="43" t="s">
+      <c r="M4" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
       <c r="V4" s="46"/>
       <c r="W4" s="46"/>
       <c r="X4" s="46"/>
@@ -2530,7 +2536,7 @@
       <c r="AZ4" s="46"/>
       <c r="BA4" s="46"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="13" spans="1:14">
+    <row r="5" s="1" customFormat="1" ht="36" spans="1:14">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -2543,39 +2549,39 @@
       <c r="D5" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="33">
         <v>51.15</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="33">
         <v>46.61</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="33">
         <v>59.59</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="33">
         <f t="shared" si="0"/>
         <v>454</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="33">
         <f>FLOOR(1000/(E5-F5),100)</f>
         <v>200</v>
       </c>
-      <c r="J5" s="35">
+      <c r="J5" s="36">
         <f t="shared" si="1"/>
         <v>1.85903083700441</v>
       </c>
-      <c r="K5" s="36">
+      <c r="K5" s="37">
         <f t="shared" si="2"/>
         <v>0.0887585532746823</v>
       </c>
-      <c r="L5" s="37">
+      <c r="L5" s="38">
         <f t="shared" si="3"/>
         <v>0.165004887585533</v>
       </c>
-      <c r="M5" s="43" t="s">
+      <c r="M5" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="44"/>
+      <c r="N5" s="45"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:14">
       <c r="A6" s="11" t="s">
@@ -2590,43 +2596,43 @@
       <c r="D6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="30">
         <v>143.8</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="30">
         <v>137.88</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="30">
         <v>158.48</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="33">
         <f t="shared" si="0"/>
         <v>592.000000000002</v>
       </c>
-      <c r="I6" s="32">
+      <c r="I6" s="33">
         <f t="shared" ref="I6:I11" si="4">FLOOR(1000/(E6-F6),100)</f>
         <v>100</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6" s="36">
         <f t="shared" si="1"/>
         <v>2.47972972972972</v>
       </c>
-      <c r="K6" s="36">
+      <c r="K6" s="37">
         <f t="shared" si="2"/>
         <v>0.0411682892906816</v>
       </c>
-      <c r="L6" s="37">
+      <c r="L6" s="38">
         <f t="shared" si="3"/>
         <v>0.102086230876217</v>
       </c>
-      <c r="M6" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" s="44"/>
+      <c r="M6" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="45"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="36" spans="1:14">
       <c r="A7" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" s="16">
         <v>44539</v>
@@ -2635,41 +2641,41 @@
         <v>600803</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="29">
+        <v>30</v>
+      </c>
+      <c r="E7" s="30">
         <v>20.44</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="30">
         <v>19.09</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="30">
         <v>23.43</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="33">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7" s="33">
         <f t="shared" si="4"/>
         <v>700</v>
       </c>
-      <c r="J7" s="35">
+      <c r="J7" s="36">
         <f t="shared" si="1"/>
         <v>2.21481481481481</v>
       </c>
-      <c r="K7" s="36">
+      <c r="K7" s="37">
         <f t="shared" si="2"/>
         <v>0.0660469667318983</v>
       </c>
-      <c r="L7" s="37">
+      <c r="L7" s="38">
         <f t="shared" si="3"/>
         <v>0.146281800391389</v>
       </c>
-      <c r="M7" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" s="44"/>
+      <c r="M7" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="45"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:14">
       <c r="A8" s="11" t="s">
@@ -2684,39 +2690,39 @@
       <c r="D8" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="28">
         <v>17.19</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="28">
         <v>15.5</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="28">
         <v>20.72</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="33">
         <f t="shared" si="0"/>
         <v>169</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8" s="33">
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="J8" s="35">
+      <c r="J8" s="36">
         <f t="shared" si="1"/>
         <v>2.0887573964497</v>
       </c>
-      <c r="K8" s="36">
+      <c r="K8" s="37">
         <f t="shared" si="2"/>
         <v>0.0983129726585225</v>
       </c>
-      <c r="L8" s="37">
+      <c r="L8" s="38">
         <f t="shared" si="3"/>
         <v>0.205351948807446</v>
       </c>
-      <c r="M8" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8" s="44"/>
+      <c r="M8" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="45"/>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:13">
       <c r="A9" s="11" t="s">
@@ -2731,37 +2737,37 @@
       <c r="D9" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="28">
         <v>64.3</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="28">
         <v>58.51</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="28">
         <v>65.72</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="33">
         <f t="shared" si="0"/>
         <v>579</v>
       </c>
-      <c r="I9" s="32">
+      <c r="I9" s="33">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="36">
         <f t="shared" si="1"/>
         <v>0.24525043177893</v>
       </c>
-      <c r="K9" s="36">
+      <c r="K9" s="37">
         <f t="shared" si="2"/>
         <v>0.0900466562986003</v>
       </c>
-      <c r="L9" s="37">
+      <c r="L9" s="38">
         <f t="shared" si="3"/>
         <v>0.0220839813374806</v>
       </c>
-      <c r="M9" s="43" t="s">
-        <v>25</v>
+      <c r="M9" s="26" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:13">
@@ -2777,37 +2783,37 @@
       <c r="D10" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="28">
         <v>39.15</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="28">
         <v>35.91</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="28">
         <v>44.28</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="33">
         <f t="shared" si="0"/>
         <v>324</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="33">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J10" s="36">
         <f t="shared" si="1"/>
         <v>1.58333333333333</v>
       </c>
-      <c r="K10" s="36">
+      <c r="K10" s="37">
         <f t="shared" si="2"/>
         <v>0.0827586206896552</v>
       </c>
-      <c r="L10" s="37">
+      <c r="L10" s="38">
         <f t="shared" si="3"/>
         <v>0.131034482758621</v>
       </c>
-      <c r="M10" s="43" t="s">
-        <v>25</v>
+      <c r="M10" s="26" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="13" spans="1:14">
@@ -2823,563 +2829,588 @@
       <c r="D11" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="28">
         <v>117.8</v>
       </c>
-      <c r="F11" s="26">
-        <v>110.4</v>
-      </c>
-      <c r="G11" s="26">
+      <c r="F11" s="28">
+        <v>111.17</v>
+      </c>
+      <c r="G11" s="28">
         <v>131.73</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="33">
         <f t="shared" si="0"/>
-        <v>739.999999999999</v>
-      </c>
-      <c r="I11" s="32">
+        <v>663</v>
+      </c>
+      <c r="I11" s="33">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J11" s="35">
+      <c r="J11" s="36">
         <f t="shared" si="1"/>
-        <v>1.88243243243243</v>
-      </c>
-      <c r="K11" s="36">
+        <v>2.10105580693816</v>
+      </c>
+      <c r="K11" s="37">
         <f t="shared" si="2"/>
-        <v>0.062818336162988</v>
-      </c>
-      <c r="L11" s="37">
+        <v>0.0562818336162988</v>
+      </c>
+      <c r="L11" s="38">
         <f t="shared" si="3"/>
         <v>0.118251273344652</v>
       </c>
-      <c r="M11" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="N11" s="44"/>
-    </row>
-    <row r="12" s="2" customFormat="1" spans="1:13">
+      <c r="M11" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="45"/>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="13" spans="1:13">
       <c r="A12" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="16">
         <v>44542</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="43"/>
+      <c r="C12" s="25">
+        <v>600955</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="28">
+        <v>49.4</v>
+      </c>
+      <c r="F12" s="28">
+        <v>46.7</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="33">
+        <f>(E12-F12)*100</f>
+        <v>270</v>
+      </c>
+      <c r="I12" s="33">
+        <f>FLOOR(1000/(E12-F12),100)</f>
+        <v>300</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="37">
+        <f>(E12-F12)/E12</f>
+        <v>0.054655870445344</v>
+      </c>
+      <c r="L12" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:13">
       <c r="A13" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B13" s="27">
         <v>44542</v>
       </c>
       <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="43"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="26"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:13">
-      <c r="A14" s="26"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="27"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="43"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="26"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:13">
-      <c r="A15" s="26"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="27"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="43"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="26"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:13">
-      <c r="A16" s="26"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="27"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="43"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="26"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:13">
-      <c r="A17" s="26"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="27"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="43"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="26"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:13">
-      <c r="A18" s="26"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="27"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="43"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="26"/>
     </row>
     <row r="19" s="2" customFormat="1" spans="1:13">
-      <c r="A19" s="26"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="27"/>
       <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="43"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="26"/>
     </row>
     <row r="20" s="2" customFormat="1" spans="1:13">
-      <c r="A20" s="26"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="27"/>
       <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="43"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="26"/>
     </row>
     <row r="21" s="2" customFormat="1" spans="1:13">
-      <c r="A21" s="26"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="27"/>
       <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="43"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="26"/>
     </row>
     <row r="22" s="2" customFormat="1" spans="1:13">
-      <c r="A22" s="26"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="27"/>
       <c r="C22" s="25"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="43"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="26"/>
     </row>
     <row r="23" s="2" customFormat="1" spans="1:13">
-      <c r="A23" s="26"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="27"/>
       <c r="C23" s="25"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="26"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="28"/>
     </row>
     <row r="24" s="2" customFormat="1" spans="1:13">
-      <c r="A24" s="26"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="27"/>
       <c r="C24" s="25"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="26"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="28"/>
     </row>
     <row r="25" s="2" customFormat="1" spans="1:13">
-      <c r="A25" s="26"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="27"/>
       <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="26"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="28"/>
     </row>
     <row r="26" s="2" customFormat="1" spans="1:13">
-      <c r="A26" s="26"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="27"/>
       <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="26"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="28"/>
     </row>
     <row r="27" s="2" customFormat="1" spans="1:13">
-      <c r="A27" s="26"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="27"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="43"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="26"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="29"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="27"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="43"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="26"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="29"/>
+      <c r="A29" s="30"/>
       <c r="B29" s="27"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="29"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="30"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="29"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="30"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="29"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="30"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="29"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="30"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="29"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="30"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="29"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="30"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="29"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="30"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="29"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="30"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="29"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="29"/>
+      <c r="A37" s="30"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="30"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="29"/>
+      <c r="A38" s="30"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="30"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="29"/>
+      <c r="A39" s="30"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="30"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="29"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="30"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="29"/>
+      <c r="A41" s="30"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="30"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="29"/>
+      <c r="A42" s="30"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="30"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="29"/>
+      <c r="A43" s="30"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="30"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="36"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="29"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="30"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="29"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="36"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="29"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="30"/>
     </row>
     <row r="46" ht="13" spans="1:13">
       <c r="A46" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="29"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="30"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -3387,8 +3418,8 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
-      <c r="K46" s="39"/>
-      <c r="M46" s="29"/>
+      <c r="K46" s="40"/>
+      <c r="M46" s="30"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="3"/>
@@ -3400,7 +3431,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
-      <c r="K47" s="39"/>
+      <c r="K47" s="40"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="3"/>
@@ -3412,7 +3443,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
-      <c r="K48" s="39"/>
+      <c r="K48" s="40"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="3"/>
@@ -3424,7 +3455,7 @@
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
-      <c r="K49" s="39"/>
+      <c r="K49" s="40"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="3"/>
@@ -3436,7 +3467,7 @@
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
-      <c r="K50" s="39"/>
+      <c r="K50" s="40"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="3"/>
@@ -3448,7 +3479,7 @@
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
-      <c r="K51" s="39"/>
+      <c r="K51" s="40"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="3"/>
@@ -3460,7 +3491,7 @@
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
-      <c r="K52" s="39"/>
+      <c r="K52" s="40"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="3"/>
@@ -3472,7 +3503,7 @@
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
-      <c r="K53" s="39"/>
+      <c r="K53" s="40"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="3"/>
@@ -3484,7 +3515,7 @@
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
-      <c r="K54" s="39"/>
+      <c r="K54" s="40"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="3"/>
@@ -3496,7 +3527,7 @@
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
-      <c r="K55" s="39"/>
+      <c r="K55" s="40"/>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="3"/>
@@ -3508,7 +3539,7 @@
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
-      <c r="K56" s="39"/>
+      <c r="K56" s="40"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="3"/>
@@ -3520,7 +3551,7 @@
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
-      <c r="K57" s="39"/>
+      <c r="K57" s="40"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="3"/>
@@ -3532,7 +3563,7 @@
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
-      <c r="K58" s="39"/>
+      <c r="K58" s="40"/>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="3"/>
@@ -3544,7 +3575,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
-      <c r="K59" s="39"/>
+      <c r="K59" s="40"/>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="3"/>
@@ -3556,7 +3587,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
-      <c r="K60" s="39"/>
+      <c r="K60" s="40"/>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="3"/>
@@ -3568,7 +3599,7 @@
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
-      <c r="K61" s="39"/>
+      <c r="K61" s="40"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="3"/>
@@ -3580,7 +3611,7 @@
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
-      <c r="K62" s="39"/>
+      <c r="K62" s="40"/>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="3"/>
@@ -3592,7 +3623,7 @@
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
-      <c r="K63" s="39"/>
+      <c r="K63" s="40"/>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="3"/>
@@ -3604,7 +3635,7 @@
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
-      <c r="K64" s="39"/>
+      <c r="K64" s="40"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="3"/>
@@ -3616,7 +3647,7 @@
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
-      <c r="K65" s="39"/>
+      <c r="K65" s="40"/>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="3"/>
@@ -3628,7 +3659,7 @@
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
-      <c r="K66" s="39"/>
+      <c r="K66" s="40"/>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="3"/>
@@ -3640,7 +3671,7 @@
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
-      <c r="K67" s="39"/>
+      <c r="K67" s="40"/>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="3"/>
@@ -3652,7 +3683,7 @@
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
-      <c r="K68" s="39"/>
+      <c r="K68" s="40"/>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="3"/>
@@ -3664,7 +3695,7 @@
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
-      <c r="K69" s="39"/>
+      <c r="K69" s="40"/>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="3"/>
@@ -3676,7 +3707,7 @@
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
-      <c r="K70" s="39"/>
+      <c r="K70" s="40"/>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="3"/>
@@ -3688,7 +3719,7 @@
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
-      <c r="K71" s="39"/>
+      <c r="K71" s="40"/>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="3"/>
@@ -3700,7 +3731,7 @@
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
-      <c r="K72" s="39"/>
+      <c r="K72" s="40"/>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="3"/>
@@ -3712,7 +3743,7 @@
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
-      <c r="K73" s="39"/>
+      <c r="K73" s="40"/>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="3"/>
@@ -3724,7 +3755,7 @@
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
-      <c r="K74" s="39"/>
+      <c r="K74" s="40"/>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="3"/>
@@ -3736,7 +3767,7 @@
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
-      <c r="K75" s="39"/>
+      <c r="K75" s="40"/>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="3"/>
@@ -3748,7 +3779,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
-      <c r="K76" s="39"/>
+      <c r="K76" s="40"/>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="3"/>
@@ -3760,7 +3791,7 @@
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
-      <c r="K77" s="39"/>
+      <c r="K77" s="40"/>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="3"/>
@@ -3772,7 +3803,7 @@
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
-      <c r="K78" s="39"/>
+      <c r="K78" s="40"/>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="3"/>
@@ -3784,7 +3815,7 @@
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
-      <c r="K79" s="39"/>
+      <c r="K79" s="40"/>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="3"/>
@@ -3796,7 +3827,7 @@
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
-      <c r="K80" s="39"/>
+      <c r="K80" s="40"/>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="3"/>
@@ -3808,7 +3839,7 @@
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
-      <c r="K81" s="39"/>
+      <c r="K81" s="40"/>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="3"/>
@@ -3820,7 +3851,7 @@
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
-      <c r="K82" s="39"/>
+      <c r="K82" s="40"/>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="3"/>
@@ -3832,7 +3863,7 @@
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
-      <c r="K83" s="39"/>
+      <c r="K83" s="40"/>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="3"/>
@@ -3844,7 +3875,7 @@
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
-      <c r="K84" s="39"/>
+      <c r="K84" s="40"/>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="3"/>
@@ -3856,7 +3887,7 @@
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
-      <c r="K85" s="39"/>
+      <c r="K85" s="40"/>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="3"/>
@@ -3868,7 +3899,7 @@
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
-      <c r="K86" s="39"/>
+      <c r="K86" s="40"/>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="3"/>
@@ -3880,7 +3911,7 @@
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
-      <c r="K87" s="39"/>
+      <c r="K87" s="40"/>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="3"/>
@@ -3892,7 +3923,7 @@
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
-      <c r="K88" s="39"/>
+      <c r="K88" s="40"/>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="3"/>
@@ -3904,7 +3935,7 @@
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
-      <c r="K89" s="39"/>
+      <c r="K89" s="40"/>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="3"/>
@@ -3916,7 +3947,7 @@
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
-      <c r="K90" s="39"/>
+      <c r="K90" s="40"/>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="3"/>
@@ -3928,7 +3959,7 @@
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
-      <c r="K91" s="39"/>
+      <c r="K91" s="40"/>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="3"/>
@@ -3940,7 +3971,7 @@
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
-      <c r="K92" s="39"/>
+      <c r="K92" s="40"/>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="3"/>
@@ -3952,7 +3983,7 @@
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
-      <c r="K93" s="39"/>
+      <c r="K93" s="40"/>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="3"/>
@@ -3964,7 +3995,7 @@
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
-      <c r="K94" s="39"/>
+      <c r="K94" s="40"/>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="3"/>
@@ -3976,7 +4007,7 @@
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
-      <c r="K95" s="39"/>
+      <c r="K95" s="40"/>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="3"/>
@@ -3988,7 +4019,7 @@
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
-      <c r="K96" s="39"/>
+      <c r="K96" s="40"/>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="3"/>
@@ -4000,7 +4031,7 @@
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
-      <c r="K97" s="39"/>
+      <c r="K97" s="40"/>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="3"/>
@@ -4012,7 +4043,7 @@
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
-      <c r="K98" s="39"/>
+      <c r="K98" s="40"/>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="3"/>
@@ -4024,7 +4055,7 @@
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
-      <c r="K99" s="39"/>
+      <c r="K99" s="40"/>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="3"/>
@@ -4036,7 +4067,7 @@
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
-      <c r="K100" s="39"/>
+      <c r="K100" s="40"/>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="3"/>
@@ -4048,7 +4079,7 @@
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
-      <c r="K101" s="39"/>
+      <c r="K101" s="40"/>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="3"/>
@@ -4060,7 +4091,7 @@
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
-      <c r="K102" s="39"/>
+      <c r="K102" s="40"/>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="3"/>
@@ -4072,7 +4103,7 @@
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
-      <c r="K103" s="39"/>
+      <c r="K103" s="40"/>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="3"/>
@@ -4084,7 +4115,7 @@
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
-      <c r="K104" s="39"/>
+      <c r="K104" s="40"/>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="3"/>
@@ -4096,7 +4127,7 @@
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
-      <c r="K105" s="39"/>
+      <c r="K105" s="40"/>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="3"/>
@@ -4108,7 +4139,7 @@
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
-      <c r="K106" s="39"/>
+      <c r="K106" s="40"/>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="3"/>
@@ -4120,7 +4151,7 @@
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
-      <c r="K107" s="39"/>
+      <c r="K107" s="40"/>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="3"/>
@@ -4132,7 +4163,7 @@
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
-      <c r="K108" s="39"/>
+      <c r="K108" s="40"/>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="3"/>
@@ -4144,7 +4175,7 @@
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
-      <c r="K109" s="39"/>
+      <c r="K109" s="40"/>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="3"/>
@@ -4156,7 +4187,7 @@
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
-      <c r="K110" s="39"/>
+      <c r="K110" s="40"/>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="3"/>
@@ -4168,7 +4199,7 @@
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
-      <c r="K111" s="39"/>
+      <c r="K111" s="40"/>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="3"/>
@@ -4180,7 +4211,7 @@
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
-      <c r="K112" s="39"/>
+      <c r="K112" s="40"/>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="3"/>
@@ -4192,7 +4223,7 @@
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
-      <c r="K113" s="39"/>
+      <c r="K113" s="40"/>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="3"/>
@@ -4204,7 +4235,7 @@
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
-      <c r="K114" s="39"/>
+      <c r="K114" s="40"/>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="3"/>
@@ -4216,7 +4247,7 @@
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
-      <c r="K115" s="39"/>
+      <c r="K115" s="40"/>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="3"/>
@@ -4228,7 +4259,7 @@
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
-      <c r="K116" s="39"/>
+      <c r="K116" s="40"/>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="3"/>
@@ -4240,7 +4271,7 @@
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
-      <c r="K117" s="39"/>
+      <c r="K117" s="40"/>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="3"/>
@@ -4252,7 +4283,7 @@
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
-      <c r="K118" s="39"/>
+      <c r="K118" s="40"/>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="3"/>
@@ -4264,7 +4295,7 @@
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
-      <c r="K119" s="39"/>
+      <c r="K119" s="40"/>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="3"/>
@@ -4276,7 +4307,7 @@
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
-      <c r="K120" s="39"/>
+      <c r="K120" s="40"/>
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="3"/>
@@ -4288,7 +4319,7 @@
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
-      <c r="K121" s="39"/>
+      <c r="K121" s="40"/>
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="3"/>
@@ -4300,7 +4331,7 @@
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
-      <c r="K122" s="39"/>
+      <c r="K122" s="40"/>
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="3"/>
@@ -4312,7 +4343,7 @@
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
-      <c r="K123" s="39"/>
+      <c r="K123" s="40"/>
     </row>
     <row r="124" spans="1:11">
       <c r="A124" s="3"/>
@@ -4324,7 +4355,7 @@
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
-      <c r="K124" s="39"/>
+      <c r="K124" s="40"/>
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="3"/>
@@ -4336,7 +4367,7 @@
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
-      <c r="K125" s="39"/>
+      <c r="K125" s="40"/>
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="3"/>
@@ -4348,7 +4379,7 @@
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
-      <c r="K126" s="39"/>
+      <c r="K126" s="40"/>
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="3"/>
@@ -4360,7 +4391,7 @@
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
-      <c r="K127" s="39"/>
+      <c r="K127" s="40"/>
     </row>
     <row r="128" spans="1:11">
       <c r="A128" s="3"/>
@@ -4372,7 +4403,7 @@
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
-      <c r="K128" s="39"/>
+      <c r="K128" s="40"/>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="3"/>
@@ -4384,7 +4415,7 @@
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
-      <c r="K129" s="39"/>
+      <c r="K129" s="40"/>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="3"/>
@@ -4396,7 +4427,7 @@
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
-      <c r="K130" s="39"/>
+      <c r="K130" s="40"/>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="3"/>
@@ -4408,7 +4439,7 @@
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
-      <c r="K131" s="39"/>
+      <c r="K131" s="40"/>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="3"/>
@@ -4420,7 +4451,7 @@
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
-      <c r="K132" s="39"/>
+      <c r="K132" s="40"/>
     </row>
     <row r="133" spans="1:11">
       <c r="A133" s="3"/>
@@ -4432,7 +4463,7 @@
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
-      <c r="K133" s="39"/>
+      <c r="K133" s="40"/>
     </row>
     <row r="134" spans="1:11">
       <c r="A134" s="3"/>
@@ -4444,7 +4475,7 @@
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
-      <c r="K134" s="39"/>
+      <c r="K134" s="40"/>
     </row>
     <row r="135" spans="1:11">
       <c r="A135" s="3"/>
@@ -4456,7 +4487,7 @@
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
-      <c r="K135" s="39"/>
+      <c r="K135" s="40"/>
     </row>
     <row r="136" spans="1:11">
       <c r="A136" s="3"/>
@@ -4468,7 +4499,7 @@
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
-      <c r="K136" s="39"/>
+      <c r="K136" s="40"/>
     </row>
     <row r="137" spans="1:11">
       <c r="A137" s="3"/>
@@ -4480,7 +4511,7 @@
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
-      <c r="K137" s="39"/>
+      <c r="K137" s="40"/>
     </row>
     <row r="138" spans="1:11">
       <c r="A138" s="3"/>
@@ -4492,7 +4523,7 @@
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
-      <c r="K138" s="39"/>
+      <c r="K138" s="40"/>
     </row>
     <row r="139" spans="1:11">
       <c r="A139" s="3"/>
@@ -4504,7 +4535,7 @@
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
-      <c r="K139" s="39"/>
+      <c r="K139" s="40"/>
     </row>
     <row r="140" spans="1:11">
       <c r="A140" s="3"/>
@@ -4516,7 +4547,7 @@
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
-      <c r="K140" s="39"/>
+      <c r="K140" s="40"/>
     </row>
     <row r="141" spans="1:11">
       <c r="A141" s="3"/>
@@ -4528,7 +4559,7 @@
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
-      <c r="K141" s="39"/>
+      <c r="K141" s="40"/>
     </row>
     <row r="142" spans="1:11">
       <c r="A142" s="3"/>
@@ -4540,7 +4571,7 @@
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
-      <c r="K142" s="39"/>
+      <c r="K142" s="40"/>
     </row>
     <row r="143" spans="1:11">
       <c r="A143" s="3"/>
@@ -4552,7 +4583,7 @@
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
-      <c r="K143" s="39"/>
+      <c r="K143" s="40"/>
     </row>
     <row r="144" spans="1:11">
       <c r="A144" s="3"/>
@@ -4564,7 +4595,7 @@
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
-      <c r="K144" s="39"/>
+      <c r="K144" s="40"/>
     </row>
     <row r="145" spans="1:11">
       <c r="A145" s="3"/>
@@ -4576,7 +4607,7 @@
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
-      <c r="K145" s="39"/>
+      <c r="K145" s="40"/>
     </row>
     <row r="146" spans="1:11">
       <c r="A146" s="3"/>
@@ -4588,7 +4619,7 @@
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
-      <c r="K146" s="39"/>
+      <c r="K146" s="40"/>
     </row>
     <row r="147" spans="1:11">
       <c r="A147" s="3"/>
@@ -4600,7 +4631,7 @@
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
-      <c r="K147" s="39"/>
+      <c r="K147" s="40"/>
     </row>
     <row r="148" spans="1:11">
       <c r="A148" s="3"/>
@@ -4612,7 +4643,7 @@
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
-      <c r="K148" s="39"/>
+      <c r="K148" s="40"/>
     </row>
     <row r="149" spans="1:11">
       <c r="A149" s="3"/>
@@ -4624,7 +4655,7 @@
       <c r="H149" s="3"/>
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
-      <c r="K149" s="39"/>
+      <c r="K149" s="40"/>
     </row>
     <row r="150" spans="1:11">
       <c r="A150" s="3"/>
@@ -4636,7 +4667,7 @@
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
-      <c r="K150" s="39"/>
+      <c r="K150" s="40"/>
     </row>
     <row r="151" spans="1:11">
       <c r="A151" s="3"/>
@@ -4648,7 +4679,7 @@
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
-      <c r="K151" s="39"/>
+      <c r="K151" s="40"/>
     </row>
     <row r="152" spans="1:11">
       <c r="A152" s="3"/>
@@ -4660,7 +4691,7 @@
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
-      <c r="K152" s="39"/>
+      <c r="K152" s="40"/>
     </row>
     <row r="153" spans="1:11">
       <c r="A153" s="3"/>
@@ -4672,7 +4703,7 @@
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
-      <c r="K153" s="39"/>
+      <c r="K153" s="40"/>
     </row>
     <row r="154" spans="1:11">
       <c r="A154" s="3"/>
@@ -4684,7 +4715,7 @@
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
-      <c r="K154" s="39"/>
+      <c r="K154" s="40"/>
     </row>
     <row r="155" spans="1:11">
       <c r="A155" s="3"/>
@@ -4696,7 +4727,7 @@
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
-      <c r="K155" s="39"/>
+      <c r="K155" s="40"/>
     </row>
     <row r="156" spans="1:11">
       <c r="A156" s="3"/>
@@ -4708,7 +4739,7 @@
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
-      <c r="K156" s="39"/>
+      <c r="K156" s="40"/>
     </row>
     <row r="157" spans="1:11">
       <c r="A157" s="3"/>
@@ -4720,7 +4751,7 @@
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
-      <c r="K157" s="39"/>
+      <c r="K157" s="40"/>
     </row>
     <row r="158" spans="1:11">
       <c r="A158" s="3"/>
@@ -4732,7 +4763,7 @@
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
-      <c r="K158" s="39"/>
+      <c r="K158" s="40"/>
     </row>
     <row r="159" spans="1:11">
       <c r="A159" s="3"/>
@@ -4744,7 +4775,7 @@
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
-      <c r="K159" s="39"/>
+      <c r="K159" s="40"/>
     </row>
     <row r="160" spans="1:11">
       <c r="A160" s="3"/>
@@ -4756,7 +4787,7 @@
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
-      <c r="K160" s="39"/>
+      <c r="K160" s="40"/>
     </row>
     <row r="161" spans="1:11">
       <c r="A161" s="3"/>
@@ -4768,7 +4799,7 @@
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
-      <c r="K161" s="39"/>
+      <c r="K161" s="40"/>
     </row>
     <row r="162" spans="1:11">
       <c r="A162" s="3"/>
@@ -4780,7 +4811,7 @@
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
-      <c r="K162" s="39"/>
+      <c r="K162" s="40"/>
     </row>
     <row r="163" spans="1:11">
       <c r="A163" s="3"/>
@@ -4792,7 +4823,7 @@
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
-      <c r="K163" s="39"/>
+      <c r="K163" s="40"/>
     </row>
     <row r="164" spans="1:11">
       <c r="A164" s="3"/>
@@ -4804,7 +4835,7 @@
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
-      <c r="K164" s="39"/>
+      <c r="K164" s="40"/>
     </row>
     <row r="165" spans="1:11">
       <c r="A165" s="3"/>
@@ -4816,7 +4847,7 @@
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
-      <c r="K165" s="39"/>
+      <c r="K165" s="40"/>
     </row>
     <row r="166" spans="1:11">
       <c r="A166" s="3"/>
@@ -4828,7 +4859,7 @@
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
-      <c r="K166" s="39"/>
+      <c r="K166" s="40"/>
     </row>
     <row r="167" spans="1:11">
       <c r="A167" s="3"/>
@@ -4840,7 +4871,7 @@
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
-      <c r="K167" s="39"/>
+      <c r="K167" s="40"/>
     </row>
     <row r="168" spans="1:11">
       <c r="A168" s="3"/>
@@ -4852,7 +4883,7 @@
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
-      <c r="K168" s="39"/>
+      <c r="K168" s="40"/>
     </row>
     <row r="169" spans="1:11">
       <c r="A169" s="3"/>
@@ -4864,7 +4895,7 @@
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
-      <c r="K169" s="39"/>
+      <c r="K169" s="40"/>
     </row>
     <row r="170" spans="1:11">
       <c r="A170" s="3"/>
@@ -4876,7 +4907,7 @@
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
-      <c r="K170" s="39"/>
+      <c r="K170" s="40"/>
     </row>
     <row r="171" spans="1:11">
       <c r="A171" s="3"/>
@@ -4888,7 +4919,7 @@
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
-      <c r="K171" s="39"/>
+      <c r="K171" s="40"/>
     </row>
     <row r="172" spans="1:11">
       <c r="A172" s="3"/>
@@ -4900,7 +4931,7 @@
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
-      <c r="K172" s="39"/>
+      <c r="K172" s="40"/>
     </row>
     <row r="173" spans="1:11">
       <c r="A173" s="3"/>
@@ -4912,7 +4943,7 @@
       <c r="H173" s="3"/>
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
-      <c r="K173" s="39"/>
+      <c r="K173" s="40"/>
     </row>
     <row r="174" spans="1:11">
       <c r="A174" s="3"/>
@@ -4924,7 +4955,7 @@
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
-      <c r="K174" s="39"/>
+      <c r="K174" s="40"/>
     </row>
     <row r="175" spans="1:11">
       <c r="A175" s="3"/>
@@ -4936,7 +4967,7 @@
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
-      <c r="K175" s="39"/>
+      <c r="K175" s="40"/>
     </row>
     <row r="176" spans="1:11">
       <c r="A176" s="3"/>
@@ -4948,7 +4979,7 @@
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
-      <c r="K176" s="39"/>
+      <c r="K176" s="40"/>
     </row>
     <row r="177" spans="1:11">
       <c r="A177" s="3"/>
@@ -4960,7 +4991,7 @@
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
-      <c r="K177" s="39"/>
+      <c r="K177" s="40"/>
     </row>
     <row r="178" spans="1:11">
       <c r="A178" s="3"/>
@@ -4972,7 +5003,7 @@
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
-      <c r="K178" s="39"/>
+      <c r="K178" s="40"/>
     </row>
     <row r="179" spans="1:11">
       <c r="A179" s="3"/>
@@ -4984,7 +5015,7 @@
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
-      <c r="K179" s="39"/>
+      <c r="K179" s="40"/>
     </row>
     <row r="180" spans="1:11">
       <c r="A180" s="3"/>
@@ -4996,7 +5027,7 @@
       <c r="H180" s="3"/>
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
-      <c r="K180" s="39"/>
+      <c r="K180" s="40"/>
     </row>
     <row r="181" spans="1:11">
       <c r="A181" s="3"/>
@@ -5008,7 +5039,7 @@
       <c r="H181" s="3"/>
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
-      <c r="K181" s="39"/>
+      <c r="K181" s="40"/>
     </row>
     <row r="182" spans="1:11">
       <c r="A182" s="3"/>
@@ -5020,7 +5051,7 @@
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
-      <c r="K182" s="39"/>
+      <c r="K182" s="40"/>
     </row>
     <row r="183" spans="1:11">
       <c r="A183" s="3"/>
@@ -5032,7 +5063,7 @@
       <c r="H183" s="3"/>
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
-      <c r="K183" s="39"/>
+      <c r="K183" s="40"/>
     </row>
     <row r="184" spans="1:11">
       <c r="A184" s="3"/>
@@ -5044,7 +5075,7 @@
       <c r="H184" s="3"/>
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
-      <c r="K184" s="39"/>
+      <c r="K184" s="40"/>
     </row>
     <row r="185" spans="1:11">
       <c r="A185" s="3"/>
@@ -5056,7 +5087,7 @@
       <c r="H185" s="3"/>
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
-      <c r="K185" s="39"/>
+      <c r="K185" s="40"/>
     </row>
     <row r="186" spans="1:11">
       <c r="A186" s="3"/>
@@ -5068,7 +5099,7 @@
       <c r="H186" s="3"/>
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
-      <c r="K186" s="39"/>
+      <c r="K186" s="40"/>
     </row>
     <row r="187" spans="1:11">
       <c r="A187" s="3"/>
@@ -5080,7 +5111,7 @@
       <c r="H187" s="3"/>
       <c r="I187" s="3"/>
       <c r="J187" s="3"/>
-      <c r="K187" s="39"/>
+      <c r="K187" s="40"/>
     </row>
     <row r="188" spans="1:11">
       <c r="A188" s="3"/>
@@ -5092,7 +5123,7 @@
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
       <c r="J188" s="3"/>
-      <c r="K188" s="39"/>
+      <c r="K188" s="40"/>
     </row>
     <row r="189" spans="1:11">
       <c r="A189" s="3"/>
@@ -5104,7 +5135,7 @@
       <c r="H189" s="3"/>
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
-      <c r="K189" s="39"/>
+      <c r="K189" s="40"/>
     </row>
     <row r="190" spans="1:11">
       <c r="A190" s="3"/>
@@ -5116,7 +5147,7 @@
       <c r="H190" s="3"/>
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
-      <c r="K190" s="39"/>
+      <c r="K190" s="40"/>
     </row>
     <row r="191" spans="1:11">
       <c r="A191" s="3"/>
@@ -5128,7 +5159,7 @@
       <c r="H191" s="3"/>
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
-      <c r="K191" s="39"/>
+      <c r="K191" s="40"/>
     </row>
     <row r="192" spans="1:11">
       <c r="A192" s="3"/>
@@ -5140,7 +5171,7 @@
       <c r="H192" s="3"/>
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
-      <c r="K192" s="39"/>
+      <c r="K192" s="40"/>
     </row>
     <row r="193" spans="1:11">
       <c r="A193" s="3"/>
@@ -5152,7 +5183,7 @@
       <c r="H193" s="3"/>
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
-      <c r="K193" s="39"/>
+      <c r="K193" s="40"/>
     </row>
     <row r="194" spans="1:11">
       <c r="A194" s="3"/>
@@ -5164,7 +5195,7 @@
       <c r="H194" s="3"/>
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
-      <c r="K194" s="39"/>
+      <c r="K194" s="40"/>
     </row>
     <row r="195" spans="1:11">
       <c r="A195" s="3"/>
@@ -5176,7 +5207,7 @@
       <c r="H195" s="3"/>
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
-      <c r="K195" s="39"/>
+      <c r="K195" s="40"/>
     </row>
     <row r="196" spans="1:11">
       <c r="A196" s="3"/>
@@ -5188,7 +5219,7 @@
       <c r="H196" s="3"/>
       <c r="I196" s="3"/>
       <c r="J196" s="3"/>
-      <c r="K196" s="39"/>
+      <c r="K196" s="40"/>
     </row>
     <row r="197" spans="1:11">
       <c r="A197" s="3"/>
@@ -5200,7 +5231,7 @@
       <c r="H197" s="3"/>
       <c r="I197" s="3"/>
       <c r="J197" s="3"/>
-      <c r="K197" s="39"/>
+      <c r="K197" s="40"/>
     </row>
     <row r="198" spans="1:11">
       <c r="A198" s="3"/>
@@ -5212,7 +5243,7 @@
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
       <c r="J198" s="3"/>
-      <c r="K198" s="39"/>
+      <c r="K198" s="40"/>
     </row>
     <row r="199" spans="1:11">
       <c r="A199" s="3"/>
@@ -5224,7 +5255,7 @@
       <c r="H199" s="3"/>
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
-      <c r="K199" s="39"/>
+      <c r="K199" s="40"/>
     </row>
     <row r="200" spans="1:11">
       <c r="A200" s="3"/>
@@ -5236,7 +5267,7 @@
       <c r="H200" s="3"/>
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
-      <c r="K200" s="39"/>
+      <c r="K200" s="40"/>
     </row>
     <row r="201" spans="1:11">
       <c r="A201" s="3"/>
@@ -5248,7 +5279,7 @@
       <c r="H201" s="3"/>
       <c r="I201" s="3"/>
       <c r="J201" s="3"/>
-      <c r="K201" s="39"/>
+      <c r="K201" s="40"/>
     </row>
     <row r="202" spans="1:11">
       <c r="A202" s="3"/>
@@ -5260,7 +5291,7 @@
       <c r="H202" s="3"/>
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
-      <c r="K202" s="39"/>
+      <c r="K202" s="40"/>
     </row>
     <row r="203" spans="1:11">
       <c r="A203" s="3"/>
@@ -5272,7 +5303,7 @@
       <c r="H203" s="3"/>
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
-      <c r="K203" s="39"/>
+      <c r="K203" s="40"/>
     </row>
     <row r="204" spans="1:11">
       <c r="A204" s="3"/>
@@ -5284,7 +5315,7 @@
       <c r="H204" s="3"/>
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
-      <c r="K204" s="39"/>
+      <c r="K204" s="40"/>
     </row>
     <row r="205" spans="1:11">
       <c r="A205" s="3"/>
@@ -5296,7 +5327,7 @@
       <c r="H205" s="3"/>
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
-      <c r="K205" s="39"/>
+      <c r="K205" s="40"/>
     </row>
     <row r="206" spans="1:11">
       <c r="A206" s="3"/>
@@ -5308,7 +5339,7 @@
       <c r="H206" s="3"/>
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
-      <c r="K206" s="39"/>
+      <c r="K206" s="40"/>
     </row>
     <row r="207" spans="1:11">
       <c r="A207" s="3"/>
@@ -5320,7 +5351,7 @@
       <c r="H207" s="3"/>
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
-      <c r="K207" s="39"/>
+      <c r="K207" s="40"/>
     </row>
     <row r="208" spans="1:11">
       <c r="A208" s="3"/>
@@ -5332,7 +5363,7 @@
       <c r="H208" s="3"/>
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
-      <c r="K208" s="39"/>
+      <c r="K208" s="40"/>
     </row>
     <row r="209" spans="1:11">
       <c r="A209" s="3"/>
@@ -5344,7 +5375,7 @@
       <c r="H209" s="3"/>
       <c r="I209" s="3"/>
       <c r="J209" s="3"/>
-      <c r="K209" s="39"/>
+      <c r="K209" s="40"/>
     </row>
     <row r="210" spans="1:11">
       <c r="A210" s="3"/>
@@ -5356,7 +5387,7 @@
       <c r="H210" s="3"/>
       <c r="I210" s="3"/>
       <c r="J210" s="3"/>
-      <c r="K210" s="39"/>
+      <c r="K210" s="40"/>
     </row>
     <row r="211" spans="1:11">
       <c r="A211" s="3"/>
@@ -5368,7 +5399,7 @@
       <c r="H211" s="3"/>
       <c r="I211" s="3"/>
       <c r="J211" s="3"/>
-      <c r="K211" s="39"/>
+      <c r="K211" s="40"/>
     </row>
     <row r="212" spans="1:11">
       <c r="A212" s="3"/>
@@ -5380,7 +5411,7 @@
       <c r="H212" s="3"/>
       <c r="I212" s="3"/>
       <c r="J212" s="3"/>
-      <c r="K212" s="39"/>
+      <c r="K212" s="40"/>
     </row>
     <row r="213" spans="1:11">
       <c r="A213" s="3"/>
@@ -5392,7 +5423,7 @@
       <c r="H213" s="3"/>
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
-      <c r="K213" s="39"/>
+      <c r="K213" s="40"/>
     </row>
     <row r="214" spans="1:11">
       <c r="A214" s="3"/>
@@ -5404,7 +5435,7 @@
       <c r="H214" s="3"/>
       <c r="I214" s="3"/>
       <c r="J214" s="3"/>
-      <c r="K214" s="39"/>
+      <c r="K214" s="40"/>
     </row>
     <row r="215" spans="1:11">
       <c r="A215" s="3"/>
@@ -5416,7 +5447,7 @@
       <c r="H215" s="3"/>
       <c r="I215" s="3"/>
       <c r="J215" s="3"/>
-      <c r="K215" s="39"/>
+      <c r="K215" s="40"/>
     </row>
     <row r="216" spans="1:11">
       <c r="A216" s="3"/>
@@ -5428,7 +5459,7 @@
       <c r="H216" s="3"/>
       <c r="I216" s="3"/>
       <c r="J216" s="3"/>
-      <c r="K216" s="39"/>
+      <c r="K216" s="40"/>
     </row>
     <row r="217" spans="1:11">
       <c r="A217" s="3"/>
@@ -5440,7 +5471,7 @@
       <c r="H217" s="3"/>
       <c r="I217" s="3"/>
       <c r="J217" s="3"/>
-      <c r="K217" s="39"/>
+      <c r="K217" s="40"/>
     </row>
     <row r="218" spans="1:11">
       <c r="A218" s="3"/>
@@ -5452,7 +5483,7 @@
       <c r="H218" s="3"/>
       <c r="I218" s="3"/>
       <c r="J218" s="3"/>
-      <c r="K218" s="39"/>
+      <c r="K218" s="40"/>
     </row>
     <row r="219" spans="1:11">
       <c r="A219" s="3"/>
@@ -5464,7 +5495,7 @@
       <c r="H219" s="3"/>
       <c r="I219" s="3"/>
       <c r="J219" s="3"/>
-      <c r="K219" s="39"/>
+      <c r="K219" s="40"/>
     </row>
     <row r="220" spans="1:11">
       <c r="A220" s="3"/>
@@ -5476,7 +5507,7 @@
       <c r="H220" s="3"/>
       <c r="I220" s="3"/>
       <c r="J220" s="3"/>
-      <c r="K220" s="39"/>
+      <c r="K220" s="40"/>
     </row>
     <row r="221" spans="1:11">
       <c r="A221" s="3"/>
@@ -5488,7 +5519,7 @@
       <c r="H221" s="3"/>
       <c r="I221" s="3"/>
       <c r="J221" s="3"/>
-      <c r="K221" s="39"/>
+      <c r="K221" s="40"/>
     </row>
     <row r="222" spans="1:11">
       <c r="A222" s="3"/>
@@ -5500,7 +5531,7 @@
       <c r="H222" s="3"/>
       <c r="I222" s="3"/>
       <c r="J222" s="3"/>
-      <c r="K222" s="39"/>
+      <c r="K222" s="40"/>
     </row>
     <row r="223" spans="1:11">
       <c r="A223" s="3"/>
@@ -5512,7 +5543,7 @@
       <c r="H223" s="3"/>
       <c r="I223" s="3"/>
       <c r="J223" s="3"/>
-      <c r="K223" s="39"/>
+      <c r="K223" s="40"/>
     </row>
     <row r="224" spans="1:11">
       <c r="A224" s="3"/>
@@ -5524,7 +5555,7 @@
       <c r="H224" s="3"/>
       <c r="I224" s="3"/>
       <c r="J224" s="3"/>
-      <c r="K224" s="39"/>
+      <c r="K224" s="40"/>
     </row>
     <row r="225" spans="1:11">
       <c r="A225" s="3"/>
@@ -5536,7 +5567,7 @@
       <c r="H225" s="3"/>
       <c r="I225" s="3"/>
       <c r="J225" s="3"/>
-      <c r="K225" s="39"/>
+      <c r="K225" s="40"/>
     </row>
     <row r="226" spans="1:11">
       <c r="A226" s="3"/>
@@ -5548,7 +5579,7 @@
       <c r="H226" s="3"/>
       <c r="I226" s="3"/>
       <c r="J226" s="3"/>
-      <c r="K226" s="39"/>
+      <c r="K226" s="40"/>
     </row>
     <row r="227" spans="1:11">
       <c r="A227" s="3"/>
@@ -5560,7 +5591,7 @@
       <c r="H227" s="3"/>
       <c r="I227" s="3"/>
       <c r="J227" s="3"/>
-      <c r="K227" s="39"/>
+      <c r="K227" s="40"/>
     </row>
     <row r="228" spans="1:11">
       <c r="A228" s="3"/>
@@ -5572,7 +5603,7 @@
       <c r="H228" s="3"/>
       <c r="I228" s="3"/>
       <c r="J228" s="3"/>
-      <c r="K228" s="39"/>
+      <c r="K228" s="40"/>
     </row>
     <row r="229" spans="1:11">
       <c r="A229" s="3"/>
@@ -5584,7 +5615,7 @@
       <c r="H229" s="3"/>
       <c r="I229" s="3"/>
       <c r="J229" s="3"/>
-      <c r="K229" s="39"/>
+      <c r="K229" s="40"/>
     </row>
     <row r="230" spans="1:11">
       <c r="A230" s="3"/>
@@ -5596,7 +5627,7 @@
       <c r="H230" s="3"/>
       <c r="I230" s="3"/>
       <c r="J230" s="3"/>
-      <c r="K230" s="39"/>
+      <c r="K230" s="40"/>
     </row>
     <row r="231" spans="1:11">
       <c r="A231" s="3"/>
@@ -5608,7 +5639,7 @@
       <c r="H231" s="3"/>
       <c r="I231" s="3"/>
       <c r="J231" s="3"/>
-      <c r="K231" s="39"/>
+      <c r="K231" s="40"/>
     </row>
     <row r="232" spans="1:11">
       <c r="A232" s="3"/>
@@ -5620,7 +5651,7 @@
       <c r="H232" s="3"/>
       <c r="I232" s="3"/>
       <c r="J232" s="3"/>
-      <c r="K232" s="39"/>
+      <c r="K232" s="40"/>
     </row>
     <row r="233" spans="1:11">
       <c r="A233" s="3"/>
@@ -5632,7 +5663,7 @@
       <c r="H233" s="3"/>
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
-      <c r="K233" s="39"/>
+      <c r="K233" s="40"/>
     </row>
     <row r="234" spans="1:11">
       <c r="A234" s="3"/>
@@ -5644,7 +5675,7 @@
       <c r="H234" s="3"/>
       <c r="I234" s="3"/>
       <c r="J234" s="3"/>
-      <c r="K234" s="39"/>
+      <c r="K234" s="40"/>
     </row>
     <row r="235" spans="1:11">
       <c r="A235" s="3"/>
@@ -5656,7 +5687,7 @@
       <c r="H235" s="3"/>
       <c r="I235" s="3"/>
       <c r="J235" s="3"/>
-      <c r="K235" s="39"/>
+      <c r="K235" s="40"/>
     </row>
     <row r="236" spans="1:11">
       <c r="A236" s="3"/>
@@ -5668,7 +5699,7 @@
       <c r="H236" s="3"/>
       <c r="I236" s="3"/>
       <c r="J236" s="3"/>
-      <c r="K236" s="39"/>
+      <c r="K236" s="40"/>
     </row>
     <row r="237" spans="1:11">
       <c r="A237" s="3"/>
@@ -5680,7 +5711,7 @@
       <c r="H237" s="3"/>
       <c r="I237" s="3"/>
       <c r="J237" s="3"/>
-      <c r="K237" s="39"/>
+      <c r="K237" s="40"/>
     </row>
     <row r="238" spans="1:11">
       <c r="A238" s="3"/>
@@ -5692,7 +5723,7 @@
       <c r="H238" s="3"/>
       <c r="I238" s="3"/>
       <c r="J238" s="3"/>
-      <c r="K238" s="39"/>
+      <c r="K238" s="40"/>
     </row>
     <row r="239" spans="1:11">
       <c r="A239" s="3"/>
@@ -5704,7 +5735,7 @@
       <c r="H239" s="3"/>
       <c r="I239" s="3"/>
       <c r="J239" s="3"/>
-      <c r="K239" s="39"/>
+      <c r="K239" s="40"/>
     </row>
     <row r="240" spans="1:11">
       <c r="A240" s="3"/>
@@ -5716,7 +5747,7 @@
       <c r="H240" s="3"/>
       <c r="I240" s="3"/>
       <c r="J240" s="3"/>
-      <c r="K240" s="39"/>
+      <c r="K240" s="40"/>
     </row>
     <row r="241" spans="1:11">
       <c r="A241" s="3"/>
@@ -5728,7 +5759,7 @@
       <c r="H241" s="3"/>
       <c r="I241" s="3"/>
       <c r="J241" s="3"/>
-      <c r="K241" s="39"/>
+      <c r="K241" s="40"/>
     </row>
     <row r="242" spans="1:11">
       <c r="A242" s="3"/>
@@ -5740,7 +5771,7 @@
       <c r="H242" s="3"/>
       <c r="I242" s="3"/>
       <c r="J242" s="3"/>
-      <c r="K242" s="39"/>
+      <c r="K242" s="40"/>
     </row>
     <row r="243" spans="1:11">
       <c r="A243" s="3"/>
@@ -5752,7 +5783,7 @@
       <c r="H243" s="3"/>
       <c r="I243" s="3"/>
       <c r="J243" s="3"/>
-      <c r="K243" s="39"/>
+      <c r="K243" s="40"/>
     </row>
     <row r="244" spans="1:11">
       <c r="A244" s="3"/>
@@ -5764,7 +5795,7 @@
       <c r="H244" s="3"/>
       <c r="I244" s="3"/>
       <c r="J244" s="3"/>
-      <c r="K244" s="39"/>
+      <c r="K244" s="40"/>
     </row>
     <row r="245" spans="1:11">
       <c r="A245" s="3"/>
@@ -5776,7 +5807,7 @@
       <c r="H245" s="3"/>
       <c r="I245" s="3"/>
       <c r="J245" s="3"/>
-      <c r="K245" s="39"/>
+      <c r="K245" s="40"/>
     </row>
     <row r="246" spans="1:11">
       <c r="A246" s="3"/>
@@ -5788,7 +5819,7 @@
       <c r="H246" s="3"/>
       <c r="I246" s="3"/>
       <c r="J246" s="3"/>
-      <c r="K246" s="39"/>
+      <c r="K246" s="40"/>
     </row>
     <row r="247" spans="1:11">
       <c r="A247" s="3"/>
@@ -5800,7 +5831,7 @@
       <c r="H247" s="3"/>
       <c r="I247" s="3"/>
       <c r="J247" s="3"/>
-      <c r="K247" s="39"/>
+      <c r="K247" s="40"/>
     </row>
     <row r="248" spans="1:11">
       <c r="A248" s="3"/>
@@ -5812,7 +5843,7 @@
       <c r="H248" s="3"/>
       <c r="I248" s="3"/>
       <c r="J248" s="3"/>
-      <c r="K248" s="39"/>
+      <c r="K248" s="40"/>
     </row>
     <row r="249" spans="1:11">
       <c r="A249" s="3"/>
@@ -5824,7 +5855,7 @@
       <c r="H249" s="3"/>
       <c r="I249" s="3"/>
       <c r="J249" s="3"/>
-      <c r="K249" s="39"/>
+      <c r="K249" s="40"/>
     </row>
     <row r="250" spans="1:11">
       <c r="A250" s="3"/>
@@ -5836,7 +5867,7 @@
       <c r="H250" s="3"/>
       <c r="I250" s="3"/>
       <c r="J250" s="3"/>
-      <c r="K250" s="39"/>
+      <c r="K250" s="40"/>
     </row>
     <row r="251" spans="1:11">
       <c r="A251" s="3"/>
@@ -5848,7 +5879,7 @@
       <c r="H251" s="3"/>
       <c r="I251" s="3"/>
       <c r="J251" s="3"/>
-      <c r="K251" s="39"/>
+      <c r="K251" s="40"/>
     </row>
     <row r="252" spans="1:11">
       <c r="A252" s="3"/>
@@ -5860,7 +5891,7 @@
       <c r="H252" s="3"/>
       <c r="I252" s="3"/>
       <c r="J252" s="3"/>
-      <c r="K252" s="39"/>
+      <c r="K252" s="40"/>
     </row>
     <row r="253" spans="1:11">
       <c r="A253" s="3"/>
@@ -5872,7 +5903,7 @@
       <c r="H253" s="3"/>
       <c r="I253" s="3"/>
       <c r="J253" s="3"/>
-      <c r="K253" s="39"/>
+      <c r="K253" s="40"/>
     </row>
     <row r="254" spans="1:11">
       <c r="A254" s="3"/>
@@ -5884,7 +5915,7 @@
       <c r="H254" s="3"/>
       <c r="I254" s="3"/>
       <c r="J254" s="3"/>
-      <c r="K254" s="39"/>
+      <c r="K254" s="40"/>
     </row>
     <row r="255" spans="1:11">
       <c r="A255" s="3"/>
@@ -5896,7 +5927,7 @@
       <c r="H255" s="3"/>
       <c r="I255" s="3"/>
       <c r="J255" s="3"/>
-      <c r="K255" s="39"/>
+      <c r="K255" s="40"/>
     </row>
     <row r="256" spans="1:11">
       <c r="A256" s="3"/>
@@ -5908,7 +5939,7 @@
       <c r="H256" s="3"/>
       <c r="I256" s="3"/>
       <c r="J256" s="3"/>
-      <c r="K256" s="39"/>
+      <c r="K256" s="40"/>
     </row>
     <row r="257" spans="1:11">
       <c r="A257" s="3"/>
@@ -5920,7 +5951,7 @@
       <c r="H257" s="3"/>
       <c r="I257" s="3"/>
       <c r="J257" s="3"/>
-      <c r="K257" s="39"/>
+      <c r="K257" s="40"/>
     </row>
     <row r="258" spans="1:11">
       <c r="A258" s="3"/>
@@ -5932,7 +5963,7 @@
       <c r="H258" s="3"/>
       <c r="I258" s="3"/>
       <c r="J258" s="3"/>
-      <c r="K258" s="39"/>
+      <c r="K258" s="40"/>
     </row>
     <row r="259" spans="1:11">
       <c r="A259" s="3"/>
@@ -5944,7 +5975,7 @@
       <c r="H259" s="3"/>
       <c r="I259" s="3"/>
       <c r="J259" s="3"/>
-      <c r="K259" s="39"/>
+      <c r="K259" s="40"/>
     </row>
     <row r="260" spans="1:11">
       <c r="A260" s="3"/>
@@ -5956,7 +5987,7 @@
       <c r="H260" s="3"/>
       <c r="I260" s="3"/>
       <c r="J260" s="3"/>
-      <c r="K260" s="39"/>
+      <c r="K260" s="40"/>
     </row>
     <row r="261" spans="1:11">
       <c r="A261" s="3"/>
@@ -5968,7 +5999,7 @@
       <c r="H261" s="3"/>
       <c r="I261" s="3"/>
       <c r="J261" s="3"/>
-      <c r="K261" s="39"/>
+      <c r="K261" s="40"/>
     </row>
     <row r="262" spans="1:11">
       <c r="A262" s="3"/>
@@ -5980,7 +6011,7 @@
       <c r="H262" s="3"/>
       <c r="I262" s="3"/>
       <c r="J262" s="3"/>
-      <c r="K262" s="39"/>
+      <c r="K262" s="40"/>
     </row>
     <row r="263" spans="1:11">
       <c r="A263" s="3"/>
@@ -5992,7 +6023,7 @@
       <c r="H263" s="3"/>
       <c r="I263" s="3"/>
       <c r="J263" s="3"/>
-      <c r="K263" s="39"/>
+      <c r="K263" s="40"/>
     </row>
     <row r="264" spans="1:11">
       <c r="A264" s="3"/>
@@ -6004,7 +6035,7 @@
       <c r="H264" s="3"/>
       <c r="I264" s="3"/>
       <c r="J264" s="3"/>
-      <c r="K264" s="39"/>
+      <c r="K264" s="40"/>
     </row>
     <row r="265" spans="1:11">
       <c r="A265" s="3"/>
@@ -6016,7 +6047,7 @@
       <c r="H265" s="3"/>
       <c r="I265" s="3"/>
       <c r="J265" s="3"/>
-      <c r="K265" s="39"/>
+      <c r="K265" s="40"/>
     </row>
     <row r="266" spans="1:11">
       <c r="A266" s="3"/>
@@ -6028,7 +6059,7 @@
       <c r="H266" s="3"/>
       <c r="I266" s="3"/>
       <c r="J266" s="3"/>
-      <c r="K266" s="39"/>
+      <c r="K266" s="40"/>
     </row>
     <row r="267" spans="1:11">
       <c r="A267" s="3"/>
@@ -6040,7 +6071,7 @@
       <c r="H267" s="3"/>
       <c r="I267" s="3"/>
       <c r="J267" s="3"/>
-      <c r="K267" s="39"/>
+      <c r="K267" s="40"/>
     </row>
     <row r="268" spans="1:11">
       <c r="A268" s="3"/>
@@ -6052,7 +6083,7 @@
       <c r="H268" s="3"/>
       <c r="I268" s="3"/>
       <c r="J268" s="3"/>
-      <c r="K268" s="39"/>
+      <c r="K268" s="40"/>
     </row>
     <row r="269" spans="1:11">
       <c r="A269" s="3"/>
@@ -6064,7 +6095,7 @@
       <c r="H269" s="3"/>
       <c r="I269" s="3"/>
       <c r="J269" s="3"/>
-      <c r="K269" s="39"/>
+      <c r="K269" s="40"/>
     </row>
     <row r="270" spans="1:11">
       <c r="A270" s="3"/>
@@ -6076,7 +6107,7 @@
       <c r="H270" s="3"/>
       <c r="I270" s="3"/>
       <c r="J270" s="3"/>
-      <c r="K270" s="39"/>
+      <c r="K270" s="40"/>
     </row>
     <row r="271" spans="1:11">
       <c r="A271" s="3"/>
@@ -6088,7 +6119,7 @@
       <c r="H271" s="3"/>
       <c r="I271" s="3"/>
       <c r="J271" s="3"/>
-      <c r="K271" s="39"/>
+      <c r="K271" s="40"/>
     </row>
     <row r="272" spans="1:11">
       <c r="A272" s="3"/>
@@ -6100,7 +6131,7 @@
       <c r="H272" s="3"/>
       <c r="I272" s="3"/>
       <c r="J272" s="3"/>
-      <c r="K272" s="39"/>
+      <c r="K272" s="40"/>
     </row>
     <row r="273" spans="1:11">
       <c r="A273" s="3"/>
@@ -6112,7 +6143,7 @@
       <c r="H273" s="3"/>
       <c r="I273" s="3"/>
       <c r="J273" s="3"/>
-      <c r="K273" s="39"/>
+      <c r="K273" s="40"/>
     </row>
     <row r="274" spans="1:11">
       <c r="A274" s="3"/>
@@ -6124,7 +6155,7 @@
       <c r="H274" s="3"/>
       <c r="I274" s="3"/>
       <c r="J274" s="3"/>
-      <c r="K274" s="39"/>
+      <c r="K274" s="40"/>
     </row>
     <row r="275" spans="1:11">
       <c r="A275" s="3"/>
@@ -6136,7 +6167,7 @@
       <c r="H275" s="3"/>
       <c r="I275" s="3"/>
       <c r="J275" s="3"/>
-      <c r="K275" s="39"/>
+      <c r="K275" s="40"/>
     </row>
     <row r="276" spans="1:11">
       <c r="A276" s="3"/>
@@ -6148,7 +6179,7 @@
       <c r="H276" s="3"/>
       <c r="I276" s="3"/>
       <c r="J276" s="3"/>
-      <c r="K276" s="39"/>
+      <c r="K276" s="40"/>
     </row>
     <row r="277" spans="1:11">
       <c r="A277" s="3"/>
@@ -6160,7 +6191,7 @@
       <c r="H277" s="3"/>
       <c r="I277" s="3"/>
       <c r="J277" s="3"/>
-      <c r="K277" s="39"/>
+      <c r="K277" s="40"/>
     </row>
     <row r="278" spans="1:11">
       <c r="A278" s="3"/>
@@ -6172,7 +6203,7 @@
       <c r="H278" s="3"/>
       <c r="I278" s="3"/>
       <c r="J278" s="3"/>
-      <c r="K278" s="39"/>
+      <c r="K278" s="40"/>
     </row>
     <row r="279" spans="1:11">
       <c r="A279" s="3"/>
@@ -6184,7 +6215,7 @@
       <c r="H279" s="3"/>
       <c r="I279" s="3"/>
       <c r="J279" s="3"/>
-      <c r="K279" s="39"/>
+      <c r="K279" s="40"/>
     </row>
     <row r="280" spans="1:11">
       <c r="A280" s="3"/>
@@ -6196,7 +6227,7 @@
       <c r="H280" s="3"/>
       <c r="I280" s="3"/>
       <c r="J280" s="3"/>
-      <c r="K280" s="39"/>
+      <c r="K280" s="40"/>
     </row>
     <row r="281" spans="1:11">
       <c r="A281" s="3"/>
@@ -6208,7 +6239,7 @@
       <c r="H281" s="3"/>
       <c r="I281" s="3"/>
       <c r="J281" s="3"/>
-      <c r="K281" s="39"/>
+      <c r="K281" s="40"/>
     </row>
     <row r="282" spans="1:11">
       <c r="A282" s="3"/>
@@ -6220,7 +6251,7 @@
       <c r="H282" s="3"/>
       <c r="I282" s="3"/>
       <c r="J282" s="3"/>
-      <c r="K282" s="39"/>
+      <c r="K282" s="40"/>
     </row>
     <row r="283" spans="1:11">
       <c r="A283" s="3"/>
@@ -6232,7 +6263,7 @@
       <c r="H283" s="3"/>
       <c r="I283" s="3"/>
       <c r="J283" s="3"/>
-      <c r="K283" s="39"/>
+      <c r="K283" s="40"/>
     </row>
     <row r="284" spans="1:11">
       <c r="A284" s="3"/>
@@ -6244,7 +6275,7 @@
       <c r="H284" s="3"/>
       <c r="I284" s="3"/>
       <c r="J284" s="3"/>
-      <c r="K284" s="39"/>
+      <c r="K284" s="40"/>
     </row>
     <row r="285" spans="1:11">
       <c r="A285" s="3"/>
@@ -6256,7 +6287,7 @@
       <c r="H285" s="3"/>
       <c r="I285" s="3"/>
       <c r="J285" s="3"/>
-      <c r="K285" s="39"/>
+      <c r="K285" s="40"/>
     </row>
     <row r="286" spans="1:11">
       <c r="A286" s="3"/>
@@ -6268,7 +6299,7 @@
       <c r="H286" s="3"/>
       <c r="I286" s="3"/>
       <c r="J286" s="3"/>
-      <c r="K286" s="39"/>
+      <c r="K286" s="40"/>
     </row>
     <row r="287" spans="1:11">
       <c r="A287" s="3"/>
@@ -6280,7 +6311,7 @@
       <c r="H287" s="3"/>
       <c r="I287" s="3"/>
       <c r="J287" s="3"/>
-      <c r="K287" s="39"/>
+      <c r="K287" s="40"/>
     </row>
     <row r="288" spans="1:11">
       <c r="A288" s="3"/>
@@ -6292,7 +6323,7 @@
       <c r="H288" s="3"/>
       <c r="I288" s="3"/>
       <c r="J288" s="3"/>
-      <c r="K288" s="39"/>
+      <c r="K288" s="40"/>
     </row>
     <row r="289" spans="1:11">
       <c r="A289" s="3"/>
@@ -6304,7 +6335,7 @@
       <c r="H289" s="3"/>
       <c r="I289" s="3"/>
       <c r="J289" s="3"/>
-      <c r="K289" s="39"/>
+      <c r="K289" s="40"/>
     </row>
     <row r="290" spans="1:11">
       <c r="A290" s="3"/>
@@ -6316,7 +6347,7 @@
       <c r="H290" s="3"/>
       <c r="I290" s="3"/>
       <c r="J290" s="3"/>
-      <c r="K290" s="39"/>
+      <c r="K290" s="40"/>
     </row>
     <row r="291" spans="1:11">
       <c r="A291" s="3"/>
@@ -6328,7 +6359,7 @@
       <c r="H291" s="3"/>
       <c r="I291" s="3"/>
       <c r="J291" s="3"/>
-      <c r="K291" s="39"/>
+      <c r="K291" s="40"/>
     </row>
     <row r="292" spans="1:11">
       <c r="A292" s="3"/>
@@ -6340,7 +6371,7 @@
       <c r="H292" s="3"/>
       <c r="I292" s="3"/>
       <c r="J292" s="3"/>
-      <c r="K292" s="39"/>
+      <c r="K292" s="40"/>
     </row>
     <row r="293" spans="1:11">
       <c r="A293" s="3"/>
@@ -6352,7 +6383,7 @@
       <c r="H293" s="3"/>
       <c r="I293" s="3"/>
       <c r="J293" s="3"/>
-      <c r="K293" s="39"/>
+      <c r="K293" s="40"/>
     </row>
     <row r="294" spans="1:11">
       <c r="A294" s="3"/>
@@ -6364,7 +6395,7 @@
       <c r="H294" s="3"/>
       <c r="I294" s="3"/>
       <c r="J294" s="3"/>
-      <c r="K294" s="39"/>
+      <c r="K294" s="40"/>
     </row>
     <row r="295" spans="1:11">
       <c r="A295" s="3"/>
@@ -6376,7 +6407,7 @@
       <c r="H295" s="3"/>
       <c r="I295" s="3"/>
       <c r="J295" s="3"/>
-      <c r="K295" s="39"/>
+      <c r="K295" s="40"/>
     </row>
     <row r="296" spans="1:11">
       <c r="A296" s="3"/>
@@ -6388,7 +6419,7 @@
       <c r="H296" s="3"/>
       <c r="I296" s="3"/>
       <c r="J296" s="3"/>
-      <c r="K296" s="39"/>
+      <c r="K296" s="40"/>
     </row>
     <row r="297" spans="1:11">
       <c r="A297" s="3"/>
@@ -6400,7 +6431,7 @@
       <c r="H297" s="3"/>
       <c r="I297" s="3"/>
       <c r="J297" s="3"/>
-      <c r="K297" s="39"/>
+      <c r="K297" s="40"/>
     </row>
     <row r="298" spans="1:11">
       <c r="A298" s="3"/>
@@ -6412,7 +6443,7 @@
       <c r="H298" s="3"/>
       <c r="I298" s="3"/>
       <c r="J298" s="3"/>
-      <c r="K298" s="39"/>
+      <c r="K298" s="40"/>
     </row>
     <row r="299" spans="1:11">
       <c r="A299" s="3"/>
@@ -6424,7 +6455,7 @@
       <c r="H299" s="3"/>
       <c r="I299" s="3"/>
       <c r="J299" s="3"/>
-      <c r="K299" s="39"/>
+      <c r="K299" s="40"/>
     </row>
     <row r="300" spans="1:11">
       <c r="A300" s="3"/>
@@ -6436,7 +6467,7 @@
       <c r="H300" s="3"/>
       <c r="I300" s="3"/>
       <c r="J300" s="3"/>
-      <c r="K300" s="39"/>
+      <c r="K300" s="40"/>
     </row>
     <row r="301" spans="1:11">
       <c r="A301" s="3"/>
@@ -6448,7 +6479,7 @@
       <c r="H301" s="3"/>
       <c r="I301" s="3"/>
       <c r="J301" s="3"/>
-      <c r="K301" s="39"/>
+      <c r="K301" s="40"/>
     </row>
     <row r="302" spans="1:11">
       <c r="A302" s="3"/>
@@ -6460,7 +6491,7 @@
       <c r="H302" s="3"/>
       <c r="I302" s="3"/>
       <c r="J302" s="3"/>
-      <c r="K302" s="39"/>
+      <c r="K302" s="40"/>
     </row>
     <row r="303" spans="1:11">
       <c r="A303" s="3"/>
@@ -6472,7 +6503,7 @@
       <c r="H303" s="3"/>
       <c r="I303" s="3"/>
       <c r="J303" s="3"/>
-      <c r="K303" s="39"/>
+      <c r="K303" s="40"/>
     </row>
     <row r="304" spans="1:11">
       <c r="A304" s="3"/>
@@ -6484,7 +6515,7 @@
       <c r="H304" s="3"/>
       <c r="I304" s="3"/>
       <c r="J304" s="3"/>
-      <c r="K304" s="39"/>
+      <c r="K304" s="40"/>
     </row>
     <row r="305" spans="1:11">
       <c r="A305" s="3"/>
@@ -6496,7 +6527,7 @@
       <c r="H305" s="3"/>
       <c r="I305" s="3"/>
       <c r="J305" s="3"/>
-      <c r="K305" s="39"/>
+      <c r="K305" s="40"/>
     </row>
     <row r="306" spans="1:11">
       <c r="A306" s="3"/>
@@ -6508,7 +6539,7 @@
       <c r="H306" s="3"/>
       <c r="I306" s="3"/>
       <c r="J306" s="3"/>
-      <c r="K306" s="39"/>
+      <c r="K306" s="40"/>
     </row>
     <row r="307" spans="1:11">
       <c r="A307" s="3"/>
@@ -6520,7 +6551,7 @@
       <c r="H307" s="3"/>
       <c r="I307" s="3"/>
       <c r="J307" s="3"/>
-      <c r="K307" s="39"/>
+      <c r="K307" s="40"/>
     </row>
     <row r="308" spans="1:11">
       <c r="A308" s="3"/>
@@ -6532,7 +6563,7 @@
       <c r="H308" s="3"/>
       <c r="I308" s="3"/>
       <c r="J308" s="3"/>
-      <c r="K308" s="39"/>
+      <c r="K308" s="40"/>
     </row>
     <row r="309" spans="1:11">
       <c r="A309" s="3"/>
@@ -6544,7 +6575,7 @@
       <c r="H309" s="3"/>
       <c r="I309" s="3"/>
       <c r="J309" s="3"/>
-      <c r="K309" s="39"/>
+      <c r="K309" s="40"/>
     </row>
     <row r="310" spans="1:11">
       <c r="A310" s="3"/>
@@ -6556,7 +6587,7 @@
       <c r="H310" s="3"/>
       <c r="I310" s="3"/>
       <c r="J310" s="3"/>
-      <c r="K310" s="39"/>
+      <c r="K310" s="40"/>
     </row>
     <row r="311" spans="1:11">
       <c r="A311" s="3"/>
@@ -6568,7 +6599,7 @@
       <c r="H311" s="3"/>
       <c r="I311" s="3"/>
       <c r="J311" s="3"/>
-      <c r="K311" s="39"/>
+      <c r="K311" s="40"/>
     </row>
     <row r="312" spans="1:11">
       <c r="A312" s="3"/>
@@ -6580,7 +6611,7 @@
       <c r="H312" s="3"/>
       <c r="I312" s="3"/>
       <c r="J312" s="3"/>
-      <c r="K312" s="39"/>
+      <c r="K312" s="40"/>
     </row>
     <row r="313" spans="1:11">
       <c r="A313" s="3"/>
@@ -6592,7 +6623,7 @@
       <c r="H313" s="3"/>
       <c r="I313" s="3"/>
       <c r="J313" s="3"/>
-      <c r="K313" s="39"/>
+      <c r="K313" s="40"/>
     </row>
     <row r="314" spans="1:11">
       <c r="A314" s="3"/>
@@ -6604,7 +6635,7 @@
       <c r="H314" s="3"/>
       <c r="I314" s="3"/>
       <c r="J314" s="3"/>
-      <c r="K314" s="39"/>
+      <c r="K314" s="40"/>
     </row>
     <row r="315" spans="1:11">
       <c r="A315" s="3"/>
@@ -6616,7 +6647,7 @@
       <c r="H315" s="3"/>
       <c r="I315" s="3"/>
       <c r="J315" s="3"/>
-      <c r="K315" s="39"/>
+      <c r="K315" s="40"/>
     </row>
     <row r="316" spans="1:11">
       <c r="A316" s="3"/>
@@ -6628,7 +6659,7 @@
       <c r="H316" s="3"/>
       <c r="I316" s="3"/>
       <c r="J316" s="3"/>
-      <c r="K316" s="39"/>
+      <c r="K316" s="40"/>
     </row>
     <row r="317" spans="1:11">
       <c r="A317" s="3"/>
@@ -6640,7 +6671,7 @@
       <c r="H317" s="3"/>
       <c r="I317" s="3"/>
       <c r="J317" s="3"/>
-      <c r="K317" s="39"/>
+      <c r="K317" s="40"/>
     </row>
     <row r="318" spans="1:11">
       <c r="A318" s="3"/>
@@ -6652,7 +6683,7 @@
       <c r="H318" s="3"/>
       <c r="I318" s="3"/>
       <c r="J318" s="3"/>
-      <c r="K318" s="39"/>
+      <c r="K318" s="40"/>
     </row>
     <row r="319" spans="1:11">
       <c r="A319" s="3"/>
@@ -6664,7 +6695,7 @@
       <c r="H319" s="3"/>
       <c r="I319" s="3"/>
       <c r="J319" s="3"/>
-      <c r="K319" s="39"/>
+      <c r="K319" s="40"/>
     </row>
     <row r="320" spans="1:11">
       <c r="A320" s="3"/>
@@ -6676,7 +6707,7 @@
       <c r="H320" s="3"/>
       <c r="I320" s="3"/>
       <c r="J320" s="3"/>
-      <c r="K320" s="39"/>
+      <c r="K320" s="40"/>
     </row>
     <row r="321" spans="1:11">
       <c r="A321" s="3"/>
@@ -6688,7 +6719,7 @@
       <c r="H321" s="3"/>
       <c r="I321" s="3"/>
       <c r="J321" s="3"/>
-      <c r="K321" s="39"/>
+      <c r="K321" s="40"/>
     </row>
     <row r="322" spans="1:11">
       <c r="A322" s="3"/>
@@ -6700,7 +6731,7 @@
       <c r="H322" s="3"/>
       <c r="I322" s="3"/>
       <c r="J322" s="3"/>
-      <c r="K322" s="39"/>
+      <c r="K322" s="40"/>
     </row>
     <row r="323" spans="1:11">
       <c r="A323" s="3"/>
@@ -6712,7 +6743,7 @@
       <c r="H323" s="3"/>
       <c r="I323" s="3"/>
       <c r="J323" s="3"/>
-      <c r="K323" s="39"/>
+      <c r="K323" s="40"/>
     </row>
     <row r="324" spans="1:11">
       <c r="A324" s="3"/>
@@ -6724,7 +6755,7 @@
       <c r="H324" s="3"/>
       <c r="I324" s="3"/>
       <c r="J324" s="3"/>
-      <c r="K324" s="39"/>
+      <c r="K324" s="40"/>
     </row>
     <row r="325" spans="1:11">
       <c r="A325" s="3"/>
@@ -6736,7 +6767,7 @@
       <c r="H325" s="3"/>
       <c r="I325" s="3"/>
       <c r="J325" s="3"/>
-      <c r="K325" s="39"/>
+      <c r="K325" s="40"/>
     </row>
     <row r="326" spans="1:11">
       <c r="A326" s="3"/>
@@ -6748,7 +6779,7 @@
       <c r="H326" s="3"/>
       <c r="I326" s="3"/>
       <c r="J326" s="3"/>
-      <c r="K326" s="39"/>
+      <c r="K326" s="40"/>
     </row>
     <row r="327" spans="1:11">
       <c r="A327" s="3"/>
@@ -6760,7 +6791,7 @@
       <c r="H327" s="3"/>
       <c r="I327" s="3"/>
       <c r="J327" s="3"/>
-      <c r="K327" s="39"/>
+      <c r="K327" s="40"/>
     </row>
     <row r="328" spans="1:11">
       <c r="A328" s="3"/>
@@ -6772,7 +6803,7 @@
       <c r="H328" s="3"/>
       <c r="I328" s="3"/>
       <c r="J328" s="3"/>
-      <c r="K328" s="39"/>
+      <c r="K328" s="40"/>
     </row>
     <row r="329" spans="1:11">
       <c r="A329" s="3"/>
@@ -6784,7 +6815,7 @@
       <c r="H329" s="3"/>
       <c r="I329" s="3"/>
       <c r="J329" s="3"/>
-      <c r="K329" s="39"/>
+      <c r="K329" s="40"/>
     </row>
     <row r="330" spans="1:11">
       <c r="A330" s="3"/>
@@ -6796,7 +6827,7 @@
       <c r="H330" s="3"/>
       <c r="I330" s="3"/>
       <c r="J330" s="3"/>
-      <c r="K330" s="39"/>
+      <c r="K330" s="40"/>
     </row>
     <row r="331" spans="1:11">
       <c r="A331" s="3"/>
@@ -6808,7 +6839,7 @@
       <c r="H331" s="3"/>
       <c r="I331" s="3"/>
       <c r="J331" s="3"/>
-      <c r="K331" s="39"/>
+      <c r="K331" s="40"/>
     </row>
     <row r="332" spans="1:11">
       <c r="A332" s="3"/>
@@ -6820,7 +6851,7 @@
       <c r="H332" s="3"/>
       <c r="I332" s="3"/>
       <c r="J332" s="3"/>
-      <c r="K332" s="39"/>
+      <c r="K332" s="40"/>
     </row>
     <row r="333" spans="1:11">
       <c r="A333" s="3"/>
@@ -6832,7 +6863,7 @@
       <c r="H333" s="3"/>
       <c r="I333" s="3"/>
       <c r="J333" s="3"/>
-      <c r="K333" s="39"/>
+      <c r="K333" s="40"/>
     </row>
     <row r="334" spans="1:11">
       <c r="A334" s="3"/>
@@ -6844,7 +6875,7 @@
       <c r="H334" s="3"/>
       <c r="I334" s="3"/>
       <c r="J334" s="3"/>
-      <c r="K334" s="39"/>
+      <c r="K334" s="40"/>
     </row>
     <row r="335" spans="1:11">
       <c r="A335" s="3"/>
@@ -6856,7 +6887,7 @@
       <c r="H335" s="3"/>
       <c r="I335" s="3"/>
       <c r="J335" s="3"/>
-      <c r="K335" s="39"/>
+      <c r="K335" s="40"/>
     </row>
     <row r="336" spans="1:11">
       <c r="A336" s="3"/>
@@ -6868,7 +6899,7 @@
       <c r="H336" s="3"/>
       <c r="I336" s="3"/>
       <c r="J336" s="3"/>
-      <c r="K336" s="39"/>
+      <c r="K336" s="40"/>
     </row>
     <row r="337" spans="1:11">
       <c r="A337" s="3"/>
@@ -6880,7 +6911,7 @@
       <c r="H337" s="3"/>
       <c r="I337" s="3"/>
       <c r="J337" s="3"/>
-      <c r="K337" s="39"/>
+      <c r="K337" s="40"/>
     </row>
     <row r="338" spans="1:11">
       <c r="A338" s="3"/>
@@ -6892,7 +6923,7 @@
       <c r="H338" s="3"/>
       <c r="I338" s="3"/>
       <c r="J338" s="3"/>
-      <c r="K338" s="39"/>
+      <c r="K338" s="40"/>
     </row>
     <row r="339" spans="1:11">
       <c r="A339" s="3"/>
@@ -6904,7 +6935,7 @@
       <c r="H339" s="3"/>
       <c r="I339" s="3"/>
       <c r="J339" s="3"/>
-      <c r="K339" s="39"/>
+      <c r="K339" s="40"/>
     </row>
     <row r="340" spans="1:11">
       <c r="A340" s="3"/>
@@ -6916,7 +6947,7 @@
       <c r="H340" s="3"/>
       <c r="I340" s="3"/>
       <c r="J340" s="3"/>
-      <c r="K340" s="39"/>
+      <c r="K340" s="40"/>
     </row>
     <row r="341" spans="1:11">
       <c r="A341" s="3"/>
@@ -6928,7 +6959,7 @@
       <c r="H341" s="3"/>
       <c r="I341" s="3"/>
       <c r="J341" s="3"/>
-      <c r="K341" s="39"/>
+      <c r="K341" s="40"/>
     </row>
     <row r="342" spans="1:11">
       <c r="A342" s="3"/>
@@ -6940,7 +6971,7 @@
       <c r="H342" s="3"/>
       <c r="I342" s="3"/>
       <c r="J342" s="3"/>
-      <c r="K342" s="39"/>
+      <c r="K342" s="40"/>
     </row>
     <row r="343" spans="1:11">
       <c r="A343" s="3"/>
@@ -6952,7 +6983,7 @@
       <c r="H343" s="3"/>
       <c r="I343" s="3"/>
       <c r="J343" s="3"/>
-      <c r="K343" s="39"/>
+      <c r="K343" s="40"/>
     </row>
     <row r="344" spans="1:11">
       <c r="A344" s="3"/>
@@ -6964,7 +6995,7 @@
       <c r="H344" s="3"/>
       <c r="I344" s="3"/>
       <c r="J344" s="3"/>
-      <c r="K344" s="39"/>
+      <c r="K344" s="40"/>
     </row>
     <row r="345" spans="1:11">
       <c r="A345" s="3"/>
@@ -6976,7 +7007,7 @@
       <c r="H345" s="3"/>
       <c r="I345" s="3"/>
       <c r="J345" s="3"/>
-      <c r="K345" s="39"/>
+      <c r="K345" s="40"/>
     </row>
     <row r="346" spans="1:11">
       <c r="A346" s="3"/>
@@ -6988,7 +7019,7 @@
       <c r="H346" s="3"/>
       <c r="I346" s="3"/>
       <c r="J346" s="3"/>
-      <c r="K346" s="39"/>
+      <c r="K346" s="40"/>
     </row>
     <row r="347" spans="1:11">
       <c r="A347" s="3"/>
@@ -7000,7 +7031,7 @@
       <c r="H347" s="3"/>
       <c r="I347" s="3"/>
       <c r="J347" s="3"/>
-      <c r="K347" s="39"/>
+      <c r="K347" s="40"/>
     </row>
     <row r="348" spans="1:11">
       <c r="A348" s="3"/>
@@ -7012,7 +7043,7 @@
       <c r="H348" s="3"/>
       <c r="I348" s="3"/>
       <c r="J348" s="3"/>
-      <c r="K348" s="39"/>
+      <c r="K348" s="40"/>
     </row>
     <row r="349" spans="1:11">
       <c r="A349" s="3"/>
@@ -7024,7 +7055,7 @@
       <c r="H349" s="3"/>
       <c r="I349" s="3"/>
       <c r="J349" s="3"/>
-      <c r="K349" s="39"/>
+      <c r="K349" s="40"/>
     </row>
     <row r="350" spans="1:11">
       <c r="A350" s="3"/>
@@ -7036,7 +7067,7 @@
       <c r="H350" s="3"/>
       <c r="I350" s="3"/>
       <c r="J350" s="3"/>
-      <c r="K350" s="39"/>
+      <c r="K350" s="40"/>
     </row>
     <row r="351" spans="1:11">
       <c r="A351" s="3"/>
@@ -7048,7 +7079,7 @@
       <c r="H351" s="3"/>
       <c r="I351" s="3"/>
       <c r="J351" s="3"/>
-      <c r="K351" s="39"/>
+      <c r="K351" s="40"/>
     </row>
     <row r="352" spans="1:11">
       <c r="A352" s="3"/>
@@ -7060,7 +7091,7 @@
       <c r="H352" s="3"/>
       <c r="I352" s="3"/>
       <c r="J352" s="3"/>
-      <c r="K352" s="39"/>
+      <c r="K352" s="40"/>
     </row>
     <row r="353" spans="1:11">
       <c r="A353" s="3"/>
@@ -7072,7 +7103,7 @@
       <c r="H353" s="3"/>
       <c r="I353" s="3"/>
       <c r="J353" s="3"/>
-      <c r="K353" s="39"/>
+      <c r="K353" s="40"/>
     </row>
     <row r="354" spans="1:11">
       <c r="A354" s="3"/>
@@ -7084,7 +7115,7 @@
       <c r="H354" s="3"/>
       <c r="I354" s="3"/>
       <c r="J354" s="3"/>
-      <c r="K354" s="39"/>
+      <c r="K354" s="40"/>
     </row>
     <row r="355" spans="1:11">
       <c r="A355" s="3"/>
@@ -7096,7 +7127,7 @@
       <c r="H355" s="3"/>
       <c r="I355" s="3"/>
       <c r="J355" s="3"/>
-      <c r="K355" s="39"/>
+      <c r="K355" s="40"/>
     </row>
     <row r="356" spans="1:11">
       <c r="A356" s="3"/>
@@ -7108,7 +7139,7 @@
       <c r="H356" s="3"/>
       <c r="I356" s="3"/>
       <c r="J356" s="3"/>
-      <c r="K356" s="39"/>
+      <c r="K356" s="40"/>
     </row>
     <row r="357" spans="1:11">
       <c r="A357" s="3"/>
@@ -7120,7 +7151,7 @@
       <c r="H357" s="3"/>
       <c r="I357" s="3"/>
       <c r="J357" s="3"/>
-      <c r="K357" s="39"/>
+      <c r="K357" s="40"/>
     </row>
     <row r="358" spans="1:11">
       <c r="A358" s="3"/>
@@ -7132,7 +7163,7 @@
       <c r="H358" s="3"/>
       <c r="I358" s="3"/>
       <c r="J358" s="3"/>
-      <c r="K358" s="39"/>
+      <c r="K358" s="40"/>
     </row>
     <row r="359" spans="1:11">
       <c r="A359" s="3"/>
@@ -7144,7 +7175,7 @@
       <c r="H359" s="3"/>
       <c r="I359" s="3"/>
       <c r="J359" s="3"/>
-      <c r="K359" s="39"/>
+      <c r="K359" s="40"/>
     </row>
     <row r="360" spans="1:11">
       <c r="A360" s="3"/>
@@ -7156,7 +7187,7 @@
       <c r="H360" s="3"/>
       <c r="I360" s="3"/>
       <c r="J360" s="3"/>
-      <c r="K360" s="39"/>
+      <c r="K360" s="40"/>
     </row>
     <row r="361" spans="1:11">
       <c r="A361" s="3"/>
@@ -7168,7 +7199,7 @@
       <c r="H361" s="3"/>
       <c r="I361" s="3"/>
       <c r="J361" s="3"/>
-      <c r="K361" s="39"/>
+      <c r="K361" s="40"/>
     </row>
     <row r="362" spans="1:11">
       <c r="A362" s="3"/>
@@ -7180,7 +7211,7 @@
       <c r="H362" s="3"/>
       <c r="I362" s="3"/>
       <c r="J362" s="3"/>
-      <c r="K362" s="39"/>
+      <c r="K362" s="40"/>
     </row>
     <row r="363" spans="1:11">
       <c r="A363" s="3"/>
@@ -7192,7 +7223,7 @@
       <c r="H363" s="3"/>
       <c r="I363" s="3"/>
       <c r="J363" s="3"/>
-      <c r="K363" s="39"/>
+      <c r="K363" s="40"/>
     </row>
     <row r="364" spans="1:11">
       <c r="A364" s="3"/>
@@ -7204,7 +7235,7 @@
       <c r="H364" s="3"/>
       <c r="I364" s="3"/>
       <c r="J364" s="3"/>
-      <c r="K364" s="39"/>
+      <c r="K364" s="40"/>
     </row>
     <row r="365" spans="1:11">
       <c r="A365" s="3"/>
@@ -7216,7 +7247,7 @@
       <c r="H365" s="3"/>
       <c r="I365" s="3"/>
       <c r="J365" s="3"/>
-      <c r="K365" s="39"/>
+      <c r="K365" s="40"/>
     </row>
     <row r="366" spans="1:11">
       <c r="A366" s="3"/>
@@ -7228,7 +7259,7 @@
       <c r="H366" s="3"/>
       <c r="I366" s="3"/>
       <c r="J366" s="3"/>
-      <c r="K366" s="39"/>
+      <c r="K366" s="40"/>
     </row>
     <row r="367" spans="1:11">
       <c r="A367" s="3"/>
@@ -7240,7 +7271,7 @@
       <c r="H367" s="3"/>
       <c r="I367" s="3"/>
       <c r="J367" s="3"/>
-      <c r="K367" s="39"/>
+      <c r="K367" s="40"/>
     </row>
     <row r="368" spans="1:11">
       <c r="A368" s="3"/>
@@ -7252,7 +7283,7 @@
       <c r="H368" s="3"/>
       <c r="I368" s="3"/>
       <c r="J368" s="3"/>
-      <c r="K368" s="39"/>
+      <c r="K368" s="40"/>
     </row>
     <row r="369" spans="1:11">
       <c r="A369" s="3"/>
@@ -7264,7 +7295,7 @@
       <c r="H369" s="3"/>
       <c r="I369" s="3"/>
       <c r="J369" s="3"/>
-      <c r="K369" s="39"/>
+      <c r="K369" s="40"/>
     </row>
     <row r="370" spans="1:11">
       <c r="A370" s="3"/>
@@ -7276,7 +7307,7 @@
       <c r="H370" s="3"/>
       <c r="I370" s="3"/>
       <c r="J370" s="3"/>
-      <c r="K370" s="39"/>
+      <c r="K370" s="40"/>
     </row>
     <row r="371" spans="1:11">
       <c r="A371" s="3"/>
@@ -7288,7 +7319,7 @@
       <c r="H371" s="3"/>
       <c r="I371" s="3"/>
       <c r="J371" s="3"/>
-      <c r="K371" s="39"/>
+      <c r="K371" s="40"/>
     </row>
     <row r="372" spans="1:11">
       <c r="A372" s="3"/>
@@ -7300,7 +7331,7 @@
       <c r="H372" s="3"/>
       <c r="I372" s="3"/>
       <c r="J372" s="3"/>
-      <c r="K372" s="39"/>
+      <c r="K372" s="40"/>
     </row>
     <row r="373" spans="1:11">
       <c r="A373" s="3"/>
@@ -7312,7 +7343,7 @@
       <c r="H373" s="3"/>
       <c r="I373" s="3"/>
       <c r="J373" s="3"/>
-      <c r="K373" s="39"/>
+      <c r="K373" s="40"/>
     </row>
     <row r="374" spans="1:11">
       <c r="A374" s="3"/>
@@ -7324,7 +7355,7 @@
       <c r="H374" s="3"/>
       <c r="I374" s="3"/>
       <c r="J374" s="3"/>
-      <c r="K374" s="39"/>
+      <c r="K374" s="40"/>
     </row>
     <row r="375" spans="1:11">
       <c r="A375" s="3"/>
@@ -7336,7 +7367,7 @@
       <c r="H375" s="3"/>
       <c r="I375" s="3"/>
       <c r="J375" s="3"/>
-      <c r="K375" s="39"/>
+      <c r="K375" s="40"/>
     </row>
     <row r="376" spans="1:11">
       <c r="A376" s="3"/>
@@ -7348,7 +7379,7 @@
       <c r="H376" s="3"/>
       <c r="I376" s="3"/>
       <c r="J376" s="3"/>
-      <c r="K376" s="39"/>
+      <c r="K376" s="40"/>
     </row>
     <row r="377" spans="1:11">
       <c r="A377" s="3"/>
@@ -7360,7 +7391,7 @@
       <c r="H377" s="3"/>
       <c r="I377" s="3"/>
       <c r="J377" s="3"/>
-      <c r="K377" s="39"/>
+      <c r="K377" s="40"/>
     </row>
     <row r="378" spans="1:11">
       <c r="A378" s="3"/>
@@ -7372,7 +7403,7 @@
       <c r="H378" s="3"/>
       <c r="I378" s="3"/>
       <c r="J378" s="3"/>
-      <c r="K378" s="39"/>
+      <c r="K378" s="40"/>
     </row>
     <row r="379" spans="1:11">
       <c r="A379" s="3"/>
@@ -7384,7 +7415,7 @@
       <c r="H379" s="3"/>
       <c r="I379" s="3"/>
       <c r="J379" s="3"/>
-      <c r="K379" s="39"/>
+      <c r="K379" s="40"/>
     </row>
     <row r="380" spans="1:11">
       <c r="A380" s="3"/>
@@ -7396,7 +7427,7 @@
       <c r="H380" s="3"/>
       <c r="I380" s="3"/>
       <c r="J380" s="3"/>
-      <c r="K380" s="39"/>
+      <c r="K380" s="40"/>
     </row>
     <row r="381" spans="1:11">
       <c r="A381" s="3"/>
@@ -7408,7 +7439,7 @@
       <c r="H381" s="3"/>
       <c r="I381" s="3"/>
       <c r="J381" s="3"/>
-      <c r="K381" s="39"/>
+      <c r="K381" s="40"/>
     </row>
     <row r="382" spans="1:11">
       <c r="A382" s="3"/>
@@ -7420,7 +7451,7 @@
       <c r="H382" s="3"/>
       <c r="I382" s="3"/>
       <c r="J382" s="3"/>
-      <c r="K382" s="39"/>
+      <c r="K382" s="40"/>
     </row>
     <row r="383" spans="1:11">
       <c r="A383" s="3"/>
@@ -7432,7 +7463,7 @@
       <c r="H383" s="3"/>
       <c r="I383" s="3"/>
       <c r="J383" s="3"/>
-      <c r="K383" s="39"/>
+      <c r="K383" s="40"/>
     </row>
     <row r="384" spans="1:11">
       <c r="A384" s="3"/>
@@ -7444,7 +7475,7 @@
       <c r="H384" s="3"/>
       <c r="I384" s="3"/>
       <c r="J384" s="3"/>
-      <c r="K384" s="39"/>
+      <c r="K384" s="40"/>
     </row>
     <row r="385" spans="1:11">
       <c r="A385" s="3"/>
@@ -7456,7 +7487,7 @@
       <c r="H385" s="3"/>
       <c r="I385" s="3"/>
       <c r="J385" s="3"/>
-      <c r="K385" s="39"/>
+      <c r="K385" s="40"/>
     </row>
     <row r="386" spans="1:11">
       <c r="A386" s="3"/>
@@ -7468,7 +7499,7 @@
       <c r="H386" s="3"/>
       <c r="I386" s="3"/>
       <c r="J386" s="3"/>
-      <c r="K386" s="39"/>
+      <c r="K386" s="40"/>
     </row>
     <row r="387" spans="1:11">
       <c r="A387" s="3"/>
@@ -7480,7 +7511,7 @@
       <c r="H387" s="3"/>
       <c r="I387" s="3"/>
       <c r="J387" s="3"/>
-      <c r="K387" s="39"/>
+      <c r="K387" s="40"/>
     </row>
     <row r="388" spans="1:11">
       <c r="A388" s="3"/>
@@ -7492,7 +7523,7 @@
       <c r="H388" s="3"/>
       <c r="I388" s="3"/>
       <c r="J388" s="3"/>
-      <c r="K388" s="39"/>
+      <c r="K388" s="40"/>
     </row>
     <row r="389" spans="1:11">
       <c r="A389" s="3"/>
@@ -7504,7 +7535,7 @@
       <c r="H389" s="3"/>
       <c r="I389" s="3"/>
       <c r="J389" s="3"/>
-      <c r="K389" s="39"/>
+      <c r="K389" s="40"/>
     </row>
     <row r="390" spans="1:11">
       <c r="A390" s="3"/>
@@ -7516,7 +7547,7 @@
       <c r="H390" s="3"/>
       <c r="I390" s="3"/>
       <c r="J390" s="3"/>
-      <c r="K390" s="39"/>
+      <c r="K390" s="40"/>
     </row>
     <row r="391" spans="1:11">
       <c r="A391" s="3"/>
@@ -7528,7 +7559,7 @@
       <c r="H391" s="3"/>
       <c r="I391" s="3"/>
       <c r="J391" s="3"/>
-      <c r="K391" s="39"/>
+      <c r="K391" s="40"/>
     </row>
     <row r="392" spans="1:11">
       <c r="A392" s="3"/>
@@ -7540,7 +7571,7 @@
       <c r="H392" s="3"/>
       <c r="I392" s="3"/>
       <c r="J392" s="3"/>
-      <c r="K392" s="39"/>
+      <c r="K392" s="40"/>
     </row>
     <row r="393" spans="1:11">
       <c r="A393" s="3"/>
@@ -7552,7 +7583,7 @@
       <c r="H393" s="3"/>
       <c r="I393" s="3"/>
       <c r="J393" s="3"/>
-      <c r="K393" s="39"/>
+      <c r="K393" s="40"/>
     </row>
     <row r="394" spans="1:11">
       <c r="A394" s="3"/>
@@ -7564,7 +7595,7 @@
       <c r="H394" s="3"/>
       <c r="I394" s="3"/>
       <c r="J394" s="3"/>
-      <c r="K394" s="39"/>
+      <c r="K394" s="40"/>
     </row>
     <row r="395" spans="1:11">
       <c r="A395" s="3"/>
@@ -7576,7 +7607,7 @@
       <c r="H395" s="3"/>
       <c r="I395" s="3"/>
       <c r="J395" s="3"/>
-      <c r="K395" s="39"/>
+      <c r="K395" s="40"/>
     </row>
     <row r="396" spans="1:11">
       <c r="A396" s="3"/>
@@ -7588,7 +7619,7 @@
       <c r="H396" s="3"/>
       <c r="I396" s="3"/>
       <c r="J396" s="3"/>
-      <c r="K396" s="39"/>
+      <c r="K396" s="40"/>
     </row>
     <row r="397" spans="1:11">
       <c r="A397" s="3"/>
@@ -7600,7 +7631,7 @@
       <c r="H397" s="3"/>
       <c r="I397" s="3"/>
       <c r="J397" s="3"/>
-      <c r="K397" s="39"/>
+      <c r="K397" s="40"/>
     </row>
     <row r="398" spans="1:11">
       <c r="A398" s="3"/>
@@ -7612,7 +7643,7 @@
       <c r="H398" s="3"/>
       <c r="I398" s="3"/>
       <c r="J398" s="3"/>
-      <c r="K398" s="39"/>
+      <c r="K398" s="40"/>
     </row>
     <row r="399" spans="1:11">
       <c r="A399" s="3"/>
@@ -7624,7 +7655,7 @@
       <c r="H399" s="3"/>
       <c r="I399" s="3"/>
       <c r="J399" s="3"/>
-      <c r="K399" s="39"/>
+      <c r="K399" s="40"/>
     </row>
     <row r="400" spans="1:11">
       <c r="A400" s="3"/>
@@ -7636,7 +7667,7 @@
       <c r="H400" s="3"/>
       <c r="I400" s="3"/>
       <c r="J400" s="3"/>
-      <c r="K400" s="39"/>
+      <c r="K400" s="40"/>
     </row>
     <row r="401" spans="1:11">
       <c r="A401" s="3"/>
@@ -7648,7 +7679,7 @@
       <c r="H401" s="3"/>
       <c r="I401" s="3"/>
       <c r="J401" s="3"/>
-      <c r="K401" s="39"/>
+      <c r="K401" s="40"/>
     </row>
     <row r="402" spans="1:11">
       <c r="A402" s="3"/>
@@ -7660,7 +7691,7 @@
       <c r="H402" s="3"/>
       <c r="I402" s="3"/>
       <c r="J402" s="3"/>
-      <c r="K402" s="39"/>
+      <c r="K402" s="40"/>
     </row>
     <row r="403" spans="1:11">
       <c r="A403" s="3"/>
@@ -7672,7 +7703,7 @@
       <c r="H403" s="3"/>
       <c r="I403" s="3"/>
       <c r="J403" s="3"/>
-      <c r="K403" s="39"/>
+      <c r="K403" s="40"/>
     </row>
     <row r="404" spans="1:11">
       <c r="A404" s="3"/>
@@ -7684,7 +7715,7 @@
       <c r="H404" s="3"/>
       <c r="I404" s="3"/>
       <c r="J404" s="3"/>
-      <c r="K404" s="39"/>
+      <c r="K404" s="40"/>
     </row>
     <row r="405" spans="1:11">
       <c r="A405" s="3"/>
@@ -7696,7 +7727,7 @@
       <c r="H405" s="3"/>
       <c r="I405" s="3"/>
       <c r="J405" s="3"/>
-      <c r="K405" s="39"/>
+      <c r="K405" s="40"/>
     </row>
     <row r="406" spans="1:11">
       <c r="A406" s="3"/>
@@ -7708,7 +7739,7 @@
       <c r="H406" s="3"/>
       <c r="I406" s="3"/>
       <c r="J406" s="3"/>
-      <c r="K406" s="39"/>
+      <c r="K406" s="40"/>
     </row>
     <row r="407" spans="1:11">
       <c r="A407" s="3"/>
@@ -7720,7 +7751,7 @@
       <c r="H407" s="3"/>
       <c r="I407" s="3"/>
       <c r="J407" s="3"/>
-      <c r="K407" s="39"/>
+      <c r="K407" s="40"/>
     </row>
     <row r="408" spans="1:11">
       <c r="A408" s="3"/>
@@ -7732,7 +7763,7 @@
       <c r="H408" s="3"/>
       <c r="I408" s="3"/>
       <c r="J408" s="3"/>
-      <c r="K408" s="39"/>
+      <c r="K408" s="40"/>
     </row>
     <row r="409" spans="1:11">
       <c r="A409" s="3"/>
@@ -7744,7 +7775,7 @@
       <c r="H409" s="3"/>
       <c r="I409" s="3"/>
       <c r="J409" s="3"/>
-      <c r="K409" s="39"/>
+      <c r="K409" s="40"/>
     </row>
     <row r="410" spans="1:11">
       <c r="A410" s="3"/>
@@ -7756,7 +7787,7 @@
       <c r="H410" s="3"/>
       <c r="I410" s="3"/>
       <c r="J410" s="3"/>
-      <c r="K410" s="39"/>
+      <c r="K410" s="40"/>
     </row>
     <row r="411" spans="1:11">
       <c r="A411" s="3"/>
@@ -7768,7 +7799,7 @@
       <c r="H411" s="3"/>
       <c r="I411" s="3"/>
       <c r="J411" s="3"/>
-      <c r="K411" s="39"/>
+      <c r="K411" s="40"/>
     </row>
     <row r="412" spans="1:11">
       <c r="A412" s="3"/>
@@ -7780,7 +7811,7 @@
       <c r="H412" s="3"/>
       <c r="I412" s="3"/>
       <c r="J412" s="3"/>
-      <c r="K412" s="39"/>
+      <c r="K412" s="40"/>
     </row>
     <row r="413" spans="1:11">
       <c r="A413" s="3"/>
@@ -7792,7 +7823,7 @@
       <c r="H413" s="3"/>
       <c r="I413" s="3"/>
       <c r="J413" s="3"/>
-      <c r="K413" s="39"/>
+      <c r="K413" s="40"/>
     </row>
     <row r="414" spans="1:11">
       <c r="A414" s="3"/>
@@ -7804,7 +7835,7 @@
       <c r="H414" s="3"/>
       <c r="I414" s="3"/>
       <c r="J414" s="3"/>
-      <c r="K414" s="39"/>
+      <c r="K414" s="40"/>
     </row>
     <row r="415" spans="1:11">
       <c r="A415" s="3"/>
@@ -7816,7 +7847,7 @@
       <c r="H415" s="3"/>
       <c r="I415" s="3"/>
       <c r="J415" s="3"/>
-      <c r="K415" s="39"/>
+      <c r="K415" s="40"/>
     </row>
     <row r="416" spans="1:11">
       <c r="A416" s="3"/>
@@ -7828,7 +7859,7 @@
       <c r="H416" s="3"/>
       <c r="I416" s="3"/>
       <c r="J416" s="3"/>
-      <c r="K416" s="39"/>
+      <c r="K416" s="40"/>
     </row>
     <row r="417" spans="1:11">
       <c r="A417" s="3"/>
@@ -7840,7 +7871,7 @@
       <c r="H417" s="3"/>
       <c r="I417" s="3"/>
       <c r="J417" s="3"/>
-      <c r="K417" s="39"/>
+      <c r="K417" s="40"/>
     </row>
     <row r="418" spans="1:11">
       <c r="A418" s="3"/>
@@ -7852,7 +7883,7 @@
       <c r="H418" s="3"/>
       <c r="I418" s="3"/>
       <c r="J418" s="3"/>
-      <c r="K418" s="39"/>
+      <c r="K418" s="40"/>
     </row>
     <row r="419" spans="1:11">
       <c r="A419" s="3"/>
@@ -7864,7 +7895,7 @@
       <c r="H419" s="3"/>
       <c r="I419" s="3"/>
       <c r="J419" s="3"/>
-      <c r="K419" s="39"/>
+      <c r="K419" s="40"/>
     </row>
     <row r="420" spans="1:11">
       <c r="A420" s="3"/>
@@ -7876,7 +7907,7 @@
       <c r="H420" s="3"/>
       <c r="I420" s="3"/>
       <c r="J420" s="3"/>
-      <c r="K420" s="39"/>
+      <c r="K420" s="40"/>
     </row>
     <row r="421" spans="1:11">
       <c r="A421" s="3"/>
@@ -7888,7 +7919,7 @@
       <c r="H421" s="3"/>
       <c r="I421" s="3"/>
       <c r="J421" s="3"/>
-      <c r="K421" s="39"/>
+      <c r="K421" s="40"/>
     </row>
     <row r="422" spans="1:11">
       <c r="A422" s="3"/>
@@ -7900,7 +7931,7 @@
       <c r="H422" s="3"/>
       <c r="I422" s="3"/>
       <c r="J422" s="3"/>
-      <c r="K422" s="39"/>
+      <c r="K422" s="40"/>
     </row>
     <row r="423" spans="1:11">
       <c r="A423" s="3"/>
@@ -7912,7 +7943,7 @@
       <c r="H423" s="3"/>
       <c r="I423" s="3"/>
       <c r="J423" s="3"/>
-      <c r="K423" s="39"/>
+      <c r="K423" s="40"/>
     </row>
     <row r="424" spans="1:11">
       <c r="A424" s="3"/>
@@ -7924,7 +7955,7 @@
       <c r="H424" s="3"/>
       <c r="I424" s="3"/>
       <c r="J424" s="3"/>
-      <c r="K424" s="39"/>
+      <c r="K424" s="40"/>
     </row>
     <row r="425" spans="1:11">
       <c r="A425" s="3"/>
@@ -7936,7 +7967,7 @@
       <c r="H425" s="3"/>
       <c r="I425" s="3"/>
       <c r="J425" s="3"/>
-      <c r="K425" s="39"/>
+      <c r="K425" s="40"/>
     </row>
     <row r="426" spans="1:11">
       <c r="A426" s="3"/>
@@ -7948,7 +7979,7 @@
       <c r="H426" s="3"/>
       <c r="I426" s="3"/>
       <c r="J426" s="3"/>
-      <c r="K426" s="39"/>
+      <c r="K426" s="40"/>
     </row>
     <row r="427" spans="1:11">
       <c r="A427" s="3"/>
@@ -7960,7 +7991,7 @@
       <c r="H427" s="3"/>
       <c r="I427" s="3"/>
       <c r="J427" s="3"/>
-      <c r="K427" s="39"/>
+      <c r="K427" s="40"/>
     </row>
     <row r="428" spans="1:11">
       <c r="A428" s="3"/>
@@ -7972,7 +8003,7 @@
       <c r="H428" s="3"/>
       <c r="I428" s="3"/>
       <c r="J428" s="3"/>
-      <c r="K428" s="39"/>
+      <c r="K428" s="40"/>
     </row>
     <row r="429" spans="1:11">
       <c r="A429" s="3"/>
@@ -7984,7 +8015,7 @@
       <c r="H429" s="3"/>
       <c r="I429" s="3"/>
       <c r="J429" s="3"/>
-      <c r="K429" s="39"/>
+      <c r="K429" s="40"/>
     </row>
     <row r="430" spans="1:11">
       <c r="A430" s="3"/>
@@ -7996,7 +8027,7 @@
       <c r="H430" s="3"/>
       <c r="I430" s="3"/>
       <c r="J430" s="3"/>
-      <c r="K430" s="39"/>
+      <c r="K430" s="40"/>
     </row>
     <row r="431" spans="1:11">
       <c r="A431" s="3"/>
@@ -8008,7 +8039,7 @@
       <c r="H431" s="3"/>
       <c r="I431" s="3"/>
       <c r="J431" s="3"/>
-      <c r="K431" s="39"/>
+      <c r="K431" s="40"/>
     </row>
     <row r="432" spans="1:11">
       <c r="A432" s="3"/>
@@ -8020,7 +8051,7 @@
       <c r="H432" s="3"/>
       <c r="I432" s="3"/>
       <c r="J432" s="3"/>
-      <c r="K432" s="39"/>
+      <c r="K432" s="40"/>
     </row>
     <row r="433" spans="1:11">
       <c r="A433" s="3"/>
@@ -8032,7 +8063,7 @@
       <c r="H433" s="3"/>
       <c r="I433" s="3"/>
       <c r="J433" s="3"/>
-      <c r="K433" s="39"/>
+      <c r="K433" s="40"/>
     </row>
     <row r="434" spans="1:11">
       <c r="A434" s="3"/>
@@ -8044,7 +8075,7 @@
       <c r="H434" s="3"/>
       <c r="I434" s="3"/>
       <c r="J434" s="3"/>
-      <c r="K434" s="39"/>
+      <c r="K434" s="40"/>
     </row>
     <row r="435" spans="1:11">
       <c r="A435" s="3"/>
@@ -8056,7 +8087,7 @@
       <c r="H435" s="3"/>
       <c r="I435" s="3"/>
       <c r="J435" s="3"/>
-      <c r="K435" s="39"/>
+      <c r="K435" s="40"/>
     </row>
     <row r="436" spans="1:11">
       <c r="A436" s="3"/>
@@ -8068,7 +8099,7 @@
       <c r="H436" s="3"/>
       <c r="I436" s="3"/>
       <c r="J436" s="3"/>
-      <c r="K436" s="39"/>
+      <c r="K436" s="40"/>
     </row>
     <row r="437" spans="1:11">
       <c r="A437" s="3"/>
@@ -8080,7 +8111,7 @@
       <c r="H437" s="3"/>
       <c r="I437" s="3"/>
       <c r="J437" s="3"/>
-      <c r="K437" s="39"/>
+      <c r="K437" s="40"/>
     </row>
     <row r="438" spans="1:11">
       <c r="A438" s="3"/>
@@ -8092,7 +8123,7 @@
       <c r="H438" s="3"/>
       <c r="I438" s="3"/>
       <c r="J438" s="3"/>
-      <c r="K438" s="39"/>
+      <c r="K438" s="40"/>
     </row>
     <row r="439" spans="1:11">
       <c r="A439" s="3"/>
@@ -8104,7 +8135,7 @@
       <c r="H439" s="3"/>
       <c r="I439" s="3"/>
       <c r="J439" s="3"/>
-      <c r="K439" s="39"/>
+      <c r="K439" s="40"/>
     </row>
     <row r="440" spans="1:11">
       <c r="A440" s="3"/>
@@ -8116,7 +8147,7 @@
       <c r="H440" s="3"/>
       <c r="I440" s="3"/>
       <c r="J440" s="3"/>
-      <c r="K440" s="39"/>
+      <c r="K440" s="40"/>
     </row>
     <row r="441" spans="1:11">
       <c r="A441" s="3"/>
@@ -8128,7 +8159,7 @@
       <c r="H441" s="3"/>
       <c r="I441" s="3"/>
       <c r="J441" s="3"/>
-      <c r="K441" s="39"/>
+      <c r="K441" s="40"/>
     </row>
     <row r="442" spans="1:11">
       <c r="A442" s="3"/>
@@ -8140,7 +8171,7 @@
       <c r="H442" s="3"/>
       <c r="I442" s="3"/>
       <c r="J442" s="3"/>
-      <c r="K442" s="39"/>
+      <c r="K442" s="40"/>
     </row>
     <row r="443" spans="1:11">
       <c r="A443" s="3"/>
@@ -8152,7 +8183,7 @@
       <c r="H443" s="3"/>
       <c r="I443" s="3"/>
       <c r="J443" s="3"/>
-      <c r="K443" s="39"/>
+      <c r="K443" s="40"/>
     </row>
     <row r="444" spans="1:11">
       <c r="A444" s="3"/>
@@ -8164,7 +8195,7 @@
       <c r="H444" s="3"/>
       <c r="I444" s="3"/>
       <c r="J444" s="3"/>
-      <c r="K444" s="39"/>
+      <c r="K444" s="40"/>
     </row>
     <row r="445" spans="1:11">
       <c r="A445" s="3"/>
@@ -8176,7 +8207,7 @@
       <c r="H445" s="3"/>
       <c r="I445" s="3"/>
       <c r="J445" s="3"/>
-      <c r="K445" s="39"/>
+      <c r="K445" s="40"/>
     </row>
     <row r="446" spans="1:11">
       <c r="A446" s="3"/>
@@ -8188,7 +8219,7 @@
       <c r="H446" s="3"/>
       <c r="I446" s="3"/>
       <c r="J446" s="3"/>
-      <c r="K446" s="39"/>
+      <c r="K446" s="40"/>
     </row>
     <row r="447" spans="1:11">
       <c r="A447" s="3"/>
@@ -8200,7 +8231,7 @@
       <c r="H447" s="3"/>
       <c r="I447" s="3"/>
       <c r="J447" s="3"/>
-      <c r="K447" s="39"/>
+      <c r="K447" s="40"/>
     </row>
     <row r="448" spans="1:11">
       <c r="A448" s="3"/>
@@ -8212,7 +8243,7 @@
       <c r="H448" s="3"/>
       <c r="I448" s="3"/>
       <c r="J448" s="3"/>
-      <c r="K448" s="39"/>
+      <c r="K448" s="40"/>
     </row>
     <row r="449" spans="1:11">
       <c r="A449" s="3"/>
@@ -8224,7 +8255,7 @@
       <c r="H449" s="3"/>
       <c r="I449" s="3"/>
       <c r="J449" s="3"/>
-      <c r="K449" s="39"/>
+      <c r="K449" s="40"/>
     </row>
     <row r="450" spans="1:11">
       <c r="A450" s="3"/>
@@ -8236,7 +8267,7 @@
       <c r="H450" s="3"/>
       <c r="I450" s="3"/>
       <c r="J450" s="3"/>
-      <c r="K450" s="39"/>
+      <c r="K450" s="40"/>
     </row>
     <row r="451" spans="1:11">
       <c r="A451" s="3"/>
@@ -8248,7 +8279,7 @@
       <c r="H451" s="3"/>
       <c r="I451" s="3"/>
       <c r="J451" s="3"/>
-      <c r="K451" s="39"/>
+      <c r="K451" s="40"/>
     </row>
     <row r="452" spans="1:11">
       <c r="A452" s="3"/>
@@ -8260,7 +8291,7 @@
       <c r="H452" s="3"/>
       <c r="I452" s="3"/>
       <c r="J452" s="3"/>
-      <c r="K452" s="39"/>
+      <c r="K452" s="40"/>
     </row>
     <row r="453" spans="1:11">
       <c r="A453" s="3"/>
@@ -8272,7 +8303,7 @@
       <c r="H453" s="3"/>
       <c r="I453" s="3"/>
       <c r="J453" s="3"/>
-      <c r="K453" s="39"/>
+      <c r="K453" s="40"/>
     </row>
     <row r="454" spans="1:11">
       <c r="A454" s="3"/>
@@ -8284,7 +8315,7 @@
       <c r="H454" s="3"/>
       <c r="I454" s="3"/>
       <c r="J454" s="3"/>
-      <c r="K454" s="39"/>
+      <c r="K454" s="40"/>
     </row>
     <row r="455" spans="1:11">
       <c r="A455" s="3"/>
@@ -8296,7 +8327,7 @@
       <c r="H455" s="3"/>
       <c r="I455" s="3"/>
       <c r="J455" s="3"/>
-      <c r="K455" s="39"/>
+      <c r="K455" s="40"/>
     </row>
     <row r="456" spans="1:11">
       <c r="A456" s="3"/>
@@ -8308,7 +8339,7 @@
       <c r="H456" s="3"/>
       <c r="I456" s="3"/>
       <c r="J456" s="3"/>
-      <c r="K456" s="39"/>
+      <c r="K456" s="40"/>
     </row>
     <row r="457" spans="1:11">
       <c r="A457" s="3"/>
@@ -8320,7 +8351,7 @@
       <c r="H457" s="3"/>
       <c r="I457" s="3"/>
       <c r="J457" s="3"/>
-      <c r="K457" s="39"/>
+      <c r="K457" s="40"/>
     </row>
     <row r="458" spans="1:11">
       <c r="A458" s="3"/>
@@ -8332,7 +8363,7 @@
       <c r="H458" s="3"/>
       <c r="I458" s="3"/>
       <c r="J458" s="3"/>
-      <c r="K458" s="39"/>
+      <c r="K458" s="40"/>
     </row>
     <row r="459" spans="1:11">
       <c r="A459" s="3"/>
@@ -8344,7 +8375,7 @@
       <c r="H459" s="3"/>
       <c r="I459" s="3"/>
       <c r="J459" s="3"/>
-      <c r="K459" s="39"/>
+      <c r="K459" s="40"/>
     </row>
     <row r="460" spans="1:11">
       <c r="A460" s="3"/>
@@ -8356,7 +8387,7 @@
       <c r="H460" s="3"/>
       <c r="I460" s="3"/>
       <c r="J460" s="3"/>
-      <c r="K460" s="39"/>
+      <c r="K460" s="40"/>
     </row>
     <row r="461" spans="1:11">
       <c r="A461" s="3"/>
@@ -8368,7 +8399,7 @@
       <c r="H461" s="3"/>
       <c r="I461" s="3"/>
       <c r="J461" s="3"/>
-      <c r="K461" s="39"/>
+      <c r="K461" s="40"/>
     </row>
     <row r="462" spans="1:11">
       <c r="A462" s="3"/>
@@ -8380,7 +8411,7 @@
       <c r="H462" s="3"/>
       <c r="I462" s="3"/>
       <c r="J462" s="3"/>
-      <c r="K462" s="39"/>
+      <c r="K462" s="40"/>
     </row>
     <row r="463" spans="1:11">
       <c r="A463" s="3"/>
@@ -8392,7 +8423,7 @@
       <c r="H463" s="3"/>
       <c r="I463" s="3"/>
       <c r="J463" s="3"/>
-      <c r="K463" s="39"/>
+      <c r="K463" s="40"/>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="3"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
@@ -2225,7 +2225,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -2907,24 +2907,51 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:13">
+    <row r="13" s="1" customFormat="1" ht="13" spans="1:13">
       <c r="A13" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B13" s="27">
         <v>44542</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="26"/>
+      <c r="C13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="33">
+        <v>37.73</v>
+      </c>
+      <c r="F13" s="33">
+        <v>33.38</v>
+      </c>
+      <c r="G13" s="33">
+        <v>46.05</v>
+      </c>
+      <c r="H13" s="33">
+        <f>(E13-F13)*100</f>
+        <v>434.999999999999</v>
+      </c>
+      <c r="I13" s="33">
+        <f>FLOOR(1000/(E13-F13),100)</f>
+        <v>200</v>
+      </c>
+      <c r="J13" s="36">
+        <f>(G13-E13)/(E13-F13)</f>
+        <v>1.91264367816092</v>
+      </c>
+      <c r="K13" s="37">
+        <f>(E13-F13)/E13</f>
+        <v>0.115292870394911</v>
+      </c>
+      <c r="L13" s="38">
+        <f>(G13-E13)/E13</f>
+        <v>0.220514179697853</v>
+      </c>
+      <c r="M13" s="26" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:13">
       <c r="A14" s="28"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
@@ -158,10 +158,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -263,7 +263,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,13 +291,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
@@ -291,47 +298,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -347,14 +322,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,23 +374,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,9 +391,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -444,7 +444,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,7 +468,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,151 +612,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,6 +660,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -671,6 +706,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,66 +753,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -762,148 +762,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2225,7 +2225,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -2395,7 +2395,7 @@
         <v>39.33</v>
       </c>
       <c r="H3" s="33">
-        <f t="shared" ref="H3:H11" si="0">(E3-F3)*100</f>
+        <f t="shared" ref="H3:H13" si="0">(E3-F3)*100</f>
         <v>159</v>
       </c>
       <c r="I3" s="33">
@@ -2407,7 +2407,7 @@
         <v>3.27672955974844</v>
       </c>
       <c r="K3" s="37">
-        <f t="shared" ref="K3:K11" si="2">(E3-F3)/E3</f>
+        <f t="shared" ref="K3:K13" si="2">(E3-F3)/E3</f>
         <v>0.0466002344665884</v>
       </c>
       <c r="L3" s="38">
@@ -2610,7 +2610,7 @@
         <v>592.000000000002</v>
       </c>
       <c r="I6" s="33">
-        <f t="shared" ref="I6:I11" si="4">FLOOR(1000/(E6-F6),100)</f>
+        <f t="shared" ref="I6:I13" si="4">FLOOR(1000/(E6-F6),100)</f>
         <v>100</v>
       </c>
       <c r="J6" s="36">
@@ -2886,18 +2886,18 @@
         <v>42</v>
       </c>
       <c r="H12" s="33">
-        <f>(E12-F12)*100</f>
+        <f t="shared" si="0"/>
         <v>270</v>
       </c>
       <c r="I12" s="33">
-        <f>FLOOR(1000/(E12-F12),100)</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="J12" s="36" t="s">
         <v>42</v>
       </c>
       <c r="K12" s="37">
-        <f>(E12-F12)/E12</f>
+        <f t="shared" si="2"/>
         <v>0.054655870445344</v>
       </c>
       <c r="L12" s="38" t="s">
@@ -2930,11 +2930,11 @@
         <v>46.05</v>
       </c>
       <c r="H13" s="33">
-        <f>(E13-F13)*100</f>
+        <f t="shared" si="0"/>
         <v>434.999999999999</v>
       </c>
       <c r="I13" s="33">
-        <f>FLOOR(1000/(E13-F13),100)</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="J13" s="36">
@@ -2942,7 +2942,7 @@
         <v>1.91264367816092</v>
       </c>
       <c r="K13" s="37">
-        <f>(E13-F13)/E13</f>
+        <f t="shared" si="2"/>
         <v>0.115292870394911</v>
       </c>
       <c r="L13" s="38">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
@@ -2225,7 +2225,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10:D10"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
@@ -3179,11 +3179,11 @@
   <dimension ref="A1:BF541"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="L37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F36" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E58" sqref="E58"/>
+      <selection pane="bottomRight" activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="14.8"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
@@ -3203,11 +3203,11 @@
   <dimension ref="A1:BH541"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="N37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F37" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q59" sqref="Q59"/>
+      <selection pane="bottomRight" activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="14.8"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
@@ -3243,7 +3243,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T61" sqref="T61"/>
+      <selection pane="bottomRight" activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="14.8"/>
@@ -5217,7 +5217,7 @@
       </c>
       <c r="M35" s="92">
         <f t="shared" si="5"/>
-        <v>2.67474048442907</v>
+        <v>2.67474048442906</v>
       </c>
       <c r="N35" s="93">
         <f t="shared" si="6"/>
@@ -5665,7 +5665,7 @@
       </c>
       <c r="M43" s="92">
         <f t="shared" si="5"/>
-        <v>3.41615384615386</v>
+        <v>3.41615384615385</v>
       </c>
       <c r="N43" s="93">
         <f t="shared" si="6"/>
@@ -6649,20 +6649,22 @@
         <v>0.69</v>
       </c>
       <c r="F60" s="82">
+        <v>14.41</v>
+      </c>
+      <c r="G60" s="82">
         <v>14.42</v>
       </c>
-      <c r="G60" s="82"/>
       <c r="H60" s="82"/>
       <c r="I60" s="82">
         <v>13.17</v>
       </c>
       <c r="J60" s="63">
         <f t="shared" si="8"/>
-        <v>17.304</v>
+        <v>17.292</v>
       </c>
       <c r="K60" s="86">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L60" s="86">
         <f t="shared" si="10"/>
@@ -6670,11 +6672,11 @@
       </c>
       <c r="M60" s="92">
         <f t="shared" si="5"/>
-        <v>2.3072</v>
+        <v>2.3241935483871</v>
       </c>
       <c r="N60" s="93">
         <f>(F60-$I60)/F60</f>
-        <v>0.0866851595006935</v>
+        <v>0.0860513532269258</v>
       </c>
       <c r="O60" s="98"/>
       <c r="P60" s="98"/>
@@ -6682,7 +6684,7 @@
       <c r="R60" s="98"/>
       <c r="S60" s="104">
         <f t="shared" si="9"/>
-        <v>17304</v>
+        <v>17292</v>
       </c>
       <c r="T60" s="52" t="s">
         <v>98</v>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="交易计划及执行表" sheetId="7" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">交易计划及执行表!$T$1:$T$541</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -142,6 +145,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t>执行失败</t>
     </r>
     <r>
@@ -223,6 +232,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t>执行失败</t>
     </r>
     <r>
@@ -313,6 +328,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t>执行失败</t>
     </r>
     <r>
@@ -346,6 +367,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t>执行失败</t>
     </r>
     <r>
@@ -397,6 +424,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t>执行失败</t>
     </r>
     <r>
@@ -436,6 +469,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t>执行失败</t>
     </r>
     <r>
@@ -481,6 +520,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t>执行失败</t>
     </r>
     <r>
@@ -531,9 +576,6 @@
     <t>青岛啤酒</t>
   </si>
   <si>
-    <t>执行中</t>
-  </si>
-  <si>
     <t>JH_00031</t>
   </si>
   <si>
@@ -571,6 +613,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t>执行失败</t>
     </r>
     <r>
@@ -640,6 +688,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
       <t>暂不执行</t>
     </r>
     <r>
@@ -788,6 +842,9 @@
     <t>贵研铂业</t>
   </si>
   <si>
+    <t>执行中</t>
+  </si>
+  <si>
     <t>JH_00060</t>
   </si>
   <si>
@@ -802,16 +859,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="43">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -921,6 +978,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF152122"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
@@ -941,37 +1004,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -985,7 +1025,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
@@ -993,8 +1032,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1016,9 +1069,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1033,21 +1102,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1061,18 +1138,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1081,13 +1151,6 @@
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1148,7 +1211,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1160,19 +1223,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1184,7 +1259,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1196,13 +1331,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1214,121 +1379,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1373,8 +1436,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1384,17 +1447,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1429,11 +1481,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1453,17 +1522,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1472,97 +1535,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1571,49 +1634,49 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1750,6 +1813,9 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1816,9 +1882,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1828,10 +1891,10 @@
     <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="3" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1843,7 +1906,7 @@
     <xf numFmtId="10" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1888,7 +1951,7 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1906,13 +1969,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
@@ -3104,11 +3167,11 @@
   <dimension ref="A1:BH541"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="N47" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G62" sqref="G62"/>
+      <selection pane="bottomRight" activeCell="T61" sqref="T61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="14.8"/>
@@ -3144,22 +3207,22 @@
       <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="48" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="16" t="s">
@@ -3234,12 +3297,12 @@
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
       <c r="D2" s="20"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
       <c r="K2" s="69"/>
       <c r="L2" s="69"/>
       <c r="M2" s="73"/>
@@ -3300,16 +3363,16 @@
       <c r="D3" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50">
+      <c r="E3" s="51"/>
+      <c r="F3" s="51">
         <v>34.12</v>
       </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50">
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51">
         <v>32.53</v>
       </c>
-      <c r="J3" s="50">
+      <c r="J3" s="51">
         <f>(F3+F3*0.2)</f>
         <v>40.944</v>
       </c>
@@ -3387,16 +3450,16 @@
       <c r="D4" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50">
+      <c r="E4" s="51"/>
+      <c r="F4" s="51">
         <v>32.65</v>
       </c>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50">
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51">
         <v>30.89</v>
       </c>
-      <c r="J4" s="50">
+      <c r="J4" s="51">
         <f t="shared" ref="J4:J25" si="3">(F4+F4*0.2)</f>
         <v>39.18</v>
       </c>
@@ -3474,16 +3537,16 @@
       <c r="D5" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50">
+      <c r="E5" s="51"/>
+      <c r="F5" s="51">
         <v>51.15</v>
       </c>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50">
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51">
         <v>46.61</v>
       </c>
-      <c r="J5" s="50">
+      <c r="J5" s="51">
         <f t="shared" si="3"/>
         <v>61.38</v>
       </c>
@@ -3526,16 +3589,16 @@
       <c r="D6" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="51">
+      <c r="E6" s="51"/>
+      <c r="F6" s="52">
         <v>143.8</v>
       </c>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51">
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52">
         <v>137.88</v>
       </c>
-      <c r="J6" s="50">
+      <c r="J6" s="51">
         <f t="shared" si="3"/>
         <v>172.56</v>
       </c>
@@ -3578,16 +3641,16 @@
       <c r="D7" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51">
+      <c r="E7" s="51"/>
+      <c r="F7" s="52">
         <v>20.44</v>
       </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51">
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52">
         <v>19.09</v>
       </c>
-      <c r="J7" s="50">
+      <c r="J7" s="51">
         <f t="shared" si="3"/>
         <v>24.528</v>
       </c>
@@ -3630,18 +3693,18 @@
       <c r="D8" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="52">
+      <c r="E8" s="53">
         <v>0.2</v>
       </c>
-      <c r="F8" s="50">
+      <c r="F8" s="51">
         <v>17.19</v>
       </c>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50">
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51">
         <v>15.5</v>
       </c>
-      <c r="J8" s="50">
+      <c r="J8" s="51">
         <f t="shared" si="3"/>
         <v>20.628</v>
       </c>
@@ -3684,16 +3747,16 @@
       <c r="D9" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="53"/>
-      <c r="F9" s="50">
+      <c r="E9" s="54"/>
+      <c r="F9" s="51">
         <v>64.3</v>
       </c>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50">
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51">
         <v>58.51</v>
       </c>
-      <c r="J9" s="50">
+      <c r="J9" s="51">
         <f t="shared" si="3"/>
         <v>77.16</v>
       </c>
@@ -3735,16 +3798,16 @@
       <c r="D10" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="50">
+      <c r="E10" s="55"/>
+      <c r="F10" s="51">
         <v>39.15</v>
       </c>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50">
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51">
         <v>35.91</v>
       </c>
-      <c r="J10" s="50">
+      <c r="J10" s="51">
         <f t="shared" si="3"/>
         <v>46.98</v>
       </c>
@@ -3786,16 +3849,16 @@
       <c r="D11" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="54"/>
-      <c r="F11" s="50">
+      <c r="E11" s="55"/>
+      <c r="F11" s="51">
         <v>117.8</v>
       </c>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50">
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51">
         <v>111.17</v>
       </c>
-      <c r="J11" s="50">
+      <c r="J11" s="51">
         <f t="shared" si="3"/>
         <v>141.36</v>
       </c>
@@ -3838,16 +3901,16 @@
       <c r="D12" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50">
+      <c r="E12" s="51"/>
+      <c r="F12" s="51">
         <v>49.4</v>
       </c>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50">
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51">
         <v>46.7</v>
       </c>
-      <c r="J12" s="50">
+      <c r="J12" s="51">
         <f t="shared" si="3"/>
         <v>59.28</v>
       </c>
@@ -3888,16 +3951,16 @@
       <c r="D13" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50">
+      <c r="E13" s="51"/>
+      <c r="F13" s="51">
         <v>37.73</v>
       </c>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50">
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51">
         <v>34.68</v>
       </c>
-      <c r="J13" s="50">
+      <c r="J13" s="51">
         <f t="shared" si="3"/>
         <v>45.276</v>
       </c>
@@ -3940,16 +4003,16 @@
       <c r="D14" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50">
+      <c r="E14" s="51"/>
+      <c r="F14" s="51">
         <v>70.98</v>
       </c>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50">
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51">
         <v>66.88</v>
       </c>
-      <c r="J14" s="50">
+      <c r="J14" s="51">
         <f t="shared" si="3"/>
         <v>85.176</v>
       </c>
@@ -3992,16 +4055,16 @@
       <c r="D15" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50">
+      <c r="E15" s="51"/>
+      <c r="F15" s="51">
         <v>29.77</v>
       </c>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50">
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51">
         <v>27.72</v>
       </c>
-      <c r="J15" s="50">
+      <c r="J15" s="51">
         <f t="shared" si="3"/>
         <v>35.724</v>
       </c>
@@ -4044,16 +4107,16 @@
       <c r="D16" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50">
+      <c r="E16" s="51"/>
+      <c r="F16" s="51">
         <v>30.66</v>
       </c>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50">
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51">
         <v>29.35</v>
       </c>
-      <c r="J16" s="50">
+      <c r="J16" s="51">
         <f t="shared" si="3"/>
         <v>36.792</v>
       </c>
@@ -4096,16 +4159,16 @@
       <c r="D17" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50">
+      <c r="E17" s="51"/>
+      <c r="F17" s="51">
         <v>26.2</v>
       </c>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50">
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51">
         <v>24.68</v>
       </c>
-      <c r="J17" s="50">
+      <c r="J17" s="51">
         <f t="shared" si="3"/>
         <v>31.44</v>
       </c>
@@ -4148,16 +4211,16 @@
       <c r="D18" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50">
+      <c r="E18" s="51"/>
+      <c r="F18" s="51">
         <v>28.82</v>
       </c>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50">
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51">
         <v>26.31</v>
       </c>
-      <c r="J18" s="50">
+      <c r="J18" s="51">
         <f t="shared" si="3"/>
         <v>34.584</v>
       </c>
@@ -4200,18 +4263,18 @@
       <c r="D19" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="50">
+      <c r="E19" s="51">
         <v>0.671</v>
       </c>
-      <c r="F19" s="55">
+      <c r="F19" s="56">
         <v>38.89</v>
       </c>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55">
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56">
         <v>36.65</v>
       </c>
-      <c r="J19" s="50">
+      <c r="J19" s="51">
         <f t="shared" si="3"/>
         <v>46.668</v>
       </c>
@@ -4253,16 +4316,16 @@
       <c r="D20" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="56"/>
-      <c r="F20" s="55">
+      <c r="E20" s="57"/>
+      <c r="F20" s="56">
         <v>27.73</v>
       </c>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55">
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56">
         <v>25.3</v>
       </c>
-      <c r="J20" s="50">
+      <c r="J20" s="51">
         <f t="shared" si="3"/>
         <v>33.276</v>
       </c>
@@ -4304,16 +4367,16 @@
       <c r="D21" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="56"/>
-      <c r="F21" s="55">
+      <c r="E21" s="57"/>
+      <c r="F21" s="56">
         <v>11.75</v>
       </c>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55">
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56">
         <v>10.9</v>
       </c>
-      <c r="J21" s="50">
+      <c r="J21" s="51">
         <f t="shared" si="3"/>
         <v>14.1</v>
       </c>
@@ -4355,18 +4418,18 @@
       <c r="D22" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="56">
+      <c r="E22" s="57">
         <v>10.68</v>
       </c>
-      <c r="F22" s="55">
+      <c r="F22" s="56">
         <v>77.98</v>
       </c>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55">
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56">
         <v>70.4</v>
       </c>
-      <c r="J22" s="50">
+      <c r="J22" s="51">
         <f t="shared" si="3"/>
         <v>93.576</v>
       </c>
@@ -4408,16 +4471,16 @@
       <c r="D23" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="52"/>
-      <c r="F23" s="55">
+      <c r="E23" s="53"/>
+      <c r="F23" s="56">
         <v>278</v>
       </c>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55">
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56">
         <v>260.02</v>
       </c>
-      <c r="J23" s="50">
+      <c r="J23" s="51">
         <f t="shared" si="3"/>
         <v>333.6</v>
       </c>
@@ -4459,18 +4522,18 @@
       <c r="D24" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="57">
+      <c r="E24" s="58">
         <v>1.69</v>
       </c>
-      <c r="F24" s="55">
+      <c r="F24" s="56">
         <v>64.68</v>
       </c>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55">
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56">
         <v>59.29</v>
       </c>
-      <c r="J24" s="50">
+      <c r="J24" s="51">
         <f t="shared" si="3"/>
         <v>77.616</v>
       </c>
@@ -4512,18 +4575,18 @@
       <c r="D25" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="52">
+      <c r="E25" s="53">
         <v>1.58</v>
       </c>
-      <c r="F25" s="55">
+      <c r="F25" s="56">
         <v>39.39</v>
       </c>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55">
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56">
         <v>36.13</v>
       </c>
-      <c r="J25" s="50">
+      <c r="J25" s="51">
         <f t="shared" si="3"/>
         <v>47.268</v>
       </c>
@@ -4565,16 +4628,16 @@
       <c r="D26" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="54"/>
-      <c r="F26" s="55">
+      <c r="E26" s="55"/>
+      <c r="F26" s="56">
         <v>118.25</v>
       </c>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55">
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56">
         <v>110.08</v>
       </c>
-      <c r="J26" s="50">
+      <c r="J26" s="51">
         <f t="shared" ref="J26:J62" si="8">(F26+F26*0.2)</f>
         <v>141.9</v>
       </c>
@@ -4616,16 +4679,16 @@
       <c r="D27" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="E27" s="57"/>
-      <c r="F27" s="58">
+      <c r="E27" s="58"/>
+      <c r="F27" s="59">
         <v>215</v>
       </c>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58">
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59">
         <v>198</v>
       </c>
-      <c r="J27" s="50">
+      <c r="J27" s="51">
         <f t="shared" si="8"/>
         <v>258</v>
       </c>
@@ -4667,18 +4730,18 @@
       <c r="D28" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="59">
+      <c r="E28" s="60">
         <v>1.87</v>
       </c>
-      <c r="F28" s="58">
+      <c r="F28" s="59">
         <v>55.99</v>
       </c>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58">
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59">
         <v>52</v>
       </c>
-      <c r="J28" s="50">
+      <c r="J28" s="51">
         <f t="shared" si="8"/>
         <v>67.188</v>
       </c>
@@ -4723,16 +4786,16 @@
       <c r="D29" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E29" s="52"/>
-      <c r="F29" s="58">
+      <c r="E29" s="53"/>
+      <c r="F29" s="59">
         <v>183.8</v>
       </c>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58">
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59">
         <v>170.6</v>
       </c>
-      <c r="J29" s="50">
+      <c r="J29" s="51">
         <f t="shared" si="8"/>
         <v>220.56</v>
       </c>
@@ -4777,18 +4840,18 @@
       <c r="D30" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="E30" s="57">
+      <c r="E30" s="58">
         <v>1.27</v>
       </c>
-      <c r="F30" s="58">
+      <c r="F30" s="59">
         <v>27.68</v>
       </c>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58">
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59">
         <v>26</v>
       </c>
-      <c r="J30" s="50">
+      <c r="J30" s="51">
         <f t="shared" si="8"/>
         <v>33.216</v>
       </c>
@@ -4833,18 +4896,18 @@
       <c r="D31" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="54">
+      <c r="E31" s="55">
         <v>2.12</v>
       </c>
-      <c r="F31" s="58">
+      <c r="F31" s="59">
         <v>39.16</v>
       </c>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58">
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59">
         <v>35.6</v>
       </c>
-      <c r="J31" s="50">
+      <c r="J31" s="51">
         <f t="shared" si="8"/>
         <v>46.992</v>
       </c>
@@ -4876,7 +4939,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" s="5" customFormat="1" ht="15" spans="1:20">
+    <row r="32" s="5" customFormat="1" ht="30" spans="1:20">
       <c r="A32" s="21" t="s">
         <v>96</v>
       </c>
@@ -4889,18 +4952,18 @@
       <c r="D32" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="E32" s="60">
+      <c r="E32" s="61">
         <v>2.67</v>
       </c>
-      <c r="F32" s="58">
+      <c r="F32" s="59">
         <v>108.5</v>
       </c>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58">
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59">
         <v>98</v>
       </c>
-      <c r="J32" s="50">
+      <c r="J32" s="51">
         <f t="shared" si="8"/>
         <v>130.2</v>
       </c>
@@ -4928,13 +4991,13 @@
         <f t="shared" si="9"/>
         <v>10850</v>
       </c>
-      <c r="T32" s="93" t="s">
-        <v>98</v>
+      <c r="T32" s="91" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:20">
       <c r="A33" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B33" s="37">
         <v>44553</v>
@@ -4943,20 +5006,20 @@
         <v>600587</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="E33" s="52">
+        <v>99</v>
+      </c>
+      <c r="E33" s="53">
         <v>1.08</v>
       </c>
-      <c r="F33" s="58">
+      <c r="F33" s="59">
         <v>29.56</v>
       </c>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58">
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59">
         <v>27.05</v>
       </c>
-      <c r="J33" s="50">
+      <c r="J33" s="51">
         <f t="shared" si="8"/>
         <v>35.472</v>
       </c>
@@ -4990,7 +5053,7 @@
     </row>
     <row r="34" ht="30" spans="1:20">
       <c r="A34" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B34" s="37">
         <v>44553</v>
@@ -4999,20 +5062,20 @@
         <v>603236</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="E34" s="58">
+        <v>101</v>
+      </c>
+      <c r="E34" s="59">
         <v>1.63</v>
       </c>
-      <c r="F34" s="58">
+      <c r="F34" s="59">
         <v>203.19</v>
       </c>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58">
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59">
         <v>188.89</v>
       </c>
-      <c r="J34" s="50">
+      <c r="J34" s="51">
         <f t="shared" si="8"/>
         <v>243.828</v>
       </c>
@@ -5046,29 +5109,29 @@
     </row>
     <row r="35" ht="15" spans="1:20">
       <c r="A35" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="37">
         <v>44553</v>
       </c>
       <c r="C35" s="102" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="D35" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="E35" s="57">
+      <c r="E35" s="58">
         <v>1.16</v>
       </c>
-      <c r="F35" s="58">
+      <c r="F35" s="59">
         <v>38.65</v>
       </c>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58">
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59">
         <v>35.76</v>
       </c>
-      <c r="J35" s="50">
+      <c r="J35" s="51">
         <f t="shared" si="8"/>
         <v>46.38</v>
       </c>
@@ -5102,29 +5165,29 @@
     </row>
     <row r="36" ht="15" spans="1:20">
       <c r="A36" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B36" s="37">
         <v>44553</v>
       </c>
       <c r="C36" s="102" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="D36" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="E36" s="58">
+      <c r="E36" s="59">
         <v>1.18</v>
       </c>
-      <c r="F36" s="58">
+      <c r="F36" s="59">
         <v>61.7</v>
       </c>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58">
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59">
         <v>59.3</v>
       </c>
-      <c r="J36" s="50">
+      <c r="J36" s="51">
         <f t="shared" si="8"/>
         <v>74.04</v>
       </c>
@@ -5158,7 +5221,7 @@
     </row>
     <row r="37" ht="30" spans="1:20">
       <c r="A37" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B37" s="37">
         <v>44553</v>
@@ -5167,20 +5230,20 @@
         <v>600373</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="E37" s="58">
+        <v>109</v>
+      </c>
+      <c r="E37" s="59">
         <v>1.26</v>
       </c>
-      <c r="F37" s="58">
+      <c r="F37" s="59">
         <v>12.39</v>
       </c>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58">
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59">
         <v>11.69</v>
       </c>
-      <c r="J37" s="50">
+      <c r="J37" s="51">
         <f t="shared" si="8"/>
         <v>14.868</v>
       </c>
@@ -5209,12 +5272,12 @@
         <v>26019</v>
       </c>
       <c r="T37" s="91" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" ht="15" spans="1:20">
       <c r="A38" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B38" s="37">
         <v>44556</v>
@@ -5223,20 +5286,20 @@
         <v>603279</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="E38" s="58">
+        <v>112</v>
+      </c>
+      <c r="E38" s="59">
         <v>1.1</v>
       </c>
-      <c r="F38" s="58">
+      <c r="F38" s="59">
         <v>45.5</v>
       </c>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58">
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="59">
         <v>42.5</v>
       </c>
-      <c r="J38" s="50">
+      <c r="J38" s="51">
         <f t="shared" si="8"/>
         <v>54.6</v>
       </c>
@@ -5268,9 +5331,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" ht="15" spans="1:20">
+    <row r="39" ht="30" spans="1:20">
       <c r="A39" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B39" s="37">
         <v>44556</v>
@@ -5279,20 +5342,20 @@
         <v>603186</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="E39" s="58">
+        <v>114</v>
+      </c>
+      <c r="E39" s="59">
         <v>1.53</v>
       </c>
-      <c r="F39" s="58">
+      <c r="F39" s="59">
         <v>43.37</v>
       </c>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58">
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59">
         <v>39.41</v>
       </c>
-      <c r="J39" s="50">
+      <c r="J39" s="51">
         <f t="shared" si="8"/>
         <v>52.044</v>
       </c>
@@ -5320,13 +5383,13 @@
         <f t="shared" si="9"/>
         <v>13011</v>
       </c>
-      <c r="T39" s="93" t="s">
-        <v>98</v>
+      <c r="T39" s="91" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:20">
       <c r="A40" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B40" s="37">
         <v>44556</v>
@@ -5335,20 +5398,20 @@
         <v>603599</v>
       </c>
       <c r="D40" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="E40" s="61">
+        <v>116</v>
+      </c>
+      <c r="E40" s="62">
         <v>2.22</v>
       </c>
-      <c r="F40" s="58">
+      <c r="F40" s="59">
         <v>40.4</v>
       </c>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="58">
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59">
         <v>38</v>
       </c>
-      <c r="J40" s="50">
+      <c r="J40" s="51">
         <f t="shared" si="8"/>
         <v>48.48</v>
       </c>
@@ -5382,7 +5445,7 @@
     </row>
     <row r="41" ht="15" spans="1:20">
       <c r="A41" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B41" s="37">
         <v>44557</v>
@@ -5391,20 +5454,20 @@
         <v>603217</v>
       </c>
       <c r="D41" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="E41" s="61">
+        <v>118</v>
+      </c>
+      <c r="E41" s="62">
         <v>2.16</v>
       </c>
-      <c r="F41" s="58">
+      <c r="F41" s="59">
         <v>48.96</v>
       </c>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58">
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59">
         <v>45.1</v>
       </c>
-      <c r="J41" s="50">
+      <c r="J41" s="51">
         <f t="shared" si="8"/>
         <v>58.752</v>
       </c>
@@ -5436,31 +5499,31 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" ht="15" spans="1:20">
+    <row r="42" ht="30" spans="1:20">
       <c r="A42" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B42" s="37">
         <v>44557</v>
       </c>
       <c r="C42" s="102" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="D42" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="E42" s="58">
+      <c r="E42" s="59">
         <v>1.52</v>
       </c>
-      <c r="F42" s="58">
+      <c r="F42" s="59">
         <v>99.58</v>
       </c>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58">
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59">
         <v>94.55</v>
       </c>
-      <c r="J42" s="50">
+      <c r="J42" s="51">
         <f t="shared" si="8"/>
         <v>119.496</v>
       </c>
@@ -5488,13 +5551,13 @@
         <f t="shared" si="9"/>
         <v>19916</v>
       </c>
-      <c r="T42" s="93" t="s">
-        <v>98</v>
+      <c r="T42" s="91" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:20">
       <c r="A43" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B43" s="37">
         <v>44557</v>
@@ -5505,18 +5568,18 @@
       <c r="D43" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="62">
+      <c r="E43" s="63">
         <v>2.12</v>
       </c>
-      <c r="F43" s="58">
+      <c r="F43" s="59">
         <v>44.41</v>
       </c>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58">
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59">
         <v>41.81</v>
       </c>
-      <c r="J43" s="50">
+      <c r="J43" s="51">
         <f t="shared" si="8"/>
         <v>53.292</v>
       </c>
@@ -5544,13 +5607,13 @@
         <f t="shared" si="9"/>
         <v>22205</v>
       </c>
-      <c r="T43" s="93" t="s">
-        <v>98</v>
+      <c r="T43" s="92" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:20">
       <c r="A44" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B44" s="31">
         <v>44560</v>
@@ -5561,18 +5624,18 @@
       <c r="D44" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="E44" s="59">
+      <c r="E44" s="60">
         <v>1.69</v>
       </c>
-      <c r="F44" s="55">
+      <c r="F44" s="56">
         <v>72.34</v>
       </c>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="55">
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="56">
         <v>67.64</v>
       </c>
-      <c r="J44" s="50">
+      <c r="J44" s="51">
         <f t="shared" si="8"/>
         <v>86.808</v>
       </c>
@@ -5599,13 +5662,13 @@
         <f t="shared" si="9"/>
         <v>7234</v>
       </c>
-      <c r="T44" s="93" t="s">
-        <v>98</v>
+      <c r="T44" s="92" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:20">
       <c r="A45" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B45" s="31">
         <v>44560</v>
@@ -5614,20 +5677,20 @@
         <v>603192</v>
       </c>
       <c r="D45" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E45" s="58">
+        <v>125</v>
+      </c>
+      <c r="E45" s="59">
         <v>0.85</v>
       </c>
-      <c r="F45" s="58">
+      <c r="F45" s="59">
         <v>60.72</v>
       </c>
-      <c r="G45" s="58"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="58">
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="59">
         <v>54.12</v>
       </c>
-      <c r="J45" s="50">
+      <c r="J45" s="51">
         <f t="shared" si="8"/>
         <v>72.864</v>
       </c>
@@ -5656,12 +5719,12 @@
         <v>12144</v>
       </c>
       <c r="T45" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:20">
       <c r="A46" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B46" s="37">
         <v>44560</v>
@@ -5670,20 +5733,20 @@
         <v>600587</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="E46" s="52">
+        <v>99</v>
+      </c>
+      <c r="E46" s="53">
         <v>1.08</v>
       </c>
-      <c r="F46" s="58">
+      <c r="F46" s="59">
         <v>31.59</v>
       </c>
-      <c r="G46" s="58"/>
-      <c r="H46" s="58"/>
-      <c r="I46" s="58">
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="59">
         <v>29.05</v>
       </c>
-      <c r="J46" s="50">
+      <c r="J46" s="51">
         <f t="shared" si="8"/>
         <v>37.908</v>
       </c>
@@ -5717,7 +5780,7 @@
     </row>
     <row r="47" ht="15" spans="1:20">
       <c r="A47" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B47" s="37">
         <v>44565</v>
@@ -5728,20 +5791,20 @@
       <c r="D47" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="E47" s="56">
+      <c r="E47" s="57">
         <v>10.68</v>
       </c>
-      <c r="F47" s="58">
+      <c r="F47" s="59">
         <v>77.77</v>
       </c>
-      <c r="G47" s="58">
+      <c r="G47" s="59">
         <v>92.35</v>
       </c>
-      <c r="H47" s="58"/>
-      <c r="I47" s="58">
+      <c r="H47" s="59"/>
+      <c r="I47" s="59">
         <v>73.27</v>
       </c>
-      <c r="J47" s="50">
+      <c r="J47" s="51">
         <f t="shared" si="8"/>
         <v>93.324</v>
       </c>
@@ -5784,29 +5847,29 @@
     </row>
     <row r="48" ht="30" spans="1:20">
       <c r="A48" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B48" s="37">
         <v>44565</v>
       </c>
       <c r="C48" s="102" t="s">
+        <v>130</v>
+      </c>
+      <c r="D48" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="D48" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="E48" s="58">
+      <c r="E48" s="59">
         <v>1.598</v>
       </c>
-      <c r="F48" s="58">
+      <c r="F48" s="59">
         <v>64.95</v>
       </c>
-      <c r="G48" s="58"/>
-      <c r="H48" s="58"/>
-      <c r="I48" s="58">
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59">
         <v>60.56</v>
       </c>
-      <c r="J48" s="50">
+      <c r="J48" s="51">
         <f t="shared" si="8"/>
         <v>77.94</v>
       </c>
@@ -5835,12 +5898,12 @@
         <v>19485</v>
       </c>
       <c r="T48" s="91" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" ht="30" spans="1:20">
       <c r="A49" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B49" s="37">
         <v>44570</v>
@@ -5849,20 +5912,20 @@
         <v>603380</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="E49" s="58">
+        <v>133</v>
+      </c>
+      <c r="E49" s="59">
         <v>1.06</v>
       </c>
-      <c r="F49" s="58">
+      <c r="F49" s="59">
         <v>40.45</v>
       </c>
-      <c r="G49" s="58"/>
-      <c r="H49" s="58"/>
-      <c r="I49" s="58">
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="59">
         <v>36.85</v>
       </c>
-      <c r="J49" s="50">
+      <c r="J49" s="51">
         <f t="shared" si="8"/>
         <v>48.54</v>
       </c>
@@ -5891,36 +5954,36 @@
         <v>16180</v>
       </c>
       <c r="T49" s="91" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" ht="30" spans="1:20">
       <c r="A50" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B50" s="37">
         <v>44572</v>
       </c>
       <c r="C50" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="D50" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="E50" s="58">
+      <c r="E50" s="59">
         <v>1.17</v>
       </c>
-      <c r="F50" s="58">
+      <c r="F50" s="59">
         <v>39.99</v>
       </c>
-      <c r="G50" s="58">
+      <c r="G50" s="59">
         <v>40.64</v>
       </c>
-      <c r="H50" s="58"/>
-      <c r="I50" s="58">
+      <c r="H50" s="59"/>
+      <c r="I50" s="59">
         <v>36.5</v>
       </c>
-      <c r="J50" s="50">
+      <c r="J50" s="51">
         <f t="shared" si="8"/>
         <v>47.988</v>
       </c>
@@ -5958,12 +6021,12 @@
         <v>15996</v>
       </c>
       <c r="T50" s="91" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" ht="15" spans="1:20">
       <c r="A51" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B51" s="37">
         <v>44573</v>
@@ -5971,23 +6034,23 @@
       <c r="C51" s="35">
         <v>603871</v>
       </c>
-      <c r="D51" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="E51" s="58">
+      <c r="D51" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="E51" s="59">
         <v>0.87</v>
       </c>
-      <c r="F51" s="58">
+      <c r="F51" s="59">
         <v>23</v>
       </c>
-      <c r="G51" s="58">
+      <c r="G51" s="59">
         <v>24.08</v>
       </c>
-      <c r="H51" s="63"/>
-      <c r="I51" s="63">
+      <c r="H51" s="64"/>
+      <c r="I51" s="64">
         <v>21.76</v>
       </c>
-      <c r="J51" s="50">
+      <c r="J51" s="51">
         <f t="shared" si="8"/>
         <v>27.6</v>
       </c>
@@ -6030,29 +6093,29 @@
     </row>
     <row r="52" ht="30" spans="1:20">
       <c r="A52" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B52" s="37">
         <v>44573</v>
       </c>
       <c r="C52" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="D52" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="D52" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="E52" s="64">
+      <c r="E52" s="65">
         <v>0.85</v>
       </c>
-      <c r="F52" s="58">
+      <c r="F52" s="59">
         <v>26.59</v>
       </c>
-      <c r="G52" s="58"/>
-      <c r="H52" s="58"/>
-      <c r="I52" s="58">
+      <c r="G52" s="59"/>
+      <c r="H52" s="59"/>
+      <c r="I52" s="59">
         <v>24.5</v>
       </c>
-      <c r="J52" s="50">
+      <c r="J52" s="51">
         <f t="shared" si="8"/>
         <v>31.908</v>
       </c>
@@ -6081,34 +6144,34 @@
         <v>18613</v>
       </c>
       <c r="T52" s="91" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" ht="30" spans="1:20">
       <c r="A53" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B53" s="37">
         <v>44579</v>
       </c>
       <c r="C53" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="D53" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="D53" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="E53" s="64">
+      <c r="E53" s="65">
         <v>1.97</v>
       </c>
-      <c r="F53" s="58">
+      <c r="F53" s="59">
         <v>138</v>
       </c>
-      <c r="G53" s="58"/>
-      <c r="H53" s="58"/>
-      <c r="I53" s="58">
+      <c r="G53" s="59"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="59">
         <v>129</v>
       </c>
-      <c r="J53" s="50">
+      <c r="J53" s="51">
         <f t="shared" si="8"/>
         <v>165.6</v>
       </c>
@@ -6137,36 +6200,36 @@
         <v>13800</v>
       </c>
       <c r="T53" s="91" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" ht="15" spans="1:20">
       <c r="A54" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B54" s="37">
         <v>44580</v>
       </c>
       <c r="C54" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="D54" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="D54" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="E54" s="58">
+      <c r="E54" s="59">
         <v>0.69</v>
       </c>
-      <c r="F54" s="58">
+      <c r="F54" s="59">
         <v>45</v>
       </c>
-      <c r="G54" s="58">
+      <c r="G54" s="59">
         <v>47</v>
       </c>
-      <c r="H54" s="58"/>
-      <c r="I54" s="58">
+      <c r="H54" s="59"/>
+      <c r="I54" s="59">
         <v>44</v>
       </c>
-      <c r="J54" s="50">
+      <c r="J54" s="51">
         <f t="shared" si="8"/>
         <v>54</v>
       </c>
@@ -6206,29 +6269,29 @@
     </row>
     <row r="55" ht="30" spans="1:20">
       <c r="A55" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B55" s="37">
         <v>44581</v>
       </c>
       <c r="C55" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="D55" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="D55" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="E55" s="65">
+      <c r="E55" s="66">
         <v>0.101</v>
       </c>
-      <c r="F55" s="58">
+      <c r="F55" s="59">
         <v>19.1</v>
       </c>
-      <c r="G55" s="58"/>
-      <c r="H55" s="58"/>
-      <c r="I55" s="58">
+      <c r="G55" s="59"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="59">
         <v>17.33</v>
       </c>
-      <c r="J55" s="50">
+      <c r="J55" s="51">
         <f t="shared" si="8"/>
         <v>22.92</v>
       </c>
@@ -6257,34 +6320,34 @@
         <v>15280</v>
       </c>
       <c r="T55" s="91" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" ht="30" spans="1:20">
       <c r="A56" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B56" s="37">
         <v>44584</v>
       </c>
       <c r="C56" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="D56" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="D56" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="E56" s="64">
+      <c r="E56" s="65">
         <v>1.49</v>
       </c>
-      <c r="F56" s="58">
+      <c r="F56" s="59">
         <v>30.06</v>
       </c>
-      <c r="G56" s="58"/>
-      <c r="H56" s="58"/>
-      <c r="I56" s="58">
+      <c r="G56" s="59"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="59">
         <v>28.55</v>
       </c>
-      <c r="J56" s="50">
+      <c r="J56" s="51">
         <f t="shared" si="8"/>
         <v>36.072</v>
       </c>
@@ -6313,34 +6376,34 @@
         <v>27054</v>
       </c>
       <c r="T56" s="91" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" s="5" customFormat="1" ht="30" spans="1:20">
       <c r="A57" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B57" s="37">
         <v>44585</v>
       </c>
       <c r="C57" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D57" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="D57" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="E57" s="65">
+      <c r="E57" s="66">
         <v>0.549</v>
       </c>
-      <c r="F57" s="58">
+      <c r="F57" s="59">
         <v>17.35</v>
       </c>
-      <c r="G57" s="58"/>
-      <c r="H57" s="58"/>
-      <c r="I57" s="58">
+      <c r="G57" s="59"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="59">
         <v>16.29</v>
       </c>
-      <c r="J57" s="50">
+      <c r="J57" s="51">
         <f t="shared" si="8"/>
         <v>20.82</v>
       </c>
@@ -6369,34 +6432,34 @@
         <v>24290</v>
       </c>
       <c r="T57" s="91" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" ht="30" spans="1:20">
       <c r="A58" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B58" s="37">
         <v>44585</v>
       </c>
       <c r="C58" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="D58" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="D58" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="E58" s="58">
+      <c r="E58" s="59">
         <v>0.407</v>
       </c>
-      <c r="F58" s="58">
+      <c r="F58" s="59">
         <v>9.55</v>
       </c>
-      <c r="G58" s="58"/>
-      <c r="H58" s="58"/>
-      <c r="I58" s="58">
+      <c r="G58" s="59"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="59">
         <v>8.78</v>
       </c>
-      <c r="J58" s="50">
+      <c r="J58" s="51">
         <f t="shared" si="8"/>
         <v>11.46</v>
       </c>
@@ -6425,38 +6488,38 @@
         <v>18145</v>
       </c>
       <c r="T58" s="91" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" s="5" customFormat="1" ht="15" spans="1:20">
       <c r="A59" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B59" s="37">
         <v>44585</v>
       </c>
       <c r="C59" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="D59" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="D59" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="E59" s="64">
+      <c r="E59" s="65">
         <v>0.11</v>
       </c>
-      <c r="F59" s="58">
+      <c r="F59" s="59">
         <v>17.84</v>
       </c>
-      <c r="G59" s="58">
+      <c r="G59" s="59">
         <v>18.16</v>
       </c>
-      <c r="H59" s="58">
+      <c r="H59" s="59">
         <v>18.21</v>
       </c>
-      <c r="I59" s="58">
+      <c r="I59" s="59">
         <v>16.61</v>
       </c>
-      <c r="J59" s="50">
+      <c r="J59" s="51">
         <f t="shared" si="8"/>
         <v>21.408</v>
       </c>
@@ -6499,31 +6562,31 @@
     </row>
     <row r="60" ht="15" spans="1:20">
       <c r="A60" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B60" s="37">
         <v>44601</v>
       </c>
       <c r="C60" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="D60" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="D60" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="E60" s="64">
+      <c r="E60" s="65">
         <v>0.69</v>
       </c>
-      <c r="F60" s="58">
+      <c r="F60" s="59">
         <v>14.41</v>
       </c>
-      <c r="G60" s="58">
+      <c r="G60" s="59">
         <v>14.42</v>
       </c>
-      <c r="H60" s="58"/>
-      <c r="I60" s="58">
+      <c r="H60" s="59"/>
+      <c r="I60" s="59">
         <v>13.17</v>
       </c>
-      <c r="J60" s="50">
+      <c r="J60" s="51">
         <f t="shared" si="8"/>
         <v>17.292</v>
       </c>
@@ -6551,35 +6614,35 @@
         <f t="shared" si="9"/>
         <v>17292</v>
       </c>
-      <c r="T60" s="42" t="s">
-        <v>98</v>
+      <c r="T60" s="92" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="61" ht="15" spans="1:20">
       <c r="A61" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B61" s="37">
         <v>44602</v>
       </c>
       <c r="C61" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="D61" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="D61" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="E61" s="64">
+      <c r="E61" s="65">
         <v>0.6</v>
       </c>
-      <c r="F61" s="58">
+      <c r="F61" s="59">
         <v>25.04</v>
       </c>
-      <c r="G61" s="58"/>
-      <c r="H61" s="58"/>
-      <c r="I61" s="58">
+      <c r="G61" s="59"/>
+      <c r="H61" s="59"/>
+      <c r="I61" s="59">
         <v>23.38</v>
       </c>
-      <c r="J61" s="50">
+      <c r="J61" s="51">
         <f t="shared" si="8"/>
         <v>30.048</v>
       </c>
@@ -6607,8 +6670,8 @@
         <f t="shared" si="9"/>
         <v>22536</v>
       </c>
-      <c r="T61" s="42" t="s">
-        <v>98</v>
+      <c r="T61" s="93" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="62" ht="15" spans="1:20">
@@ -6624,22 +6687,22 @@
       <c r="D62" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="E62" s="64">
+      <c r="E62" s="65">
         <v>0.17</v>
       </c>
-      <c r="F62" s="55">
+      <c r="F62" s="56">
         <v>4.95</v>
       </c>
-      <c r="G62" s="66">
+      <c r="G62" s="59">
         <v>4.96</v>
       </c>
-      <c r="H62" s="58">
+      <c r="H62" s="59">
         <v>5.05</v>
       </c>
-      <c r="I62" s="58">
+      <c r="I62" s="59">
         <v>4.65</v>
       </c>
-      <c r="J62" s="50">
+      <c r="J62" s="51">
         <f t="shared" si="8"/>
         <v>5.94</v>
       </c>
@@ -6676,24 +6739,24 @@
         <f t="shared" si="9"/>
         <v>24750</v>
       </c>
-      <c r="T62" s="42" t="s">
-        <v>98</v>
+      <c r="T62" s="93" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="63" spans="1:20">
-      <c r="A63" s="44"/>
-      <c r="B63" s="45"/>
-      <c r="C63" s="44"/>
-      <c r="D63" s="44"/>
+      <c r="A63" s="45"/>
+      <c r="B63" s="46"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="45"/>
       <c r="E63" s="67"/>
       <c r="F63" s="67"/>
       <c r="G63" s="67"/>
       <c r="H63" s="67"/>
       <c r="I63" s="67"/>
       <c r="J63" s="67"/>
-      <c r="K63" s="44"/>
-      <c r="L63" s="44"/>
-      <c r="M63" s="44"/>
+      <c r="K63" s="45"/>
+      <c r="L63" s="45"/>
+      <c r="M63" s="45"/>
       <c r="N63" s="81"/>
       <c r="O63" s="82"/>
       <c r="P63" s="82"/>
@@ -6704,7 +6767,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="7"/>
-      <c r="B64" s="46"/>
+      <c r="B64" s="47"/>
       <c r="D64" s="7"/>
       <c r="E64" s="68"/>
       <c r="F64" s="68"/>
@@ -6719,7 +6782,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="7"/>
-      <c r="B65" s="46"/>
+      <c r="B65" s="47"/>
       <c r="D65" s="7"/>
       <c r="E65" s="68"/>
       <c r="F65" s="68"/>
@@ -6734,7 +6797,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="7"/>
-      <c r="B66" s="46"/>
+      <c r="B66" s="47"/>
       <c r="D66" s="7"/>
       <c r="E66" s="68"/>
       <c r="F66" s="68"/>
@@ -6749,7 +6812,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="7"/>
-      <c r="B67" s="46"/>
+      <c r="B67" s="47"/>
       <c r="D67" s="7"/>
       <c r="E67" s="68"/>
       <c r="F67" s="68"/>
@@ -6764,7 +6827,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="7"/>
-      <c r="B68" s="46"/>
+      <c r="B68" s="47"/>
       <c r="D68" s="7"/>
       <c r="E68" s="68"/>
       <c r="F68" s="68"/>
@@ -6779,7 +6842,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="7"/>
-      <c r="B69" s="46"/>
+      <c r="B69" s="47"/>
       <c r="D69" s="7"/>
       <c r="E69" s="68"/>
       <c r="F69" s="68"/>
@@ -6794,7 +6857,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="7"/>
-      <c r="B70" s="46"/>
+      <c r="B70" s="47"/>
       <c r="D70" s="7"/>
       <c r="E70" s="68"/>
       <c r="F70" s="68"/>
@@ -6809,7 +6872,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="7"/>
-      <c r="B71" s="46"/>
+      <c r="B71" s="47"/>
       <c r="D71" s="7"/>
       <c r="E71" s="68"/>
       <c r="F71" s="68"/>
@@ -6824,7 +6887,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="7"/>
-      <c r="B72" s="46"/>
+      <c r="B72" s="47"/>
       <c r="D72" s="7"/>
       <c r="E72" s="68"/>
       <c r="F72" s="68"/>
@@ -6839,7 +6902,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="7"/>
-      <c r="B73" s="46"/>
+      <c r="B73" s="47"/>
       <c r="D73" s="7"/>
       <c r="E73" s="68"/>
       <c r="F73" s="68"/>
@@ -6854,7 +6917,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="7"/>
-      <c r="B74" s="46"/>
+      <c r="B74" s="47"/>
       <c r="D74" s="7"/>
       <c r="E74" s="68"/>
       <c r="F74" s="68"/>
@@ -6869,7 +6932,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="7"/>
-      <c r="B75" s="46"/>
+      <c r="B75" s="47"/>
       <c r="D75" s="7"/>
       <c r="E75" s="68"/>
       <c r="F75" s="68"/>
@@ -6884,7 +6947,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="7"/>
-      <c r="B76" s="46"/>
+      <c r="B76" s="47"/>
       <c r="D76" s="7"/>
       <c r="E76" s="68"/>
       <c r="F76" s="68"/>
@@ -6899,7 +6962,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="7"/>
-      <c r="B77" s="46"/>
+      <c r="B77" s="47"/>
       <c r="D77" s="7"/>
       <c r="E77" s="68"/>
       <c r="F77" s="68"/>
@@ -6914,7 +6977,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="7"/>
-      <c r="B78" s="46"/>
+      <c r="B78" s="47"/>
       <c r="D78" s="7"/>
       <c r="E78" s="68"/>
       <c r="F78" s="68"/>
@@ -6929,7 +6992,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="7"/>
-      <c r="B79" s="46"/>
+      <c r="B79" s="47"/>
       <c r="D79" s="7"/>
       <c r="E79" s="68"/>
       <c r="F79" s="68"/>
@@ -6944,7 +7007,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="7"/>
-      <c r="B80" s="46"/>
+      <c r="B80" s="47"/>
       <c r="D80" s="7"/>
       <c r="E80" s="68"/>
       <c r="F80" s="68"/>
@@ -6959,7 +7022,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="7"/>
-      <c r="B81" s="46"/>
+      <c r="B81" s="47"/>
       <c r="D81" s="7"/>
       <c r="E81" s="68"/>
       <c r="F81" s="68"/>
@@ -6974,7 +7037,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="7"/>
-      <c r="B82" s="46"/>
+      <c r="B82" s="47"/>
       <c r="D82" s="7"/>
       <c r="E82" s="68"/>
       <c r="F82" s="68"/>
@@ -6989,7 +7052,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="7"/>
-      <c r="B83" s="46"/>
+      <c r="B83" s="47"/>
       <c r="D83" s="7"/>
       <c r="E83" s="68"/>
       <c r="F83" s="68"/>
@@ -7004,7 +7067,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="7"/>
-      <c r="B84" s="46"/>
+      <c r="B84" s="47"/>
       <c r="D84" s="7"/>
       <c r="E84" s="68"/>
       <c r="F84" s="68"/>
@@ -7019,7 +7082,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="7"/>
-      <c r="B85" s="46"/>
+      <c r="B85" s="47"/>
       <c r="D85" s="7"/>
       <c r="E85" s="68"/>
       <c r="F85" s="68"/>
@@ -7034,7 +7097,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="7"/>
-      <c r="B86" s="46"/>
+      <c r="B86" s="47"/>
       <c r="D86" s="7"/>
       <c r="E86" s="68"/>
       <c r="F86" s="68"/>
@@ -7049,7 +7112,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="7"/>
-      <c r="B87" s="46"/>
+      <c r="B87" s="47"/>
       <c r="D87" s="7"/>
       <c r="E87" s="68"/>
       <c r="F87" s="68"/>
@@ -7064,7 +7127,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="7"/>
-      <c r="B88" s="46"/>
+      <c r="B88" s="47"/>
       <c r="D88" s="7"/>
       <c r="E88" s="68"/>
       <c r="F88" s="68"/>
@@ -7079,7 +7142,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="7"/>
-      <c r="B89" s="46"/>
+      <c r="B89" s="47"/>
       <c r="D89" s="7"/>
       <c r="E89" s="68"/>
       <c r="F89" s="68"/>
@@ -7094,7 +7157,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="7"/>
-      <c r="B90" s="46"/>
+      <c r="B90" s="47"/>
       <c r="D90" s="7"/>
       <c r="E90" s="68"/>
       <c r="F90" s="68"/>
@@ -7109,7 +7172,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="7"/>
-      <c r="B91" s="46"/>
+      <c r="B91" s="47"/>
       <c r="D91" s="7"/>
       <c r="E91" s="68"/>
       <c r="F91" s="68"/>
@@ -7124,7 +7187,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="7"/>
-      <c r="B92" s="46"/>
+      <c r="B92" s="47"/>
       <c r="D92" s="7"/>
       <c r="E92" s="68"/>
       <c r="F92" s="68"/>
@@ -7139,7 +7202,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="7"/>
-      <c r="B93" s="46"/>
+      <c r="B93" s="47"/>
       <c r="D93" s="7"/>
       <c r="E93" s="68"/>
       <c r="F93" s="68"/>
@@ -7154,7 +7217,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="7"/>
-      <c r="B94" s="46"/>
+      <c r="B94" s="47"/>
       <c r="D94" s="7"/>
       <c r="E94" s="68"/>
       <c r="F94" s="68"/>
@@ -7169,7 +7232,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="7"/>
-      <c r="B95" s="46"/>
+      <c r="B95" s="47"/>
       <c r="D95" s="7"/>
       <c r="E95" s="68"/>
       <c r="F95" s="68"/>
@@ -7184,7 +7247,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="7"/>
-      <c r="B96" s="46"/>
+      <c r="B96" s="47"/>
       <c r="D96" s="7"/>
       <c r="E96" s="68"/>
       <c r="F96" s="68"/>
@@ -7199,7 +7262,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="7"/>
-      <c r="B97" s="46"/>
+      <c r="B97" s="47"/>
       <c r="D97" s="7"/>
       <c r="E97" s="68"/>
       <c r="F97" s="68"/>
@@ -7214,7 +7277,7 @@
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="7"/>
-      <c r="B98" s="46"/>
+      <c r="B98" s="47"/>
       <c r="D98" s="7"/>
       <c r="E98" s="68"/>
       <c r="F98" s="68"/>
@@ -7229,7 +7292,7 @@
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="7"/>
-      <c r="B99" s="46"/>
+      <c r="B99" s="47"/>
       <c r="D99" s="7"/>
       <c r="E99" s="68"/>
       <c r="F99" s="68"/>
@@ -7244,7 +7307,7 @@
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="7"/>
-      <c r="B100" s="46"/>
+      <c r="B100" s="47"/>
       <c r="D100" s="7"/>
       <c r="E100" s="68"/>
       <c r="F100" s="68"/>
@@ -7259,7 +7322,7 @@
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="7"/>
-      <c r="B101" s="46"/>
+      <c r="B101" s="47"/>
       <c r="D101" s="7"/>
       <c r="E101" s="68"/>
       <c r="F101" s="68"/>
@@ -7274,7 +7337,7 @@
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="7"/>
-      <c r="B102" s="46"/>
+      <c r="B102" s="47"/>
       <c r="D102" s="7"/>
       <c r="E102" s="68"/>
       <c r="F102" s="68"/>
@@ -7289,7 +7352,7 @@
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="7"/>
-      <c r="B103" s="46"/>
+      <c r="B103" s="47"/>
       <c r="D103" s="7"/>
       <c r="E103" s="68"/>
       <c r="F103" s="68"/>
@@ -7304,7 +7367,7 @@
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="7"/>
-      <c r="B104" s="46"/>
+      <c r="B104" s="47"/>
       <c r="D104" s="7"/>
       <c r="E104" s="68"/>
       <c r="F104" s="68"/>
@@ -7319,7 +7382,7 @@
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="7"/>
-      <c r="B105" s="46"/>
+      <c r="B105" s="47"/>
       <c r="D105" s="7"/>
       <c r="E105" s="68"/>
       <c r="F105" s="68"/>
@@ -7334,7 +7397,7 @@
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="7"/>
-      <c r="B106" s="46"/>
+      <c r="B106" s="47"/>
       <c r="D106" s="7"/>
       <c r="E106" s="68"/>
       <c r="F106" s="68"/>
@@ -7349,7 +7412,7 @@
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="7"/>
-      <c r="B107" s="46"/>
+      <c r="B107" s="47"/>
       <c r="D107" s="7"/>
       <c r="E107" s="68"/>
       <c r="F107" s="68"/>
@@ -7364,7 +7427,7 @@
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="7"/>
-      <c r="B108" s="46"/>
+      <c r="B108" s="47"/>
       <c r="D108" s="7"/>
       <c r="E108" s="68"/>
       <c r="F108" s="68"/>
@@ -7379,7 +7442,7 @@
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="7"/>
-      <c r="B109" s="46"/>
+      <c r="B109" s="47"/>
       <c r="D109" s="7"/>
       <c r="E109" s="68"/>
       <c r="F109" s="68"/>
@@ -7394,7 +7457,7 @@
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="7"/>
-      <c r="B110" s="46"/>
+      <c r="B110" s="47"/>
       <c r="D110" s="7"/>
       <c r="E110" s="68"/>
       <c r="F110" s="68"/>
@@ -7409,7 +7472,7 @@
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="7"/>
-      <c r="B111" s="46"/>
+      <c r="B111" s="47"/>
       <c r="D111" s="7"/>
       <c r="E111" s="68"/>
       <c r="F111" s="68"/>
@@ -7424,7 +7487,7 @@
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="7"/>
-      <c r="B112" s="46"/>
+      <c r="B112" s="47"/>
       <c r="D112" s="7"/>
       <c r="E112" s="68"/>
       <c r="F112" s="68"/>
@@ -7439,7 +7502,7 @@
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="7"/>
-      <c r="B113" s="46"/>
+      <c r="B113" s="47"/>
       <c r="D113" s="7"/>
       <c r="E113" s="68"/>
       <c r="F113" s="68"/>
@@ -7454,7 +7517,7 @@
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="7"/>
-      <c r="B114" s="46"/>
+      <c r="B114" s="47"/>
       <c r="D114" s="7"/>
       <c r="E114" s="68"/>
       <c r="F114" s="68"/>
@@ -7469,7 +7532,7 @@
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="7"/>
-      <c r="B115" s="46"/>
+      <c r="B115" s="47"/>
       <c r="D115" s="7"/>
       <c r="E115" s="68"/>
       <c r="F115" s="68"/>
@@ -7484,7 +7547,7 @@
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="7"/>
-      <c r="B116" s="46"/>
+      <c r="B116" s="47"/>
       <c r="D116" s="7"/>
       <c r="E116" s="68"/>
       <c r="F116" s="68"/>
@@ -7499,7 +7562,7 @@
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="7"/>
-      <c r="B117" s="46"/>
+      <c r="B117" s="47"/>
       <c r="D117" s="7"/>
       <c r="E117" s="68"/>
       <c r="F117" s="68"/>
@@ -7514,7 +7577,7 @@
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="7"/>
-      <c r="B118" s="46"/>
+      <c r="B118" s="47"/>
       <c r="D118" s="7"/>
       <c r="E118" s="68"/>
       <c r="F118" s="68"/>
@@ -7529,7 +7592,7 @@
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="7"/>
-      <c r="B119" s="46"/>
+      <c r="B119" s="47"/>
       <c r="D119" s="7"/>
       <c r="E119" s="68"/>
       <c r="F119" s="68"/>
@@ -7544,7 +7607,7 @@
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="7"/>
-      <c r="B120" s="46"/>
+      <c r="B120" s="47"/>
       <c r="D120" s="7"/>
       <c r="E120" s="68"/>
       <c r="F120" s="68"/>
@@ -7559,7 +7622,7 @@
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="7"/>
-      <c r="B121" s="46"/>
+      <c r="B121" s="47"/>
       <c r="D121" s="7"/>
       <c r="E121" s="68"/>
       <c r="F121" s="68"/>
@@ -7574,7 +7637,7 @@
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="7"/>
-      <c r="B122" s="46"/>
+      <c r="B122" s="47"/>
       <c r="D122" s="7"/>
       <c r="E122" s="68"/>
       <c r="F122" s="68"/>
@@ -7589,7 +7652,7 @@
     </row>
     <row r="123" spans="1:14">
       <c r="A123" s="7"/>
-      <c r="B123" s="46"/>
+      <c r="B123" s="47"/>
       <c r="D123" s="7"/>
       <c r="E123" s="68"/>
       <c r="F123" s="68"/>
@@ -7604,7 +7667,7 @@
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="7"/>
-      <c r="B124" s="46"/>
+      <c r="B124" s="47"/>
       <c r="D124" s="7"/>
       <c r="E124" s="68"/>
       <c r="F124" s="68"/>
@@ -7619,7 +7682,7 @@
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="7"/>
-      <c r="B125" s="46"/>
+      <c r="B125" s="47"/>
       <c r="D125" s="7"/>
       <c r="E125" s="68"/>
       <c r="F125" s="68"/>
@@ -7634,7 +7697,7 @@
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="7"/>
-      <c r="B126" s="46"/>
+      <c r="B126" s="47"/>
       <c r="D126" s="7"/>
       <c r="E126" s="68"/>
       <c r="F126" s="68"/>
@@ -7649,7 +7712,7 @@
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="7"/>
-      <c r="B127" s="46"/>
+      <c r="B127" s="47"/>
       <c r="D127" s="7"/>
       <c r="E127" s="68"/>
       <c r="F127" s="68"/>
@@ -7664,7 +7727,7 @@
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="7"/>
-      <c r="B128" s="46"/>
+      <c r="B128" s="47"/>
       <c r="D128" s="7"/>
       <c r="E128" s="68"/>
       <c r="F128" s="68"/>
@@ -7679,7 +7742,7 @@
     </row>
     <row r="129" spans="1:14">
       <c r="A129" s="7"/>
-      <c r="B129" s="46"/>
+      <c r="B129" s="47"/>
       <c r="D129" s="7"/>
       <c r="E129" s="68"/>
       <c r="F129" s="68"/>
@@ -7694,7 +7757,7 @@
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="7"/>
-      <c r="B130" s="46"/>
+      <c r="B130" s="47"/>
       <c r="D130" s="7"/>
       <c r="E130" s="68"/>
       <c r="F130" s="68"/>
@@ -7709,7 +7772,7 @@
     </row>
     <row r="131" spans="1:14">
       <c r="A131" s="7"/>
-      <c r="B131" s="46"/>
+      <c r="B131" s="47"/>
       <c r="D131" s="7"/>
       <c r="E131" s="68"/>
       <c r="F131" s="68"/>
@@ -7724,7 +7787,7 @@
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="7"/>
-      <c r="B132" s="46"/>
+      <c r="B132" s="47"/>
       <c r="D132" s="7"/>
       <c r="E132" s="68"/>
       <c r="F132" s="68"/>
@@ -7739,7 +7802,7 @@
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="7"/>
-      <c r="B133" s="46"/>
+      <c r="B133" s="47"/>
       <c r="D133" s="7"/>
       <c r="E133" s="68"/>
       <c r="F133" s="68"/>
@@ -7754,7 +7817,7 @@
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="7"/>
-      <c r="B134" s="46"/>
+      <c r="B134" s="47"/>
       <c r="D134" s="7"/>
       <c r="E134" s="68"/>
       <c r="F134" s="68"/>
@@ -7769,7 +7832,7 @@
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="7"/>
-      <c r="B135" s="46"/>
+      <c r="B135" s="47"/>
       <c r="D135" s="7"/>
       <c r="E135" s="68"/>
       <c r="F135" s="68"/>
@@ -7784,7 +7847,7 @@
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="7"/>
-      <c r="B136" s="46"/>
+      <c r="B136" s="47"/>
       <c r="D136" s="7"/>
       <c r="E136" s="68"/>
       <c r="F136" s="68"/>
@@ -7799,7 +7862,7 @@
     </row>
     <row r="137" spans="1:14">
       <c r="A137" s="7"/>
-      <c r="B137" s="46"/>
+      <c r="B137" s="47"/>
       <c r="D137" s="7"/>
       <c r="E137" s="68"/>
       <c r="F137" s="68"/>
@@ -7814,7 +7877,7 @@
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="7"/>
-      <c r="B138" s="46"/>
+      <c r="B138" s="47"/>
       <c r="D138" s="7"/>
       <c r="E138" s="68"/>
       <c r="F138" s="68"/>
@@ -7829,7 +7892,7 @@
     </row>
     <row r="139" spans="1:14">
       <c r="A139" s="7"/>
-      <c r="B139" s="46"/>
+      <c r="B139" s="47"/>
       <c r="D139" s="7"/>
       <c r="E139" s="68"/>
       <c r="F139" s="68"/>
@@ -7844,7 +7907,7 @@
     </row>
     <row r="140" spans="1:14">
       <c r="A140" s="7"/>
-      <c r="B140" s="46"/>
+      <c r="B140" s="47"/>
       <c r="D140" s="7"/>
       <c r="E140" s="68"/>
       <c r="F140" s="68"/>
@@ -7859,7 +7922,7 @@
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="7"/>
-      <c r="B141" s="46"/>
+      <c r="B141" s="47"/>
       <c r="D141" s="7"/>
       <c r="E141" s="68"/>
       <c r="F141" s="68"/>
@@ -7874,7 +7937,7 @@
     </row>
     <row r="142" spans="1:14">
       <c r="A142" s="7"/>
-      <c r="B142" s="46"/>
+      <c r="B142" s="47"/>
       <c r="D142" s="7"/>
       <c r="E142" s="68"/>
       <c r="F142" s="68"/>
@@ -7889,7 +7952,7 @@
     </row>
     <row r="143" spans="1:14">
       <c r="A143" s="7"/>
-      <c r="B143" s="46"/>
+      <c r="B143" s="47"/>
       <c r="D143" s="7"/>
       <c r="E143" s="68"/>
       <c r="F143" s="68"/>
@@ -7904,7 +7967,7 @@
     </row>
     <row r="144" spans="1:14">
       <c r="A144" s="7"/>
-      <c r="B144" s="46"/>
+      <c r="B144" s="47"/>
       <c r="D144" s="7"/>
       <c r="E144" s="68"/>
       <c r="F144" s="68"/>
@@ -7919,7 +7982,7 @@
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="7"/>
-      <c r="B145" s="46"/>
+      <c r="B145" s="47"/>
       <c r="D145" s="7"/>
       <c r="E145" s="68"/>
       <c r="F145" s="68"/>
@@ -7934,7 +7997,7 @@
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="7"/>
-      <c r="B146" s="46"/>
+      <c r="B146" s="47"/>
       <c r="D146" s="7"/>
       <c r="E146" s="68"/>
       <c r="F146" s="68"/>
@@ -7949,7 +8012,7 @@
     </row>
     <row r="147" spans="1:14">
       <c r="A147" s="7"/>
-      <c r="B147" s="46"/>
+      <c r="B147" s="47"/>
       <c r="D147" s="7"/>
       <c r="E147" s="68"/>
       <c r="F147" s="68"/>
@@ -7964,7 +8027,7 @@
     </row>
     <row r="148" spans="1:14">
       <c r="A148" s="7"/>
-      <c r="B148" s="46"/>
+      <c r="B148" s="47"/>
       <c r="D148" s="7"/>
       <c r="E148" s="68"/>
       <c r="F148" s="68"/>
@@ -7979,7 +8042,7 @@
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="7"/>
-      <c r="B149" s="46"/>
+      <c r="B149" s="47"/>
       <c r="D149" s="7"/>
       <c r="E149" s="68"/>
       <c r="F149" s="68"/>
@@ -7994,7 +8057,7 @@
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="7"/>
-      <c r="B150" s="46"/>
+      <c r="B150" s="47"/>
       <c r="D150" s="7"/>
       <c r="E150" s="68"/>
       <c r="F150" s="68"/>
@@ -8009,7 +8072,7 @@
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="7"/>
-      <c r="B151" s="46"/>
+      <c r="B151" s="47"/>
       <c r="D151" s="7"/>
       <c r="E151" s="68"/>
       <c r="F151" s="68"/>
@@ -8024,7 +8087,7 @@
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="7"/>
-      <c r="B152" s="46"/>
+      <c r="B152" s="47"/>
       <c r="D152" s="7"/>
       <c r="E152" s="68"/>
       <c r="F152" s="68"/>
@@ -8039,7 +8102,7 @@
     </row>
     <row r="153" spans="1:14">
       <c r="A153" s="7"/>
-      <c r="B153" s="46"/>
+      <c r="B153" s="47"/>
       <c r="D153" s="7"/>
       <c r="E153" s="68"/>
       <c r="F153" s="68"/>
@@ -8054,7 +8117,7 @@
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="7"/>
-      <c r="B154" s="46"/>
+      <c r="B154" s="47"/>
       <c r="D154" s="7"/>
       <c r="E154" s="68"/>
       <c r="F154" s="68"/>
@@ -8069,7 +8132,7 @@
     </row>
     <row r="155" spans="1:14">
       <c r="A155" s="7"/>
-      <c r="B155" s="46"/>
+      <c r="B155" s="47"/>
       <c r="D155" s="7"/>
       <c r="E155" s="68"/>
       <c r="F155" s="68"/>
@@ -8084,7 +8147,7 @@
     </row>
     <row r="156" spans="1:14">
       <c r="A156" s="7"/>
-      <c r="B156" s="46"/>
+      <c r="B156" s="47"/>
       <c r="D156" s="7"/>
       <c r="E156" s="68"/>
       <c r="F156" s="68"/>
@@ -8099,7 +8162,7 @@
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="7"/>
-      <c r="B157" s="46"/>
+      <c r="B157" s="47"/>
       <c r="D157" s="7"/>
       <c r="E157" s="68"/>
       <c r="F157" s="68"/>
@@ -8114,7 +8177,7 @@
     </row>
     <row r="158" spans="1:14">
       <c r="A158" s="7"/>
-      <c r="B158" s="46"/>
+      <c r="B158" s="47"/>
       <c r="D158" s="7"/>
       <c r="E158" s="68"/>
       <c r="F158" s="68"/>
@@ -8129,7 +8192,7 @@
     </row>
     <row r="159" spans="1:14">
       <c r="A159" s="7"/>
-      <c r="B159" s="46"/>
+      <c r="B159" s="47"/>
       <c r="D159" s="7"/>
       <c r="E159" s="68"/>
       <c r="F159" s="68"/>
@@ -8144,7 +8207,7 @@
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="7"/>
-      <c r="B160" s="46"/>
+      <c r="B160" s="47"/>
       <c r="D160" s="7"/>
       <c r="E160" s="68"/>
       <c r="F160" s="68"/>
@@ -8159,7 +8222,7 @@
     </row>
     <row r="161" spans="1:14">
       <c r="A161" s="7"/>
-      <c r="B161" s="46"/>
+      <c r="B161" s="47"/>
       <c r="D161" s="7"/>
       <c r="E161" s="68"/>
       <c r="F161" s="68"/>
@@ -8174,7 +8237,7 @@
     </row>
     <row r="162" spans="1:14">
       <c r="A162" s="7"/>
-      <c r="B162" s="46"/>
+      <c r="B162" s="47"/>
       <c r="D162" s="7"/>
       <c r="E162" s="68"/>
       <c r="F162" s="68"/>
@@ -8189,7 +8252,7 @@
     </row>
     <row r="163" spans="1:14">
       <c r="A163" s="7"/>
-      <c r="B163" s="46"/>
+      <c r="B163" s="47"/>
       <c r="D163" s="7"/>
       <c r="E163" s="68"/>
       <c r="F163" s="68"/>
@@ -8204,7 +8267,7 @@
     </row>
     <row r="164" spans="1:14">
       <c r="A164" s="7"/>
-      <c r="B164" s="46"/>
+      <c r="B164" s="47"/>
       <c r="D164" s="7"/>
       <c r="E164" s="68"/>
       <c r="F164" s="68"/>
@@ -8219,7 +8282,7 @@
     </row>
     <row r="165" spans="1:14">
       <c r="A165" s="7"/>
-      <c r="B165" s="46"/>
+      <c r="B165" s="47"/>
       <c r="D165" s="7"/>
       <c r="E165" s="68"/>
       <c r="F165" s="68"/>
@@ -8234,7 +8297,7 @@
     </row>
     <row r="166" spans="1:14">
       <c r="A166" s="7"/>
-      <c r="B166" s="46"/>
+      <c r="B166" s="47"/>
       <c r="D166" s="7"/>
       <c r="E166" s="68"/>
       <c r="F166" s="68"/>
@@ -8249,7 +8312,7 @@
     </row>
     <row r="167" spans="1:14">
       <c r="A167" s="7"/>
-      <c r="B167" s="46"/>
+      <c r="B167" s="47"/>
       <c r="D167" s="7"/>
       <c r="E167" s="68"/>
       <c r="F167" s="68"/>
@@ -8264,7 +8327,7 @@
     </row>
     <row r="168" spans="1:14">
       <c r="A168" s="7"/>
-      <c r="B168" s="46"/>
+      <c r="B168" s="47"/>
       <c r="D168" s="7"/>
       <c r="E168" s="68"/>
       <c r="F168" s="68"/>
@@ -8279,7 +8342,7 @@
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="7"/>
-      <c r="B169" s="46"/>
+      <c r="B169" s="47"/>
       <c r="D169" s="7"/>
       <c r="E169" s="68"/>
       <c r="F169" s="68"/>
@@ -8294,7 +8357,7 @@
     </row>
     <row r="170" spans="1:14">
       <c r="A170" s="7"/>
-      <c r="B170" s="46"/>
+      <c r="B170" s="47"/>
       <c r="D170" s="7"/>
       <c r="E170" s="68"/>
       <c r="F170" s="68"/>
@@ -8309,7 +8372,7 @@
     </row>
     <row r="171" spans="1:14">
       <c r="A171" s="7"/>
-      <c r="B171" s="46"/>
+      <c r="B171" s="47"/>
       <c r="D171" s="7"/>
       <c r="E171" s="68"/>
       <c r="F171" s="68"/>
@@ -8324,7 +8387,7 @@
     </row>
     <row r="172" spans="1:14">
       <c r="A172" s="7"/>
-      <c r="B172" s="46"/>
+      <c r="B172" s="47"/>
       <c r="D172" s="7"/>
       <c r="E172" s="68"/>
       <c r="F172" s="68"/>
@@ -8339,7 +8402,7 @@
     </row>
     <row r="173" spans="1:14">
       <c r="A173" s="7"/>
-      <c r="B173" s="46"/>
+      <c r="B173" s="47"/>
       <c r="D173" s="7"/>
       <c r="E173" s="68"/>
       <c r="F173" s="68"/>
@@ -8354,7 +8417,7 @@
     </row>
     <row r="174" spans="1:14">
       <c r="A174" s="7"/>
-      <c r="B174" s="46"/>
+      <c r="B174" s="47"/>
       <c r="D174" s="7"/>
       <c r="E174" s="68"/>
       <c r="F174" s="68"/>
@@ -8369,7 +8432,7 @@
     </row>
     <row r="175" spans="1:14">
       <c r="A175" s="7"/>
-      <c r="B175" s="46"/>
+      <c r="B175" s="47"/>
       <c r="D175" s="7"/>
       <c r="E175" s="68"/>
       <c r="F175" s="68"/>
@@ -8384,7 +8447,7 @@
     </row>
     <row r="176" spans="1:14">
       <c r="A176" s="7"/>
-      <c r="B176" s="46"/>
+      <c r="B176" s="47"/>
       <c r="D176" s="7"/>
       <c r="E176" s="68"/>
       <c r="F176" s="68"/>
@@ -8399,7 +8462,7 @@
     </row>
     <row r="177" spans="1:14">
       <c r="A177" s="7"/>
-      <c r="B177" s="46"/>
+      <c r="B177" s="47"/>
       <c r="D177" s="7"/>
       <c r="E177" s="68"/>
       <c r="F177" s="68"/>
@@ -8414,7 +8477,7 @@
     </row>
     <row r="178" spans="1:14">
       <c r="A178" s="7"/>
-      <c r="B178" s="46"/>
+      <c r="B178" s="47"/>
       <c r="D178" s="7"/>
       <c r="E178" s="68"/>
       <c r="F178" s="68"/>
@@ -8429,7 +8492,7 @@
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="7"/>
-      <c r="B179" s="46"/>
+      <c r="B179" s="47"/>
       <c r="D179" s="7"/>
       <c r="E179" s="68"/>
       <c r="F179" s="68"/>
@@ -8444,7 +8507,7 @@
     </row>
     <row r="180" spans="1:14">
       <c r="A180" s="7"/>
-      <c r="B180" s="46"/>
+      <c r="B180" s="47"/>
       <c r="D180" s="7"/>
       <c r="E180" s="68"/>
       <c r="F180" s="68"/>
@@ -8459,7 +8522,7 @@
     </row>
     <row r="181" spans="1:14">
       <c r="A181" s="7"/>
-      <c r="B181" s="46"/>
+      <c r="B181" s="47"/>
       <c r="D181" s="7"/>
       <c r="E181" s="68"/>
       <c r="F181" s="68"/>
@@ -8474,7 +8537,7 @@
     </row>
     <row r="182" spans="1:14">
       <c r="A182" s="7"/>
-      <c r="B182" s="46"/>
+      <c r="B182" s="47"/>
       <c r="D182" s="7"/>
       <c r="E182" s="68"/>
       <c r="F182" s="68"/>
@@ -8489,7 +8552,7 @@
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="7"/>
-      <c r="B183" s="46"/>
+      <c r="B183" s="47"/>
       <c r="D183" s="7"/>
       <c r="E183" s="68"/>
       <c r="F183" s="68"/>
@@ -8504,7 +8567,7 @@
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="7"/>
-      <c r="B184" s="46"/>
+      <c r="B184" s="47"/>
       <c r="D184" s="7"/>
       <c r="E184" s="68"/>
       <c r="F184" s="68"/>
@@ -8519,7 +8582,7 @@
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="7"/>
-      <c r="B185" s="46"/>
+      <c r="B185" s="47"/>
       <c r="D185" s="7"/>
       <c r="E185" s="68"/>
       <c r="F185" s="68"/>
@@ -8534,7 +8597,7 @@
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="7"/>
-      <c r="B186" s="46"/>
+      <c r="B186" s="47"/>
       <c r="D186" s="7"/>
       <c r="E186" s="68"/>
       <c r="F186" s="68"/>
@@ -8549,7 +8612,7 @@
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="7"/>
-      <c r="B187" s="46"/>
+      <c r="B187" s="47"/>
       <c r="D187" s="7"/>
       <c r="E187" s="68"/>
       <c r="F187" s="68"/>
@@ -8564,7 +8627,7 @@
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="7"/>
-      <c r="B188" s="46"/>
+      <c r="B188" s="47"/>
       <c r="D188" s="7"/>
       <c r="E188" s="68"/>
       <c r="F188" s="68"/>
@@ -8579,7 +8642,7 @@
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="7"/>
-      <c r="B189" s="46"/>
+      <c r="B189" s="47"/>
       <c r="D189" s="7"/>
       <c r="E189" s="68"/>
       <c r="F189" s="68"/>
@@ -8594,7 +8657,7 @@
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="7"/>
-      <c r="B190" s="46"/>
+      <c r="B190" s="47"/>
       <c r="D190" s="7"/>
       <c r="E190" s="68"/>
       <c r="F190" s="68"/>
@@ -8609,7 +8672,7 @@
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="7"/>
-      <c r="B191" s="46"/>
+      <c r="B191" s="47"/>
       <c r="D191" s="7"/>
       <c r="E191" s="68"/>
       <c r="F191" s="68"/>
@@ -8624,7 +8687,7 @@
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="7"/>
-      <c r="B192" s="46"/>
+      <c r="B192" s="47"/>
       <c r="D192" s="7"/>
       <c r="E192" s="68"/>
       <c r="F192" s="68"/>
@@ -8639,7 +8702,7 @@
     </row>
     <row r="193" spans="1:14">
       <c r="A193" s="7"/>
-      <c r="B193" s="46"/>
+      <c r="B193" s="47"/>
       <c r="D193" s="7"/>
       <c r="E193" s="68"/>
       <c r="F193" s="68"/>
@@ -8654,7 +8717,7 @@
     </row>
     <row r="194" spans="1:14">
       <c r="A194" s="7"/>
-      <c r="B194" s="46"/>
+      <c r="B194" s="47"/>
       <c r="D194" s="7"/>
       <c r="E194" s="68"/>
       <c r="F194" s="68"/>
@@ -8669,7 +8732,7 @@
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="7"/>
-      <c r="B195" s="46"/>
+      <c r="B195" s="47"/>
       <c r="D195" s="7"/>
       <c r="E195" s="68"/>
       <c r="F195" s="68"/>
@@ -8684,7 +8747,7 @@
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="7"/>
-      <c r="B196" s="46"/>
+      <c r="B196" s="47"/>
       <c r="D196" s="7"/>
       <c r="E196" s="68"/>
       <c r="F196" s="68"/>
@@ -8699,7 +8762,7 @@
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="7"/>
-      <c r="B197" s="46"/>
+      <c r="B197" s="47"/>
       <c r="D197" s="7"/>
       <c r="E197" s="68"/>
       <c r="F197" s="68"/>
@@ -8714,7 +8777,7 @@
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="7"/>
-      <c r="B198" s="46"/>
+      <c r="B198" s="47"/>
       <c r="D198" s="7"/>
       <c r="E198" s="68"/>
       <c r="F198" s="68"/>
@@ -8729,7 +8792,7 @@
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="7"/>
-      <c r="B199" s="46"/>
+      <c r="B199" s="47"/>
       <c r="D199" s="7"/>
       <c r="E199" s="68"/>
       <c r="F199" s="68"/>
@@ -8744,7 +8807,7 @@
     </row>
     <row r="200" spans="1:14">
       <c r="A200" s="7"/>
-      <c r="B200" s="46"/>
+      <c r="B200" s="47"/>
       <c r="D200" s="7"/>
       <c r="E200" s="68"/>
       <c r="F200" s="68"/>
@@ -8759,7 +8822,7 @@
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="7"/>
-      <c r="B201" s="46"/>
+      <c r="B201" s="47"/>
       <c r="D201" s="7"/>
       <c r="E201" s="68"/>
       <c r="F201" s="68"/>
@@ -8774,7 +8837,7 @@
     </row>
     <row r="202" spans="1:14">
       <c r="A202" s="7"/>
-      <c r="B202" s="46"/>
+      <c r="B202" s="47"/>
       <c r="D202" s="7"/>
       <c r="E202" s="68"/>
       <c r="F202" s="68"/>
@@ -8789,7 +8852,7 @@
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="7"/>
-      <c r="B203" s="46"/>
+      <c r="B203" s="47"/>
       <c r="D203" s="7"/>
       <c r="E203" s="68"/>
       <c r="F203" s="68"/>
@@ -8804,7 +8867,7 @@
     </row>
     <row r="204" spans="1:14">
       <c r="A204" s="7"/>
-      <c r="B204" s="46"/>
+      <c r="B204" s="47"/>
       <c r="D204" s="7"/>
       <c r="E204" s="68"/>
       <c r="F204" s="68"/>
@@ -8819,7 +8882,7 @@
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="7"/>
-      <c r="B205" s="46"/>
+      <c r="B205" s="47"/>
       <c r="D205" s="7"/>
       <c r="E205" s="68"/>
       <c r="F205" s="68"/>
@@ -8834,7 +8897,7 @@
     </row>
     <row r="206" spans="1:14">
       <c r="A206" s="7"/>
-      <c r="B206" s="46"/>
+      <c r="B206" s="47"/>
       <c r="D206" s="7"/>
       <c r="E206" s="68"/>
       <c r="F206" s="68"/>
@@ -8849,7 +8912,7 @@
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="7"/>
-      <c r="B207" s="46"/>
+      <c r="B207" s="47"/>
       <c r="D207" s="7"/>
       <c r="E207" s="68"/>
       <c r="F207" s="68"/>
@@ -8864,7 +8927,7 @@
     </row>
     <row r="208" spans="1:14">
       <c r="A208" s="7"/>
-      <c r="B208" s="46"/>
+      <c r="B208" s="47"/>
       <c r="D208" s="7"/>
       <c r="E208" s="68"/>
       <c r="F208" s="68"/>
@@ -8879,7 +8942,7 @@
     </row>
     <row r="209" spans="1:14">
       <c r="A209" s="7"/>
-      <c r="B209" s="46"/>
+      <c r="B209" s="47"/>
       <c r="D209" s="7"/>
       <c r="E209" s="68"/>
       <c r="F209" s="68"/>
@@ -8894,7 +8957,7 @@
     </row>
     <row r="210" spans="1:14">
       <c r="A210" s="7"/>
-      <c r="B210" s="46"/>
+      <c r="B210" s="47"/>
       <c r="D210" s="7"/>
       <c r="E210" s="68"/>
       <c r="F210" s="68"/>
@@ -8909,7 +8972,7 @@
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="7"/>
-      <c r="B211" s="46"/>
+      <c r="B211" s="47"/>
       <c r="D211" s="7"/>
       <c r="E211" s="68"/>
       <c r="F211" s="68"/>
@@ -8924,7 +8987,7 @@
     </row>
     <row r="212" spans="1:14">
       <c r="A212" s="7"/>
-      <c r="B212" s="46"/>
+      <c r="B212" s="47"/>
       <c r="D212" s="7"/>
       <c r="E212" s="68"/>
       <c r="F212" s="68"/>
@@ -8939,7 +9002,7 @@
     </row>
     <row r="213" spans="1:14">
       <c r="A213" s="7"/>
-      <c r="B213" s="46"/>
+      <c r="B213" s="47"/>
       <c r="D213" s="7"/>
       <c r="E213" s="68"/>
       <c r="F213" s="68"/>
@@ -8954,7 +9017,7 @@
     </row>
     <row r="214" spans="1:14">
       <c r="A214" s="7"/>
-      <c r="B214" s="46"/>
+      <c r="B214" s="47"/>
       <c r="D214" s="7"/>
       <c r="E214" s="68"/>
       <c r="F214" s="68"/>
@@ -8969,7 +9032,7 @@
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="7"/>
-      <c r="B215" s="46"/>
+      <c r="B215" s="47"/>
       <c r="D215" s="7"/>
       <c r="E215" s="68"/>
       <c r="F215" s="68"/>
@@ -8984,7 +9047,7 @@
     </row>
     <row r="216" spans="1:14">
       <c r="A216" s="7"/>
-      <c r="B216" s="46"/>
+      <c r="B216" s="47"/>
       <c r="D216" s="7"/>
       <c r="E216" s="68"/>
       <c r="F216" s="68"/>
@@ -8999,7 +9062,7 @@
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="7"/>
-      <c r="B217" s="46"/>
+      <c r="B217" s="47"/>
       <c r="D217" s="7"/>
       <c r="E217" s="68"/>
       <c r="F217" s="68"/>
@@ -9014,7 +9077,7 @@
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="7"/>
-      <c r="B218" s="46"/>
+      <c r="B218" s="47"/>
       <c r="D218" s="7"/>
       <c r="E218" s="68"/>
       <c r="F218" s="68"/>
@@ -9029,7 +9092,7 @@
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="7"/>
-      <c r="B219" s="46"/>
+      <c r="B219" s="47"/>
       <c r="D219" s="7"/>
       <c r="E219" s="68"/>
       <c r="F219" s="68"/>
@@ -9044,7 +9107,7 @@
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="7"/>
-      <c r="B220" s="46"/>
+      <c r="B220" s="47"/>
       <c r="D220" s="7"/>
       <c r="E220" s="68"/>
       <c r="F220" s="68"/>
@@ -9059,7 +9122,7 @@
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="7"/>
-      <c r="B221" s="46"/>
+      <c r="B221" s="47"/>
       <c r="D221" s="7"/>
       <c r="E221" s="68"/>
       <c r="F221" s="68"/>
@@ -9074,7 +9137,7 @@
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="7"/>
-      <c r="B222" s="46"/>
+      <c r="B222" s="47"/>
       <c r="D222" s="7"/>
       <c r="E222" s="68"/>
       <c r="F222" s="68"/>
@@ -9089,7 +9152,7 @@
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="7"/>
-      <c r="B223" s="46"/>
+      <c r="B223" s="47"/>
       <c r="D223" s="7"/>
       <c r="E223" s="68"/>
       <c r="F223" s="68"/>
@@ -9104,7 +9167,7 @@
     </row>
     <row r="224" spans="1:14">
       <c r="A224" s="7"/>
-      <c r="B224" s="46"/>
+      <c r="B224" s="47"/>
       <c r="D224" s="7"/>
       <c r="E224" s="68"/>
       <c r="F224" s="68"/>
@@ -9119,7 +9182,7 @@
     </row>
     <row r="225" spans="1:14">
       <c r="A225" s="7"/>
-      <c r="B225" s="46"/>
+      <c r="B225" s="47"/>
       <c r="D225" s="7"/>
       <c r="E225" s="68"/>
       <c r="F225" s="68"/>
@@ -9134,7 +9197,7 @@
     </row>
     <row r="226" spans="1:14">
       <c r="A226" s="7"/>
-      <c r="B226" s="46"/>
+      <c r="B226" s="47"/>
       <c r="D226" s="7"/>
       <c r="E226" s="68"/>
       <c r="F226" s="68"/>
@@ -9149,7 +9212,7 @@
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="7"/>
-      <c r="B227" s="46"/>
+      <c r="B227" s="47"/>
       <c r="D227" s="7"/>
       <c r="E227" s="68"/>
       <c r="F227" s="68"/>
@@ -9164,7 +9227,7 @@
     </row>
     <row r="228" spans="1:14">
       <c r="A228" s="7"/>
-      <c r="B228" s="46"/>
+      <c r="B228" s="47"/>
       <c r="D228" s="7"/>
       <c r="E228" s="68"/>
       <c r="F228" s="68"/>
@@ -9179,7 +9242,7 @@
     </row>
     <row r="229" spans="1:14">
       <c r="A229" s="7"/>
-      <c r="B229" s="46"/>
+      <c r="B229" s="47"/>
       <c r="D229" s="7"/>
       <c r="E229" s="68"/>
       <c r="F229" s="68"/>
@@ -9194,7 +9257,7 @@
     </row>
     <row r="230" spans="1:14">
       <c r="A230" s="7"/>
-      <c r="B230" s="46"/>
+      <c r="B230" s="47"/>
       <c r="D230" s="7"/>
       <c r="E230" s="68"/>
       <c r="F230" s="68"/>
@@ -9209,7 +9272,7 @@
     </row>
     <row r="231" spans="1:14">
       <c r="A231" s="7"/>
-      <c r="B231" s="46"/>
+      <c r="B231" s="47"/>
       <c r="D231" s="7"/>
       <c r="E231" s="68"/>
       <c r="F231" s="68"/>
@@ -9224,7 +9287,7 @@
     </row>
     <row r="232" spans="1:14">
       <c r="A232" s="7"/>
-      <c r="B232" s="46"/>
+      <c r="B232" s="47"/>
       <c r="D232" s="7"/>
       <c r="E232" s="68"/>
       <c r="F232" s="68"/>
@@ -9239,7 +9302,7 @@
     </row>
     <row r="233" spans="1:14">
       <c r="A233" s="7"/>
-      <c r="B233" s="46"/>
+      <c r="B233" s="47"/>
       <c r="D233" s="7"/>
       <c r="E233" s="68"/>
       <c r="F233" s="68"/>
@@ -9254,7 +9317,7 @@
     </row>
     <row r="234" spans="1:14">
       <c r="A234" s="7"/>
-      <c r="B234" s="46"/>
+      <c r="B234" s="47"/>
       <c r="D234" s="7"/>
       <c r="E234" s="68"/>
       <c r="F234" s="68"/>
@@ -9269,7 +9332,7 @@
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="7"/>
-      <c r="B235" s="46"/>
+      <c r="B235" s="47"/>
       <c r="D235" s="7"/>
       <c r="E235" s="68"/>
       <c r="F235" s="68"/>
@@ -9284,7 +9347,7 @@
     </row>
     <row r="236" spans="1:14">
       <c r="A236" s="7"/>
-      <c r="B236" s="46"/>
+      <c r="B236" s="47"/>
       <c r="D236" s="7"/>
       <c r="E236" s="68"/>
       <c r="F236" s="68"/>
@@ -9299,7 +9362,7 @@
     </row>
     <row r="237" spans="1:14">
       <c r="A237" s="7"/>
-      <c r="B237" s="46"/>
+      <c r="B237" s="47"/>
       <c r="D237" s="7"/>
       <c r="E237" s="68"/>
       <c r="F237" s="68"/>
@@ -9314,7 +9377,7 @@
     </row>
     <row r="238" spans="1:14">
       <c r="A238" s="7"/>
-      <c r="B238" s="46"/>
+      <c r="B238" s="47"/>
       <c r="D238" s="7"/>
       <c r="E238" s="68"/>
       <c r="F238" s="68"/>
@@ -9329,7 +9392,7 @@
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="7"/>
-      <c r="B239" s="46"/>
+      <c r="B239" s="47"/>
       <c r="D239" s="7"/>
       <c r="E239" s="68"/>
       <c r="F239" s="68"/>
@@ -9344,7 +9407,7 @@
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="7"/>
-      <c r="B240" s="46"/>
+      <c r="B240" s="47"/>
       <c r="D240" s="7"/>
       <c r="E240" s="68"/>
       <c r="F240" s="68"/>
@@ -9359,7 +9422,7 @@
     </row>
     <row r="241" spans="1:14">
       <c r="A241" s="7"/>
-      <c r="B241" s="46"/>
+      <c r="B241" s="47"/>
       <c r="D241" s="7"/>
       <c r="E241" s="68"/>
       <c r="F241" s="68"/>
@@ -9374,7 +9437,7 @@
     </row>
     <row r="242" spans="1:14">
       <c r="A242" s="7"/>
-      <c r="B242" s="46"/>
+      <c r="B242" s="47"/>
       <c r="D242" s="7"/>
       <c r="E242" s="68"/>
       <c r="F242" s="68"/>
@@ -9389,7 +9452,7 @@
     </row>
     <row r="243" spans="1:14">
       <c r="A243" s="7"/>
-      <c r="B243" s="46"/>
+      <c r="B243" s="47"/>
       <c r="D243" s="7"/>
       <c r="E243" s="68"/>
       <c r="F243" s="68"/>
@@ -9404,7 +9467,7 @@
     </row>
     <row r="244" spans="1:14">
       <c r="A244" s="7"/>
-      <c r="B244" s="46"/>
+      <c r="B244" s="47"/>
       <c r="D244" s="7"/>
       <c r="E244" s="68"/>
       <c r="F244" s="68"/>
@@ -9419,7 +9482,7 @@
     </row>
     <row r="245" spans="1:14">
       <c r="A245" s="7"/>
-      <c r="B245" s="46"/>
+      <c r="B245" s="47"/>
       <c r="D245" s="7"/>
       <c r="E245" s="68"/>
       <c r="F245" s="68"/>
@@ -9434,7 +9497,7 @@
     </row>
     <row r="246" spans="1:14">
       <c r="A246" s="7"/>
-      <c r="B246" s="46"/>
+      <c r="B246" s="47"/>
       <c r="D246" s="7"/>
       <c r="E246" s="68"/>
       <c r="F246" s="68"/>
@@ -9449,7 +9512,7 @@
     </row>
     <row r="247" spans="1:14">
       <c r="A247" s="7"/>
-      <c r="B247" s="46"/>
+      <c r="B247" s="47"/>
       <c r="D247" s="7"/>
       <c r="E247" s="68"/>
       <c r="F247" s="68"/>
@@ -9464,7 +9527,7 @@
     </row>
     <row r="248" spans="1:14">
       <c r="A248" s="7"/>
-      <c r="B248" s="46"/>
+      <c r="B248" s="47"/>
       <c r="D248" s="7"/>
       <c r="E248" s="68"/>
       <c r="F248" s="68"/>
@@ -9479,7 +9542,7 @@
     </row>
     <row r="249" spans="1:14">
       <c r="A249" s="7"/>
-      <c r="B249" s="46"/>
+      <c r="B249" s="47"/>
       <c r="D249" s="7"/>
       <c r="E249" s="68"/>
       <c r="F249" s="68"/>
@@ -9494,7 +9557,7 @@
     </row>
     <row r="250" spans="1:14">
       <c r="A250" s="7"/>
-      <c r="B250" s="46"/>
+      <c r="B250" s="47"/>
       <c r="D250" s="7"/>
       <c r="E250" s="68"/>
       <c r="F250" s="68"/>
@@ -9509,7 +9572,7 @@
     </row>
     <row r="251" spans="1:14">
       <c r="A251" s="7"/>
-      <c r="B251" s="46"/>
+      <c r="B251" s="47"/>
       <c r="D251" s="7"/>
       <c r="E251" s="68"/>
       <c r="F251" s="68"/>
@@ -9524,7 +9587,7 @@
     </row>
     <row r="252" spans="1:14">
       <c r="A252" s="7"/>
-      <c r="B252" s="46"/>
+      <c r="B252" s="47"/>
       <c r="D252" s="7"/>
       <c r="E252" s="68"/>
       <c r="F252" s="68"/>
@@ -9539,7 +9602,7 @@
     </row>
     <row r="253" spans="1:14">
       <c r="A253" s="7"/>
-      <c r="B253" s="46"/>
+      <c r="B253" s="47"/>
       <c r="D253" s="7"/>
       <c r="E253" s="68"/>
       <c r="F253" s="68"/>
@@ -9554,7 +9617,7 @@
     </row>
     <row r="254" spans="1:14">
       <c r="A254" s="7"/>
-      <c r="B254" s="46"/>
+      <c r="B254" s="47"/>
       <c r="D254" s="7"/>
       <c r="E254" s="68"/>
       <c r="F254" s="68"/>
@@ -9569,7 +9632,7 @@
     </row>
     <row r="255" spans="1:14">
       <c r="A255" s="7"/>
-      <c r="B255" s="46"/>
+      <c r="B255" s="47"/>
       <c r="D255" s="7"/>
       <c r="E255" s="68"/>
       <c r="F255" s="68"/>
@@ -9584,7 +9647,7 @@
     </row>
     <row r="256" spans="1:14">
       <c r="A256" s="7"/>
-      <c r="B256" s="46"/>
+      <c r="B256" s="47"/>
       <c r="D256" s="7"/>
       <c r="E256" s="68"/>
       <c r="F256" s="68"/>
@@ -9599,7 +9662,7 @@
     </row>
     <row r="257" spans="1:14">
       <c r="A257" s="7"/>
-      <c r="B257" s="46"/>
+      <c r="B257" s="47"/>
       <c r="D257" s="7"/>
       <c r="E257" s="68"/>
       <c r="F257" s="68"/>
@@ -9614,7 +9677,7 @@
     </row>
     <row r="258" spans="1:14">
       <c r="A258" s="7"/>
-      <c r="B258" s="46"/>
+      <c r="B258" s="47"/>
       <c r="D258" s="7"/>
       <c r="E258" s="68"/>
       <c r="F258" s="68"/>
@@ -9629,7 +9692,7 @@
     </row>
     <row r="259" spans="1:14">
       <c r="A259" s="7"/>
-      <c r="B259" s="46"/>
+      <c r="B259" s="47"/>
       <c r="D259" s="7"/>
       <c r="E259" s="68"/>
       <c r="F259" s="68"/>
@@ -9644,7 +9707,7 @@
     </row>
     <row r="260" spans="1:14">
       <c r="A260" s="7"/>
-      <c r="B260" s="46"/>
+      <c r="B260" s="47"/>
       <c r="D260" s="7"/>
       <c r="E260" s="68"/>
       <c r="F260" s="68"/>
@@ -9659,7 +9722,7 @@
     </row>
     <row r="261" spans="1:14">
       <c r="A261" s="7"/>
-      <c r="B261" s="46"/>
+      <c r="B261" s="47"/>
       <c r="D261" s="7"/>
       <c r="E261" s="68"/>
       <c r="F261" s="68"/>
@@ -9674,7 +9737,7 @@
     </row>
     <row r="262" spans="1:14">
       <c r="A262" s="7"/>
-      <c r="B262" s="46"/>
+      <c r="B262" s="47"/>
       <c r="D262" s="7"/>
       <c r="E262" s="68"/>
       <c r="F262" s="68"/>
@@ -9689,7 +9752,7 @@
     </row>
     <row r="263" spans="1:14">
       <c r="A263" s="7"/>
-      <c r="B263" s="46"/>
+      <c r="B263" s="47"/>
       <c r="D263" s="7"/>
       <c r="E263" s="68"/>
       <c r="F263" s="68"/>
@@ -9704,7 +9767,7 @@
     </row>
     <row r="264" spans="1:14">
       <c r="A264" s="7"/>
-      <c r="B264" s="46"/>
+      <c r="B264" s="47"/>
       <c r="D264" s="7"/>
       <c r="E264" s="68"/>
       <c r="F264" s="68"/>
@@ -9719,7 +9782,7 @@
     </row>
     <row r="265" spans="1:14">
       <c r="A265" s="7"/>
-      <c r="B265" s="46"/>
+      <c r="B265" s="47"/>
       <c r="D265" s="7"/>
       <c r="E265" s="68"/>
       <c r="F265" s="68"/>
@@ -9734,7 +9797,7 @@
     </row>
     <row r="266" spans="1:14">
       <c r="A266" s="7"/>
-      <c r="B266" s="46"/>
+      <c r="B266" s="47"/>
       <c r="D266" s="7"/>
       <c r="E266" s="68"/>
       <c r="F266" s="68"/>
@@ -9749,7 +9812,7 @@
     </row>
     <row r="267" spans="1:14">
       <c r="A267" s="7"/>
-      <c r="B267" s="46"/>
+      <c r="B267" s="47"/>
       <c r="D267" s="7"/>
       <c r="E267" s="68"/>
       <c r="F267" s="68"/>
@@ -9764,7 +9827,7 @@
     </row>
     <row r="268" spans="1:14">
       <c r="A268" s="7"/>
-      <c r="B268" s="46"/>
+      <c r="B268" s="47"/>
       <c r="D268" s="7"/>
       <c r="E268" s="68"/>
       <c r="F268" s="68"/>
@@ -9779,7 +9842,7 @@
     </row>
     <row r="269" spans="1:14">
       <c r="A269" s="7"/>
-      <c r="B269" s="46"/>
+      <c r="B269" s="47"/>
       <c r="D269" s="7"/>
       <c r="E269" s="68"/>
       <c r="F269" s="68"/>
@@ -9794,7 +9857,7 @@
     </row>
     <row r="270" spans="1:14">
       <c r="A270" s="7"/>
-      <c r="B270" s="46"/>
+      <c r="B270" s="47"/>
       <c r="D270" s="7"/>
       <c r="E270" s="68"/>
       <c r="F270" s="68"/>
@@ -9809,7 +9872,7 @@
     </row>
     <row r="271" spans="1:14">
       <c r="A271" s="7"/>
-      <c r="B271" s="46"/>
+      <c r="B271" s="47"/>
       <c r="D271" s="7"/>
       <c r="E271" s="68"/>
       <c r="F271" s="68"/>
@@ -9824,7 +9887,7 @@
     </row>
     <row r="272" spans="1:14">
       <c r="A272" s="7"/>
-      <c r="B272" s="46"/>
+      <c r="B272" s="47"/>
       <c r="D272" s="7"/>
       <c r="E272" s="68"/>
       <c r="F272" s="68"/>
@@ -9839,7 +9902,7 @@
     </row>
     <row r="273" spans="1:14">
       <c r="A273" s="7"/>
-      <c r="B273" s="46"/>
+      <c r="B273" s="47"/>
       <c r="D273" s="7"/>
       <c r="E273" s="68"/>
       <c r="F273" s="68"/>
@@ -9854,7 +9917,7 @@
     </row>
     <row r="274" spans="1:14">
       <c r="A274" s="7"/>
-      <c r="B274" s="46"/>
+      <c r="B274" s="47"/>
       <c r="D274" s="7"/>
       <c r="E274" s="68"/>
       <c r="F274" s="68"/>
@@ -9869,7 +9932,7 @@
     </row>
     <row r="275" spans="1:14">
       <c r="A275" s="7"/>
-      <c r="B275" s="46"/>
+      <c r="B275" s="47"/>
       <c r="D275" s="7"/>
       <c r="E275" s="68"/>
       <c r="F275" s="68"/>
@@ -9884,7 +9947,7 @@
     </row>
     <row r="276" spans="1:14">
       <c r="A276" s="7"/>
-      <c r="B276" s="46"/>
+      <c r="B276" s="47"/>
       <c r="D276" s="7"/>
       <c r="E276" s="68"/>
       <c r="F276" s="68"/>
@@ -9899,7 +9962,7 @@
     </row>
     <row r="277" spans="1:14">
       <c r="A277" s="7"/>
-      <c r="B277" s="46"/>
+      <c r="B277" s="47"/>
       <c r="D277" s="7"/>
       <c r="E277" s="68"/>
       <c r="F277" s="68"/>
@@ -9914,7 +9977,7 @@
     </row>
     <row r="278" spans="1:14">
       <c r="A278" s="7"/>
-      <c r="B278" s="46"/>
+      <c r="B278" s="47"/>
       <c r="D278" s="7"/>
       <c r="E278" s="68"/>
       <c r="F278" s="68"/>
@@ -9929,7 +9992,7 @@
     </row>
     <row r="279" spans="1:14">
       <c r="A279" s="7"/>
-      <c r="B279" s="46"/>
+      <c r="B279" s="47"/>
       <c r="D279" s="7"/>
       <c r="E279" s="68"/>
       <c r="F279" s="68"/>
@@ -9944,7 +10007,7 @@
     </row>
     <row r="280" spans="1:14">
       <c r="A280" s="7"/>
-      <c r="B280" s="46"/>
+      <c r="B280" s="47"/>
       <c r="D280" s="7"/>
       <c r="E280" s="68"/>
       <c r="F280" s="68"/>
@@ -9959,7 +10022,7 @@
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="7"/>
-      <c r="B281" s="46"/>
+      <c r="B281" s="47"/>
       <c r="D281" s="7"/>
       <c r="E281" s="68"/>
       <c r="F281" s="68"/>
@@ -9974,7 +10037,7 @@
     </row>
     <row r="282" spans="1:14">
       <c r="A282" s="7"/>
-      <c r="B282" s="46"/>
+      <c r="B282" s="47"/>
       <c r="D282" s="7"/>
       <c r="E282" s="68"/>
       <c r="F282" s="68"/>
@@ -9989,7 +10052,7 @@
     </row>
     <row r="283" spans="1:14">
       <c r="A283" s="7"/>
-      <c r="B283" s="46"/>
+      <c r="B283" s="47"/>
       <c r="D283" s="7"/>
       <c r="E283" s="68"/>
       <c r="F283" s="68"/>
@@ -10004,7 +10067,7 @@
     </row>
     <row r="284" spans="1:14">
       <c r="A284" s="7"/>
-      <c r="B284" s="46"/>
+      <c r="B284" s="47"/>
       <c r="D284" s="7"/>
       <c r="E284" s="68"/>
       <c r="F284" s="68"/>
@@ -10019,7 +10082,7 @@
     </row>
     <row r="285" spans="1:14">
       <c r="A285" s="7"/>
-      <c r="B285" s="46"/>
+      <c r="B285" s="47"/>
       <c r="D285" s="7"/>
       <c r="E285" s="68"/>
       <c r="F285" s="68"/>
@@ -10034,7 +10097,7 @@
     </row>
     <row r="286" spans="1:14">
       <c r="A286" s="7"/>
-      <c r="B286" s="46"/>
+      <c r="B286" s="47"/>
       <c r="D286" s="7"/>
       <c r="E286" s="68"/>
       <c r="F286" s="68"/>
@@ -10049,7 +10112,7 @@
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="7"/>
-      <c r="B287" s="46"/>
+      <c r="B287" s="47"/>
       <c r="D287" s="7"/>
       <c r="E287" s="68"/>
       <c r="F287" s="68"/>
@@ -10064,7 +10127,7 @@
     </row>
     <row r="288" spans="1:14">
       <c r="A288" s="7"/>
-      <c r="B288" s="46"/>
+      <c r="B288" s="47"/>
       <c r="D288" s="7"/>
       <c r="E288" s="68"/>
       <c r="F288" s="68"/>
@@ -10079,7 +10142,7 @@
     </row>
     <row r="289" spans="1:14">
       <c r="A289" s="7"/>
-      <c r="B289" s="46"/>
+      <c r="B289" s="47"/>
       <c r="D289" s="7"/>
       <c r="E289" s="68"/>
       <c r="F289" s="68"/>
@@ -10094,7 +10157,7 @@
     </row>
     <row r="290" spans="1:14">
       <c r="A290" s="7"/>
-      <c r="B290" s="46"/>
+      <c r="B290" s="47"/>
       <c r="D290" s="7"/>
       <c r="E290" s="68"/>
       <c r="F290" s="68"/>
@@ -10109,7 +10172,7 @@
     </row>
     <row r="291" spans="1:14">
       <c r="A291" s="7"/>
-      <c r="B291" s="46"/>
+      <c r="B291" s="47"/>
       <c r="D291" s="7"/>
       <c r="E291" s="68"/>
       <c r="F291" s="68"/>
@@ -10124,7 +10187,7 @@
     </row>
     <row r="292" spans="1:14">
       <c r="A292" s="7"/>
-      <c r="B292" s="46"/>
+      <c r="B292" s="47"/>
       <c r="D292" s="7"/>
       <c r="E292" s="68"/>
       <c r="F292" s="68"/>
@@ -10139,7 +10202,7 @@
     </row>
     <row r="293" spans="1:14">
       <c r="A293" s="7"/>
-      <c r="B293" s="46"/>
+      <c r="B293" s="47"/>
       <c r="D293" s="7"/>
       <c r="E293" s="68"/>
       <c r="F293" s="68"/>
@@ -10154,7 +10217,7 @@
     </row>
     <row r="294" spans="1:14">
       <c r="A294" s="7"/>
-      <c r="B294" s="46"/>
+      <c r="B294" s="47"/>
       <c r="D294" s="7"/>
       <c r="E294" s="68"/>
       <c r="F294" s="68"/>
@@ -10169,7 +10232,7 @@
     </row>
     <row r="295" spans="1:14">
       <c r="A295" s="7"/>
-      <c r="B295" s="46"/>
+      <c r="B295" s="47"/>
       <c r="D295" s="7"/>
       <c r="E295" s="68"/>
       <c r="F295" s="68"/>
@@ -10184,7 +10247,7 @@
     </row>
     <row r="296" spans="1:14">
       <c r="A296" s="7"/>
-      <c r="B296" s="46"/>
+      <c r="B296" s="47"/>
       <c r="D296" s="7"/>
       <c r="E296" s="68"/>
       <c r="F296" s="68"/>
@@ -10199,7 +10262,7 @@
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="7"/>
-      <c r="B297" s="46"/>
+      <c r="B297" s="47"/>
       <c r="D297" s="7"/>
       <c r="E297" s="68"/>
       <c r="F297" s="68"/>
@@ -10214,7 +10277,7 @@
     </row>
     <row r="298" spans="1:14">
       <c r="A298" s="7"/>
-      <c r="B298" s="46"/>
+      <c r="B298" s="47"/>
       <c r="D298" s="7"/>
       <c r="E298" s="68"/>
       <c r="F298" s="68"/>
@@ -10229,7 +10292,7 @@
     </row>
     <row r="299" spans="1:14">
       <c r="A299" s="7"/>
-      <c r="B299" s="46"/>
+      <c r="B299" s="47"/>
       <c r="D299" s="7"/>
       <c r="E299" s="68"/>
       <c r="F299" s="68"/>
@@ -10244,7 +10307,7 @@
     </row>
     <row r="300" spans="1:14">
       <c r="A300" s="7"/>
-      <c r="B300" s="46"/>
+      <c r="B300" s="47"/>
       <c r="D300" s="7"/>
       <c r="E300" s="68"/>
       <c r="F300" s="68"/>
@@ -10259,7 +10322,7 @@
     </row>
     <row r="301" spans="1:14">
       <c r="A301" s="7"/>
-      <c r="B301" s="46"/>
+      <c r="B301" s="47"/>
       <c r="D301" s="7"/>
       <c r="E301" s="68"/>
       <c r="F301" s="68"/>
@@ -10274,7 +10337,7 @@
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="7"/>
-      <c r="B302" s="46"/>
+      <c r="B302" s="47"/>
       <c r="D302" s="7"/>
       <c r="E302" s="68"/>
       <c r="F302" s="68"/>
@@ -10289,7 +10352,7 @@
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="7"/>
-      <c r="B303" s="46"/>
+      <c r="B303" s="47"/>
       <c r="D303" s="7"/>
       <c r="E303" s="68"/>
       <c r="F303" s="68"/>
@@ -10304,7 +10367,7 @@
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="7"/>
-      <c r="B304" s="46"/>
+      <c r="B304" s="47"/>
       <c r="D304" s="7"/>
       <c r="E304" s="68"/>
       <c r="F304" s="68"/>
@@ -10319,7 +10382,7 @@
     </row>
     <row r="305" spans="1:14">
       <c r="A305" s="7"/>
-      <c r="B305" s="46"/>
+      <c r="B305" s="47"/>
       <c r="D305" s="7"/>
       <c r="E305" s="68"/>
       <c r="F305" s="68"/>
@@ -10334,7 +10397,7 @@
     </row>
     <row r="306" spans="1:14">
       <c r="A306" s="7"/>
-      <c r="B306" s="46"/>
+      <c r="B306" s="47"/>
       <c r="D306" s="7"/>
       <c r="E306" s="68"/>
       <c r="F306" s="68"/>
@@ -10349,7 +10412,7 @@
     </row>
     <row r="307" spans="1:14">
       <c r="A307" s="7"/>
-      <c r="B307" s="46"/>
+      <c r="B307" s="47"/>
       <c r="D307" s="7"/>
       <c r="E307" s="68"/>
       <c r="F307" s="68"/>
@@ -10364,7 +10427,7 @@
     </row>
     <row r="308" spans="1:14">
       <c r="A308" s="7"/>
-      <c r="B308" s="46"/>
+      <c r="B308" s="47"/>
       <c r="D308" s="7"/>
       <c r="E308" s="68"/>
       <c r="F308" s="68"/>
@@ -10379,7 +10442,7 @@
     </row>
     <row r="309" spans="1:14">
       <c r="A309" s="7"/>
-      <c r="B309" s="46"/>
+      <c r="B309" s="47"/>
       <c r="D309" s="7"/>
       <c r="E309" s="68"/>
       <c r="F309" s="68"/>
@@ -10394,7 +10457,7 @@
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="7"/>
-      <c r="B310" s="46"/>
+      <c r="B310" s="47"/>
       <c r="D310" s="7"/>
       <c r="E310" s="68"/>
       <c r="F310" s="68"/>
@@ -10409,7 +10472,7 @@
     </row>
     <row r="311" spans="1:14">
       <c r="A311" s="7"/>
-      <c r="B311" s="46"/>
+      <c r="B311" s="47"/>
       <c r="D311" s="7"/>
       <c r="E311" s="68"/>
       <c r="F311" s="68"/>
@@ -10424,7 +10487,7 @@
     </row>
     <row r="312" spans="1:14">
       <c r="A312" s="7"/>
-      <c r="B312" s="46"/>
+      <c r="B312" s="47"/>
       <c r="D312" s="7"/>
       <c r="E312" s="68"/>
       <c r="F312" s="68"/>
@@ -10439,7 +10502,7 @@
     </row>
     <row r="313" spans="1:14">
       <c r="A313" s="7"/>
-      <c r="B313" s="46"/>
+      <c r="B313" s="47"/>
       <c r="D313" s="7"/>
       <c r="E313" s="68"/>
       <c r="F313" s="68"/>
@@ -10454,7 +10517,7 @@
     </row>
     <row r="314" spans="1:14">
       <c r="A314" s="7"/>
-      <c r="B314" s="46"/>
+      <c r="B314" s="47"/>
       <c r="D314" s="7"/>
       <c r="E314" s="68"/>
       <c r="F314" s="68"/>
@@ -10469,7 +10532,7 @@
     </row>
     <row r="315" spans="1:14">
       <c r="A315" s="7"/>
-      <c r="B315" s="46"/>
+      <c r="B315" s="47"/>
       <c r="D315" s="7"/>
       <c r="E315" s="68"/>
       <c r="F315" s="68"/>
@@ -10484,7 +10547,7 @@
     </row>
     <row r="316" spans="1:14">
       <c r="A316" s="7"/>
-      <c r="B316" s="46"/>
+      <c r="B316" s="47"/>
       <c r="D316" s="7"/>
       <c r="E316" s="68"/>
       <c r="F316" s="68"/>
@@ -10499,7 +10562,7 @@
     </row>
     <row r="317" spans="1:14">
       <c r="A317" s="7"/>
-      <c r="B317" s="46"/>
+      <c r="B317" s="47"/>
       <c r="D317" s="7"/>
       <c r="E317" s="68"/>
       <c r="F317" s="68"/>
@@ -10514,7 +10577,7 @@
     </row>
     <row r="318" spans="1:14">
       <c r="A318" s="7"/>
-      <c r="B318" s="46"/>
+      <c r="B318" s="47"/>
       <c r="D318" s="7"/>
       <c r="E318" s="68"/>
       <c r="F318" s="68"/>
@@ -10529,7 +10592,7 @@
     </row>
     <row r="319" spans="1:14">
       <c r="A319" s="7"/>
-      <c r="B319" s="46"/>
+      <c r="B319" s="47"/>
       <c r="D319" s="7"/>
       <c r="E319" s="68"/>
       <c r="F319" s="68"/>
@@ -10544,7 +10607,7 @@
     </row>
     <row r="320" spans="1:14">
       <c r="A320" s="7"/>
-      <c r="B320" s="46"/>
+      <c r="B320" s="47"/>
       <c r="D320" s="7"/>
       <c r="E320" s="68"/>
       <c r="F320" s="68"/>
@@ -10559,7 +10622,7 @@
     </row>
     <row r="321" spans="1:14">
       <c r="A321" s="7"/>
-      <c r="B321" s="46"/>
+      <c r="B321" s="47"/>
       <c r="D321" s="7"/>
       <c r="E321" s="68"/>
       <c r="F321" s="68"/>
@@ -10574,7 +10637,7 @@
     </row>
     <row r="322" spans="1:14">
       <c r="A322" s="7"/>
-      <c r="B322" s="46"/>
+      <c r="B322" s="47"/>
       <c r="D322" s="7"/>
       <c r="E322" s="68"/>
       <c r="F322" s="68"/>
@@ -10589,7 +10652,7 @@
     </row>
     <row r="323" spans="1:14">
       <c r="A323" s="7"/>
-      <c r="B323" s="46"/>
+      <c r="B323" s="47"/>
       <c r="D323" s="7"/>
       <c r="E323" s="68"/>
       <c r="F323" s="68"/>
@@ -10604,7 +10667,7 @@
     </row>
     <row r="324" spans="1:14">
       <c r="A324" s="7"/>
-      <c r="B324" s="46"/>
+      <c r="B324" s="47"/>
       <c r="D324" s="7"/>
       <c r="E324" s="68"/>
       <c r="F324" s="68"/>
@@ -10619,7 +10682,7 @@
     </row>
     <row r="325" spans="1:14">
       <c r="A325" s="7"/>
-      <c r="B325" s="46"/>
+      <c r="B325" s="47"/>
       <c r="D325" s="7"/>
       <c r="E325" s="68"/>
       <c r="F325" s="68"/>
@@ -10634,7 +10697,7 @@
     </row>
     <row r="326" spans="1:14">
       <c r="A326" s="7"/>
-      <c r="B326" s="46"/>
+      <c r="B326" s="47"/>
       <c r="D326" s="7"/>
       <c r="E326" s="68"/>
       <c r="F326" s="68"/>
@@ -10649,7 +10712,7 @@
     </row>
     <row r="327" spans="1:14">
       <c r="A327" s="7"/>
-      <c r="B327" s="46"/>
+      <c r="B327" s="47"/>
       <c r="D327" s="7"/>
       <c r="E327" s="68"/>
       <c r="F327" s="68"/>
@@ -10664,7 +10727,7 @@
     </row>
     <row r="328" spans="1:14">
       <c r="A328" s="7"/>
-      <c r="B328" s="46"/>
+      <c r="B328" s="47"/>
       <c r="D328" s="7"/>
       <c r="E328" s="68"/>
       <c r="F328" s="68"/>
@@ -10679,7 +10742,7 @@
     </row>
     <row r="329" spans="1:14">
       <c r="A329" s="7"/>
-      <c r="B329" s="46"/>
+      <c r="B329" s="47"/>
       <c r="D329" s="7"/>
       <c r="E329" s="68"/>
       <c r="F329" s="68"/>
@@ -10694,7 +10757,7 @@
     </row>
     <row r="330" spans="1:14">
       <c r="A330" s="7"/>
-      <c r="B330" s="46"/>
+      <c r="B330" s="47"/>
       <c r="D330" s="7"/>
       <c r="E330" s="68"/>
       <c r="F330" s="68"/>
@@ -10709,7 +10772,7 @@
     </row>
     <row r="331" spans="1:14">
       <c r="A331" s="7"/>
-      <c r="B331" s="46"/>
+      <c r="B331" s="47"/>
       <c r="D331" s="7"/>
       <c r="E331" s="68"/>
       <c r="F331" s="68"/>
@@ -10724,7 +10787,7 @@
     </row>
     <row r="332" spans="1:14">
       <c r="A332" s="7"/>
-      <c r="B332" s="46"/>
+      <c r="B332" s="47"/>
       <c r="D332" s="7"/>
       <c r="E332" s="68"/>
       <c r="F332" s="68"/>
@@ -10739,7 +10802,7 @@
     </row>
     <row r="333" spans="1:14">
       <c r="A333" s="7"/>
-      <c r="B333" s="46"/>
+      <c r="B333" s="47"/>
       <c r="D333" s="7"/>
       <c r="E333" s="68"/>
       <c r="F333" s="68"/>
@@ -10754,7 +10817,7 @@
     </row>
     <row r="334" spans="1:14">
       <c r="A334" s="7"/>
-      <c r="B334" s="46"/>
+      <c r="B334" s="47"/>
       <c r="D334" s="7"/>
       <c r="E334" s="68"/>
       <c r="F334" s="68"/>
@@ -10769,7 +10832,7 @@
     </row>
     <row r="335" spans="1:14">
       <c r="A335" s="7"/>
-      <c r="B335" s="46"/>
+      <c r="B335" s="47"/>
       <c r="D335" s="7"/>
       <c r="E335" s="68"/>
       <c r="F335" s="68"/>
@@ -10784,7 +10847,7 @@
     </row>
     <row r="336" spans="1:14">
       <c r="A336" s="7"/>
-      <c r="B336" s="46"/>
+      <c r="B336" s="47"/>
       <c r="D336" s="7"/>
       <c r="E336" s="68"/>
       <c r="F336" s="68"/>
@@ -10799,7 +10862,7 @@
     </row>
     <row r="337" spans="1:14">
       <c r="A337" s="7"/>
-      <c r="B337" s="46"/>
+      <c r="B337" s="47"/>
       <c r="D337" s="7"/>
       <c r="E337" s="68"/>
       <c r="F337" s="68"/>
@@ -10814,7 +10877,7 @@
     </row>
     <row r="338" spans="1:14">
       <c r="A338" s="7"/>
-      <c r="B338" s="46"/>
+      <c r="B338" s="47"/>
       <c r="D338" s="7"/>
       <c r="E338" s="68"/>
       <c r="F338" s="68"/>
@@ -10829,7 +10892,7 @@
     </row>
     <row r="339" spans="1:14">
       <c r="A339" s="7"/>
-      <c r="B339" s="46"/>
+      <c r="B339" s="47"/>
       <c r="D339" s="7"/>
       <c r="E339" s="68"/>
       <c r="F339" s="68"/>
@@ -10844,7 +10907,7 @@
     </row>
     <row r="340" spans="1:14">
       <c r="A340" s="7"/>
-      <c r="B340" s="46"/>
+      <c r="B340" s="47"/>
       <c r="D340" s="7"/>
       <c r="E340" s="68"/>
       <c r="F340" s="68"/>
@@ -10859,7 +10922,7 @@
     </row>
     <row r="341" spans="1:14">
       <c r="A341" s="7"/>
-      <c r="B341" s="46"/>
+      <c r="B341" s="47"/>
       <c r="D341" s="7"/>
       <c r="E341" s="68"/>
       <c r="F341" s="68"/>
@@ -10874,7 +10937,7 @@
     </row>
     <row r="342" spans="1:14">
       <c r="A342" s="7"/>
-      <c r="B342" s="46"/>
+      <c r="B342" s="47"/>
       <c r="D342" s="7"/>
       <c r="E342" s="68"/>
       <c r="F342" s="68"/>
@@ -10889,7 +10952,7 @@
     </row>
     <row r="343" spans="1:14">
       <c r="A343" s="7"/>
-      <c r="B343" s="46"/>
+      <c r="B343" s="47"/>
       <c r="D343" s="7"/>
       <c r="E343" s="68"/>
       <c r="F343" s="68"/>
@@ -10904,7 +10967,7 @@
     </row>
     <row r="344" spans="1:14">
       <c r="A344" s="7"/>
-      <c r="B344" s="46"/>
+      <c r="B344" s="47"/>
       <c r="D344" s="7"/>
       <c r="E344" s="68"/>
       <c r="F344" s="68"/>
@@ -10919,7 +10982,7 @@
     </row>
     <row r="345" spans="1:14">
       <c r="A345" s="7"/>
-      <c r="B345" s="46"/>
+      <c r="B345" s="47"/>
       <c r="D345" s="7"/>
       <c r="E345" s="68"/>
       <c r="F345" s="68"/>
@@ -10934,7 +10997,7 @@
     </row>
     <row r="346" spans="1:14">
       <c r="A346" s="7"/>
-      <c r="B346" s="46"/>
+      <c r="B346" s="47"/>
       <c r="D346" s="7"/>
       <c r="E346" s="68"/>
       <c r="F346" s="68"/>
@@ -10949,7 +11012,7 @@
     </row>
     <row r="347" spans="1:14">
       <c r="A347" s="7"/>
-      <c r="B347" s="46"/>
+      <c r="B347" s="47"/>
       <c r="D347" s="7"/>
       <c r="E347" s="68"/>
       <c r="F347" s="68"/>
@@ -10964,7 +11027,7 @@
     </row>
     <row r="348" spans="1:14">
       <c r="A348" s="7"/>
-      <c r="B348" s="46"/>
+      <c r="B348" s="47"/>
       <c r="D348" s="7"/>
       <c r="E348" s="68"/>
       <c r="F348" s="68"/>
@@ -10979,7 +11042,7 @@
     </row>
     <row r="349" spans="1:14">
       <c r="A349" s="7"/>
-      <c r="B349" s="46"/>
+      <c r="B349" s="47"/>
       <c r="D349" s="7"/>
       <c r="E349" s="68"/>
       <c r="F349" s="68"/>
@@ -10994,7 +11057,7 @@
     </row>
     <row r="350" spans="1:14">
       <c r="A350" s="7"/>
-      <c r="B350" s="46"/>
+      <c r="B350" s="47"/>
       <c r="D350" s="7"/>
       <c r="E350" s="68"/>
       <c r="F350" s="68"/>
@@ -11009,7 +11072,7 @@
     </row>
     <row r="351" spans="1:14">
       <c r="A351" s="7"/>
-      <c r="B351" s="46"/>
+      <c r="B351" s="47"/>
       <c r="D351" s="7"/>
       <c r="E351" s="68"/>
       <c r="F351" s="68"/>
@@ -11024,7 +11087,7 @@
     </row>
     <row r="352" spans="1:14">
       <c r="A352" s="7"/>
-      <c r="B352" s="46"/>
+      <c r="B352" s="47"/>
       <c r="D352" s="7"/>
       <c r="E352" s="68"/>
       <c r="F352" s="68"/>
@@ -11039,7 +11102,7 @@
     </row>
     <row r="353" spans="1:14">
       <c r="A353" s="7"/>
-      <c r="B353" s="46"/>
+      <c r="B353" s="47"/>
       <c r="D353" s="7"/>
       <c r="E353" s="68"/>
       <c r="F353" s="68"/>
@@ -11054,7 +11117,7 @@
     </row>
     <row r="354" spans="1:14">
       <c r="A354" s="7"/>
-      <c r="B354" s="46"/>
+      <c r="B354" s="47"/>
       <c r="D354" s="7"/>
       <c r="E354" s="68"/>
       <c r="F354" s="68"/>
@@ -11069,7 +11132,7 @@
     </row>
     <row r="355" spans="1:14">
       <c r="A355" s="7"/>
-      <c r="B355" s="46"/>
+      <c r="B355" s="47"/>
       <c r="D355" s="7"/>
       <c r="E355" s="68"/>
       <c r="F355" s="68"/>
@@ -11084,7 +11147,7 @@
     </row>
     <row r="356" spans="1:14">
       <c r="A356" s="7"/>
-      <c r="B356" s="46"/>
+      <c r="B356" s="47"/>
       <c r="D356" s="7"/>
       <c r="E356" s="68"/>
       <c r="F356" s="68"/>
@@ -11099,7 +11162,7 @@
     </row>
     <row r="357" spans="1:14">
       <c r="A357" s="7"/>
-      <c r="B357" s="46"/>
+      <c r="B357" s="47"/>
       <c r="D357" s="7"/>
       <c r="E357" s="68"/>
       <c r="F357" s="68"/>
@@ -11114,7 +11177,7 @@
     </row>
     <row r="358" spans="1:14">
       <c r="A358" s="7"/>
-      <c r="B358" s="46"/>
+      <c r="B358" s="47"/>
       <c r="D358" s="7"/>
       <c r="E358" s="68"/>
       <c r="F358" s="68"/>
@@ -11129,7 +11192,7 @@
     </row>
     <row r="359" spans="1:14">
       <c r="A359" s="7"/>
-      <c r="B359" s="46"/>
+      <c r="B359" s="47"/>
       <c r="D359" s="7"/>
       <c r="E359" s="68"/>
       <c r="F359" s="68"/>
@@ -11144,7 +11207,7 @@
     </row>
     <row r="360" spans="1:14">
       <c r="A360" s="7"/>
-      <c r="B360" s="46"/>
+      <c r="B360" s="47"/>
       <c r="D360" s="7"/>
       <c r="E360" s="68"/>
       <c r="F360" s="68"/>
@@ -11159,7 +11222,7 @@
     </row>
     <row r="361" spans="1:14">
       <c r="A361" s="7"/>
-      <c r="B361" s="46"/>
+      <c r="B361" s="47"/>
       <c r="D361" s="7"/>
       <c r="E361" s="68"/>
       <c r="F361" s="68"/>
@@ -11174,7 +11237,7 @@
     </row>
     <row r="362" spans="1:14">
       <c r="A362" s="7"/>
-      <c r="B362" s="46"/>
+      <c r="B362" s="47"/>
       <c r="D362" s="7"/>
       <c r="E362" s="68"/>
       <c r="F362" s="68"/>
@@ -11189,7 +11252,7 @@
     </row>
     <row r="363" spans="1:14">
       <c r="A363" s="7"/>
-      <c r="B363" s="46"/>
+      <c r="B363" s="47"/>
       <c r="D363" s="7"/>
       <c r="E363" s="68"/>
       <c r="F363" s="68"/>
@@ -11204,7 +11267,7 @@
     </row>
     <row r="364" spans="1:14">
       <c r="A364" s="7"/>
-      <c r="B364" s="46"/>
+      <c r="B364" s="47"/>
       <c r="D364" s="7"/>
       <c r="E364" s="68"/>
       <c r="F364" s="68"/>
@@ -11219,7 +11282,7 @@
     </row>
     <row r="365" spans="1:14">
       <c r="A365" s="7"/>
-      <c r="B365" s="46"/>
+      <c r="B365" s="47"/>
       <c r="D365" s="7"/>
       <c r="E365" s="68"/>
       <c r="F365" s="68"/>
@@ -11234,7 +11297,7 @@
     </row>
     <row r="366" spans="1:14">
       <c r="A366" s="7"/>
-      <c r="B366" s="46"/>
+      <c r="B366" s="47"/>
       <c r="D366" s="7"/>
       <c r="E366" s="68"/>
       <c r="F366" s="68"/>
@@ -11249,7 +11312,7 @@
     </row>
     <row r="367" spans="1:14">
       <c r="A367" s="7"/>
-      <c r="B367" s="46"/>
+      <c r="B367" s="47"/>
       <c r="D367" s="7"/>
       <c r="E367" s="68"/>
       <c r="F367" s="68"/>
@@ -11264,7 +11327,7 @@
     </row>
     <row r="368" spans="1:14">
       <c r="A368" s="7"/>
-      <c r="B368" s="46"/>
+      <c r="B368" s="47"/>
       <c r="D368" s="7"/>
       <c r="E368" s="68"/>
       <c r="F368" s="68"/>
@@ -11279,7 +11342,7 @@
     </row>
     <row r="369" spans="1:14">
       <c r="A369" s="7"/>
-      <c r="B369" s="46"/>
+      <c r="B369" s="47"/>
       <c r="D369" s="7"/>
       <c r="E369" s="68"/>
       <c r="F369" s="68"/>
@@ -11294,7 +11357,7 @@
     </row>
     <row r="370" spans="1:14">
       <c r="A370" s="7"/>
-      <c r="B370" s="46"/>
+      <c r="B370" s="47"/>
       <c r="D370" s="7"/>
       <c r="E370" s="68"/>
       <c r="F370" s="68"/>
@@ -11309,7 +11372,7 @@
     </row>
     <row r="371" spans="1:14">
       <c r="A371" s="7"/>
-      <c r="B371" s="46"/>
+      <c r="B371" s="47"/>
       <c r="D371" s="7"/>
       <c r="E371" s="68"/>
       <c r="F371" s="68"/>
@@ -11324,7 +11387,7 @@
     </row>
     <row r="372" spans="1:14">
       <c r="A372" s="7"/>
-      <c r="B372" s="46"/>
+      <c r="B372" s="47"/>
       <c r="D372" s="7"/>
       <c r="E372" s="68"/>
       <c r="F372" s="68"/>
@@ -11339,7 +11402,7 @@
     </row>
     <row r="373" spans="1:14">
       <c r="A373" s="7"/>
-      <c r="B373" s="46"/>
+      <c r="B373" s="47"/>
       <c r="D373" s="7"/>
       <c r="E373" s="68"/>
       <c r="F373" s="68"/>
@@ -11354,7 +11417,7 @@
     </row>
     <row r="374" spans="1:14">
       <c r="A374" s="7"/>
-      <c r="B374" s="46"/>
+      <c r="B374" s="47"/>
       <c r="D374" s="7"/>
       <c r="E374" s="68"/>
       <c r="F374" s="68"/>
@@ -11369,7 +11432,7 @@
     </row>
     <row r="375" spans="1:14">
       <c r="A375" s="7"/>
-      <c r="B375" s="46"/>
+      <c r="B375" s="47"/>
       <c r="D375" s="7"/>
       <c r="E375" s="68"/>
       <c r="F375" s="68"/>
@@ -11384,7 +11447,7 @@
     </row>
     <row r="376" spans="1:14">
       <c r="A376" s="7"/>
-      <c r="B376" s="46"/>
+      <c r="B376" s="47"/>
       <c r="D376" s="7"/>
       <c r="E376" s="68"/>
       <c r="F376" s="68"/>
@@ -11399,7 +11462,7 @@
     </row>
     <row r="377" spans="1:14">
       <c r="A377" s="7"/>
-      <c r="B377" s="46"/>
+      <c r="B377" s="47"/>
       <c r="D377" s="7"/>
       <c r="E377" s="68"/>
       <c r="F377" s="68"/>
@@ -11414,7 +11477,7 @@
     </row>
     <row r="378" spans="1:14">
       <c r="A378" s="7"/>
-      <c r="B378" s="46"/>
+      <c r="B378" s="47"/>
       <c r="D378" s="7"/>
       <c r="E378" s="68"/>
       <c r="F378" s="68"/>
@@ -11429,7 +11492,7 @@
     </row>
     <row r="379" spans="1:14">
       <c r="A379" s="7"/>
-      <c r="B379" s="46"/>
+      <c r="B379" s="47"/>
       <c r="D379" s="7"/>
       <c r="E379" s="68"/>
       <c r="F379" s="68"/>
@@ -11444,7 +11507,7 @@
     </row>
     <row r="380" spans="1:14">
       <c r="A380" s="7"/>
-      <c r="B380" s="46"/>
+      <c r="B380" s="47"/>
       <c r="D380" s="7"/>
       <c r="E380" s="68"/>
       <c r="F380" s="68"/>
@@ -11459,7 +11522,7 @@
     </row>
     <row r="381" spans="1:14">
       <c r="A381" s="7"/>
-      <c r="B381" s="46"/>
+      <c r="B381" s="47"/>
       <c r="D381" s="7"/>
       <c r="E381" s="68"/>
       <c r="F381" s="68"/>
@@ -11474,7 +11537,7 @@
     </row>
     <row r="382" spans="1:14">
       <c r="A382" s="7"/>
-      <c r="B382" s="46"/>
+      <c r="B382" s="47"/>
       <c r="D382" s="7"/>
       <c r="E382" s="68"/>
       <c r="F382" s="68"/>
@@ -11489,7 +11552,7 @@
     </row>
     <row r="383" spans="1:14">
       <c r="A383" s="7"/>
-      <c r="B383" s="46"/>
+      <c r="B383" s="47"/>
       <c r="D383" s="7"/>
       <c r="E383" s="68"/>
       <c r="F383" s="68"/>
@@ -11504,7 +11567,7 @@
     </row>
     <row r="384" spans="1:14">
       <c r="A384" s="7"/>
-      <c r="B384" s="46"/>
+      <c r="B384" s="47"/>
       <c r="D384" s="7"/>
       <c r="E384" s="68"/>
       <c r="F384" s="68"/>
@@ -11519,7 +11582,7 @@
     </row>
     <row r="385" spans="1:14">
       <c r="A385" s="7"/>
-      <c r="B385" s="46"/>
+      <c r="B385" s="47"/>
       <c r="D385" s="7"/>
       <c r="E385" s="68"/>
       <c r="F385" s="68"/>
@@ -11534,7 +11597,7 @@
     </row>
     <row r="386" spans="1:14">
       <c r="A386" s="7"/>
-      <c r="B386" s="46"/>
+      <c r="B386" s="47"/>
       <c r="D386" s="7"/>
       <c r="E386" s="68"/>
       <c r="F386" s="68"/>
@@ -11549,7 +11612,7 @@
     </row>
     <row r="387" spans="1:14">
       <c r="A387" s="7"/>
-      <c r="B387" s="46"/>
+      <c r="B387" s="47"/>
       <c r="D387" s="7"/>
       <c r="E387" s="68"/>
       <c r="F387" s="68"/>
@@ -11564,7 +11627,7 @@
     </row>
     <row r="388" spans="1:14">
       <c r="A388" s="7"/>
-      <c r="B388" s="46"/>
+      <c r="B388" s="47"/>
       <c r="D388" s="7"/>
       <c r="E388" s="68"/>
       <c r="F388" s="68"/>
@@ -11579,7 +11642,7 @@
     </row>
     <row r="389" spans="1:14">
       <c r="A389" s="7"/>
-      <c r="B389" s="46"/>
+      <c r="B389" s="47"/>
       <c r="D389" s="7"/>
       <c r="E389" s="68"/>
       <c r="F389" s="68"/>
@@ -11594,7 +11657,7 @@
     </row>
     <row r="390" spans="1:14">
       <c r="A390" s="7"/>
-      <c r="B390" s="46"/>
+      <c r="B390" s="47"/>
       <c r="D390" s="7"/>
       <c r="E390" s="68"/>
       <c r="F390" s="68"/>
@@ -11609,7 +11672,7 @@
     </row>
     <row r="391" spans="1:14">
       <c r="A391" s="7"/>
-      <c r="B391" s="46"/>
+      <c r="B391" s="47"/>
       <c r="D391" s="7"/>
       <c r="E391" s="68"/>
       <c r="F391" s="68"/>
@@ -11624,7 +11687,7 @@
     </row>
     <row r="392" spans="1:14">
       <c r="A392" s="7"/>
-      <c r="B392" s="46"/>
+      <c r="B392" s="47"/>
       <c r="D392" s="7"/>
       <c r="E392" s="68"/>
       <c r="F392" s="68"/>
@@ -11639,7 +11702,7 @@
     </row>
     <row r="393" spans="1:14">
       <c r="A393" s="7"/>
-      <c r="B393" s="46"/>
+      <c r="B393" s="47"/>
       <c r="D393" s="7"/>
       <c r="E393" s="68"/>
       <c r="F393" s="68"/>
@@ -11654,7 +11717,7 @@
     </row>
     <row r="394" spans="1:14">
       <c r="A394" s="7"/>
-      <c r="B394" s="46"/>
+      <c r="B394" s="47"/>
       <c r="D394" s="7"/>
       <c r="E394" s="68"/>
       <c r="F394" s="68"/>
@@ -11669,7 +11732,7 @@
     </row>
     <row r="395" spans="1:14">
       <c r="A395" s="7"/>
-      <c r="B395" s="46"/>
+      <c r="B395" s="47"/>
       <c r="D395" s="7"/>
       <c r="E395" s="68"/>
       <c r="F395" s="68"/>
@@ -11684,7 +11747,7 @@
     </row>
     <row r="396" spans="1:14">
       <c r="A396" s="7"/>
-      <c r="B396" s="46"/>
+      <c r="B396" s="47"/>
       <c r="D396" s="7"/>
       <c r="E396" s="68"/>
       <c r="F396" s="68"/>
@@ -11699,7 +11762,7 @@
     </row>
     <row r="397" spans="1:14">
       <c r="A397" s="7"/>
-      <c r="B397" s="46"/>
+      <c r="B397" s="47"/>
       <c r="D397" s="7"/>
       <c r="E397" s="68"/>
       <c r="F397" s="68"/>
@@ -11714,7 +11777,7 @@
     </row>
     <row r="398" spans="1:14">
       <c r="A398" s="7"/>
-      <c r="B398" s="46"/>
+      <c r="B398" s="47"/>
       <c r="D398" s="7"/>
       <c r="E398" s="68"/>
       <c r="F398" s="68"/>
@@ -11729,7 +11792,7 @@
     </row>
     <row r="399" spans="1:14">
       <c r="A399" s="7"/>
-      <c r="B399" s="46"/>
+      <c r="B399" s="47"/>
       <c r="D399" s="7"/>
       <c r="E399" s="68"/>
       <c r="F399" s="68"/>
@@ -11744,7 +11807,7 @@
     </row>
     <row r="400" spans="1:14">
       <c r="A400" s="7"/>
-      <c r="B400" s="46"/>
+      <c r="B400" s="47"/>
       <c r="D400" s="7"/>
       <c r="E400" s="68"/>
       <c r="F400" s="68"/>
@@ -11759,7 +11822,7 @@
     </row>
     <row r="401" spans="1:14">
       <c r="A401" s="7"/>
-      <c r="B401" s="46"/>
+      <c r="B401" s="47"/>
       <c r="D401" s="7"/>
       <c r="E401" s="68"/>
       <c r="F401" s="68"/>
@@ -11774,7 +11837,7 @@
     </row>
     <row r="402" spans="1:14">
       <c r="A402" s="7"/>
-      <c r="B402" s="46"/>
+      <c r="B402" s="47"/>
       <c r="D402" s="7"/>
       <c r="E402" s="68"/>
       <c r="F402" s="68"/>
@@ -11789,7 +11852,7 @@
     </row>
     <row r="403" spans="1:14">
       <c r="A403" s="7"/>
-      <c r="B403" s="46"/>
+      <c r="B403" s="47"/>
       <c r="D403" s="7"/>
       <c r="E403" s="68"/>
       <c r="F403" s="68"/>
@@ -11804,7 +11867,7 @@
     </row>
     <row r="404" spans="1:14">
       <c r="A404" s="7"/>
-      <c r="B404" s="46"/>
+      <c r="B404" s="47"/>
       <c r="D404" s="7"/>
       <c r="E404" s="68"/>
       <c r="F404" s="68"/>
@@ -11819,7 +11882,7 @@
     </row>
     <row r="405" spans="1:14">
       <c r="A405" s="7"/>
-      <c r="B405" s="46"/>
+      <c r="B405" s="47"/>
       <c r="D405" s="7"/>
       <c r="E405" s="68"/>
       <c r="F405" s="68"/>
@@ -11834,7 +11897,7 @@
     </row>
     <row r="406" spans="1:14">
       <c r="A406" s="7"/>
-      <c r="B406" s="46"/>
+      <c r="B406" s="47"/>
       <c r="D406" s="7"/>
       <c r="E406" s="68"/>
       <c r="F406" s="68"/>
@@ -11849,7 +11912,7 @@
     </row>
     <row r="407" spans="1:14">
       <c r="A407" s="7"/>
-      <c r="B407" s="46"/>
+      <c r="B407" s="47"/>
       <c r="D407" s="7"/>
       <c r="E407" s="68"/>
       <c r="F407" s="68"/>
@@ -11864,7 +11927,7 @@
     </row>
     <row r="408" spans="1:14">
       <c r="A408" s="7"/>
-      <c r="B408" s="46"/>
+      <c r="B408" s="47"/>
       <c r="D408" s="7"/>
       <c r="E408" s="68"/>
       <c r="F408" s="68"/>
@@ -11879,7 +11942,7 @@
     </row>
     <row r="409" spans="1:14">
       <c r="A409" s="7"/>
-      <c r="B409" s="46"/>
+      <c r="B409" s="47"/>
       <c r="D409" s="7"/>
       <c r="E409" s="68"/>
       <c r="F409" s="68"/>
@@ -11894,7 +11957,7 @@
     </row>
     <row r="410" spans="1:14">
       <c r="A410" s="7"/>
-      <c r="B410" s="46"/>
+      <c r="B410" s="47"/>
       <c r="D410" s="7"/>
       <c r="E410" s="68"/>
       <c r="F410" s="68"/>
@@ -11909,7 +11972,7 @@
     </row>
     <row r="411" spans="1:14">
       <c r="A411" s="7"/>
-      <c r="B411" s="46"/>
+      <c r="B411" s="47"/>
       <c r="D411" s="7"/>
       <c r="E411" s="68"/>
       <c r="F411" s="68"/>
@@ -11924,7 +11987,7 @@
     </row>
     <row r="412" spans="1:14">
       <c r="A412" s="7"/>
-      <c r="B412" s="46"/>
+      <c r="B412" s="47"/>
       <c r="D412" s="7"/>
       <c r="E412" s="68"/>
       <c r="F412" s="68"/>
@@ -11939,7 +12002,7 @@
     </row>
     <row r="413" spans="1:14">
       <c r="A413" s="7"/>
-      <c r="B413" s="46"/>
+      <c r="B413" s="47"/>
       <c r="D413" s="7"/>
       <c r="E413" s="68"/>
       <c r="F413" s="68"/>
@@ -11954,7 +12017,7 @@
     </row>
     <row r="414" spans="1:14">
       <c r="A414" s="7"/>
-      <c r="B414" s="46"/>
+      <c r="B414" s="47"/>
       <c r="D414" s="7"/>
       <c r="E414" s="68"/>
       <c r="F414" s="68"/>
@@ -11969,7 +12032,7 @@
     </row>
     <row r="415" spans="1:14">
       <c r="A415" s="7"/>
-      <c r="B415" s="46"/>
+      <c r="B415" s="47"/>
       <c r="D415" s="7"/>
       <c r="E415" s="68"/>
       <c r="F415" s="68"/>
@@ -11984,7 +12047,7 @@
     </row>
     <row r="416" spans="1:14">
       <c r="A416" s="7"/>
-      <c r="B416" s="46"/>
+      <c r="B416" s="47"/>
       <c r="D416" s="7"/>
       <c r="E416" s="68"/>
       <c r="F416" s="68"/>
@@ -11999,7 +12062,7 @@
     </row>
     <row r="417" spans="1:14">
       <c r="A417" s="7"/>
-      <c r="B417" s="46"/>
+      <c r="B417" s="47"/>
       <c r="D417" s="7"/>
       <c r="E417" s="68"/>
       <c r="F417" s="68"/>
@@ -12014,7 +12077,7 @@
     </row>
     <row r="418" spans="1:14">
       <c r="A418" s="7"/>
-      <c r="B418" s="46"/>
+      <c r="B418" s="47"/>
       <c r="D418" s="7"/>
       <c r="E418" s="68"/>
       <c r="F418" s="68"/>
@@ -12029,7 +12092,7 @@
     </row>
     <row r="419" spans="1:14">
       <c r="A419" s="7"/>
-      <c r="B419" s="46"/>
+      <c r="B419" s="47"/>
       <c r="D419" s="7"/>
       <c r="E419" s="68"/>
       <c r="F419" s="68"/>
@@ -12044,7 +12107,7 @@
     </row>
     <row r="420" spans="1:14">
       <c r="A420" s="7"/>
-      <c r="B420" s="46"/>
+      <c r="B420" s="47"/>
       <c r="D420" s="7"/>
       <c r="E420" s="68"/>
       <c r="F420" s="68"/>
@@ -12059,7 +12122,7 @@
     </row>
     <row r="421" spans="1:14">
       <c r="A421" s="7"/>
-      <c r="B421" s="46"/>
+      <c r="B421" s="47"/>
       <c r="D421" s="7"/>
       <c r="E421" s="68"/>
       <c r="F421" s="68"/>
@@ -12074,7 +12137,7 @@
     </row>
     <row r="422" spans="1:14">
       <c r="A422" s="7"/>
-      <c r="B422" s="46"/>
+      <c r="B422" s="47"/>
       <c r="D422" s="7"/>
       <c r="E422" s="68"/>
       <c r="F422" s="68"/>
@@ -12089,7 +12152,7 @@
     </row>
     <row r="423" spans="1:14">
       <c r="A423" s="7"/>
-      <c r="B423" s="46"/>
+      <c r="B423" s="47"/>
       <c r="D423" s="7"/>
       <c r="E423" s="68"/>
       <c r="F423" s="68"/>
@@ -12104,7 +12167,7 @@
     </row>
     <row r="424" spans="1:14">
       <c r="A424" s="7"/>
-      <c r="B424" s="46"/>
+      <c r="B424" s="47"/>
       <c r="D424" s="7"/>
       <c r="E424" s="68"/>
       <c r="F424" s="68"/>
@@ -12119,7 +12182,7 @@
     </row>
     <row r="425" spans="1:14">
       <c r="A425" s="7"/>
-      <c r="B425" s="46"/>
+      <c r="B425" s="47"/>
       <c r="D425" s="7"/>
       <c r="E425" s="68"/>
       <c r="F425" s="68"/>
@@ -12134,7 +12197,7 @@
     </row>
     <row r="426" spans="1:14">
       <c r="A426" s="7"/>
-      <c r="B426" s="46"/>
+      <c r="B426" s="47"/>
       <c r="D426" s="7"/>
       <c r="E426" s="68"/>
       <c r="F426" s="68"/>
@@ -12149,7 +12212,7 @@
     </row>
     <row r="427" spans="1:14">
       <c r="A427" s="7"/>
-      <c r="B427" s="46"/>
+      <c r="B427" s="47"/>
       <c r="D427" s="7"/>
       <c r="E427" s="68"/>
       <c r="F427" s="68"/>
@@ -12164,7 +12227,7 @@
     </row>
     <row r="428" spans="1:14">
       <c r="A428" s="7"/>
-      <c r="B428" s="46"/>
+      <c r="B428" s="47"/>
       <c r="D428" s="7"/>
       <c r="E428" s="68"/>
       <c r="F428" s="68"/>
@@ -12179,7 +12242,7 @@
     </row>
     <row r="429" spans="1:14">
       <c r="A429" s="7"/>
-      <c r="B429" s="46"/>
+      <c r="B429" s="47"/>
       <c r="D429" s="7"/>
       <c r="E429" s="68"/>
       <c r="F429" s="68"/>
@@ -12194,7 +12257,7 @@
     </row>
     <row r="430" spans="1:14">
       <c r="A430" s="7"/>
-      <c r="B430" s="46"/>
+      <c r="B430" s="47"/>
       <c r="D430" s="7"/>
       <c r="E430" s="68"/>
       <c r="F430" s="68"/>
@@ -12209,7 +12272,7 @@
     </row>
     <row r="431" spans="1:14">
       <c r="A431" s="7"/>
-      <c r="B431" s="46"/>
+      <c r="B431" s="47"/>
       <c r="D431" s="7"/>
       <c r="E431" s="68"/>
       <c r="F431" s="68"/>
@@ -12224,7 +12287,7 @@
     </row>
     <row r="432" spans="1:14">
       <c r="A432" s="7"/>
-      <c r="B432" s="46"/>
+      <c r="B432" s="47"/>
       <c r="D432" s="7"/>
       <c r="E432" s="68"/>
       <c r="F432" s="68"/>
@@ -12239,7 +12302,7 @@
     </row>
     <row r="433" spans="1:14">
       <c r="A433" s="7"/>
-      <c r="B433" s="46"/>
+      <c r="B433" s="47"/>
       <c r="D433" s="7"/>
       <c r="E433" s="68"/>
       <c r="F433" s="68"/>
@@ -12254,7 +12317,7 @@
     </row>
     <row r="434" spans="1:14">
       <c r="A434" s="7"/>
-      <c r="B434" s="46"/>
+      <c r="B434" s="47"/>
       <c r="D434" s="7"/>
       <c r="E434" s="68"/>
       <c r="F434" s="68"/>
@@ -12269,7 +12332,7 @@
     </row>
     <row r="435" spans="1:14">
       <c r="A435" s="7"/>
-      <c r="B435" s="46"/>
+      <c r="B435" s="47"/>
       <c r="D435" s="7"/>
       <c r="E435" s="68"/>
       <c r="F435" s="68"/>
@@ -12284,7 +12347,7 @@
     </row>
     <row r="436" spans="1:14">
       <c r="A436" s="7"/>
-      <c r="B436" s="46"/>
+      <c r="B436" s="47"/>
       <c r="D436" s="7"/>
       <c r="E436" s="68"/>
       <c r="F436" s="68"/>
@@ -12299,7 +12362,7 @@
     </row>
     <row r="437" spans="1:14">
       <c r="A437" s="7"/>
-      <c r="B437" s="46"/>
+      <c r="B437" s="47"/>
       <c r="D437" s="7"/>
       <c r="E437" s="68"/>
       <c r="F437" s="68"/>
@@ -12314,7 +12377,7 @@
     </row>
     <row r="438" spans="1:14">
       <c r="A438" s="7"/>
-      <c r="B438" s="46"/>
+      <c r="B438" s="47"/>
       <c r="D438" s="7"/>
       <c r="E438" s="68"/>
       <c r="F438" s="68"/>
@@ -12329,7 +12392,7 @@
     </row>
     <row r="439" spans="1:14">
       <c r="A439" s="7"/>
-      <c r="B439" s="46"/>
+      <c r="B439" s="47"/>
       <c r="D439" s="7"/>
       <c r="E439" s="68"/>
       <c r="F439" s="68"/>
@@ -12344,7 +12407,7 @@
     </row>
     <row r="440" spans="1:14">
       <c r="A440" s="7"/>
-      <c r="B440" s="46"/>
+      <c r="B440" s="47"/>
       <c r="D440" s="7"/>
       <c r="E440" s="68"/>
       <c r="F440" s="68"/>
@@ -12359,7 +12422,7 @@
     </row>
     <row r="441" spans="1:14">
       <c r="A441" s="7"/>
-      <c r="B441" s="46"/>
+      <c r="B441" s="47"/>
       <c r="D441" s="7"/>
       <c r="E441" s="68"/>
       <c r="F441" s="68"/>
@@ -12374,7 +12437,7 @@
     </row>
     <row r="442" spans="1:14">
       <c r="A442" s="7"/>
-      <c r="B442" s="46"/>
+      <c r="B442" s="47"/>
       <c r="D442" s="7"/>
       <c r="E442" s="68"/>
       <c r="F442" s="68"/>
@@ -12389,7 +12452,7 @@
     </row>
     <row r="443" spans="1:14">
       <c r="A443" s="7"/>
-      <c r="B443" s="46"/>
+      <c r="B443" s="47"/>
       <c r="D443" s="7"/>
       <c r="E443" s="68"/>
       <c r="F443" s="68"/>
@@ -12404,7 +12467,7 @@
     </row>
     <row r="444" spans="1:14">
       <c r="A444" s="7"/>
-      <c r="B444" s="46"/>
+      <c r="B444" s="47"/>
       <c r="D444" s="7"/>
       <c r="E444" s="68"/>
       <c r="F444" s="68"/>
@@ -12419,7 +12482,7 @@
     </row>
     <row r="445" spans="1:14">
       <c r="A445" s="7"/>
-      <c r="B445" s="46"/>
+      <c r="B445" s="47"/>
       <c r="D445" s="7"/>
       <c r="E445" s="68"/>
       <c r="F445" s="68"/>
@@ -12434,7 +12497,7 @@
     </row>
     <row r="446" spans="1:14">
       <c r="A446" s="7"/>
-      <c r="B446" s="46"/>
+      <c r="B446" s="47"/>
       <c r="D446" s="7"/>
       <c r="E446" s="68"/>
       <c r="F446" s="68"/>
@@ -12449,7 +12512,7 @@
     </row>
     <row r="447" spans="1:14">
       <c r="A447" s="7"/>
-      <c r="B447" s="46"/>
+      <c r="B447" s="47"/>
       <c r="D447" s="7"/>
       <c r="E447" s="68"/>
       <c r="F447" s="68"/>
@@ -12464,7 +12527,7 @@
     </row>
     <row r="448" spans="1:14">
       <c r="A448" s="7"/>
-      <c r="B448" s="46"/>
+      <c r="B448" s="47"/>
       <c r="D448" s="7"/>
       <c r="E448" s="68"/>
       <c r="F448" s="68"/>
@@ -12479,7 +12542,7 @@
     </row>
     <row r="449" spans="1:14">
       <c r="A449" s="7"/>
-      <c r="B449" s="46"/>
+      <c r="B449" s="47"/>
       <c r="D449" s="7"/>
       <c r="E449" s="68"/>
       <c r="F449" s="68"/>
@@ -12494,7 +12557,7 @@
     </row>
     <row r="450" spans="1:14">
       <c r="A450" s="7"/>
-      <c r="B450" s="46"/>
+      <c r="B450" s="47"/>
       <c r="D450" s="7"/>
       <c r="E450" s="68"/>
       <c r="F450" s="68"/>
@@ -12509,7 +12572,7 @@
     </row>
     <row r="451" spans="1:14">
       <c r="A451" s="7"/>
-      <c r="B451" s="46"/>
+      <c r="B451" s="47"/>
       <c r="D451" s="7"/>
       <c r="E451" s="68"/>
       <c r="F451" s="68"/>
@@ -12524,7 +12587,7 @@
     </row>
     <row r="452" spans="1:14">
       <c r="A452" s="7"/>
-      <c r="B452" s="46"/>
+      <c r="B452" s="47"/>
       <c r="D452" s="7"/>
       <c r="E452" s="68"/>
       <c r="F452" s="68"/>
@@ -12539,7 +12602,7 @@
     </row>
     <row r="453" spans="1:14">
       <c r="A453" s="7"/>
-      <c r="B453" s="46"/>
+      <c r="B453" s="47"/>
       <c r="D453" s="7"/>
       <c r="E453" s="68"/>
       <c r="F453" s="68"/>
@@ -12554,7 +12617,7 @@
     </row>
     <row r="454" spans="1:14">
       <c r="A454" s="7"/>
-      <c r="B454" s="46"/>
+      <c r="B454" s="47"/>
       <c r="D454" s="7"/>
       <c r="E454" s="68"/>
       <c r="F454" s="68"/>
@@ -12569,7 +12632,7 @@
     </row>
     <row r="455" spans="1:14">
       <c r="A455" s="7"/>
-      <c r="B455" s="46"/>
+      <c r="B455" s="47"/>
       <c r="D455" s="7"/>
       <c r="E455" s="68"/>
       <c r="F455" s="68"/>
@@ -12584,7 +12647,7 @@
     </row>
     <row r="456" spans="1:14">
       <c r="A456" s="7"/>
-      <c r="B456" s="46"/>
+      <c r="B456" s="47"/>
       <c r="D456" s="7"/>
       <c r="E456" s="68"/>
       <c r="F456" s="68"/>
@@ -12599,7 +12662,7 @@
     </row>
     <row r="457" spans="1:14">
       <c r="A457" s="7"/>
-      <c r="B457" s="46"/>
+      <c r="B457" s="47"/>
       <c r="D457" s="7"/>
       <c r="E457" s="68"/>
       <c r="F457" s="68"/>
@@ -12614,7 +12677,7 @@
     </row>
     <row r="458" spans="1:14">
       <c r="A458" s="7"/>
-      <c r="B458" s="46"/>
+      <c r="B458" s="47"/>
       <c r="D458" s="7"/>
       <c r="E458" s="68"/>
       <c r="F458" s="68"/>
@@ -12629,7 +12692,7 @@
     </row>
     <row r="459" spans="1:14">
       <c r="A459" s="7"/>
-      <c r="B459" s="46"/>
+      <c r="B459" s="47"/>
       <c r="D459" s="7"/>
       <c r="E459" s="68"/>
       <c r="F459" s="68"/>
@@ -12644,7 +12707,7 @@
     </row>
     <row r="460" spans="1:14">
       <c r="A460" s="7"/>
-      <c r="B460" s="46"/>
+      <c r="B460" s="47"/>
       <c r="D460" s="7"/>
       <c r="E460" s="68"/>
       <c r="F460" s="68"/>
@@ -12659,7 +12722,7 @@
     </row>
     <row r="461" spans="1:14">
       <c r="A461" s="7"/>
-      <c r="B461" s="46"/>
+      <c r="B461" s="47"/>
       <c r="D461" s="7"/>
       <c r="E461" s="68"/>
       <c r="F461" s="68"/>
@@ -12674,7 +12737,7 @@
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="7"/>
-      <c r="B462" s="46"/>
+      <c r="B462" s="47"/>
     </row>
     <row r="463" spans="1:1">
       <c r="A463" s="7"/>
@@ -12914,6 +12977,7 @@
       <c r="A541" s="7"/>
     </row>
   </sheetData>
+  <autoFilter ref="T1:T541"/>
   <mergeCells count="20">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
@@ -865,17 +865,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0.0000_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="44">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -980,13 +980,18 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF152122"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue Regular"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF152122"/>
       <name val="方正书宋_GBK"/>
       <charset val="134"/>
     </font>
@@ -1011,7 +1016,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1026,70 +1107,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1101,16 +1121,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1131,31 +1159,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1173,7 +1178,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1206,6 +1211,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1218,25 +1229,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1254,7 +1253,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1266,7 +1301,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1278,7 +1313,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1290,61 +1391,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1362,43 +1409,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1443,67 +1454,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1537,157 +1489,216 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="38" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1706,18 +1717,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1733,7 +1744,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1745,7 +1756,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="4" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1757,154 +1768,154 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="180" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="179" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="3" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1916,15 +1927,18 @@
     <xf numFmtId="10" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="3" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="3" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="11" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1943,37 +1957,37 @@
     <xf numFmtId="43" fontId="10" fillId="4" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="11" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
@@ -3165,11 +3179,11 @@
   <dimension ref="A1:BH541"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="J46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="J49" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C63" sqref="C63"/>
+      <selection pane="bottomRight" activeCell="N63" sqref="N63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="14.8"/>
@@ -3247,48 +3261,48 @@
       <c r="R1" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="83" t="s">
+      <c r="S1" s="84" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="93"/>
-      <c r="AC1" s="95"/>
-      <c r="AD1" s="95"/>
-      <c r="AE1" s="95"/>
-      <c r="AF1" s="95"/>
-      <c r="AG1" s="95"/>
-      <c r="AH1" s="95"/>
-      <c r="AI1" s="95"/>
-      <c r="AJ1" s="95"/>
-      <c r="AL1" s="95"/>
-      <c r="AM1" s="95"/>
-      <c r="AN1" s="95"/>
-      <c r="AO1" s="95"/>
-      <c r="AP1" s="95"/>
-      <c r="AQ1" s="95"/>
-      <c r="AR1" s="95"/>
-      <c r="AT1" s="95"/>
-      <c r="AU1" s="95"/>
-      <c r="AV1" s="95"/>
-      <c r="AW1" s="95"/>
-      <c r="AX1" s="95"/>
-      <c r="AY1" s="95"/>
-      <c r="AZ1" s="95"/>
-      <c r="BB1" s="95"/>
-      <c r="BC1" s="95"/>
-      <c r="BD1" s="95"/>
-      <c r="BE1" s="95"/>
-      <c r="BF1" s="95"/>
-      <c r="BG1" s="95"/>
-      <c r="BH1" s="95"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
+      <c r="W1" s="94"/>
+      <c r="X1" s="94"/>
+      <c r="Y1" s="94"/>
+      <c r="Z1" s="94"/>
+      <c r="AA1" s="94"/>
+      <c r="AC1" s="96"/>
+      <c r="AD1" s="96"/>
+      <c r="AE1" s="96"/>
+      <c r="AF1" s="96"/>
+      <c r="AG1" s="96"/>
+      <c r="AH1" s="96"/>
+      <c r="AI1" s="96"/>
+      <c r="AJ1" s="96"/>
+      <c r="AL1" s="96"/>
+      <c r="AM1" s="96"/>
+      <c r="AN1" s="96"/>
+      <c r="AO1" s="96"/>
+      <c r="AP1" s="96"/>
+      <c r="AQ1" s="96"/>
+      <c r="AR1" s="96"/>
+      <c r="AT1" s="96"/>
+      <c r="AU1" s="96"/>
+      <c r="AV1" s="96"/>
+      <c r="AW1" s="96"/>
+      <c r="AX1" s="96"/>
+      <c r="AY1" s="96"/>
+      <c r="AZ1" s="96"/>
+      <c r="BB1" s="96"/>
+      <c r="BC1" s="96"/>
+      <c r="BD1" s="96"/>
+      <c r="BE1" s="96"/>
+      <c r="BF1" s="96"/>
+      <c r="BG1" s="96"/>
+      <c r="BH1" s="96"/>
     </row>
     <row r="2" ht="23.6" spans="1:60">
       <c r="A2" s="18"/>
@@ -3309,44 +3323,44 @@
       <c r="P2" s="73"/>
       <c r="Q2" s="73"/>
       <c r="R2" s="73"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="85"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93"/>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AC2" s="95"/>
-      <c r="AD2" s="95"/>
-      <c r="AE2" s="95"/>
-      <c r="AF2" s="95"/>
-      <c r="AG2" s="95"/>
-      <c r="AH2" s="95"/>
-      <c r="AI2" s="95"/>
-      <c r="AJ2" s="95"/>
-      <c r="AL2" s="95"/>
-      <c r="AM2" s="95"/>
-      <c r="AN2" s="95"/>
-      <c r="AO2" s="95"/>
-      <c r="AP2" s="95"/>
-      <c r="AQ2" s="95"/>
-      <c r="AR2" s="95"/>
-      <c r="AT2" s="95"/>
-      <c r="AU2" s="95"/>
-      <c r="AV2" s="95"/>
-      <c r="AW2" s="95"/>
-      <c r="AX2" s="95"/>
-      <c r="AY2" s="95"/>
-      <c r="AZ2" s="95"/>
-      <c r="BB2" s="95"/>
-      <c r="BC2" s="95"/>
-      <c r="BD2" s="95"/>
-      <c r="BE2" s="95"/>
-      <c r="BF2" s="95"/>
-      <c r="BG2" s="95"/>
-      <c r="BH2" s="95"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="94"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="94"/>
+      <c r="Y2" s="94"/>
+      <c r="Z2" s="94"/>
+      <c r="AA2" s="94"/>
+      <c r="AC2" s="96"/>
+      <c r="AD2" s="96"/>
+      <c r="AE2" s="96"/>
+      <c r="AF2" s="96"/>
+      <c r="AG2" s="96"/>
+      <c r="AH2" s="96"/>
+      <c r="AI2" s="96"/>
+      <c r="AJ2" s="96"/>
+      <c r="AL2" s="96"/>
+      <c r="AM2" s="96"/>
+      <c r="AN2" s="96"/>
+      <c r="AO2" s="96"/>
+      <c r="AP2" s="96"/>
+      <c r="AQ2" s="96"/>
+      <c r="AR2" s="96"/>
+      <c r="AT2" s="96"/>
+      <c r="AU2" s="96"/>
+      <c r="AV2" s="96"/>
+      <c r="AW2" s="96"/>
+      <c r="AX2" s="96"/>
+      <c r="AY2" s="96"/>
+      <c r="AZ2" s="96"/>
+      <c r="BB2" s="96"/>
+      <c r="BC2" s="96"/>
+      <c r="BD2" s="96"/>
+      <c r="BE2" s="96"/>
+      <c r="BF2" s="96"/>
+      <c r="BG2" s="96"/>
+      <c r="BH2" s="96"/>
     </row>
     <row r="3" customFormat="1" ht="23.6" spans="1:60">
       <c r="A3" s="22" t="s">
@@ -3375,7 +3389,7 @@
         <v>40.944</v>
       </c>
       <c r="K3" s="26">
-        <f t="shared" ref="K3:K62" si="0">(F3-I3)*100</f>
+        <f t="shared" ref="K3:K63" si="0">(F3-I3)*100</f>
         <v>159</v>
       </c>
       <c r="L3" s="26">
@@ -3394,46 +3408,46 @@
       <c r="P3" s="78"/>
       <c r="Q3" s="78"/>
       <c r="R3" s="78"/>
-      <c r="S3" s="86"/>
-      <c r="T3" s="87" t="s">
+      <c r="S3" s="87"/>
+      <c r="T3" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="93"/>
-      <c r="V3" s="93"/>
-      <c r="W3" s="93"/>
-      <c r="X3" s="93"/>
-      <c r="Y3" s="93"/>
-      <c r="Z3" s="93"/>
-      <c r="AA3" s="93"/>
-      <c r="AC3" s="95"/>
-      <c r="AD3" s="95"/>
-      <c r="AE3" s="95"/>
-      <c r="AF3" s="95"/>
-      <c r="AG3" s="95"/>
-      <c r="AH3" s="95"/>
-      <c r="AI3" s="95"/>
-      <c r="AJ3" s="95"/>
-      <c r="AL3" s="95"/>
-      <c r="AM3" s="95"/>
-      <c r="AN3" s="95"/>
-      <c r="AO3" s="95"/>
-      <c r="AP3" s="95"/>
-      <c r="AQ3" s="95"/>
-      <c r="AR3" s="95"/>
-      <c r="AT3" s="95"/>
-      <c r="AU3" s="95"/>
-      <c r="AV3" s="95"/>
-      <c r="AW3" s="95"/>
-      <c r="AX3" s="95"/>
-      <c r="AY3" s="95"/>
-      <c r="AZ3" s="95"/>
-      <c r="BB3" s="95"/>
-      <c r="BC3" s="95"/>
-      <c r="BD3" s="95"/>
-      <c r="BE3" s="95"/>
-      <c r="BF3" s="95"/>
-      <c r="BG3" s="95"/>
-      <c r="BH3" s="95"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="94"/>
+      <c r="Y3" s="94"/>
+      <c r="Z3" s="94"/>
+      <c r="AA3" s="94"/>
+      <c r="AC3" s="96"/>
+      <c r="AD3" s="96"/>
+      <c r="AE3" s="96"/>
+      <c r="AF3" s="96"/>
+      <c r="AG3" s="96"/>
+      <c r="AH3" s="96"/>
+      <c r="AI3" s="96"/>
+      <c r="AJ3" s="96"/>
+      <c r="AL3" s="96"/>
+      <c r="AM3" s="96"/>
+      <c r="AN3" s="96"/>
+      <c r="AO3" s="96"/>
+      <c r="AP3" s="96"/>
+      <c r="AQ3" s="96"/>
+      <c r="AR3" s="96"/>
+      <c r="AT3" s="96"/>
+      <c r="AU3" s="96"/>
+      <c r="AV3" s="96"/>
+      <c r="AW3" s="96"/>
+      <c r="AX3" s="96"/>
+      <c r="AY3" s="96"/>
+      <c r="AZ3" s="96"/>
+      <c r="BB3" s="96"/>
+      <c r="BC3" s="96"/>
+      <c r="BD3" s="96"/>
+      <c r="BE3" s="96"/>
+      <c r="BF3" s="96"/>
+      <c r="BG3" s="96"/>
+      <c r="BH3" s="96"/>
     </row>
     <row r="4" customFormat="1" ht="23.6" spans="1:60">
       <c r="A4" s="22" t="s">
@@ -3481,46 +3495,46 @@
       <c r="P4" s="78"/>
       <c r="Q4" s="78"/>
       <c r="R4" s="78"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="87" t="s">
+      <c r="S4" s="87"/>
+      <c r="T4" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="U4" s="93"/>
-      <c r="V4" s="93"/>
-      <c r="W4" s="93"/>
-      <c r="X4" s="93"/>
-      <c r="Y4" s="93"/>
-      <c r="Z4" s="93"/>
-      <c r="AA4" s="93"/>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="95"/>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="95"/>
-      <c r="AG4" s="95"/>
-      <c r="AH4" s="95"/>
-      <c r="AI4" s="95"/>
-      <c r="AJ4" s="95"/>
-      <c r="AL4" s="95"/>
-      <c r="AM4" s="95"/>
-      <c r="AN4" s="95"/>
-      <c r="AO4" s="95"/>
-      <c r="AP4" s="95"/>
-      <c r="AQ4" s="95"/>
-      <c r="AR4" s="95"/>
-      <c r="AT4" s="95"/>
-      <c r="AU4" s="95"/>
-      <c r="AV4" s="95"/>
-      <c r="AW4" s="95"/>
-      <c r="AX4" s="95"/>
-      <c r="AY4" s="95"/>
-      <c r="AZ4" s="95"/>
-      <c r="BB4" s="95"/>
-      <c r="BC4" s="95"/>
-      <c r="BD4" s="95"/>
-      <c r="BE4" s="95"/>
-      <c r="BF4" s="95"/>
-      <c r="BG4" s="95"/>
-      <c r="BH4" s="95"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="94"/>
+      <c r="X4" s="94"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
+      <c r="AC4" s="96"/>
+      <c r="AD4" s="96"/>
+      <c r="AE4" s="96"/>
+      <c r="AF4" s="96"/>
+      <c r="AG4" s="96"/>
+      <c r="AH4" s="96"/>
+      <c r="AI4" s="96"/>
+      <c r="AJ4" s="96"/>
+      <c r="AL4" s="96"/>
+      <c r="AM4" s="96"/>
+      <c r="AN4" s="96"/>
+      <c r="AO4" s="96"/>
+      <c r="AP4" s="96"/>
+      <c r="AQ4" s="96"/>
+      <c r="AR4" s="96"/>
+      <c r="AT4" s="96"/>
+      <c r="AU4" s="96"/>
+      <c r="AV4" s="96"/>
+      <c r="AW4" s="96"/>
+      <c r="AX4" s="96"/>
+      <c r="AY4" s="96"/>
+      <c r="AZ4" s="96"/>
+      <c r="BB4" s="96"/>
+      <c r="BC4" s="96"/>
+      <c r="BD4" s="96"/>
+      <c r="BE4" s="96"/>
+      <c r="BF4" s="96"/>
+      <c r="BG4" s="96"/>
+      <c r="BH4" s="96"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="45" spans="1:21">
       <c r="A5" s="22" t="s">
@@ -3560,7 +3574,7 @@
         <f t="shared" si="1"/>
         <v>2.25330396475771</v>
       </c>
-      <c r="N5" s="77">
+      <c r="N5" s="79">
         <f t="shared" si="2"/>
         <v>0.0887585532746823</v>
       </c>
@@ -3568,11 +3582,11 @@
       <c r="P5" s="78"/>
       <c r="Q5" s="78"/>
       <c r="R5" s="78"/>
-      <c r="S5" s="86"/>
-      <c r="T5" s="88" t="s">
+      <c r="S5" s="87"/>
+      <c r="T5" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="U5" s="94"/>
+      <c r="U5" s="95"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="45" spans="1:21">
       <c r="A6" s="22" t="s">
@@ -3612,7 +3626,7 @@
         <f t="shared" si="1"/>
         <v>4.85810810810809</v>
       </c>
-      <c r="N6" s="77">
+      <c r="N6" s="79">
         <f t="shared" si="2"/>
         <v>0.0411682892906816</v>
       </c>
@@ -3620,11 +3634,11 @@
       <c r="P6" s="78"/>
       <c r="Q6" s="78"/>
       <c r="R6" s="78"/>
-      <c r="S6" s="86"/>
-      <c r="T6" s="88" t="s">
+      <c r="S6" s="87"/>
+      <c r="T6" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="U6" s="94"/>
+      <c r="U6" s="95"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="45" spans="1:21">
       <c r="A7" s="22" t="s">
@@ -3664,7 +3678,7 @@
         <f t="shared" si="1"/>
         <v>3.02814814814814</v>
       </c>
-      <c r="N7" s="77">
+      <c r="N7" s="79">
         <f t="shared" si="2"/>
         <v>0.0660469667318983</v>
       </c>
@@ -3672,11 +3686,11 @@
       <c r="P7" s="78"/>
       <c r="Q7" s="78"/>
       <c r="R7" s="78"/>
-      <c r="S7" s="86"/>
-      <c r="T7" s="88" t="s">
+      <c r="S7" s="87"/>
+      <c r="T7" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="U7" s="94"/>
+      <c r="U7" s="95"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="15" spans="1:21">
       <c r="A8" s="22" t="s">
@@ -3718,7 +3732,7 @@
         <f t="shared" si="1"/>
         <v>2.03431952662722</v>
       </c>
-      <c r="N8" s="77">
+      <c r="N8" s="79">
         <f t="shared" si="2"/>
         <v>0.0983129726585225</v>
       </c>
@@ -3726,11 +3740,11 @@
       <c r="P8" s="78"/>
       <c r="Q8" s="78"/>
       <c r="R8" s="78"/>
-      <c r="S8" s="86"/>
-      <c r="T8" s="87" t="s">
+      <c r="S8" s="87"/>
+      <c r="T8" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="U8" s="94"/>
+      <c r="U8" s="95"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="15" spans="1:20">
       <c r="A9" s="22" t="s">
@@ -3770,7 +3784,7 @@
         <f t="shared" si="1"/>
         <v>2.22107081174439</v>
       </c>
-      <c r="N9" s="77">
+      <c r="N9" s="79">
         <f t="shared" si="2"/>
         <v>0.0900466562986003</v>
       </c>
@@ -3778,8 +3792,8 @@
       <c r="P9" s="78"/>
       <c r="Q9" s="78"/>
       <c r="R9" s="78"/>
-      <c r="S9" s="86"/>
-      <c r="T9" s="87" t="s">
+      <c r="S9" s="87"/>
+      <c r="T9" s="88" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3821,7 +3835,7 @@
         <f t="shared" si="1"/>
         <v>2.41666666666666</v>
       </c>
-      <c r="N10" s="77">
+      <c r="N10" s="79">
         <f t="shared" si="2"/>
         <v>0.0827586206896552</v>
       </c>
@@ -3829,8 +3843,8 @@
       <c r="P10" s="78"/>
       <c r="Q10" s="78"/>
       <c r="R10" s="78"/>
-      <c r="S10" s="86"/>
-      <c r="T10" s="87" t="s">
+      <c r="S10" s="87"/>
+      <c r="T10" s="88" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3841,7 +3855,7 @@
       <c r="B11" s="23">
         <v>44539</v>
       </c>
-      <c r="C11" s="96" t="s">
+      <c r="C11" s="97" t="s">
         <v>44</v>
       </c>
       <c r="D11" s="30" t="s">
@@ -3872,7 +3886,7 @@
         <f t="shared" si="1"/>
         <v>3.55354449472097</v>
       </c>
-      <c r="N11" s="77">
+      <c r="N11" s="79">
         <f t="shared" si="2"/>
         <v>0.0562818336162988</v>
       </c>
@@ -3880,11 +3894,11 @@
       <c r="P11" s="78"/>
       <c r="Q11" s="78"/>
       <c r="R11" s="78"/>
-      <c r="S11" s="86"/>
-      <c r="T11" s="87" t="s">
+      <c r="S11" s="87"/>
+      <c r="T11" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="U11" s="94"/>
+      <c r="U11" s="95"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="30" spans="1:20">
       <c r="A12" s="22" t="s">
@@ -3923,7 +3937,7 @@
       <c r="M12" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="N12" s="77">
+      <c r="N12" s="79">
         <f t="shared" si="2"/>
         <v>0.054655870445344</v>
       </c>
@@ -3931,8 +3945,8 @@
       <c r="P12" s="78"/>
       <c r="Q12" s="78"/>
       <c r="R12" s="78"/>
-      <c r="S12" s="86"/>
-      <c r="T12" s="88" t="s">
+      <c r="S12" s="87"/>
+      <c r="T12" s="89" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3974,7 +3988,7 @@
         <f>(J13-F13)/(F13-I13)</f>
         <v>2.47409836065574</v>
       </c>
-      <c r="N13" s="77">
+      <c r="N13" s="79">
         <f t="shared" si="2"/>
         <v>0.0808375298171216</v>
       </c>
@@ -3982,11 +3996,11 @@
       <c r="P13" s="78"/>
       <c r="Q13" s="78"/>
       <c r="R13" s="78"/>
-      <c r="S13" s="86"/>
-      <c r="T13" s="87" t="s">
+      <c r="S13" s="87"/>
+      <c r="T13" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="U13" s="94"/>
+      <c r="U13" s="95"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="15" spans="1:21">
       <c r="A14" s="22" t="s">
@@ -3995,7 +4009,7 @@
       <c r="B14" s="23">
         <v>44525</v>
       </c>
-      <c r="C14" s="97" t="s">
+      <c r="C14" s="98" t="s">
         <v>52</v>
       </c>
       <c r="D14" s="22" t="s">
@@ -4023,7 +4037,7 @@
         <v>300</v>
       </c>
       <c r="M14" s="76">
-        <f t="shared" ref="M14:M62" si="5">(J14-F14)/(F14-I14)</f>
+        <f t="shared" ref="M14:M63" si="5">(J14-F14)/(F14-I14)</f>
         <v>3.46243902439024</v>
       </c>
       <c r="N14" s="77">
@@ -4034,11 +4048,11 @@
       <c r="P14" s="78"/>
       <c r="Q14" s="78"/>
       <c r="R14" s="78"/>
-      <c r="S14" s="86"/>
-      <c r="T14" s="89" t="s">
+      <c r="S14" s="87"/>
+      <c r="T14" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="U14" s="94"/>
+      <c r="U14" s="95"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="15" spans="1:21">
       <c r="A15" s="22" t="s">
@@ -4078,7 +4092,7 @@
         <f t="shared" si="5"/>
         <v>2.90439024390244</v>
       </c>
-      <c r="N15" s="77">
+      <c r="N15" s="79">
         <f t="shared" si="6"/>
         <v>0.0688612697346322</v>
       </c>
@@ -4086,11 +4100,11 @@
       <c r="P15" s="78"/>
       <c r="Q15" s="78"/>
       <c r="R15" s="78"/>
-      <c r="S15" s="86"/>
-      <c r="T15" s="89" t="s">
+      <c r="S15" s="87"/>
+      <c r="T15" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="U15" s="94"/>
+      <c r="U15" s="95"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="15" spans="1:21">
       <c r="A16" s="22" t="s">
@@ -4130,7 +4144,7 @@
         <f t="shared" si="5"/>
         <v>4.68091603053436</v>
       </c>
-      <c r="N16" s="77">
+      <c r="N16" s="79">
         <f t="shared" si="6"/>
         <v>0.042726679712981</v>
       </c>
@@ -4138,11 +4152,11 @@
       <c r="P16" s="78"/>
       <c r="Q16" s="78"/>
       <c r="R16" s="78"/>
-      <c r="S16" s="86"/>
-      <c r="T16" s="89" t="s">
+      <c r="S16" s="87"/>
+      <c r="T16" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="U16" s="94"/>
+      <c r="U16" s="95"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="15" spans="1:21">
       <c r="A17" s="22" t="s">
@@ -4182,7 +4196,7 @@
         <f t="shared" si="5"/>
         <v>3.44736842105263</v>
       </c>
-      <c r="N17" s="77">
+      <c r="N17" s="79">
         <f t="shared" si="6"/>
         <v>0.0580152671755725</v>
       </c>
@@ -4190,11 +4204,11 @@
       <c r="P17" s="78"/>
       <c r="Q17" s="78"/>
       <c r="R17" s="78"/>
-      <c r="S17" s="86"/>
-      <c r="T17" s="89" t="s">
+      <c r="S17" s="87"/>
+      <c r="T17" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="U17" s="94"/>
+      <c r="U17" s="95"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="15" spans="1:21">
       <c r="A18" s="22" t="s">
@@ -4203,7 +4217,7 @@
       <c r="B18" s="23">
         <v>44533</v>
       </c>
-      <c r="C18" s="97" t="s">
+      <c r="C18" s="98" t="s">
         <v>62</v>
       </c>
       <c r="D18" s="22" t="s">
@@ -4234,7 +4248,7 @@
         <f t="shared" si="5"/>
         <v>2.29641434262948</v>
       </c>
-      <c r="N18" s="77">
+      <c r="N18" s="79">
         <f t="shared" si="6"/>
         <v>0.0870922970159612</v>
       </c>
@@ -4242,11 +4256,11 @@
       <c r="P18" s="78"/>
       <c r="Q18" s="78"/>
       <c r="R18" s="78"/>
-      <c r="S18" s="86"/>
-      <c r="T18" s="89" t="s">
+      <c r="S18" s="87"/>
+      <c r="T18" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="U18" s="94"/>
+      <c r="U18" s="95"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="15" spans="1:20">
       <c r="A19" s="22" t="s">
@@ -4258,7 +4272,7 @@
       <c r="C19" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="25" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="51">
@@ -4296,8 +4310,8 @@
       <c r="P19" s="78"/>
       <c r="Q19" s="78"/>
       <c r="R19" s="78"/>
-      <c r="S19" s="86"/>
-      <c r="T19" s="89" t="s">
+      <c r="S19" s="87"/>
+      <c r="T19" s="90" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4305,13 +4319,13 @@
       <c r="A20" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="32">
+      <c r="B20" s="31">
         <v>44545</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="33" t="s">
         <v>68</v>
       </c>
       <c r="E20" s="58"/>
@@ -4339,7 +4353,7 @@
         <f t="shared" si="5"/>
         <v>2.28230452674897</v>
       </c>
-      <c r="N20" s="77">
+      <c r="N20" s="79">
         <f t="shared" si="6"/>
         <v>0.0876307248467364</v>
       </c>
@@ -4347,8 +4361,8 @@
       <c r="P20" s="78"/>
       <c r="Q20" s="78"/>
       <c r="R20" s="78"/>
-      <c r="S20" s="86"/>
-      <c r="T20" s="90" t="s">
+      <c r="S20" s="87"/>
+      <c r="T20" s="91" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4356,13 +4370,13 @@
       <c r="A21" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="32">
+      <c r="B21" s="31">
         <v>44545</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="34">
         <v>600821</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="33" t="s">
         <v>71</v>
       </c>
       <c r="E21" s="58"/>
@@ -4390,7 +4404,7 @@
         <f t="shared" si="5"/>
         <v>2.76470588235294</v>
       </c>
-      <c r="N21" s="77">
+      <c r="N21" s="79">
         <f t="shared" si="6"/>
         <v>0.0723404255319149</v>
       </c>
@@ -4398,8 +4412,8 @@
       <c r="P21" s="78"/>
       <c r="Q21" s="78"/>
       <c r="R21" s="78"/>
-      <c r="S21" s="86"/>
-      <c r="T21" s="90" t="s">
+      <c r="S21" s="87"/>
+      <c r="T21" s="91" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4407,13 +4421,13 @@
       <c r="A22" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="32">
+      <c r="B22" s="31">
         <v>44553</v>
       </c>
-      <c r="C22" s="98" t="s">
+      <c r="C22" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="33" t="s">
         <v>53</v>
       </c>
       <c r="E22" s="58">
@@ -4443,7 +4457,7 @@
         <f t="shared" si="5"/>
         <v>2.0575197889182</v>
       </c>
-      <c r="N22" s="77">
+      <c r="N22" s="79">
         <f t="shared" si="6"/>
         <v>0.0972044113875352</v>
       </c>
@@ -4451,8 +4465,8 @@
       <c r="P22" s="78"/>
       <c r="Q22" s="78"/>
       <c r="R22" s="78"/>
-      <c r="S22" s="86"/>
-      <c r="T22" s="90" t="s">
+      <c r="S22" s="87"/>
+      <c r="T22" s="91" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4460,10 +4474,10 @@
       <c r="A23" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="32">
+      <c r="B23" s="31">
         <v>44546</v>
       </c>
-      <c r="C23" s="96" t="s">
+      <c r="C23" s="97" t="s">
         <v>75</v>
       </c>
       <c r="D23" s="27" t="s">
@@ -4494,7 +4508,7 @@
         <f t="shared" si="5"/>
         <v>3.09232480533926</v>
       </c>
-      <c r="N23" s="77">
+      <c r="N23" s="79">
         <f t="shared" si="6"/>
         <v>0.0646762589928058</v>
       </c>
@@ -4502,8 +4516,8 @@
       <c r="P23" s="78"/>
       <c r="Q23" s="78"/>
       <c r="R23" s="78"/>
-      <c r="S23" s="86"/>
-      <c r="T23" s="90" t="s">
+      <c r="S23" s="87"/>
+      <c r="T23" s="91" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4511,13 +4525,13 @@
       <c r="A24" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="32">
+      <c r="B24" s="31">
         <v>44547</v>
       </c>
-      <c r="C24" s="36">
+      <c r="C24" s="35">
         <v>600976</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E24" s="59">
@@ -4555,8 +4569,8 @@
       <c r="P24" s="78"/>
       <c r="Q24" s="78"/>
       <c r="R24" s="78"/>
-      <c r="S24" s="86"/>
-      <c r="T24" s="91" t="s">
+      <c r="S24" s="87"/>
+      <c r="T24" s="92" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4564,10 +4578,10 @@
       <c r="A25" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="32">
+      <c r="B25" s="31">
         <v>44547</v>
       </c>
-      <c r="C25" s="96" t="s">
+      <c r="C25" s="97" t="s">
         <v>81</v>
       </c>
       <c r="D25" s="27" t="s">
@@ -4600,7 +4614,7 @@
         <f t="shared" si="5"/>
         <v>2.41656441717792</v>
       </c>
-      <c r="N25" s="77">
+      <c r="N25" s="79">
         <f t="shared" si="6"/>
         <v>0.0827621223660827</v>
       </c>
@@ -4608,8 +4622,8 @@
       <c r="P25" s="78"/>
       <c r="Q25" s="78"/>
       <c r="R25" s="78"/>
-      <c r="S25" s="86"/>
-      <c r="T25" s="90" t="s">
+      <c r="S25" s="87"/>
+      <c r="T25" s="91" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4617,10 +4631,10 @@
       <c r="A26" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="32">
+      <c r="B26" s="31">
         <v>44549</v>
       </c>
-      <c r="C26" s="96" t="s">
+      <c r="C26" s="97" t="s">
         <v>44</v>
       </c>
       <c r="D26" s="30" t="s">
@@ -4636,7 +4650,7 @@
         <v>110.08</v>
       </c>
       <c r="J26" s="52">
-        <f t="shared" ref="J26:J62" si="8">(F26+F26*0.2)</f>
+        <f t="shared" ref="J26:J63" si="8">(F26+F26*0.2)</f>
         <v>141.9</v>
       </c>
       <c r="K26" s="26">
@@ -4651,7 +4665,7 @@
         <f t="shared" si="5"/>
         <v>2.89473684210526</v>
       </c>
-      <c r="N26" s="77">
+      <c r="N26" s="79">
         <f t="shared" si="6"/>
         <v>0.0690909090909091</v>
       </c>
@@ -4659,8 +4673,8 @@
       <c r="P26" s="78"/>
       <c r="Q26" s="78"/>
       <c r="R26" s="78"/>
-      <c r="S26" s="86"/>
-      <c r="T26" s="90" t="s">
+      <c r="S26" s="87"/>
+      <c r="T26" s="91" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4668,13 +4682,13 @@
       <c r="A27" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="32">
+      <c r="B27" s="31">
         <v>44549</v>
       </c>
-      <c r="C27" s="36">
+      <c r="C27" s="35">
         <v>603605</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="35" t="s">
         <v>86</v>
       </c>
       <c r="E27" s="59"/>
@@ -4702,7 +4716,7 @@
         <f t="shared" si="5"/>
         <v>2.52941176470588</v>
       </c>
-      <c r="N27" s="77">
+      <c r="N27" s="79">
         <f t="shared" si="6"/>
         <v>0.0790697674418605</v>
       </c>
@@ -4710,8 +4724,8 @@
       <c r="P27" s="78"/>
       <c r="Q27" s="78"/>
       <c r="R27" s="78"/>
-      <c r="S27" s="86"/>
-      <c r="T27" s="90" t="s">
+      <c r="S27" s="87"/>
+      <c r="T27" s="91" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4719,10 +4733,10 @@
       <c r="A28" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="32">
+      <c r="B28" s="31">
         <v>44549</v>
       </c>
-      <c r="C28" s="36">
+      <c r="C28" s="35">
         <v>603995</v>
       </c>
       <c r="D28" s="37" t="s">
@@ -4755,7 +4769,7 @@
         <f t="shared" si="5"/>
         <v>2.80651629072682</v>
       </c>
-      <c r="N28" s="77">
+      <c r="N28" s="79">
         <f t="shared" si="6"/>
         <v>0.0712627254866941</v>
       </c>
@@ -4763,11 +4777,11 @@
       <c r="P28" s="78"/>
       <c r="Q28" s="78"/>
       <c r="R28" s="78"/>
-      <c r="S28" s="86">
+      <c r="S28" s="87">
         <f>F28*L28</f>
         <v>16797</v>
       </c>
-      <c r="T28" s="91" t="s">
+      <c r="T28" s="92" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4775,7 +4789,7 @@
       <c r="A29" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="B29" s="32">
+      <c r="B29" s="31">
         <v>44549</v>
       </c>
       <c r="C29" s="27">
@@ -4809,7 +4823,7 @@
         <f t="shared" si="5"/>
         <v>2.78484848484848</v>
       </c>
-      <c r="N29" s="77">
+      <c r="N29" s="79">
         <f t="shared" si="6"/>
         <v>0.071817192600653</v>
       </c>
@@ -4817,11 +4831,11 @@
       <c r="P29" s="78"/>
       <c r="Q29" s="78"/>
       <c r="R29" s="78"/>
-      <c r="S29" s="86">
-        <f t="shared" ref="S29:S62" si="9">F29*L29</f>
+      <c r="S29" s="87">
+        <f t="shared" ref="S29:S63" si="9">F29*L29</f>
         <v>18380</v>
       </c>
-      <c r="T29" s="90" t="s">
+      <c r="T29" s="91" t="s">
         <v>91</v>
       </c>
     </row>
@@ -4829,13 +4843,13 @@
       <c r="A30" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="B30" s="32">
+      <c r="B30" s="31">
         <v>44549</v>
       </c>
-      <c r="C30" s="99" t="s">
+      <c r="C30" s="100" t="s">
         <v>93</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="35" t="s">
         <v>94</v>
       </c>
       <c r="E30" s="59">
@@ -4865,7 +4879,7 @@
         <f t="shared" si="5"/>
         <v>3.2952380952381</v>
       </c>
-      <c r="N30" s="77">
+      <c r="N30" s="79">
         <f t="shared" si="6"/>
         <v>0.0606936416184971</v>
       </c>
@@ -4873,11 +4887,11 @@
       <c r="P30" s="78"/>
       <c r="Q30" s="78"/>
       <c r="R30" s="78"/>
-      <c r="S30" s="86">
+      <c r="S30" s="87">
         <f t="shared" si="9"/>
         <v>22144</v>
       </c>
-      <c r="T30" s="91" t="s">
+      <c r="T30" s="92" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4921,7 +4935,7 @@
         <f t="shared" si="5"/>
         <v>2.2</v>
       </c>
-      <c r="N31" s="77">
+      <c r="N31" s="79">
         <f t="shared" si="6"/>
         <v>0.0909090909090908</v>
       </c>
@@ -4929,11 +4943,11 @@
       <c r="P31" s="78"/>
       <c r="Q31" s="78"/>
       <c r="R31" s="78"/>
-      <c r="S31" s="86">
+      <c r="S31" s="87">
         <f t="shared" si="9"/>
         <v>15664</v>
       </c>
-      <c r="T31" s="91" t="s">
+      <c r="T31" s="92" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4977,7 +4991,7 @@
         <f t="shared" si="5"/>
         <v>2.06666666666667</v>
       </c>
-      <c r="N32" s="77">
+      <c r="N32" s="79">
         <f t="shared" si="6"/>
         <v>0.0967741935483871</v>
       </c>
@@ -4985,11 +4999,11 @@
       <c r="P32" s="78"/>
       <c r="Q32" s="78"/>
       <c r="R32" s="78"/>
-      <c r="S32" s="86">
+      <c r="S32" s="87">
         <f t="shared" si="9"/>
         <v>10850</v>
       </c>
-      <c r="T32" s="90" t="s">
+      <c r="T32" s="91" t="s">
         <v>91</v>
       </c>
     </row>
@@ -5033,7 +5047,7 @@
         <f t="shared" si="5"/>
         <v>2.35537848605578</v>
       </c>
-      <c r="N33" s="77">
+      <c r="N33" s="79">
         <f t="shared" si="6"/>
         <v>0.0849120433017591</v>
       </c>
@@ -5041,11 +5055,11 @@
       <c r="P33" s="78"/>
       <c r="Q33" s="78"/>
       <c r="R33" s="78"/>
-      <c r="S33" s="86">
+      <c r="S33" s="87">
         <f t="shared" si="9"/>
         <v>14780</v>
       </c>
-      <c r="T33" s="91" t="s">
+      <c r="T33" s="92" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5056,10 +5070,10 @@
       <c r="B34" s="38">
         <v>44553</v>
       </c>
-      <c r="C34" s="36">
+      <c r="C34" s="35">
         <v>603236</v>
       </c>
-      <c r="D34" s="36" t="s">
+      <c r="D34" s="35" t="s">
         <v>101</v>
       </c>
       <c r="E34" s="63">
@@ -5089,7 +5103,7 @@
         <f t="shared" si="5"/>
         <v>2.84181818181818</v>
       </c>
-      <c r="N34" s="77">
+      <c r="N34" s="79">
         <f t="shared" si="6"/>
         <v>0.0703774792066539</v>
       </c>
@@ -5097,11 +5111,11 @@
       <c r="P34" s="78"/>
       <c r="Q34" s="78"/>
       <c r="R34" s="78"/>
-      <c r="S34" s="86">
+      <c r="S34" s="87">
         <f t="shared" si="9"/>
         <v>20319</v>
       </c>
-      <c r="T34" s="90" t="s">
+      <c r="T34" s="91" t="s">
         <v>91</v>
       </c>
     </row>
@@ -5112,7 +5126,7 @@
       <c r="B35" s="38">
         <v>44553</v>
       </c>
-      <c r="C35" s="99" t="s">
+      <c r="C35" s="100" t="s">
         <v>103</v>
       </c>
       <c r="D35" s="37" t="s">
@@ -5145,7 +5159,7 @@
         <f t="shared" si="5"/>
         <v>2.67474048442907</v>
       </c>
-      <c r="N35" s="77">
+      <c r="N35" s="79">
         <f t="shared" si="6"/>
         <v>0.0747736093143597</v>
       </c>
@@ -5153,11 +5167,11 @@
       <c r="P35" s="78"/>
       <c r="Q35" s="78"/>
       <c r="R35" s="78"/>
-      <c r="S35" s="86">
+      <c r="S35" s="87">
         <f t="shared" si="9"/>
         <v>19325</v>
       </c>
-      <c r="T35" s="91" t="s">
+      <c r="T35" s="92" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5168,7 +5182,7 @@
       <c r="B36" s="38">
         <v>44553</v>
       </c>
-      <c r="C36" s="99" t="s">
+      <c r="C36" s="100" t="s">
         <v>106</v>
       </c>
       <c r="D36" s="37" t="s">
@@ -5201,7 +5215,7 @@
         <f t="shared" si="5"/>
         <v>5.14166666666666</v>
       </c>
-      <c r="N36" s="77">
+      <c r="N36" s="79">
         <f t="shared" si="6"/>
         <v>0.0388978930307943</v>
       </c>
@@ -5209,11 +5223,11 @@
       <c r="P36" s="78"/>
       <c r="Q36" s="78"/>
       <c r="R36" s="78"/>
-      <c r="S36" s="86">
+      <c r="S36" s="87">
         <f t="shared" si="9"/>
         <v>37020</v>
       </c>
-      <c r="T36" s="91" t="s">
+      <c r="T36" s="92" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5224,10 +5238,10 @@
       <c r="B37" s="38">
         <v>44553</v>
       </c>
-      <c r="C37" s="36">
+      <c r="C37" s="35">
         <v>600373</v>
       </c>
-      <c r="D37" s="36" t="s">
+      <c r="D37" s="35" t="s">
         <v>109</v>
       </c>
       <c r="E37" s="63">
@@ -5257,7 +5271,7 @@
         <f t="shared" si="5"/>
         <v>3.53999999999999</v>
       </c>
-      <c r="N37" s="77">
+      <c r="N37" s="79">
         <f t="shared" si="6"/>
         <v>0.056497175141243</v>
       </c>
@@ -5265,11 +5279,11 @@
       <c r="P37" s="78"/>
       <c r="Q37" s="78"/>
       <c r="R37" s="78"/>
-      <c r="S37" s="86">
+      <c r="S37" s="87">
         <f t="shared" si="9"/>
         <v>26019</v>
       </c>
-      <c r="T37" s="90" t="s">
+      <c r="T37" s="91" t="s">
         <v>110</v>
       </c>
     </row>
@@ -5280,7 +5294,7 @@
       <c r="B38" s="38">
         <v>44556</v>
       </c>
-      <c r="C38" s="36">
+      <c r="C38" s="35">
         <v>603279</v>
       </c>
       <c r="D38" s="37" t="s">
@@ -5313,7 +5327,7 @@
         <f t="shared" si="5"/>
         <v>3.03333333333333</v>
       </c>
-      <c r="N38" s="77">
+      <c r="N38" s="79">
         <f t="shared" si="6"/>
         <v>0.0659340659340659</v>
       </c>
@@ -5321,11 +5335,11 @@
       <c r="P38" s="78"/>
       <c r="Q38" s="78"/>
       <c r="R38" s="78"/>
-      <c r="S38" s="86">
+      <c r="S38" s="87">
         <f t="shared" si="9"/>
         <v>22750</v>
       </c>
-      <c r="T38" s="91" t="s">
+      <c r="T38" s="92" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5336,10 +5350,10 @@
       <c r="B39" s="38">
         <v>44556</v>
       </c>
-      <c r="C39" s="36">
+      <c r="C39" s="35">
         <v>603186</v>
       </c>
-      <c r="D39" s="36" t="s">
+      <c r="D39" s="35" t="s">
         <v>114</v>
       </c>
       <c r="E39" s="63">
@@ -5369,7 +5383,7 @@
         <f t="shared" si="5"/>
         <v>2.19040404040404</v>
       </c>
-      <c r="N39" s="77">
+      <c r="N39" s="79">
         <f t="shared" si="6"/>
         <v>0.0913073553147337</v>
       </c>
@@ -5377,11 +5391,11 @@
       <c r="P39" s="78"/>
       <c r="Q39" s="78"/>
       <c r="R39" s="78"/>
-      <c r="S39" s="86">
+      <c r="S39" s="87">
         <f t="shared" si="9"/>
         <v>13011</v>
       </c>
-      <c r="T39" s="90" t="s">
+      <c r="T39" s="91" t="s">
         <v>110</v>
       </c>
     </row>
@@ -5392,7 +5406,7 @@
       <c r="B40" s="38">
         <v>44556</v>
       </c>
-      <c r="C40" s="36">
+      <c r="C40" s="35">
         <v>603599</v>
       </c>
       <c r="D40" s="37" t="s">
@@ -5425,7 +5439,7 @@
         <f t="shared" si="5"/>
         <v>3.36666666666667</v>
       </c>
-      <c r="N40" s="77">
+      <c r="N40" s="79">
         <f t="shared" si="6"/>
         <v>0.0594059405940594</v>
       </c>
@@ -5433,11 +5447,11 @@
       <c r="P40" s="78"/>
       <c r="Q40" s="78"/>
       <c r="R40" s="78"/>
-      <c r="S40" s="86">
+      <c r="S40" s="87">
         <f t="shared" si="9"/>
         <v>24240</v>
       </c>
-      <c r="T40" s="91" t="s">
+      <c r="T40" s="92" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5448,7 +5462,7 @@
       <c r="B41" s="38">
         <v>44557</v>
       </c>
-      <c r="C41" s="36">
+      <c r="C41" s="35">
         <v>603217</v>
       </c>
       <c r="D41" s="37" t="s">
@@ -5481,7 +5495,7 @@
         <f t="shared" si="5"/>
         <v>2.53678756476684</v>
       </c>
-      <c r="N41" s="77">
+      <c r="N41" s="79">
         <f t="shared" si="6"/>
         <v>0.0788398692810457</v>
       </c>
@@ -5489,11 +5503,11 @@
       <c r="P41" s="78"/>
       <c r="Q41" s="78"/>
       <c r="R41" s="78"/>
-      <c r="S41" s="86">
+      <c r="S41" s="87">
         <f t="shared" si="9"/>
         <v>14688</v>
       </c>
-      <c r="T41" s="91" t="s">
+      <c r="T41" s="92" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5504,10 +5518,10 @@
       <c r="B42" s="38">
         <v>44557</v>
       </c>
-      <c r="C42" s="99" t="s">
+      <c r="C42" s="100" t="s">
         <v>120</v>
       </c>
-      <c r="D42" s="36" t="s">
+      <c r="D42" s="35" t="s">
         <v>121</v>
       </c>
       <c r="E42" s="63">
@@ -5537,7 +5551,7 @@
         <f t="shared" si="5"/>
         <v>3.95944333996024</v>
       </c>
-      <c r="N42" s="77">
+      <c r="N42" s="79">
         <f t="shared" si="6"/>
         <v>0.0505121510343443</v>
       </c>
@@ -5545,11 +5559,11 @@
       <c r="P42" s="78"/>
       <c r="Q42" s="78"/>
       <c r="R42" s="78"/>
-      <c r="S42" s="86">
+      <c r="S42" s="87">
         <f t="shared" si="9"/>
         <v>19916</v>
       </c>
-      <c r="T42" s="90" t="s">
+      <c r="T42" s="91" t="s">
         <v>110</v>
       </c>
     </row>
@@ -5593,7 +5607,7 @@
         <f t="shared" si="5"/>
         <v>3.41615384615386</v>
       </c>
-      <c r="N43" s="77">
+      <c r="N43" s="79">
         <f t="shared" si="6"/>
         <v>0.0585453726638143</v>
       </c>
@@ -5601,11 +5615,11 @@
       <c r="P43" s="78"/>
       <c r="Q43" s="78"/>
       <c r="R43" s="78"/>
-      <c r="S43" s="86">
+      <c r="S43" s="87">
         <f t="shared" si="9"/>
         <v>22205</v>
       </c>
-      <c r="T43" s="91" t="s">
+      <c r="T43" s="92" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5613,10 +5627,10 @@
       <c r="A44" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="B44" s="32">
+      <c r="B44" s="31">
         <v>44560</v>
       </c>
-      <c r="C44" s="36">
+      <c r="C44" s="35">
         <v>600976</v>
       </c>
       <c r="D44" s="37" t="s">
@@ -5648,7 +5662,7 @@
         <f t="shared" si="5"/>
         <v>3.07829787234042</v>
       </c>
-      <c r="N44" s="77">
+      <c r="N44" s="79">
         <f t="shared" si="6"/>
         <v>0.0649709704174731</v>
       </c>
@@ -5656,11 +5670,11 @@
       <c r="P44" s="78"/>
       <c r="Q44" s="78"/>
       <c r="R44" s="78"/>
-      <c r="S44" s="86">
+      <c r="S44" s="87">
         <f t="shared" si="9"/>
         <v>7234</v>
       </c>
-      <c r="T44" s="91" t="s">
+      <c r="T44" s="92" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5668,7 +5682,7 @@
       <c r="A45" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="B45" s="32">
+      <c r="B45" s="31">
         <v>44560</v>
       </c>
       <c r="C45" s="42">
@@ -5697,14 +5711,14 @@
         <v>660</v>
       </c>
       <c r="L45" s="26">
-        <f t="shared" ref="L45:L62" si="10">FLOOR(1500/(F45-I45),100)</f>
+        <f t="shared" ref="L45:L63" si="10">FLOOR(1500/(F45-I45),100)</f>
         <v>200</v>
       </c>
       <c r="M45" s="76">
         <f t="shared" si="5"/>
         <v>1.84</v>
       </c>
-      <c r="N45" s="77">
+      <c r="N45" s="79">
         <f t="shared" si="6"/>
         <v>0.108695652173913</v>
       </c>
@@ -5712,7 +5726,7 @@
       <c r="P45" s="78"/>
       <c r="Q45" s="78"/>
       <c r="R45" s="78"/>
-      <c r="S45" s="86">
+      <c r="S45" s="87">
         <f t="shared" si="9"/>
         <v>12144</v>
       </c>
@@ -5760,7 +5774,7 @@
         <f t="shared" si="5"/>
         <v>2.48740157480315</v>
       </c>
-      <c r="N46" s="77">
+      <c r="N46" s="79">
         <f t="shared" si="6"/>
         <v>0.0804051915163026</v>
       </c>
@@ -5768,11 +5782,11 @@
       <c r="P46" s="78"/>
       <c r="Q46" s="78"/>
       <c r="R46" s="78"/>
-      <c r="S46" s="86">
+      <c r="S46" s="87">
         <f t="shared" si="9"/>
         <v>15795</v>
       </c>
-      <c r="T46" s="91" t="s">
+      <c r="T46" s="92" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5783,7 +5797,7 @@
       <c r="B47" s="38">
         <v>44565</v>
       </c>
-      <c r="C47" s="98" t="s">
+      <c r="C47" s="99" t="s">
         <v>52</v>
       </c>
       <c r="D47" s="44" t="s">
@@ -5822,24 +5836,24 @@
         <f t="shared" si="6"/>
         <v>0.0578629291500579</v>
       </c>
-      <c r="O47" s="79">
+      <c r="O47" s="80">
         <f>(G47-83.92)/G47</f>
         <v>0.0912831618841364</v>
       </c>
-      <c r="P47" s="80"/>
-      <c r="Q47" s="80">
+      <c r="P47" s="81"/>
+      <c r="Q47" s="81">
         <f>((F47-I47)*100+(G47-83.92)*200)/(F47*100+G47*200)</f>
         <v>0.0813807292261972</v>
       </c>
-      <c r="R47" s="79">
+      <c r="R47" s="80">
         <f>(G47-F47)/F47</f>
         <v>0.187475890446187</v>
       </c>
-      <c r="S47" s="86">
+      <c r="S47" s="87">
         <f t="shared" si="9"/>
         <v>23331</v>
       </c>
-      <c r="T47" s="91" t="s">
+      <c r="T47" s="92" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5850,10 +5864,10 @@
       <c r="B48" s="38">
         <v>44565</v>
       </c>
-      <c r="C48" s="99" t="s">
+      <c r="C48" s="100" t="s">
         <v>130</v>
       </c>
-      <c r="D48" s="36" t="s">
+      <c r="D48" s="35" t="s">
         <v>131</v>
       </c>
       <c r="E48" s="63">
@@ -5883,7 +5897,7 @@
         <f t="shared" si="5"/>
         <v>2.95899772209567</v>
       </c>
-      <c r="N48" s="77">
+      <c r="N48" s="79">
         <f t="shared" si="6"/>
         <v>0.067590454195535</v>
       </c>
@@ -5891,11 +5905,11 @@
       <c r="P48" s="78"/>
       <c r="Q48" s="78"/>
       <c r="R48" s="78"/>
-      <c r="S48" s="86">
+      <c r="S48" s="87">
         <f t="shared" si="9"/>
         <v>19485</v>
       </c>
-      <c r="T48" s="90" t="s">
+      <c r="T48" s="91" t="s">
         <v>110</v>
       </c>
     </row>
@@ -5906,10 +5920,10 @@
       <c r="B49" s="38">
         <v>44570</v>
       </c>
-      <c r="C49" s="36">
+      <c r="C49" s="35">
         <v>603380</v>
       </c>
-      <c r="D49" s="36" t="s">
+      <c r="D49" s="35" t="s">
         <v>133</v>
       </c>
       <c r="E49" s="63">
@@ -5939,7 +5953,7 @@
         <f t="shared" si="5"/>
         <v>2.24722222222222</v>
       </c>
-      <c r="N49" s="77">
+      <c r="N49" s="79">
         <f t="shared" si="6"/>
         <v>0.0889987639060569</v>
       </c>
@@ -5947,11 +5961,11 @@
       <c r="P49" s="78"/>
       <c r="Q49" s="78"/>
       <c r="R49" s="78"/>
-      <c r="S49" s="86">
+      <c r="S49" s="87">
         <f t="shared" si="9"/>
         <v>16180</v>
       </c>
-      <c r="T49" s="90" t="s">
+      <c r="T49" s="91" t="s">
         <v>110</v>
       </c>
     </row>
@@ -5962,10 +5976,10 @@
       <c r="B50" s="38">
         <v>44572</v>
       </c>
-      <c r="C50" s="36" t="s">
+      <c r="C50" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="D50" s="36" t="s">
+      <c r="D50" s="35" t="s">
         <v>136</v>
       </c>
       <c r="E50" s="63">
@@ -5997,28 +6011,28 @@
         <f t="shared" si="5"/>
         <v>2.29169054441261</v>
       </c>
-      <c r="N50" s="77">
+      <c r="N50" s="79">
         <f t="shared" si="6"/>
         <v>0.0872718179544887</v>
       </c>
-      <c r="O50" s="79">
+      <c r="O50" s="80">
         <f t="shared" ref="O50:O54" si="11">(G50-I50)/G50</f>
         <v>0.101870078740157</v>
       </c>
-      <c r="P50" s="79"/>
-      <c r="Q50" s="79">
+      <c r="P50" s="80"/>
+      <c r="Q50" s="80">
         <f>((F50-I50)*100+(G50-I50)*200)/(F50*100+G50*200)</f>
         <v>0.0970561556856601</v>
       </c>
-      <c r="R50" s="79">
+      <c r="R50" s="80">
         <f>(G50-F50)/F50</f>
         <v>0.0162540635158789</v>
       </c>
-      <c r="S50" s="86">
+      <c r="S50" s="87">
         <f t="shared" si="9"/>
         <v>15996</v>
       </c>
-      <c r="T50" s="90" t="s">
+      <c r="T50" s="91" t="s">
         <v>110</v>
       </c>
     </row>
@@ -6029,7 +6043,7 @@
       <c r="B51" s="38">
         <v>44573</v>
       </c>
-      <c r="C51" s="36">
+      <c r="C51" s="35">
         <v>603871</v>
       </c>
       <c r="D51" s="45" t="s">
@@ -6064,28 +6078,28 @@
         <f t="shared" si="5"/>
         <v>3.70967741935484</v>
       </c>
-      <c r="N51" s="77">
+      <c r="N51" s="79">
         <f t="shared" si="6"/>
         <v>0.0539130434782608</v>
       </c>
-      <c r="O51" s="79">
+      <c r="O51" s="80">
         <f t="shared" si="11"/>
         <v>0.096345514950166</v>
       </c>
-      <c r="P51" s="79"/>
-      <c r="Q51" s="79">
+      <c r="P51" s="80"/>
+      <c r="Q51" s="80">
         <f>((F51-I51)*400+(G51-I51)*600)/(F51*600+G51*600)</f>
         <v>0.0668365902010761</v>
       </c>
-      <c r="R51" s="79">
+      <c r="R51" s="80">
         <f>(G51-F51)/F51</f>
         <v>0.0469565217391304</v>
       </c>
-      <c r="S51" s="86">
+      <c r="S51" s="87">
         <f t="shared" si="9"/>
         <v>27600</v>
       </c>
-      <c r="T51" s="91" t="s">
+      <c r="T51" s="92" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6096,10 +6110,10 @@
       <c r="B52" s="38">
         <v>44573</v>
       </c>
-      <c r="C52" s="36" t="s">
+      <c r="C52" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="D52" s="36" t="s">
+      <c r="D52" s="35" t="s">
         <v>141</v>
       </c>
       <c r="E52" s="59">
@@ -6129,19 +6143,19 @@
         <f t="shared" si="5"/>
         <v>2.5444976076555</v>
       </c>
-      <c r="N52" s="77">
+      <c r="N52" s="79">
         <f t="shared" si="6"/>
         <v>0.0786009778112072</v>
       </c>
-      <c r="O52" s="81"/>
-      <c r="P52" s="81"/>
-      <c r="Q52" s="81"/>
-      <c r="R52" s="81"/>
-      <c r="S52" s="86">
+      <c r="O52" s="82"/>
+      <c r="P52" s="82"/>
+      <c r="Q52" s="82"/>
+      <c r="R52" s="82"/>
+      <c r="S52" s="87">
         <f t="shared" si="9"/>
         <v>18613</v>
       </c>
-      <c r="T52" s="90" t="s">
+      <c r="T52" s="91" t="s">
         <v>110</v>
       </c>
     </row>
@@ -6152,10 +6166,10 @@
       <c r="B53" s="38">
         <v>44579</v>
       </c>
-      <c r="C53" s="36" t="s">
+      <c r="C53" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="D53" s="36" t="s">
+      <c r="D53" s="35" t="s">
         <v>144</v>
       </c>
       <c r="E53" s="59">
@@ -6185,19 +6199,19 @@
         <f t="shared" si="5"/>
         <v>3.06666666666667</v>
       </c>
-      <c r="N53" s="77">
+      <c r="N53" s="79">
         <f t="shared" si="6"/>
         <v>0.0652173913043478</v>
       </c>
-      <c r="O53" s="81"/>
-      <c r="P53" s="81"/>
-      <c r="Q53" s="81"/>
-      <c r="R53" s="81"/>
-      <c r="S53" s="86">
+      <c r="O53" s="82"/>
+      <c r="P53" s="82"/>
+      <c r="Q53" s="82"/>
+      <c r="R53" s="82"/>
+      <c r="S53" s="87">
         <f t="shared" si="9"/>
         <v>13800</v>
       </c>
-      <c r="T53" s="90" t="s">
+      <c r="T53" s="91" t="s">
         <v>110</v>
       </c>
     </row>
@@ -6208,10 +6222,10 @@
       <c r="B54" s="38">
         <v>44580</v>
       </c>
-      <c r="C54" s="36" t="s">
+      <c r="C54" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="D54" s="36" t="s">
+      <c r="D54" s="35" t="s">
         <v>147</v>
       </c>
       <c r="E54" s="63">
@@ -6243,25 +6257,25 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="N54" s="77">
+      <c r="N54" s="79">
         <f t="shared" si="6"/>
         <v>0.0222222222222222</v>
       </c>
-      <c r="O54" s="79">
+      <c r="O54" s="80">
         <f t="shared" si="11"/>
         <v>0.0638297872340425</v>
       </c>
-      <c r="P54" s="79"/>
-      <c r="Q54" s="79">
+      <c r="P54" s="80"/>
+      <c r="Q54" s="80">
         <f>((F54-I54)*400+(G54-I54)*600)/(F54*600+G54*600)</f>
         <v>0.0398550724637681</v>
       </c>
-      <c r="R54" s="81"/>
-      <c r="S54" s="86">
+      <c r="R54" s="82"/>
+      <c r="S54" s="87">
         <f t="shared" si="9"/>
         <v>67500</v>
       </c>
-      <c r="T54" s="91" t="s">
+      <c r="T54" s="92" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6272,10 +6286,10 @@
       <c r="B55" s="38">
         <v>44581</v>
       </c>
-      <c r="C55" s="36" t="s">
+      <c r="C55" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="D55" s="36" t="s">
+      <c r="D55" s="35" t="s">
         <v>150</v>
       </c>
       <c r="E55" s="67">
@@ -6305,19 +6319,19 @@
         <f t="shared" si="5"/>
         <v>2.15819209039548</v>
       </c>
-      <c r="N55" s="77">
+      <c r="N55" s="79">
         <f t="shared" si="6"/>
         <v>0.092670157068063</v>
       </c>
-      <c r="O55" s="81"/>
-      <c r="P55" s="81"/>
-      <c r="Q55" s="81"/>
-      <c r="R55" s="81"/>
-      <c r="S55" s="86">
+      <c r="O55" s="82"/>
+      <c r="P55" s="82"/>
+      <c r="Q55" s="82"/>
+      <c r="R55" s="82"/>
+      <c r="S55" s="87">
         <f t="shared" si="9"/>
         <v>15280</v>
       </c>
-      <c r="T55" s="90" t="s">
+      <c r="T55" s="91" t="s">
         <v>110</v>
       </c>
     </row>
@@ -6328,10 +6342,10 @@
       <c r="B56" s="38">
         <v>44584</v>
       </c>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="D56" s="36" t="s">
+      <c r="D56" s="35" t="s">
         <v>153</v>
       </c>
       <c r="E56" s="59">
@@ -6361,19 +6375,19 @@
         <f t="shared" si="5"/>
         <v>3.98145695364239</v>
       </c>
-      <c r="N56" s="77">
+      <c r="N56" s="79">
         <f t="shared" si="6"/>
         <v>0.050232867598137</v>
       </c>
-      <c r="O56" s="81"/>
-      <c r="P56" s="81"/>
-      <c r="Q56" s="81"/>
-      <c r="R56" s="81"/>
-      <c r="S56" s="86">
+      <c r="O56" s="82"/>
+      <c r="P56" s="82"/>
+      <c r="Q56" s="82"/>
+      <c r="R56" s="82"/>
+      <c r="S56" s="87">
         <f t="shared" si="9"/>
         <v>27054</v>
       </c>
-      <c r="T56" s="90" t="s">
+      <c r="T56" s="91" t="s">
         <v>110</v>
       </c>
     </row>
@@ -6384,10 +6398,10 @@
       <c r="B57" s="38">
         <v>44585</v>
       </c>
-      <c r="C57" s="36" t="s">
+      <c r="C57" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="D57" s="36" t="s">
+      <c r="D57" s="35" t="s">
         <v>156</v>
       </c>
       <c r="E57" s="67">
@@ -6417,19 +6431,19 @@
         <f t="shared" si="5"/>
         <v>3.27358490566037</v>
       </c>
-      <c r="N57" s="77">
+      <c r="N57" s="79">
         <f t="shared" si="6"/>
         <v>0.0610951008645534</v>
       </c>
-      <c r="O57" s="81"/>
-      <c r="P57" s="81"/>
-      <c r="Q57" s="81"/>
-      <c r="R57" s="81"/>
-      <c r="S57" s="86">
+      <c r="O57" s="82"/>
+      <c r="P57" s="82"/>
+      <c r="Q57" s="82"/>
+      <c r="R57" s="82"/>
+      <c r="S57" s="87">
         <f t="shared" si="9"/>
         <v>24290</v>
       </c>
-      <c r="T57" s="90" t="s">
+      <c r="T57" s="91" t="s">
         <v>110</v>
       </c>
     </row>
@@ -6440,10 +6454,10 @@
       <c r="B58" s="38">
         <v>44585</v>
       </c>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="D58" s="36" t="s">
+      <c r="D58" s="35" t="s">
         <v>159</v>
       </c>
       <c r="E58" s="63">
@@ -6473,19 +6487,19 @@
         <f t="shared" si="5"/>
         <v>2.48051948051948</v>
       </c>
-      <c r="N58" s="77">
+      <c r="N58" s="79">
         <f t="shared" si="6"/>
         <v>0.080628272251309</v>
       </c>
-      <c r="O58" s="81"/>
-      <c r="P58" s="81"/>
-      <c r="Q58" s="81"/>
-      <c r="R58" s="81"/>
-      <c r="S58" s="86">
+      <c r="O58" s="82"/>
+      <c r="P58" s="82"/>
+      <c r="Q58" s="82"/>
+      <c r="R58" s="82"/>
+      <c r="S58" s="87">
         <f t="shared" si="9"/>
         <v>18145</v>
       </c>
-      <c r="T58" s="90" t="s">
+      <c r="T58" s="91" t="s">
         <v>110</v>
       </c>
     </row>
@@ -6496,10 +6510,10 @@
       <c r="B59" s="38">
         <v>44585</v>
       </c>
-      <c r="C59" s="36" t="s">
+      <c r="C59" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="D59" s="36" t="s">
+      <c r="D59" s="35" t="s">
         <v>162</v>
       </c>
       <c r="E59" s="59">
@@ -6537,24 +6551,24 @@
         <f t="shared" ref="N59:P59" si="12">(F59-$I59)/F59</f>
         <v>0.0689461883408072</v>
       </c>
-      <c r="O59" s="79">
+      <c r="O59" s="80">
         <f t="shared" si="12"/>
         <v>0.085352422907489</v>
       </c>
-      <c r="P59" s="79">
+      <c r="P59" s="80">
         <f t="shared" si="12"/>
         <v>0.0878638110928062</v>
       </c>
-      <c r="Q59" s="79">
+      <c r="Q59" s="80">
         <f>((F59-$I59)*300+(G59-$I59)*400+(H59-$I59)*300)/(F59*600+G59*300)</f>
         <v>0.090948489351164</v>
       </c>
-      <c r="R59" s="81"/>
-      <c r="S59" s="86">
+      <c r="R59" s="82"/>
+      <c r="S59" s="87">
         <f t="shared" si="9"/>
         <v>21408</v>
       </c>
-      <c r="T59" s="91" t="s">
+      <c r="T59" s="92" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6565,10 +6579,10 @@
       <c r="B60" s="38">
         <v>44601</v>
       </c>
-      <c r="C60" s="36" t="s">
+      <c r="C60" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="D60" s="36" t="s">
+      <c r="D60" s="35" t="s">
         <v>165</v>
       </c>
       <c r="E60" s="59">
@@ -6600,19 +6614,19 @@
         <f t="shared" si="5"/>
         <v>2.3241935483871</v>
       </c>
-      <c r="N60" s="77">
+      <c r="N60" s="79">
         <f>(F60-$I60)/F60</f>
         <v>0.0860513532269258</v>
       </c>
-      <c r="O60" s="81"/>
-      <c r="P60" s="81"/>
-      <c r="Q60" s="81"/>
-      <c r="R60" s="81"/>
-      <c r="S60" s="86">
+      <c r="O60" s="82"/>
+      <c r="P60" s="82"/>
+      <c r="Q60" s="82"/>
+      <c r="R60" s="82"/>
+      <c r="S60" s="87">
         <f t="shared" si="9"/>
         <v>17292</v>
       </c>
-      <c r="T60" s="91" t="s">
+      <c r="T60" s="92" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6623,10 +6637,10 @@
       <c r="B61" s="38">
         <v>44602</v>
       </c>
-      <c r="C61" s="36" t="s">
+      <c r="C61" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="D61" s="36" t="s">
+      <c r="D61" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E61" s="59">
@@ -6656,19 +6670,19 @@
         <f t="shared" si="5"/>
         <v>3.01686746987952</v>
       </c>
-      <c r="N61" s="77">
+      <c r="N61" s="79">
         <f>(F61-$I61)/F61</f>
         <v>0.0662939297124601</v>
       </c>
-      <c r="O61" s="81"/>
-      <c r="P61" s="81"/>
-      <c r="Q61" s="81"/>
-      <c r="R61" s="81"/>
-      <c r="S61" s="86">
+      <c r="O61" s="82"/>
+      <c r="P61" s="82"/>
+      <c r="Q61" s="82"/>
+      <c r="R61" s="82"/>
+      <c r="S61" s="87">
         <f t="shared" si="9"/>
         <v>22536</v>
       </c>
-      <c r="T61" s="92" t="s">
+      <c r="T61" s="93" t="s">
         <v>169</v>
       </c>
     </row>
@@ -6679,7 +6693,7 @@
       <c r="B62" s="38">
         <v>44602</v>
       </c>
-      <c r="C62" s="36" t="s">
+      <c r="C62" s="35" t="s">
         <v>171</v>
       </c>
       <c r="D62" s="45" t="s">
@@ -6716,28 +6730,28 @@
         <f t="shared" si="5"/>
         <v>3.09375</v>
       </c>
-      <c r="N62" s="77">
+      <c r="N62" s="79">
         <f t="shared" ref="N62:P62" si="13">(F62-$I62)/F62</f>
         <v>0.0646464646464647</v>
       </c>
-      <c r="O62" s="79">
+      <c r="O62" s="80">
         <f t="shared" si="13"/>
         <v>0.074</v>
       </c>
-      <c r="P62" s="79">
+      <c r="P62" s="80">
         <f t="shared" si="13"/>
         <v>0.0831683168316832</v>
       </c>
-      <c r="Q62" s="79">
+      <c r="Q62" s="80">
         <f>((F62-$I62)*500+(G62-$I62)*1500+(H62-$I62)*3000)/(F62*500+G62*1500+H62*3000)</f>
         <v>0.0786069651741294</v>
       </c>
-      <c r="R62" s="81"/>
-      <c r="S62" s="86">
+      <c r="R62" s="82"/>
+      <c r="S62" s="87">
         <f t="shared" si="9"/>
         <v>22770</v>
       </c>
-      <c r="T62" s="92" t="s">
+      <c r="T62" s="93" t="s">
         <v>169</v>
       </c>
     </row>
@@ -6766,31 +6780,31 @@
         <v>20.01</v>
       </c>
       <c r="J63" s="52">
-        <f>(F63+F63*0.2)</f>
+        <f t="shared" si="8"/>
         <v>25.608</v>
       </c>
       <c r="K63" s="26">
-        <f>(F63-I63)*100</f>
+        <f t="shared" si="0"/>
         <v>133</v>
       </c>
       <c r="L63" s="26">
-        <f>FLOOR(1500/(F63-I63),100)</f>
+        <f t="shared" si="10"/>
         <v>1100</v>
       </c>
       <c r="M63" s="76">
-        <f>(J63-F63)/(F63-I63)</f>
+        <f t="shared" si="5"/>
         <v>3.20902255639098</v>
       </c>
-      <c r="N63" s="77">
+      <c r="N63" s="79">
         <f>(F63-$I63)/F63</f>
         <v>0.0623242736644798</v>
       </c>
-      <c r="O63" s="81"/>
-      <c r="P63" s="81"/>
-      <c r="Q63" s="81"/>
-      <c r="R63" s="81"/>
-      <c r="S63" s="86">
-        <f>F63*L63</f>
+      <c r="O63" s="82"/>
+      <c r="P63" s="82"/>
+      <c r="Q63" s="82"/>
+      <c r="R63" s="82"/>
+      <c r="S63" s="87">
+        <f t="shared" si="9"/>
         <v>23474</v>
       </c>
       <c r="T63" s="42"/>
@@ -6808,7 +6822,7 @@
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
       <c r="M64" s="7"/>
-      <c r="N64" s="82"/>
+      <c r="N64" s="83"/>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="7"/>
@@ -6823,7 +6837,7 @@
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
-      <c r="N65" s="82"/>
+      <c r="N65" s="83"/>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="7"/>
@@ -6838,7 +6852,7 @@
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
-      <c r="N66" s="82"/>
+      <c r="N66" s="83"/>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="7"/>
@@ -6853,7 +6867,7 @@
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
-      <c r="N67" s="82"/>
+      <c r="N67" s="83"/>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="7"/>
@@ -6868,7 +6882,7 @@
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
-      <c r="N68" s="82"/>
+      <c r="N68" s="83"/>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="7"/>
@@ -6883,7 +6897,7 @@
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
-      <c r="N69" s="82"/>
+      <c r="N69" s="83"/>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="7"/>
@@ -6898,7 +6912,7 @@
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
-      <c r="N70" s="82"/>
+      <c r="N70" s="83"/>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="7"/>
@@ -6913,7 +6927,7 @@
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
-      <c r="N71" s="82"/>
+      <c r="N71" s="83"/>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="7"/>
@@ -6928,7 +6942,7 @@
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
-      <c r="N72" s="82"/>
+      <c r="N72" s="83"/>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="7"/>
@@ -6943,7 +6957,7 @@
       <c r="K73" s="7"/>
       <c r="L73" s="7"/>
       <c r="M73" s="7"/>
-      <c r="N73" s="82"/>
+      <c r="N73" s="83"/>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="7"/>
@@ -6958,7 +6972,7 @@
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
-      <c r="N74" s="82"/>
+      <c r="N74" s="83"/>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="7"/>
@@ -6973,7 +6987,7 @@
       <c r="K75" s="7"/>
       <c r="L75" s="7"/>
       <c r="M75" s="7"/>
-      <c r="N75" s="82"/>
+      <c r="N75" s="83"/>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="7"/>
@@ -6988,7 +7002,7 @@
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
-      <c r="N76" s="82"/>
+      <c r="N76" s="83"/>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="7"/>
@@ -7003,7 +7017,7 @@
       <c r="K77" s="7"/>
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
-      <c r="N77" s="82"/>
+      <c r="N77" s="83"/>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="7"/>
@@ -7018,7 +7032,7 @@
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
       <c r="M78" s="7"/>
-      <c r="N78" s="82"/>
+      <c r="N78" s="83"/>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="7"/>
@@ -7033,7 +7047,7 @@
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
       <c r="M79" s="7"/>
-      <c r="N79" s="82"/>
+      <c r="N79" s="83"/>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="7"/>
@@ -7048,7 +7062,7 @@
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
       <c r="M80" s="7"/>
-      <c r="N80" s="82"/>
+      <c r="N80" s="83"/>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="7"/>
@@ -7063,7 +7077,7 @@
       <c r="K81" s="7"/>
       <c r="L81" s="7"/>
       <c r="M81" s="7"/>
-      <c r="N81" s="82"/>
+      <c r="N81" s="83"/>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="7"/>
@@ -7078,7 +7092,7 @@
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
       <c r="M82" s="7"/>
-      <c r="N82" s="82"/>
+      <c r="N82" s="83"/>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="7"/>
@@ -7093,7 +7107,7 @@
       <c r="K83" s="7"/>
       <c r="L83" s="7"/>
       <c r="M83" s="7"/>
-      <c r="N83" s="82"/>
+      <c r="N83" s="83"/>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="7"/>
@@ -7108,7 +7122,7 @@
       <c r="K84" s="7"/>
       <c r="L84" s="7"/>
       <c r="M84" s="7"/>
-      <c r="N84" s="82"/>
+      <c r="N84" s="83"/>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="7"/>
@@ -7123,7 +7137,7 @@
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
       <c r="M85" s="7"/>
-      <c r="N85" s="82"/>
+      <c r="N85" s="83"/>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="7"/>
@@ -7138,7 +7152,7 @@
       <c r="K86" s="7"/>
       <c r="L86" s="7"/>
       <c r="M86" s="7"/>
-      <c r="N86" s="82"/>
+      <c r="N86" s="83"/>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="7"/>
@@ -7153,7 +7167,7 @@
       <c r="K87" s="7"/>
       <c r="L87" s="7"/>
       <c r="M87" s="7"/>
-      <c r="N87" s="82"/>
+      <c r="N87" s="83"/>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="7"/>
@@ -7168,7 +7182,7 @@
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
       <c r="M88" s="7"/>
-      <c r="N88" s="82"/>
+      <c r="N88" s="83"/>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="7"/>
@@ -7183,7 +7197,7 @@
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
       <c r="M89" s="7"/>
-      <c r="N89" s="82"/>
+      <c r="N89" s="83"/>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="7"/>
@@ -7198,7 +7212,7 @@
       <c r="K90" s="7"/>
       <c r="L90" s="7"/>
       <c r="M90" s="7"/>
-      <c r="N90" s="82"/>
+      <c r="N90" s="83"/>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="7"/>
@@ -7213,7 +7227,7 @@
       <c r="K91" s="7"/>
       <c r="L91" s="7"/>
       <c r="M91" s="7"/>
-      <c r="N91" s="82"/>
+      <c r="N91" s="83"/>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="7"/>
@@ -7228,7 +7242,7 @@
       <c r="K92" s="7"/>
       <c r="L92" s="7"/>
       <c r="M92" s="7"/>
-      <c r="N92" s="82"/>
+      <c r="N92" s="83"/>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="7"/>
@@ -7243,7 +7257,7 @@
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
       <c r="M93" s="7"/>
-      <c r="N93" s="82"/>
+      <c r="N93" s="83"/>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="7"/>
@@ -7258,7 +7272,7 @@
       <c r="K94" s="7"/>
       <c r="L94" s="7"/>
       <c r="M94" s="7"/>
-      <c r="N94" s="82"/>
+      <c r="N94" s="83"/>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="7"/>
@@ -7273,7 +7287,7 @@
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
       <c r="M95" s="7"/>
-      <c r="N95" s="82"/>
+      <c r="N95" s="83"/>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="7"/>
@@ -7288,7 +7302,7 @@
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
       <c r="M96" s="7"/>
-      <c r="N96" s="82"/>
+      <c r="N96" s="83"/>
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="7"/>
@@ -7303,7 +7317,7 @@
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
       <c r="M97" s="7"/>
-      <c r="N97" s="82"/>
+      <c r="N97" s="83"/>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="7"/>
@@ -7318,7 +7332,7 @@
       <c r="K98" s="7"/>
       <c r="L98" s="7"/>
       <c r="M98" s="7"/>
-      <c r="N98" s="82"/>
+      <c r="N98" s="83"/>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="7"/>
@@ -7333,7 +7347,7 @@
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
       <c r="M99" s="7"/>
-      <c r="N99" s="82"/>
+      <c r="N99" s="83"/>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="7"/>
@@ -7348,7 +7362,7 @@
       <c r="K100" s="7"/>
       <c r="L100" s="7"/>
       <c r="M100" s="7"/>
-      <c r="N100" s="82"/>
+      <c r="N100" s="83"/>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="7"/>
@@ -7363,7 +7377,7 @@
       <c r="K101" s="7"/>
       <c r="L101" s="7"/>
       <c r="M101" s="7"/>
-      <c r="N101" s="82"/>
+      <c r="N101" s="83"/>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="7"/>
@@ -7378,7 +7392,7 @@
       <c r="K102" s="7"/>
       <c r="L102" s="7"/>
       <c r="M102" s="7"/>
-      <c r="N102" s="82"/>
+      <c r="N102" s="83"/>
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="7"/>
@@ -7393,7 +7407,7 @@
       <c r="K103" s="7"/>
       <c r="L103" s="7"/>
       <c r="M103" s="7"/>
-      <c r="N103" s="82"/>
+      <c r="N103" s="83"/>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="7"/>
@@ -7408,7 +7422,7 @@
       <c r="K104" s="7"/>
       <c r="L104" s="7"/>
       <c r="M104" s="7"/>
-      <c r="N104" s="82"/>
+      <c r="N104" s="83"/>
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="7"/>
@@ -7423,7 +7437,7 @@
       <c r="K105" s="7"/>
       <c r="L105" s="7"/>
       <c r="M105" s="7"/>
-      <c r="N105" s="82"/>
+      <c r="N105" s="83"/>
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="7"/>
@@ -7438,7 +7452,7 @@
       <c r="K106" s="7"/>
       <c r="L106" s="7"/>
       <c r="M106" s="7"/>
-      <c r="N106" s="82"/>
+      <c r="N106" s="83"/>
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="7"/>
@@ -7453,7 +7467,7 @@
       <c r="K107" s="7"/>
       <c r="L107" s="7"/>
       <c r="M107" s="7"/>
-      <c r="N107" s="82"/>
+      <c r="N107" s="83"/>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="7"/>
@@ -7468,7 +7482,7 @@
       <c r="K108" s="7"/>
       <c r="L108" s="7"/>
       <c r="M108" s="7"/>
-      <c r="N108" s="82"/>
+      <c r="N108" s="83"/>
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="7"/>
@@ -7483,7 +7497,7 @@
       <c r="K109" s="7"/>
       <c r="L109" s="7"/>
       <c r="M109" s="7"/>
-      <c r="N109" s="82"/>
+      <c r="N109" s="83"/>
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="7"/>
@@ -7498,7 +7512,7 @@
       <c r="K110" s="7"/>
       <c r="L110" s="7"/>
       <c r="M110" s="7"/>
-      <c r="N110" s="82"/>
+      <c r="N110" s="83"/>
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="7"/>
@@ -7513,7 +7527,7 @@
       <c r="K111" s="7"/>
       <c r="L111" s="7"/>
       <c r="M111" s="7"/>
-      <c r="N111" s="82"/>
+      <c r="N111" s="83"/>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="7"/>
@@ -7528,7 +7542,7 @@
       <c r="K112" s="7"/>
       <c r="L112" s="7"/>
       <c r="M112" s="7"/>
-      <c r="N112" s="82"/>
+      <c r="N112" s="83"/>
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="7"/>
@@ -7543,7 +7557,7 @@
       <c r="K113" s="7"/>
       <c r="L113" s="7"/>
       <c r="M113" s="7"/>
-      <c r="N113" s="82"/>
+      <c r="N113" s="83"/>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="7"/>
@@ -7558,7 +7572,7 @@
       <c r="K114" s="7"/>
       <c r="L114" s="7"/>
       <c r="M114" s="7"/>
-      <c r="N114" s="82"/>
+      <c r="N114" s="83"/>
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="7"/>
@@ -7573,7 +7587,7 @@
       <c r="K115" s="7"/>
       <c r="L115" s="7"/>
       <c r="M115" s="7"/>
-      <c r="N115" s="82"/>
+      <c r="N115" s="83"/>
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="7"/>
@@ -7588,7 +7602,7 @@
       <c r="K116" s="7"/>
       <c r="L116" s="7"/>
       <c r="M116" s="7"/>
-      <c r="N116" s="82"/>
+      <c r="N116" s="83"/>
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="7"/>
@@ -7603,7 +7617,7 @@
       <c r="K117" s="7"/>
       <c r="L117" s="7"/>
       <c r="M117" s="7"/>
-      <c r="N117" s="82"/>
+      <c r="N117" s="83"/>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="7"/>
@@ -7618,7 +7632,7 @@
       <c r="K118" s="7"/>
       <c r="L118" s="7"/>
       <c r="M118" s="7"/>
-      <c r="N118" s="82"/>
+      <c r="N118" s="83"/>
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="7"/>
@@ -7633,7 +7647,7 @@
       <c r="K119" s="7"/>
       <c r="L119" s="7"/>
       <c r="M119" s="7"/>
-      <c r="N119" s="82"/>
+      <c r="N119" s="83"/>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="7"/>
@@ -7648,7 +7662,7 @@
       <c r="K120" s="7"/>
       <c r="L120" s="7"/>
       <c r="M120" s="7"/>
-      <c r="N120" s="82"/>
+      <c r="N120" s="83"/>
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="7"/>
@@ -7663,7 +7677,7 @@
       <c r="K121" s="7"/>
       <c r="L121" s="7"/>
       <c r="M121" s="7"/>
-      <c r="N121" s="82"/>
+      <c r="N121" s="83"/>
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="7"/>
@@ -7678,7 +7692,7 @@
       <c r="K122" s="7"/>
       <c r="L122" s="7"/>
       <c r="M122" s="7"/>
-      <c r="N122" s="82"/>
+      <c r="N122" s="83"/>
     </row>
     <row r="123" spans="1:14">
       <c r="A123" s="7"/>
@@ -7693,7 +7707,7 @@
       <c r="K123" s="7"/>
       <c r="L123" s="7"/>
       <c r="M123" s="7"/>
-      <c r="N123" s="82"/>
+      <c r="N123" s="83"/>
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="7"/>
@@ -7708,7 +7722,7 @@
       <c r="K124" s="7"/>
       <c r="L124" s="7"/>
       <c r="M124" s="7"/>
-      <c r="N124" s="82"/>
+      <c r="N124" s="83"/>
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="7"/>
@@ -7723,7 +7737,7 @@
       <c r="K125" s="7"/>
       <c r="L125" s="7"/>
       <c r="M125" s="7"/>
-      <c r="N125" s="82"/>
+      <c r="N125" s="83"/>
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="7"/>
@@ -7738,7 +7752,7 @@
       <c r="K126" s="7"/>
       <c r="L126" s="7"/>
       <c r="M126" s="7"/>
-      <c r="N126" s="82"/>
+      <c r="N126" s="83"/>
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="7"/>
@@ -7753,7 +7767,7 @@
       <c r="K127" s="7"/>
       <c r="L127" s="7"/>
       <c r="M127" s="7"/>
-      <c r="N127" s="82"/>
+      <c r="N127" s="83"/>
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="7"/>
@@ -7768,7 +7782,7 @@
       <c r="K128" s="7"/>
       <c r="L128" s="7"/>
       <c r="M128" s="7"/>
-      <c r="N128" s="82"/>
+      <c r="N128" s="83"/>
     </row>
     <row r="129" spans="1:14">
       <c r="A129" s="7"/>
@@ -7783,7 +7797,7 @@
       <c r="K129" s="7"/>
       <c r="L129" s="7"/>
       <c r="M129" s="7"/>
-      <c r="N129" s="82"/>
+      <c r="N129" s="83"/>
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="7"/>
@@ -7798,7 +7812,7 @@
       <c r="K130" s="7"/>
       <c r="L130" s="7"/>
       <c r="M130" s="7"/>
-      <c r="N130" s="82"/>
+      <c r="N130" s="83"/>
     </row>
     <row r="131" spans="1:14">
       <c r="A131" s="7"/>
@@ -7813,7 +7827,7 @@
       <c r="K131" s="7"/>
       <c r="L131" s="7"/>
       <c r="M131" s="7"/>
-      <c r="N131" s="82"/>
+      <c r="N131" s="83"/>
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="7"/>
@@ -7828,7 +7842,7 @@
       <c r="K132" s="7"/>
       <c r="L132" s="7"/>
       <c r="M132" s="7"/>
-      <c r="N132" s="82"/>
+      <c r="N132" s="83"/>
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="7"/>
@@ -7843,7 +7857,7 @@
       <c r="K133" s="7"/>
       <c r="L133" s="7"/>
       <c r="M133" s="7"/>
-      <c r="N133" s="82"/>
+      <c r="N133" s="83"/>
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="7"/>
@@ -7858,7 +7872,7 @@
       <c r="K134" s="7"/>
       <c r="L134" s="7"/>
       <c r="M134" s="7"/>
-      <c r="N134" s="82"/>
+      <c r="N134" s="83"/>
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="7"/>
@@ -7873,7 +7887,7 @@
       <c r="K135" s="7"/>
       <c r="L135" s="7"/>
       <c r="M135" s="7"/>
-      <c r="N135" s="82"/>
+      <c r="N135" s="83"/>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="7"/>
@@ -7888,7 +7902,7 @@
       <c r="K136" s="7"/>
       <c r="L136" s="7"/>
       <c r="M136" s="7"/>
-      <c r="N136" s="82"/>
+      <c r="N136" s="83"/>
     </row>
     <row r="137" spans="1:14">
       <c r="A137" s="7"/>
@@ -7903,7 +7917,7 @@
       <c r="K137" s="7"/>
       <c r="L137" s="7"/>
       <c r="M137" s="7"/>
-      <c r="N137" s="82"/>
+      <c r="N137" s="83"/>
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="7"/>
@@ -7918,7 +7932,7 @@
       <c r="K138" s="7"/>
       <c r="L138" s="7"/>
       <c r="M138" s="7"/>
-      <c r="N138" s="82"/>
+      <c r="N138" s="83"/>
     </row>
     <row r="139" spans="1:14">
       <c r="A139" s="7"/>
@@ -7933,7 +7947,7 @@
       <c r="K139" s="7"/>
       <c r="L139" s="7"/>
       <c r="M139" s="7"/>
-      <c r="N139" s="82"/>
+      <c r="N139" s="83"/>
     </row>
     <row r="140" spans="1:14">
       <c r="A140" s="7"/>
@@ -7948,7 +7962,7 @@
       <c r="K140" s="7"/>
       <c r="L140" s="7"/>
       <c r="M140" s="7"/>
-      <c r="N140" s="82"/>
+      <c r="N140" s="83"/>
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="7"/>
@@ -7963,7 +7977,7 @@
       <c r="K141" s="7"/>
       <c r="L141" s="7"/>
       <c r="M141" s="7"/>
-      <c r="N141" s="82"/>
+      <c r="N141" s="83"/>
     </row>
     <row r="142" spans="1:14">
       <c r="A142" s="7"/>
@@ -7978,7 +7992,7 @@
       <c r="K142" s="7"/>
       <c r="L142" s="7"/>
       <c r="M142" s="7"/>
-      <c r="N142" s="82"/>
+      <c r="N142" s="83"/>
     </row>
     <row r="143" spans="1:14">
       <c r="A143" s="7"/>
@@ -7993,7 +8007,7 @@
       <c r="K143" s="7"/>
       <c r="L143" s="7"/>
       <c r="M143" s="7"/>
-      <c r="N143" s="82"/>
+      <c r="N143" s="83"/>
     </row>
     <row r="144" spans="1:14">
       <c r="A144" s="7"/>
@@ -8008,7 +8022,7 @@
       <c r="K144" s="7"/>
       <c r="L144" s="7"/>
       <c r="M144" s="7"/>
-      <c r="N144" s="82"/>
+      <c r="N144" s="83"/>
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="7"/>
@@ -8023,7 +8037,7 @@
       <c r="K145" s="7"/>
       <c r="L145" s="7"/>
       <c r="M145" s="7"/>
-      <c r="N145" s="82"/>
+      <c r="N145" s="83"/>
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="7"/>
@@ -8038,7 +8052,7 @@
       <c r="K146" s="7"/>
       <c r="L146" s="7"/>
       <c r="M146" s="7"/>
-      <c r="N146" s="82"/>
+      <c r="N146" s="83"/>
     </row>
     <row r="147" spans="1:14">
       <c r="A147" s="7"/>
@@ -8053,7 +8067,7 @@
       <c r="K147" s="7"/>
       <c r="L147" s="7"/>
       <c r="M147" s="7"/>
-      <c r="N147" s="82"/>
+      <c r="N147" s="83"/>
     </row>
     <row r="148" spans="1:14">
       <c r="A148" s="7"/>
@@ -8068,7 +8082,7 @@
       <c r="K148" s="7"/>
       <c r="L148" s="7"/>
       <c r="M148" s="7"/>
-      <c r="N148" s="82"/>
+      <c r="N148" s="83"/>
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="7"/>
@@ -8083,7 +8097,7 @@
       <c r="K149" s="7"/>
       <c r="L149" s="7"/>
       <c r="M149" s="7"/>
-      <c r="N149" s="82"/>
+      <c r="N149" s="83"/>
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="7"/>
@@ -8098,7 +8112,7 @@
       <c r="K150" s="7"/>
       <c r="L150" s="7"/>
       <c r="M150" s="7"/>
-      <c r="N150" s="82"/>
+      <c r="N150" s="83"/>
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="7"/>
@@ -8113,7 +8127,7 @@
       <c r="K151" s="7"/>
       <c r="L151" s="7"/>
       <c r="M151" s="7"/>
-      <c r="N151" s="82"/>
+      <c r="N151" s="83"/>
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="7"/>
@@ -8128,7 +8142,7 @@
       <c r="K152" s="7"/>
       <c r="L152" s="7"/>
       <c r="M152" s="7"/>
-      <c r="N152" s="82"/>
+      <c r="N152" s="83"/>
     </row>
     <row r="153" spans="1:14">
       <c r="A153" s="7"/>
@@ -8143,7 +8157,7 @@
       <c r="K153" s="7"/>
       <c r="L153" s="7"/>
       <c r="M153" s="7"/>
-      <c r="N153" s="82"/>
+      <c r="N153" s="83"/>
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="7"/>
@@ -8158,7 +8172,7 @@
       <c r="K154" s="7"/>
       <c r="L154" s="7"/>
       <c r="M154" s="7"/>
-      <c r="N154" s="82"/>
+      <c r="N154" s="83"/>
     </row>
     <row r="155" spans="1:14">
       <c r="A155" s="7"/>
@@ -8173,7 +8187,7 @@
       <c r="K155" s="7"/>
       <c r="L155" s="7"/>
       <c r="M155" s="7"/>
-      <c r="N155" s="82"/>
+      <c r="N155" s="83"/>
     </row>
     <row r="156" spans="1:14">
       <c r="A156" s="7"/>
@@ -8188,7 +8202,7 @@
       <c r="K156" s="7"/>
       <c r="L156" s="7"/>
       <c r="M156" s="7"/>
-      <c r="N156" s="82"/>
+      <c r="N156" s="83"/>
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="7"/>
@@ -8203,7 +8217,7 @@
       <c r="K157" s="7"/>
       <c r="L157" s="7"/>
       <c r="M157" s="7"/>
-      <c r="N157" s="82"/>
+      <c r="N157" s="83"/>
     </row>
     <row r="158" spans="1:14">
       <c r="A158" s="7"/>
@@ -8218,7 +8232,7 @@
       <c r="K158" s="7"/>
       <c r="L158" s="7"/>
       <c r="M158" s="7"/>
-      <c r="N158" s="82"/>
+      <c r="N158" s="83"/>
     </row>
     <row r="159" spans="1:14">
       <c r="A159" s="7"/>
@@ -8233,7 +8247,7 @@
       <c r="K159" s="7"/>
       <c r="L159" s="7"/>
       <c r="M159" s="7"/>
-      <c r="N159" s="82"/>
+      <c r="N159" s="83"/>
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="7"/>
@@ -8248,7 +8262,7 @@
       <c r="K160" s="7"/>
       <c r="L160" s="7"/>
       <c r="M160" s="7"/>
-      <c r="N160" s="82"/>
+      <c r="N160" s="83"/>
     </row>
     <row r="161" spans="1:14">
       <c r="A161" s="7"/>
@@ -8263,7 +8277,7 @@
       <c r="K161" s="7"/>
       <c r="L161" s="7"/>
       <c r="M161" s="7"/>
-      <c r="N161" s="82"/>
+      <c r="N161" s="83"/>
     </row>
     <row r="162" spans="1:14">
       <c r="A162" s="7"/>
@@ -8278,7 +8292,7 @@
       <c r="K162" s="7"/>
       <c r="L162" s="7"/>
       <c r="M162" s="7"/>
-      <c r="N162" s="82"/>
+      <c r="N162" s="83"/>
     </row>
     <row r="163" spans="1:14">
       <c r="A163" s="7"/>
@@ -8293,7 +8307,7 @@
       <c r="K163" s="7"/>
       <c r="L163" s="7"/>
       <c r="M163" s="7"/>
-      <c r="N163" s="82"/>
+      <c r="N163" s="83"/>
     </row>
     <row r="164" spans="1:14">
       <c r="A164" s="7"/>
@@ -8308,7 +8322,7 @@
       <c r="K164" s="7"/>
       <c r="L164" s="7"/>
       <c r="M164" s="7"/>
-      <c r="N164" s="82"/>
+      <c r="N164" s="83"/>
     </row>
     <row r="165" spans="1:14">
       <c r="A165" s="7"/>
@@ -8323,7 +8337,7 @@
       <c r="K165" s="7"/>
       <c r="L165" s="7"/>
       <c r="M165" s="7"/>
-      <c r="N165" s="82"/>
+      <c r="N165" s="83"/>
     </row>
     <row r="166" spans="1:14">
       <c r="A166" s="7"/>
@@ -8338,7 +8352,7 @@
       <c r="K166" s="7"/>
       <c r="L166" s="7"/>
       <c r="M166" s="7"/>
-      <c r="N166" s="82"/>
+      <c r="N166" s="83"/>
     </row>
     <row r="167" spans="1:14">
       <c r="A167" s="7"/>
@@ -8353,7 +8367,7 @@
       <c r="K167" s="7"/>
       <c r="L167" s="7"/>
       <c r="M167" s="7"/>
-      <c r="N167" s="82"/>
+      <c r="N167" s="83"/>
     </row>
     <row r="168" spans="1:14">
       <c r="A168" s="7"/>
@@ -8368,7 +8382,7 @@
       <c r="K168" s="7"/>
       <c r="L168" s="7"/>
       <c r="M168" s="7"/>
-      <c r="N168" s="82"/>
+      <c r="N168" s="83"/>
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="7"/>
@@ -8383,7 +8397,7 @@
       <c r="K169" s="7"/>
       <c r="L169" s="7"/>
       <c r="M169" s="7"/>
-      <c r="N169" s="82"/>
+      <c r="N169" s="83"/>
     </row>
     <row r="170" spans="1:14">
       <c r="A170" s="7"/>
@@ -8398,7 +8412,7 @@
       <c r="K170" s="7"/>
       <c r="L170" s="7"/>
       <c r="M170" s="7"/>
-      <c r="N170" s="82"/>
+      <c r="N170" s="83"/>
     </row>
     <row r="171" spans="1:14">
       <c r="A171" s="7"/>
@@ -8413,7 +8427,7 @@
       <c r="K171" s="7"/>
       <c r="L171" s="7"/>
       <c r="M171" s="7"/>
-      <c r="N171" s="82"/>
+      <c r="N171" s="83"/>
     </row>
     <row r="172" spans="1:14">
       <c r="A172" s="7"/>
@@ -8428,7 +8442,7 @@
       <c r="K172" s="7"/>
       <c r="L172" s="7"/>
       <c r="M172" s="7"/>
-      <c r="N172" s="82"/>
+      <c r="N172" s="83"/>
     </row>
     <row r="173" spans="1:14">
       <c r="A173" s="7"/>
@@ -8443,7 +8457,7 @@
       <c r="K173" s="7"/>
       <c r="L173" s="7"/>
       <c r="M173" s="7"/>
-      <c r="N173" s="82"/>
+      <c r="N173" s="83"/>
     </row>
     <row r="174" spans="1:14">
       <c r="A174" s="7"/>
@@ -8458,7 +8472,7 @@
       <c r="K174" s="7"/>
       <c r="L174" s="7"/>
       <c r="M174" s="7"/>
-      <c r="N174" s="82"/>
+      <c r="N174" s="83"/>
     </row>
     <row r="175" spans="1:14">
       <c r="A175" s="7"/>
@@ -8473,7 +8487,7 @@
       <c r="K175" s="7"/>
       <c r="L175" s="7"/>
       <c r="M175" s="7"/>
-      <c r="N175" s="82"/>
+      <c r="N175" s="83"/>
     </row>
     <row r="176" spans="1:14">
       <c r="A176" s="7"/>
@@ -8488,7 +8502,7 @@
       <c r="K176" s="7"/>
       <c r="L176" s="7"/>
       <c r="M176" s="7"/>
-      <c r="N176" s="82"/>
+      <c r="N176" s="83"/>
     </row>
     <row r="177" spans="1:14">
       <c r="A177" s="7"/>
@@ -8503,7 +8517,7 @@
       <c r="K177" s="7"/>
       <c r="L177" s="7"/>
       <c r="M177" s="7"/>
-      <c r="N177" s="82"/>
+      <c r="N177" s="83"/>
     </row>
     <row r="178" spans="1:14">
       <c r="A178" s="7"/>
@@ -8518,7 +8532,7 @@
       <c r="K178" s="7"/>
       <c r="L178" s="7"/>
       <c r="M178" s="7"/>
-      <c r="N178" s="82"/>
+      <c r="N178" s="83"/>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="7"/>
@@ -8533,7 +8547,7 @@
       <c r="K179" s="7"/>
       <c r="L179" s="7"/>
       <c r="M179" s="7"/>
-      <c r="N179" s="82"/>
+      <c r="N179" s="83"/>
     </row>
     <row r="180" spans="1:14">
       <c r="A180" s="7"/>
@@ -8548,7 +8562,7 @@
       <c r="K180" s="7"/>
       <c r="L180" s="7"/>
       <c r="M180" s="7"/>
-      <c r="N180" s="82"/>
+      <c r="N180" s="83"/>
     </row>
     <row r="181" spans="1:14">
       <c r="A181" s="7"/>
@@ -8563,7 +8577,7 @@
       <c r="K181" s="7"/>
       <c r="L181" s="7"/>
       <c r="M181" s="7"/>
-      <c r="N181" s="82"/>
+      <c r="N181" s="83"/>
     </row>
     <row r="182" spans="1:14">
       <c r="A182" s="7"/>
@@ -8578,7 +8592,7 @@
       <c r="K182" s="7"/>
       <c r="L182" s="7"/>
       <c r="M182" s="7"/>
-      <c r="N182" s="82"/>
+      <c r="N182" s="83"/>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="7"/>
@@ -8593,7 +8607,7 @@
       <c r="K183" s="7"/>
       <c r="L183" s="7"/>
       <c r="M183" s="7"/>
-      <c r="N183" s="82"/>
+      <c r="N183" s="83"/>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="7"/>
@@ -8608,7 +8622,7 @@
       <c r="K184" s="7"/>
       <c r="L184" s="7"/>
       <c r="M184" s="7"/>
-      <c r="N184" s="82"/>
+      <c r="N184" s="83"/>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="7"/>
@@ -8623,7 +8637,7 @@
       <c r="K185" s="7"/>
       <c r="L185" s="7"/>
       <c r="M185" s="7"/>
-      <c r="N185" s="82"/>
+      <c r="N185" s="83"/>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="7"/>
@@ -8638,7 +8652,7 @@
       <c r="K186" s="7"/>
       <c r="L186" s="7"/>
       <c r="M186" s="7"/>
-      <c r="N186" s="82"/>
+      <c r="N186" s="83"/>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="7"/>
@@ -8653,7 +8667,7 @@
       <c r="K187" s="7"/>
       <c r="L187" s="7"/>
       <c r="M187" s="7"/>
-      <c r="N187" s="82"/>
+      <c r="N187" s="83"/>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="7"/>
@@ -8668,7 +8682,7 @@
       <c r="K188" s="7"/>
       <c r="L188" s="7"/>
       <c r="M188" s="7"/>
-      <c r="N188" s="82"/>
+      <c r="N188" s="83"/>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="7"/>
@@ -8683,7 +8697,7 @@
       <c r="K189" s="7"/>
       <c r="L189" s="7"/>
       <c r="M189" s="7"/>
-      <c r="N189" s="82"/>
+      <c r="N189" s="83"/>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="7"/>
@@ -8698,7 +8712,7 @@
       <c r="K190" s="7"/>
       <c r="L190" s="7"/>
       <c r="M190" s="7"/>
-      <c r="N190" s="82"/>
+      <c r="N190" s="83"/>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="7"/>
@@ -8713,7 +8727,7 @@
       <c r="K191" s="7"/>
       <c r="L191" s="7"/>
       <c r="M191" s="7"/>
-      <c r="N191" s="82"/>
+      <c r="N191" s="83"/>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="7"/>
@@ -8728,7 +8742,7 @@
       <c r="K192" s="7"/>
       <c r="L192" s="7"/>
       <c r="M192" s="7"/>
-      <c r="N192" s="82"/>
+      <c r="N192" s="83"/>
     </row>
     <row r="193" spans="1:14">
       <c r="A193" s="7"/>
@@ -8743,7 +8757,7 @@
       <c r="K193" s="7"/>
       <c r="L193" s="7"/>
       <c r="M193" s="7"/>
-      <c r="N193" s="82"/>
+      <c r="N193" s="83"/>
     </row>
     <row r="194" spans="1:14">
       <c r="A194" s="7"/>
@@ -8758,7 +8772,7 @@
       <c r="K194" s="7"/>
       <c r="L194" s="7"/>
       <c r="M194" s="7"/>
-      <c r="N194" s="82"/>
+      <c r="N194" s="83"/>
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="7"/>
@@ -8773,7 +8787,7 @@
       <c r="K195" s="7"/>
       <c r="L195" s="7"/>
       <c r="M195" s="7"/>
-      <c r="N195" s="82"/>
+      <c r="N195" s="83"/>
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="7"/>
@@ -8788,7 +8802,7 @@
       <c r="K196" s="7"/>
       <c r="L196" s="7"/>
       <c r="M196" s="7"/>
-      <c r="N196" s="82"/>
+      <c r="N196" s="83"/>
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="7"/>
@@ -8803,7 +8817,7 @@
       <c r="K197" s="7"/>
       <c r="L197" s="7"/>
       <c r="M197" s="7"/>
-      <c r="N197" s="82"/>
+      <c r="N197" s="83"/>
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="7"/>
@@ -8818,7 +8832,7 @@
       <c r="K198" s="7"/>
       <c r="L198" s="7"/>
       <c r="M198" s="7"/>
-      <c r="N198" s="82"/>
+      <c r="N198" s="83"/>
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="7"/>
@@ -8833,7 +8847,7 @@
       <c r="K199" s="7"/>
       <c r="L199" s="7"/>
       <c r="M199" s="7"/>
-      <c r="N199" s="82"/>
+      <c r="N199" s="83"/>
     </row>
     <row r="200" spans="1:14">
       <c r="A200" s="7"/>
@@ -8848,7 +8862,7 @@
       <c r="K200" s="7"/>
       <c r="L200" s="7"/>
       <c r="M200" s="7"/>
-      <c r="N200" s="82"/>
+      <c r="N200" s="83"/>
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="7"/>
@@ -8863,7 +8877,7 @@
       <c r="K201" s="7"/>
       <c r="L201" s="7"/>
       <c r="M201" s="7"/>
-      <c r="N201" s="82"/>
+      <c r="N201" s="83"/>
     </row>
     <row r="202" spans="1:14">
       <c r="A202" s="7"/>
@@ -8878,7 +8892,7 @@
       <c r="K202" s="7"/>
       <c r="L202" s="7"/>
       <c r="M202" s="7"/>
-      <c r="N202" s="82"/>
+      <c r="N202" s="83"/>
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="7"/>
@@ -8893,7 +8907,7 @@
       <c r="K203" s="7"/>
       <c r="L203" s="7"/>
       <c r="M203" s="7"/>
-      <c r="N203" s="82"/>
+      <c r="N203" s="83"/>
     </row>
     <row r="204" spans="1:14">
       <c r="A204" s="7"/>
@@ -8908,7 +8922,7 @@
       <c r="K204" s="7"/>
       <c r="L204" s="7"/>
       <c r="M204" s="7"/>
-      <c r="N204" s="82"/>
+      <c r="N204" s="83"/>
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="7"/>
@@ -8923,7 +8937,7 @@
       <c r="K205" s="7"/>
       <c r="L205" s="7"/>
       <c r="M205" s="7"/>
-      <c r="N205" s="82"/>
+      <c r="N205" s="83"/>
     </row>
     <row r="206" spans="1:14">
       <c r="A206" s="7"/>
@@ -8938,7 +8952,7 @@
       <c r="K206" s="7"/>
       <c r="L206" s="7"/>
       <c r="M206" s="7"/>
-      <c r="N206" s="82"/>
+      <c r="N206" s="83"/>
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="7"/>
@@ -8953,7 +8967,7 @@
       <c r="K207" s="7"/>
       <c r="L207" s="7"/>
       <c r="M207" s="7"/>
-      <c r="N207" s="82"/>
+      <c r="N207" s="83"/>
     </row>
     <row r="208" spans="1:14">
       <c r="A208" s="7"/>
@@ -8968,7 +8982,7 @@
       <c r="K208" s="7"/>
       <c r="L208" s="7"/>
       <c r="M208" s="7"/>
-      <c r="N208" s="82"/>
+      <c r="N208" s="83"/>
     </row>
     <row r="209" spans="1:14">
       <c r="A209" s="7"/>
@@ -8983,7 +8997,7 @@
       <c r="K209" s="7"/>
       <c r="L209" s="7"/>
       <c r="M209" s="7"/>
-      <c r="N209" s="82"/>
+      <c r="N209" s="83"/>
     </row>
     <row r="210" spans="1:14">
       <c r="A210" s="7"/>
@@ -8998,7 +9012,7 @@
       <c r="K210" s="7"/>
       <c r="L210" s="7"/>
       <c r="M210" s="7"/>
-      <c r="N210" s="82"/>
+      <c r="N210" s="83"/>
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="7"/>
@@ -9013,7 +9027,7 @@
       <c r="K211" s="7"/>
       <c r="L211" s="7"/>
       <c r="M211" s="7"/>
-      <c r="N211" s="82"/>
+      <c r="N211" s="83"/>
     </row>
     <row r="212" spans="1:14">
       <c r="A212" s="7"/>
@@ -9028,7 +9042,7 @@
       <c r="K212" s="7"/>
       <c r="L212" s="7"/>
       <c r="M212" s="7"/>
-      <c r="N212" s="82"/>
+      <c r="N212" s="83"/>
     </row>
     <row r="213" spans="1:14">
       <c r="A213" s="7"/>
@@ -9043,7 +9057,7 @@
       <c r="K213" s="7"/>
       <c r="L213" s="7"/>
       <c r="M213" s="7"/>
-      <c r="N213" s="82"/>
+      <c r="N213" s="83"/>
     </row>
     <row r="214" spans="1:14">
       <c r="A214" s="7"/>
@@ -9058,7 +9072,7 @@
       <c r="K214" s="7"/>
       <c r="L214" s="7"/>
       <c r="M214" s="7"/>
-      <c r="N214" s="82"/>
+      <c r="N214" s="83"/>
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="7"/>
@@ -9073,7 +9087,7 @@
       <c r="K215" s="7"/>
       <c r="L215" s="7"/>
       <c r="M215" s="7"/>
-      <c r="N215" s="82"/>
+      <c r="N215" s="83"/>
     </row>
     <row r="216" spans="1:14">
       <c r="A216" s="7"/>
@@ -9088,7 +9102,7 @@
       <c r="K216" s="7"/>
       <c r="L216" s="7"/>
       <c r="M216" s="7"/>
-      <c r="N216" s="82"/>
+      <c r="N216" s="83"/>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="7"/>
@@ -9103,7 +9117,7 @@
       <c r="K217" s="7"/>
       <c r="L217" s="7"/>
       <c r="M217" s="7"/>
-      <c r="N217" s="82"/>
+      <c r="N217" s="83"/>
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="7"/>
@@ -9118,7 +9132,7 @@
       <c r="K218" s="7"/>
       <c r="L218" s="7"/>
       <c r="M218" s="7"/>
-      <c r="N218" s="82"/>
+      <c r="N218" s="83"/>
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="7"/>
@@ -9133,7 +9147,7 @@
       <c r="K219" s="7"/>
       <c r="L219" s="7"/>
       <c r="M219" s="7"/>
-      <c r="N219" s="82"/>
+      <c r="N219" s="83"/>
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="7"/>
@@ -9148,7 +9162,7 @@
       <c r="K220" s="7"/>
       <c r="L220" s="7"/>
       <c r="M220" s="7"/>
-      <c r="N220" s="82"/>
+      <c r="N220" s="83"/>
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="7"/>
@@ -9163,7 +9177,7 @@
       <c r="K221" s="7"/>
       <c r="L221" s="7"/>
       <c r="M221" s="7"/>
-      <c r="N221" s="82"/>
+      <c r="N221" s="83"/>
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="7"/>
@@ -9178,7 +9192,7 @@
       <c r="K222" s="7"/>
       <c r="L222" s="7"/>
       <c r="M222" s="7"/>
-      <c r="N222" s="82"/>
+      <c r="N222" s="83"/>
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="7"/>
@@ -9193,7 +9207,7 @@
       <c r="K223" s="7"/>
       <c r="L223" s="7"/>
       <c r="M223" s="7"/>
-      <c r="N223" s="82"/>
+      <c r="N223" s="83"/>
     </row>
     <row r="224" spans="1:14">
       <c r="A224" s="7"/>
@@ -9208,7 +9222,7 @@
       <c r="K224" s="7"/>
       <c r="L224" s="7"/>
       <c r="M224" s="7"/>
-      <c r="N224" s="82"/>
+      <c r="N224" s="83"/>
     </row>
     <row r="225" spans="1:14">
       <c r="A225" s="7"/>
@@ -9223,7 +9237,7 @@
       <c r="K225" s="7"/>
       <c r="L225" s="7"/>
       <c r="M225" s="7"/>
-      <c r="N225" s="82"/>
+      <c r="N225" s="83"/>
     </row>
     <row r="226" spans="1:14">
       <c r="A226" s="7"/>
@@ -9238,7 +9252,7 @@
       <c r="K226" s="7"/>
       <c r="L226" s="7"/>
       <c r="M226" s="7"/>
-      <c r="N226" s="82"/>
+      <c r="N226" s="83"/>
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="7"/>
@@ -9253,7 +9267,7 @@
       <c r="K227" s="7"/>
       <c r="L227" s="7"/>
       <c r="M227" s="7"/>
-      <c r="N227" s="82"/>
+      <c r="N227" s="83"/>
     </row>
     <row r="228" spans="1:14">
       <c r="A228" s="7"/>
@@ -9268,7 +9282,7 @@
       <c r="K228" s="7"/>
       <c r="L228" s="7"/>
       <c r="M228" s="7"/>
-      <c r="N228" s="82"/>
+      <c r="N228" s="83"/>
     </row>
     <row r="229" spans="1:14">
       <c r="A229" s="7"/>
@@ -9283,7 +9297,7 @@
       <c r="K229" s="7"/>
       <c r="L229" s="7"/>
       <c r="M229" s="7"/>
-      <c r="N229" s="82"/>
+      <c r="N229" s="83"/>
     </row>
     <row r="230" spans="1:14">
       <c r="A230" s="7"/>
@@ -9298,7 +9312,7 @@
       <c r="K230" s="7"/>
       <c r="L230" s="7"/>
       <c r="M230" s="7"/>
-      <c r="N230" s="82"/>
+      <c r="N230" s="83"/>
     </row>
     <row r="231" spans="1:14">
       <c r="A231" s="7"/>
@@ -9313,7 +9327,7 @@
       <c r="K231" s="7"/>
       <c r="L231" s="7"/>
       <c r="M231" s="7"/>
-      <c r="N231" s="82"/>
+      <c r="N231" s="83"/>
     </row>
     <row r="232" spans="1:14">
       <c r="A232" s="7"/>
@@ -9328,7 +9342,7 @@
       <c r="K232" s="7"/>
       <c r="L232" s="7"/>
       <c r="M232" s="7"/>
-      <c r="N232" s="82"/>
+      <c r="N232" s="83"/>
     </row>
     <row r="233" spans="1:14">
       <c r="A233" s="7"/>
@@ -9343,7 +9357,7 @@
       <c r="K233" s="7"/>
       <c r="L233" s="7"/>
       <c r="M233" s="7"/>
-      <c r="N233" s="82"/>
+      <c r="N233" s="83"/>
     </row>
     <row r="234" spans="1:14">
       <c r="A234" s="7"/>
@@ -9358,7 +9372,7 @@
       <c r="K234" s="7"/>
       <c r="L234" s="7"/>
       <c r="M234" s="7"/>
-      <c r="N234" s="82"/>
+      <c r="N234" s="83"/>
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="7"/>
@@ -9373,7 +9387,7 @@
       <c r="K235" s="7"/>
       <c r="L235" s="7"/>
       <c r="M235" s="7"/>
-      <c r="N235" s="82"/>
+      <c r="N235" s="83"/>
     </row>
     <row r="236" spans="1:14">
       <c r="A236" s="7"/>
@@ -9388,7 +9402,7 @@
       <c r="K236" s="7"/>
       <c r="L236" s="7"/>
       <c r="M236" s="7"/>
-      <c r="N236" s="82"/>
+      <c r="N236" s="83"/>
     </row>
     <row r="237" spans="1:14">
       <c r="A237" s="7"/>
@@ -9403,7 +9417,7 @@
       <c r="K237" s="7"/>
       <c r="L237" s="7"/>
       <c r="M237" s="7"/>
-      <c r="N237" s="82"/>
+      <c r="N237" s="83"/>
     </row>
     <row r="238" spans="1:14">
       <c r="A238" s="7"/>
@@ -9418,7 +9432,7 @@
       <c r="K238" s="7"/>
       <c r="L238" s="7"/>
       <c r="M238" s="7"/>
-      <c r="N238" s="82"/>
+      <c r="N238" s="83"/>
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="7"/>
@@ -9433,7 +9447,7 @@
       <c r="K239" s="7"/>
       <c r="L239" s="7"/>
       <c r="M239" s="7"/>
-      <c r="N239" s="82"/>
+      <c r="N239" s="83"/>
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="7"/>
@@ -9448,7 +9462,7 @@
       <c r="K240" s="7"/>
       <c r="L240" s="7"/>
       <c r="M240" s="7"/>
-      <c r="N240" s="82"/>
+      <c r="N240" s="83"/>
     </row>
     <row r="241" spans="1:14">
       <c r="A241" s="7"/>
@@ -9463,7 +9477,7 @@
       <c r="K241" s="7"/>
       <c r="L241" s="7"/>
       <c r="M241" s="7"/>
-      <c r="N241" s="82"/>
+      <c r="N241" s="83"/>
     </row>
     <row r="242" spans="1:14">
       <c r="A242" s="7"/>
@@ -9478,7 +9492,7 @@
       <c r="K242" s="7"/>
       <c r="L242" s="7"/>
       <c r="M242" s="7"/>
-      <c r="N242" s="82"/>
+      <c r="N242" s="83"/>
     </row>
     <row r="243" spans="1:14">
       <c r="A243" s="7"/>
@@ -9493,7 +9507,7 @@
       <c r="K243" s="7"/>
       <c r="L243" s="7"/>
       <c r="M243" s="7"/>
-      <c r="N243" s="82"/>
+      <c r="N243" s="83"/>
     </row>
     <row r="244" spans="1:14">
       <c r="A244" s="7"/>
@@ -9508,7 +9522,7 @@
       <c r="K244" s="7"/>
       <c r="L244" s="7"/>
       <c r="M244" s="7"/>
-      <c r="N244" s="82"/>
+      <c r="N244" s="83"/>
     </row>
     <row r="245" spans="1:14">
       <c r="A245" s="7"/>
@@ -9523,7 +9537,7 @@
       <c r="K245" s="7"/>
       <c r="L245" s="7"/>
       <c r="M245" s="7"/>
-      <c r="N245" s="82"/>
+      <c r="N245" s="83"/>
     </row>
     <row r="246" spans="1:14">
       <c r="A246" s="7"/>
@@ -9538,7 +9552,7 @@
       <c r="K246" s="7"/>
       <c r="L246" s="7"/>
       <c r="M246" s="7"/>
-      <c r="N246" s="82"/>
+      <c r="N246" s="83"/>
     </row>
     <row r="247" spans="1:14">
       <c r="A247" s="7"/>
@@ -9553,7 +9567,7 @@
       <c r="K247" s="7"/>
       <c r="L247" s="7"/>
       <c r="M247" s="7"/>
-      <c r="N247" s="82"/>
+      <c r="N247" s="83"/>
     </row>
     <row r="248" spans="1:14">
       <c r="A248" s="7"/>
@@ -9568,7 +9582,7 @@
       <c r="K248" s="7"/>
       <c r="L248" s="7"/>
       <c r="M248" s="7"/>
-      <c r="N248" s="82"/>
+      <c r="N248" s="83"/>
     </row>
     <row r="249" spans="1:14">
       <c r="A249" s="7"/>
@@ -9583,7 +9597,7 @@
       <c r="K249" s="7"/>
       <c r="L249" s="7"/>
       <c r="M249" s="7"/>
-      <c r="N249" s="82"/>
+      <c r="N249" s="83"/>
     </row>
     <row r="250" spans="1:14">
       <c r="A250" s="7"/>
@@ -9598,7 +9612,7 @@
       <c r="K250" s="7"/>
       <c r="L250" s="7"/>
       <c r="M250" s="7"/>
-      <c r="N250" s="82"/>
+      <c r="N250" s="83"/>
     </row>
     <row r="251" spans="1:14">
       <c r="A251" s="7"/>
@@ -9613,7 +9627,7 @@
       <c r="K251" s="7"/>
       <c r="L251" s="7"/>
       <c r="M251" s="7"/>
-      <c r="N251" s="82"/>
+      <c r="N251" s="83"/>
     </row>
     <row r="252" spans="1:14">
       <c r="A252" s="7"/>
@@ -9628,7 +9642,7 @@
       <c r="K252" s="7"/>
       <c r="L252" s="7"/>
       <c r="M252" s="7"/>
-      <c r="N252" s="82"/>
+      <c r="N252" s="83"/>
     </row>
     <row r="253" spans="1:14">
       <c r="A253" s="7"/>
@@ -9643,7 +9657,7 @@
       <c r="K253" s="7"/>
       <c r="L253" s="7"/>
       <c r="M253" s="7"/>
-      <c r="N253" s="82"/>
+      <c r="N253" s="83"/>
     </row>
     <row r="254" spans="1:14">
       <c r="A254" s="7"/>
@@ -9658,7 +9672,7 @@
       <c r="K254" s="7"/>
       <c r="L254" s="7"/>
       <c r="M254" s="7"/>
-      <c r="N254" s="82"/>
+      <c r="N254" s="83"/>
     </row>
     <row r="255" spans="1:14">
       <c r="A255" s="7"/>
@@ -9673,7 +9687,7 @@
       <c r="K255" s="7"/>
       <c r="L255" s="7"/>
       <c r="M255" s="7"/>
-      <c r="N255" s="82"/>
+      <c r="N255" s="83"/>
     </row>
     <row r="256" spans="1:14">
       <c r="A256" s="7"/>
@@ -9688,7 +9702,7 @@
       <c r="K256" s="7"/>
       <c r="L256" s="7"/>
       <c r="M256" s="7"/>
-      <c r="N256" s="82"/>
+      <c r="N256" s="83"/>
     </row>
     <row r="257" spans="1:14">
       <c r="A257" s="7"/>
@@ -9703,7 +9717,7 @@
       <c r="K257" s="7"/>
       <c r="L257" s="7"/>
       <c r="M257" s="7"/>
-      <c r="N257" s="82"/>
+      <c r="N257" s="83"/>
     </row>
     <row r="258" spans="1:14">
       <c r="A258" s="7"/>
@@ -9718,7 +9732,7 @@
       <c r="K258" s="7"/>
       <c r="L258" s="7"/>
       <c r="M258" s="7"/>
-      <c r="N258" s="82"/>
+      <c r="N258" s="83"/>
     </row>
     <row r="259" spans="1:14">
       <c r="A259" s="7"/>
@@ -9733,7 +9747,7 @@
       <c r="K259" s="7"/>
       <c r="L259" s="7"/>
       <c r="M259" s="7"/>
-      <c r="N259" s="82"/>
+      <c r="N259" s="83"/>
     </row>
     <row r="260" spans="1:14">
       <c r="A260" s="7"/>
@@ -9748,7 +9762,7 @@
       <c r="K260" s="7"/>
       <c r="L260" s="7"/>
       <c r="M260" s="7"/>
-      <c r="N260" s="82"/>
+      <c r="N260" s="83"/>
     </row>
     <row r="261" spans="1:14">
       <c r="A261" s="7"/>
@@ -9763,7 +9777,7 @@
       <c r="K261" s="7"/>
       <c r="L261" s="7"/>
       <c r="M261" s="7"/>
-      <c r="N261" s="82"/>
+      <c r="N261" s="83"/>
     </row>
     <row r="262" spans="1:14">
       <c r="A262" s="7"/>
@@ -9778,7 +9792,7 @@
       <c r="K262" s="7"/>
       <c r="L262" s="7"/>
       <c r="M262" s="7"/>
-      <c r="N262" s="82"/>
+      <c r="N262" s="83"/>
     </row>
     <row r="263" spans="1:14">
       <c r="A263" s="7"/>
@@ -9793,7 +9807,7 @@
       <c r="K263" s="7"/>
       <c r="L263" s="7"/>
       <c r="M263" s="7"/>
-      <c r="N263" s="82"/>
+      <c r="N263" s="83"/>
     </row>
     <row r="264" spans="1:14">
       <c r="A264" s="7"/>
@@ -9808,7 +9822,7 @@
       <c r="K264" s="7"/>
       <c r="L264" s="7"/>
       <c r="M264" s="7"/>
-      <c r="N264" s="82"/>
+      <c r="N264" s="83"/>
     </row>
     <row r="265" spans="1:14">
       <c r="A265" s="7"/>
@@ -9823,7 +9837,7 @@
       <c r="K265" s="7"/>
       <c r="L265" s="7"/>
       <c r="M265" s="7"/>
-      <c r="N265" s="82"/>
+      <c r="N265" s="83"/>
     </row>
     <row r="266" spans="1:14">
       <c r="A266" s="7"/>
@@ -9838,7 +9852,7 @@
       <c r="K266" s="7"/>
       <c r="L266" s="7"/>
       <c r="M266" s="7"/>
-      <c r="N266" s="82"/>
+      <c r="N266" s="83"/>
     </row>
     <row r="267" spans="1:14">
       <c r="A267" s="7"/>
@@ -9853,7 +9867,7 @@
       <c r="K267" s="7"/>
       <c r="L267" s="7"/>
       <c r="M267" s="7"/>
-      <c r="N267" s="82"/>
+      <c r="N267" s="83"/>
     </row>
     <row r="268" spans="1:14">
       <c r="A268" s="7"/>
@@ -9868,7 +9882,7 @@
       <c r="K268" s="7"/>
       <c r="L268" s="7"/>
       <c r="M268" s="7"/>
-      <c r="N268" s="82"/>
+      <c r="N268" s="83"/>
     </row>
     <row r="269" spans="1:14">
       <c r="A269" s="7"/>
@@ -9883,7 +9897,7 @@
       <c r="K269" s="7"/>
       <c r="L269" s="7"/>
       <c r="M269" s="7"/>
-      <c r="N269" s="82"/>
+      <c r="N269" s="83"/>
     </row>
     <row r="270" spans="1:14">
       <c r="A270" s="7"/>
@@ -9898,7 +9912,7 @@
       <c r="K270" s="7"/>
       <c r="L270" s="7"/>
       <c r="M270" s="7"/>
-      <c r="N270" s="82"/>
+      <c r="N270" s="83"/>
     </row>
     <row r="271" spans="1:14">
       <c r="A271" s="7"/>
@@ -9913,7 +9927,7 @@
       <c r="K271" s="7"/>
       <c r="L271" s="7"/>
       <c r="M271" s="7"/>
-      <c r="N271" s="82"/>
+      <c r="N271" s="83"/>
     </row>
     <row r="272" spans="1:14">
       <c r="A272" s="7"/>
@@ -9928,7 +9942,7 @@
       <c r="K272" s="7"/>
       <c r="L272" s="7"/>
       <c r="M272" s="7"/>
-      <c r="N272" s="82"/>
+      <c r="N272" s="83"/>
     </row>
     <row r="273" spans="1:14">
       <c r="A273" s="7"/>
@@ -9943,7 +9957,7 @@
       <c r="K273" s="7"/>
       <c r="L273" s="7"/>
       <c r="M273" s="7"/>
-      <c r="N273" s="82"/>
+      <c r="N273" s="83"/>
     </row>
     <row r="274" spans="1:14">
       <c r="A274" s="7"/>
@@ -9958,7 +9972,7 @@
       <c r="K274" s="7"/>
       <c r="L274" s="7"/>
       <c r="M274" s="7"/>
-      <c r="N274" s="82"/>
+      <c r="N274" s="83"/>
     </row>
     <row r="275" spans="1:14">
       <c r="A275" s="7"/>
@@ -9973,7 +9987,7 @@
       <c r="K275" s="7"/>
       <c r="L275" s="7"/>
       <c r="M275" s="7"/>
-      <c r="N275" s="82"/>
+      <c r="N275" s="83"/>
     </row>
     <row r="276" spans="1:14">
       <c r="A276" s="7"/>
@@ -9988,7 +10002,7 @@
       <c r="K276" s="7"/>
       <c r="L276" s="7"/>
       <c r="M276" s="7"/>
-      <c r="N276" s="82"/>
+      <c r="N276" s="83"/>
     </row>
     <row r="277" spans="1:14">
       <c r="A277" s="7"/>
@@ -10003,7 +10017,7 @@
       <c r="K277" s="7"/>
       <c r="L277" s="7"/>
       <c r="M277" s="7"/>
-      <c r="N277" s="82"/>
+      <c r="N277" s="83"/>
     </row>
     <row r="278" spans="1:14">
       <c r="A278" s="7"/>
@@ -10018,7 +10032,7 @@
       <c r="K278" s="7"/>
       <c r="L278" s="7"/>
       <c r="M278" s="7"/>
-      <c r="N278" s="82"/>
+      <c r="N278" s="83"/>
     </row>
     <row r="279" spans="1:14">
       <c r="A279" s="7"/>
@@ -10033,7 +10047,7 @@
       <c r="K279" s="7"/>
       <c r="L279" s="7"/>
       <c r="M279" s="7"/>
-      <c r="N279" s="82"/>
+      <c r="N279" s="83"/>
     </row>
     <row r="280" spans="1:14">
       <c r="A280" s="7"/>
@@ -10048,7 +10062,7 @@
       <c r="K280" s="7"/>
       <c r="L280" s="7"/>
       <c r="M280" s="7"/>
-      <c r="N280" s="82"/>
+      <c r="N280" s="83"/>
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="7"/>
@@ -10063,7 +10077,7 @@
       <c r="K281" s="7"/>
       <c r="L281" s="7"/>
       <c r="M281" s="7"/>
-      <c r="N281" s="82"/>
+      <c r="N281" s="83"/>
     </row>
     <row r="282" spans="1:14">
       <c r="A282" s="7"/>
@@ -10078,7 +10092,7 @@
       <c r="K282" s="7"/>
       <c r="L282" s="7"/>
       <c r="M282" s="7"/>
-      <c r="N282" s="82"/>
+      <c r="N282" s="83"/>
     </row>
     <row r="283" spans="1:14">
       <c r="A283" s="7"/>
@@ -10093,7 +10107,7 @@
       <c r="K283" s="7"/>
       <c r="L283" s="7"/>
       <c r="M283" s="7"/>
-      <c r="N283" s="82"/>
+      <c r="N283" s="83"/>
     </row>
     <row r="284" spans="1:14">
       <c r="A284" s="7"/>
@@ -10108,7 +10122,7 @@
       <c r="K284" s="7"/>
       <c r="L284" s="7"/>
       <c r="M284" s="7"/>
-      <c r="N284" s="82"/>
+      <c r="N284" s="83"/>
     </row>
     <row r="285" spans="1:14">
       <c r="A285" s="7"/>
@@ -10123,7 +10137,7 @@
       <c r="K285" s="7"/>
       <c r="L285" s="7"/>
       <c r="M285" s="7"/>
-      <c r="N285" s="82"/>
+      <c r="N285" s="83"/>
     </row>
     <row r="286" spans="1:14">
       <c r="A286" s="7"/>
@@ -10138,7 +10152,7 @@
       <c r="K286" s="7"/>
       <c r="L286" s="7"/>
       <c r="M286" s="7"/>
-      <c r="N286" s="82"/>
+      <c r="N286" s="83"/>
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="7"/>
@@ -10153,7 +10167,7 @@
       <c r="K287" s="7"/>
       <c r="L287" s="7"/>
       <c r="M287" s="7"/>
-      <c r="N287" s="82"/>
+      <c r="N287" s="83"/>
     </row>
     <row r="288" spans="1:14">
       <c r="A288" s="7"/>
@@ -10168,7 +10182,7 @@
       <c r="K288" s="7"/>
       <c r="L288" s="7"/>
       <c r="M288" s="7"/>
-      <c r="N288" s="82"/>
+      <c r="N288" s="83"/>
     </row>
     <row r="289" spans="1:14">
       <c r="A289" s="7"/>
@@ -10183,7 +10197,7 @@
       <c r="K289" s="7"/>
       <c r="L289" s="7"/>
       <c r="M289" s="7"/>
-      <c r="N289" s="82"/>
+      <c r="N289" s="83"/>
     </row>
     <row r="290" spans="1:14">
       <c r="A290" s="7"/>
@@ -10198,7 +10212,7 @@
       <c r="K290" s="7"/>
       <c r="L290" s="7"/>
       <c r="M290" s="7"/>
-      <c r="N290" s="82"/>
+      <c r="N290" s="83"/>
     </row>
     <row r="291" spans="1:14">
       <c r="A291" s="7"/>
@@ -10213,7 +10227,7 @@
       <c r="K291" s="7"/>
       <c r="L291" s="7"/>
       <c r="M291" s="7"/>
-      <c r="N291" s="82"/>
+      <c r="N291" s="83"/>
     </row>
     <row r="292" spans="1:14">
       <c r="A292" s="7"/>
@@ -10228,7 +10242,7 @@
       <c r="K292" s="7"/>
       <c r="L292" s="7"/>
       <c r="M292" s="7"/>
-      <c r="N292" s="82"/>
+      <c r="N292" s="83"/>
     </row>
     <row r="293" spans="1:14">
       <c r="A293" s="7"/>
@@ -10243,7 +10257,7 @@
       <c r="K293" s="7"/>
       <c r="L293" s="7"/>
       <c r="M293" s="7"/>
-      <c r="N293" s="82"/>
+      <c r="N293" s="83"/>
     </row>
     <row r="294" spans="1:14">
       <c r="A294" s="7"/>
@@ -10258,7 +10272,7 @@
       <c r="K294" s="7"/>
       <c r="L294" s="7"/>
       <c r="M294" s="7"/>
-      <c r="N294" s="82"/>
+      <c r="N294" s="83"/>
     </row>
     <row r="295" spans="1:14">
       <c r="A295" s="7"/>
@@ -10273,7 +10287,7 @@
       <c r="K295" s="7"/>
       <c r="L295" s="7"/>
       <c r="M295" s="7"/>
-      <c r="N295" s="82"/>
+      <c r="N295" s="83"/>
     </row>
     <row r="296" spans="1:14">
       <c r="A296" s="7"/>
@@ -10288,7 +10302,7 @@
       <c r="K296" s="7"/>
       <c r="L296" s="7"/>
       <c r="M296" s="7"/>
-      <c r="N296" s="82"/>
+      <c r="N296" s="83"/>
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="7"/>
@@ -10303,7 +10317,7 @@
       <c r="K297" s="7"/>
       <c r="L297" s="7"/>
       <c r="M297" s="7"/>
-      <c r="N297" s="82"/>
+      <c r="N297" s="83"/>
     </row>
     <row r="298" spans="1:14">
       <c r="A298" s="7"/>
@@ -10318,7 +10332,7 @@
       <c r="K298" s="7"/>
       <c r="L298" s="7"/>
       <c r="M298" s="7"/>
-      <c r="N298" s="82"/>
+      <c r="N298" s="83"/>
     </row>
     <row r="299" spans="1:14">
       <c r="A299" s="7"/>
@@ -10333,7 +10347,7 @@
       <c r="K299" s="7"/>
       <c r="L299" s="7"/>
       <c r="M299" s="7"/>
-      <c r="N299" s="82"/>
+      <c r="N299" s="83"/>
     </row>
     <row r="300" spans="1:14">
       <c r="A300" s="7"/>
@@ -10348,7 +10362,7 @@
       <c r="K300" s="7"/>
       <c r="L300" s="7"/>
       <c r="M300" s="7"/>
-      <c r="N300" s="82"/>
+      <c r="N300" s="83"/>
     </row>
     <row r="301" spans="1:14">
       <c r="A301" s="7"/>
@@ -10363,7 +10377,7 @@
       <c r="K301" s="7"/>
       <c r="L301" s="7"/>
       <c r="M301" s="7"/>
-      <c r="N301" s="82"/>
+      <c r="N301" s="83"/>
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="7"/>
@@ -10378,7 +10392,7 @@
       <c r="K302" s="7"/>
       <c r="L302" s="7"/>
       <c r="M302" s="7"/>
-      <c r="N302" s="82"/>
+      <c r="N302" s="83"/>
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="7"/>
@@ -10393,7 +10407,7 @@
       <c r="K303" s="7"/>
       <c r="L303" s="7"/>
       <c r="M303" s="7"/>
-      <c r="N303" s="82"/>
+      <c r="N303" s="83"/>
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="7"/>
@@ -10408,7 +10422,7 @@
       <c r="K304" s="7"/>
       <c r="L304" s="7"/>
       <c r="M304" s="7"/>
-      <c r="N304" s="82"/>
+      <c r="N304" s="83"/>
     </row>
     <row r="305" spans="1:14">
       <c r="A305" s="7"/>
@@ -10423,7 +10437,7 @@
       <c r="K305" s="7"/>
       <c r="L305" s="7"/>
       <c r="M305" s="7"/>
-      <c r="N305" s="82"/>
+      <c r="N305" s="83"/>
     </row>
     <row r="306" spans="1:14">
       <c r="A306" s="7"/>
@@ -10438,7 +10452,7 @@
       <c r="K306" s="7"/>
       <c r="L306" s="7"/>
       <c r="M306" s="7"/>
-      <c r="N306" s="82"/>
+      <c r="N306" s="83"/>
     </row>
     <row r="307" spans="1:14">
       <c r="A307" s="7"/>
@@ -10453,7 +10467,7 @@
       <c r="K307" s="7"/>
       <c r="L307" s="7"/>
       <c r="M307" s="7"/>
-      <c r="N307" s="82"/>
+      <c r="N307" s="83"/>
     </row>
     <row r="308" spans="1:14">
       <c r="A308" s="7"/>
@@ -10468,7 +10482,7 @@
       <c r="K308" s="7"/>
       <c r="L308" s="7"/>
       <c r="M308" s="7"/>
-      <c r="N308" s="82"/>
+      <c r="N308" s="83"/>
     </row>
     <row r="309" spans="1:14">
       <c r="A309" s="7"/>
@@ -10483,7 +10497,7 @@
       <c r="K309" s="7"/>
       <c r="L309" s="7"/>
       <c r="M309" s="7"/>
-      <c r="N309" s="82"/>
+      <c r="N309" s="83"/>
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="7"/>
@@ -10498,7 +10512,7 @@
       <c r="K310" s="7"/>
       <c r="L310" s="7"/>
       <c r="M310" s="7"/>
-      <c r="N310" s="82"/>
+      <c r="N310" s="83"/>
     </row>
     <row r="311" spans="1:14">
       <c r="A311" s="7"/>
@@ -10513,7 +10527,7 @@
       <c r="K311" s="7"/>
       <c r="L311" s="7"/>
       <c r="M311" s="7"/>
-      <c r="N311" s="82"/>
+      <c r="N311" s="83"/>
     </row>
     <row r="312" spans="1:14">
       <c r="A312" s="7"/>
@@ -10528,7 +10542,7 @@
       <c r="K312" s="7"/>
       <c r="L312" s="7"/>
       <c r="M312" s="7"/>
-      <c r="N312" s="82"/>
+      <c r="N312" s="83"/>
     </row>
     <row r="313" spans="1:14">
       <c r="A313" s="7"/>
@@ -10543,7 +10557,7 @@
       <c r="K313" s="7"/>
       <c r="L313" s="7"/>
       <c r="M313" s="7"/>
-      <c r="N313" s="82"/>
+      <c r="N313" s="83"/>
     </row>
     <row r="314" spans="1:14">
       <c r="A314" s="7"/>
@@ -10558,7 +10572,7 @@
       <c r="K314" s="7"/>
       <c r="L314" s="7"/>
       <c r="M314" s="7"/>
-      <c r="N314" s="82"/>
+      <c r="N314" s="83"/>
     </row>
     <row r="315" spans="1:14">
       <c r="A315" s="7"/>
@@ -10573,7 +10587,7 @@
       <c r="K315" s="7"/>
       <c r="L315" s="7"/>
       <c r="M315" s="7"/>
-      <c r="N315" s="82"/>
+      <c r="N315" s="83"/>
     </row>
     <row r="316" spans="1:14">
       <c r="A316" s="7"/>
@@ -10588,7 +10602,7 @@
       <c r="K316" s="7"/>
       <c r="L316" s="7"/>
       <c r="M316" s="7"/>
-      <c r="N316" s="82"/>
+      <c r="N316" s="83"/>
     </row>
     <row r="317" spans="1:14">
       <c r="A317" s="7"/>
@@ -10603,7 +10617,7 @@
       <c r="K317" s="7"/>
       <c r="L317" s="7"/>
       <c r="M317" s="7"/>
-      <c r="N317" s="82"/>
+      <c r="N317" s="83"/>
     </row>
     <row r="318" spans="1:14">
       <c r="A318" s="7"/>
@@ -10618,7 +10632,7 @@
       <c r="K318" s="7"/>
       <c r="L318" s="7"/>
       <c r="M318" s="7"/>
-      <c r="N318" s="82"/>
+      <c r="N318" s="83"/>
     </row>
     <row r="319" spans="1:14">
       <c r="A319" s="7"/>
@@ -10633,7 +10647,7 @@
       <c r="K319" s="7"/>
       <c r="L319" s="7"/>
       <c r="M319" s="7"/>
-      <c r="N319" s="82"/>
+      <c r="N319" s="83"/>
     </row>
     <row r="320" spans="1:14">
       <c r="A320" s="7"/>
@@ -10648,7 +10662,7 @@
       <c r="K320" s="7"/>
       <c r="L320" s="7"/>
       <c r="M320" s="7"/>
-      <c r="N320" s="82"/>
+      <c r="N320" s="83"/>
     </row>
     <row r="321" spans="1:14">
       <c r="A321" s="7"/>
@@ -10663,7 +10677,7 @@
       <c r="K321" s="7"/>
       <c r="L321" s="7"/>
       <c r="M321" s="7"/>
-      <c r="N321" s="82"/>
+      <c r="N321" s="83"/>
     </row>
     <row r="322" spans="1:14">
       <c r="A322" s="7"/>
@@ -10678,7 +10692,7 @@
       <c r="K322" s="7"/>
       <c r="L322" s="7"/>
       <c r="M322" s="7"/>
-      <c r="N322" s="82"/>
+      <c r="N322" s="83"/>
     </row>
     <row r="323" spans="1:14">
       <c r="A323" s="7"/>
@@ -10693,7 +10707,7 @@
       <c r="K323" s="7"/>
       <c r="L323" s="7"/>
       <c r="M323" s="7"/>
-      <c r="N323" s="82"/>
+      <c r="N323" s="83"/>
     </row>
     <row r="324" spans="1:14">
       <c r="A324" s="7"/>
@@ -10708,7 +10722,7 @@
       <c r="K324" s="7"/>
       <c r="L324" s="7"/>
       <c r="M324" s="7"/>
-      <c r="N324" s="82"/>
+      <c r="N324" s="83"/>
     </row>
     <row r="325" spans="1:14">
       <c r="A325" s="7"/>
@@ -10723,7 +10737,7 @@
       <c r="K325" s="7"/>
       <c r="L325" s="7"/>
       <c r="M325" s="7"/>
-      <c r="N325" s="82"/>
+      <c r="N325" s="83"/>
     </row>
     <row r="326" spans="1:14">
       <c r="A326" s="7"/>
@@ -10738,7 +10752,7 @@
       <c r="K326" s="7"/>
       <c r="L326" s="7"/>
       <c r="M326" s="7"/>
-      <c r="N326" s="82"/>
+      <c r="N326" s="83"/>
     </row>
     <row r="327" spans="1:14">
       <c r="A327" s="7"/>
@@ -10753,7 +10767,7 @@
       <c r="K327" s="7"/>
       <c r="L327" s="7"/>
       <c r="M327" s="7"/>
-      <c r="N327" s="82"/>
+      <c r="N327" s="83"/>
     </row>
     <row r="328" spans="1:14">
       <c r="A328" s="7"/>
@@ -10768,7 +10782,7 @@
       <c r="K328" s="7"/>
       <c r="L328" s="7"/>
       <c r="M328" s="7"/>
-      <c r="N328" s="82"/>
+      <c r="N328" s="83"/>
     </row>
     <row r="329" spans="1:14">
       <c r="A329" s="7"/>
@@ -10783,7 +10797,7 @@
       <c r="K329" s="7"/>
       <c r="L329" s="7"/>
       <c r="M329" s="7"/>
-      <c r="N329" s="82"/>
+      <c r="N329" s="83"/>
     </row>
     <row r="330" spans="1:14">
       <c r="A330" s="7"/>
@@ -10798,7 +10812,7 @@
       <c r="K330" s="7"/>
       <c r="L330" s="7"/>
       <c r="M330" s="7"/>
-      <c r="N330" s="82"/>
+      <c r="N330" s="83"/>
     </row>
     <row r="331" spans="1:14">
       <c r="A331" s="7"/>
@@ -10813,7 +10827,7 @@
       <c r="K331" s="7"/>
       <c r="L331" s="7"/>
       <c r="M331" s="7"/>
-      <c r="N331" s="82"/>
+      <c r="N331" s="83"/>
     </row>
     <row r="332" spans="1:14">
       <c r="A332" s="7"/>
@@ -10828,7 +10842,7 @@
       <c r="K332" s="7"/>
       <c r="L332" s="7"/>
       <c r="M332" s="7"/>
-      <c r="N332" s="82"/>
+      <c r="N332" s="83"/>
     </row>
     <row r="333" spans="1:14">
       <c r="A333" s="7"/>
@@ -10843,7 +10857,7 @@
       <c r="K333" s="7"/>
       <c r="L333" s="7"/>
       <c r="M333" s="7"/>
-      <c r="N333" s="82"/>
+      <c r="N333" s="83"/>
     </row>
     <row r="334" spans="1:14">
       <c r="A334" s="7"/>
@@ -10858,7 +10872,7 @@
       <c r="K334" s="7"/>
       <c r="L334" s="7"/>
       <c r="M334" s="7"/>
-      <c r="N334" s="82"/>
+      <c r="N334" s="83"/>
     </row>
     <row r="335" spans="1:14">
       <c r="A335" s="7"/>
@@ -10873,7 +10887,7 @@
       <c r="K335" s="7"/>
       <c r="L335" s="7"/>
       <c r="M335" s="7"/>
-      <c r="N335" s="82"/>
+      <c r="N335" s="83"/>
     </row>
     <row r="336" spans="1:14">
       <c r="A336" s="7"/>
@@ -10888,7 +10902,7 @@
       <c r="K336" s="7"/>
       <c r="L336" s="7"/>
       <c r="M336" s="7"/>
-      <c r="N336" s="82"/>
+      <c r="N336" s="83"/>
     </row>
     <row r="337" spans="1:14">
       <c r="A337" s="7"/>
@@ -10903,7 +10917,7 @@
       <c r="K337" s="7"/>
       <c r="L337" s="7"/>
       <c r="M337" s="7"/>
-      <c r="N337" s="82"/>
+      <c r="N337" s="83"/>
     </row>
     <row r="338" spans="1:14">
       <c r="A338" s="7"/>
@@ -10918,7 +10932,7 @@
       <c r="K338" s="7"/>
       <c r="L338" s="7"/>
       <c r="M338" s="7"/>
-      <c r="N338" s="82"/>
+      <c r="N338" s="83"/>
     </row>
     <row r="339" spans="1:14">
       <c r="A339" s="7"/>
@@ -10933,7 +10947,7 @@
       <c r="K339" s="7"/>
       <c r="L339" s="7"/>
       <c r="M339" s="7"/>
-      <c r="N339" s="82"/>
+      <c r="N339" s="83"/>
     </row>
     <row r="340" spans="1:14">
       <c r="A340" s="7"/>
@@ -10948,7 +10962,7 @@
       <c r="K340" s="7"/>
       <c r="L340" s="7"/>
       <c r="M340" s="7"/>
-      <c r="N340" s="82"/>
+      <c r="N340" s="83"/>
     </row>
     <row r="341" spans="1:14">
       <c r="A341" s="7"/>
@@ -10963,7 +10977,7 @@
       <c r="K341" s="7"/>
       <c r="L341" s="7"/>
       <c r="M341" s="7"/>
-      <c r="N341" s="82"/>
+      <c r="N341" s="83"/>
     </row>
     <row r="342" spans="1:14">
       <c r="A342" s="7"/>
@@ -10978,7 +10992,7 @@
       <c r="K342" s="7"/>
       <c r="L342" s="7"/>
       <c r="M342" s="7"/>
-      <c r="N342" s="82"/>
+      <c r="N342" s="83"/>
     </row>
     <row r="343" spans="1:14">
       <c r="A343" s="7"/>
@@ -10993,7 +11007,7 @@
       <c r="K343" s="7"/>
       <c r="L343" s="7"/>
       <c r="M343" s="7"/>
-      <c r="N343" s="82"/>
+      <c r="N343" s="83"/>
     </row>
     <row r="344" spans="1:14">
       <c r="A344" s="7"/>
@@ -11008,7 +11022,7 @@
       <c r="K344" s="7"/>
       <c r="L344" s="7"/>
       <c r="M344" s="7"/>
-      <c r="N344" s="82"/>
+      <c r="N344" s="83"/>
     </row>
     <row r="345" spans="1:14">
       <c r="A345" s="7"/>
@@ -11023,7 +11037,7 @@
       <c r="K345" s="7"/>
       <c r="L345" s="7"/>
       <c r="M345" s="7"/>
-      <c r="N345" s="82"/>
+      <c r="N345" s="83"/>
     </row>
     <row r="346" spans="1:14">
       <c r="A346" s="7"/>
@@ -11038,7 +11052,7 @@
       <c r="K346" s="7"/>
       <c r="L346" s="7"/>
       <c r="M346" s="7"/>
-      <c r="N346" s="82"/>
+      <c r="N346" s="83"/>
     </row>
     <row r="347" spans="1:14">
       <c r="A347" s="7"/>
@@ -11053,7 +11067,7 @@
       <c r="K347" s="7"/>
       <c r="L347" s="7"/>
       <c r="M347" s="7"/>
-      <c r="N347" s="82"/>
+      <c r="N347" s="83"/>
     </row>
     <row r="348" spans="1:14">
       <c r="A348" s="7"/>
@@ -11068,7 +11082,7 @@
       <c r="K348" s="7"/>
       <c r="L348" s="7"/>
       <c r="M348" s="7"/>
-      <c r="N348" s="82"/>
+      <c r="N348" s="83"/>
     </row>
     <row r="349" spans="1:14">
       <c r="A349" s="7"/>
@@ -11083,7 +11097,7 @@
       <c r="K349" s="7"/>
       <c r="L349" s="7"/>
       <c r="M349" s="7"/>
-      <c r="N349" s="82"/>
+      <c r="N349" s="83"/>
     </row>
     <row r="350" spans="1:14">
       <c r="A350" s="7"/>
@@ -11098,7 +11112,7 @@
       <c r="K350" s="7"/>
       <c r="L350" s="7"/>
       <c r="M350" s="7"/>
-      <c r="N350" s="82"/>
+      <c r="N350" s="83"/>
     </row>
     <row r="351" spans="1:14">
       <c r="A351" s="7"/>
@@ -11113,7 +11127,7 @@
       <c r="K351" s="7"/>
       <c r="L351" s="7"/>
       <c r="M351" s="7"/>
-      <c r="N351" s="82"/>
+      <c r="N351" s="83"/>
     </row>
     <row r="352" spans="1:14">
       <c r="A352" s="7"/>
@@ -11128,7 +11142,7 @@
       <c r="K352" s="7"/>
       <c r="L352" s="7"/>
       <c r="M352" s="7"/>
-      <c r="N352" s="82"/>
+      <c r="N352" s="83"/>
     </row>
     <row r="353" spans="1:14">
       <c r="A353" s="7"/>
@@ -11143,7 +11157,7 @@
       <c r="K353" s="7"/>
       <c r="L353" s="7"/>
       <c r="M353" s="7"/>
-      <c r="N353" s="82"/>
+      <c r="N353" s="83"/>
     </row>
     <row r="354" spans="1:14">
       <c r="A354" s="7"/>
@@ -11158,7 +11172,7 @@
       <c r="K354" s="7"/>
       <c r="L354" s="7"/>
       <c r="M354" s="7"/>
-      <c r="N354" s="82"/>
+      <c r="N354" s="83"/>
     </row>
     <row r="355" spans="1:14">
       <c r="A355" s="7"/>
@@ -11173,7 +11187,7 @@
       <c r="K355" s="7"/>
       <c r="L355" s="7"/>
       <c r="M355" s="7"/>
-      <c r="N355" s="82"/>
+      <c r="N355" s="83"/>
     </row>
     <row r="356" spans="1:14">
       <c r="A356" s="7"/>
@@ -11188,7 +11202,7 @@
       <c r="K356" s="7"/>
       <c r="L356" s="7"/>
       <c r="M356" s="7"/>
-      <c r="N356" s="82"/>
+      <c r="N356" s="83"/>
     </row>
     <row r="357" spans="1:14">
       <c r="A357" s="7"/>
@@ -11203,7 +11217,7 @@
       <c r="K357" s="7"/>
       <c r="L357" s="7"/>
       <c r="M357" s="7"/>
-      <c r="N357" s="82"/>
+      <c r="N357" s="83"/>
     </row>
     <row r="358" spans="1:14">
       <c r="A358" s="7"/>
@@ -11218,7 +11232,7 @@
       <c r="K358" s="7"/>
       <c r="L358" s="7"/>
       <c r="M358" s="7"/>
-      <c r="N358" s="82"/>
+      <c r="N358" s="83"/>
     </row>
     <row r="359" spans="1:14">
       <c r="A359" s="7"/>
@@ -11233,7 +11247,7 @@
       <c r="K359" s="7"/>
       <c r="L359" s="7"/>
       <c r="M359" s="7"/>
-      <c r="N359" s="82"/>
+      <c r="N359" s="83"/>
     </row>
     <row r="360" spans="1:14">
       <c r="A360" s="7"/>
@@ -11248,7 +11262,7 @@
       <c r="K360" s="7"/>
       <c r="L360" s="7"/>
       <c r="M360" s="7"/>
-      <c r="N360" s="82"/>
+      <c r="N360" s="83"/>
     </row>
     <row r="361" spans="1:14">
       <c r="A361" s="7"/>
@@ -11263,7 +11277,7 @@
       <c r="K361" s="7"/>
       <c r="L361" s="7"/>
       <c r="M361" s="7"/>
-      <c r="N361" s="82"/>
+      <c r="N361" s="83"/>
     </row>
     <row r="362" spans="1:14">
       <c r="A362" s="7"/>
@@ -11278,7 +11292,7 @@
       <c r="K362" s="7"/>
       <c r="L362" s="7"/>
       <c r="M362" s="7"/>
-      <c r="N362" s="82"/>
+      <c r="N362" s="83"/>
     </row>
     <row r="363" spans="1:14">
       <c r="A363" s="7"/>
@@ -11293,7 +11307,7 @@
       <c r="K363" s="7"/>
       <c r="L363" s="7"/>
       <c r="M363" s="7"/>
-      <c r="N363" s="82"/>
+      <c r="N363" s="83"/>
     </row>
     <row r="364" spans="1:14">
       <c r="A364" s="7"/>
@@ -11308,7 +11322,7 @@
       <c r="K364" s="7"/>
       <c r="L364" s="7"/>
       <c r="M364" s="7"/>
-      <c r="N364" s="82"/>
+      <c r="N364" s="83"/>
     </row>
     <row r="365" spans="1:14">
       <c r="A365" s="7"/>
@@ -11323,7 +11337,7 @@
       <c r="K365" s="7"/>
       <c r="L365" s="7"/>
       <c r="M365" s="7"/>
-      <c r="N365" s="82"/>
+      <c r="N365" s="83"/>
     </row>
     <row r="366" spans="1:14">
       <c r="A366" s="7"/>
@@ -11338,7 +11352,7 @@
       <c r="K366" s="7"/>
       <c r="L366" s="7"/>
       <c r="M366" s="7"/>
-      <c r="N366" s="82"/>
+      <c r="N366" s="83"/>
     </row>
     <row r="367" spans="1:14">
       <c r="A367" s="7"/>
@@ -11353,7 +11367,7 @@
       <c r="K367" s="7"/>
       <c r="L367" s="7"/>
       <c r="M367" s="7"/>
-      <c r="N367" s="82"/>
+      <c r="N367" s="83"/>
     </row>
     <row r="368" spans="1:14">
       <c r="A368" s="7"/>
@@ -11368,7 +11382,7 @@
       <c r="K368" s="7"/>
       <c r="L368" s="7"/>
       <c r="M368" s="7"/>
-      <c r="N368" s="82"/>
+      <c r="N368" s="83"/>
     </row>
     <row r="369" spans="1:14">
       <c r="A369" s="7"/>
@@ -11383,7 +11397,7 @@
       <c r="K369" s="7"/>
       <c r="L369" s="7"/>
       <c r="M369" s="7"/>
-      <c r="N369" s="82"/>
+      <c r="N369" s="83"/>
     </row>
     <row r="370" spans="1:14">
       <c r="A370" s="7"/>
@@ -11398,7 +11412,7 @@
       <c r="K370" s="7"/>
       <c r="L370" s="7"/>
       <c r="M370" s="7"/>
-      <c r="N370" s="82"/>
+      <c r="N370" s="83"/>
     </row>
     <row r="371" spans="1:14">
       <c r="A371" s="7"/>
@@ -11413,7 +11427,7 @@
       <c r="K371" s="7"/>
       <c r="L371" s="7"/>
       <c r="M371" s="7"/>
-      <c r="N371" s="82"/>
+      <c r="N371" s="83"/>
     </row>
     <row r="372" spans="1:14">
       <c r="A372" s="7"/>
@@ -11428,7 +11442,7 @@
       <c r="K372" s="7"/>
       <c r="L372" s="7"/>
       <c r="M372" s="7"/>
-      <c r="N372" s="82"/>
+      <c r="N372" s="83"/>
     </row>
     <row r="373" spans="1:14">
       <c r="A373" s="7"/>
@@ -11443,7 +11457,7 @@
       <c r="K373" s="7"/>
       <c r="L373" s="7"/>
       <c r="M373" s="7"/>
-      <c r="N373" s="82"/>
+      <c r="N373" s="83"/>
     </row>
     <row r="374" spans="1:14">
       <c r="A374" s="7"/>
@@ -11458,7 +11472,7 @@
       <c r="K374" s="7"/>
       <c r="L374" s="7"/>
       <c r="M374" s="7"/>
-      <c r="N374" s="82"/>
+      <c r="N374" s="83"/>
     </row>
     <row r="375" spans="1:14">
       <c r="A375" s="7"/>
@@ -11473,7 +11487,7 @@
       <c r="K375" s="7"/>
       <c r="L375" s="7"/>
       <c r="M375" s="7"/>
-      <c r="N375" s="82"/>
+      <c r="N375" s="83"/>
     </row>
     <row r="376" spans="1:14">
       <c r="A376" s="7"/>
@@ -11488,7 +11502,7 @@
       <c r="K376" s="7"/>
       <c r="L376" s="7"/>
       <c r="M376" s="7"/>
-      <c r="N376" s="82"/>
+      <c r="N376" s="83"/>
     </row>
     <row r="377" spans="1:14">
       <c r="A377" s="7"/>
@@ -11503,7 +11517,7 @@
       <c r="K377" s="7"/>
       <c r="L377" s="7"/>
       <c r="M377" s="7"/>
-      <c r="N377" s="82"/>
+      <c r="N377" s="83"/>
     </row>
     <row r="378" spans="1:14">
       <c r="A378" s="7"/>
@@ -11518,7 +11532,7 @@
       <c r="K378" s="7"/>
       <c r="L378" s="7"/>
       <c r="M378" s="7"/>
-      <c r="N378" s="82"/>
+      <c r="N378" s="83"/>
     </row>
     <row r="379" spans="1:14">
       <c r="A379" s="7"/>
@@ -11533,7 +11547,7 @@
       <c r="K379" s="7"/>
       <c r="L379" s="7"/>
       <c r="M379" s="7"/>
-      <c r="N379" s="82"/>
+      <c r="N379" s="83"/>
     </row>
     <row r="380" spans="1:14">
       <c r="A380" s="7"/>
@@ -11548,7 +11562,7 @@
       <c r="K380" s="7"/>
       <c r="L380" s="7"/>
       <c r="M380" s="7"/>
-      <c r="N380" s="82"/>
+      <c r="N380" s="83"/>
     </row>
     <row r="381" spans="1:14">
       <c r="A381" s="7"/>
@@ -11563,7 +11577,7 @@
       <c r="K381" s="7"/>
       <c r="L381" s="7"/>
       <c r="M381" s="7"/>
-      <c r="N381" s="82"/>
+      <c r="N381" s="83"/>
     </row>
     <row r="382" spans="1:14">
       <c r="A382" s="7"/>
@@ -11578,7 +11592,7 @@
       <c r="K382" s="7"/>
       <c r="L382" s="7"/>
       <c r="M382" s="7"/>
-      <c r="N382" s="82"/>
+      <c r="N382" s="83"/>
     </row>
     <row r="383" spans="1:14">
       <c r="A383" s="7"/>
@@ -11593,7 +11607,7 @@
       <c r="K383" s="7"/>
       <c r="L383" s="7"/>
       <c r="M383" s="7"/>
-      <c r="N383" s="82"/>
+      <c r="N383" s="83"/>
     </row>
     <row r="384" spans="1:14">
       <c r="A384" s="7"/>
@@ -11608,7 +11622,7 @@
       <c r="K384" s="7"/>
       <c r="L384" s="7"/>
       <c r="M384" s="7"/>
-      <c r="N384" s="82"/>
+      <c r="N384" s="83"/>
     </row>
     <row r="385" spans="1:14">
       <c r="A385" s="7"/>
@@ -11623,7 +11637,7 @@
       <c r="K385" s="7"/>
       <c r="L385" s="7"/>
       <c r="M385" s="7"/>
-      <c r="N385" s="82"/>
+      <c r="N385" s="83"/>
     </row>
     <row r="386" spans="1:14">
       <c r="A386" s="7"/>
@@ -11638,7 +11652,7 @@
       <c r="K386" s="7"/>
       <c r="L386" s="7"/>
       <c r="M386" s="7"/>
-      <c r="N386" s="82"/>
+      <c r="N386" s="83"/>
     </row>
     <row r="387" spans="1:14">
       <c r="A387" s="7"/>
@@ -11653,7 +11667,7 @@
       <c r="K387" s="7"/>
       <c r="L387" s="7"/>
       <c r="M387" s="7"/>
-      <c r="N387" s="82"/>
+      <c r="N387" s="83"/>
     </row>
     <row r="388" spans="1:14">
       <c r="A388" s="7"/>
@@ -11668,7 +11682,7 @@
       <c r="K388" s="7"/>
       <c r="L388" s="7"/>
       <c r="M388" s="7"/>
-      <c r="N388" s="82"/>
+      <c r="N388" s="83"/>
     </row>
     <row r="389" spans="1:14">
       <c r="A389" s="7"/>
@@ -11683,7 +11697,7 @@
       <c r="K389" s="7"/>
       <c r="L389" s="7"/>
       <c r="M389" s="7"/>
-      <c r="N389" s="82"/>
+      <c r="N389" s="83"/>
     </row>
     <row r="390" spans="1:14">
       <c r="A390" s="7"/>
@@ -11698,7 +11712,7 @@
       <c r="K390" s="7"/>
       <c r="L390" s="7"/>
       <c r="M390" s="7"/>
-      <c r="N390" s="82"/>
+      <c r="N390" s="83"/>
     </row>
     <row r="391" spans="1:14">
       <c r="A391" s="7"/>
@@ -11713,7 +11727,7 @@
       <c r="K391" s="7"/>
       <c r="L391" s="7"/>
       <c r="M391" s="7"/>
-      <c r="N391" s="82"/>
+      <c r="N391" s="83"/>
     </row>
     <row r="392" spans="1:14">
       <c r="A392" s="7"/>
@@ -11728,7 +11742,7 @@
       <c r="K392" s="7"/>
       <c r="L392" s="7"/>
       <c r="M392" s="7"/>
-      <c r="N392" s="82"/>
+      <c r="N392" s="83"/>
     </row>
     <row r="393" spans="1:14">
       <c r="A393" s="7"/>
@@ -11743,7 +11757,7 @@
       <c r="K393" s="7"/>
       <c r="L393" s="7"/>
       <c r="M393" s="7"/>
-      <c r="N393" s="82"/>
+      <c r="N393" s="83"/>
     </row>
     <row r="394" spans="1:14">
       <c r="A394" s="7"/>
@@ -11758,7 +11772,7 @@
       <c r="K394" s="7"/>
       <c r="L394" s="7"/>
       <c r="M394" s="7"/>
-      <c r="N394" s="82"/>
+      <c r="N394" s="83"/>
     </row>
     <row r="395" spans="1:14">
       <c r="A395" s="7"/>
@@ -11773,7 +11787,7 @@
       <c r="K395" s="7"/>
       <c r="L395" s="7"/>
       <c r="M395" s="7"/>
-      <c r="N395" s="82"/>
+      <c r="N395" s="83"/>
     </row>
     <row r="396" spans="1:14">
       <c r="A396" s="7"/>
@@ -11788,7 +11802,7 @@
       <c r="K396" s="7"/>
       <c r="L396" s="7"/>
       <c r="M396" s="7"/>
-      <c r="N396" s="82"/>
+      <c r="N396" s="83"/>
     </row>
     <row r="397" spans="1:14">
       <c r="A397" s="7"/>
@@ -11803,7 +11817,7 @@
       <c r="K397" s="7"/>
       <c r="L397" s="7"/>
       <c r="M397" s="7"/>
-      <c r="N397" s="82"/>
+      <c r="N397" s="83"/>
     </row>
     <row r="398" spans="1:14">
       <c r="A398" s="7"/>
@@ -11818,7 +11832,7 @@
       <c r="K398" s="7"/>
       <c r="L398" s="7"/>
       <c r="M398" s="7"/>
-      <c r="N398" s="82"/>
+      <c r="N398" s="83"/>
     </row>
     <row r="399" spans="1:14">
       <c r="A399" s="7"/>
@@ -11833,7 +11847,7 @@
       <c r="K399" s="7"/>
       <c r="L399" s="7"/>
       <c r="M399" s="7"/>
-      <c r="N399" s="82"/>
+      <c r="N399" s="83"/>
     </row>
     <row r="400" spans="1:14">
       <c r="A400" s="7"/>
@@ -11848,7 +11862,7 @@
       <c r="K400" s="7"/>
       <c r="L400" s="7"/>
       <c r="M400" s="7"/>
-      <c r="N400" s="82"/>
+      <c r="N400" s="83"/>
     </row>
     <row r="401" spans="1:14">
       <c r="A401" s="7"/>
@@ -11863,7 +11877,7 @@
       <c r="K401" s="7"/>
       <c r="L401" s="7"/>
       <c r="M401" s="7"/>
-      <c r="N401" s="82"/>
+      <c r="N401" s="83"/>
     </row>
     <row r="402" spans="1:14">
       <c r="A402" s="7"/>
@@ -11878,7 +11892,7 @@
       <c r="K402" s="7"/>
       <c r="L402" s="7"/>
       <c r="M402" s="7"/>
-      <c r="N402" s="82"/>
+      <c r="N402" s="83"/>
     </row>
     <row r="403" spans="1:14">
       <c r="A403" s="7"/>
@@ -11893,7 +11907,7 @@
       <c r="K403" s="7"/>
       <c r="L403" s="7"/>
       <c r="M403" s="7"/>
-      <c r="N403" s="82"/>
+      <c r="N403" s="83"/>
     </row>
     <row r="404" spans="1:14">
       <c r="A404" s="7"/>
@@ -11908,7 +11922,7 @@
       <c r="K404" s="7"/>
       <c r="L404" s="7"/>
       <c r="M404" s="7"/>
-      <c r="N404" s="82"/>
+      <c r="N404" s="83"/>
     </row>
     <row r="405" spans="1:14">
       <c r="A405" s="7"/>
@@ -11923,7 +11937,7 @@
       <c r="K405" s="7"/>
       <c r="L405" s="7"/>
       <c r="M405" s="7"/>
-      <c r="N405" s="82"/>
+      <c r="N405" s="83"/>
     </row>
     <row r="406" spans="1:14">
       <c r="A406" s="7"/>
@@ -11938,7 +11952,7 @@
       <c r="K406" s="7"/>
       <c r="L406" s="7"/>
       <c r="M406" s="7"/>
-      <c r="N406" s="82"/>
+      <c r="N406" s="83"/>
     </row>
     <row r="407" spans="1:14">
       <c r="A407" s="7"/>
@@ -11953,7 +11967,7 @@
       <c r="K407" s="7"/>
       <c r="L407" s="7"/>
       <c r="M407" s="7"/>
-      <c r="N407" s="82"/>
+      <c r="N407" s="83"/>
     </row>
     <row r="408" spans="1:14">
       <c r="A408" s="7"/>
@@ -11968,7 +11982,7 @@
       <c r="K408" s="7"/>
       <c r="L408" s="7"/>
       <c r="M408" s="7"/>
-      <c r="N408" s="82"/>
+      <c r="N408" s="83"/>
     </row>
     <row r="409" spans="1:14">
       <c r="A409" s="7"/>
@@ -11983,7 +11997,7 @@
       <c r="K409" s="7"/>
       <c r="L409" s="7"/>
       <c r="M409" s="7"/>
-      <c r="N409" s="82"/>
+      <c r="N409" s="83"/>
     </row>
     <row r="410" spans="1:14">
       <c r="A410" s="7"/>
@@ -11998,7 +12012,7 @@
       <c r="K410" s="7"/>
       <c r="L410" s="7"/>
       <c r="M410" s="7"/>
-      <c r="N410" s="82"/>
+      <c r="N410" s="83"/>
     </row>
     <row r="411" spans="1:14">
       <c r="A411" s="7"/>
@@ -12013,7 +12027,7 @@
       <c r="K411" s="7"/>
       <c r="L411" s="7"/>
       <c r="M411" s="7"/>
-      <c r="N411" s="82"/>
+      <c r="N411" s="83"/>
     </row>
     <row r="412" spans="1:14">
       <c r="A412" s="7"/>
@@ -12028,7 +12042,7 @@
       <c r="K412" s="7"/>
       <c r="L412" s="7"/>
       <c r="M412" s="7"/>
-      <c r="N412" s="82"/>
+      <c r="N412" s="83"/>
     </row>
     <row r="413" spans="1:14">
       <c r="A413" s="7"/>
@@ -12043,7 +12057,7 @@
       <c r="K413" s="7"/>
       <c r="L413" s="7"/>
       <c r="M413" s="7"/>
-      <c r="N413" s="82"/>
+      <c r="N413" s="83"/>
     </row>
     <row r="414" spans="1:14">
       <c r="A414" s="7"/>
@@ -12058,7 +12072,7 @@
       <c r="K414" s="7"/>
       <c r="L414" s="7"/>
       <c r="M414" s="7"/>
-      <c r="N414" s="82"/>
+      <c r="N414" s="83"/>
     </row>
     <row r="415" spans="1:14">
       <c r="A415" s="7"/>
@@ -12073,7 +12087,7 @@
       <c r="K415" s="7"/>
       <c r="L415" s="7"/>
       <c r="M415" s="7"/>
-      <c r="N415" s="82"/>
+      <c r="N415" s="83"/>
     </row>
     <row r="416" spans="1:14">
       <c r="A416" s="7"/>
@@ -12088,7 +12102,7 @@
       <c r="K416" s="7"/>
       <c r="L416" s="7"/>
       <c r="M416" s="7"/>
-      <c r="N416" s="82"/>
+      <c r="N416" s="83"/>
     </row>
     <row r="417" spans="1:14">
       <c r="A417" s="7"/>
@@ -12103,7 +12117,7 @@
       <c r="K417" s="7"/>
       <c r="L417" s="7"/>
       <c r="M417" s="7"/>
-      <c r="N417" s="82"/>
+      <c r="N417" s="83"/>
     </row>
     <row r="418" spans="1:14">
       <c r="A418" s="7"/>
@@ -12118,7 +12132,7 @@
       <c r="K418" s="7"/>
       <c r="L418" s="7"/>
       <c r="M418" s="7"/>
-      <c r="N418" s="82"/>
+      <c r="N418" s="83"/>
     </row>
     <row r="419" spans="1:14">
       <c r="A419" s="7"/>
@@ -12133,7 +12147,7 @@
       <c r="K419" s="7"/>
       <c r="L419" s="7"/>
       <c r="M419" s="7"/>
-      <c r="N419" s="82"/>
+      <c r="N419" s="83"/>
     </row>
     <row r="420" spans="1:14">
       <c r="A420" s="7"/>
@@ -12148,7 +12162,7 @@
       <c r="K420" s="7"/>
       <c r="L420" s="7"/>
       <c r="M420" s="7"/>
-      <c r="N420" s="82"/>
+      <c r="N420" s="83"/>
     </row>
     <row r="421" spans="1:14">
       <c r="A421" s="7"/>
@@ -12163,7 +12177,7 @@
       <c r="K421" s="7"/>
       <c r="L421" s="7"/>
       <c r="M421" s="7"/>
-      <c r="N421" s="82"/>
+      <c r="N421" s="83"/>
     </row>
     <row r="422" spans="1:14">
       <c r="A422" s="7"/>
@@ -12178,7 +12192,7 @@
       <c r="K422" s="7"/>
       <c r="L422" s="7"/>
       <c r="M422" s="7"/>
-      <c r="N422" s="82"/>
+      <c r="N422" s="83"/>
     </row>
     <row r="423" spans="1:14">
       <c r="A423" s="7"/>
@@ -12193,7 +12207,7 @@
       <c r="K423" s="7"/>
       <c r="L423" s="7"/>
       <c r="M423" s="7"/>
-      <c r="N423" s="82"/>
+      <c r="N423" s="83"/>
     </row>
     <row r="424" spans="1:14">
       <c r="A424" s="7"/>
@@ -12208,7 +12222,7 @@
       <c r="K424" s="7"/>
       <c r="L424" s="7"/>
       <c r="M424" s="7"/>
-      <c r="N424" s="82"/>
+      <c r="N424" s="83"/>
     </row>
     <row r="425" spans="1:14">
       <c r="A425" s="7"/>
@@ -12223,7 +12237,7 @@
       <c r="K425" s="7"/>
       <c r="L425" s="7"/>
       <c r="M425" s="7"/>
-      <c r="N425" s="82"/>
+      <c r="N425" s="83"/>
     </row>
     <row r="426" spans="1:14">
       <c r="A426" s="7"/>
@@ -12238,7 +12252,7 @@
       <c r="K426" s="7"/>
       <c r="L426" s="7"/>
       <c r="M426" s="7"/>
-      <c r="N426" s="82"/>
+      <c r="N426" s="83"/>
     </row>
     <row r="427" spans="1:14">
       <c r="A427" s="7"/>
@@ -12253,7 +12267,7 @@
       <c r="K427" s="7"/>
       <c r="L427" s="7"/>
       <c r="M427" s="7"/>
-      <c r="N427" s="82"/>
+      <c r="N427" s="83"/>
     </row>
     <row r="428" spans="1:14">
       <c r="A428" s="7"/>
@@ -12268,7 +12282,7 @@
       <c r="K428" s="7"/>
       <c r="L428" s="7"/>
       <c r="M428" s="7"/>
-      <c r="N428" s="82"/>
+      <c r="N428" s="83"/>
     </row>
     <row r="429" spans="1:14">
       <c r="A429" s="7"/>
@@ -12283,7 +12297,7 @@
       <c r="K429" s="7"/>
       <c r="L429" s="7"/>
       <c r="M429" s="7"/>
-      <c r="N429" s="82"/>
+      <c r="N429" s="83"/>
     </row>
     <row r="430" spans="1:14">
       <c r="A430" s="7"/>
@@ -12298,7 +12312,7 @@
       <c r="K430" s="7"/>
       <c r="L430" s="7"/>
       <c r="M430" s="7"/>
-      <c r="N430" s="82"/>
+      <c r="N430" s="83"/>
     </row>
     <row r="431" spans="1:14">
       <c r="A431" s="7"/>
@@ -12313,7 +12327,7 @@
       <c r="K431" s="7"/>
       <c r="L431" s="7"/>
       <c r="M431" s="7"/>
-      <c r="N431" s="82"/>
+      <c r="N431" s="83"/>
     </row>
     <row r="432" spans="1:14">
       <c r="A432" s="7"/>
@@ -12328,7 +12342,7 @@
       <c r="K432" s="7"/>
       <c r="L432" s="7"/>
       <c r="M432" s="7"/>
-      <c r="N432" s="82"/>
+      <c r="N432" s="83"/>
     </row>
     <row r="433" spans="1:14">
       <c r="A433" s="7"/>
@@ -12343,7 +12357,7 @@
       <c r="K433" s="7"/>
       <c r="L433" s="7"/>
       <c r="M433" s="7"/>
-      <c r="N433" s="82"/>
+      <c r="N433" s="83"/>
     </row>
     <row r="434" spans="1:14">
       <c r="A434" s="7"/>
@@ -12358,7 +12372,7 @@
       <c r="K434" s="7"/>
       <c r="L434" s="7"/>
       <c r="M434" s="7"/>
-      <c r="N434" s="82"/>
+      <c r="N434" s="83"/>
     </row>
     <row r="435" spans="1:14">
       <c r="A435" s="7"/>
@@ -12373,7 +12387,7 @@
       <c r="K435" s="7"/>
       <c r="L435" s="7"/>
       <c r="M435" s="7"/>
-      <c r="N435" s="82"/>
+      <c r="N435" s="83"/>
     </row>
     <row r="436" spans="1:14">
       <c r="A436" s="7"/>
@@ -12388,7 +12402,7 @@
       <c r="K436" s="7"/>
       <c r="L436" s="7"/>
       <c r="M436" s="7"/>
-      <c r="N436" s="82"/>
+      <c r="N436" s="83"/>
     </row>
     <row r="437" spans="1:14">
       <c r="A437" s="7"/>
@@ -12403,7 +12417,7 @@
       <c r="K437" s="7"/>
       <c r="L437" s="7"/>
       <c r="M437" s="7"/>
-      <c r="N437" s="82"/>
+      <c r="N437" s="83"/>
     </row>
     <row r="438" spans="1:14">
       <c r="A438" s="7"/>
@@ -12418,7 +12432,7 @@
       <c r="K438" s="7"/>
       <c r="L438" s="7"/>
       <c r="M438" s="7"/>
-      <c r="N438" s="82"/>
+      <c r="N438" s="83"/>
     </row>
     <row r="439" spans="1:14">
       <c r="A439" s="7"/>
@@ -12433,7 +12447,7 @@
       <c r="K439" s="7"/>
       <c r="L439" s="7"/>
       <c r="M439" s="7"/>
-      <c r="N439" s="82"/>
+      <c r="N439" s="83"/>
     </row>
     <row r="440" spans="1:14">
       <c r="A440" s="7"/>
@@ -12448,7 +12462,7 @@
       <c r="K440" s="7"/>
       <c r="L440" s="7"/>
       <c r="M440" s="7"/>
-      <c r="N440" s="82"/>
+      <c r="N440" s="83"/>
     </row>
     <row r="441" spans="1:14">
       <c r="A441" s="7"/>
@@ -12463,7 +12477,7 @@
       <c r="K441" s="7"/>
       <c r="L441" s="7"/>
       <c r="M441" s="7"/>
-      <c r="N441" s="82"/>
+      <c r="N441" s="83"/>
     </row>
     <row r="442" spans="1:14">
       <c r="A442" s="7"/>
@@ -12478,7 +12492,7 @@
       <c r="K442" s="7"/>
       <c r="L442" s="7"/>
       <c r="M442" s="7"/>
-      <c r="N442" s="82"/>
+      <c r="N442" s="83"/>
     </row>
     <row r="443" spans="1:14">
       <c r="A443" s="7"/>
@@ -12493,7 +12507,7 @@
       <c r="K443" s="7"/>
       <c r="L443" s="7"/>
       <c r="M443" s="7"/>
-      <c r="N443" s="82"/>
+      <c r="N443" s="83"/>
     </row>
     <row r="444" spans="1:14">
       <c r="A444" s="7"/>
@@ -12508,7 +12522,7 @@
       <c r="K444" s="7"/>
       <c r="L444" s="7"/>
       <c r="M444" s="7"/>
-      <c r="N444" s="82"/>
+      <c r="N444" s="83"/>
     </row>
     <row r="445" spans="1:14">
       <c r="A445" s="7"/>
@@ -12523,7 +12537,7 @@
       <c r="K445" s="7"/>
       <c r="L445" s="7"/>
       <c r="M445" s="7"/>
-      <c r="N445" s="82"/>
+      <c r="N445" s="83"/>
     </row>
     <row r="446" spans="1:14">
       <c r="A446" s="7"/>
@@ -12538,7 +12552,7 @@
       <c r="K446" s="7"/>
       <c r="L446" s="7"/>
       <c r="M446" s="7"/>
-      <c r="N446" s="82"/>
+      <c r="N446" s="83"/>
     </row>
     <row r="447" spans="1:14">
       <c r="A447" s="7"/>
@@ -12553,7 +12567,7 @@
       <c r="K447" s="7"/>
       <c r="L447" s="7"/>
       <c r="M447" s="7"/>
-      <c r="N447" s="82"/>
+      <c r="N447" s="83"/>
     </row>
     <row r="448" spans="1:14">
       <c r="A448" s="7"/>
@@ -12568,7 +12582,7 @@
       <c r="K448" s="7"/>
       <c r="L448" s="7"/>
       <c r="M448" s="7"/>
-      <c r="N448" s="82"/>
+      <c r="N448" s="83"/>
     </row>
     <row r="449" spans="1:14">
       <c r="A449" s="7"/>
@@ -12583,7 +12597,7 @@
       <c r="K449" s="7"/>
       <c r="L449" s="7"/>
       <c r="M449" s="7"/>
-      <c r="N449" s="82"/>
+      <c r="N449" s="83"/>
     </row>
     <row r="450" spans="1:14">
       <c r="A450" s="7"/>
@@ -12598,7 +12612,7 @@
       <c r="K450" s="7"/>
       <c r="L450" s="7"/>
       <c r="M450" s="7"/>
-      <c r="N450" s="82"/>
+      <c r="N450" s="83"/>
     </row>
     <row r="451" spans="1:14">
       <c r="A451" s="7"/>
@@ -12613,7 +12627,7 @@
       <c r="K451" s="7"/>
       <c r="L451" s="7"/>
       <c r="M451" s="7"/>
-      <c r="N451" s="82"/>
+      <c r="N451" s="83"/>
     </row>
     <row r="452" spans="1:14">
       <c r="A452" s="7"/>
@@ -12628,7 +12642,7 @@
       <c r="K452" s="7"/>
       <c r="L452" s="7"/>
       <c r="M452" s="7"/>
-      <c r="N452" s="82"/>
+      <c r="N452" s="83"/>
     </row>
     <row r="453" spans="1:14">
       <c r="A453" s="7"/>
@@ -12643,7 +12657,7 @@
       <c r="K453" s="7"/>
       <c r="L453" s="7"/>
       <c r="M453" s="7"/>
-      <c r="N453" s="82"/>
+      <c r="N453" s="83"/>
     </row>
     <row r="454" spans="1:14">
       <c r="A454" s="7"/>
@@ -12658,7 +12672,7 @@
       <c r="K454" s="7"/>
       <c r="L454" s="7"/>
       <c r="M454" s="7"/>
-      <c r="N454" s="82"/>
+      <c r="N454" s="83"/>
     </row>
     <row r="455" spans="1:14">
       <c r="A455" s="7"/>
@@ -12673,7 +12687,7 @@
       <c r="K455" s="7"/>
       <c r="L455" s="7"/>
       <c r="M455" s="7"/>
-      <c r="N455" s="82"/>
+      <c r="N455" s="83"/>
     </row>
     <row r="456" spans="1:14">
       <c r="A456" s="7"/>
@@ -12688,7 +12702,7 @@
       <c r="K456" s="7"/>
       <c r="L456" s="7"/>
       <c r="M456" s="7"/>
-      <c r="N456" s="82"/>
+      <c r="N456" s="83"/>
     </row>
     <row r="457" spans="1:14">
       <c r="A457" s="7"/>
@@ -12703,7 +12717,7 @@
       <c r="K457" s="7"/>
       <c r="L457" s="7"/>
       <c r="M457" s="7"/>
-      <c r="N457" s="82"/>
+      <c r="N457" s="83"/>
     </row>
     <row r="458" spans="1:14">
       <c r="A458" s="7"/>
@@ -12718,7 +12732,7 @@
       <c r="K458" s="7"/>
       <c r="L458" s="7"/>
       <c r="M458" s="7"/>
-      <c r="N458" s="82"/>
+      <c r="N458" s="83"/>
     </row>
     <row r="459" spans="1:14">
       <c r="A459" s="7"/>
@@ -12733,7 +12747,7 @@
       <c r="K459" s="7"/>
       <c r="L459" s="7"/>
       <c r="M459" s="7"/>
-      <c r="N459" s="82"/>
+      <c r="N459" s="83"/>
     </row>
     <row r="460" spans="1:14">
       <c r="A460" s="7"/>
@@ -12748,7 +12762,7 @@
       <c r="K460" s="7"/>
       <c r="L460" s="7"/>
       <c r="M460" s="7"/>
-      <c r="N460" s="82"/>
+      <c r="N460" s="83"/>
     </row>
     <row r="461" spans="1:14">
       <c r="A461" s="7"/>
@@ -12763,7 +12777,7 @@
       <c r="K461" s="7"/>
       <c r="L461" s="7"/>
       <c r="M461" s="7"/>
-      <c r="N461" s="82"/>
+      <c r="N461" s="83"/>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="7"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
@@ -3343,11 +3343,11 @@
   <dimension ref="A1:BH541"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="M49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F49" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N59" sqref="N59"/>
+      <selection pane="bottomRight" activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="14.8"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
@@ -3343,7 +3343,7 @@
   <dimension ref="A1:BH541"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -3355,6 +3355,7 @@
     <col min="1" max="1" width="13.9910714285714" customWidth="1"/>
     <col min="2" max="2" width="15.0267857142857" style="7" customWidth="1"/>
     <col min="3" max="3" width="17.1160714285714" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.4642857142857" customWidth="1"/>
     <col min="5" max="5" width="10.1428571428571" style="9"/>
     <col min="6" max="6" width="11.9017857142857" style="10" customWidth="1"/>
     <col min="7" max="7" width="13.9821428571429" style="10" customWidth="1"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192">
   <si>
     <t>计划编码</t>
   </si>
@@ -904,6 +904,12 @@
   <si>
     <t>浙江建投</t>
   </si>
+  <si>
+    <t>JH_00067</t>
+  </si>
+  <si>
+    <t>603995.SH</t>
+  </si>
 </sst>
 </file>
 
@@ -911,14 +917,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="179" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="180" formatCode="0.0000_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="45">
     <font>
@@ -1073,7 +1079,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1086,8 +1114,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -1101,24 +1136,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1131,18 +1161,18 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1169,6 +1199,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1178,46 +1216,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1280,31 +1286,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1316,7 +1298,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1340,7 +1346,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1352,25 +1430,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1382,7 +1442,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1394,73 +1454,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1541,7 +1547,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1557,30 +1563,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1615,6 +1597,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1625,153 +1622,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1797,7 +1803,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1806,7 +1812,7 @@
     <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1824,7 +1830,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1836,7 +1842,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="4" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1848,192 +1854,192 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="3" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="3" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2052,7 +2058,7 @@
     <xf numFmtId="43" fontId="3" fillId="3" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2115,7 +2121,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2127,37 +2133,37 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="15" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="3" borderId="4" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="3" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3364,11 +3370,11 @@
   <dimension ref="A1:BH541"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="O53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="K51" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T67" sqref="T67:T68"/>
+      <selection pane="bottomRight" activeCell="R69" sqref="R69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="14.8"/>
@@ -4223,7 +4229,7 @@
         <v>300</v>
       </c>
       <c r="M14" s="85">
-        <f t="shared" ref="M14:M67" si="5">(J14-F14)/(F14-I14)</f>
+        <f t="shared" ref="M14:M69" si="5">(J14-F14)/(F14-I14)</f>
         <v>3.46243902439024</v>
       </c>
       <c r="N14" s="86">
@@ -4836,7 +4842,7 @@
         <v>110.08</v>
       </c>
       <c r="J26" s="57">
-        <f t="shared" ref="J26:J67" si="8">(F26+F26*0.2)</f>
+        <f t="shared" ref="J26:J69" si="8">(F26+F26*0.2)</f>
         <v>141.9</v>
       </c>
       <c r="K26" s="27">
@@ -5018,7 +5024,7 @@
       <c r="Q29" s="87"/>
       <c r="R29" s="87"/>
       <c r="S29" s="98">
-        <f t="shared" ref="S29:S67" si="9">F29*L29</f>
+        <f t="shared" ref="S29:S68" si="9">F29*L29</f>
         <v>18380</v>
       </c>
       <c r="T29" s="102" t="s">
@@ -5343,7 +5349,7 @@
       </c>
       <c r="M35" s="85">
         <f t="shared" si="5"/>
-        <v>2.67474048442907</v>
+        <v>2.67474048442906</v>
       </c>
       <c r="N35" s="88">
         <f t="shared" si="6"/>
@@ -5791,7 +5797,7 @@
       </c>
       <c r="M43" s="85">
         <f t="shared" si="5"/>
-        <v>3.41615384615386</v>
+        <v>3.41615384615385</v>
       </c>
       <c r="N43" s="88">
         <f t="shared" si="6"/>
@@ -5897,7 +5903,7 @@
         <v>660</v>
       </c>
       <c r="L45" s="27">
-        <f t="shared" ref="L45:L67" si="10">FLOOR(1500/(F45-I45),100)</f>
+        <f t="shared" ref="L45:L69" si="10">FLOOR(1500/(F45-I45),100)</f>
         <v>200</v>
       </c>
       <c r="M45" s="85">
@@ -6889,7 +6895,7 @@
         <v>0.17</v>
       </c>
       <c r="F62" s="62">
-        <v>4.95</v>
+        <v>4.87</v>
       </c>
       <c r="G62" s="65">
         <v>5</v>
@@ -6898,44 +6904,44 @@
         <v>5.05</v>
       </c>
       <c r="I62" s="65">
-        <v>4.63</v>
+        <v>4.61</v>
       </c>
       <c r="J62" s="57">
         <f t="shared" si="8"/>
-        <v>5.94</v>
+        <v>5.844</v>
       </c>
       <c r="K62" s="27">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="L62" s="27">
         <f t="shared" si="10"/>
-        <v>4600</v>
+        <v>5700</v>
       </c>
       <c r="M62" s="85">
         <f t="shared" si="5"/>
-        <v>3.09375</v>
+        <v>3.74615384615385</v>
       </c>
       <c r="N62" s="88">
         <f t="shared" ref="N62:P62" si="13">(F62-$I62)/F62</f>
-        <v>0.0646464646464647</v>
+        <v>0.0533880903490759</v>
       </c>
       <c r="O62" s="89">
         <f t="shared" si="13"/>
-        <v>0.074</v>
+        <v>0.0779999999999999</v>
       </c>
       <c r="P62" s="89">
         <f t="shared" si="13"/>
-        <v>0.0831683168316832</v>
+        <v>0.087128712871287</v>
       </c>
       <c r="Q62" s="89">
-        <f>((F62-$I62)*500+(G62-$I62)*1500+(H62-$I62)*3000)/(F62*500+G62*1500+H62*3000)</f>
-        <v>0.0786069651741294</v>
+        <f>((F62-$I62)*500+(G62-$I62)*1500+(H62-$I62)*2800)/(F62*500+G62*1500+H62*3000)</f>
+        <v>0.0776161052421765</v>
       </c>
       <c r="R62" s="91"/>
       <c r="S62" s="98">
         <f t="shared" si="9"/>
-        <v>22770</v>
+        <v>27759</v>
       </c>
       <c r="T62" s="104" t="s">
         <v>172</v>
@@ -7158,7 +7164,7 @@
       </c>
       <c r="M66" s="85">
         <f t="shared" si="5"/>
-        <v>6.21935483870966</v>
+        <v>6.21935483870967</v>
       </c>
       <c r="N66" s="88">
         <f t="shared" ref="N66:P66" si="15">(F66-$I66)/F66</f>
@@ -7235,7 +7241,10 @@
         <f>(G67-$I67)/G67</f>
         <v>0.0926201760324982</v>
       </c>
-      <c r="P67" s="91"/>
+      <c r="P67" s="89" t="e">
+        <f>(H67-$I67)/H67</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q67" s="89">
         <f>((F67-$I67)*100+(G67-$I67)*100)/(F67*100+G67*100)</f>
         <v>0.0820547945205479</v>
@@ -7274,7 +7283,7 @@
         <v>15.94</v>
       </c>
       <c r="J68" s="57">
-        <f>(F68+F68*0.2)</f>
+        <f t="shared" si="8"/>
         <v>21.048</v>
       </c>
       <c r="K68" s="27">
@@ -7282,50 +7291,103 @@
         <v>160</v>
       </c>
       <c r="L68" s="27">
-        <f>FLOOR(1500/(F68-I68),100)</f>
+        <f t="shared" si="10"/>
         <v>900</v>
       </c>
       <c r="M68" s="85">
-        <f>(J68-F68)/(F68-I68)</f>
+        <f t="shared" si="5"/>
         <v>2.1925</v>
       </c>
       <c r="N68" s="88">
         <f>(F68-$I68)/F68</f>
         <v>0.0912200684150513</v>
       </c>
-      <c r="O68" s="126"/>
-      <c r="P68" s="126"/>
-      <c r="Q68" s="126"/>
-      <c r="R68" s="126"/>
+      <c r="O68" s="89" t="e">
+        <f>(G68-$I68)/G68</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P68" s="89" t="e">
+        <f>(H68-$I68)/H68</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q68" s="89">
+        <f>((F68-$I68)*100+(G68-$I68)*100)/(F68*100+G68*100)</f>
+        <v>-0.817559863169897</v>
+      </c>
+      <c r="R68" s="127"/>
       <c r="S68" s="98">
-        <f>F68*L68</f>
+        <f t="shared" si="9"/>
         <v>15786</v>
       </c>
       <c r="T68" s="104" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
-      <c r="A69" s="115"/>
-      <c r="B69" s="117"/>
-      <c r="C69" s="115"/>
-      <c r="D69" s="115"/>
-      <c r="E69" s="68"/>
-      <c r="F69" s="122"/>
-      <c r="G69" s="122"/>
-      <c r="H69" s="122"/>
-      <c r="I69" s="122"/>
-      <c r="J69" s="122"/>
-      <c r="K69" s="115"/>
-      <c r="L69" s="115"/>
-      <c r="M69" s="115"/>
-      <c r="N69" s="127"/>
-      <c r="O69" s="126"/>
-      <c r="P69" s="126"/>
-      <c r="Q69" s="126"/>
-      <c r="R69" s="126"/>
+    <row r="69" ht="15" spans="1:20">
+      <c r="A69" s="112" t="s">
+        <v>190</v>
+      </c>
+      <c r="B69" s="113">
+        <v>44610</v>
+      </c>
+      <c r="C69" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="D69" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="E69" s="68">
+        <v>1.87</v>
+      </c>
+      <c r="F69" s="122">
+        <v>60.65</v>
+      </c>
+      <c r="G69" s="122">
+        <v>61.5</v>
+      </c>
+      <c r="H69" s="122">
+        <v>61.7</v>
+      </c>
+      <c r="I69" s="122">
+        <v>57.52</v>
+      </c>
+      <c r="J69" s="57">
+        <f t="shared" si="8"/>
+        <v>72.78</v>
+      </c>
+      <c r="K69" s="27">
+        <f>(F69-I69)*100</f>
+        <v>313</v>
+      </c>
+      <c r="L69" s="27">
+        <f t="shared" si="10"/>
+        <v>400</v>
+      </c>
+      <c r="M69" s="85">
+        <f t="shared" si="5"/>
+        <v>3.87539936102237</v>
+      </c>
+      <c r="N69" s="88">
+        <f>(F69-$I69)/F69</f>
+        <v>0.0516075845012365</v>
+      </c>
+      <c r="O69" s="89">
+        <f>(G69-$I69)/G69</f>
+        <v>0.0647154471544715</v>
+      </c>
+      <c r="P69" s="89">
+        <f>(H69-$I69)/H69</f>
+        <v>0.0677471636952998</v>
+      </c>
+      <c r="Q69" s="89">
+        <f>((F69-$I69)*100+(G69-$I69)*100)/(F69*100+G69*100)</f>
+        <v>0.0582071223905034</v>
+      </c>
+      <c r="R69" s="127"/>
       <c r="S69" s="130"/>
-      <c r="T69" s="131"/>
+      <c r="T69" s="104" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="70" spans="1:20">
       <c r="A70" s="115"/>
@@ -7341,11 +7403,11 @@
       <c r="K70" s="115"/>
       <c r="L70" s="115"/>
       <c r="M70" s="115"/>
-      <c r="N70" s="127"/>
-      <c r="O70" s="126"/>
-      <c r="P70" s="126"/>
-      <c r="Q70" s="126"/>
-      <c r="R70" s="126"/>
+      <c r="N70" s="126"/>
+      <c r="O70" s="127"/>
+      <c r="P70" s="127"/>
+      <c r="Q70" s="127"/>
+      <c r="R70" s="127"/>
       <c r="S70" s="130"/>
       <c r="T70" s="131"/>
     </row>
@@ -7363,11 +7425,11 @@
       <c r="K71" s="115"/>
       <c r="L71" s="115"/>
       <c r="M71" s="115"/>
-      <c r="N71" s="127"/>
-      <c r="O71" s="126"/>
-      <c r="P71" s="126"/>
-      <c r="Q71" s="126"/>
-      <c r="R71" s="126"/>
+      <c r="N71" s="126"/>
+      <c r="O71" s="127"/>
+      <c r="P71" s="127"/>
+      <c r="Q71" s="127"/>
+      <c r="R71" s="127"/>
       <c r="S71" s="130"/>
       <c r="T71" s="131"/>
     </row>
@@ -7385,11 +7447,11 @@
       <c r="K72" s="115"/>
       <c r="L72" s="115"/>
       <c r="M72" s="115"/>
-      <c r="N72" s="127"/>
-      <c r="O72" s="126"/>
-      <c r="P72" s="126"/>
-      <c r="Q72" s="126"/>
-      <c r="R72" s="126"/>
+      <c r="N72" s="126"/>
+      <c r="O72" s="127"/>
+      <c r="P72" s="127"/>
+      <c r="Q72" s="127"/>
+      <c r="R72" s="127"/>
       <c r="S72" s="130"/>
       <c r="T72" s="131"/>
     </row>
@@ -7407,11 +7469,11 @@
       <c r="K73" s="115"/>
       <c r="L73" s="115"/>
       <c r="M73" s="115"/>
-      <c r="N73" s="127"/>
-      <c r="O73" s="126"/>
-      <c r="P73" s="126"/>
-      <c r="Q73" s="126"/>
-      <c r="R73" s="126"/>
+      <c r="N73" s="126"/>
+      <c r="O73" s="127"/>
+      <c r="P73" s="127"/>
+      <c r="Q73" s="127"/>
+      <c r="R73" s="127"/>
       <c r="S73" s="130"/>
       <c r="T73" s="131"/>
     </row>
@@ -7429,11 +7491,11 @@
       <c r="K74" s="115"/>
       <c r="L74" s="115"/>
       <c r="M74" s="115"/>
-      <c r="N74" s="127"/>
-      <c r="O74" s="126"/>
-      <c r="P74" s="126"/>
-      <c r="Q74" s="126"/>
-      <c r="R74" s="126"/>
+      <c r="N74" s="126"/>
+      <c r="O74" s="127"/>
+      <c r="P74" s="127"/>
+      <c r="Q74" s="127"/>
+      <c r="R74" s="127"/>
       <c r="S74" s="130"/>
       <c r="T74" s="131"/>
     </row>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
@@ -3374,7 +3374,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R69" sqref="R69"/>
+      <selection pane="bottomRight" activeCell="O68" sqref="O68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="14.8"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200">
   <si>
     <t>计划编码</t>
   </si>
@@ -910,6 +910,30 @@
   <si>
     <t>603995.SH</t>
   </si>
+  <si>
+    <t>JH_00068</t>
+  </si>
+  <si>
+    <t>002393.SZ</t>
+  </si>
+  <si>
+    <t>力生制药</t>
+  </si>
+  <si>
+    <t>JH_00069</t>
+  </si>
+  <si>
+    <t>601128.SH</t>
+  </si>
+  <si>
+    <t>常熟银行</t>
+  </si>
+  <si>
+    <t>601339.SH</t>
+  </si>
+  <si>
+    <t>百隆东方</t>
+  </si>
 </sst>
 </file>
 
@@ -926,7 +950,7 @@
     <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="45">
+  <fonts count="46">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1075,6 +1099,12 @@
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF152122"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1642,152 +1672,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2169,9 +2199,21 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2185,6 +2227,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3406,11 +3451,11 @@
   <dimension ref="A1:BH541"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F57" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q64" sqref="Q64"/>
+      <selection pane="bottomRight" activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="14.8"/>
@@ -4083,7 +4128,7 @@
       <c r="B11" s="26">
         <v>44539</v>
       </c>
-      <c r="C11" s="142" t="s">
+      <c r="C11" s="147" t="s">
         <v>44</v>
       </c>
       <c r="D11" s="33" t="s">
@@ -4237,7 +4282,7 @@
       <c r="B14" s="26">
         <v>44525</v>
       </c>
-      <c r="C14" s="143" t="s">
+      <c r="C14" s="148" t="s">
         <v>52</v>
       </c>
       <c r="D14" s="25" t="s">
@@ -4445,7 +4490,7 @@
       <c r="B18" s="26">
         <v>44533</v>
       </c>
-      <c r="C18" s="143" t="s">
+      <c r="C18" s="148" t="s">
         <v>62</v>
       </c>
       <c r="D18" s="25" t="s">
@@ -4652,7 +4697,7 @@
       <c r="B22" s="34">
         <v>44553</v>
       </c>
-      <c r="C22" s="144" t="s">
+      <c r="C22" s="149" t="s">
         <v>52</v>
       </c>
       <c r="D22" s="36" t="s">
@@ -4705,7 +4750,7 @@
       <c r="B23" s="34">
         <v>44546</v>
       </c>
-      <c r="C23" s="142" t="s">
+      <c r="C23" s="147" t="s">
         <v>75</v>
       </c>
       <c r="D23" s="30" t="s">
@@ -4809,7 +4854,7 @@
       <c r="B25" s="34">
         <v>44547</v>
       </c>
-      <c r="C25" s="142" t="s">
+      <c r="C25" s="147" t="s">
         <v>81</v>
       </c>
       <c r="D25" s="30" t="s">
@@ -4862,7 +4907,7 @@
       <c r="B26" s="34">
         <v>44549</v>
       </c>
-      <c r="C26" s="142" t="s">
+      <c r="C26" s="147" t="s">
         <v>44</v>
       </c>
       <c r="D26" s="33" t="s">
@@ -5074,7 +5119,7 @@
       <c r="B30" s="34">
         <v>44549</v>
       </c>
-      <c r="C30" s="145" t="s">
+      <c r="C30" s="150" t="s">
         <v>93</v>
       </c>
       <c r="D30" s="38" t="s">
@@ -5354,7 +5399,7 @@
       <c r="B35" s="41">
         <v>44553</v>
       </c>
-      <c r="C35" s="145" t="s">
+      <c r="C35" s="150" t="s">
         <v>103</v>
       </c>
       <c r="D35" s="40" t="s">
@@ -5410,7 +5455,7 @@
       <c r="B36" s="41">
         <v>44553</v>
       </c>
-      <c r="C36" s="145" t="s">
+      <c r="C36" s="150" t="s">
         <v>106</v>
       </c>
       <c r="D36" s="40" t="s">
@@ -5746,7 +5791,7 @@
       <c r="B42" s="41">
         <v>44557</v>
       </c>
-      <c r="C42" s="145" t="s">
+      <c r="C42" s="150" t="s">
         <v>120</v>
       </c>
       <c r="D42" s="38" t="s">
@@ -6025,7 +6070,7 @@
       <c r="B47" s="41">
         <v>44565</v>
       </c>
-      <c r="C47" s="144" t="s">
+      <c r="C47" s="149" t="s">
         <v>52</v>
       </c>
       <c r="D47" s="47" t="s">
@@ -6092,7 +6137,7 @@
       <c r="B48" s="41">
         <v>44565</v>
       </c>
-      <c r="C48" s="145" t="s">
+      <c r="C48" s="150" t="s">
         <v>130</v>
       </c>
       <c r="D48" s="38" t="s">
@@ -6964,8 +7009,8 @@
         <v>26</v>
       </c>
       <c r="L62" s="86">
-        <f t="shared" si="10"/>
-        <v>5700</v>
+        <f>FLOOR(1600/(F62-I62),100)</f>
+        <v>6100</v>
       </c>
       <c r="M62" s="101">
         <f t="shared" si="5"/>
@@ -6990,7 +7035,7 @@
       <c r="R62" s="100"/>
       <c r="S62" s="96">
         <f t="shared" si="9"/>
-        <v>27759</v>
+        <v>29707</v>
       </c>
       <c r="T62" s="114" t="s">
         <v>172</v>
@@ -7089,8 +7134,8 @@
         <v>51</v>
       </c>
       <c r="L64" s="86">
-        <f t="shared" si="10"/>
-        <v>2900</v>
+        <f>FLOOR(1600/(F64-I64),100)</f>
+        <v>3100</v>
       </c>
       <c r="M64" s="101">
         <f t="shared" si="5"/>
@@ -7115,7 +7160,7 @@
       <c r="R64" s="117"/>
       <c r="S64" s="96">
         <f t="shared" si="9"/>
-        <v>30914</v>
+        <v>33046</v>
       </c>
       <c r="T64" s="118" t="s">
         <v>172</v>
@@ -7134,13 +7179,13 @@
       <c r="D65" s="124" t="s">
         <v>180</v>
       </c>
-      <c r="E65" s="129">
+      <c r="E65" s="133">
         <v>0.72</v>
       </c>
-      <c r="F65" s="130"/>
-      <c r="G65" s="130"/>
-      <c r="H65" s="130"/>
-      <c r="I65" s="130"/>
+      <c r="F65" s="134"/>
+      <c r="G65" s="134"/>
+      <c r="H65" s="134"/>
+      <c r="I65" s="134"/>
       <c r="J65" s="61">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -7161,15 +7206,15 @@
         <f>(F65-$I65)/F65</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O65" s="135"/>
-      <c r="P65" s="135"/>
-      <c r="Q65" s="135"/>
-      <c r="R65" s="135"/>
+      <c r="O65" s="140"/>
+      <c r="P65" s="140"/>
+      <c r="Q65" s="140"/>
+      <c r="R65" s="140"/>
       <c r="S65" s="108" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T65" s="139"/>
+      <c r="T65" s="144"/>
     </row>
     <row r="66" s="5" customFormat="1" ht="15" spans="1:20">
       <c r="A66" s="122" t="s">
@@ -7184,7 +7229,7 @@
       <c r="D66" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="E66" s="131">
+      <c r="E66" s="135">
         <v>1.3</v>
       </c>
       <c r="F66" s="69">
@@ -7253,7 +7298,7 @@
       <c r="D67" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="E67" s="131">
+      <c r="E67" s="135">
         <v>1.2</v>
       </c>
       <c r="F67" s="66">
@@ -7314,7 +7359,7 @@
       <c r="B68" s="123">
         <v>44608</v>
       </c>
-      <c r="C68" s="146" t="s">
+      <c r="C68" s="151" t="s">
         <v>188</v>
       </c>
       <c r="D68" s="126" t="s">
@@ -7323,12 +7368,12 @@
       <c r="E68" s="72">
         <v>0.8</v>
       </c>
-      <c r="F68" s="132">
+      <c r="F68" s="136">
         <v>17.54</v>
       </c>
-      <c r="G68" s="132"/>
-      <c r="H68" s="132"/>
-      <c r="I68" s="132">
+      <c r="G68" s="136"/>
+      <c r="H68" s="136"/>
+      <c r="I68" s="136">
         <v>15.94</v>
       </c>
       <c r="J68" s="61">
@@ -7360,7 +7405,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q68" s="98"/>
-      <c r="R68" s="137"/>
+      <c r="R68" s="142"/>
       <c r="S68" s="108">
         <f t="shared" si="9"/>
         <v>15786</v>
@@ -7385,16 +7430,16 @@
       <c r="E69" s="72">
         <v>1.87</v>
       </c>
-      <c r="F69" s="132">
+      <c r="F69" s="136">
         <v>60.65</v>
       </c>
-      <c r="G69" s="132">
+      <c r="G69" s="136">
         <v>61.5</v>
       </c>
-      <c r="H69" s="132">
+      <c r="H69" s="136">
         <v>61.7</v>
       </c>
-      <c r="I69" s="132">
+      <c r="I69" s="136">
         <v>57.52</v>
       </c>
       <c r="J69" s="61">
@@ -7429,5930 +7474,6031 @@
         <f>((F69-$I69)*100+(G69-$I69)*100)/(F69*100+G69*100)</f>
         <v>0.0582071223905034</v>
       </c>
-      <c r="R69" s="137"/>
-      <c r="S69" s="140"/>
+      <c r="R69" s="142"/>
+      <c r="S69" s="108">
+        <f>F69*L69</f>
+        <v>24260</v>
+      </c>
       <c r="T69" s="114" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="70" spans="1:20">
-      <c r="A70" s="125"/>
-      <c r="B70" s="127"/>
-      <c r="C70" s="125"/>
-      <c r="D70" s="125"/>
-      <c r="E70" s="72"/>
-      <c r="F70" s="132"/>
-      <c r="G70" s="132"/>
-      <c r="H70" s="132"/>
-      <c r="I70" s="132"/>
-      <c r="J70" s="132"/>
-      <c r="K70" s="125"/>
-      <c r="L70" s="125"/>
-      <c r="M70" s="125"/>
-      <c r="N70" s="136"/>
-      <c r="O70" s="137"/>
-      <c r="P70" s="137"/>
-      <c r="Q70" s="137"/>
-      <c r="R70" s="137"/>
-      <c r="S70" s="140"/>
-      <c r="T70" s="141"/>
-    </row>
-    <row r="71" spans="1:20">
-      <c r="A71" s="125"/>
-      <c r="B71" s="127"/>
-      <c r="C71" s="125"/>
-      <c r="D71" s="125"/>
-      <c r="E71" s="72"/>
-      <c r="F71" s="132"/>
-      <c r="G71" s="132"/>
-      <c r="H71" s="132"/>
-      <c r="I71" s="132"/>
-      <c r="J71" s="132"/>
-      <c r="K71" s="125"/>
-      <c r="L71" s="125"/>
-      <c r="M71" s="125"/>
-      <c r="N71" s="136"/>
-      <c r="O71" s="137"/>
-      <c r="P71" s="137"/>
-      <c r="Q71" s="137"/>
-      <c r="R71" s="137"/>
-      <c r="S71" s="140"/>
-      <c r="T71" s="141"/>
-    </row>
-    <row r="72" spans="1:20">
+    <row r="70" s="6" customFormat="1" ht="15" spans="1:20">
+      <c r="A70" s="127" t="s">
+        <v>192</v>
+      </c>
+      <c r="B70" s="128">
+        <v>44614</v>
+      </c>
+      <c r="C70" s="129" t="s">
+        <v>193</v>
+      </c>
+      <c r="D70" s="129" t="s">
+        <v>194</v>
+      </c>
+      <c r="E70" s="137">
+        <v>0.54</v>
+      </c>
+      <c r="F70" s="78">
+        <v>21.88</v>
+      </c>
+      <c r="G70" s="78">
+        <v>22.12</v>
+      </c>
+      <c r="H70" s="78">
+        <v>22.25</v>
+      </c>
+      <c r="I70" s="78">
+        <v>20.65</v>
+      </c>
+      <c r="J70" s="85">
+        <f>(F70+F70*0.2)</f>
+        <v>26.256</v>
+      </c>
+      <c r="K70" s="86">
+        <f>(F70-I70)*100</f>
+        <v>123</v>
+      </c>
+      <c r="L70" s="86">
+        <f>FLOOR(1600/(F70-I70),100)</f>
+        <v>1300</v>
+      </c>
+      <c r="M70" s="101">
+        <f>(J70-F70)/(F70-I70)</f>
+        <v>3.55772357723577</v>
+      </c>
+      <c r="N70" s="97">
+        <f>(F70-$I70)/F70</f>
+        <v>0.0562157221206582</v>
+      </c>
+      <c r="O70" s="98">
+        <f>(G70-$I70)/G70</f>
+        <v>0.0664556962025317</v>
+      </c>
+      <c r="P70" s="98">
+        <f>(H70-$I70)/H70</f>
+        <v>0.0719101123595506</v>
+      </c>
+      <c r="Q70" s="98">
+        <f>((F70-$I70)*200+(G70-$I70)*400+(H70-$I70)*600)/(F70*200+G70*400+H70*600)</f>
+        <v>0.0675095958455634</v>
+      </c>
+      <c r="R70" s="100"/>
+      <c r="S70" s="96">
+        <f>F70*L70</f>
+        <v>28444</v>
+      </c>
+      <c r="T70" s="114" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="71" s="6" customFormat="1" ht="15" spans="1:20">
+      <c r="A71" s="127" t="s">
+        <v>195</v>
+      </c>
+      <c r="B71" s="128">
+        <v>44614</v>
+      </c>
+      <c r="C71" s="129" t="s">
+        <v>196</v>
+      </c>
+      <c r="D71" s="129" t="s">
+        <v>197</v>
+      </c>
+      <c r="E71" s="137">
+        <v>0.61</v>
+      </c>
+      <c r="F71" s="78">
+        <v>7.87</v>
+      </c>
+      <c r="G71" s="78">
+        <v>7.97</v>
+      </c>
+      <c r="H71" s="78">
+        <v>8.1</v>
+      </c>
+      <c r="I71" s="78">
+        <v>7.52</v>
+      </c>
+      <c r="J71" s="85">
+        <f>(F71+F71*0.2)</f>
+        <v>9.444</v>
+      </c>
+      <c r="K71" s="86">
+        <f>(F71-I71)*100</f>
+        <v>35.0000000000001</v>
+      </c>
+      <c r="L71" s="86">
+        <f>FLOOR(1600/(F71-I71),100)</f>
+        <v>4500</v>
+      </c>
+      <c r="M71" s="101">
+        <f>(J71-F71)/(F71-I71)</f>
+        <v>4.49714285714285</v>
+      </c>
+      <c r="N71" s="97">
+        <f>(F71-$I71)/F71</f>
+        <v>0.0444726810673444</v>
+      </c>
+      <c r="O71" s="98">
+        <f>(G71-$I71)/G71</f>
+        <v>0.0564617314930991</v>
+      </c>
+      <c r="P71" s="98">
+        <f>(H71-$I71)/H71</f>
+        <v>0.071604938271605</v>
+      </c>
+      <c r="Q71" s="98">
+        <f>((F71-$I71)*500+(G71-$I71)*1500+(H71-$I71)*2200)/(F71*500+G71*1500+H71*2200)</f>
+        <v>0.0630673390685257</v>
+      </c>
+      <c r="R71" s="100"/>
+      <c r="S71" s="96">
+        <f>F71*L71</f>
+        <v>35415</v>
+      </c>
+      <c r="T71" s="114" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="72" ht="18" spans="1:20">
       <c r="A72" s="125"/>
-      <c r="B72" s="127"/>
-      <c r="C72" s="125"/>
-      <c r="D72" s="125"/>
+      <c r="B72" s="130"/>
+      <c r="C72" s="131" t="s">
+        <v>198</v>
+      </c>
+      <c r="D72" s="131" t="s">
+        <v>199</v>
+      </c>
       <c r="E72" s="72"/>
-      <c r="F72" s="132"/>
-      <c r="G72" s="132"/>
-      <c r="H72" s="132"/>
-      <c r="I72" s="132"/>
-      <c r="J72" s="132"/>
+      <c r="F72" s="136"/>
+      <c r="G72" s="136"/>
+      <c r="H72" s="136"/>
+      <c r="I72" s="136"/>
+      <c r="J72" s="136"/>
       <c r="K72" s="125"/>
       <c r="L72" s="125"/>
       <c r="M72" s="125"/>
-      <c r="N72" s="136"/>
-      <c r="O72" s="137"/>
-      <c r="P72" s="137"/>
-      <c r="Q72" s="137"/>
-      <c r="R72" s="137"/>
-      <c r="S72" s="140"/>
-      <c r="T72" s="141"/>
+      <c r="N72" s="141"/>
+      <c r="O72" s="142"/>
+      <c r="P72" s="142"/>
+      <c r="Q72" s="142"/>
+      <c r="R72" s="142"/>
+      <c r="S72" s="145"/>
+      <c r="T72" s="146"/>
     </row>
     <row r="73" spans="1:20">
       <c r="A73" s="125"/>
-      <c r="B73" s="127"/>
+      <c r="B73" s="130"/>
       <c r="C73" s="125"/>
       <c r="D73" s="125"/>
       <c r="E73" s="72"/>
-      <c r="F73" s="132"/>
-      <c r="G73" s="132"/>
-      <c r="H73" s="132"/>
-      <c r="I73" s="132"/>
-      <c r="J73" s="132"/>
+      <c r="F73" s="136"/>
+      <c r="G73" s="136"/>
+      <c r="H73" s="136"/>
+      <c r="I73" s="136"/>
+      <c r="J73" s="136"/>
       <c r="K73" s="125"/>
       <c r="L73" s="125"/>
       <c r="M73" s="125"/>
-      <c r="N73" s="136"/>
-      <c r="O73" s="137"/>
-      <c r="P73" s="137"/>
-      <c r="Q73" s="137"/>
-      <c r="R73" s="137"/>
-      <c r="S73" s="140"/>
-      <c r="T73" s="141"/>
+      <c r="N73" s="141"/>
+      <c r="O73" s="142"/>
+      <c r="P73" s="142"/>
+      <c r="Q73" s="142"/>
+      <c r="R73" s="142"/>
+      <c r="S73" s="145"/>
+      <c r="T73" s="146"/>
     </row>
     <row r="74" spans="1:20">
       <c r="A74" s="125"/>
-      <c r="B74" s="127"/>
+      <c r="B74" s="130"/>
       <c r="C74" s="125"/>
       <c r="D74" s="125"/>
       <c r="E74" s="72"/>
-      <c r="F74" s="132"/>
-      <c r="G74" s="132"/>
-      <c r="H74" s="132"/>
-      <c r="I74" s="132"/>
-      <c r="J74" s="132"/>
+      <c r="F74" s="136"/>
+      <c r="G74" s="136"/>
+      <c r="H74" s="136"/>
+      <c r="I74" s="136"/>
+      <c r="J74" s="136"/>
       <c r="K74" s="125"/>
       <c r="L74" s="125"/>
       <c r="M74" s="125"/>
-      <c r="N74" s="136"/>
-      <c r="O74" s="137"/>
-      <c r="P74" s="137"/>
-      <c r="Q74" s="137"/>
-      <c r="R74" s="137"/>
-      <c r="S74" s="140"/>
-      <c r="T74" s="141"/>
+      <c r="N74" s="141"/>
+      <c r="O74" s="142"/>
+      <c r="P74" s="142"/>
+      <c r="Q74" s="142"/>
+      <c r="R74" s="142"/>
+      <c r="S74" s="145"/>
+      <c r="T74" s="146"/>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="10"/>
-      <c r="B75" s="128"/>
+      <c r="B75" s="132"/>
       <c r="D75" s="10"/>
-      <c r="E75" s="133"/>
-      <c r="F75" s="134"/>
-      <c r="G75" s="134"/>
-      <c r="H75" s="134"/>
-      <c r="I75" s="134"/>
-      <c r="J75" s="134"/>
+      <c r="E75" s="138"/>
+      <c r="F75" s="139"/>
+      <c r="G75" s="139"/>
+      <c r="H75" s="139"/>
+      <c r="I75" s="139"/>
+      <c r="J75" s="139"/>
       <c r="K75" s="10"/>
       <c r="L75" s="10"/>
       <c r="M75" s="10"/>
-      <c r="N75" s="138"/>
+      <c r="N75" s="143"/>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="10"/>
-      <c r="B76" s="128"/>
+      <c r="B76" s="132"/>
       <c r="D76" s="10"/>
-      <c r="E76" s="133"/>
-      <c r="F76" s="134"/>
-      <c r="G76" s="134"/>
-      <c r="H76" s="134"/>
-      <c r="I76" s="134"/>
-      <c r="J76" s="134"/>
+      <c r="E76" s="138"/>
+      <c r="F76" s="139"/>
+      <c r="G76" s="139"/>
+      <c r="H76" s="139"/>
+      <c r="I76" s="139"/>
+      <c r="J76" s="139"/>
       <c r="K76" s="10"/>
       <c r="L76" s="10"/>
       <c r="M76" s="10"/>
-      <c r="N76" s="138"/>
+      <c r="N76" s="143"/>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="10"/>
-      <c r="B77" s="128"/>
+      <c r="B77" s="132"/>
       <c r="D77" s="10"/>
-      <c r="E77" s="133"/>
-      <c r="F77" s="134"/>
-      <c r="G77" s="134"/>
-      <c r="H77" s="134"/>
-      <c r="I77" s="134"/>
-      <c r="J77" s="134"/>
+      <c r="E77" s="138"/>
+      <c r="F77" s="139"/>
+      <c r="G77" s="139"/>
+      <c r="H77" s="139"/>
+      <c r="I77" s="139"/>
+      <c r="J77" s="139"/>
       <c r="K77" s="10"/>
       <c r="L77" s="10"/>
       <c r="M77" s="10"/>
-      <c r="N77" s="138"/>
+      <c r="N77" s="143"/>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="10"/>
-      <c r="B78" s="128"/>
+      <c r="B78" s="132"/>
       <c r="D78" s="10"/>
-      <c r="E78" s="133"/>
-      <c r="F78" s="134"/>
-      <c r="G78" s="134"/>
-      <c r="H78" s="134"/>
-      <c r="I78" s="134"/>
-      <c r="J78" s="134"/>
+      <c r="E78" s="138"/>
+      <c r="F78" s="139"/>
+      <c r="G78" s="139"/>
+      <c r="H78" s="139"/>
+      <c r="I78" s="139"/>
+      <c r="J78" s="139"/>
       <c r="K78" s="10"/>
       <c r="L78" s="10"/>
       <c r="M78" s="10"/>
-      <c r="N78" s="138"/>
+      <c r="N78" s="143"/>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="10"/>
-      <c r="B79" s="128"/>
+      <c r="B79" s="132"/>
       <c r="D79" s="10"/>
-      <c r="E79" s="133"/>
-      <c r="F79" s="134"/>
-      <c r="G79" s="134"/>
-      <c r="H79" s="134"/>
-      <c r="I79" s="134"/>
-      <c r="J79" s="134"/>
+      <c r="E79" s="138"/>
+      <c r="F79" s="139"/>
+      <c r="G79" s="139"/>
+      <c r="H79" s="139"/>
+      <c r="I79" s="139"/>
+      <c r="J79" s="139"/>
       <c r="K79" s="10"/>
       <c r="L79" s="10"/>
       <c r="M79" s="10"/>
-      <c r="N79" s="138"/>
+      <c r="N79" s="143"/>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="10"/>
-      <c r="B80" s="128"/>
+      <c r="B80" s="132"/>
       <c r="D80" s="10"/>
-      <c r="E80" s="133"/>
-      <c r="F80" s="134"/>
-      <c r="G80" s="134"/>
-      <c r="H80" s="134"/>
-      <c r="I80" s="134"/>
-      <c r="J80" s="134"/>
+      <c r="E80" s="138"/>
+      <c r="F80" s="139"/>
+      <c r="G80" s="139"/>
+      <c r="H80" s="139"/>
+      <c r="I80" s="139"/>
+      <c r="J80" s="139"/>
       <c r="K80" s="10"/>
       <c r="L80" s="10"/>
       <c r="M80" s="10"/>
-      <c r="N80" s="138"/>
+      <c r="N80" s="143"/>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="10"/>
-      <c r="B81" s="128"/>
+      <c r="B81" s="132"/>
       <c r="D81" s="10"/>
-      <c r="E81" s="133"/>
-      <c r="F81" s="134"/>
-      <c r="G81" s="134"/>
-      <c r="H81" s="134"/>
-      <c r="I81" s="134"/>
-      <c r="J81" s="134"/>
+      <c r="E81" s="138"/>
+      <c r="F81" s="139"/>
+      <c r="G81" s="139"/>
+      <c r="H81" s="139"/>
+      <c r="I81" s="139"/>
+      <c r="J81" s="139"/>
       <c r="K81" s="10"/>
       <c r="L81" s="10"/>
       <c r="M81" s="10"/>
-      <c r="N81" s="138"/>
+      <c r="N81" s="143"/>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="10"/>
-      <c r="B82" s="128"/>
+      <c r="B82" s="132"/>
       <c r="D82" s="10"/>
-      <c r="E82" s="133"/>
-      <c r="F82" s="134"/>
-      <c r="G82" s="134"/>
-      <c r="H82" s="134"/>
-      <c r="I82" s="134"/>
-      <c r="J82" s="134"/>
+      <c r="E82" s="138"/>
+      <c r="F82" s="139"/>
+      <c r="G82" s="139"/>
+      <c r="H82" s="139"/>
+      <c r="I82" s="139"/>
+      <c r="J82" s="139"/>
       <c r="K82" s="10"/>
       <c r="L82" s="10"/>
       <c r="M82" s="10"/>
-      <c r="N82" s="138"/>
+      <c r="N82" s="143"/>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="10"/>
-      <c r="B83" s="128"/>
+      <c r="B83" s="132"/>
       <c r="D83" s="10"/>
-      <c r="E83" s="133"/>
-      <c r="F83" s="134"/>
-      <c r="G83" s="134"/>
-      <c r="H83" s="134"/>
-      <c r="I83" s="134"/>
-      <c r="J83" s="134"/>
+      <c r="E83" s="138"/>
+      <c r="F83" s="139"/>
+      <c r="G83" s="139"/>
+      <c r="H83" s="139"/>
+      <c r="I83" s="139"/>
+      <c r="J83" s="139"/>
       <c r="K83" s="10"/>
       <c r="L83" s="10"/>
       <c r="M83" s="10"/>
-      <c r="N83" s="138"/>
+      <c r="N83" s="143"/>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="10"/>
-      <c r="B84" s="128"/>
+      <c r="B84" s="132"/>
       <c r="D84" s="10"/>
-      <c r="E84" s="133"/>
-      <c r="F84" s="134"/>
-      <c r="G84" s="134"/>
-      <c r="H84" s="134"/>
-      <c r="I84" s="134"/>
-      <c r="J84" s="134"/>
+      <c r="E84" s="138"/>
+      <c r="F84" s="139"/>
+      <c r="G84" s="139"/>
+      <c r="H84" s="139"/>
+      <c r="I84" s="139"/>
+      <c r="J84" s="139"/>
       <c r="K84" s="10"/>
       <c r="L84" s="10"/>
       <c r="M84" s="10"/>
-      <c r="N84" s="138"/>
+      <c r="N84" s="143"/>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="10"/>
-      <c r="B85" s="128"/>
+      <c r="B85" s="132"/>
       <c r="D85" s="10"/>
-      <c r="E85" s="133"/>
-      <c r="F85" s="134"/>
-      <c r="G85" s="134"/>
-      <c r="H85" s="134"/>
-      <c r="I85" s="134"/>
-      <c r="J85" s="134"/>
+      <c r="E85" s="138"/>
+      <c r="F85" s="139"/>
+      <c r="G85" s="139"/>
+      <c r="H85" s="139"/>
+      <c r="I85" s="139"/>
+      <c r="J85" s="139"/>
       <c r="K85" s="10"/>
       <c r="L85" s="10"/>
       <c r="M85" s="10"/>
-      <c r="N85" s="138"/>
+      <c r="N85" s="143"/>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="10"/>
-      <c r="B86" s="128"/>
+      <c r="B86" s="132"/>
       <c r="D86" s="10"/>
-      <c r="E86" s="133"/>
-      <c r="F86" s="134"/>
-      <c r="G86" s="134"/>
-      <c r="H86" s="134"/>
-      <c r="I86" s="134"/>
-      <c r="J86" s="134"/>
+      <c r="E86" s="138"/>
+      <c r="F86" s="139"/>
+      <c r="G86" s="139"/>
+      <c r="H86" s="139"/>
+      <c r="I86" s="139"/>
+      <c r="J86" s="139"/>
       <c r="K86" s="10"/>
       <c r="L86" s="10"/>
       <c r="M86" s="10"/>
-      <c r="N86" s="138"/>
+      <c r="N86" s="143"/>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="10"/>
-      <c r="B87" s="128"/>
+      <c r="B87" s="132"/>
       <c r="D87" s="10"/>
-      <c r="E87" s="133"/>
-      <c r="F87" s="134"/>
-      <c r="G87" s="134"/>
-      <c r="H87" s="134"/>
-      <c r="I87" s="134"/>
-      <c r="J87" s="134"/>
+      <c r="E87" s="138"/>
+      <c r="F87" s="139"/>
+      <c r="G87" s="139"/>
+      <c r="H87" s="139"/>
+      <c r="I87" s="139"/>
+      <c r="J87" s="139"/>
       <c r="K87" s="10"/>
       <c r="L87" s="10"/>
       <c r="M87" s="10"/>
-      <c r="N87" s="138"/>
+      <c r="N87" s="143"/>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="10"/>
-      <c r="B88" s="128"/>
+      <c r="B88" s="132"/>
       <c r="D88" s="10"/>
-      <c r="E88" s="133"/>
-      <c r="F88" s="134"/>
-      <c r="G88" s="134"/>
-      <c r="H88" s="134"/>
-      <c r="I88" s="134"/>
-      <c r="J88" s="134"/>
+      <c r="E88" s="138"/>
+      <c r="F88" s="139"/>
+      <c r="G88" s="139"/>
+      <c r="H88" s="139"/>
+      <c r="I88" s="139"/>
+      <c r="J88" s="139"/>
       <c r="K88" s="10"/>
       <c r="L88" s="10"/>
       <c r="M88" s="10"/>
-      <c r="N88" s="138"/>
+      <c r="N88" s="143"/>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="10"/>
-      <c r="B89" s="128"/>
+      <c r="B89" s="132"/>
       <c r="D89" s="10"/>
-      <c r="E89" s="133"/>
-      <c r="F89" s="134"/>
-      <c r="G89" s="134"/>
-      <c r="H89" s="134"/>
-      <c r="I89" s="134"/>
-      <c r="J89" s="134"/>
+      <c r="E89" s="138"/>
+      <c r="F89" s="139"/>
+      <c r="G89" s="139"/>
+      <c r="H89" s="139"/>
+      <c r="I89" s="139"/>
+      <c r="J89" s="139"/>
       <c r="K89" s="10"/>
       <c r="L89" s="10"/>
       <c r="M89" s="10"/>
-      <c r="N89" s="138"/>
+      <c r="N89" s="143"/>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="10"/>
-      <c r="B90" s="128"/>
+      <c r="B90" s="132"/>
       <c r="D90" s="10"/>
-      <c r="E90" s="133"/>
-      <c r="F90" s="134"/>
-      <c r="G90" s="134"/>
-      <c r="H90" s="134"/>
-      <c r="I90" s="134"/>
-      <c r="J90" s="134"/>
+      <c r="E90" s="138"/>
+      <c r="F90" s="139"/>
+      <c r="G90" s="139"/>
+      <c r="H90" s="139"/>
+      <c r="I90" s="139"/>
+      <c r="J90" s="139"/>
       <c r="K90" s="10"/>
       <c r="L90" s="10"/>
       <c r="M90" s="10"/>
-      <c r="N90" s="138"/>
+      <c r="N90" s="143"/>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="10"/>
-      <c r="B91" s="128"/>
+      <c r="B91" s="132"/>
       <c r="D91" s="10"/>
-      <c r="E91" s="133"/>
-      <c r="F91" s="134"/>
-      <c r="G91" s="134"/>
-      <c r="H91" s="134"/>
-      <c r="I91" s="134"/>
-      <c r="J91" s="134"/>
+      <c r="E91" s="138"/>
+      <c r="F91" s="139"/>
+      <c r="G91" s="139"/>
+      <c r="H91" s="139"/>
+      <c r="I91" s="139"/>
+      <c r="J91" s="139"/>
       <c r="K91" s="10"/>
       <c r="L91" s="10"/>
       <c r="M91" s="10"/>
-      <c r="N91" s="138"/>
+      <c r="N91" s="143"/>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="10"/>
-      <c r="B92" s="128"/>
+      <c r="B92" s="132"/>
       <c r="D92" s="10"/>
-      <c r="E92" s="133"/>
-      <c r="F92" s="134"/>
-      <c r="G92" s="134"/>
-      <c r="H92" s="134"/>
-      <c r="I92" s="134"/>
-      <c r="J92" s="134"/>
+      <c r="E92" s="138"/>
+      <c r="F92" s="139"/>
+      <c r="G92" s="139"/>
+      <c r="H92" s="139"/>
+      <c r="I92" s="139"/>
+      <c r="J92" s="139"/>
       <c r="K92" s="10"/>
       <c r="L92" s="10"/>
       <c r="M92" s="10"/>
-      <c r="N92" s="138"/>
+      <c r="N92" s="143"/>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="10"/>
-      <c r="B93" s="128"/>
+      <c r="B93" s="132"/>
       <c r="D93" s="10"/>
-      <c r="E93" s="133"/>
-      <c r="F93" s="134"/>
-      <c r="G93" s="134"/>
-      <c r="H93" s="134"/>
-      <c r="I93" s="134"/>
-      <c r="J93" s="134"/>
+      <c r="E93" s="138"/>
+      <c r="F93" s="139"/>
+      <c r="G93" s="139"/>
+      <c r="H93" s="139"/>
+      <c r="I93" s="139"/>
+      <c r="J93" s="139"/>
       <c r="K93" s="10"/>
       <c r="L93" s="10"/>
       <c r="M93" s="10"/>
-      <c r="N93" s="138"/>
+      <c r="N93" s="143"/>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="10"/>
-      <c r="B94" s="128"/>
+      <c r="B94" s="132"/>
       <c r="D94" s="10"/>
-      <c r="E94" s="133"/>
-      <c r="F94" s="134"/>
-      <c r="G94" s="134"/>
-      <c r="H94" s="134"/>
-      <c r="I94" s="134"/>
-      <c r="J94" s="134"/>
+      <c r="E94" s="138"/>
+      <c r="F94" s="139"/>
+      <c r="G94" s="139"/>
+      <c r="H94" s="139"/>
+      <c r="I94" s="139"/>
+      <c r="J94" s="139"/>
       <c r="K94" s="10"/>
       <c r="L94" s="10"/>
       <c r="M94" s="10"/>
-      <c r="N94" s="138"/>
+      <c r="N94" s="143"/>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="10"/>
-      <c r="B95" s="128"/>
+      <c r="B95" s="132"/>
       <c r="D95" s="10"/>
-      <c r="E95" s="133"/>
-      <c r="F95" s="134"/>
-      <c r="G95" s="134"/>
-      <c r="H95" s="134"/>
-      <c r="I95" s="134"/>
-      <c r="J95" s="134"/>
+      <c r="E95" s="138"/>
+      <c r="F95" s="139"/>
+      <c r="G95" s="139"/>
+      <c r="H95" s="139"/>
+      <c r="I95" s="139"/>
+      <c r="J95" s="139"/>
       <c r="K95" s="10"/>
       <c r="L95" s="10"/>
       <c r="M95" s="10"/>
-      <c r="N95" s="138"/>
+      <c r="N95" s="143"/>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="10"/>
-      <c r="B96" s="128"/>
+      <c r="B96" s="132"/>
       <c r="D96" s="10"/>
-      <c r="E96" s="133"/>
-      <c r="F96" s="134"/>
-      <c r="G96" s="134"/>
-      <c r="H96" s="134"/>
-      <c r="I96" s="134"/>
-      <c r="J96" s="134"/>
+      <c r="E96" s="138"/>
+      <c r="F96" s="139"/>
+      <c r="G96" s="139"/>
+      <c r="H96" s="139"/>
+      <c r="I96" s="139"/>
+      <c r="J96" s="139"/>
       <c r="K96" s="10"/>
       <c r="L96" s="10"/>
       <c r="M96" s="10"/>
-      <c r="N96" s="138"/>
+      <c r="N96" s="143"/>
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="10"/>
-      <c r="B97" s="128"/>
+      <c r="B97" s="132"/>
       <c r="D97" s="10"/>
-      <c r="E97" s="133"/>
-      <c r="F97" s="134"/>
-      <c r="G97" s="134"/>
-      <c r="H97" s="134"/>
-      <c r="I97" s="134"/>
-      <c r="J97" s="134"/>
+      <c r="E97" s="138"/>
+      <c r="F97" s="139"/>
+      <c r="G97" s="139"/>
+      <c r="H97" s="139"/>
+      <c r="I97" s="139"/>
+      <c r="J97" s="139"/>
       <c r="K97" s="10"/>
       <c r="L97" s="10"/>
       <c r="M97" s="10"/>
-      <c r="N97" s="138"/>
+      <c r="N97" s="143"/>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="10"/>
-      <c r="B98" s="128"/>
+      <c r="B98" s="132"/>
       <c r="D98" s="10"/>
-      <c r="E98" s="133"/>
-      <c r="F98" s="134"/>
-      <c r="G98" s="134"/>
-      <c r="H98" s="134"/>
-      <c r="I98" s="134"/>
-      <c r="J98" s="134"/>
+      <c r="E98" s="138"/>
+      <c r="F98" s="139"/>
+      <c r="G98" s="139"/>
+      <c r="H98" s="139"/>
+      <c r="I98" s="139"/>
+      <c r="J98" s="139"/>
       <c r="K98" s="10"/>
       <c r="L98" s="10"/>
       <c r="M98" s="10"/>
-      <c r="N98" s="138"/>
+      <c r="N98" s="143"/>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="10"/>
-      <c r="B99" s="128"/>
+      <c r="B99" s="132"/>
       <c r="D99" s="10"/>
-      <c r="E99" s="133"/>
-      <c r="F99" s="134"/>
-      <c r="G99" s="134"/>
-      <c r="H99" s="134"/>
-      <c r="I99" s="134"/>
-      <c r="J99" s="134"/>
+      <c r="E99" s="138"/>
+      <c r="F99" s="139"/>
+      <c r="G99" s="139"/>
+      <c r="H99" s="139"/>
+      <c r="I99" s="139"/>
+      <c r="J99" s="139"/>
       <c r="K99" s="10"/>
       <c r="L99" s="10"/>
       <c r="M99" s="10"/>
-      <c r="N99" s="138"/>
+      <c r="N99" s="143"/>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="10"/>
-      <c r="B100" s="128"/>
+      <c r="B100" s="132"/>
       <c r="D100" s="10"/>
-      <c r="E100" s="133"/>
-      <c r="F100" s="134"/>
-      <c r="G100" s="134"/>
-      <c r="H100" s="134"/>
-      <c r="I100" s="134"/>
-      <c r="J100" s="134"/>
+      <c r="E100" s="138"/>
+      <c r="F100" s="139"/>
+      <c r="G100" s="139"/>
+      <c r="H100" s="139"/>
+      <c r="I100" s="139"/>
+      <c r="J100" s="139"/>
       <c r="K100" s="10"/>
       <c r="L100" s="10"/>
       <c r="M100" s="10"/>
-      <c r="N100" s="138"/>
+      <c r="N100" s="143"/>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="10"/>
-      <c r="B101" s="128"/>
+      <c r="B101" s="132"/>
       <c r="D101" s="10"/>
-      <c r="E101" s="133"/>
-      <c r="F101" s="134"/>
-      <c r="G101" s="134"/>
-      <c r="H101" s="134"/>
-      <c r="I101" s="134"/>
-      <c r="J101" s="134"/>
+      <c r="E101" s="138"/>
+      <c r="F101" s="139"/>
+      <c r="G101" s="139"/>
+      <c r="H101" s="139"/>
+      <c r="I101" s="139"/>
+      <c r="J101" s="139"/>
       <c r="K101" s="10"/>
       <c r="L101" s="10"/>
       <c r="M101" s="10"/>
-      <c r="N101" s="138"/>
+      <c r="N101" s="143"/>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="10"/>
-      <c r="B102" s="128"/>
+      <c r="B102" s="132"/>
       <c r="D102" s="10"/>
-      <c r="E102" s="133"/>
-      <c r="F102" s="134"/>
-      <c r="G102" s="134"/>
-      <c r="H102" s="134"/>
-      <c r="I102" s="134"/>
-      <c r="J102" s="134"/>
+      <c r="E102" s="138"/>
+      <c r="F102" s="139"/>
+      <c r="G102" s="139"/>
+      <c r="H102" s="139"/>
+      <c r="I102" s="139"/>
+      <c r="J102" s="139"/>
       <c r="K102" s="10"/>
       <c r="L102" s="10"/>
       <c r="M102" s="10"/>
-      <c r="N102" s="138"/>
+      <c r="N102" s="143"/>
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="10"/>
-      <c r="B103" s="128"/>
+      <c r="B103" s="132"/>
       <c r="D103" s="10"/>
-      <c r="E103" s="133"/>
-      <c r="F103" s="134"/>
-      <c r="G103" s="134"/>
-      <c r="H103" s="134"/>
-      <c r="I103" s="134"/>
-      <c r="J103" s="134"/>
+      <c r="E103" s="138"/>
+      <c r="F103" s="139"/>
+      <c r="G103" s="139"/>
+      <c r="H103" s="139"/>
+      <c r="I103" s="139"/>
+      <c r="J103" s="139"/>
       <c r="K103" s="10"/>
       <c r="L103" s="10"/>
       <c r="M103" s="10"/>
-      <c r="N103" s="138"/>
+      <c r="N103" s="143"/>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="10"/>
-      <c r="B104" s="128"/>
+      <c r="B104" s="132"/>
       <c r="D104" s="10"/>
-      <c r="E104" s="133"/>
-      <c r="F104" s="134"/>
-      <c r="G104" s="134"/>
-      <c r="H104" s="134"/>
-      <c r="I104" s="134"/>
-      <c r="J104" s="134"/>
+      <c r="E104" s="138"/>
+      <c r="F104" s="139"/>
+      <c r="G104" s="139"/>
+      <c r="H104" s="139"/>
+      <c r="I104" s="139"/>
+      <c r="J104" s="139"/>
       <c r="K104" s="10"/>
       <c r="L104" s="10"/>
       <c r="M104" s="10"/>
-      <c r="N104" s="138"/>
+      <c r="N104" s="143"/>
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="10"/>
-      <c r="B105" s="128"/>
+      <c r="B105" s="132"/>
       <c r="D105" s="10"/>
-      <c r="E105" s="133"/>
-      <c r="F105" s="134"/>
-      <c r="G105" s="134"/>
-      <c r="H105" s="134"/>
-      <c r="I105" s="134"/>
-      <c r="J105" s="134"/>
+      <c r="E105" s="138"/>
+      <c r="F105" s="139"/>
+      <c r="G105" s="139"/>
+      <c r="H105" s="139"/>
+      <c r="I105" s="139"/>
+      <c r="J105" s="139"/>
       <c r="K105" s="10"/>
       <c r="L105" s="10"/>
       <c r="M105" s="10"/>
-      <c r="N105" s="138"/>
+      <c r="N105" s="143"/>
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="10"/>
-      <c r="B106" s="128"/>
+      <c r="B106" s="132"/>
       <c r="D106" s="10"/>
-      <c r="E106" s="133"/>
-      <c r="F106" s="134"/>
-      <c r="G106" s="134"/>
-      <c r="H106" s="134"/>
-      <c r="I106" s="134"/>
-      <c r="J106" s="134"/>
+      <c r="E106" s="138"/>
+      <c r="F106" s="139"/>
+      <c r="G106" s="139"/>
+      <c r="H106" s="139"/>
+      <c r="I106" s="139"/>
+      <c r="J106" s="139"/>
       <c r="K106" s="10"/>
       <c r="L106" s="10"/>
       <c r="M106" s="10"/>
-      <c r="N106" s="138"/>
+      <c r="N106" s="143"/>
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="10"/>
-      <c r="B107" s="128"/>
+      <c r="B107" s="132"/>
       <c r="D107" s="10"/>
-      <c r="E107" s="133"/>
-      <c r="F107" s="134"/>
-      <c r="G107" s="134"/>
-      <c r="H107" s="134"/>
-      <c r="I107" s="134"/>
-      <c r="J107" s="134"/>
+      <c r="E107" s="138"/>
+      <c r="F107" s="139"/>
+      <c r="G107" s="139"/>
+      <c r="H107" s="139"/>
+      <c r="I107" s="139"/>
+      <c r="J107" s="139"/>
       <c r="K107" s="10"/>
       <c r="L107" s="10"/>
       <c r="M107" s="10"/>
-      <c r="N107" s="138"/>
+      <c r="N107" s="143"/>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="10"/>
-      <c r="B108" s="128"/>
+      <c r="B108" s="132"/>
       <c r="D108" s="10"/>
-      <c r="E108" s="133"/>
-      <c r="F108" s="134"/>
-      <c r="G108" s="134"/>
-      <c r="H108" s="134"/>
-      <c r="I108" s="134"/>
-      <c r="J108" s="134"/>
+      <c r="E108" s="138"/>
+      <c r="F108" s="139"/>
+      <c r="G108" s="139"/>
+      <c r="H108" s="139"/>
+      <c r="I108" s="139"/>
+      <c r="J108" s="139"/>
       <c r="K108" s="10"/>
       <c r="L108" s="10"/>
       <c r="M108" s="10"/>
-      <c r="N108" s="138"/>
+      <c r="N108" s="143"/>
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="10"/>
-      <c r="B109" s="128"/>
+      <c r="B109" s="132"/>
       <c r="D109" s="10"/>
-      <c r="E109" s="133"/>
-      <c r="F109" s="134"/>
-      <c r="G109" s="134"/>
-      <c r="H109" s="134"/>
-      <c r="I109" s="134"/>
-      <c r="J109" s="134"/>
+      <c r="E109" s="138"/>
+      <c r="F109" s="139"/>
+      <c r="G109" s="139"/>
+      <c r="H109" s="139"/>
+      <c r="I109" s="139"/>
+      <c r="J109" s="139"/>
       <c r="K109" s="10"/>
       <c r="L109" s="10"/>
       <c r="M109" s="10"/>
-      <c r="N109" s="138"/>
+      <c r="N109" s="143"/>
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="10"/>
-      <c r="B110" s="128"/>
+      <c r="B110" s="132"/>
       <c r="D110" s="10"/>
-      <c r="E110" s="133"/>
-      <c r="F110" s="134"/>
-      <c r="G110" s="134"/>
-      <c r="H110" s="134"/>
-      <c r="I110" s="134"/>
-      <c r="J110" s="134"/>
+      <c r="E110" s="138"/>
+      <c r="F110" s="139"/>
+      <c r="G110" s="139"/>
+      <c r="H110" s="139"/>
+      <c r="I110" s="139"/>
+      <c r="J110" s="139"/>
       <c r="K110" s="10"/>
       <c r="L110" s="10"/>
       <c r="M110" s="10"/>
-      <c r="N110" s="138"/>
+      <c r="N110" s="143"/>
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="10"/>
-      <c r="B111" s="128"/>
+      <c r="B111" s="132"/>
       <c r="D111" s="10"/>
-      <c r="E111" s="133"/>
-      <c r="F111" s="134"/>
-      <c r="G111" s="134"/>
-      <c r="H111" s="134"/>
-      <c r="I111" s="134"/>
-      <c r="J111" s="134"/>
+      <c r="E111" s="138"/>
+      <c r="F111" s="139"/>
+      <c r="G111" s="139"/>
+      <c r="H111" s="139"/>
+      <c r="I111" s="139"/>
+      <c r="J111" s="139"/>
       <c r="K111" s="10"/>
       <c r="L111" s="10"/>
       <c r="M111" s="10"/>
-      <c r="N111" s="138"/>
+      <c r="N111" s="143"/>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="10"/>
-      <c r="B112" s="128"/>
+      <c r="B112" s="132"/>
       <c r="D112" s="10"/>
-      <c r="E112" s="133"/>
-      <c r="F112" s="134"/>
-      <c r="G112" s="134"/>
-      <c r="H112" s="134"/>
-      <c r="I112" s="134"/>
-      <c r="J112" s="134"/>
+      <c r="E112" s="138"/>
+      <c r="F112" s="139"/>
+      <c r="G112" s="139"/>
+      <c r="H112" s="139"/>
+      <c r="I112" s="139"/>
+      <c r="J112" s="139"/>
       <c r="K112" s="10"/>
       <c r="L112" s="10"/>
       <c r="M112" s="10"/>
-      <c r="N112" s="138"/>
+      <c r="N112" s="143"/>
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="10"/>
-      <c r="B113" s="128"/>
+      <c r="B113" s="132"/>
       <c r="D113" s="10"/>
-      <c r="E113" s="133"/>
-      <c r="F113" s="134"/>
-      <c r="G113" s="134"/>
-      <c r="H113" s="134"/>
-      <c r="I113" s="134"/>
-      <c r="J113" s="134"/>
+      <c r="E113" s="138"/>
+      <c r="F113" s="139"/>
+      <c r="G113" s="139"/>
+      <c r="H113" s="139"/>
+      <c r="I113" s="139"/>
+      <c r="J113" s="139"/>
       <c r="K113" s="10"/>
       <c r="L113" s="10"/>
       <c r="M113" s="10"/>
-      <c r="N113" s="138"/>
+      <c r="N113" s="143"/>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="10"/>
-      <c r="B114" s="128"/>
+      <c r="B114" s="132"/>
       <c r="D114" s="10"/>
-      <c r="E114" s="133"/>
-      <c r="F114" s="134"/>
-      <c r="G114" s="134"/>
-      <c r="H114" s="134"/>
-      <c r="I114" s="134"/>
-      <c r="J114" s="134"/>
+      <c r="E114" s="138"/>
+      <c r="F114" s="139"/>
+      <c r="G114" s="139"/>
+      <c r="H114" s="139"/>
+      <c r="I114" s="139"/>
+      <c r="J114" s="139"/>
       <c r="K114" s="10"/>
       <c r="L114" s="10"/>
       <c r="M114" s="10"/>
-      <c r="N114" s="138"/>
+      <c r="N114" s="143"/>
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="10"/>
-      <c r="B115" s="128"/>
+      <c r="B115" s="132"/>
       <c r="D115" s="10"/>
-      <c r="E115" s="133"/>
-      <c r="F115" s="134"/>
-      <c r="G115" s="134"/>
-      <c r="H115" s="134"/>
-      <c r="I115" s="134"/>
-      <c r="J115" s="134"/>
+      <c r="E115" s="138"/>
+      <c r="F115" s="139"/>
+      <c r="G115" s="139"/>
+      <c r="H115" s="139"/>
+      <c r="I115" s="139"/>
+      <c r="J115" s="139"/>
       <c r="K115" s="10"/>
       <c r="L115" s="10"/>
       <c r="M115" s="10"/>
-      <c r="N115" s="138"/>
+      <c r="N115" s="143"/>
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="10"/>
-      <c r="B116" s="128"/>
+      <c r="B116" s="132"/>
       <c r="D116" s="10"/>
-      <c r="E116" s="133"/>
-      <c r="F116" s="134"/>
-      <c r="G116" s="134"/>
-      <c r="H116" s="134"/>
-      <c r="I116" s="134"/>
-      <c r="J116" s="134"/>
+      <c r="E116" s="138"/>
+      <c r="F116" s="139"/>
+      <c r="G116" s="139"/>
+      <c r="H116" s="139"/>
+      <c r="I116" s="139"/>
+      <c r="J116" s="139"/>
       <c r="K116" s="10"/>
       <c r="L116" s="10"/>
       <c r="M116" s="10"/>
-      <c r="N116" s="138"/>
+      <c r="N116" s="143"/>
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="10"/>
-      <c r="B117" s="128"/>
+      <c r="B117" s="132"/>
       <c r="D117" s="10"/>
-      <c r="E117" s="133"/>
-      <c r="F117" s="134"/>
-      <c r="G117" s="134"/>
-      <c r="H117" s="134"/>
-      <c r="I117" s="134"/>
-      <c r="J117" s="134"/>
+      <c r="E117" s="138"/>
+      <c r="F117" s="139"/>
+      <c r="G117" s="139"/>
+      <c r="H117" s="139"/>
+      <c r="I117" s="139"/>
+      <c r="J117" s="139"/>
       <c r="K117" s="10"/>
       <c r="L117" s="10"/>
       <c r="M117" s="10"/>
-      <c r="N117" s="138"/>
+      <c r="N117" s="143"/>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="10"/>
-      <c r="B118" s="128"/>
+      <c r="B118" s="132"/>
       <c r="D118" s="10"/>
-      <c r="E118" s="133"/>
-      <c r="F118" s="134"/>
-      <c r="G118" s="134"/>
-      <c r="H118" s="134"/>
-      <c r="I118" s="134"/>
-      <c r="J118" s="134"/>
+      <c r="E118" s="138"/>
+      <c r="F118" s="139"/>
+      <c r="G118" s="139"/>
+      <c r="H118" s="139"/>
+      <c r="I118" s="139"/>
+      <c r="J118" s="139"/>
       <c r="K118" s="10"/>
       <c r="L118" s="10"/>
       <c r="M118" s="10"/>
-      <c r="N118" s="138"/>
+      <c r="N118" s="143"/>
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="10"/>
-      <c r="B119" s="128"/>
+      <c r="B119" s="132"/>
       <c r="D119" s="10"/>
-      <c r="E119" s="133"/>
-      <c r="F119" s="134"/>
-      <c r="G119" s="134"/>
-      <c r="H119" s="134"/>
-      <c r="I119" s="134"/>
-      <c r="J119" s="134"/>
+      <c r="E119" s="138"/>
+      <c r="F119" s="139"/>
+      <c r="G119" s="139"/>
+      <c r="H119" s="139"/>
+      <c r="I119" s="139"/>
+      <c r="J119" s="139"/>
       <c r="K119" s="10"/>
       <c r="L119" s="10"/>
       <c r="M119" s="10"/>
-      <c r="N119" s="138"/>
+      <c r="N119" s="143"/>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="10"/>
-      <c r="B120" s="128"/>
+      <c r="B120" s="132"/>
       <c r="D120" s="10"/>
-      <c r="E120" s="133"/>
-      <c r="F120" s="134"/>
-      <c r="G120" s="134"/>
-      <c r="H120" s="134"/>
-      <c r="I120" s="134"/>
-      <c r="J120" s="134"/>
+      <c r="E120" s="138"/>
+      <c r="F120" s="139"/>
+      <c r="G120" s="139"/>
+      <c r="H120" s="139"/>
+      <c r="I120" s="139"/>
+      <c r="J120" s="139"/>
       <c r="K120" s="10"/>
       <c r="L120" s="10"/>
       <c r="M120" s="10"/>
-      <c r="N120" s="138"/>
+      <c r="N120" s="143"/>
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="10"/>
-      <c r="B121" s="128"/>
+      <c r="B121" s="132"/>
       <c r="D121" s="10"/>
-      <c r="E121" s="133"/>
-      <c r="F121" s="134"/>
-      <c r="G121" s="134"/>
-      <c r="H121" s="134"/>
-      <c r="I121" s="134"/>
-      <c r="J121" s="134"/>
+      <c r="E121" s="138"/>
+      <c r="F121" s="139"/>
+      <c r="G121" s="139"/>
+      <c r="H121" s="139"/>
+      <c r="I121" s="139"/>
+      <c r="J121" s="139"/>
       <c r="K121" s="10"/>
       <c r="L121" s="10"/>
       <c r="M121" s="10"/>
-      <c r="N121" s="138"/>
+      <c r="N121" s="143"/>
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="10"/>
-      <c r="B122" s="128"/>
+      <c r="B122" s="132"/>
       <c r="D122" s="10"/>
-      <c r="E122" s="133"/>
-      <c r="F122" s="134"/>
-      <c r="G122" s="134"/>
-      <c r="H122" s="134"/>
-      <c r="I122" s="134"/>
-      <c r="J122" s="134"/>
+      <c r="E122" s="138"/>
+      <c r="F122" s="139"/>
+      <c r="G122" s="139"/>
+      <c r="H122" s="139"/>
+      <c r="I122" s="139"/>
+      <c r="J122" s="139"/>
       <c r="K122" s="10"/>
       <c r="L122" s="10"/>
       <c r="M122" s="10"/>
-      <c r="N122" s="138"/>
+      <c r="N122" s="143"/>
     </row>
     <row r="123" spans="1:14">
       <c r="A123" s="10"/>
-      <c r="B123" s="128"/>
+      <c r="B123" s="132"/>
       <c r="D123" s="10"/>
-      <c r="E123" s="133"/>
-      <c r="F123" s="134"/>
-      <c r="G123" s="134"/>
-      <c r="H123" s="134"/>
-      <c r="I123" s="134"/>
-      <c r="J123" s="134"/>
+      <c r="E123" s="138"/>
+      <c r="F123" s="139"/>
+      <c r="G123" s="139"/>
+      <c r="H123" s="139"/>
+      <c r="I123" s="139"/>
+      <c r="J123" s="139"/>
       <c r="K123" s="10"/>
       <c r="L123" s="10"/>
       <c r="M123" s="10"/>
-      <c r="N123" s="138"/>
+      <c r="N123" s="143"/>
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="10"/>
-      <c r="B124" s="128"/>
+      <c r="B124" s="132"/>
       <c r="D124" s="10"/>
-      <c r="E124" s="133"/>
-      <c r="F124" s="134"/>
-      <c r="G124" s="134"/>
-      <c r="H124" s="134"/>
-      <c r="I124" s="134"/>
-      <c r="J124" s="134"/>
+      <c r="E124" s="138"/>
+      <c r="F124" s="139"/>
+      <c r="G124" s="139"/>
+      <c r="H124" s="139"/>
+      <c r="I124" s="139"/>
+      <c r="J124" s="139"/>
       <c r="K124" s="10"/>
       <c r="L124" s="10"/>
       <c r="M124" s="10"/>
-      <c r="N124" s="138"/>
+      <c r="N124" s="143"/>
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="10"/>
-      <c r="B125" s="128"/>
+      <c r="B125" s="132"/>
       <c r="D125" s="10"/>
-      <c r="E125" s="133"/>
-      <c r="F125" s="134"/>
-      <c r="G125" s="134"/>
-      <c r="H125" s="134"/>
-      <c r="I125" s="134"/>
-      <c r="J125" s="134"/>
+      <c r="E125" s="138"/>
+      <c r="F125" s="139"/>
+      <c r="G125" s="139"/>
+      <c r="H125" s="139"/>
+      <c r="I125" s="139"/>
+      <c r="J125" s="139"/>
       <c r="K125" s="10"/>
       <c r="L125" s="10"/>
       <c r="M125" s="10"/>
-      <c r="N125" s="138"/>
+      <c r="N125" s="143"/>
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="10"/>
-      <c r="B126" s="128"/>
+      <c r="B126" s="132"/>
       <c r="D126" s="10"/>
-      <c r="E126" s="133"/>
-      <c r="F126" s="134"/>
-      <c r="G126" s="134"/>
-      <c r="H126" s="134"/>
-      <c r="I126" s="134"/>
-      <c r="J126" s="134"/>
+      <c r="E126" s="138"/>
+      <c r="F126" s="139"/>
+      <c r="G126" s="139"/>
+      <c r="H126" s="139"/>
+      <c r="I126" s="139"/>
+      <c r="J126" s="139"/>
       <c r="K126" s="10"/>
       <c r="L126" s="10"/>
       <c r="M126" s="10"/>
-      <c r="N126" s="138"/>
+      <c r="N126" s="143"/>
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="10"/>
-      <c r="B127" s="128"/>
+      <c r="B127" s="132"/>
       <c r="D127" s="10"/>
-      <c r="E127" s="133"/>
-      <c r="F127" s="134"/>
-      <c r="G127" s="134"/>
-      <c r="H127" s="134"/>
-      <c r="I127" s="134"/>
-      <c r="J127" s="134"/>
+      <c r="E127" s="138"/>
+      <c r="F127" s="139"/>
+      <c r="G127" s="139"/>
+      <c r="H127" s="139"/>
+      <c r="I127" s="139"/>
+      <c r="J127" s="139"/>
       <c r="K127" s="10"/>
       <c r="L127" s="10"/>
       <c r="M127" s="10"/>
-      <c r="N127" s="138"/>
+      <c r="N127" s="143"/>
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="10"/>
-      <c r="B128" s="128"/>
+      <c r="B128" s="132"/>
       <c r="D128" s="10"/>
-      <c r="E128" s="133"/>
-      <c r="F128" s="134"/>
-      <c r="G128" s="134"/>
-      <c r="H128" s="134"/>
-      <c r="I128" s="134"/>
-      <c r="J128" s="134"/>
+      <c r="E128" s="138"/>
+      <c r="F128" s="139"/>
+      <c r="G128" s="139"/>
+      <c r="H128" s="139"/>
+      <c r="I128" s="139"/>
+      <c r="J128" s="139"/>
       <c r="K128" s="10"/>
       <c r="L128" s="10"/>
       <c r="M128" s="10"/>
-      <c r="N128" s="138"/>
+      <c r="N128" s="143"/>
     </row>
     <row r="129" spans="1:14">
       <c r="A129" s="10"/>
-      <c r="B129" s="128"/>
+      <c r="B129" s="132"/>
       <c r="D129" s="10"/>
-      <c r="E129" s="133"/>
-      <c r="F129" s="134"/>
-      <c r="G129" s="134"/>
-      <c r="H129" s="134"/>
-      <c r="I129" s="134"/>
-      <c r="J129" s="134"/>
+      <c r="E129" s="138"/>
+      <c r="F129" s="139"/>
+      <c r="G129" s="139"/>
+      <c r="H129" s="139"/>
+      <c r="I129" s="139"/>
+      <c r="J129" s="139"/>
       <c r="K129" s="10"/>
       <c r="L129" s="10"/>
       <c r="M129" s="10"/>
-      <c r="N129" s="138"/>
+      <c r="N129" s="143"/>
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="10"/>
-      <c r="B130" s="128"/>
+      <c r="B130" s="132"/>
       <c r="D130" s="10"/>
-      <c r="E130" s="133"/>
-      <c r="F130" s="134"/>
-      <c r="G130" s="134"/>
-      <c r="H130" s="134"/>
-      <c r="I130" s="134"/>
-      <c r="J130" s="134"/>
+      <c r="E130" s="138"/>
+      <c r="F130" s="139"/>
+      <c r="G130" s="139"/>
+      <c r="H130" s="139"/>
+      <c r="I130" s="139"/>
+      <c r="J130" s="139"/>
       <c r="K130" s="10"/>
       <c r="L130" s="10"/>
       <c r="M130" s="10"/>
-      <c r="N130" s="138"/>
+      <c r="N130" s="143"/>
     </row>
     <row r="131" spans="1:14">
       <c r="A131" s="10"/>
-      <c r="B131" s="128"/>
+      <c r="B131" s="132"/>
       <c r="D131" s="10"/>
-      <c r="E131" s="133"/>
-      <c r="F131" s="134"/>
-      <c r="G131" s="134"/>
-      <c r="H131" s="134"/>
-      <c r="I131" s="134"/>
-      <c r="J131" s="134"/>
+      <c r="E131" s="138"/>
+      <c r="F131" s="139"/>
+      <c r="G131" s="139"/>
+      <c r="H131" s="139"/>
+      <c r="I131" s="139"/>
+      <c r="J131" s="139"/>
       <c r="K131" s="10"/>
       <c r="L131" s="10"/>
       <c r="M131" s="10"/>
-      <c r="N131" s="138"/>
+      <c r="N131" s="143"/>
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="10"/>
-      <c r="B132" s="128"/>
+      <c r="B132" s="132"/>
       <c r="D132" s="10"/>
-      <c r="E132" s="133"/>
-      <c r="F132" s="134"/>
-      <c r="G132" s="134"/>
-      <c r="H132" s="134"/>
-      <c r="I132" s="134"/>
-      <c r="J132" s="134"/>
+      <c r="E132" s="138"/>
+      <c r="F132" s="139"/>
+      <c r="G132" s="139"/>
+      <c r="H132" s="139"/>
+      <c r="I132" s="139"/>
+      <c r="J132" s="139"/>
       <c r="K132" s="10"/>
       <c r="L132" s="10"/>
       <c r="M132" s="10"/>
-      <c r="N132" s="138"/>
+      <c r="N132" s="143"/>
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="10"/>
-      <c r="B133" s="128"/>
+      <c r="B133" s="132"/>
       <c r="D133" s="10"/>
-      <c r="E133" s="133"/>
-      <c r="F133" s="134"/>
-      <c r="G133" s="134"/>
-      <c r="H133" s="134"/>
-      <c r="I133" s="134"/>
-      <c r="J133" s="134"/>
+      <c r="E133" s="138"/>
+      <c r="F133" s="139"/>
+      <c r="G133" s="139"/>
+      <c r="H133" s="139"/>
+      <c r="I133" s="139"/>
+      <c r="J133" s="139"/>
       <c r="K133" s="10"/>
       <c r="L133" s="10"/>
       <c r="M133" s="10"/>
-      <c r="N133" s="138"/>
+      <c r="N133" s="143"/>
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="10"/>
-      <c r="B134" s="128"/>
+      <c r="B134" s="132"/>
       <c r="D134" s="10"/>
-      <c r="E134" s="133"/>
-      <c r="F134" s="134"/>
-      <c r="G134" s="134"/>
-      <c r="H134" s="134"/>
-      <c r="I134" s="134"/>
-      <c r="J134" s="134"/>
+      <c r="E134" s="138"/>
+      <c r="F134" s="139"/>
+      <c r="G134" s="139"/>
+      <c r="H134" s="139"/>
+      <c r="I134" s="139"/>
+      <c r="J134" s="139"/>
       <c r="K134" s="10"/>
       <c r="L134" s="10"/>
       <c r="M134" s="10"/>
-      <c r="N134" s="138"/>
+      <c r="N134" s="143"/>
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="10"/>
-      <c r="B135" s="128"/>
+      <c r="B135" s="132"/>
       <c r="D135" s="10"/>
-      <c r="E135" s="133"/>
-      <c r="F135" s="134"/>
-      <c r="G135" s="134"/>
-      <c r="H135" s="134"/>
-      <c r="I135" s="134"/>
-      <c r="J135" s="134"/>
+      <c r="E135" s="138"/>
+      <c r="F135" s="139"/>
+      <c r="G135" s="139"/>
+      <c r="H135" s="139"/>
+      <c r="I135" s="139"/>
+      <c r="J135" s="139"/>
       <c r="K135" s="10"/>
       <c r="L135" s="10"/>
       <c r="M135" s="10"/>
-      <c r="N135" s="138"/>
+      <c r="N135" s="143"/>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="10"/>
-      <c r="B136" s="128"/>
+      <c r="B136" s="132"/>
       <c r="D136" s="10"/>
-      <c r="E136" s="133"/>
-      <c r="F136" s="134"/>
-      <c r="G136" s="134"/>
-      <c r="H136" s="134"/>
-      <c r="I136" s="134"/>
-      <c r="J136" s="134"/>
+      <c r="E136" s="138"/>
+      <c r="F136" s="139"/>
+      <c r="G136" s="139"/>
+      <c r="H136" s="139"/>
+      <c r="I136" s="139"/>
+      <c r="J136" s="139"/>
       <c r="K136" s="10"/>
       <c r="L136" s="10"/>
       <c r="M136" s="10"/>
-      <c r="N136" s="138"/>
+      <c r="N136" s="143"/>
     </row>
     <row r="137" spans="1:14">
       <c r="A137" s="10"/>
-      <c r="B137" s="128"/>
+      <c r="B137" s="132"/>
       <c r="D137" s="10"/>
-      <c r="E137" s="133"/>
-      <c r="F137" s="134"/>
-      <c r="G137" s="134"/>
-      <c r="H137" s="134"/>
-      <c r="I137" s="134"/>
-      <c r="J137" s="134"/>
+      <c r="E137" s="138"/>
+      <c r="F137" s="139"/>
+      <c r="G137" s="139"/>
+      <c r="H137" s="139"/>
+      <c r="I137" s="139"/>
+      <c r="J137" s="139"/>
       <c r="K137" s="10"/>
       <c r="L137" s="10"/>
       <c r="M137" s="10"/>
-      <c r="N137" s="138"/>
+      <c r="N137" s="143"/>
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="10"/>
-      <c r="B138" s="128"/>
+      <c r="B138" s="132"/>
       <c r="D138" s="10"/>
-      <c r="E138" s="133"/>
-      <c r="F138" s="134"/>
-      <c r="G138" s="134"/>
-      <c r="H138" s="134"/>
-      <c r="I138" s="134"/>
-      <c r="J138" s="134"/>
+      <c r="E138" s="138"/>
+      <c r="F138" s="139"/>
+      <c r="G138" s="139"/>
+      <c r="H138" s="139"/>
+      <c r="I138" s="139"/>
+      <c r="J138" s="139"/>
       <c r="K138" s="10"/>
       <c r="L138" s="10"/>
       <c r="M138" s="10"/>
-      <c r="N138" s="138"/>
+      <c r="N138" s="143"/>
     </row>
     <row r="139" spans="1:14">
       <c r="A139" s="10"/>
-      <c r="B139" s="128"/>
+      <c r="B139" s="132"/>
       <c r="D139" s="10"/>
-      <c r="E139" s="133"/>
-      <c r="F139" s="134"/>
-      <c r="G139" s="134"/>
-      <c r="H139" s="134"/>
-      <c r="I139" s="134"/>
-      <c r="J139" s="134"/>
+      <c r="E139" s="138"/>
+      <c r="F139" s="139"/>
+      <c r="G139" s="139"/>
+      <c r="H139" s="139"/>
+      <c r="I139" s="139"/>
+      <c r="J139" s="139"/>
       <c r="K139" s="10"/>
       <c r="L139" s="10"/>
       <c r="M139" s="10"/>
-      <c r="N139" s="138"/>
+      <c r="N139" s="143"/>
     </row>
     <row r="140" spans="1:14">
       <c r="A140" s="10"/>
-      <c r="B140" s="128"/>
+      <c r="B140" s="132"/>
       <c r="D140" s="10"/>
-      <c r="E140" s="133"/>
-      <c r="F140" s="134"/>
-      <c r="G140" s="134"/>
-      <c r="H140" s="134"/>
-      <c r="I140" s="134"/>
-      <c r="J140" s="134"/>
+      <c r="E140" s="138"/>
+      <c r="F140" s="139"/>
+      <c r="G140" s="139"/>
+      <c r="H140" s="139"/>
+      <c r="I140" s="139"/>
+      <c r="J140" s="139"/>
       <c r="K140" s="10"/>
       <c r="L140" s="10"/>
       <c r="M140" s="10"/>
-      <c r="N140" s="138"/>
+      <c r="N140" s="143"/>
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="10"/>
-      <c r="B141" s="128"/>
+      <c r="B141" s="132"/>
       <c r="D141" s="10"/>
-      <c r="E141" s="133"/>
-      <c r="F141" s="134"/>
-      <c r="G141" s="134"/>
-      <c r="H141" s="134"/>
-      <c r="I141" s="134"/>
-      <c r="J141" s="134"/>
+      <c r="E141" s="138"/>
+      <c r="F141" s="139"/>
+      <c r="G141" s="139"/>
+      <c r="H141" s="139"/>
+      <c r="I141" s="139"/>
+      <c r="J141" s="139"/>
       <c r="K141" s="10"/>
       <c r="L141" s="10"/>
       <c r="M141" s="10"/>
-      <c r="N141" s="138"/>
+      <c r="N141" s="143"/>
     </row>
     <row r="142" spans="1:14">
       <c r="A142" s="10"/>
-      <c r="B142" s="128"/>
+      <c r="B142" s="132"/>
       <c r="D142" s="10"/>
-      <c r="E142" s="133"/>
-      <c r="F142" s="134"/>
-      <c r="G142" s="134"/>
-      <c r="H142" s="134"/>
-      <c r="I142" s="134"/>
-      <c r="J142" s="134"/>
+      <c r="E142" s="138"/>
+      <c r="F142" s="139"/>
+      <c r="G142" s="139"/>
+      <c r="H142" s="139"/>
+      <c r="I142" s="139"/>
+      <c r="J142" s="139"/>
       <c r="K142" s="10"/>
       <c r="L142" s="10"/>
       <c r="M142" s="10"/>
-      <c r="N142" s="138"/>
+      <c r="N142" s="143"/>
     </row>
     <row r="143" spans="1:14">
       <c r="A143" s="10"/>
-      <c r="B143" s="128"/>
+      <c r="B143" s="132"/>
       <c r="D143" s="10"/>
-      <c r="E143" s="133"/>
-      <c r="F143" s="134"/>
-      <c r="G143" s="134"/>
-      <c r="H143" s="134"/>
-      <c r="I143" s="134"/>
-      <c r="J143" s="134"/>
+      <c r="E143" s="138"/>
+      <c r="F143" s="139"/>
+      <c r="G143" s="139"/>
+      <c r="H143" s="139"/>
+      <c r="I143" s="139"/>
+      <c r="J143" s="139"/>
       <c r="K143" s="10"/>
       <c r="L143" s="10"/>
       <c r="M143" s="10"/>
-      <c r="N143" s="138"/>
+      <c r="N143" s="143"/>
     </row>
     <row r="144" spans="1:14">
       <c r="A144" s="10"/>
-      <c r="B144" s="128"/>
+      <c r="B144" s="132"/>
       <c r="D144" s="10"/>
-      <c r="E144" s="133"/>
-      <c r="F144" s="134"/>
-      <c r="G144" s="134"/>
-      <c r="H144" s="134"/>
-      <c r="I144" s="134"/>
-      <c r="J144" s="134"/>
+      <c r="E144" s="138"/>
+      <c r="F144" s="139"/>
+      <c r="G144" s="139"/>
+      <c r="H144" s="139"/>
+      <c r="I144" s="139"/>
+      <c r="J144" s="139"/>
       <c r="K144" s="10"/>
       <c r="L144" s="10"/>
       <c r="M144" s="10"/>
-      <c r="N144" s="138"/>
+      <c r="N144" s="143"/>
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="10"/>
-      <c r="B145" s="128"/>
+      <c r="B145" s="132"/>
       <c r="D145" s="10"/>
-      <c r="E145" s="133"/>
-      <c r="F145" s="134"/>
-      <c r="G145" s="134"/>
-      <c r="H145" s="134"/>
-      <c r="I145" s="134"/>
-      <c r="J145" s="134"/>
+      <c r="E145" s="138"/>
+      <c r="F145" s="139"/>
+      <c r="G145" s="139"/>
+      <c r="H145" s="139"/>
+      <c r="I145" s="139"/>
+      <c r="J145" s="139"/>
       <c r="K145" s="10"/>
       <c r="L145" s="10"/>
       <c r="M145" s="10"/>
-      <c r="N145" s="138"/>
+      <c r="N145" s="143"/>
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="10"/>
-      <c r="B146" s="128"/>
+      <c r="B146" s="132"/>
       <c r="D146" s="10"/>
-      <c r="E146" s="133"/>
-      <c r="F146" s="134"/>
-      <c r="G146" s="134"/>
-      <c r="H146" s="134"/>
-      <c r="I146" s="134"/>
-      <c r="J146" s="134"/>
+      <c r="E146" s="138"/>
+      <c r="F146" s="139"/>
+      <c r="G146" s="139"/>
+      <c r="H146" s="139"/>
+      <c r="I146" s="139"/>
+      <c r="J146" s="139"/>
       <c r="K146" s="10"/>
       <c r="L146" s="10"/>
       <c r="M146" s="10"/>
-      <c r="N146" s="138"/>
+      <c r="N146" s="143"/>
     </row>
     <row r="147" spans="1:14">
       <c r="A147" s="10"/>
-      <c r="B147" s="128"/>
+      <c r="B147" s="132"/>
       <c r="D147" s="10"/>
-      <c r="E147" s="133"/>
-      <c r="F147" s="134"/>
-      <c r="G147" s="134"/>
-      <c r="H147" s="134"/>
-      <c r="I147" s="134"/>
-      <c r="J147" s="134"/>
+      <c r="E147" s="138"/>
+      <c r="F147" s="139"/>
+      <c r="G147" s="139"/>
+      <c r="H147" s="139"/>
+      <c r="I147" s="139"/>
+      <c r="J147" s="139"/>
       <c r="K147" s="10"/>
       <c r="L147" s="10"/>
       <c r="M147" s="10"/>
-      <c r="N147" s="138"/>
+      <c r="N147" s="143"/>
     </row>
     <row r="148" spans="1:14">
       <c r="A148" s="10"/>
-      <c r="B148" s="128"/>
+      <c r="B148" s="132"/>
       <c r="D148" s="10"/>
-      <c r="E148" s="133"/>
-      <c r="F148" s="134"/>
-      <c r="G148" s="134"/>
-      <c r="H148" s="134"/>
-      <c r="I148" s="134"/>
-      <c r="J148" s="134"/>
+      <c r="E148" s="138"/>
+      <c r="F148" s="139"/>
+      <c r="G148" s="139"/>
+      <c r="H148" s="139"/>
+      <c r="I148" s="139"/>
+      <c r="J148" s="139"/>
       <c r="K148" s="10"/>
       <c r="L148" s="10"/>
       <c r="M148" s="10"/>
-      <c r="N148" s="138"/>
+      <c r="N148" s="143"/>
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="10"/>
-      <c r="B149" s="128"/>
+      <c r="B149" s="132"/>
       <c r="D149" s="10"/>
-      <c r="E149" s="133"/>
-      <c r="F149" s="134"/>
-      <c r="G149" s="134"/>
-      <c r="H149" s="134"/>
-      <c r="I149" s="134"/>
-      <c r="J149" s="134"/>
+      <c r="E149" s="138"/>
+      <c r="F149" s="139"/>
+      <c r="G149" s="139"/>
+      <c r="H149" s="139"/>
+      <c r="I149" s="139"/>
+      <c r="J149" s="139"/>
       <c r="K149" s="10"/>
       <c r="L149" s="10"/>
       <c r="M149" s="10"/>
-      <c r="N149" s="138"/>
+      <c r="N149" s="143"/>
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="10"/>
-      <c r="B150" s="128"/>
+      <c r="B150" s="132"/>
       <c r="D150" s="10"/>
-      <c r="E150" s="133"/>
-      <c r="F150" s="134"/>
-      <c r="G150" s="134"/>
-      <c r="H150" s="134"/>
-      <c r="I150" s="134"/>
-      <c r="J150" s="134"/>
+      <c r="E150" s="138"/>
+      <c r="F150" s="139"/>
+      <c r="G150" s="139"/>
+      <c r="H150" s="139"/>
+      <c r="I150" s="139"/>
+      <c r="J150" s="139"/>
       <c r="K150" s="10"/>
       <c r="L150" s="10"/>
       <c r="M150" s="10"/>
-      <c r="N150" s="138"/>
+      <c r="N150" s="143"/>
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="10"/>
-      <c r="B151" s="128"/>
+      <c r="B151" s="132"/>
       <c r="D151" s="10"/>
-      <c r="E151" s="133"/>
-      <c r="F151" s="134"/>
-      <c r="G151" s="134"/>
-      <c r="H151" s="134"/>
-      <c r="I151" s="134"/>
-      <c r="J151" s="134"/>
+      <c r="E151" s="138"/>
+      <c r="F151" s="139"/>
+      <c r="G151" s="139"/>
+      <c r="H151" s="139"/>
+      <c r="I151" s="139"/>
+      <c r="J151" s="139"/>
       <c r="K151" s="10"/>
       <c r="L151" s="10"/>
       <c r="M151" s="10"/>
-      <c r="N151" s="138"/>
+      <c r="N151" s="143"/>
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="10"/>
-      <c r="B152" s="128"/>
+      <c r="B152" s="132"/>
       <c r="D152" s="10"/>
-      <c r="E152" s="133"/>
-      <c r="F152" s="134"/>
-      <c r="G152" s="134"/>
-      <c r="H152" s="134"/>
-      <c r="I152" s="134"/>
-      <c r="J152" s="134"/>
+      <c r="E152" s="138"/>
+      <c r="F152" s="139"/>
+      <c r="G152" s="139"/>
+      <c r="H152" s="139"/>
+      <c r="I152" s="139"/>
+      <c r="J152" s="139"/>
       <c r="K152" s="10"/>
       <c r="L152" s="10"/>
       <c r="M152" s="10"/>
-      <c r="N152" s="138"/>
+      <c r="N152" s="143"/>
     </row>
     <row r="153" spans="1:14">
       <c r="A153" s="10"/>
-      <c r="B153" s="128"/>
+      <c r="B153" s="132"/>
       <c r="D153" s="10"/>
-      <c r="E153" s="133"/>
-      <c r="F153" s="134"/>
-      <c r="G153" s="134"/>
-      <c r="H153" s="134"/>
-      <c r="I153" s="134"/>
-      <c r="J153" s="134"/>
+      <c r="E153" s="138"/>
+      <c r="F153" s="139"/>
+      <c r="G153" s="139"/>
+      <c r="H153" s="139"/>
+      <c r="I153" s="139"/>
+      <c r="J153" s="139"/>
       <c r="K153" s="10"/>
       <c r="L153" s="10"/>
       <c r="M153" s="10"/>
-      <c r="N153" s="138"/>
+      <c r="N153" s="143"/>
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="10"/>
-      <c r="B154" s="128"/>
+      <c r="B154" s="132"/>
       <c r="D154" s="10"/>
-      <c r="E154" s="133"/>
-      <c r="F154" s="134"/>
-      <c r="G154" s="134"/>
-      <c r="H154" s="134"/>
-      <c r="I154" s="134"/>
-      <c r="J154" s="134"/>
+      <c r="E154" s="138"/>
+      <c r="F154" s="139"/>
+      <c r="G154" s="139"/>
+      <c r="H154" s="139"/>
+      <c r="I154" s="139"/>
+      <c r="J154" s="139"/>
       <c r="K154" s="10"/>
       <c r="L154" s="10"/>
       <c r="M154" s="10"/>
-      <c r="N154" s="138"/>
+      <c r="N154" s="143"/>
     </row>
     <row r="155" spans="1:14">
       <c r="A155" s="10"/>
-      <c r="B155" s="128"/>
+      <c r="B155" s="132"/>
       <c r="D155" s="10"/>
-      <c r="E155" s="133"/>
-      <c r="F155" s="134"/>
-      <c r="G155" s="134"/>
-      <c r="H155" s="134"/>
-      <c r="I155" s="134"/>
-      <c r="J155" s="134"/>
+      <c r="E155" s="138"/>
+      <c r="F155" s="139"/>
+      <c r="G155" s="139"/>
+      <c r="H155" s="139"/>
+      <c r="I155" s="139"/>
+      <c r="J155" s="139"/>
       <c r="K155" s="10"/>
       <c r="L155" s="10"/>
       <c r="M155" s="10"/>
-      <c r="N155" s="138"/>
+      <c r="N155" s="143"/>
     </row>
     <row r="156" spans="1:14">
       <c r="A156" s="10"/>
-      <c r="B156" s="128"/>
+      <c r="B156" s="132"/>
       <c r="D156" s="10"/>
-      <c r="E156" s="133"/>
-      <c r="F156" s="134"/>
-      <c r="G156" s="134"/>
-      <c r="H156" s="134"/>
-      <c r="I156" s="134"/>
-      <c r="J156" s="134"/>
+      <c r="E156" s="138"/>
+      <c r="F156" s="139"/>
+      <c r="G156" s="139"/>
+      <c r="H156" s="139"/>
+      <c r="I156" s="139"/>
+      <c r="J156" s="139"/>
       <c r="K156" s="10"/>
       <c r="L156" s="10"/>
       <c r="M156" s="10"/>
-      <c r="N156" s="138"/>
+      <c r="N156" s="143"/>
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="10"/>
-      <c r="B157" s="128"/>
+      <c r="B157" s="132"/>
       <c r="D157" s="10"/>
-      <c r="E157" s="133"/>
-      <c r="F157" s="134"/>
-      <c r="G157" s="134"/>
-      <c r="H157" s="134"/>
-      <c r="I157" s="134"/>
-      <c r="J157" s="134"/>
+      <c r="E157" s="138"/>
+      <c r="F157" s="139"/>
+      <c r="G157" s="139"/>
+      <c r="H157" s="139"/>
+      <c r="I157" s="139"/>
+      <c r="J157" s="139"/>
       <c r="K157" s="10"/>
       <c r="L157" s="10"/>
       <c r="M157" s="10"/>
-      <c r="N157" s="138"/>
+      <c r="N157" s="143"/>
     </row>
     <row r="158" spans="1:14">
       <c r="A158" s="10"/>
-      <c r="B158" s="128"/>
+      <c r="B158" s="132"/>
       <c r="D158" s="10"/>
-      <c r="E158" s="133"/>
-      <c r="F158" s="134"/>
-      <c r="G158" s="134"/>
-      <c r="H158" s="134"/>
-      <c r="I158" s="134"/>
-      <c r="J158" s="134"/>
+      <c r="E158" s="138"/>
+      <c r="F158" s="139"/>
+      <c r="G158" s="139"/>
+      <c r="H158" s="139"/>
+      <c r="I158" s="139"/>
+      <c r="J158" s="139"/>
       <c r="K158" s="10"/>
       <c r="L158" s="10"/>
       <c r="M158" s="10"/>
-      <c r="N158" s="138"/>
+      <c r="N158" s="143"/>
     </row>
     <row r="159" spans="1:14">
       <c r="A159" s="10"/>
-      <c r="B159" s="128"/>
+      <c r="B159" s="132"/>
       <c r="D159" s="10"/>
-      <c r="E159" s="133"/>
-      <c r="F159" s="134"/>
-      <c r="G159" s="134"/>
-      <c r="H159" s="134"/>
-      <c r="I159" s="134"/>
-      <c r="J159" s="134"/>
+      <c r="E159" s="138"/>
+      <c r="F159" s="139"/>
+      <c r="G159" s="139"/>
+      <c r="H159" s="139"/>
+      <c r="I159" s="139"/>
+      <c r="J159" s="139"/>
       <c r="K159" s="10"/>
       <c r="L159" s="10"/>
       <c r="M159" s="10"/>
-      <c r="N159" s="138"/>
+      <c r="N159" s="143"/>
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="10"/>
-      <c r="B160" s="128"/>
+      <c r="B160" s="132"/>
       <c r="D160" s="10"/>
-      <c r="E160" s="133"/>
-      <c r="F160" s="134"/>
-      <c r="G160" s="134"/>
-      <c r="H160" s="134"/>
-      <c r="I160" s="134"/>
-      <c r="J160" s="134"/>
+      <c r="E160" s="138"/>
+      <c r="F160" s="139"/>
+      <c r="G160" s="139"/>
+      <c r="H160" s="139"/>
+      <c r="I160" s="139"/>
+      <c r="J160" s="139"/>
       <c r="K160" s="10"/>
       <c r="L160" s="10"/>
       <c r="M160" s="10"/>
-      <c r="N160" s="138"/>
+      <c r="N160" s="143"/>
     </row>
     <row r="161" spans="1:14">
       <c r="A161" s="10"/>
-      <c r="B161" s="128"/>
+      <c r="B161" s="132"/>
       <c r="D161" s="10"/>
-      <c r="E161" s="133"/>
-      <c r="F161" s="134"/>
-      <c r="G161" s="134"/>
-      <c r="H161" s="134"/>
-      <c r="I161" s="134"/>
-      <c r="J161" s="134"/>
+      <c r="E161" s="138"/>
+      <c r="F161" s="139"/>
+      <c r="G161" s="139"/>
+      <c r="H161" s="139"/>
+      <c r="I161" s="139"/>
+      <c r="J161" s="139"/>
       <c r="K161" s="10"/>
       <c r="L161" s="10"/>
       <c r="M161" s="10"/>
-      <c r="N161" s="138"/>
+      <c r="N161" s="143"/>
     </row>
     <row r="162" spans="1:14">
       <c r="A162" s="10"/>
-      <c r="B162" s="128"/>
+      <c r="B162" s="132"/>
       <c r="D162" s="10"/>
-      <c r="E162" s="133"/>
-      <c r="F162" s="134"/>
-      <c r="G162" s="134"/>
-      <c r="H162" s="134"/>
-      <c r="I162" s="134"/>
-      <c r="J162" s="134"/>
+      <c r="E162" s="138"/>
+      <c r="F162" s="139"/>
+      <c r="G162" s="139"/>
+      <c r="H162" s="139"/>
+      <c r="I162" s="139"/>
+      <c r="J162" s="139"/>
       <c r="K162" s="10"/>
       <c r="L162" s="10"/>
       <c r="M162" s="10"/>
-      <c r="N162" s="138"/>
+      <c r="N162" s="143"/>
     </row>
     <row r="163" spans="1:14">
       <c r="A163" s="10"/>
-      <c r="B163" s="128"/>
+      <c r="B163" s="132"/>
       <c r="D163" s="10"/>
-      <c r="E163" s="133"/>
-      <c r="F163" s="134"/>
-      <c r="G163" s="134"/>
-      <c r="H163" s="134"/>
-      <c r="I163" s="134"/>
-      <c r="J163" s="134"/>
+      <c r="E163" s="138"/>
+      <c r="F163" s="139"/>
+      <c r="G163" s="139"/>
+      <c r="H163" s="139"/>
+      <c r="I163" s="139"/>
+      <c r="J163" s="139"/>
       <c r="K163" s="10"/>
       <c r="L163" s="10"/>
       <c r="M163" s="10"/>
-      <c r="N163" s="138"/>
+      <c r="N163" s="143"/>
     </row>
     <row r="164" spans="1:14">
       <c r="A164" s="10"/>
-      <c r="B164" s="128"/>
+      <c r="B164" s="132"/>
       <c r="D164" s="10"/>
-      <c r="E164" s="133"/>
-      <c r="F164" s="134"/>
-      <c r="G164" s="134"/>
-      <c r="H164" s="134"/>
-      <c r="I164" s="134"/>
-      <c r="J164" s="134"/>
+      <c r="E164" s="138"/>
+      <c r="F164" s="139"/>
+      <c r="G164" s="139"/>
+      <c r="H164" s="139"/>
+      <c r="I164" s="139"/>
+      <c r="J164" s="139"/>
       <c r="K164" s="10"/>
       <c r="L164" s="10"/>
       <c r="M164" s="10"/>
-      <c r="N164" s="138"/>
+      <c r="N164" s="143"/>
     </row>
     <row r="165" spans="1:14">
       <c r="A165" s="10"/>
-      <c r="B165" s="128"/>
+      <c r="B165" s="132"/>
       <c r="D165" s="10"/>
-      <c r="E165" s="133"/>
-      <c r="F165" s="134"/>
-      <c r="G165" s="134"/>
-      <c r="H165" s="134"/>
-      <c r="I165" s="134"/>
-      <c r="J165" s="134"/>
+      <c r="E165" s="138"/>
+      <c r="F165" s="139"/>
+      <c r="G165" s="139"/>
+      <c r="H165" s="139"/>
+      <c r="I165" s="139"/>
+      <c r="J165" s="139"/>
       <c r="K165" s="10"/>
       <c r="L165" s="10"/>
       <c r="M165" s="10"/>
-      <c r="N165" s="138"/>
+      <c r="N165" s="143"/>
     </row>
     <row r="166" spans="1:14">
       <c r="A166" s="10"/>
-      <c r="B166" s="128"/>
+      <c r="B166" s="132"/>
       <c r="D166" s="10"/>
-      <c r="E166" s="133"/>
-      <c r="F166" s="134"/>
-      <c r="G166" s="134"/>
-      <c r="H166" s="134"/>
-      <c r="I166" s="134"/>
-      <c r="J166" s="134"/>
+      <c r="E166" s="138"/>
+      <c r="F166" s="139"/>
+      <c r="G166" s="139"/>
+      <c r="H166" s="139"/>
+      <c r="I166" s="139"/>
+      <c r="J166" s="139"/>
       <c r="K166" s="10"/>
       <c r="L166" s="10"/>
       <c r="M166" s="10"/>
-      <c r="N166" s="138"/>
+      <c r="N166" s="143"/>
     </row>
     <row r="167" spans="1:14">
       <c r="A167" s="10"/>
-      <c r="B167" s="128"/>
+      <c r="B167" s="132"/>
       <c r="D167" s="10"/>
-      <c r="E167" s="133"/>
-      <c r="F167" s="134"/>
-      <c r="G167" s="134"/>
-      <c r="H167" s="134"/>
-      <c r="I167" s="134"/>
-      <c r="J167" s="134"/>
+      <c r="E167" s="138"/>
+      <c r="F167" s="139"/>
+      <c r="G167" s="139"/>
+      <c r="H167" s="139"/>
+      <c r="I167" s="139"/>
+      <c r="J167" s="139"/>
       <c r="K167" s="10"/>
       <c r="L167" s="10"/>
       <c r="M167" s="10"/>
-      <c r="N167" s="138"/>
+      <c r="N167" s="143"/>
     </row>
     <row r="168" spans="1:14">
       <c r="A168" s="10"/>
-      <c r="B168" s="128"/>
+      <c r="B168" s="132"/>
       <c r="D168" s="10"/>
-      <c r="E168" s="133"/>
-      <c r="F168" s="134"/>
-      <c r="G168" s="134"/>
-      <c r="H168" s="134"/>
-      <c r="I168" s="134"/>
-      <c r="J168" s="134"/>
+      <c r="E168" s="138"/>
+      <c r="F168" s="139"/>
+      <c r="G168" s="139"/>
+      <c r="H168" s="139"/>
+      <c r="I168" s="139"/>
+      <c r="J168" s="139"/>
       <c r="K168" s="10"/>
       <c r="L168" s="10"/>
       <c r="M168" s="10"/>
-      <c r="N168" s="138"/>
+      <c r="N168" s="143"/>
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="10"/>
-      <c r="B169" s="128"/>
+      <c r="B169" s="132"/>
       <c r="D169" s="10"/>
-      <c r="E169" s="133"/>
-      <c r="F169" s="134"/>
-      <c r="G169" s="134"/>
-      <c r="H169" s="134"/>
-      <c r="I169" s="134"/>
-      <c r="J169" s="134"/>
+      <c r="E169" s="138"/>
+      <c r="F169" s="139"/>
+      <c r="G169" s="139"/>
+      <c r="H169" s="139"/>
+      <c r="I169" s="139"/>
+      <c r="J169" s="139"/>
       <c r="K169" s="10"/>
       <c r="L169" s="10"/>
       <c r="M169" s="10"/>
-      <c r="N169" s="138"/>
+      <c r="N169" s="143"/>
     </row>
     <row r="170" spans="1:14">
       <c r="A170" s="10"/>
-      <c r="B170" s="128"/>
+      <c r="B170" s="132"/>
       <c r="D170" s="10"/>
-      <c r="E170" s="133"/>
-      <c r="F170" s="134"/>
-      <c r="G170" s="134"/>
-      <c r="H170" s="134"/>
-      <c r="I170" s="134"/>
-      <c r="J170" s="134"/>
+      <c r="E170" s="138"/>
+      <c r="F170" s="139"/>
+      <c r="G170" s="139"/>
+      <c r="H170" s="139"/>
+      <c r="I170" s="139"/>
+      <c r="J170" s="139"/>
       <c r="K170" s="10"/>
       <c r="L170" s="10"/>
       <c r="M170" s="10"/>
-      <c r="N170" s="138"/>
+      <c r="N170" s="143"/>
     </row>
     <row r="171" spans="1:14">
       <c r="A171" s="10"/>
-      <c r="B171" s="128"/>
+      <c r="B171" s="132"/>
       <c r="D171" s="10"/>
-      <c r="E171" s="133"/>
-      <c r="F171" s="134"/>
-      <c r="G171" s="134"/>
-      <c r="H171" s="134"/>
-      <c r="I171" s="134"/>
-      <c r="J171" s="134"/>
+      <c r="E171" s="138"/>
+      <c r="F171" s="139"/>
+      <c r="G171" s="139"/>
+      <c r="H171" s="139"/>
+      <c r="I171" s="139"/>
+      <c r="J171" s="139"/>
       <c r="K171" s="10"/>
       <c r="L171" s="10"/>
       <c r="M171" s="10"/>
-      <c r="N171" s="138"/>
+      <c r="N171" s="143"/>
     </row>
     <row r="172" spans="1:14">
       <c r="A172" s="10"/>
-      <c r="B172" s="128"/>
+      <c r="B172" s="132"/>
       <c r="D172" s="10"/>
-      <c r="E172" s="133"/>
-      <c r="F172" s="134"/>
-      <c r="G172" s="134"/>
-      <c r="H172" s="134"/>
-      <c r="I172" s="134"/>
-      <c r="J172" s="134"/>
+      <c r="E172" s="138"/>
+      <c r="F172" s="139"/>
+      <c r="G172" s="139"/>
+      <c r="H172" s="139"/>
+      <c r="I172" s="139"/>
+      <c r="J172" s="139"/>
       <c r="K172" s="10"/>
       <c r="L172" s="10"/>
       <c r="M172" s="10"/>
-      <c r="N172" s="138"/>
+      <c r="N172" s="143"/>
     </row>
     <row r="173" spans="1:14">
       <c r="A173" s="10"/>
-      <c r="B173" s="128"/>
+      <c r="B173" s="132"/>
       <c r="D173" s="10"/>
-      <c r="E173" s="133"/>
-      <c r="F173" s="134"/>
-      <c r="G173" s="134"/>
-      <c r="H173" s="134"/>
-      <c r="I173" s="134"/>
-      <c r="J173" s="134"/>
+      <c r="E173" s="138"/>
+      <c r="F173" s="139"/>
+      <c r="G173" s="139"/>
+      <c r="H173" s="139"/>
+      <c r="I173" s="139"/>
+      <c r="J173" s="139"/>
       <c r="K173" s="10"/>
       <c r="L173" s="10"/>
       <c r="M173" s="10"/>
-      <c r="N173" s="138"/>
+      <c r="N173" s="143"/>
     </row>
     <row r="174" spans="1:14">
       <c r="A174" s="10"/>
-      <c r="B174" s="128"/>
+      <c r="B174" s="132"/>
       <c r="D174" s="10"/>
-      <c r="E174" s="133"/>
-      <c r="F174" s="134"/>
-      <c r="G174" s="134"/>
-      <c r="H174" s="134"/>
-      <c r="I174" s="134"/>
-      <c r="J174" s="134"/>
+      <c r="E174" s="138"/>
+      <c r="F174" s="139"/>
+      <c r="G174" s="139"/>
+      <c r="H174" s="139"/>
+      <c r="I174" s="139"/>
+      <c r="J174" s="139"/>
       <c r="K174" s="10"/>
       <c r="L174" s="10"/>
       <c r="M174" s="10"/>
-      <c r="N174" s="138"/>
+      <c r="N174" s="143"/>
     </row>
     <row r="175" spans="1:14">
       <c r="A175" s="10"/>
-      <c r="B175" s="128"/>
+      <c r="B175" s="132"/>
       <c r="D175" s="10"/>
-      <c r="E175" s="133"/>
-      <c r="F175" s="134"/>
-      <c r="G175" s="134"/>
-      <c r="H175" s="134"/>
-      <c r="I175" s="134"/>
-      <c r="J175" s="134"/>
+      <c r="E175" s="138"/>
+      <c r="F175" s="139"/>
+      <c r="G175" s="139"/>
+      <c r="H175" s="139"/>
+      <c r="I175" s="139"/>
+      <c r="J175" s="139"/>
       <c r="K175" s="10"/>
       <c r="L175" s="10"/>
       <c r="M175" s="10"/>
-      <c r="N175" s="138"/>
+      <c r="N175" s="143"/>
     </row>
     <row r="176" spans="1:14">
       <c r="A176" s="10"/>
-      <c r="B176" s="128"/>
+      <c r="B176" s="132"/>
       <c r="D176" s="10"/>
-      <c r="E176" s="133"/>
-      <c r="F176" s="134"/>
-      <c r="G176" s="134"/>
-      <c r="H176" s="134"/>
-      <c r="I176" s="134"/>
-      <c r="J176" s="134"/>
+      <c r="E176" s="138"/>
+      <c r="F176" s="139"/>
+      <c r="G176" s="139"/>
+      <c r="H176" s="139"/>
+      <c r="I176" s="139"/>
+      <c r="J176" s="139"/>
       <c r="K176" s="10"/>
       <c r="L176" s="10"/>
       <c r="M176" s="10"/>
-      <c r="N176" s="138"/>
+      <c r="N176" s="143"/>
     </row>
     <row r="177" spans="1:14">
       <c r="A177" s="10"/>
-      <c r="B177" s="128"/>
+      <c r="B177" s="132"/>
       <c r="D177" s="10"/>
-      <c r="E177" s="133"/>
-      <c r="F177" s="134"/>
-      <c r="G177" s="134"/>
-      <c r="H177" s="134"/>
-      <c r="I177" s="134"/>
-      <c r="J177" s="134"/>
+      <c r="E177" s="138"/>
+      <c r="F177" s="139"/>
+      <c r="G177" s="139"/>
+      <c r="H177" s="139"/>
+      <c r="I177" s="139"/>
+      <c r="J177" s="139"/>
       <c r="K177" s="10"/>
       <c r="L177" s="10"/>
       <c r="M177" s="10"/>
-      <c r="N177" s="138"/>
+      <c r="N177" s="143"/>
     </row>
     <row r="178" spans="1:14">
       <c r="A178" s="10"/>
-      <c r="B178" s="128"/>
+      <c r="B178" s="132"/>
       <c r="D178" s="10"/>
-      <c r="E178" s="133"/>
-      <c r="F178" s="134"/>
-      <c r="G178" s="134"/>
-      <c r="H178" s="134"/>
-      <c r="I178" s="134"/>
-      <c r="J178" s="134"/>
+      <c r="E178" s="138"/>
+      <c r="F178" s="139"/>
+      <c r="G178" s="139"/>
+      <c r="H178" s="139"/>
+      <c r="I178" s="139"/>
+      <c r="J178" s="139"/>
       <c r="K178" s="10"/>
       <c r="L178" s="10"/>
       <c r="M178" s="10"/>
-      <c r="N178" s="138"/>
+      <c r="N178" s="143"/>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="10"/>
-      <c r="B179" s="128"/>
+      <c r="B179" s="132"/>
       <c r="D179" s="10"/>
-      <c r="E179" s="133"/>
-      <c r="F179" s="134"/>
-      <c r="G179" s="134"/>
-      <c r="H179" s="134"/>
-      <c r="I179" s="134"/>
-      <c r="J179" s="134"/>
+      <c r="E179" s="138"/>
+      <c r="F179" s="139"/>
+      <c r="G179" s="139"/>
+      <c r="H179" s="139"/>
+      <c r="I179" s="139"/>
+      <c r="J179" s="139"/>
       <c r="K179" s="10"/>
       <c r="L179" s="10"/>
       <c r="M179" s="10"/>
-      <c r="N179" s="138"/>
+      <c r="N179" s="143"/>
     </row>
     <row r="180" spans="1:14">
       <c r="A180" s="10"/>
-      <c r="B180" s="128"/>
+      <c r="B180" s="132"/>
       <c r="D180" s="10"/>
-      <c r="E180" s="133"/>
-      <c r="F180" s="134"/>
-      <c r="G180" s="134"/>
-      <c r="H180" s="134"/>
-      <c r="I180" s="134"/>
-      <c r="J180" s="134"/>
+      <c r="E180" s="138"/>
+      <c r="F180" s="139"/>
+      <c r="G180" s="139"/>
+      <c r="H180" s="139"/>
+      <c r="I180" s="139"/>
+      <c r="J180" s="139"/>
       <c r="K180" s="10"/>
       <c r="L180" s="10"/>
       <c r="M180" s="10"/>
-      <c r="N180" s="138"/>
+      <c r="N180" s="143"/>
     </row>
     <row r="181" spans="1:14">
       <c r="A181" s="10"/>
-      <c r="B181" s="128"/>
+      <c r="B181" s="132"/>
       <c r="D181" s="10"/>
-      <c r="E181" s="133"/>
-      <c r="F181" s="134"/>
-      <c r="G181" s="134"/>
-      <c r="H181" s="134"/>
-      <c r="I181" s="134"/>
-      <c r="J181" s="134"/>
+      <c r="E181" s="138"/>
+      <c r="F181" s="139"/>
+      <c r="G181" s="139"/>
+      <c r="H181" s="139"/>
+      <c r="I181" s="139"/>
+      <c r="J181" s="139"/>
       <c r="K181" s="10"/>
       <c r="L181" s="10"/>
       <c r="M181" s="10"/>
-      <c r="N181" s="138"/>
+      <c r="N181" s="143"/>
     </row>
     <row r="182" spans="1:14">
       <c r="A182" s="10"/>
-      <c r="B182" s="128"/>
+      <c r="B182" s="132"/>
       <c r="D182" s="10"/>
-      <c r="E182" s="133"/>
-      <c r="F182" s="134"/>
-      <c r="G182" s="134"/>
-      <c r="H182" s="134"/>
-      <c r="I182" s="134"/>
-      <c r="J182" s="134"/>
+      <c r="E182" s="138"/>
+      <c r="F182" s="139"/>
+      <c r="G182" s="139"/>
+      <c r="H182" s="139"/>
+      <c r="I182" s="139"/>
+      <c r="J182" s="139"/>
       <c r="K182" s="10"/>
       <c r="L182" s="10"/>
       <c r="M182" s="10"/>
-      <c r="N182" s="138"/>
+      <c r="N182" s="143"/>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="10"/>
-      <c r="B183" s="128"/>
+      <c r="B183" s="132"/>
       <c r="D183" s="10"/>
-      <c r="E183" s="133"/>
-      <c r="F183" s="134"/>
-      <c r="G183" s="134"/>
-      <c r="H183" s="134"/>
-      <c r="I183" s="134"/>
-      <c r="J183" s="134"/>
+      <c r="E183" s="138"/>
+      <c r="F183" s="139"/>
+      <c r="G183" s="139"/>
+      <c r="H183" s="139"/>
+      <c r="I183" s="139"/>
+      <c r="J183" s="139"/>
       <c r="K183" s="10"/>
       <c r="L183" s="10"/>
       <c r="M183" s="10"/>
-      <c r="N183" s="138"/>
+      <c r="N183" s="143"/>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="10"/>
-      <c r="B184" s="128"/>
+      <c r="B184" s="132"/>
       <c r="D184" s="10"/>
-      <c r="E184" s="133"/>
-      <c r="F184" s="134"/>
-      <c r="G184" s="134"/>
-      <c r="H184" s="134"/>
-      <c r="I184" s="134"/>
-      <c r="J184" s="134"/>
+      <c r="E184" s="138"/>
+      <c r="F184" s="139"/>
+      <c r="G184" s="139"/>
+      <c r="H184" s="139"/>
+      <c r="I184" s="139"/>
+      <c r="J184" s="139"/>
       <c r="K184" s="10"/>
       <c r="L184" s="10"/>
       <c r="M184" s="10"/>
-      <c r="N184" s="138"/>
+      <c r="N184" s="143"/>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="10"/>
-      <c r="B185" s="128"/>
+      <c r="B185" s="132"/>
       <c r="D185" s="10"/>
-      <c r="E185" s="133"/>
-      <c r="F185" s="134"/>
-      <c r="G185" s="134"/>
-      <c r="H185" s="134"/>
-      <c r="I185" s="134"/>
-      <c r="J185" s="134"/>
+      <c r="E185" s="138"/>
+      <c r="F185" s="139"/>
+      <c r="G185" s="139"/>
+      <c r="H185" s="139"/>
+      <c r="I185" s="139"/>
+      <c r="J185" s="139"/>
       <c r="K185" s="10"/>
       <c r="L185" s="10"/>
       <c r="M185" s="10"/>
-      <c r="N185" s="138"/>
+      <c r="N185" s="143"/>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="10"/>
-      <c r="B186" s="128"/>
+      <c r="B186" s="132"/>
       <c r="D186" s="10"/>
-      <c r="E186" s="133"/>
-      <c r="F186" s="134"/>
-      <c r="G186" s="134"/>
-      <c r="H186" s="134"/>
-      <c r="I186" s="134"/>
-      <c r="J186" s="134"/>
+      <c r="E186" s="138"/>
+      <c r="F186" s="139"/>
+      <c r="G186" s="139"/>
+      <c r="H186" s="139"/>
+      <c r="I186" s="139"/>
+      <c r="J186" s="139"/>
       <c r="K186" s="10"/>
       <c r="L186" s="10"/>
       <c r="M186" s="10"/>
-      <c r="N186" s="138"/>
+      <c r="N186" s="143"/>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="10"/>
-      <c r="B187" s="128"/>
+      <c r="B187" s="132"/>
       <c r="D187" s="10"/>
-      <c r="E187" s="133"/>
-      <c r="F187" s="134"/>
-      <c r="G187" s="134"/>
-      <c r="H187" s="134"/>
-      <c r="I187" s="134"/>
-      <c r="J187" s="134"/>
+      <c r="E187" s="138"/>
+      <c r="F187" s="139"/>
+      <c r="G187" s="139"/>
+      <c r="H187" s="139"/>
+      <c r="I187" s="139"/>
+      <c r="J187" s="139"/>
       <c r="K187" s="10"/>
       <c r="L187" s="10"/>
       <c r="M187" s="10"/>
-      <c r="N187" s="138"/>
+      <c r="N187" s="143"/>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="10"/>
-      <c r="B188" s="128"/>
+      <c r="B188" s="132"/>
       <c r="D188" s="10"/>
-      <c r="E188" s="133"/>
-      <c r="F188" s="134"/>
-      <c r="G188" s="134"/>
-      <c r="H188" s="134"/>
-      <c r="I188" s="134"/>
-      <c r="J188" s="134"/>
+      <c r="E188" s="138"/>
+      <c r="F188" s="139"/>
+      <c r="G188" s="139"/>
+      <c r="H188" s="139"/>
+      <c r="I188" s="139"/>
+      <c r="J188" s="139"/>
       <c r="K188" s="10"/>
       <c r="L188" s="10"/>
       <c r="M188" s="10"/>
-      <c r="N188" s="138"/>
+      <c r="N188" s="143"/>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="10"/>
-      <c r="B189" s="128"/>
+      <c r="B189" s="132"/>
       <c r="D189" s="10"/>
-      <c r="E189" s="133"/>
-      <c r="F189" s="134"/>
-      <c r="G189" s="134"/>
-      <c r="H189" s="134"/>
-      <c r="I189" s="134"/>
-      <c r="J189" s="134"/>
+      <c r="E189" s="138"/>
+      <c r="F189" s="139"/>
+      <c r="G189" s="139"/>
+      <c r="H189" s="139"/>
+      <c r="I189" s="139"/>
+      <c r="J189" s="139"/>
       <c r="K189" s="10"/>
       <c r="L189" s="10"/>
       <c r="M189" s="10"/>
-      <c r="N189" s="138"/>
+      <c r="N189" s="143"/>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="10"/>
-      <c r="B190" s="128"/>
+      <c r="B190" s="132"/>
       <c r="D190" s="10"/>
-      <c r="E190" s="133"/>
-      <c r="F190" s="134"/>
-      <c r="G190" s="134"/>
-      <c r="H190" s="134"/>
-      <c r="I190" s="134"/>
-      <c r="J190" s="134"/>
+      <c r="E190" s="138"/>
+      <c r="F190" s="139"/>
+      <c r="G190" s="139"/>
+      <c r="H190" s="139"/>
+      <c r="I190" s="139"/>
+      <c r="J190" s="139"/>
       <c r="K190" s="10"/>
       <c r="L190" s="10"/>
       <c r="M190" s="10"/>
-      <c r="N190" s="138"/>
+      <c r="N190" s="143"/>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="10"/>
-      <c r="B191" s="128"/>
+      <c r="B191" s="132"/>
       <c r="D191" s="10"/>
-      <c r="E191" s="133"/>
-      <c r="F191" s="134"/>
-      <c r="G191" s="134"/>
-      <c r="H191" s="134"/>
-      <c r="I191" s="134"/>
-      <c r="J191" s="134"/>
+      <c r="E191" s="138"/>
+      <c r="F191" s="139"/>
+      <c r="G191" s="139"/>
+      <c r="H191" s="139"/>
+      <c r="I191" s="139"/>
+      <c r="J191" s="139"/>
       <c r="K191" s="10"/>
       <c r="L191" s="10"/>
       <c r="M191" s="10"/>
-      <c r="N191" s="138"/>
+      <c r="N191" s="143"/>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="10"/>
-      <c r="B192" s="128"/>
+      <c r="B192" s="132"/>
       <c r="D192" s="10"/>
-      <c r="E192" s="133"/>
-      <c r="F192" s="134"/>
-      <c r="G192" s="134"/>
-      <c r="H192" s="134"/>
-      <c r="I192" s="134"/>
-      <c r="J192" s="134"/>
+      <c r="E192" s="138"/>
+      <c r="F192" s="139"/>
+      <c r="G192" s="139"/>
+      <c r="H192" s="139"/>
+      <c r="I192" s="139"/>
+      <c r="J192" s="139"/>
       <c r="K192" s="10"/>
       <c r="L192" s="10"/>
       <c r="M192" s="10"/>
-      <c r="N192" s="138"/>
+      <c r="N192" s="143"/>
     </row>
     <row r="193" spans="1:14">
       <c r="A193" s="10"/>
-      <c r="B193" s="128"/>
+      <c r="B193" s="132"/>
       <c r="D193" s="10"/>
-      <c r="E193" s="133"/>
-      <c r="F193" s="134"/>
-      <c r="G193" s="134"/>
-      <c r="H193" s="134"/>
-      <c r="I193" s="134"/>
-      <c r="J193" s="134"/>
+      <c r="E193" s="138"/>
+      <c r="F193" s="139"/>
+      <c r="G193" s="139"/>
+      <c r="H193" s="139"/>
+      <c r="I193" s="139"/>
+      <c r="J193" s="139"/>
       <c r="K193" s="10"/>
       <c r="L193" s="10"/>
       <c r="M193" s="10"/>
-      <c r="N193" s="138"/>
+      <c r="N193" s="143"/>
     </row>
     <row r="194" spans="1:14">
       <c r="A194" s="10"/>
-      <c r="B194" s="128"/>
+      <c r="B194" s="132"/>
       <c r="D194" s="10"/>
-      <c r="E194" s="133"/>
-      <c r="F194" s="134"/>
-      <c r="G194" s="134"/>
-      <c r="H194" s="134"/>
-      <c r="I194" s="134"/>
-      <c r="J194" s="134"/>
+      <c r="E194" s="138"/>
+      <c r="F194" s="139"/>
+      <c r="G194" s="139"/>
+      <c r="H194" s="139"/>
+      <c r="I194" s="139"/>
+      <c r="J194" s="139"/>
       <c r="K194" s="10"/>
       <c r="L194" s="10"/>
       <c r="M194" s="10"/>
-      <c r="N194" s="138"/>
+      <c r="N194" s="143"/>
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="10"/>
-      <c r="B195" s="128"/>
+      <c r="B195" s="132"/>
       <c r="D195" s="10"/>
-      <c r="E195" s="133"/>
-      <c r="F195" s="134"/>
-      <c r="G195" s="134"/>
-      <c r="H195" s="134"/>
-      <c r="I195" s="134"/>
-      <c r="J195" s="134"/>
+      <c r="E195" s="138"/>
+      <c r="F195" s="139"/>
+      <c r="G195" s="139"/>
+      <c r="H195" s="139"/>
+      <c r="I195" s="139"/>
+      <c r="J195" s="139"/>
       <c r="K195" s="10"/>
       <c r="L195" s="10"/>
       <c r="M195" s="10"/>
-      <c r="N195" s="138"/>
+      <c r="N195" s="143"/>
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="10"/>
-      <c r="B196" s="128"/>
+      <c r="B196" s="132"/>
       <c r="D196" s="10"/>
-      <c r="E196" s="133"/>
-      <c r="F196" s="134"/>
-      <c r="G196" s="134"/>
-      <c r="H196" s="134"/>
-      <c r="I196" s="134"/>
-      <c r="J196" s="134"/>
+      <c r="E196" s="138"/>
+      <c r="F196" s="139"/>
+      <c r="G196" s="139"/>
+      <c r="H196" s="139"/>
+      <c r="I196" s="139"/>
+      <c r="J196" s="139"/>
       <c r="K196" s="10"/>
       <c r="L196" s="10"/>
       <c r="M196" s="10"/>
-      <c r="N196" s="138"/>
+      <c r="N196" s="143"/>
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="10"/>
-      <c r="B197" s="128"/>
+      <c r="B197" s="132"/>
       <c r="D197" s="10"/>
-      <c r="E197" s="133"/>
-      <c r="F197" s="134"/>
-      <c r="G197" s="134"/>
-      <c r="H197" s="134"/>
-      <c r="I197" s="134"/>
-      <c r="J197" s="134"/>
+      <c r="E197" s="138"/>
+      <c r="F197" s="139"/>
+      <c r="G197" s="139"/>
+      <c r="H197" s="139"/>
+      <c r="I197" s="139"/>
+      <c r="J197" s="139"/>
       <c r="K197" s="10"/>
       <c r="L197" s="10"/>
       <c r="M197" s="10"/>
-      <c r="N197" s="138"/>
+      <c r="N197" s="143"/>
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="10"/>
-      <c r="B198" s="128"/>
+      <c r="B198" s="132"/>
       <c r="D198" s="10"/>
-      <c r="E198" s="133"/>
-      <c r="F198" s="134"/>
-      <c r="G198" s="134"/>
-      <c r="H198" s="134"/>
-      <c r="I198" s="134"/>
-      <c r="J198" s="134"/>
+      <c r="E198" s="138"/>
+      <c r="F198" s="139"/>
+      <c r="G198" s="139"/>
+      <c r="H198" s="139"/>
+      <c r="I198" s="139"/>
+      <c r="J198" s="139"/>
       <c r="K198" s="10"/>
       <c r="L198" s="10"/>
       <c r="M198" s="10"/>
-      <c r="N198" s="138"/>
+      <c r="N198" s="143"/>
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="10"/>
-      <c r="B199" s="128"/>
+      <c r="B199" s="132"/>
       <c r="D199" s="10"/>
-      <c r="E199" s="133"/>
-      <c r="F199" s="134"/>
-      <c r="G199" s="134"/>
-      <c r="H199" s="134"/>
-      <c r="I199" s="134"/>
-      <c r="J199" s="134"/>
+      <c r="E199" s="138"/>
+      <c r="F199" s="139"/>
+      <c r="G199" s="139"/>
+      <c r="H199" s="139"/>
+      <c r="I199" s="139"/>
+      <c r="J199" s="139"/>
       <c r="K199" s="10"/>
       <c r="L199" s="10"/>
       <c r="M199" s="10"/>
-      <c r="N199" s="138"/>
+      <c r="N199" s="143"/>
     </row>
     <row r="200" spans="1:14">
       <c r="A200" s="10"/>
-      <c r="B200" s="128"/>
+      <c r="B200" s="132"/>
       <c r="D200" s="10"/>
-      <c r="E200" s="133"/>
-      <c r="F200" s="134"/>
-      <c r="G200" s="134"/>
-      <c r="H200" s="134"/>
-      <c r="I200" s="134"/>
-      <c r="J200" s="134"/>
+      <c r="E200" s="138"/>
+      <c r="F200" s="139"/>
+      <c r="G200" s="139"/>
+      <c r="H200" s="139"/>
+      <c r="I200" s="139"/>
+      <c r="J200" s="139"/>
       <c r="K200" s="10"/>
       <c r="L200" s="10"/>
       <c r="M200" s="10"/>
-      <c r="N200" s="138"/>
+      <c r="N200" s="143"/>
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="10"/>
-      <c r="B201" s="128"/>
+      <c r="B201" s="132"/>
       <c r="D201" s="10"/>
-      <c r="E201" s="133"/>
-      <c r="F201" s="134"/>
-      <c r="G201" s="134"/>
-      <c r="H201" s="134"/>
-      <c r="I201" s="134"/>
-      <c r="J201" s="134"/>
+      <c r="E201" s="138"/>
+      <c r="F201" s="139"/>
+      <c r="G201" s="139"/>
+      <c r="H201" s="139"/>
+      <c r="I201" s="139"/>
+      <c r="J201" s="139"/>
       <c r="K201" s="10"/>
       <c r="L201" s="10"/>
       <c r="M201" s="10"/>
-      <c r="N201" s="138"/>
+      <c r="N201" s="143"/>
     </row>
     <row r="202" spans="1:14">
       <c r="A202" s="10"/>
-      <c r="B202" s="128"/>
+      <c r="B202" s="132"/>
       <c r="D202" s="10"/>
-      <c r="E202" s="133"/>
-      <c r="F202" s="134"/>
-      <c r="G202" s="134"/>
-      <c r="H202" s="134"/>
-      <c r="I202" s="134"/>
-      <c r="J202" s="134"/>
+      <c r="E202" s="138"/>
+      <c r="F202" s="139"/>
+      <c r="G202" s="139"/>
+      <c r="H202" s="139"/>
+      <c r="I202" s="139"/>
+      <c r="J202" s="139"/>
       <c r="K202" s="10"/>
       <c r="L202" s="10"/>
       <c r="M202" s="10"/>
-      <c r="N202" s="138"/>
+      <c r="N202" s="143"/>
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="10"/>
-      <c r="B203" s="128"/>
+      <c r="B203" s="132"/>
       <c r="D203" s="10"/>
-      <c r="E203" s="133"/>
-      <c r="F203" s="134"/>
-      <c r="G203" s="134"/>
-      <c r="H203" s="134"/>
-      <c r="I203" s="134"/>
-      <c r="J203" s="134"/>
+      <c r="E203" s="138"/>
+      <c r="F203" s="139"/>
+      <c r="G203" s="139"/>
+      <c r="H203" s="139"/>
+      <c r="I203" s="139"/>
+      <c r="J203" s="139"/>
       <c r="K203" s="10"/>
       <c r="L203" s="10"/>
       <c r="M203" s="10"/>
-      <c r="N203" s="138"/>
+      <c r="N203" s="143"/>
     </row>
     <row r="204" spans="1:14">
       <c r="A204" s="10"/>
-      <c r="B204" s="128"/>
+      <c r="B204" s="132"/>
       <c r="D204" s="10"/>
-      <c r="E204" s="133"/>
-      <c r="F204" s="134"/>
-      <c r="G204" s="134"/>
-      <c r="H204" s="134"/>
-      <c r="I204" s="134"/>
-      <c r="J204" s="134"/>
+      <c r="E204" s="138"/>
+      <c r="F204" s="139"/>
+      <c r="G204" s="139"/>
+      <c r="H204" s="139"/>
+      <c r="I204" s="139"/>
+      <c r="J204" s="139"/>
       <c r="K204" s="10"/>
       <c r="L204" s="10"/>
       <c r="M204" s="10"/>
-      <c r="N204" s="138"/>
+      <c r="N204" s="143"/>
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="10"/>
-      <c r="B205" s="128"/>
+      <c r="B205" s="132"/>
       <c r="D205" s="10"/>
-      <c r="E205" s="133"/>
-      <c r="F205" s="134"/>
-      <c r="G205" s="134"/>
-      <c r="H205" s="134"/>
-      <c r="I205" s="134"/>
-      <c r="J205" s="134"/>
+      <c r="E205" s="138"/>
+      <c r="F205" s="139"/>
+      <c r="G205" s="139"/>
+      <c r="H205" s="139"/>
+      <c r="I205" s="139"/>
+      <c r="J205" s="139"/>
       <c r="K205" s="10"/>
       <c r="L205" s="10"/>
       <c r="M205" s="10"/>
-      <c r="N205" s="138"/>
+      <c r="N205" s="143"/>
     </row>
     <row r="206" spans="1:14">
       <c r="A206" s="10"/>
-      <c r="B206" s="128"/>
+      <c r="B206" s="132"/>
       <c r="D206" s="10"/>
-      <c r="E206" s="133"/>
-      <c r="F206" s="134"/>
-      <c r="G206" s="134"/>
-      <c r="H206" s="134"/>
-      <c r="I206" s="134"/>
-      <c r="J206" s="134"/>
+      <c r="E206" s="138"/>
+      <c r="F206" s="139"/>
+      <c r="G206" s="139"/>
+      <c r="H206" s="139"/>
+      <c r="I206" s="139"/>
+      <c r="J206" s="139"/>
       <c r="K206" s="10"/>
       <c r="L206" s="10"/>
       <c r="M206" s="10"/>
-      <c r="N206" s="138"/>
+      <c r="N206" s="143"/>
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="10"/>
-      <c r="B207" s="128"/>
+      <c r="B207" s="132"/>
       <c r="D207" s="10"/>
-      <c r="E207" s="133"/>
-      <c r="F207" s="134"/>
-      <c r="G207" s="134"/>
-      <c r="H207" s="134"/>
-      <c r="I207" s="134"/>
-      <c r="J207" s="134"/>
+      <c r="E207" s="138"/>
+      <c r="F207" s="139"/>
+      <c r="G207" s="139"/>
+      <c r="H207" s="139"/>
+      <c r="I207" s="139"/>
+      <c r="J207" s="139"/>
       <c r="K207" s="10"/>
       <c r="L207" s="10"/>
       <c r="M207" s="10"/>
-      <c r="N207" s="138"/>
+      <c r="N207" s="143"/>
     </row>
     <row r="208" spans="1:14">
       <c r="A208" s="10"/>
-      <c r="B208" s="128"/>
+      <c r="B208" s="132"/>
       <c r="D208" s="10"/>
-      <c r="E208" s="133"/>
-      <c r="F208" s="134"/>
-      <c r="G208" s="134"/>
-      <c r="H208" s="134"/>
-      <c r="I208" s="134"/>
-      <c r="J208" s="134"/>
+      <c r="E208" s="138"/>
+      <c r="F208" s="139"/>
+      <c r="G208" s="139"/>
+      <c r="H208" s="139"/>
+      <c r="I208" s="139"/>
+      <c r="J208" s="139"/>
       <c r="K208" s="10"/>
       <c r="L208" s="10"/>
       <c r="M208" s="10"/>
-      <c r="N208" s="138"/>
+      <c r="N208" s="143"/>
     </row>
     <row r="209" spans="1:14">
       <c r="A209" s="10"/>
-      <c r="B209" s="128"/>
+      <c r="B209" s="132"/>
       <c r="D209" s="10"/>
-      <c r="E209" s="133"/>
-      <c r="F209" s="134"/>
-      <c r="G209" s="134"/>
-      <c r="H209" s="134"/>
-      <c r="I209" s="134"/>
-      <c r="J209" s="134"/>
+      <c r="E209" s="138"/>
+      <c r="F209" s="139"/>
+      <c r="G209" s="139"/>
+      <c r="H209" s="139"/>
+      <c r="I209" s="139"/>
+      <c r="J209" s="139"/>
       <c r="K209" s="10"/>
       <c r="L209" s="10"/>
       <c r="M209" s="10"/>
-      <c r="N209" s="138"/>
+      <c r="N209" s="143"/>
     </row>
     <row r="210" spans="1:14">
       <c r="A210" s="10"/>
-      <c r="B210" s="128"/>
+      <c r="B210" s="132"/>
       <c r="D210" s="10"/>
-      <c r="E210" s="133"/>
-      <c r="F210" s="134"/>
-      <c r="G210" s="134"/>
-      <c r="H210" s="134"/>
-      <c r="I210" s="134"/>
-      <c r="J210" s="134"/>
+      <c r="E210" s="138"/>
+      <c r="F210" s="139"/>
+      <c r="G210" s="139"/>
+      <c r="H210" s="139"/>
+      <c r="I210" s="139"/>
+      <c r="J210" s="139"/>
       <c r="K210" s="10"/>
       <c r="L210" s="10"/>
       <c r="M210" s="10"/>
-      <c r="N210" s="138"/>
+      <c r="N210" s="143"/>
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="10"/>
-      <c r="B211" s="128"/>
+      <c r="B211" s="132"/>
       <c r="D211" s="10"/>
-      <c r="E211" s="133"/>
-      <c r="F211" s="134"/>
-      <c r="G211" s="134"/>
-      <c r="H211" s="134"/>
-      <c r="I211" s="134"/>
-      <c r="J211" s="134"/>
+      <c r="E211" s="138"/>
+      <c r="F211" s="139"/>
+      <c r="G211" s="139"/>
+      <c r="H211" s="139"/>
+      <c r="I211" s="139"/>
+      <c r="J211" s="139"/>
       <c r="K211" s="10"/>
       <c r="L211" s="10"/>
       <c r="M211" s="10"/>
-      <c r="N211" s="138"/>
+      <c r="N211" s="143"/>
     </row>
     <row r="212" spans="1:14">
       <c r="A212" s="10"/>
-      <c r="B212" s="128"/>
+      <c r="B212" s="132"/>
       <c r="D212" s="10"/>
-      <c r="E212" s="133"/>
-      <c r="F212" s="134"/>
-      <c r="G212" s="134"/>
-      <c r="H212" s="134"/>
-      <c r="I212" s="134"/>
-      <c r="J212" s="134"/>
+      <c r="E212" s="138"/>
+      <c r="F212" s="139"/>
+      <c r="G212" s="139"/>
+      <c r="H212" s="139"/>
+      <c r="I212" s="139"/>
+      <c r="J212" s="139"/>
       <c r="K212" s="10"/>
       <c r="L212" s="10"/>
       <c r="M212" s="10"/>
-      <c r="N212" s="138"/>
+      <c r="N212" s="143"/>
     </row>
     <row r="213" spans="1:14">
       <c r="A213" s="10"/>
-      <c r="B213" s="128"/>
+      <c r="B213" s="132"/>
       <c r="D213" s="10"/>
-      <c r="E213" s="133"/>
-      <c r="F213" s="134"/>
-      <c r="G213" s="134"/>
-      <c r="H213" s="134"/>
-      <c r="I213" s="134"/>
-      <c r="J213" s="134"/>
+      <c r="E213" s="138"/>
+      <c r="F213" s="139"/>
+      <c r="G213" s="139"/>
+      <c r="H213" s="139"/>
+      <c r="I213" s="139"/>
+      <c r="J213" s="139"/>
       <c r="K213" s="10"/>
       <c r="L213" s="10"/>
       <c r="M213" s="10"/>
-      <c r="N213" s="138"/>
+      <c r="N213" s="143"/>
     </row>
     <row r="214" spans="1:14">
       <c r="A214" s="10"/>
-      <c r="B214" s="128"/>
+      <c r="B214" s="132"/>
       <c r="D214" s="10"/>
-      <c r="E214" s="133"/>
-      <c r="F214" s="134"/>
-      <c r="G214" s="134"/>
-      <c r="H214" s="134"/>
-      <c r="I214" s="134"/>
-      <c r="J214" s="134"/>
+      <c r="E214" s="138"/>
+      <c r="F214" s="139"/>
+      <c r="G214" s="139"/>
+      <c r="H214" s="139"/>
+      <c r="I214" s="139"/>
+      <c r="J214" s="139"/>
       <c r="K214" s="10"/>
       <c r="L214" s="10"/>
       <c r="M214" s="10"/>
-      <c r="N214" s="138"/>
+      <c r="N214" s="143"/>
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="10"/>
-      <c r="B215" s="128"/>
+      <c r="B215" s="132"/>
       <c r="D215" s="10"/>
-      <c r="E215" s="133"/>
-      <c r="F215" s="134"/>
-      <c r="G215" s="134"/>
-      <c r="H215" s="134"/>
-      <c r="I215" s="134"/>
-      <c r="J215" s="134"/>
+      <c r="E215" s="138"/>
+      <c r="F215" s="139"/>
+      <c r="G215" s="139"/>
+      <c r="H215" s="139"/>
+      <c r="I215" s="139"/>
+      <c r="J215" s="139"/>
       <c r="K215" s="10"/>
       <c r="L215" s="10"/>
       <c r="M215" s="10"/>
-      <c r="N215" s="138"/>
+      <c r="N215" s="143"/>
     </row>
     <row r="216" spans="1:14">
       <c r="A216" s="10"/>
-      <c r="B216" s="128"/>
+      <c r="B216" s="132"/>
       <c r="D216" s="10"/>
-      <c r="E216" s="133"/>
-      <c r="F216" s="134"/>
-      <c r="G216" s="134"/>
-      <c r="H216" s="134"/>
-      <c r="I216" s="134"/>
-      <c r="J216" s="134"/>
+      <c r="E216" s="138"/>
+      <c r="F216" s="139"/>
+      <c r="G216" s="139"/>
+      <c r="H216" s="139"/>
+      <c r="I216" s="139"/>
+      <c r="J216" s="139"/>
       <c r="K216" s="10"/>
       <c r="L216" s="10"/>
       <c r="M216" s="10"/>
-      <c r="N216" s="138"/>
+      <c r="N216" s="143"/>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="10"/>
-      <c r="B217" s="128"/>
+      <c r="B217" s="132"/>
       <c r="D217" s="10"/>
-      <c r="E217" s="133"/>
-      <c r="F217" s="134"/>
-      <c r="G217" s="134"/>
-      <c r="H217" s="134"/>
-      <c r="I217" s="134"/>
-      <c r="J217" s="134"/>
+      <c r="E217" s="138"/>
+      <c r="F217" s="139"/>
+      <c r="G217" s="139"/>
+      <c r="H217" s="139"/>
+      <c r="I217" s="139"/>
+      <c r="J217" s="139"/>
       <c r="K217" s="10"/>
       <c r="L217" s="10"/>
       <c r="M217" s="10"/>
-      <c r="N217" s="138"/>
+      <c r="N217" s="143"/>
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="10"/>
-      <c r="B218" s="128"/>
+      <c r="B218" s="132"/>
       <c r="D218" s="10"/>
-      <c r="E218" s="133"/>
-      <c r="F218" s="134"/>
-      <c r="G218" s="134"/>
-      <c r="H218" s="134"/>
-      <c r="I218" s="134"/>
-      <c r="J218" s="134"/>
+      <c r="E218" s="138"/>
+      <c r="F218" s="139"/>
+      <c r="G218" s="139"/>
+      <c r="H218" s="139"/>
+      <c r="I218" s="139"/>
+      <c r="J218" s="139"/>
       <c r="K218" s="10"/>
       <c r="L218" s="10"/>
       <c r="M218" s="10"/>
-      <c r="N218" s="138"/>
+      <c r="N218" s="143"/>
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="10"/>
-      <c r="B219" s="128"/>
+      <c r="B219" s="132"/>
       <c r="D219" s="10"/>
-      <c r="E219" s="133"/>
-      <c r="F219" s="134"/>
-      <c r="G219" s="134"/>
-      <c r="H219" s="134"/>
-      <c r="I219" s="134"/>
-      <c r="J219" s="134"/>
+      <c r="E219" s="138"/>
+      <c r="F219" s="139"/>
+      <c r="G219" s="139"/>
+      <c r="H219" s="139"/>
+      <c r="I219" s="139"/>
+      <c r="J219" s="139"/>
       <c r="K219" s="10"/>
       <c r="L219" s="10"/>
       <c r="M219" s="10"/>
-      <c r="N219" s="138"/>
+      <c r="N219" s="143"/>
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="10"/>
-      <c r="B220" s="128"/>
+      <c r="B220" s="132"/>
       <c r="D220" s="10"/>
-      <c r="E220" s="133"/>
-      <c r="F220" s="134"/>
-      <c r="G220" s="134"/>
-      <c r="H220" s="134"/>
-      <c r="I220" s="134"/>
-      <c r="J220" s="134"/>
+      <c r="E220" s="138"/>
+      <c r="F220" s="139"/>
+      <c r="G220" s="139"/>
+      <c r="H220" s="139"/>
+      <c r="I220" s="139"/>
+      <c r="J220" s="139"/>
       <c r="K220" s="10"/>
       <c r="L220" s="10"/>
       <c r="M220" s="10"/>
-      <c r="N220" s="138"/>
+      <c r="N220" s="143"/>
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="10"/>
-      <c r="B221" s="128"/>
+      <c r="B221" s="132"/>
       <c r="D221" s="10"/>
-      <c r="E221" s="133"/>
-      <c r="F221" s="134"/>
-      <c r="G221" s="134"/>
-      <c r="H221" s="134"/>
-      <c r="I221" s="134"/>
-      <c r="J221" s="134"/>
+      <c r="E221" s="138"/>
+      <c r="F221" s="139"/>
+      <c r="G221" s="139"/>
+      <c r="H221" s="139"/>
+      <c r="I221" s="139"/>
+      <c r="J221" s="139"/>
       <c r="K221" s="10"/>
       <c r="L221" s="10"/>
       <c r="M221" s="10"/>
-      <c r="N221" s="138"/>
+      <c r="N221" s="143"/>
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="10"/>
-      <c r="B222" s="128"/>
+      <c r="B222" s="132"/>
       <c r="D222" s="10"/>
-      <c r="E222" s="133"/>
-      <c r="F222" s="134"/>
-      <c r="G222" s="134"/>
-      <c r="H222" s="134"/>
-      <c r="I222" s="134"/>
-      <c r="J222" s="134"/>
+      <c r="E222" s="138"/>
+      <c r="F222" s="139"/>
+      <c r="G222" s="139"/>
+      <c r="H222" s="139"/>
+      <c r="I222" s="139"/>
+      <c r="J222" s="139"/>
       <c r="K222" s="10"/>
       <c r="L222" s="10"/>
       <c r="M222" s="10"/>
-      <c r="N222" s="138"/>
+      <c r="N222" s="143"/>
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="10"/>
-      <c r="B223" s="128"/>
+      <c r="B223" s="132"/>
       <c r="D223" s="10"/>
-      <c r="E223" s="133"/>
-      <c r="F223" s="134"/>
-      <c r="G223" s="134"/>
-      <c r="H223" s="134"/>
-      <c r="I223" s="134"/>
-      <c r="J223" s="134"/>
+      <c r="E223" s="138"/>
+      <c r="F223" s="139"/>
+      <c r="G223" s="139"/>
+      <c r="H223" s="139"/>
+      <c r="I223" s="139"/>
+      <c r="J223" s="139"/>
       <c r="K223" s="10"/>
       <c r="L223" s="10"/>
       <c r="M223" s="10"/>
-      <c r="N223" s="138"/>
+      <c r="N223" s="143"/>
     </row>
     <row r="224" spans="1:14">
       <c r="A224" s="10"/>
-      <c r="B224" s="128"/>
+      <c r="B224" s="132"/>
       <c r="D224" s="10"/>
-      <c r="E224" s="133"/>
-      <c r="F224" s="134"/>
-      <c r="G224" s="134"/>
-      <c r="H224" s="134"/>
-      <c r="I224" s="134"/>
-      <c r="J224" s="134"/>
+      <c r="E224" s="138"/>
+      <c r="F224" s="139"/>
+      <c r="G224" s="139"/>
+      <c r="H224" s="139"/>
+      <c r="I224" s="139"/>
+      <c r="J224" s="139"/>
       <c r="K224" s="10"/>
       <c r="L224" s="10"/>
       <c r="M224" s="10"/>
-      <c r="N224" s="138"/>
+      <c r="N224" s="143"/>
     </row>
     <row r="225" spans="1:14">
       <c r="A225" s="10"/>
-      <c r="B225" s="128"/>
+      <c r="B225" s="132"/>
       <c r="D225" s="10"/>
-      <c r="E225" s="133"/>
-      <c r="F225" s="134"/>
-      <c r="G225" s="134"/>
-      <c r="H225" s="134"/>
-      <c r="I225" s="134"/>
-      <c r="J225" s="134"/>
+      <c r="E225" s="138"/>
+      <c r="F225" s="139"/>
+      <c r="G225" s="139"/>
+      <c r="H225" s="139"/>
+      <c r="I225" s="139"/>
+      <c r="J225" s="139"/>
       <c r="K225" s="10"/>
       <c r="L225" s="10"/>
       <c r="M225" s="10"/>
-      <c r="N225" s="138"/>
+      <c r="N225" s="143"/>
     </row>
     <row r="226" spans="1:14">
       <c r="A226" s="10"/>
-      <c r="B226" s="128"/>
+      <c r="B226" s="132"/>
       <c r="D226" s="10"/>
-      <c r="E226" s="133"/>
-      <c r="F226" s="134"/>
-      <c r="G226" s="134"/>
-      <c r="H226" s="134"/>
-      <c r="I226" s="134"/>
-      <c r="J226" s="134"/>
+      <c r="E226" s="138"/>
+      <c r="F226" s="139"/>
+      <c r="G226" s="139"/>
+      <c r="H226" s="139"/>
+      <c r="I226" s="139"/>
+      <c r="J226" s="139"/>
       <c r="K226" s="10"/>
       <c r="L226" s="10"/>
       <c r="M226" s="10"/>
-      <c r="N226" s="138"/>
+      <c r="N226" s="143"/>
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="10"/>
-      <c r="B227" s="128"/>
+      <c r="B227" s="132"/>
       <c r="D227" s="10"/>
-      <c r="E227" s="133"/>
-      <c r="F227" s="134"/>
-      <c r="G227" s="134"/>
-      <c r="H227" s="134"/>
-      <c r="I227" s="134"/>
-      <c r="J227" s="134"/>
+      <c r="E227" s="138"/>
+      <c r="F227" s="139"/>
+      <c r="G227" s="139"/>
+      <c r="H227" s="139"/>
+      <c r="I227" s="139"/>
+      <c r="J227" s="139"/>
       <c r="K227" s="10"/>
       <c r="L227" s="10"/>
       <c r="M227" s="10"/>
-      <c r="N227" s="138"/>
+      <c r="N227" s="143"/>
     </row>
     <row r="228" spans="1:14">
       <c r="A228" s="10"/>
-      <c r="B228" s="128"/>
+      <c r="B228" s="132"/>
       <c r="D228" s="10"/>
-      <c r="E228" s="133"/>
-      <c r="F228" s="134"/>
-      <c r="G228" s="134"/>
-      <c r="H228" s="134"/>
-      <c r="I228" s="134"/>
-      <c r="J228" s="134"/>
+      <c r="E228" s="138"/>
+      <c r="F228" s="139"/>
+      <c r="G228" s="139"/>
+      <c r="H228" s="139"/>
+      <c r="I228" s="139"/>
+      <c r="J228" s="139"/>
       <c r="K228" s="10"/>
       <c r="L228" s="10"/>
       <c r="M228" s="10"/>
-      <c r="N228" s="138"/>
+      <c r="N228" s="143"/>
     </row>
     <row r="229" spans="1:14">
       <c r="A229" s="10"/>
-      <c r="B229" s="128"/>
+      <c r="B229" s="132"/>
       <c r="D229" s="10"/>
-      <c r="E229" s="133"/>
-      <c r="F229" s="134"/>
-      <c r="G229" s="134"/>
-      <c r="H229" s="134"/>
-      <c r="I229" s="134"/>
-      <c r="J229" s="134"/>
+      <c r="E229" s="138"/>
+      <c r="F229" s="139"/>
+      <c r="G229" s="139"/>
+      <c r="H229" s="139"/>
+      <c r="I229" s="139"/>
+      <c r="J229" s="139"/>
       <c r="K229" s="10"/>
       <c r="L229" s="10"/>
       <c r="M229" s="10"/>
-      <c r="N229" s="138"/>
+      <c r="N229" s="143"/>
     </row>
     <row r="230" spans="1:14">
       <c r="A230" s="10"/>
-      <c r="B230" s="128"/>
+      <c r="B230" s="132"/>
       <c r="D230" s="10"/>
-      <c r="E230" s="133"/>
-      <c r="F230" s="134"/>
-      <c r="G230" s="134"/>
-      <c r="H230" s="134"/>
-      <c r="I230" s="134"/>
-      <c r="J230" s="134"/>
+      <c r="E230" s="138"/>
+      <c r="F230" s="139"/>
+      <c r="G230" s="139"/>
+      <c r="H230" s="139"/>
+      <c r="I230" s="139"/>
+      <c r="J230" s="139"/>
       <c r="K230" s="10"/>
       <c r="L230" s="10"/>
       <c r="M230" s="10"/>
-      <c r="N230" s="138"/>
+      <c r="N230" s="143"/>
     </row>
     <row r="231" spans="1:14">
       <c r="A231" s="10"/>
-      <c r="B231" s="128"/>
+      <c r="B231" s="132"/>
       <c r="D231" s="10"/>
-      <c r="E231" s="133"/>
-      <c r="F231" s="134"/>
-      <c r="G231" s="134"/>
-      <c r="H231" s="134"/>
-      <c r="I231" s="134"/>
-      <c r="J231" s="134"/>
+      <c r="E231" s="138"/>
+      <c r="F231" s="139"/>
+      <c r="G231" s="139"/>
+      <c r="H231" s="139"/>
+      <c r="I231" s="139"/>
+      <c r="J231" s="139"/>
       <c r="K231" s="10"/>
       <c r="L231" s="10"/>
       <c r="M231" s="10"/>
-      <c r="N231" s="138"/>
+      <c r="N231" s="143"/>
     </row>
     <row r="232" spans="1:14">
       <c r="A232" s="10"/>
-      <c r="B232" s="128"/>
+      <c r="B232" s="132"/>
       <c r="D232" s="10"/>
-      <c r="E232" s="133"/>
-      <c r="F232" s="134"/>
-      <c r="G232" s="134"/>
-      <c r="H232" s="134"/>
-      <c r="I232" s="134"/>
-      <c r="J232" s="134"/>
+      <c r="E232" s="138"/>
+      <c r="F232" s="139"/>
+      <c r="G232" s="139"/>
+      <c r="H232" s="139"/>
+      <c r="I232" s="139"/>
+      <c r="J232" s="139"/>
       <c r="K232" s="10"/>
       <c r="L232" s="10"/>
       <c r="M232" s="10"/>
-      <c r="N232" s="138"/>
+      <c r="N232" s="143"/>
     </row>
     <row r="233" spans="1:14">
       <c r="A233" s="10"/>
-      <c r="B233" s="128"/>
+      <c r="B233" s="132"/>
       <c r="D233" s="10"/>
-      <c r="E233" s="133"/>
-      <c r="F233" s="134"/>
-      <c r="G233" s="134"/>
-      <c r="H233" s="134"/>
-      <c r="I233" s="134"/>
-      <c r="J233" s="134"/>
+      <c r="E233" s="138"/>
+      <c r="F233" s="139"/>
+      <c r="G233" s="139"/>
+      <c r="H233" s="139"/>
+      <c r="I233" s="139"/>
+      <c r="J233" s="139"/>
       <c r="K233" s="10"/>
       <c r="L233" s="10"/>
       <c r="M233" s="10"/>
-      <c r="N233" s="138"/>
+      <c r="N233" s="143"/>
     </row>
     <row r="234" spans="1:14">
       <c r="A234" s="10"/>
-      <c r="B234" s="128"/>
+      <c r="B234" s="132"/>
       <c r="D234" s="10"/>
-      <c r="E234" s="133"/>
-      <c r="F234" s="134"/>
-      <c r="G234" s="134"/>
-      <c r="H234" s="134"/>
-      <c r="I234" s="134"/>
-      <c r="J234" s="134"/>
+      <c r="E234" s="138"/>
+      <c r="F234" s="139"/>
+      <c r="G234" s="139"/>
+      <c r="H234" s="139"/>
+      <c r="I234" s="139"/>
+      <c r="J234" s="139"/>
       <c r="K234" s="10"/>
       <c r="L234" s="10"/>
       <c r="M234" s="10"/>
-      <c r="N234" s="138"/>
+      <c r="N234" s="143"/>
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="10"/>
-      <c r="B235" s="128"/>
+      <c r="B235" s="132"/>
       <c r="D235" s="10"/>
-      <c r="E235" s="133"/>
-      <c r="F235" s="134"/>
-      <c r="G235" s="134"/>
-      <c r="H235" s="134"/>
-      <c r="I235" s="134"/>
-      <c r="J235" s="134"/>
+      <c r="E235" s="138"/>
+      <c r="F235" s="139"/>
+      <c r="G235" s="139"/>
+      <c r="H235" s="139"/>
+      <c r="I235" s="139"/>
+      <c r="J235" s="139"/>
       <c r="K235" s="10"/>
       <c r="L235" s="10"/>
       <c r="M235" s="10"/>
-      <c r="N235" s="138"/>
+      <c r="N235" s="143"/>
     </row>
     <row r="236" spans="1:14">
       <c r="A236" s="10"/>
-      <c r="B236" s="128"/>
+      <c r="B236" s="132"/>
       <c r="D236" s="10"/>
-      <c r="E236" s="133"/>
-      <c r="F236" s="134"/>
-      <c r="G236" s="134"/>
-      <c r="H236" s="134"/>
-      <c r="I236" s="134"/>
-      <c r="J236" s="134"/>
+      <c r="E236" s="138"/>
+      <c r="F236" s="139"/>
+      <c r="G236" s="139"/>
+      <c r="H236" s="139"/>
+      <c r="I236" s="139"/>
+      <c r="J236" s="139"/>
       <c r="K236" s="10"/>
       <c r="L236" s="10"/>
       <c r="M236" s="10"/>
-      <c r="N236" s="138"/>
+      <c r="N236" s="143"/>
     </row>
     <row r="237" spans="1:14">
       <c r="A237" s="10"/>
-      <c r="B237" s="128"/>
+      <c r="B237" s="132"/>
       <c r="D237" s="10"/>
-      <c r="E237" s="133"/>
-      <c r="F237" s="134"/>
-      <c r="G237" s="134"/>
-      <c r="H237" s="134"/>
-      <c r="I237" s="134"/>
-      <c r="J237" s="134"/>
+      <c r="E237" s="138"/>
+      <c r="F237" s="139"/>
+      <c r="G237" s="139"/>
+      <c r="H237" s="139"/>
+      <c r="I237" s="139"/>
+      <c r="J237" s="139"/>
       <c r="K237" s="10"/>
       <c r="L237" s="10"/>
       <c r="M237" s="10"/>
-      <c r="N237" s="138"/>
+      <c r="N237" s="143"/>
     </row>
     <row r="238" spans="1:14">
       <c r="A238" s="10"/>
-      <c r="B238" s="128"/>
+      <c r="B238" s="132"/>
       <c r="D238" s="10"/>
-      <c r="E238" s="133"/>
-      <c r="F238" s="134"/>
-      <c r="G238" s="134"/>
-      <c r="H238" s="134"/>
-      <c r="I238" s="134"/>
-      <c r="J238" s="134"/>
+      <c r="E238" s="138"/>
+      <c r="F238" s="139"/>
+      <c r="G238" s="139"/>
+      <c r="H238" s="139"/>
+      <c r="I238" s="139"/>
+      <c r="J238" s="139"/>
       <c r="K238" s="10"/>
       <c r="L238" s="10"/>
       <c r="M238" s="10"/>
-      <c r="N238" s="138"/>
+      <c r="N238" s="143"/>
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="10"/>
-      <c r="B239" s="128"/>
+      <c r="B239" s="132"/>
       <c r="D239" s="10"/>
-      <c r="E239" s="133"/>
-      <c r="F239" s="134"/>
-      <c r="G239" s="134"/>
-      <c r="H239" s="134"/>
-      <c r="I239" s="134"/>
-      <c r="J239" s="134"/>
+      <c r="E239" s="138"/>
+      <c r="F239" s="139"/>
+      <c r="G239" s="139"/>
+      <c r="H239" s="139"/>
+      <c r="I239" s="139"/>
+      <c r="J239" s="139"/>
       <c r="K239" s="10"/>
       <c r="L239" s="10"/>
       <c r="M239" s="10"/>
-      <c r="N239" s="138"/>
+      <c r="N239" s="143"/>
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="10"/>
-      <c r="B240" s="128"/>
+      <c r="B240" s="132"/>
       <c r="D240" s="10"/>
-      <c r="E240" s="133"/>
-      <c r="F240" s="134"/>
-      <c r="G240" s="134"/>
-      <c r="H240" s="134"/>
-      <c r="I240" s="134"/>
-      <c r="J240" s="134"/>
+      <c r="E240" s="138"/>
+      <c r="F240" s="139"/>
+      <c r="G240" s="139"/>
+      <c r="H240" s="139"/>
+      <c r="I240" s="139"/>
+      <c r="J240" s="139"/>
       <c r="K240" s="10"/>
       <c r="L240" s="10"/>
       <c r="M240" s="10"/>
-      <c r="N240" s="138"/>
+      <c r="N240" s="143"/>
     </row>
     <row r="241" spans="1:14">
       <c r="A241" s="10"/>
-      <c r="B241" s="128"/>
+      <c r="B241" s="132"/>
       <c r="D241" s="10"/>
-      <c r="E241" s="133"/>
-      <c r="F241" s="134"/>
-      <c r="G241" s="134"/>
-      <c r="H241" s="134"/>
-      <c r="I241" s="134"/>
-      <c r="J241" s="134"/>
+      <c r="E241" s="138"/>
+      <c r="F241" s="139"/>
+      <c r="G241" s="139"/>
+      <c r="H241" s="139"/>
+      <c r="I241" s="139"/>
+      <c r="J241" s="139"/>
       <c r="K241" s="10"/>
       <c r="L241" s="10"/>
       <c r="M241" s="10"/>
-      <c r="N241" s="138"/>
+      <c r="N241" s="143"/>
     </row>
     <row r="242" spans="1:14">
       <c r="A242" s="10"/>
-      <c r="B242" s="128"/>
+      <c r="B242" s="132"/>
       <c r="D242" s="10"/>
-      <c r="E242" s="133"/>
-      <c r="F242" s="134"/>
-      <c r="G242" s="134"/>
-      <c r="H242" s="134"/>
-      <c r="I242" s="134"/>
-      <c r="J242" s="134"/>
+      <c r="E242" s="138"/>
+      <c r="F242" s="139"/>
+      <c r="G242" s="139"/>
+      <c r="H242" s="139"/>
+      <c r="I242" s="139"/>
+      <c r="J242" s="139"/>
       <c r="K242" s="10"/>
       <c r="L242" s="10"/>
       <c r="M242" s="10"/>
-      <c r="N242" s="138"/>
+      <c r="N242" s="143"/>
     </row>
     <row r="243" spans="1:14">
       <c r="A243" s="10"/>
-      <c r="B243" s="128"/>
+      <c r="B243" s="132"/>
       <c r="D243" s="10"/>
-      <c r="E243" s="133"/>
-      <c r="F243" s="134"/>
-      <c r="G243" s="134"/>
-      <c r="H243" s="134"/>
-      <c r="I243" s="134"/>
-      <c r="J243" s="134"/>
+      <c r="E243" s="138"/>
+      <c r="F243" s="139"/>
+      <c r="G243" s="139"/>
+      <c r="H243" s="139"/>
+      <c r="I243" s="139"/>
+      <c r="J243" s="139"/>
       <c r="K243" s="10"/>
       <c r="L243" s="10"/>
       <c r="M243" s="10"/>
-      <c r="N243" s="138"/>
+      <c r="N243" s="143"/>
     </row>
     <row r="244" spans="1:14">
       <c r="A244" s="10"/>
-      <c r="B244" s="128"/>
+      <c r="B244" s="132"/>
       <c r="D244" s="10"/>
-      <c r="E244" s="133"/>
-      <c r="F244" s="134"/>
-      <c r="G244" s="134"/>
-      <c r="H244" s="134"/>
-      <c r="I244" s="134"/>
-      <c r="J244" s="134"/>
+      <c r="E244" s="138"/>
+      <c r="F244" s="139"/>
+      <c r="G244" s="139"/>
+      <c r="H244" s="139"/>
+      <c r="I244" s="139"/>
+      <c r="J244" s="139"/>
       <c r="K244" s="10"/>
       <c r="L244" s="10"/>
       <c r="M244" s="10"/>
-      <c r="N244" s="138"/>
+      <c r="N244" s="143"/>
     </row>
     <row r="245" spans="1:14">
       <c r="A245" s="10"/>
-      <c r="B245" s="128"/>
+      <c r="B245" s="132"/>
       <c r="D245" s="10"/>
-      <c r="E245" s="133"/>
-      <c r="F245" s="134"/>
-      <c r="G245" s="134"/>
-      <c r="H245" s="134"/>
-      <c r="I245" s="134"/>
-      <c r="J245" s="134"/>
+      <c r="E245" s="138"/>
+      <c r="F245" s="139"/>
+      <c r="G245" s="139"/>
+      <c r="H245" s="139"/>
+      <c r="I245" s="139"/>
+      <c r="J245" s="139"/>
       <c r="K245" s="10"/>
       <c r="L245" s="10"/>
       <c r="M245" s="10"/>
-      <c r="N245" s="138"/>
+      <c r="N245" s="143"/>
     </row>
     <row r="246" spans="1:14">
       <c r="A246" s="10"/>
-      <c r="B246" s="128"/>
+      <c r="B246" s="132"/>
       <c r="D246" s="10"/>
-      <c r="E246" s="133"/>
-      <c r="F246" s="134"/>
-      <c r="G246" s="134"/>
-      <c r="H246" s="134"/>
-      <c r="I246" s="134"/>
-      <c r="J246" s="134"/>
+      <c r="E246" s="138"/>
+      <c r="F246" s="139"/>
+      <c r="G246" s="139"/>
+      <c r="H246" s="139"/>
+      <c r="I246" s="139"/>
+      <c r="J246" s="139"/>
       <c r="K246" s="10"/>
       <c r="L246" s="10"/>
       <c r="M246" s="10"/>
-      <c r="N246" s="138"/>
+      <c r="N246" s="143"/>
     </row>
     <row r="247" spans="1:14">
       <c r="A247" s="10"/>
-      <c r="B247" s="128"/>
+      <c r="B247" s="132"/>
       <c r="D247" s="10"/>
-      <c r="E247" s="133"/>
-      <c r="F247" s="134"/>
-      <c r="G247" s="134"/>
-      <c r="H247" s="134"/>
-      <c r="I247" s="134"/>
-      <c r="J247" s="134"/>
+      <c r="E247" s="138"/>
+      <c r="F247" s="139"/>
+      <c r="G247" s="139"/>
+      <c r="H247" s="139"/>
+      <c r="I247" s="139"/>
+      <c r="J247" s="139"/>
       <c r="K247" s="10"/>
       <c r="L247" s="10"/>
       <c r="M247" s="10"/>
-      <c r="N247" s="138"/>
+      <c r="N247" s="143"/>
     </row>
     <row r="248" spans="1:14">
       <c r="A248" s="10"/>
-      <c r="B248" s="128"/>
+      <c r="B248" s="132"/>
       <c r="D248" s="10"/>
-      <c r="E248" s="133"/>
-      <c r="F248" s="134"/>
-      <c r="G248" s="134"/>
-      <c r="H248" s="134"/>
-      <c r="I248" s="134"/>
-      <c r="J248" s="134"/>
+      <c r="E248" s="138"/>
+      <c r="F248" s="139"/>
+      <c r="G248" s="139"/>
+      <c r="H248" s="139"/>
+      <c r="I248" s="139"/>
+      <c r="J248" s="139"/>
       <c r="K248" s="10"/>
       <c r="L248" s="10"/>
       <c r="M248" s="10"/>
-      <c r="N248" s="138"/>
+      <c r="N248" s="143"/>
     </row>
     <row r="249" spans="1:14">
       <c r="A249" s="10"/>
-      <c r="B249" s="128"/>
+      <c r="B249" s="132"/>
       <c r="D249" s="10"/>
-      <c r="E249" s="133"/>
-      <c r="F249" s="134"/>
-      <c r="G249" s="134"/>
-      <c r="H249" s="134"/>
-      <c r="I249" s="134"/>
-      <c r="J249" s="134"/>
+      <c r="E249" s="138"/>
+      <c r="F249" s="139"/>
+      <c r="G249" s="139"/>
+      <c r="H249" s="139"/>
+      <c r="I249" s="139"/>
+      <c r="J249" s="139"/>
       <c r="K249" s="10"/>
       <c r="L249" s="10"/>
       <c r="M249" s="10"/>
-      <c r="N249" s="138"/>
+      <c r="N249" s="143"/>
     </row>
     <row r="250" spans="1:14">
       <c r="A250" s="10"/>
-      <c r="B250" s="128"/>
+      <c r="B250" s="132"/>
       <c r="D250" s="10"/>
-      <c r="E250" s="133"/>
-      <c r="F250" s="134"/>
-      <c r="G250" s="134"/>
-      <c r="H250" s="134"/>
-      <c r="I250" s="134"/>
-      <c r="J250" s="134"/>
+      <c r="E250" s="138"/>
+      <c r="F250" s="139"/>
+      <c r="G250" s="139"/>
+      <c r="H250" s="139"/>
+      <c r="I250" s="139"/>
+      <c r="J250" s="139"/>
       <c r="K250" s="10"/>
       <c r="L250" s="10"/>
       <c r="M250" s="10"/>
-      <c r="N250" s="138"/>
+      <c r="N250" s="143"/>
     </row>
     <row r="251" spans="1:14">
       <c r="A251" s="10"/>
-      <c r="B251" s="128"/>
+      <c r="B251" s="132"/>
       <c r="D251" s="10"/>
-      <c r="E251" s="133"/>
-      <c r="F251" s="134"/>
-      <c r="G251" s="134"/>
-      <c r="H251" s="134"/>
-      <c r="I251" s="134"/>
-      <c r="J251" s="134"/>
+      <c r="E251" s="138"/>
+      <c r="F251" s="139"/>
+      <c r="G251" s="139"/>
+      <c r="H251" s="139"/>
+      <c r="I251" s="139"/>
+      <c r="J251" s="139"/>
       <c r="K251" s="10"/>
       <c r="L251" s="10"/>
       <c r="M251" s="10"/>
-      <c r="N251" s="138"/>
+      <c r="N251" s="143"/>
     </row>
     <row r="252" spans="1:14">
       <c r="A252" s="10"/>
-      <c r="B252" s="128"/>
+      <c r="B252" s="132"/>
       <c r="D252" s="10"/>
-      <c r="E252" s="133"/>
-      <c r="F252" s="134"/>
-      <c r="G252" s="134"/>
-      <c r="H252" s="134"/>
-      <c r="I252" s="134"/>
-      <c r="J252" s="134"/>
+      <c r="E252" s="138"/>
+      <c r="F252" s="139"/>
+      <c r="G252" s="139"/>
+      <c r="H252" s="139"/>
+      <c r="I252" s="139"/>
+      <c r="J252" s="139"/>
       <c r="K252" s="10"/>
       <c r="L252" s="10"/>
       <c r="M252" s="10"/>
-      <c r="N252" s="138"/>
+      <c r="N252" s="143"/>
     </row>
     <row r="253" spans="1:14">
       <c r="A253" s="10"/>
-      <c r="B253" s="128"/>
+      <c r="B253" s="132"/>
       <c r="D253" s="10"/>
-      <c r="E253" s="133"/>
-      <c r="F253" s="134"/>
-      <c r="G253" s="134"/>
-      <c r="H253" s="134"/>
-      <c r="I253" s="134"/>
-      <c r="J253" s="134"/>
+      <c r="E253" s="138"/>
+      <c r="F253" s="139"/>
+      <c r="G253" s="139"/>
+      <c r="H253" s="139"/>
+      <c r="I253" s="139"/>
+      <c r="J253" s="139"/>
       <c r="K253" s="10"/>
       <c r="L253" s="10"/>
       <c r="M253" s="10"/>
-      <c r="N253" s="138"/>
+      <c r="N253" s="143"/>
     </row>
     <row r="254" spans="1:14">
       <c r="A254" s="10"/>
-      <c r="B254" s="128"/>
+      <c r="B254" s="132"/>
       <c r="D254" s="10"/>
-      <c r="E254" s="133"/>
-      <c r="F254" s="134"/>
-      <c r="G254" s="134"/>
-      <c r="H254" s="134"/>
-      <c r="I254" s="134"/>
-      <c r="J254" s="134"/>
+      <c r="E254" s="138"/>
+      <c r="F254" s="139"/>
+      <c r="G254" s="139"/>
+      <c r="H254" s="139"/>
+      <c r="I254" s="139"/>
+      <c r="J254" s="139"/>
       <c r="K254" s="10"/>
       <c r="L254" s="10"/>
       <c r="M254" s="10"/>
-      <c r="N254" s="138"/>
+      <c r="N254" s="143"/>
     </row>
     <row r="255" spans="1:14">
       <c r="A255" s="10"/>
-      <c r="B255" s="128"/>
+      <c r="B255" s="132"/>
       <c r="D255" s="10"/>
-      <c r="E255" s="133"/>
-      <c r="F255" s="134"/>
-      <c r="G255" s="134"/>
-      <c r="H255" s="134"/>
-      <c r="I255" s="134"/>
-      <c r="J255" s="134"/>
+      <c r="E255" s="138"/>
+      <c r="F255" s="139"/>
+      <c r="G255" s="139"/>
+      <c r="H255" s="139"/>
+      <c r="I255" s="139"/>
+      <c r="J255" s="139"/>
       <c r="K255" s="10"/>
       <c r="L255" s="10"/>
       <c r="M255" s="10"/>
-      <c r="N255" s="138"/>
+      <c r="N255" s="143"/>
     </row>
     <row r="256" spans="1:14">
       <c r="A256" s="10"/>
-      <c r="B256" s="128"/>
+      <c r="B256" s="132"/>
       <c r="D256" s="10"/>
-      <c r="E256" s="133"/>
-      <c r="F256" s="134"/>
-      <c r="G256" s="134"/>
-      <c r="H256" s="134"/>
-      <c r="I256" s="134"/>
-      <c r="J256" s="134"/>
+      <c r="E256" s="138"/>
+      <c r="F256" s="139"/>
+      <c r="G256" s="139"/>
+      <c r="H256" s="139"/>
+      <c r="I256" s="139"/>
+      <c r="J256" s="139"/>
       <c r="K256" s="10"/>
       <c r="L256" s="10"/>
       <c r="M256" s="10"/>
-      <c r="N256" s="138"/>
+      <c r="N256" s="143"/>
     </row>
     <row r="257" spans="1:14">
       <c r="A257" s="10"/>
-      <c r="B257" s="128"/>
+      <c r="B257" s="132"/>
       <c r="D257" s="10"/>
-      <c r="E257" s="133"/>
-      <c r="F257" s="134"/>
-      <c r="G257" s="134"/>
-      <c r="H257" s="134"/>
-      <c r="I257" s="134"/>
-      <c r="J257" s="134"/>
+      <c r="E257" s="138"/>
+      <c r="F257" s="139"/>
+      <c r="G257" s="139"/>
+      <c r="H257" s="139"/>
+      <c r="I257" s="139"/>
+      <c r="J257" s="139"/>
       <c r="K257" s="10"/>
       <c r="L257" s="10"/>
       <c r="M257" s="10"/>
-      <c r="N257" s="138"/>
+      <c r="N257" s="143"/>
     </row>
     <row r="258" spans="1:14">
       <c r="A258" s="10"/>
-      <c r="B258" s="128"/>
+      <c r="B258" s="132"/>
       <c r="D258" s="10"/>
-      <c r="E258" s="133"/>
-      <c r="F258" s="134"/>
-      <c r="G258" s="134"/>
-      <c r="H258" s="134"/>
-      <c r="I258" s="134"/>
-      <c r="J258" s="134"/>
+      <c r="E258" s="138"/>
+      <c r="F258" s="139"/>
+      <c r="G258" s="139"/>
+      <c r="H258" s="139"/>
+      <c r="I258" s="139"/>
+      <c r="J258" s="139"/>
       <c r="K258" s="10"/>
       <c r="L258" s="10"/>
       <c r="M258" s="10"/>
-      <c r="N258" s="138"/>
+      <c r="N258" s="143"/>
     </row>
     <row r="259" spans="1:14">
       <c r="A259" s="10"/>
-      <c r="B259" s="128"/>
+      <c r="B259" s="132"/>
       <c r="D259" s="10"/>
-      <c r="E259" s="133"/>
-      <c r="F259" s="134"/>
-      <c r="G259" s="134"/>
-      <c r="H259" s="134"/>
-      <c r="I259" s="134"/>
-      <c r="J259" s="134"/>
+      <c r="E259" s="138"/>
+      <c r="F259" s="139"/>
+      <c r="G259" s="139"/>
+      <c r="H259" s="139"/>
+      <c r="I259" s="139"/>
+      <c r="J259" s="139"/>
       <c r="K259" s="10"/>
       <c r="L259" s="10"/>
       <c r="M259" s="10"/>
-      <c r="N259" s="138"/>
+      <c r="N259" s="143"/>
     </row>
     <row r="260" spans="1:14">
       <c r="A260" s="10"/>
-      <c r="B260" s="128"/>
+      <c r="B260" s="132"/>
       <c r="D260" s="10"/>
-      <c r="E260" s="133"/>
-      <c r="F260" s="134"/>
-      <c r="G260" s="134"/>
-      <c r="H260" s="134"/>
-      <c r="I260" s="134"/>
-      <c r="J260" s="134"/>
+      <c r="E260" s="138"/>
+      <c r="F260" s="139"/>
+      <c r="G260" s="139"/>
+      <c r="H260" s="139"/>
+      <c r="I260" s="139"/>
+      <c r="J260" s="139"/>
       <c r="K260" s="10"/>
       <c r="L260" s="10"/>
       <c r="M260" s="10"/>
-      <c r="N260" s="138"/>
+      <c r="N260" s="143"/>
     </row>
     <row r="261" spans="1:14">
       <c r="A261" s="10"/>
-      <c r="B261" s="128"/>
+      <c r="B261" s="132"/>
       <c r="D261" s="10"/>
-      <c r="E261" s="133"/>
-      <c r="F261" s="134"/>
-      <c r="G261" s="134"/>
-      <c r="H261" s="134"/>
-      <c r="I261" s="134"/>
-      <c r="J261" s="134"/>
+      <c r="E261" s="138"/>
+      <c r="F261" s="139"/>
+      <c r="G261" s="139"/>
+      <c r="H261" s="139"/>
+      <c r="I261" s="139"/>
+      <c r="J261" s="139"/>
       <c r="K261" s="10"/>
       <c r="L261" s="10"/>
       <c r="M261" s="10"/>
-      <c r="N261" s="138"/>
+      <c r="N261" s="143"/>
     </row>
     <row r="262" spans="1:14">
       <c r="A262" s="10"/>
-      <c r="B262" s="128"/>
+      <c r="B262" s="132"/>
       <c r="D262" s="10"/>
-      <c r="E262" s="133"/>
-      <c r="F262" s="134"/>
-      <c r="G262" s="134"/>
-      <c r="H262" s="134"/>
-      <c r="I262" s="134"/>
-      <c r="J262" s="134"/>
+      <c r="E262" s="138"/>
+      <c r="F262" s="139"/>
+      <c r="G262" s="139"/>
+      <c r="H262" s="139"/>
+      <c r="I262" s="139"/>
+      <c r="J262" s="139"/>
       <c r="K262" s="10"/>
       <c r="L262" s="10"/>
       <c r="M262" s="10"/>
-      <c r="N262" s="138"/>
+      <c r="N262" s="143"/>
     </row>
     <row r="263" spans="1:14">
       <c r="A263" s="10"/>
-      <c r="B263" s="128"/>
+      <c r="B263" s="132"/>
       <c r="D263" s="10"/>
-      <c r="E263" s="133"/>
-      <c r="F263" s="134"/>
-      <c r="G263" s="134"/>
-      <c r="H263" s="134"/>
-      <c r="I263" s="134"/>
-      <c r="J263" s="134"/>
+      <c r="E263" s="138"/>
+      <c r="F263" s="139"/>
+      <c r="G263" s="139"/>
+      <c r="H263" s="139"/>
+      <c r="I263" s="139"/>
+      <c r="J263" s="139"/>
       <c r="K263" s="10"/>
       <c r="L263" s="10"/>
       <c r="M263" s="10"/>
-      <c r="N263" s="138"/>
+      <c r="N263" s="143"/>
     </row>
     <row r="264" spans="1:14">
       <c r="A264" s="10"/>
-      <c r="B264" s="128"/>
+      <c r="B264" s="132"/>
       <c r="D264" s="10"/>
-      <c r="E264" s="133"/>
-      <c r="F264" s="134"/>
-      <c r="G264" s="134"/>
-      <c r="H264" s="134"/>
-      <c r="I264" s="134"/>
-      <c r="J264" s="134"/>
+      <c r="E264" s="138"/>
+      <c r="F264" s="139"/>
+      <c r="G264" s="139"/>
+      <c r="H264" s="139"/>
+      <c r="I264" s="139"/>
+      <c r="J264" s="139"/>
       <c r="K264" s="10"/>
       <c r="L264" s="10"/>
       <c r="M264" s="10"/>
-      <c r="N264" s="138"/>
+      <c r="N264" s="143"/>
     </row>
     <row r="265" spans="1:14">
       <c r="A265" s="10"/>
-      <c r="B265" s="128"/>
+      <c r="B265" s="132"/>
       <c r="D265" s="10"/>
-      <c r="E265" s="133"/>
-      <c r="F265" s="134"/>
-      <c r="G265" s="134"/>
-      <c r="H265" s="134"/>
-      <c r="I265" s="134"/>
-      <c r="J265" s="134"/>
+      <c r="E265" s="138"/>
+      <c r="F265" s="139"/>
+      <c r="G265" s="139"/>
+      <c r="H265" s="139"/>
+      <c r="I265" s="139"/>
+      <c r="J265" s="139"/>
       <c r="K265" s="10"/>
       <c r="L265" s="10"/>
       <c r="M265" s="10"/>
-      <c r="N265" s="138"/>
+      <c r="N265" s="143"/>
     </row>
     <row r="266" spans="1:14">
       <c r="A266" s="10"/>
-      <c r="B266" s="128"/>
+      <c r="B266" s="132"/>
       <c r="D266" s="10"/>
-      <c r="E266" s="133"/>
-      <c r="F266" s="134"/>
-      <c r="G266" s="134"/>
-      <c r="H266" s="134"/>
-      <c r="I266" s="134"/>
-      <c r="J266" s="134"/>
+      <c r="E266" s="138"/>
+      <c r="F266" s="139"/>
+      <c r="G266" s="139"/>
+      <c r="H266" s="139"/>
+      <c r="I266" s="139"/>
+      <c r="J266" s="139"/>
       <c r="K266" s="10"/>
       <c r="L266" s="10"/>
       <c r="M266" s="10"/>
-      <c r="N266" s="138"/>
+      <c r="N266" s="143"/>
     </row>
     <row r="267" spans="1:14">
       <c r="A267" s="10"/>
-      <c r="B267" s="128"/>
+      <c r="B267" s="132"/>
       <c r="D267" s="10"/>
-      <c r="E267" s="133"/>
-      <c r="F267" s="134"/>
-      <c r="G267" s="134"/>
-      <c r="H267" s="134"/>
-      <c r="I267" s="134"/>
-      <c r="J267" s="134"/>
+      <c r="E267" s="138"/>
+      <c r="F267" s="139"/>
+      <c r="G267" s="139"/>
+      <c r="H267" s="139"/>
+      <c r="I267" s="139"/>
+      <c r="J267" s="139"/>
       <c r="K267" s="10"/>
       <c r="L267" s="10"/>
       <c r="M267" s="10"/>
-      <c r="N267" s="138"/>
+      <c r="N267" s="143"/>
     </row>
     <row r="268" spans="1:14">
       <c r="A268" s="10"/>
-      <c r="B268" s="128"/>
+      <c r="B268" s="132"/>
       <c r="D268" s="10"/>
-      <c r="E268" s="133"/>
-      <c r="F268" s="134"/>
-      <c r="G268" s="134"/>
-      <c r="H268" s="134"/>
-      <c r="I268" s="134"/>
-      <c r="J268" s="134"/>
+      <c r="E268" s="138"/>
+      <c r="F268" s="139"/>
+      <c r="G268" s="139"/>
+      <c r="H268" s="139"/>
+      <c r="I268" s="139"/>
+      <c r="J268" s="139"/>
       <c r="K268" s="10"/>
       <c r="L268" s="10"/>
       <c r="M268" s="10"/>
-      <c r="N268" s="138"/>
+      <c r="N268" s="143"/>
     </row>
     <row r="269" spans="1:14">
       <c r="A269" s="10"/>
-      <c r="B269" s="128"/>
+      <c r="B269" s="132"/>
       <c r="D269" s="10"/>
-      <c r="E269" s="133"/>
-      <c r="F269" s="134"/>
-      <c r="G269" s="134"/>
-      <c r="H269" s="134"/>
-      <c r="I269" s="134"/>
-      <c r="J269" s="134"/>
+      <c r="E269" s="138"/>
+      <c r="F269" s="139"/>
+      <c r="G269" s="139"/>
+      <c r="H269" s="139"/>
+      <c r="I269" s="139"/>
+      <c r="J269" s="139"/>
       <c r="K269" s="10"/>
       <c r="L269" s="10"/>
       <c r="M269" s="10"/>
-      <c r="N269" s="138"/>
+      <c r="N269" s="143"/>
     </row>
     <row r="270" spans="1:14">
       <c r="A270" s="10"/>
-      <c r="B270" s="128"/>
+      <c r="B270" s="132"/>
       <c r="D270" s="10"/>
-      <c r="E270" s="133"/>
-      <c r="F270" s="134"/>
-      <c r="G270" s="134"/>
-      <c r="H270" s="134"/>
-      <c r="I270" s="134"/>
-      <c r="J270" s="134"/>
+      <c r="E270" s="138"/>
+      <c r="F270" s="139"/>
+      <c r="G270" s="139"/>
+      <c r="H270" s="139"/>
+      <c r="I270" s="139"/>
+      <c r="J270" s="139"/>
       <c r="K270" s="10"/>
       <c r="L270" s="10"/>
       <c r="M270" s="10"/>
-      <c r="N270" s="138"/>
+      <c r="N270" s="143"/>
     </row>
     <row r="271" spans="1:14">
       <c r="A271" s="10"/>
-      <c r="B271" s="128"/>
+      <c r="B271" s="132"/>
       <c r="D271" s="10"/>
-      <c r="E271" s="133"/>
-      <c r="F271" s="134"/>
-      <c r="G271" s="134"/>
-      <c r="H271" s="134"/>
-      <c r="I271" s="134"/>
-      <c r="J271" s="134"/>
+      <c r="E271" s="138"/>
+      <c r="F271" s="139"/>
+      <c r="G271" s="139"/>
+      <c r="H271" s="139"/>
+      <c r="I271" s="139"/>
+      <c r="J271" s="139"/>
       <c r="K271" s="10"/>
       <c r="L271" s="10"/>
       <c r="M271" s="10"/>
-      <c r="N271" s="138"/>
+      <c r="N271" s="143"/>
     </row>
     <row r="272" spans="1:14">
       <c r="A272" s="10"/>
-      <c r="B272" s="128"/>
+      <c r="B272" s="132"/>
       <c r="D272" s="10"/>
-      <c r="E272" s="133"/>
-      <c r="F272" s="134"/>
-      <c r="G272" s="134"/>
-      <c r="H272" s="134"/>
-      <c r="I272" s="134"/>
-      <c r="J272" s="134"/>
+      <c r="E272" s="138"/>
+      <c r="F272" s="139"/>
+      <c r="G272" s="139"/>
+      <c r="H272" s="139"/>
+      <c r="I272" s="139"/>
+      <c r="J272" s="139"/>
       <c r="K272" s="10"/>
       <c r="L272" s="10"/>
       <c r="M272" s="10"/>
-      <c r="N272" s="138"/>
+      <c r="N272" s="143"/>
     </row>
     <row r="273" spans="1:14">
       <c r="A273" s="10"/>
-      <c r="B273" s="128"/>
+      <c r="B273" s="132"/>
       <c r="D273" s="10"/>
-      <c r="E273" s="133"/>
-      <c r="F273" s="134"/>
-      <c r="G273" s="134"/>
-      <c r="H273" s="134"/>
-      <c r="I273" s="134"/>
-      <c r="J273" s="134"/>
+      <c r="E273" s="138"/>
+      <c r="F273" s="139"/>
+      <c r="G273" s="139"/>
+      <c r="H273" s="139"/>
+      <c r="I273" s="139"/>
+      <c r="J273" s="139"/>
       <c r="K273" s="10"/>
       <c r="L273" s="10"/>
       <c r="M273" s="10"/>
-      <c r="N273" s="138"/>
+      <c r="N273" s="143"/>
     </row>
     <row r="274" spans="1:14">
       <c r="A274" s="10"/>
-      <c r="B274" s="128"/>
+      <c r="B274" s="132"/>
       <c r="D274" s="10"/>
-      <c r="E274" s="133"/>
-      <c r="F274" s="134"/>
-      <c r="G274" s="134"/>
-      <c r="H274" s="134"/>
-      <c r="I274" s="134"/>
-      <c r="J274" s="134"/>
+      <c r="E274" s="138"/>
+      <c r="F274" s="139"/>
+      <c r="G274" s="139"/>
+      <c r="H274" s="139"/>
+      <c r="I274" s="139"/>
+      <c r="J274" s="139"/>
       <c r="K274" s="10"/>
       <c r="L274" s="10"/>
       <c r="M274" s="10"/>
-      <c r="N274" s="138"/>
+      <c r="N274" s="143"/>
     </row>
     <row r="275" spans="1:14">
       <c r="A275" s="10"/>
-      <c r="B275" s="128"/>
+      <c r="B275" s="132"/>
       <c r="D275" s="10"/>
-      <c r="E275" s="133"/>
-      <c r="F275" s="134"/>
-      <c r="G275" s="134"/>
-      <c r="H275" s="134"/>
-      <c r="I275" s="134"/>
-      <c r="J275" s="134"/>
+      <c r="E275" s="138"/>
+      <c r="F275" s="139"/>
+      <c r="G275" s="139"/>
+      <c r="H275" s="139"/>
+      <c r="I275" s="139"/>
+      <c r="J275" s="139"/>
       <c r="K275" s="10"/>
       <c r="L275" s="10"/>
       <c r="M275" s="10"/>
-      <c r="N275" s="138"/>
+      <c r="N275" s="143"/>
     </row>
     <row r="276" spans="1:14">
       <c r="A276" s="10"/>
-      <c r="B276" s="128"/>
+      <c r="B276" s="132"/>
       <c r="D276" s="10"/>
-      <c r="E276" s="133"/>
-      <c r="F276" s="134"/>
-      <c r="G276" s="134"/>
-      <c r="H276" s="134"/>
-      <c r="I276" s="134"/>
-      <c r="J276" s="134"/>
+      <c r="E276" s="138"/>
+      <c r="F276" s="139"/>
+      <c r="G276" s="139"/>
+      <c r="H276" s="139"/>
+      <c r="I276" s="139"/>
+      <c r="J276" s="139"/>
       <c r="K276" s="10"/>
       <c r="L276" s="10"/>
       <c r="M276" s="10"/>
-      <c r="N276" s="138"/>
+      <c r="N276" s="143"/>
     </row>
     <row r="277" spans="1:14">
       <c r="A277" s="10"/>
-      <c r="B277" s="128"/>
+      <c r="B277" s="132"/>
       <c r="D277" s="10"/>
-      <c r="E277" s="133"/>
-      <c r="F277" s="134"/>
-      <c r="G277" s="134"/>
-      <c r="H277" s="134"/>
-      <c r="I277" s="134"/>
-      <c r="J277" s="134"/>
+      <c r="E277" s="138"/>
+      <c r="F277" s="139"/>
+      <c r="G277" s="139"/>
+      <c r="H277" s="139"/>
+      <c r="I277" s="139"/>
+      <c r="J277" s="139"/>
       <c r="K277" s="10"/>
       <c r="L277" s="10"/>
       <c r="M277" s="10"/>
-      <c r="N277" s="138"/>
+      <c r="N277" s="143"/>
     </row>
     <row r="278" spans="1:14">
       <c r="A278" s="10"/>
-      <c r="B278" s="128"/>
+      <c r="B278" s="132"/>
       <c r="D278" s="10"/>
-      <c r="E278" s="133"/>
-      <c r="F278" s="134"/>
-      <c r="G278" s="134"/>
-      <c r="H278" s="134"/>
-      <c r="I278" s="134"/>
-      <c r="J278" s="134"/>
+      <c r="E278" s="138"/>
+      <c r="F278" s="139"/>
+      <c r="G278" s="139"/>
+      <c r="H278" s="139"/>
+      <c r="I278" s="139"/>
+      <c r="J278" s="139"/>
       <c r="K278" s="10"/>
       <c r="L278" s="10"/>
       <c r="M278" s="10"/>
-      <c r="N278" s="138"/>
+      <c r="N278" s="143"/>
     </row>
     <row r="279" spans="1:14">
       <c r="A279" s="10"/>
-      <c r="B279" s="128"/>
+      <c r="B279" s="132"/>
       <c r="D279" s="10"/>
-      <c r="E279" s="133"/>
-      <c r="F279" s="134"/>
-      <c r="G279" s="134"/>
-      <c r="H279" s="134"/>
-      <c r="I279" s="134"/>
-      <c r="J279" s="134"/>
+      <c r="E279" s="138"/>
+      <c r="F279" s="139"/>
+      <c r="G279" s="139"/>
+      <c r="H279" s="139"/>
+      <c r="I279" s="139"/>
+      <c r="J279" s="139"/>
       <c r="K279" s="10"/>
       <c r="L279" s="10"/>
       <c r="M279" s="10"/>
-      <c r="N279" s="138"/>
+      <c r="N279" s="143"/>
     </row>
     <row r="280" spans="1:14">
       <c r="A280" s="10"/>
-      <c r="B280" s="128"/>
+      <c r="B280" s="132"/>
       <c r="D280" s="10"/>
-      <c r="E280" s="133"/>
-      <c r="F280" s="134"/>
-      <c r="G280" s="134"/>
-      <c r="H280" s="134"/>
-      <c r="I280" s="134"/>
-      <c r="J280" s="134"/>
+      <c r="E280" s="138"/>
+      <c r="F280" s="139"/>
+      <c r="G280" s="139"/>
+      <c r="H280" s="139"/>
+      <c r="I280" s="139"/>
+      <c r="J280" s="139"/>
       <c r="K280" s="10"/>
       <c r="L280" s="10"/>
       <c r="M280" s="10"/>
-      <c r="N280" s="138"/>
+      <c r="N280" s="143"/>
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="10"/>
-      <c r="B281" s="128"/>
+      <c r="B281" s="132"/>
       <c r="D281" s="10"/>
-      <c r="E281" s="133"/>
-      <c r="F281" s="134"/>
-      <c r="G281" s="134"/>
-      <c r="H281" s="134"/>
-      <c r="I281" s="134"/>
-      <c r="J281" s="134"/>
+      <c r="E281" s="138"/>
+      <c r="F281" s="139"/>
+      <c r="G281" s="139"/>
+      <c r="H281" s="139"/>
+      <c r="I281" s="139"/>
+      <c r="J281" s="139"/>
       <c r="K281" s="10"/>
       <c r="L281" s="10"/>
       <c r="M281" s="10"/>
-      <c r="N281" s="138"/>
+      <c r="N281" s="143"/>
     </row>
     <row r="282" spans="1:14">
       <c r="A282" s="10"/>
-      <c r="B282" s="128"/>
+      <c r="B282" s="132"/>
       <c r="D282" s="10"/>
-      <c r="E282" s="133"/>
-      <c r="F282" s="134"/>
-      <c r="G282" s="134"/>
-      <c r="H282" s="134"/>
-      <c r="I282" s="134"/>
-      <c r="J282" s="134"/>
+      <c r="E282" s="138"/>
+      <c r="F282" s="139"/>
+      <c r="G282" s="139"/>
+      <c r="H282" s="139"/>
+      <c r="I282" s="139"/>
+      <c r="J282" s="139"/>
       <c r="K282" s="10"/>
       <c r="L282" s="10"/>
       <c r="M282" s="10"/>
-      <c r="N282" s="138"/>
+      <c r="N282" s="143"/>
     </row>
     <row r="283" spans="1:14">
       <c r="A283" s="10"/>
-      <c r="B283" s="128"/>
+      <c r="B283" s="132"/>
       <c r="D283" s="10"/>
-      <c r="E283" s="133"/>
-      <c r="F283" s="134"/>
-      <c r="G283" s="134"/>
-      <c r="H283" s="134"/>
-      <c r="I283" s="134"/>
-      <c r="J283" s="134"/>
+      <c r="E283" s="138"/>
+      <c r="F283" s="139"/>
+      <c r="G283" s="139"/>
+      <c r="H283" s="139"/>
+      <c r="I283" s="139"/>
+      <c r="J283" s="139"/>
       <c r="K283" s="10"/>
       <c r="L283" s="10"/>
       <c r="M283" s="10"/>
-      <c r="N283" s="138"/>
+      <c r="N283" s="143"/>
     </row>
     <row r="284" spans="1:14">
       <c r="A284" s="10"/>
-      <c r="B284" s="128"/>
+      <c r="B284" s="132"/>
       <c r="D284" s="10"/>
-      <c r="E284" s="133"/>
-      <c r="F284" s="134"/>
-      <c r="G284" s="134"/>
-      <c r="H284" s="134"/>
-      <c r="I284" s="134"/>
-      <c r="J284" s="134"/>
+      <c r="E284" s="138"/>
+      <c r="F284" s="139"/>
+      <c r="G284" s="139"/>
+      <c r="H284" s="139"/>
+      <c r="I284" s="139"/>
+      <c r="J284" s="139"/>
       <c r="K284" s="10"/>
       <c r="L284" s="10"/>
       <c r="M284" s="10"/>
-      <c r="N284" s="138"/>
+      <c r="N284" s="143"/>
     </row>
     <row r="285" spans="1:14">
       <c r="A285" s="10"/>
-      <c r="B285" s="128"/>
+      <c r="B285" s="132"/>
       <c r="D285" s="10"/>
-      <c r="E285" s="133"/>
-      <c r="F285" s="134"/>
-      <c r="G285" s="134"/>
-      <c r="H285" s="134"/>
-      <c r="I285" s="134"/>
-      <c r="J285" s="134"/>
+      <c r="E285" s="138"/>
+      <c r="F285" s="139"/>
+      <c r="G285" s="139"/>
+      <c r="H285" s="139"/>
+      <c r="I285" s="139"/>
+      <c r="J285" s="139"/>
       <c r="K285" s="10"/>
       <c r="L285" s="10"/>
       <c r="M285" s="10"/>
-      <c r="N285" s="138"/>
+      <c r="N285" s="143"/>
     </row>
     <row r="286" spans="1:14">
       <c r="A286" s="10"/>
-      <c r="B286" s="128"/>
+      <c r="B286" s="132"/>
       <c r="D286" s="10"/>
-      <c r="E286" s="133"/>
-      <c r="F286" s="134"/>
-      <c r="G286" s="134"/>
-      <c r="H286" s="134"/>
-      <c r="I286" s="134"/>
-      <c r="J286" s="134"/>
+      <c r="E286" s="138"/>
+      <c r="F286" s="139"/>
+      <c r="G286" s="139"/>
+      <c r="H286" s="139"/>
+      <c r="I286" s="139"/>
+      <c r="J286" s="139"/>
       <c r="K286" s="10"/>
       <c r="L286" s="10"/>
       <c r="M286" s="10"/>
-      <c r="N286" s="138"/>
+      <c r="N286" s="143"/>
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="10"/>
-      <c r="B287" s="128"/>
+      <c r="B287" s="132"/>
       <c r="D287" s="10"/>
-      <c r="E287" s="133"/>
-      <c r="F287" s="134"/>
-      <c r="G287" s="134"/>
-      <c r="H287" s="134"/>
-      <c r="I287" s="134"/>
-      <c r="J287" s="134"/>
+      <c r="E287" s="138"/>
+      <c r="F287" s="139"/>
+      <c r="G287" s="139"/>
+      <c r="H287" s="139"/>
+      <c r="I287" s="139"/>
+      <c r="J287" s="139"/>
       <c r="K287" s="10"/>
       <c r="L287" s="10"/>
       <c r="M287" s="10"/>
-      <c r="N287" s="138"/>
+      <c r="N287" s="143"/>
     </row>
     <row r="288" spans="1:14">
       <c r="A288" s="10"/>
-      <c r="B288" s="128"/>
+      <c r="B288" s="132"/>
       <c r="D288" s="10"/>
-      <c r="E288" s="133"/>
-      <c r="F288" s="134"/>
-      <c r="G288" s="134"/>
-      <c r="H288" s="134"/>
-      <c r="I288" s="134"/>
-      <c r="J288" s="134"/>
+      <c r="E288" s="138"/>
+      <c r="F288" s="139"/>
+      <c r="G288" s="139"/>
+      <c r="H288" s="139"/>
+      <c r="I288" s="139"/>
+      <c r="J288" s="139"/>
       <c r="K288" s="10"/>
       <c r="L288" s="10"/>
       <c r="M288" s="10"/>
-      <c r="N288" s="138"/>
+      <c r="N288" s="143"/>
     </row>
     <row r="289" spans="1:14">
       <c r="A289" s="10"/>
-      <c r="B289" s="128"/>
+      <c r="B289" s="132"/>
       <c r="D289" s="10"/>
-      <c r="E289" s="133"/>
-      <c r="F289" s="134"/>
-      <c r="G289" s="134"/>
-      <c r="H289" s="134"/>
-      <c r="I289" s="134"/>
-      <c r="J289" s="134"/>
+      <c r="E289" s="138"/>
+      <c r="F289" s="139"/>
+      <c r="G289" s="139"/>
+      <c r="H289" s="139"/>
+      <c r="I289" s="139"/>
+      <c r="J289" s="139"/>
       <c r="K289" s="10"/>
       <c r="L289" s="10"/>
       <c r="M289" s="10"/>
-      <c r="N289" s="138"/>
+      <c r="N289" s="143"/>
     </row>
     <row r="290" spans="1:14">
       <c r="A290" s="10"/>
-      <c r="B290" s="128"/>
+      <c r="B290" s="132"/>
       <c r="D290" s="10"/>
-      <c r="E290" s="133"/>
-      <c r="F290" s="134"/>
-      <c r="G290" s="134"/>
-      <c r="H290" s="134"/>
-      <c r="I290" s="134"/>
-      <c r="J290" s="134"/>
+      <c r="E290" s="138"/>
+      <c r="F290" s="139"/>
+      <c r="G290" s="139"/>
+      <c r="H290" s="139"/>
+      <c r="I290" s="139"/>
+      <c r="J290" s="139"/>
       <c r="K290" s="10"/>
       <c r="L290" s="10"/>
       <c r="M290" s="10"/>
-      <c r="N290" s="138"/>
+      <c r="N290" s="143"/>
     </row>
     <row r="291" spans="1:14">
       <c r="A291" s="10"/>
-      <c r="B291" s="128"/>
+      <c r="B291" s="132"/>
       <c r="D291" s="10"/>
-      <c r="E291" s="133"/>
-      <c r="F291" s="134"/>
-      <c r="G291" s="134"/>
-      <c r="H291" s="134"/>
-      <c r="I291" s="134"/>
-      <c r="J291" s="134"/>
+      <c r="E291" s="138"/>
+      <c r="F291" s="139"/>
+      <c r="G291" s="139"/>
+      <c r="H291" s="139"/>
+      <c r="I291" s="139"/>
+      <c r="J291" s="139"/>
       <c r="K291" s="10"/>
       <c r="L291" s="10"/>
       <c r="M291" s="10"/>
-      <c r="N291" s="138"/>
+      <c r="N291" s="143"/>
     </row>
     <row r="292" spans="1:14">
       <c r="A292" s="10"/>
-      <c r="B292" s="128"/>
+      <c r="B292" s="132"/>
       <c r="D292" s="10"/>
-      <c r="E292" s="133"/>
-      <c r="F292" s="134"/>
-      <c r="G292" s="134"/>
-      <c r="H292" s="134"/>
-      <c r="I292" s="134"/>
-      <c r="J292" s="134"/>
+      <c r="E292" s="138"/>
+      <c r="F292" s="139"/>
+      <c r="G292" s="139"/>
+      <c r="H292" s="139"/>
+      <c r="I292" s="139"/>
+      <c r="J292" s="139"/>
       <c r="K292" s="10"/>
       <c r="L292" s="10"/>
       <c r="M292" s="10"/>
-      <c r="N292" s="138"/>
+      <c r="N292" s="143"/>
     </row>
     <row r="293" spans="1:14">
       <c r="A293" s="10"/>
-      <c r="B293" s="128"/>
+      <c r="B293" s="132"/>
       <c r="D293" s="10"/>
-      <c r="E293" s="133"/>
-      <c r="F293" s="134"/>
-      <c r="G293" s="134"/>
-      <c r="H293" s="134"/>
-      <c r="I293" s="134"/>
-      <c r="J293" s="134"/>
+      <c r="E293" s="138"/>
+      <c r="F293" s="139"/>
+      <c r="G293" s="139"/>
+      <c r="H293" s="139"/>
+      <c r="I293" s="139"/>
+      <c r="J293" s="139"/>
       <c r="K293" s="10"/>
       <c r="L293" s="10"/>
       <c r="M293" s="10"/>
-      <c r="N293" s="138"/>
+      <c r="N293" s="143"/>
     </row>
     <row r="294" spans="1:14">
       <c r="A294" s="10"/>
-      <c r="B294" s="128"/>
+      <c r="B294" s="132"/>
       <c r="D294" s="10"/>
-      <c r="E294" s="133"/>
-      <c r="F294" s="134"/>
-      <c r="G294" s="134"/>
-      <c r="H294" s="134"/>
-      <c r="I294" s="134"/>
-      <c r="J294" s="134"/>
+      <c r="E294" s="138"/>
+      <c r="F294" s="139"/>
+      <c r="G294" s="139"/>
+      <c r="H294" s="139"/>
+      <c r="I294" s="139"/>
+      <c r="J294" s="139"/>
       <c r="K294" s="10"/>
       <c r="L294" s="10"/>
       <c r="M294" s="10"/>
-      <c r="N294" s="138"/>
+      <c r="N294" s="143"/>
     </row>
     <row r="295" spans="1:14">
       <c r="A295" s="10"/>
-      <c r="B295" s="128"/>
+      <c r="B295" s="132"/>
       <c r="D295" s="10"/>
-      <c r="E295" s="133"/>
-      <c r="F295" s="134"/>
-      <c r="G295" s="134"/>
-      <c r="H295" s="134"/>
-      <c r="I295" s="134"/>
-      <c r="J295" s="134"/>
+      <c r="E295" s="138"/>
+      <c r="F295" s="139"/>
+      <c r="G295" s="139"/>
+      <c r="H295" s="139"/>
+      <c r="I295" s="139"/>
+      <c r="J295" s="139"/>
       <c r="K295" s="10"/>
       <c r="L295" s="10"/>
       <c r="M295" s="10"/>
-      <c r="N295" s="138"/>
+      <c r="N295" s="143"/>
     </row>
     <row r="296" spans="1:14">
       <c r="A296" s="10"/>
-      <c r="B296" s="128"/>
+      <c r="B296" s="132"/>
       <c r="D296" s="10"/>
-      <c r="E296" s="133"/>
-      <c r="F296" s="134"/>
-      <c r="G296" s="134"/>
-      <c r="H296" s="134"/>
-      <c r="I296" s="134"/>
-      <c r="J296" s="134"/>
+      <c r="E296" s="138"/>
+      <c r="F296" s="139"/>
+      <c r="G296" s="139"/>
+      <c r="H296" s="139"/>
+      <c r="I296" s="139"/>
+      <c r="J296" s="139"/>
       <c r="K296" s="10"/>
       <c r="L296" s="10"/>
       <c r="M296" s="10"/>
-      <c r="N296" s="138"/>
+      <c r="N296" s="143"/>
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="10"/>
-      <c r="B297" s="128"/>
+      <c r="B297" s="132"/>
       <c r="D297" s="10"/>
-      <c r="E297" s="133"/>
-      <c r="F297" s="134"/>
-      <c r="G297" s="134"/>
-      <c r="H297" s="134"/>
-      <c r="I297" s="134"/>
-      <c r="J297" s="134"/>
+      <c r="E297" s="138"/>
+      <c r="F297" s="139"/>
+      <c r="G297" s="139"/>
+      <c r="H297" s="139"/>
+      <c r="I297" s="139"/>
+      <c r="J297" s="139"/>
       <c r="K297" s="10"/>
       <c r="L297" s="10"/>
       <c r="M297" s="10"/>
-      <c r="N297" s="138"/>
+      <c r="N297" s="143"/>
     </row>
     <row r="298" spans="1:14">
       <c r="A298" s="10"/>
-      <c r="B298" s="128"/>
+      <c r="B298" s="132"/>
       <c r="D298" s="10"/>
-      <c r="E298" s="133"/>
-      <c r="F298" s="134"/>
-      <c r="G298" s="134"/>
-      <c r="H298" s="134"/>
-      <c r="I298" s="134"/>
-      <c r="J298" s="134"/>
+      <c r="E298" s="138"/>
+      <c r="F298" s="139"/>
+      <c r="G298" s="139"/>
+      <c r="H298" s="139"/>
+      <c r="I298" s="139"/>
+      <c r="J298" s="139"/>
       <c r="K298" s="10"/>
       <c r="L298" s="10"/>
       <c r="M298" s="10"/>
-      <c r="N298" s="138"/>
+      <c r="N298" s="143"/>
     </row>
     <row r="299" spans="1:14">
       <c r="A299" s="10"/>
-      <c r="B299" s="128"/>
+      <c r="B299" s="132"/>
       <c r="D299" s="10"/>
-      <c r="E299" s="133"/>
-      <c r="F299" s="134"/>
-      <c r="G299" s="134"/>
-      <c r="H299" s="134"/>
-      <c r="I299" s="134"/>
-      <c r="J299" s="134"/>
+      <c r="E299" s="138"/>
+      <c r="F299" s="139"/>
+      <c r="G299" s="139"/>
+      <c r="H299" s="139"/>
+      <c r="I299" s="139"/>
+      <c r="J299" s="139"/>
       <c r="K299" s="10"/>
       <c r="L299" s="10"/>
       <c r="M299" s="10"/>
-      <c r="N299" s="138"/>
+      <c r="N299" s="143"/>
     </row>
     <row r="300" spans="1:14">
       <c r="A300" s="10"/>
-      <c r="B300" s="128"/>
+      <c r="B300" s="132"/>
       <c r="D300" s="10"/>
-      <c r="E300" s="133"/>
-      <c r="F300" s="134"/>
-      <c r="G300" s="134"/>
-      <c r="H300" s="134"/>
-      <c r="I300" s="134"/>
-      <c r="J300" s="134"/>
+      <c r="E300" s="138"/>
+      <c r="F300" s="139"/>
+      <c r="G300" s="139"/>
+      <c r="H300" s="139"/>
+      <c r="I300" s="139"/>
+      <c r="J300" s="139"/>
       <c r="K300" s="10"/>
       <c r="L300" s="10"/>
       <c r="M300" s="10"/>
-      <c r="N300" s="138"/>
+      <c r="N300" s="143"/>
     </row>
     <row r="301" spans="1:14">
       <c r="A301" s="10"/>
-      <c r="B301" s="128"/>
+      <c r="B301" s="132"/>
       <c r="D301" s="10"/>
-      <c r="E301" s="133"/>
-      <c r="F301" s="134"/>
-      <c r="G301" s="134"/>
-      <c r="H301" s="134"/>
-      <c r="I301" s="134"/>
-      <c r="J301" s="134"/>
+      <c r="E301" s="138"/>
+      <c r="F301" s="139"/>
+      <c r="G301" s="139"/>
+      <c r="H301" s="139"/>
+      <c r="I301" s="139"/>
+      <c r="J301" s="139"/>
       <c r="K301" s="10"/>
       <c r="L301" s="10"/>
       <c r="M301" s="10"/>
-      <c r="N301" s="138"/>
+      <c r="N301" s="143"/>
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="10"/>
-      <c r="B302" s="128"/>
+      <c r="B302" s="132"/>
       <c r="D302" s="10"/>
-      <c r="E302" s="133"/>
-      <c r="F302" s="134"/>
-      <c r="G302" s="134"/>
-      <c r="H302" s="134"/>
-      <c r="I302" s="134"/>
-      <c r="J302" s="134"/>
+      <c r="E302" s="138"/>
+      <c r="F302" s="139"/>
+      <c r="G302" s="139"/>
+      <c r="H302" s="139"/>
+      <c r="I302" s="139"/>
+      <c r="J302" s="139"/>
       <c r="K302" s="10"/>
       <c r="L302" s="10"/>
       <c r="M302" s="10"/>
-      <c r="N302" s="138"/>
+      <c r="N302" s="143"/>
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="10"/>
-      <c r="B303" s="128"/>
+      <c r="B303" s="132"/>
       <c r="D303" s="10"/>
-      <c r="E303" s="133"/>
-      <c r="F303" s="134"/>
-      <c r="G303" s="134"/>
-      <c r="H303" s="134"/>
-      <c r="I303" s="134"/>
-      <c r="J303" s="134"/>
+      <c r="E303" s="138"/>
+      <c r="F303" s="139"/>
+      <c r="G303" s="139"/>
+      <c r="H303" s="139"/>
+      <c r="I303" s="139"/>
+      <c r="J303" s="139"/>
       <c r="K303" s="10"/>
       <c r="L303" s="10"/>
       <c r="M303" s="10"/>
-      <c r="N303" s="138"/>
+      <c r="N303" s="143"/>
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="10"/>
-      <c r="B304" s="128"/>
+      <c r="B304" s="132"/>
       <c r="D304" s="10"/>
-      <c r="E304" s="133"/>
-      <c r="F304" s="134"/>
-      <c r="G304" s="134"/>
-      <c r="H304" s="134"/>
-      <c r="I304" s="134"/>
-      <c r="J304" s="134"/>
+      <c r="E304" s="138"/>
+      <c r="F304" s="139"/>
+      <c r="G304" s="139"/>
+      <c r="H304" s="139"/>
+      <c r="I304" s="139"/>
+      <c r="J304" s="139"/>
       <c r="K304" s="10"/>
       <c r="L304" s="10"/>
       <c r="M304" s="10"/>
-      <c r="N304" s="138"/>
+      <c r="N304" s="143"/>
     </row>
     <row r="305" spans="1:14">
       <c r="A305" s="10"/>
-      <c r="B305" s="128"/>
+      <c r="B305" s="132"/>
       <c r="D305" s="10"/>
-      <c r="E305" s="133"/>
-      <c r="F305" s="134"/>
-      <c r="G305" s="134"/>
-      <c r="H305" s="134"/>
-      <c r="I305" s="134"/>
-      <c r="J305" s="134"/>
+      <c r="E305" s="138"/>
+      <c r="F305" s="139"/>
+      <c r="G305" s="139"/>
+      <c r="H305" s="139"/>
+      <c r="I305" s="139"/>
+      <c r="J305" s="139"/>
       <c r="K305" s="10"/>
       <c r="L305" s="10"/>
       <c r="M305" s="10"/>
-      <c r="N305" s="138"/>
+      <c r="N305" s="143"/>
     </row>
     <row r="306" spans="1:14">
       <c r="A306" s="10"/>
-      <c r="B306" s="128"/>
+      <c r="B306" s="132"/>
       <c r="D306" s="10"/>
-      <c r="E306" s="133"/>
-      <c r="F306" s="134"/>
-      <c r="G306" s="134"/>
-      <c r="H306" s="134"/>
-      <c r="I306" s="134"/>
-      <c r="J306" s="134"/>
+      <c r="E306" s="138"/>
+      <c r="F306" s="139"/>
+      <c r="G306" s="139"/>
+      <c r="H306" s="139"/>
+      <c r="I306" s="139"/>
+      <c r="J306" s="139"/>
       <c r="K306" s="10"/>
       <c r="L306" s="10"/>
       <c r="M306" s="10"/>
-      <c r="N306" s="138"/>
+      <c r="N306" s="143"/>
     </row>
     <row r="307" spans="1:14">
       <c r="A307" s="10"/>
-      <c r="B307" s="128"/>
+      <c r="B307" s="132"/>
       <c r="D307" s="10"/>
-      <c r="E307" s="133"/>
-      <c r="F307" s="134"/>
-      <c r="G307" s="134"/>
-      <c r="H307" s="134"/>
-      <c r="I307" s="134"/>
-      <c r="J307" s="134"/>
+      <c r="E307" s="138"/>
+      <c r="F307" s="139"/>
+      <c r="G307" s="139"/>
+      <c r="H307" s="139"/>
+      <c r="I307" s="139"/>
+      <c r="J307" s="139"/>
       <c r="K307" s="10"/>
       <c r="L307" s="10"/>
       <c r="M307" s="10"/>
-      <c r="N307" s="138"/>
+      <c r="N307" s="143"/>
     </row>
     <row r="308" spans="1:14">
       <c r="A308" s="10"/>
-      <c r="B308" s="128"/>
+      <c r="B308" s="132"/>
       <c r="D308" s="10"/>
-      <c r="E308" s="133"/>
-      <c r="F308" s="134"/>
-      <c r="G308" s="134"/>
-      <c r="H308" s="134"/>
-      <c r="I308" s="134"/>
-      <c r="J308" s="134"/>
+      <c r="E308" s="138"/>
+      <c r="F308" s="139"/>
+      <c r="G308" s="139"/>
+      <c r="H308" s="139"/>
+      <c r="I308" s="139"/>
+      <c r="J308" s="139"/>
       <c r="K308" s="10"/>
       <c r="L308" s="10"/>
       <c r="M308" s="10"/>
-      <c r="N308" s="138"/>
+      <c r="N308" s="143"/>
     </row>
     <row r="309" spans="1:14">
       <c r="A309" s="10"/>
-      <c r="B309" s="128"/>
+      <c r="B309" s="132"/>
       <c r="D309" s="10"/>
-      <c r="E309" s="133"/>
-      <c r="F309" s="134"/>
-      <c r="G309" s="134"/>
-      <c r="H309" s="134"/>
-      <c r="I309" s="134"/>
-      <c r="J309" s="134"/>
+      <c r="E309" s="138"/>
+      <c r="F309" s="139"/>
+      <c r="G309" s="139"/>
+      <c r="H309" s="139"/>
+      <c r="I309" s="139"/>
+      <c r="J309" s="139"/>
       <c r="K309" s="10"/>
       <c r="L309" s="10"/>
       <c r="M309" s="10"/>
-      <c r="N309" s="138"/>
+      <c r="N309" s="143"/>
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="10"/>
-      <c r="B310" s="128"/>
+      <c r="B310" s="132"/>
       <c r="D310" s="10"/>
-      <c r="E310" s="133"/>
-      <c r="F310" s="134"/>
-      <c r="G310" s="134"/>
-      <c r="H310" s="134"/>
-      <c r="I310" s="134"/>
-      <c r="J310" s="134"/>
+      <c r="E310" s="138"/>
+      <c r="F310" s="139"/>
+      <c r="G310" s="139"/>
+      <c r="H310" s="139"/>
+      <c r="I310" s="139"/>
+      <c r="J310" s="139"/>
       <c r="K310" s="10"/>
       <c r="L310" s="10"/>
       <c r="M310" s="10"/>
-      <c r="N310" s="138"/>
+      <c r="N310" s="143"/>
     </row>
     <row r="311" spans="1:14">
       <c r="A311" s="10"/>
-      <c r="B311" s="128"/>
+      <c r="B311" s="132"/>
       <c r="D311" s="10"/>
-      <c r="E311" s="133"/>
-      <c r="F311" s="134"/>
-      <c r="G311" s="134"/>
-      <c r="H311" s="134"/>
-      <c r="I311" s="134"/>
-      <c r="J311" s="134"/>
+      <c r="E311" s="138"/>
+      <c r="F311" s="139"/>
+      <c r="G311" s="139"/>
+      <c r="H311" s="139"/>
+      <c r="I311" s="139"/>
+      <c r="J311" s="139"/>
       <c r="K311" s="10"/>
       <c r="L311" s="10"/>
       <c r="M311" s="10"/>
-      <c r="N311" s="138"/>
+      <c r="N311" s="143"/>
     </row>
     <row r="312" spans="1:14">
       <c r="A312" s="10"/>
-      <c r="B312" s="128"/>
+      <c r="B312" s="132"/>
       <c r="D312" s="10"/>
-      <c r="E312" s="133"/>
-      <c r="F312" s="134"/>
-      <c r="G312" s="134"/>
-      <c r="H312" s="134"/>
-      <c r="I312" s="134"/>
-      <c r="J312" s="134"/>
+      <c r="E312" s="138"/>
+      <c r="F312" s="139"/>
+      <c r="G312" s="139"/>
+      <c r="H312" s="139"/>
+      <c r="I312" s="139"/>
+      <c r="J312" s="139"/>
       <c r="K312" s="10"/>
       <c r="L312" s="10"/>
       <c r="M312" s="10"/>
-      <c r="N312" s="138"/>
+      <c r="N312" s="143"/>
     </row>
     <row r="313" spans="1:14">
       <c r="A313" s="10"/>
-      <c r="B313" s="128"/>
+      <c r="B313" s="132"/>
       <c r="D313" s="10"/>
-      <c r="E313" s="133"/>
-      <c r="F313" s="134"/>
-      <c r="G313" s="134"/>
-      <c r="H313" s="134"/>
-      <c r="I313" s="134"/>
-      <c r="J313" s="134"/>
+      <c r="E313" s="138"/>
+      <c r="F313" s="139"/>
+      <c r="G313" s="139"/>
+      <c r="H313" s="139"/>
+      <c r="I313" s="139"/>
+      <c r="J313" s="139"/>
       <c r="K313" s="10"/>
       <c r="L313" s="10"/>
       <c r="M313" s="10"/>
-      <c r="N313" s="138"/>
+      <c r="N313" s="143"/>
     </row>
     <row r="314" spans="1:14">
       <c r="A314" s="10"/>
-      <c r="B314" s="128"/>
+      <c r="B314" s="132"/>
       <c r="D314" s="10"/>
-      <c r="E314" s="133"/>
-      <c r="F314" s="134"/>
-      <c r="G314" s="134"/>
-      <c r="H314" s="134"/>
-      <c r="I314" s="134"/>
-      <c r="J314" s="134"/>
+      <c r="E314" s="138"/>
+      <c r="F314" s="139"/>
+      <c r="G314" s="139"/>
+      <c r="H314" s="139"/>
+      <c r="I314" s="139"/>
+      <c r="J314" s="139"/>
       <c r="K314" s="10"/>
       <c r="L314" s="10"/>
       <c r="M314" s="10"/>
-      <c r="N314" s="138"/>
+      <c r="N314" s="143"/>
     </row>
     <row r="315" spans="1:14">
       <c r="A315" s="10"/>
-      <c r="B315" s="128"/>
+      <c r="B315" s="132"/>
       <c r="D315" s="10"/>
-      <c r="E315" s="133"/>
-      <c r="F315" s="134"/>
-      <c r="G315" s="134"/>
-      <c r="H315" s="134"/>
-      <c r="I315" s="134"/>
-      <c r="J315" s="134"/>
+      <c r="E315" s="138"/>
+      <c r="F315" s="139"/>
+      <c r="G315" s="139"/>
+      <c r="H315" s="139"/>
+      <c r="I315" s="139"/>
+      <c r="J315" s="139"/>
       <c r="K315" s="10"/>
       <c r="L315" s="10"/>
       <c r="M315" s="10"/>
-      <c r="N315" s="138"/>
+      <c r="N315" s="143"/>
     </row>
     <row r="316" spans="1:14">
       <c r="A316" s="10"/>
-      <c r="B316" s="128"/>
+      <c r="B316" s="132"/>
       <c r="D316" s="10"/>
-      <c r="E316" s="133"/>
-      <c r="F316" s="134"/>
-      <c r="G316" s="134"/>
-      <c r="H316" s="134"/>
-      <c r="I316" s="134"/>
-      <c r="J316" s="134"/>
+      <c r="E316" s="138"/>
+      <c r="F316" s="139"/>
+      <c r="G316" s="139"/>
+      <c r="H316" s="139"/>
+      <c r="I316" s="139"/>
+      <c r="J316" s="139"/>
       <c r="K316" s="10"/>
       <c r="L316" s="10"/>
       <c r="M316" s="10"/>
-      <c r="N316" s="138"/>
+      <c r="N316" s="143"/>
     </row>
     <row r="317" spans="1:14">
       <c r="A317" s="10"/>
-      <c r="B317" s="128"/>
+      <c r="B317" s="132"/>
       <c r="D317" s="10"/>
-      <c r="E317" s="133"/>
-      <c r="F317" s="134"/>
-      <c r="G317" s="134"/>
-      <c r="H317" s="134"/>
-      <c r="I317" s="134"/>
-      <c r="J317" s="134"/>
+      <c r="E317" s="138"/>
+      <c r="F317" s="139"/>
+      <c r="G317" s="139"/>
+      <c r="H317" s="139"/>
+      <c r="I317" s="139"/>
+      <c r="J317" s="139"/>
       <c r="K317" s="10"/>
       <c r="L317" s="10"/>
       <c r="M317" s="10"/>
-      <c r="N317" s="138"/>
+      <c r="N317" s="143"/>
     </row>
     <row r="318" spans="1:14">
       <c r="A318" s="10"/>
-      <c r="B318" s="128"/>
+      <c r="B318" s="132"/>
       <c r="D318" s="10"/>
-      <c r="E318" s="133"/>
-      <c r="F318" s="134"/>
-      <c r="G318" s="134"/>
-      <c r="H318" s="134"/>
-      <c r="I318" s="134"/>
-      <c r="J318" s="134"/>
+      <c r="E318" s="138"/>
+      <c r="F318" s="139"/>
+      <c r="G318" s="139"/>
+      <c r="H318" s="139"/>
+      <c r="I318" s="139"/>
+      <c r="J318" s="139"/>
       <c r="K318" s="10"/>
       <c r="L318" s="10"/>
       <c r="M318" s="10"/>
-      <c r="N318" s="138"/>
+      <c r="N318" s="143"/>
     </row>
     <row r="319" spans="1:14">
       <c r="A319" s="10"/>
-      <c r="B319" s="128"/>
+      <c r="B319" s="132"/>
       <c r="D319" s="10"/>
-      <c r="E319" s="133"/>
-      <c r="F319" s="134"/>
-      <c r="G319" s="134"/>
-      <c r="H319" s="134"/>
-      <c r="I319" s="134"/>
-      <c r="J319" s="134"/>
+      <c r="E319" s="138"/>
+      <c r="F319" s="139"/>
+      <c r="G319" s="139"/>
+      <c r="H319" s="139"/>
+      <c r="I319" s="139"/>
+      <c r="J319" s="139"/>
       <c r="K319" s="10"/>
       <c r="L319" s="10"/>
       <c r="M319" s="10"/>
-      <c r="N319" s="138"/>
+      <c r="N319" s="143"/>
     </row>
     <row r="320" spans="1:14">
       <c r="A320" s="10"/>
-      <c r="B320" s="128"/>
+      <c r="B320" s="132"/>
       <c r="D320" s="10"/>
-      <c r="E320" s="133"/>
-      <c r="F320" s="134"/>
-      <c r="G320" s="134"/>
-      <c r="H320" s="134"/>
-      <c r="I320" s="134"/>
-      <c r="J320" s="134"/>
+      <c r="E320" s="138"/>
+      <c r="F320" s="139"/>
+      <c r="G320" s="139"/>
+      <c r="H320" s="139"/>
+      <c r="I320" s="139"/>
+      <c r="J320" s="139"/>
       <c r="K320" s="10"/>
       <c r="L320" s="10"/>
       <c r="M320" s="10"/>
-      <c r="N320" s="138"/>
+      <c r="N320" s="143"/>
     </row>
     <row r="321" spans="1:14">
       <c r="A321" s="10"/>
-      <c r="B321" s="128"/>
+      <c r="B321" s="132"/>
       <c r="D321" s="10"/>
-      <c r="E321" s="133"/>
-      <c r="F321" s="134"/>
-      <c r="G321" s="134"/>
-      <c r="H321" s="134"/>
-      <c r="I321" s="134"/>
-      <c r="J321" s="134"/>
+      <c r="E321" s="138"/>
+      <c r="F321" s="139"/>
+      <c r="G321" s="139"/>
+      <c r="H321" s="139"/>
+      <c r="I321" s="139"/>
+      <c r="J321" s="139"/>
       <c r="K321" s="10"/>
       <c r="L321" s="10"/>
       <c r="M321" s="10"/>
-      <c r="N321" s="138"/>
+      <c r="N321" s="143"/>
     </row>
     <row r="322" spans="1:14">
       <c r="A322" s="10"/>
-      <c r="B322" s="128"/>
+      <c r="B322" s="132"/>
       <c r="D322" s="10"/>
-      <c r="E322" s="133"/>
-      <c r="F322" s="134"/>
-      <c r="G322" s="134"/>
-      <c r="H322" s="134"/>
-      <c r="I322" s="134"/>
-      <c r="J322" s="134"/>
+      <c r="E322" s="138"/>
+      <c r="F322" s="139"/>
+      <c r="G322" s="139"/>
+      <c r="H322" s="139"/>
+      <c r="I322" s="139"/>
+      <c r="J322" s="139"/>
       <c r="K322" s="10"/>
       <c r="L322" s="10"/>
       <c r="M322" s="10"/>
-      <c r="N322" s="138"/>
+      <c r="N322" s="143"/>
     </row>
     <row r="323" spans="1:14">
       <c r="A323" s="10"/>
-      <c r="B323" s="128"/>
+      <c r="B323" s="132"/>
       <c r="D323" s="10"/>
-      <c r="E323" s="133"/>
-      <c r="F323" s="134"/>
-      <c r="G323" s="134"/>
-      <c r="H323" s="134"/>
-      <c r="I323" s="134"/>
-      <c r="J323" s="134"/>
+      <c r="E323" s="138"/>
+      <c r="F323" s="139"/>
+      <c r="G323" s="139"/>
+      <c r="H323" s="139"/>
+      <c r="I323" s="139"/>
+      <c r="J323" s="139"/>
       <c r="K323" s="10"/>
       <c r="L323" s="10"/>
       <c r="M323" s="10"/>
-      <c r="N323" s="138"/>
+      <c r="N323" s="143"/>
     </row>
     <row r="324" spans="1:14">
       <c r="A324" s="10"/>
-      <c r="B324" s="128"/>
+      <c r="B324" s="132"/>
       <c r="D324" s="10"/>
-      <c r="E324" s="133"/>
-      <c r="F324" s="134"/>
-      <c r="G324" s="134"/>
-      <c r="H324" s="134"/>
-      <c r="I324" s="134"/>
-      <c r="J324" s="134"/>
+      <c r="E324" s="138"/>
+      <c r="F324" s="139"/>
+      <c r="G324" s="139"/>
+      <c r="H324" s="139"/>
+      <c r="I324" s="139"/>
+      <c r="J324" s="139"/>
       <c r="K324" s="10"/>
       <c r="L324" s="10"/>
       <c r="M324" s="10"/>
-      <c r="N324" s="138"/>
+      <c r="N324" s="143"/>
     </row>
     <row r="325" spans="1:14">
       <c r="A325" s="10"/>
-      <c r="B325" s="128"/>
+      <c r="B325" s="132"/>
       <c r="D325" s="10"/>
-      <c r="E325" s="133"/>
-      <c r="F325" s="134"/>
-      <c r="G325" s="134"/>
-      <c r="H325" s="134"/>
-      <c r="I325" s="134"/>
-      <c r="J325" s="134"/>
+      <c r="E325" s="138"/>
+      <c r="F325" s="139"/>
+      <c r="G325" s="139"/>
+      <c r="H325" s="139"/>
+      <c r="I325" s="139"/>
+      <c r="J325" s="139"/>
       <c r="K325" s="10"/>
       <c r="L325" s="10"/>
       <c r="M325" s="10"/>
-      <c r="N325" s="138"/>
+      <c r="N325" s="143"/>
     </row>
     <row r="326" spans="1:14">
       <c r="A326" s="10"/>
-      <c r="B326" s="128"/>
+      <c r="B326" s="132"/>
       <c r="D326" s="10"/>
-      <c r="E326" s="133"/>
-      <c r="F326" s="134"/>
-      <c r="G326" s="134"/>
-      <c r="H326" s="134"/>
-      <c r="I326" s="134"/>
-      <c r="J326" s="134"/>
+      <c r="E326" s="138"/>
+      <c r="F326" s="139"/>
+      <c r="G326" s="139"/>
+      <c r="H326" s="139"/>
+      <c r="I326" s="139"/>
+      <c r="J326" s="139"/>
       <c r="K326" s="10"/>
       <c r="L326" s="10"/>
       <c r="M326" s="10"/>
-      <c r="N326" s="138"/>
+      <c r="N326" s="143"/>
     </row>
     <row r="327" spans="1:14">
       <c r="A327" s="10"/>
-      <c r="B327" s="128"/>
+      <c r="B327" s="132"/>
       <c r="D327" s="10"/>
-      <c r="E327" s="133"/>
-      <c r="F327" s="134"/>
-      <c r="G327" s="134"/>
-      <c r="H327" s="134"/>
-      <c r="I327" s="134"/>
-      <c r="J327" s="134"/>
+      <c r="E327" s="138"/>
+      <c r="F327" s="139"/>
+      <c r="G327" s="139"/>
+      <c r="H327" s="139"/>
+      <c r="I327" s="139"/>
+      <c r="J327" s="139"/>
       <c r="K327" s="10"/>
       <c r="L327" s="10"/>
       <c r="M327" s="10"/>
-      <c r="N327" s="138"/>
+      <c r="N327" s="143"/>
     </row>
     <row r="328" spans="1:14">
       <c r="A328" s="10"/>
-      <c r="B328" s="128"/>
+      <c r="B328" s="132"/>
       <c r="D328" s="10"/>
-      <c r="E328" s="133"/>
-      <c r="F328" s="134"/>
-      <c r="G328" s="134"/>
-      <c r="H328" s="134"/>
-      <c r="I328" s="134"/>
-      <c r="J328" s="134"/>
+      <c r="E328" s="138"/>
+      <c r="F328" s="139"/>
+      <c r="G328" s="139"/>
+      <c r="H328" s="139"/>
+      <c r="I328" s="139"/>
+      <c r="J328" s="139"/>
       <c r="K328" s="10"/>
       <c r="L328" s="10"/>
       <c r="M328" s="10"/>
-      <c r="N328" s="138"/>
+      <c r="N328" s="143"/>
     </row>
     <row r="329" spans="1:14">
       <c r="A329" s="10"/>
-      <c r="B329" s="128"/>
+      <c r="B329" s="132"/>
       <c r="D329" s="10"/>
-      <c r="E329" s="133"/>
-      <c r="F329" s="134"/>
-      <c r="G329" s="134"/>
-      <c r="H329" s="134"/>
-      <c r="I329" s="134"/>
-      <c r="J329" s="134"/>
+      <c r="E329" s="138"/>
+      <c r="F329" s="139"/>
+      <c r="G329" s="139"/>
+      <c r="H329" s="139"/>
+      <c r="I329" s="139"/>
+      <c r="J329" s="139"/>
       <c r="K329" s="10"/>
       <c r="L329" s="10"/>
       <c r="M329" s="10"/>
-      <c r="N329" s="138"/>
+      <c r="N329" s="143"/>
     </row>
     <row r="330" spans="1:14">
       <c r="A330" s="10"/>
-      <c r="B330" s="128"/>
+      <c r="B330" s="132"/>
       <c r="D330" s="10"/>
-      <c r="E330" s="133"/>
-      <c r="F330" s="134"/>
-      <c r="G330" s="134"/>
-      <c r="H330" s="134"/>
-      <c r="I330" s="134"/>
-      <c r="J330" s="134"/>
+      <c r="E330" s="138"/>
+      <c r="F330" s="139"/>
+      <c r="G330" s="139"/>
+      <c r="H330" s="139"/>
+      <c r="I330" s="139"/>
+      <c r="J330" s="139"/>
       <c r="K330" s="10"/>
       <c r="L330" s="10"/>
       <c r="M330" s="10"/>
-      <c r="N330" s="138"/>
+      <c r="N330" s="143"/>
     </row>
     <row r="331" spans="1:14">
       <c r="A331" s="10"/>
-      <c r="B331" s="128"/>
+      <c r="B331" s="132"/>
       <c r="D331" s="10"/>
-      <c r="E331" s="133"/>
-      <c r="F331" s="134"/>
-      <c r="G331" s="134"/>
-      <c r="H331" s="134"/>
-      <c r="I331" s="134"/>
-      <c r="J331" s="134"/>
+      <c r="E331" s="138"/>
+      <c r="F331" s="139"/>
+      <c r="G331" s="139"/>
+      <c r="H331" s="139"/>
+      <c r="I331" s="139"/>
+      <c r="J331" s="139"/>
       <c r="K331" s="10"/>
       <c r="L331" s="10"/>
       <c r="M331" s="10"/>
-      <c r="N331" s="138"/>
+      <c r="N331" s="143"/>
     </row>
     <row r="332" spans="1:14">
       <c r="A332" s="10"/>
-      <c r="B332" s="128"/>
+      <c r="B332" s="132"/>
       <c r="D332" s="10"/>
-      <c r="E332" s="133"/>
-      <c r="F332" s="134"/>
-      <c r="G332" s="134"/>
-      <c r="H332" s="134"/>
-      <c r="I332" s="134"/>
-      <c r="J332" s="134"/>
+      <c r="E332" s="138"/>
+      <c r="F332" s="139"/>
+      <c r="G332" s="139"/>
+      <c r="H332" s="139"/>
+      <c r="I332" s="139"/>
+      <c r="J332" s="139"/>
       <c r="K332" s="10"/>
       <c r="L332" s="10"/>
       <c r="M332" s="10"/>
-      <c r="N332" s="138"/>
+      <c r="N332" s="143"/>
     </row>
     <row r="333" spans="1:14">
       <c r="A333" s="10"/>
-      <c r="B333" s="128"/>
+      <c r="B333" s="132"/>
       <c r="D333" s="10"/>
-      <c r="E333" s="133"/>
-      <c r="F333" s="134"/>
-      <c r="G333" s="134"/>
-      <c r="H333" s="134"/>
-      <c r="I333" s="134"/>
-      <c r="J333" s="134"/>
+      <c r="E333" s="138"/>
+      <c r="F333" s="139"/>
+      <c r="G333" s="139"/>
+      <c r="H333" s="139"/>
+      <c r="I333" s="139"/>
+      <c r="J333" s="139"/>
       <c r="K333" s="10"/>
       <c r="L333" s="10"/>
       <c r="M333" s="10"/>
-      <c r="N333" s="138"/>
+      <c r="N333" s="143"/>
     </row>
     <row r="334" spans="1:14">
       <c r="A334" s="10"/>
-      <c r="B334" s="128"/>
+      <c r="B334" s="132"/>
       <c r="D334" s="10"/>
-      <c r="E334" s="133"/>
-      <c r="F334" s="134"/>
-      <c r="G334" s="134"/>
-      <c r="H334" s="134"/>
-      <c r="I334" s="134"/>
-      <c r="J334" s="134"/>
+      <c r="E334" s="138"/>
+      <c r="F334" s="139"/>
+      <c r="G334" s="139"/>
+      <c r="H334" s="139"/>
+      <c r="I334" s="139"/>
+      <c r="J334" s="139"/>
       <c r="K334" s="10"/>
       <c r="L334" s="10"/>
       <c r="M334" s="10"/>
-      <c r="N334" s="138"/>
+      <c r="N334" s="143"/>
     </row>
     <row r="335" spans="1:14">
       <c r="A335" s="10"/>
-      <c r="B335" s="128"/>
+      <c r="B335" s="132"/>
       <c r="D335" s="10"/>
-      <c r="E335" s="133"/>
-      <c r="F335" s="134"/>
-      <c r="G335" s="134"/>
-      <c r="H335" s="134"/>
-      <c r="I335" s="134"/>
-      <c r="J335" s="134"/>
+      <c r="E335" s="138"/>
+      <c r="F335" s="139"/>
+      <c r="G335" s="139"/>
+      <c r="H335" s="139"/>
+      <c r="I335" s="139"/>
+      <c r="J335" s="139"/>
       <c r="K335" s="10"/>
       <c r="L335" s="10"/>
       <c r="M335" s="10"/>
-      <c r="N335" s="138"/>
+      <c r="N335" s="143"/>
     </row>
     <row r="336" spans="1:14">
       <c r="A336" s="10"/>
-      <c r="B336" s="128"/>
+      <c r="B336" s="132"/>
       <c r="D336" s="10"/>
-      <c r="E336" s="133"/>
-      <c r="F336" s="134"/>
-      <c r="G336" s="134"/>
-      <c r="H336" s="134"/>
-      <c r="I336" s="134"/>
-      <c r="J336" s="134"/>
+      <c r="E336" s="138"/>
+      <c r="F336" s="139"/>
+      <c r="G336" s="139"/>
+      <c r="H336" s="139"/>
+      <c r="I336" s="139"/>
+      <c r="J336" s="139"/>
       <c r="K336" s="10"/>
       <c r="L336" s="10"/>
       <c r="M336" s="10"/>
-      <c r="N336" s="138"/>
+      <c r="N336" s="143"/>
     </row>
     <row r="337" spans="1:14">
       <c r="A337" s="10"/>
-      <c r="B337" s="128"/>
+      <c r="B337" s="132"/>
       <c r="D337" s="10"/>
-      <c r="E337" s="133"/>
-      <c r="F337" s="134"/>
-      <c r="G337" s="134"/>
-      <c r="H337" s="134"/>
-      <c r="I337" s="134"/>
-      <c r="J337" s="134"/>
+      <c r="E337" s="138"/>
+      <c r="F337" s="139"/>
+      <c r="G337" s="139"/>
+      <c r="H337" s="139"/>
+      <c r="I337" s="139"/>
+      <c r="J337" s="139"/>
       <c r="K337" s="10"/>
       <c r="L337" s="10"/>
       <c r="M337" s="10"/>
-      <c r="N337" s="138"/>
+      <c r="N337" s="143"/>
     </row>
     <row r="338" spans="1:14">
       <c r="A338" s="10"/>
-      <c r="B338" s="128"/>
+      <c r="B338" s="132"/>
       <c r="D338" s="10"/>
-      <c r="E338" s="133"/>
-      <c r="F338" s="134"/>
-      <c r="G338" s="134"/>
-      <c r="H338" s="134"/>
-      <c r="I338" s="134"/>
-      <c r="J338" s="134"/>
+      <c r="E338" s="138"/>
+      <c r="F338" s="139"/>
+      <c r="G338" s="139"/>
+      <c r="H338" s="139"/>
+      <c r="I338" s="139"/>
+      <c r="J338" s="139"/>
       <c r="K338" s="10"/>
       <c r="L338" s="10"/>
       <c r="M338" s="10"/>
-      <c r="N338" s="138"/>
+      <c r="N338" s="143"/>
     </row>
     <row r="339" spans="1:14">
       <c r="A339" s="10"/>
-      <c r="B339" s="128"/>
+      <c r="B339" s="132"/>
       <c r="D339" s="10"/>
-      <c r="E339" s="133"/>
-      <c r="F339" s="134"/>
-      <c r="G339" s="134"/>
-      <c r="H339" s="134"/>
-      <c r="I339" s="134"/>
-      <c r="J339" s="134"/>
+      <c r="E339" s="138"/>
+      <c r="F339" s="139"/>
+      <c r="G339" s="139"/>
+      <c r="H339" s="139"/>
+      <c r="I339" s="139"/>
+      <c r="J339" s="139"/>
       <c r="K339" s="10"/>
       <c r="L339" s="10"/>
       <c r="M339" s="10"/>
-      <c r="N339" s="138"/>
+      <c r="N339" s="143"/>
     </row>
     <row r="340" spans="1:14">
       <c r="A340" s="10"/>
-      <c r="B340" s="128"/>
+      <c r="B340" s="132"/>
       <c r="D340" s="10"/>
-      <c r="E340" s="133"/>
-      <c r="F340" s="134"/>
-      <c r="G340" s="134"/>
-      <c r="H340" s="134"/>
-      <c r="I340" s="134"/>
-      <c r="J340" s="134"/>
+      <c r="E340" s="138"/>
+      <c r="F340" s="139"/>
+      <c r="G340" s="139"/>
+      <c r="H340" s="139"/>
+      <c r="I340" s="139"/>
+      <c r="J340" s="139"/>
       <c r="K340" s="10"/>
       <c r="L340" s="10"/>
       <c r="M340" s="10"/>
-      <c r="N340" s="138"/>
+      <c r="N340" s="143"/>
     </row>
     <row r="341" spans="1:14">
       <c r="A341" s="10"/>
-      <c r="B341" s="128"/>
+      <c r="B341" s="132"/>
       <c r="D341" s="10"/>
-      <c r="E341" s="133"/>
-      <c r="F341" s="134"/>
-      <c r="G341" s="134"/>
-      <c r="H341" s="134"/>
-      <c r="I341" s="134"/>
-      <c r="J341" s="134"/>
+      <c r="E341" s="138"/>
+      <c r="F341" s="139"/>
+      <c r="G341" s="139"/>
+      <c r="H341" s="139"/>
+      <c r="I341" s="139"/>
+      <c r="J341" s="139"/>
       <c r="K341" s="10"/>
       <c r="L341" s="10"/>
       <c r="M341" s="10"/>
-      <c r="N341" s="138"/>
+      <c r="N341" s="143"/>
     </row>
     <row r="342" spans="1:14">
       <c r="A342" s="10"/>
-      <c r="B342" s="128"/>
+      <c r="B342" s="132"/>
       <c r="D342" s="10"/>
-      <c r="E342" s="133"/>
-      <c r="F342" s="134"/>
-      <c r="G342" s="134"/>
-      <c r="H342" s="134"/>
-      <c r="I342" s="134"/>
-      <c r="J342" s="134"/>
+      <c r="E342" s="138"/>
+      <c r="F342" s="139"/>
+      <c r="G342" s="139"/>
+      <c r="H342" s="139"/>
+      <c r="I342" s="139"/>
+      <c r="J342" s="139"/>
       <c r="K342" s="10"/>
       <c r="L342" s="10"/>
       <c r="M342" s="10"/>
-      <c r="N342" s="138"/>
+      <c r="N342" s="143"/>
     </row>
     <row r="343" spans="1:14">
       <c r="A343" s="10"/>
-      <c r="B343" s="128"/>
+      <c r="B343" s="132"/>
       <c r="D343" s="10"/>
-      <c r="E343" s="133"/>
-      <c r="F343" s="134"/>
-      <c r="G343" s="134"/>
-      <c r="H343" s="134"/>
-      <c r="I343" s="134"/>
-      <c r="J343" s="134"/>
+      <c r="E343" s="138"/>
+      <c r="F343" s="139"/>
+      <c r="G343" s="139"/>
+      <c r="H343" s="139"/>
+      <c r="I343" s="139"/>
+      <c r="J343" s="139"/>
       <c r="K343" s="10"/>
       <c r="L343" s="10"/>
       <c r="M343" s="10"/>
-      <c r="N343" s="138"/>
+      <c r="N343" s="143"/>
     </row>
     <row r="344" spans="1:14">
       <c r="A344" s="10"/>
-      <c r="B344" s="128"/>
+      <c r="B344" s="132"/>
       <c r="D344" s="10"/>
-      <c r="E344" s="133"/>
-      <c r="F344" s="134"/>
-      <c r="G344" s="134"/>
-      <c r="H344" s="134"/>
-      <c r="I344" s="134"/>
-      <c r="J344" s="134"/>
+      <c r="E344" s="138"/>
+      <c r="F344" s="139"/>
+      <c r="G344" s="139"/>
+      <c r="H344" s="139"/>
+      <c r="I344" s="139"/>
+      <c r="J344" s="139"/>
       <c r="K344" s="10"/>
       <c r="L344" s="10"/>
       <c r="M344" s="10"/>
-      <c r="N344" s="138"/>
+      <c r="N344" s="143"/>
     </row>
     <row r="345" spans="1:14">
       <c r="A345" s="10"/>
-      <c r="B345" s="128"/>
+      <c r="B345" s="132"/>
       <c r="D345" s="10"/>
-      <c r="E345" s="133"/>
-      <c r="F345" s="134"/>
-      <c r="G345" s="134"/>
-      <c r="H345" s="134"/>
-      <c r="I345" s="134"/>
-      <c r="J345" s="134"/>
+      <c r="E345" s="138"/>
+      <c r="F345" s="139"/>
+      <c r="G345" s="139"/>
+      <c r="H345" s="139"/>
+      <c r="I345" s="139"/>
+      <c r="J345" s="139"/>
       <c r="K345" s="10"/>
       <c r="L345" s="10"/>
       <c r="M345" s="10"/>
-      <c r="N345" s="138"/>
+      <c r="N345" s="143"/>
     </row>
     <row r="346" spans="1:14">
       <c r="A346" s="10"/>
-      <c r="B346" s="128"/>
+      <c r="B346" s="132"/>
       <c r="D346" s="10"/>
-      <c r="E346" s="133"/>
-      <c r="F346" s="134"/>
-      <c r="G346" s="134"/>
-      <c r="H346" s="134"/>
-      <c r="I346" s="134"/>
-      <c r="J346" s="134"/>
+      <c r="E346" s="138"/>
+      <c r="F346" s="139"/>
+      <c r="G346" s="139"/>
+      <c r="H346" s="139"/>
+      <c r="I346" s="139"/>
+      <c r="J346" s="139"/>
       <c r="K346" s="10"/>
       <c r="L346" s="10"/>
       <c r="M346" s="10"/>
-      <c r="N346" s="138"/>
+      <c r="N346" s="143"/>
     </row>
     <row r="347" spans="1:14">
       <c r="A347" s="10"/>
-      <c r="B347" s="128"/>
+      <c r="B347" s="132"/>
       <c r="D347" s="10"/>
-      <c r="E347" s="133"/>
-      <c r="F347" s="134"/>
-      <c r="G347" s="134"/>
-      <c r="H347" s="134"/>
-      <c r="I347" s="134"/>
-      <c r="J347" s="134"/>
+      <c r="E347" s="138"/>
+      <c r="F347" s="139"/>
+      <c r="G347" s="139"/>
+      <c r="H347" s="139"/>
+      <c r="I347" s="139"/>
+      <c r="J347" s="139"/>
       <c r="K347" s="10"/>
       <c r="L347" s="10"/>
       <c r="M347" s="10"/>
-      <c r="N347" s="138"/>
+      <c r="N347" s="143"/>
     </row>
     <row r="348" spans="1:14">
       <c r="A348" s="10"/>
-      <c r="B348" s="128"/>
+      <c r="B348" s="132"/>
       <c r="D348" s="10"/>
-      <c r="E348" s="133"/>
-      <c r="F348" s="134"/>
-      <c r="G348" s="134"/>
-      <c r="H348" s="134"/>
-      <c r="I348" s="134"/>
-      <c r="J348" s="134"/>
+      <c r="E348" s="138"/>
+      <c r="F348" s="139"/>
+      <c r="G348" s="139"/>
+      <c r="H348" s="139"/>
+      <c r="I348" s="139"/>
+      <c r="J348" s="139"/>
       <c r="K348" s="10"/>
       <c r="L348" s="10"/>
       <c r="M348" s="10"/>
-      <c r="N348" s="138"/>
+      <c r="N348" s="143"/>
     </row>
     <row r="349" spans="1:14">
       <c r="A349" s="10"/>
-      <c r="B349" s="128"/>
+      <c r="B349" s="132"/>
       <c r="D349" s="10"/>
-      <c r="E349" s="133"/>
-      <c r="F349" s="134"/>
-      <c r="G349" s="134"/>
-      <c r="H349" s="134"/>
-      <c r="I349" s="134"/>
-      <c r="J349" s="134"/>
+      <c r="E349" s="138"/>
+      <c r="F349" s="139"/>
+      <c r="G349" s="139"/>
+      <c r="H349" s="139"/>
+      <c r="I349" s="139"/>
+      <c r="J349" s="139"/>
       <c r="K349" s="10"/>
       <c r="L349" s="10"/>
       <c r="M349" s="10"/>
-      <c r="N349" s="138"/>
+      <c r="N349" s="143"/>
     </row>
     <row r="350" spans="1:14">
       <c r="A350" s="10"/>
-      <c r="B350" s="128"/>
+      <c r="B350" s="132"/>
       <c r="D350" s="10"/>
-      <c r="E350" s="133"/>
-      <c r="F350" s="134"/>
-      <c r="G350" s="134"/>
-      <c r="H350" s="134"/>
-      <c r="I350" s="134"/>
-      <c r="J350" s="134"/>
+      <c r="E350" s="138"/>
+      <c r="F350" s="139"/>
+      <c r="G350" s="139"/>
+      <c r="H350" s="139"/>
+      <c r="I350" s="139"/>
+      <c r="J350" s="139"/>
       <c r="K350" s="10"/>
       <c r="L350" s="10"/>
       <c r="M350" s="10"/>
-      <c r="N350" s="138"/>
+      <c r="N350" s="143"/>
     </row>
     <row r="351" spans="1:14">
       <c r="A351" s="10"/>
-      <c r="B351" s="128"/>
+      <c r="B351" s="132"/>
       <c r="D351" s="10"/>
-      <c r="E351" s="133"/>
-      <c r="F351" s="134"/>
-      <c r="G351" s="134"/>
-      <c r="H351" s="134"/>
-      <c r="I351" s="134"/>
-      <c r="J351" s="134"/>
+      <c r="E351" s="138"/>
+      <c r="F351" s="139"/>
+      <c r="G351" s="139"/>
+      <c r="H351" s="139"/>
+      <c r="I351" s="139"/>
+      <c r="J351" s="139"/>
       <c r="K351" s="10"/>
       <c r="L351" s="10"/>
       <c r="M351" s="10"/>
-      <c r="N351" s="138"/>
+      <c r="N351" s="143"/>
     </row>
     <row r="352" spans="1:14">
       <c r="A352" s="10"/>
-      <c r="B352" s="128"/>
+      <c r="B352" s="132"/>
       <c r="D352" s="10"/>
-      <c r="E352" s="133"/>
-      <c r="F352" s="134"/>
-      <c r="G352" s="134"/>
-      <c r="H352" s="134"/>
-      <c r="I352" s="134"/>
-      <c r="J352" s="134"/>
+      <c r="E352" s="138"/>
+      <c r="F352" s="139"/>
+      <c r="G352" s="139"/>
+      <c r="H352" s="139"/>
+      <c r="I352" s="139"/>
+      <c r="J352" s="139"/>
       <c r="K352" s="10"/>
       <c r="L352" s="10"/>
       <c r="M352" s="10"/>
-      <c r="N352" s="138"/>
+      <c r="N352" s="143"/>
     </row>
     <row r="353" spans="1:14">
       <c r="A353" s="10"/>
-      <c r="B353" s="128"/>
+      <c r="B353" s="132"/>
       <c r="D353" s="10"/>
-      <c r="E353" s="133"/>
-      <c r="F353" s="134"/>
-      <c r="G353" s="134"/>
-      <c r="H353" s="134"/>
-      <c r="I353" s="134"/>
-      <c r="J353" s="134"/>
+      <c r="E353" s="138"/>
+      <c r="F353" s="139"/>
+      <c r="G353" s="139"/>
+      <c r="H353" s="139"/>
+      <c r="I353" s="139"/>
+      <c r="J353" s="139"/>
       <c r="K353" s="10"/>
       <c r="L353" s="10"/>
       <c r="M353" s="10"/>
-      <c r="N353" s="138"/>
+      <c r="N353" s="143"/>
     </row>
     <row r="354" spans="1:14">
       <c r="A354" s="10"/>
-      <c r="B354" s="128"/>
+      <c r="B354" s="132"/>
       <c r="D354" s="10"/>
-      <c r="E354" s="133"/>
-      <c r="F354" s="134"/>
-      <c r="G354" s="134"/>
-      <c r="H354" s="134"/>
-      <c r="I354" s="134"/>
-      <c r="J354" s="134"/>
+      <c r="E354" s="138"/>
+      <c r="F354" s="139"/>
+      <c r="G354" s="139"/>
+      <c r="H354" s="139"/>
+      <c r="I354" s="139"/>
+      <c r="J354" s="139"/>
       <c r="K354" s="10"/>
       <c r="L354" s="10"/>
       <c r="M354" s="10"/>
-      <c r="N354" s="138"/>
+      <c r="N354" s="143"/>
     </row>
     <row r="355" spans="1:14">
       <c r="A355" s="10"/>
-      <c r="B355" s="128"/>
+      <c r="B355" s="132"/>
       <c r="D355" s="10"/>
-      <c r="E355" s="133"/>
-      <c r="F355" s="134"/>
-      <c r="G355" s="134"/>
-      <c r="H355" s="134"/>
-      <c r="I355" s="134"/>
-      <c r="J355" s="134"/>
+      <c r="E355" s="138"/>
+      <c r="F355" s="139"/>
+      <c r="G355" s="139"/>
+      <c r="H355" s="139"/>
+      <c r="I355" s="139"/>
+      <c r="J355" s="139"/>
       <c r="K355" s="10"/>
       <c r="L355" s="10"/>
       <c r="M355" s="10"/>
-      <c r="N355" s="138"/>
+      <c r="N355" s="143"/>
     </row>
     <row r="356" spans="1:14">
       <c r="A356" s="10"/>
-      <c r="B356" s="128"/>
+      <c r="B356" s="132"/>
       <c r="D356" s="10"/>
-      <c r="E356" s="133"/>
-      <c r="F356" s="134"/>
-      <c r="G356" s="134"/>
-      <c r="H356" s="134"/>
-      <c r="I356" s="134"/>
-      <c r="J356" s="134"/>
+      <c r="E356" s="138"/>
+      <c r="F356" s="139"/>
+      <c r="G356" s="139"/>
+      <c r="H356" s="139"/>
+      <c r="I356" s="139"/>
+      <c r="J356" s="139"/>
       <c r="K356" s="10"/>
       <c r="L356" s="10"/>
       <c r="M356" s="10"/>
-      <c r="N356" s="138"/>
+      <c r="N356" s="143"/>
     </row>
     <row r="357" spans="1:14">
       <c r="A357" s="10"/>
-      <c r="B357" s="128"/>
+      <c r="B357" s="132"/>
       <c r="D357" s="10"/>
-      <c r="E357" s="133"/>
-      <c r="F357" s="134"/>
-      <c r="G357" s="134"/>
-      <c r="H357" s="134"/>
-      <c r="I357" s="134"/>
-      <c r="J357" s="134"/>
+      <c r="E357" s="138"/>
+      <c r="F357" s="139"/>
+      <c r="G357" s="139"/>
+      <c r="H357" s="139"/>
+      <c r="I357" s="139"/>
+      <c r="J357" s="139"/>
       <c r="K357" s="10"/>
       <c r="L357" s="10"/>
       <c r="M357" s="10"/>
-      <c r="N357" s="138"/>
+      <c r="N357" s="143"/>
     </row>
     <row r="358" spans="1:14">
       <c r="A358" s="10"/>
-      <c r="B358" s="128"/>
+      <c r="B358" s="132"/>
       <c r="D358" s="10"/>
-      <c r="E358" s="133"/>
-      <c r="F358" s="134"/>
-      <c r="G358" s="134"/>
-      <c r="H358" s="134"/>
-      <c r="I358" s="134"/>
-      <c r="J358" s="134"/>
+      <c r="E358" s="138"/>
+      <c r="F358" s="139"/>
+      <c r="G358" s="139"/>
+      <c r="H358" s="139"/>
+      <c r="I358" s="139"/>
+      <c r="J358" s="139"/>
       <c r="K358" s="10"/>
       <c r="L358" s="10"/>
       <c r="M358" s="10"/>
-      <c r="N358" s="138"/>
+      <c r="N358" s="143"/>
     </row>
     <row r="359" spans="1:14">
       <c r="A359" s="10"/>
-      <c r="B359" s="128"/>
+      <c r="B359" s="132"/>
       <c r="D359" s="10"/>
-      <c r="E359" s="133"/>
-      <c r="F359" s="134"/>
-      <c r="G359" s="134"/>
-      <c r="H359" s="134"/>
-      <c r="I359" s="134"/>
-      <c r="J359" s="134"/>
+      <c r="E359" s="138"/>
+      <c r="F359" s="139"/>
+      <c r="G359" s="139"/>
+      <c r="H359" s="139"/>
+      <c r="I359" s="139"/>
+      <c r="J359" s="139"/>
       <c r="K359" s="10"/>
       <c r="L359" s="10"/>
       <c r="M359" s="10"/>
-      <c r="N359" s="138"/>
+      <c r="N359" s="143"/>
     </row>
     <row r="360" spans="1:14">
       <c r="A360" s="10"/>
-      <c r="B360" s="128"/>
+      <c r="B360" s="132"/>
       <c r="D360" s="10"/>
-      <c r="E360" s="133"/>
-      <c r="F360" s="134"/>
-      <c r="G360" s="134"/>
-      <c r="H360" s="134"/>
-      <c r="I360" s="134"/>
-      <c r="J360" s="134"/>
+      <c r="E360" s="138"/>
+      <c r="F360" s="139"/>
+      <c r="G360" s="139"/>
+      <c r="H360" s="139"/>
+      <c r="I360" s="139"/>
+      <c r="J360" s="139"/>
       <c r="K360" s="10"/>
       <c r="L360" s="10"/>
       <c r="M360" s="10"/>
-      <c r="N360" s="138"/>
+      <c r="N360" s="143"/>
     </row>
     <row r="361" spans="1:14">
       <c r="A361" s="10"/>
-      <c r="B361" s="128"/>
+      <c r="B361" s="132"/>
       <c r="D361" s="10"/>
-      <c r="E361" s="133"/>
-      <c r="F361" s="134"/>
-      <c r="G361" s="134"/>
-      <c r="H361" s="134"/>
-      <c r="I361" s="134"/>
-      <c r="J361" s="134"/>
+      <c r="E361" s="138"/>
+      <c r="F361" s="139"/>
+      <c r="G361" s="139"/>
+      <c r="H361" s="139"/>
+      <c r="I361" s="139"/>
+      <c r="J361" s="139"/>
       <c r="K361" s="10"/>
       <c r="L361" s="10"/>
       <c r="M361" s="10"/>
-      <c r="N361" s="138"/>
+      <c r="N361" s="143"/>
     </row>
     <row r="362" spans="1:14">
       <c r="A362" s="10"/>
-      <c r="B362" s="128"/>
+      <c r="B362" s="132"/>
       <c r="D362" s="10"/>
-      <c r="E362" s="133"/>
-      <c r="F362" s="134"/>
-      <c r="G362" s="134"/>
-      <c r="H362" s="134"/>
-      <c r="I362" s="134"/>
-      <c r="J362" s="134"/>
+      <c r="E362" s="138"/>
+      <c r="F362" s="139"/>
+      <c r="G362" s="139"/>
+      <c r="H362" s="139"/>
+      <c r="I362" s="139"/>
+      <c r="J362" s="139"/>
       <c r="K362" s="10"/>
       <c r="L362" s="10"/>
       <c r="M362" s="10"/>
-      <c r="N362" s="138"/>
+      <c r="N362" s="143"/>
     </row>
     <row r="363" spans="1:14">
       <c r="A363" s="10"/>
-      <c r="B363" s="128"/>
+      <c r="B363" s="132"/>
       <c r="D363" s="10"/>
-      <c r="E363" s="133"/>
-      <c r="F363" s="134"/>
-      <c r="G363" s="134"/>
-      <c r="H363" s="134"/>
-      <c r="I363" s="134"/>
-      <c r="J363" s="134"/>
+      <c r="E363" s="138"/>
+      <c r="F363" s="139"/>
+      <c r="G363" s="139"/>
+      <c r="H363" s="139"/>
+      <c r="I363" s="139"/>
+      <c r="J363" s="139"/>
       <c r="K363" s="10"/>
       <c r="L363" s="10"/>
       <c r="M363" s="10"/>
-      <c r="N363" s="138"/>
+      <c r="N363" s="143"/>
     </row>
     <row r="364" spans="1:14">
       <c r="A364" s="10"/>
-      <c r="B364" s="128"/>
+      <c r="B364" s="132"/>
       <c r="D364" s="10"/>
-      <c r="E364" s="133"/>
-      <c r="F364" s="134"/>
-      <c r="G364" s="134"/>
-      <c r="H364" s="134"/>
-      <c r="I364" s="134"/>
-      <c r="J364" s="134"/>
+      <c r="E364" s="138"/>
+      <c r="F364" s="139"/>
+      <c r="G364" s="139"/>
+      <c r="H364" s="139"/>
+      <c r="I364" s="139"/>
+      <c r="J364" s="139"/>
       <c r="K364" s="10"/>
       <c r="L364" s="10"/>
       <c r="M364" s="10"/>
-      <c r="N364" s="138"/>
+      <c r="N364" s="143"/>
     </row>
     <row r="365" spans="1:14">
       <c r="A365" s="10"/>
-      <c r="B365" s="128"/>
+      <c r="B365" s="132"/>
       <c r="D365" s="10"/>
-      <c r="E365" s="133"/>
-      <c r="F365" s="134"/>
-      <c r="G365" s="134"/>
-      <c r="H365" s="134"/>
-      <c r="I365" s="134"/>
-      <c r="J365" s="134"/>
+      <c r="E365" s="138"/>
+      <c r="F365" s="139"/>
+      <c r="G365" s="139"/>
+      <c r="H365" s="139"/>
+      <c r="I365" s="139"/>
+      <c r="J365" s="139"/>
       <c r="K365" s="10"/>
       <c r="L365" s="10"/>
       <c r="M365" s="10"/>
-      <c r="N365" s="138"/>
+      <c r="N365" s="143"/>
     </row>
     <row r="366" spans="1:14">
       <c r="A366" s="10"/>
-      <c r="B366" s="128"/>
+      <c r="B366" s="132"/>
       <c r="D366" s="10"/>
-      <c r="E366" s="133"/>
-      <c r="F366" s="134"/>
-      <c r="G366" s="134"/>
-      <c r="H366" s="134"/>
-      <c r="I366" s="134"/>
-      <c r="J366" s="134"/>
+      <c r="E366" s="138"/>
+      <c r="F366" s="139"/>
+      <c r="G366" s="139"/>
+      <c r="H366" s="139"/>
+      <c r="I366" s="139"/>
+      <c r="J366" s="139"/>
       <c r="K366" s="10"/>
       <c r="L366" s="10"/>
       <c r="M366" s="10"/>
-      <c r="N366" s="138"/>
+      <c r="N366" s="143"/>
     </row>
     <row r="367" spans="1:14">
       <c r="A367" s="10"/>
-      <c r="B367" s="128"/>
+      <c r="B367" s="132"/>
       <c r="D367" s="10"/>
-      <c r="E367" s="133"/>
-      <c r="F367" s="134"/>
-      <c r="G367" s="134"/>
-      <c r="H367" s="134"/>
-      <c r="I367" s="134"/>
-      <c r="J367" s="134"/>
+      <c r="E367" s="138"/>
+      <c r="F367" s="139"/>
+      <c r="G367" s="139"/>
+      <c r="H367" s="139"/>
+      <c r="I367" s="139"/>
+      <c r="J367" s="139"/>
       <c r="K367" s="10"/>
       <c r="L367" s="10"/>
       <c r="M367" s="10"/>
-      <c r="N367" s="138"/>
+      <c r="N367" s="143"/>
     </row>
     <row r="368" spans="1:14">
       <c r="A368" s="10"/>
-      <c r="B368" s="128"/>
+      <c r="B368" s="132"/>
       <c r="D368" s="10"/>
-      <c r="E368" s="133"/>
-      <c r="F368" s="134"/>
-      <c r="G368" s="134"/>
-      <c r="H368" s="134"/>
-      <c r="I368" s="134"/>
-      <c r="J368" s="134"/>
+      <c r="E368" s="138"/>
+      <c r="F368" s="139"/>
+      <c r="G368" s="139"/>
+      <c r="H368" s="139"/>
+      <c r="I368" s="139"/>
+      <c r="J368" s="139"/>
       <c r="K368" s="10"/>
       <c r="L368" s="10"/>
       <c r="M368" s="10"/>
-      <c r="N368" s="138"/>
+      <c r="N368" s="143"/>
     </row>
     <row r="369" spans="1:14">
       <c r="A369" s="10"/>
-      <c r="B369" s="128"/>
+      <c r="B369" s="132"/>
       <c r="D369" s="10"/>
-      <c r="E369" s="133"/>
-      <c r="F369" s="134"/>
-      <c r="G369" s="134"/>
-      <c r="H369" s="134"/>
-      <c r="I369" s="134"/>
-      <c r="J369" s="134"/>
+      <c r="E369" s="138"/>
+      <c r="F369" s="139"/>
+      <c r="G369" s="139"/>
+      <c r="H369" s="139"/>
+      <c r="I369" s="139"/>
+      <c r="J369" s="139"/>
       <c r="K369" s="10"/>
       <c r="L369" s="10"/>
       <c r="M369" s="10"/>
-      <c r="N369" s="138"/>
+      <c r="N369" s="143"/>
     </row>
     <row r="370" spans="1:14">
       <c r="A370" s="10"/>
-      <c r="B370" s="128"/>
+      <c r="B370" s="132"/>
       <c r="D370" s="10"/>
-      <c r="E370" s="133"/>
-      <c r="F370" s="134"/>
-      <c r="G370" s="134"/>
-      <c r="H370" s="134"/>
-      <c r="I370" s="134"/>
-      <c r="J370" s="134"/>
+      <c r="E370" s="138"/>
+      <c r="F370" s="139"/>
+      <c r="G370" s="139"/>
+      <c r="H370" s="139"/>
+      <c r="I370" s="139"/>
+      <c r="J370" s="139"/>
       <c r="K370" s="10"/>
       <c r="L370" s="10"/>
       <c r="M370" s="10"/>
-      <c r="N370" s="138"/>
+      <c r="N370" s="143"/>
     </row>
     <row r="371" spans="1:14">
       <c r="A371" s="10"/>
-      <c r="B371" s="128"/>
+      <c r="B371" s="132"/>
       <c r="D371" s="10"/>
-      <c r="E371" s="133"/>
-      <c r="F371" s="134"/>
-      <c r="G371" s="134"/>
-      <c r="H371" s="134"/>
-      <c r="I371" s="134"/>
-      <c r="J371" s="134"/>
+      <c r="E371" s="138"/>
+      <c r="F371" s="139"/>
+      <c r="G371" s="139"/>
+      <c r="H371" s="139"/>
+      <c r="I371" s="139"/>
+      <c r="J371" s="139"/>
       <c r="K371" s="10"/>
       <c r="L371" s="10"/>
       <c r="M371" s="10"/>
-      <c r="N371" s="138"/>
+      <c r="N371" s="143"/>
     </row>
     <row r="372" spans="1:14">
       <c r="A372" s="10"/>
-      <c r="B372" s="128"/>
+      <c r="B372" s="132"/>
       <c r="D372" s="10"/>
-      <c r="E372" s="133"/>
-      <c r="F372" s="134"/>
-      <c r="G372" s="134"/>
-      <c r="H372" s="134"/>
-      <c r="I372" s="134"/>
-      <c r="J372" s="134"/>
+      <c r="E372" s="138"/>
+      <c r="F372" s="139"/>
+      <c r="G372" s="139"/>
+      <c r="H372" s="139"/>
+      <c r="I372" s="139"/>
+      <c r="J372" s="139"/>
       <c r="K372" s="10"/>
       <c r="L372" s="10"/>
       <c r="M372" s="10"/>
-      <c r="N372" s="138"/>
+      <c r="N372" s="143"/>
     </row>
     <row r="373" spans="1:14">
       <c r="A373" s="10"/>
-      <c r="B373" s="128"/>
+      <c r="B373" s="132"/>
       <c r="D373" s="10"/>
-      <c r="E373" s="133"/>
-      <c r="F373" s="134"/>
-      <c r="G373" s="134"/>
-      <c r="H373" s="134"/>
-      <c r="I373" s="134"/>
-      <c r="J373" s="134"/>
+      <c r="E373" s="138"/>
+      <c r="F373" s="139"/>
+      <c r="G373" s="139"/>
+      <c r="H373" s="139"/>
+      <c r="I373" s="139"/>
+      <c r="J373" s="139"/>
       <c r="K373" s="10"/>
       <c r="L373" s="10"/>
       <c r="M373" s="10"/>
-      <c r="N373" s="138"/>
+      <c r="N373" s="143"/>
     </row>
     <row r="374" spans="1:14">
       <c r="A374" s="10"/>
-      <c r="B374" s="128"/>
+      <c r="B374" s="132"/>
       <c r="D374" s="10"/>
-      <c r="E374" s="133"/>
-      <c r="F374" s="134"/>
-      <c r="G374" s="134"/>
-      <c r="H374" s="134"/>
-      <c r="I374" s="134"/>
-      <c r="J374" s="134"/>
+      <c r="E374" s="138"/>
+      <c r="F374" s="139"/>
+      <c r="G374" s="139"/>
+      <c r="H374" s="139"/>
+      <c r="I374" s="139"/>
+      <c r="J374" s="139"/>
       <c r="K374" s="10"/>
       <c r="L374" s="10"/>
       <c r="M374" s="10"/>
-      <c r="N374" s="138"/>
+      <c r="N374" s="143"/>
     </row>
     <row r="375" spans="1:14">
       <c r="A375" s="10"/>
-      <c r="B375" s="128"/>
+      <c r="B375" s="132"/>
       <c r="D375" s="10"/>
-      <c r="E375" s="133"/>
-      <c r="F375" s="134"/>
-      <c r="G375" s="134"/>
-      <c r="H375" s="134"/>
-      <c r="I375" s="134"/>
-      <c r="J375" s="134"/>
+      <c r="E375" s="138"/>
+      <c r="F375" s="139"/>
+      <c r="G375" s="139"/>
+      <c r="H375" s="139"/>
+      <c r="I375" s="139"/>
+      <c r="J375" s="139"/>
       <c r="K375" s="10"/>
       <c r="L375" s="10"/>
       <c r="M375" s="10"/>
-      <c r="N375" s="138"/>
+      <c r="N375" s="143"/>
     </row>
     <row r="376" spans="1:14">
       <c r="A376" s="10"/>
-      <c r="B376" s="128"/>
+      <c r="B376" s="132"/>
       <c r="D376" s="10"/>
-      <c r="E376" s="133"/>
-      <c r="F376" s="134"/>
-      <c r="G376" s="134"/>
-      <c r="H376" s="134"/>
-      <c r="I376" s="134"/>
-      <c r="J376" s="134"/>
+      <c r="E376" s="138"/>
+      <c r="F376" s="139"/>
+      <c r="G376" s="139"/>
+      <c r="H376" s="139"/>
+      <c r="I376" s="139"/>
+      <c r="J376" s="139"/>
       <c r="K376" s="10"/>
       <c r="L376" s="10"/>
       <c r="M376" s="10"/>
-      <c r="N376" s="138"/>
+      <c r="N376" s="143"/>
     </row>
     <row r="377" spans="1:14">
       <c r="A377" s="10"/>
-      <c r="B377" s="128"/>
+      <c r="B377" s="132"/>
       <c r="D377" s="10"/>
-      <c r="E377" s="133"/>
-      <c r="F377" s="134"/>
-      <c r="G377" s="134"/>
-      <c r="H377" s="134"/>
-      <c r="I377" s="134"/>
-      <c r="J377" s="134"/>
+      <c r="E377" s="138"/>
+      <c r="F377" s="139"/>
+      <c r="G377" s="139"/>
+      <c r="H377" s="139"/>
+      <c r="I377" s="139"/>
+      <c r="J377" s="139"/>
       <c r="K377" s="10"/>
       <c r="L377" s="10"/>
       <c r="M377" s="10"/>
-      <c r="N377" s="138"/>
+      <c r="N377" s="143"/>
     </row>
     <row r="378" spans="1:14">
       <c r="A378" s="10"/>
-      <c r="B378" s="128"/>
+      <c r="B378" s="132"/>
       <c r="D378" s="10"/>
-      <c r="E378" s="133"/>
-      <c r="F378" s="134"/>
-      <c r="G378" s="134"/>
-      <c r="H378" s="134"/>
-      <c r="I378" s="134"/>
-      <c r="J378" s="134"/>
+      <c r="E378" s="138"/>
+      <c r="F378" s="139"/>
+      <c r="G378" s="139"/>
+      <c r="H378" s="139"/>
+      <c r="I378" s="139"/>
+      <c r="J378" s="139"/>
       <c r="K378" s="10"/>
       <c r="L378" s="10"/>
       <c r="M378" s="10"/>
-      <c r="N378" s="138"/>
+      <c r="N378" s="143"/>
     </row>
     <row r="379" spans="1:14">
       <c r="A379" s="10"/>
-      <c r="B379" s="128"/>
+      <c r="B379" s="132"/>
       <c r="D379" s="10"/>
-      <c r="E379" s="133"/>
-      <c r="F379" s="134"/>
-      <c r="G379" s="134"/>
-      <c r="H379" s="134"/>
-      <c r="I379" s="134"/>
-      <c r="J379" s="134"/>
+      <c r="E379" s="138"/>
+      <c r="F379" s="139"/>
+      <c r="G379" s="139"/>
+      <c r="H379" s="139"/>
+      <c r="I379" s="139"/>
+      <c r="J379" s="139"/>
       <c r="K379" s="10"/>
       <c r="L379" s="10"/>
       <c r="M379" s="10"/>
-      <c r="N379" s="138"/>
+      <c r="N379" s="143"/>
     </row>
     <row r="380" spans="1:14">
       <c r="A380" s="10"/>
-      <c r="B380" s="128"/>
+      <c r="B380" s="132"/>
       <c r="D380" s="10"/>
-      <c r="E380" s="133"/>
-      <c r="F380" s="134"/>
-      <c r="G380" s="134"/>
-      <c r="H380" s="134"/>
-      <c r="I380" s="134"/>
-      <c r="J380" s="134"/>
+      <c r="E380" s="138"/>
+      <c r="F380" s="139"/>
+      <c r="G380" s="139"/>
+      <c r="H380" s="139"/>
+      <c r="I380" s="139"/>
+      <c r="J380" s="139"/>
       <c r="K380" s="10"/>
       <c r="L380" s="10"/>
       <c r="M380" s="10"/>
-      <c r="N380" s="138"/>
+      <c r="N380" s="143"/>
     </row>
     <row r="381" spans="1:14">
       <c r="A381" s="10"/>
-      <c r="B381" s="128"/>
+      <c r="B381" s="132"/>
       <c r="D381" s="10"/>
-      <c r="E381" s="133"/>
-      <c r="F381" s="134"/>
-      <c r="G381" s="134"/>
-      <c r="H381" s="134"/>
-      <c r="I381" s="134"/>
-      <c r="J381" s="134"/>
+      <c r="E381" s="138"/>
+      <c r="F381" s="139"/>
+      <c r="G381" s="139"/>
+      <c r="H381" s="139"/>
+      <c r="I381" s="139"/>
+      <c r="J381" s="139"/>
       <c r="K381" s="10"/>
       <c r="L381" s="10"/>
       <c r="M381" s="10"/>
-      <c r="N381" s="138"/>
+      <c r="N381" s="143"/>
     </row>
     <row r="382" spans="1:14">
       <c r="A382" s="10"/>
-      <c r="B382" s="128"/>
+      <c r="B382" s="132"/>
       <c r="D382" s="10"/>
-      <c r="E382" s="133"/>
-      <c r="F382" s="134"/>
-      <c r="G382" s="134"/>
-      <c r="H382" s="134"/>
-      <c r="I382" s="134"/>
-      <c r="J382" s="134"/>
+      <c r="E382" s="138"/>
+      <c r="F382" s="139"/>
+      <c r="G382" s="139"/>
+      <c r="H382" s="139"/>
+      <c r="I382" s="139"/>
+      <c r="J382" s="139"/>
       <c r="K382" s="10"/>
       <c r="L382" s="10"/>
       <c r="M382" s="10"/>
-      <c r="N382" s="138"/>
+      <c r="N382" s="143"/>
     </row>
     <row r="383" spans="1:14">
       <c r="A383" s="10"/>
-      <c r="B383" s="128"/>
+      <c r="B383" s="132"/>
       <c r="D383" s="10"/>
-      <c r="E383" s="133"/>
-      <c r="F383" s="134"/>
-      <c r="G383" s="134"/>
-      <c r="H383" s="134"/>
-      <c r="I383" s="134"/>
-      <c r="J383" s="134"/>
+      <c r="E383" s="138"/>
+      <c r="F383" s="139"/>
+      <c r="G383" s="139"/>
+      <c r="H383" s="139"/>
+      <c r="I383" s="139"/>
+      <c r="J383" s="139"/>
       <c r="K383" s="10"/>
       <c r="L383" s="10"/>
       <c r="M383" s="10"/>
-      <c r="N383" s="138"/>
+      <c r="N383" s="143"/>
     </row>
     <row r="384" spans="1:14">
       <c r="A384" s="10"/>
-      <c r="B384" s="128"/>
+      <c r="B384" s="132"/>
       <c r="D384" s="10"/>
-      <c r="E384" s="133"/>
-      <c r="F384" s="134"/>
-      <c r="G384" s="134"/>
-      <c r="H384" s="134"/>
-      <c r="I384" s="134"/>
-      <c r="J384" s="134"/>
+      <c r="E384" s="138"/>
+      <c r="F384" s="139"/>
+      <c r="G384" s="139"/>
+      <c r="H384" s="139"/>
+      <c r="I384" s="139"/>
+      <c r="J384" s="139"/>
       <c r="K384" s="10"/>
       <c r="L384" s="10"/>
       <c r="M384" s="10"/>
-      <c r="N384" s="138"/>
+      <c r="N384" s="143"/>
     </row>
     <row r="385" spans="1:14">
       <c r="A385" s="10"/>
-      <c r="B385" s="128"/>
+      <c r="B385" s="132"/>
       <c r="D385" s="10"/>
-      <c r="E385" s="133"/>
-      <c r="F385" s="134"/>
-      <c r="G385" s="134"/>
-      <c r="H385" s="134"/>
-      <c r="I385" s="134"/>
-      <c r="J385" s="134"/>
+      <c r="E385" s="138"/>
+      <c r="F385" s="139"/>
+      <c r="G385" s="139"/>
+      <c r="H385" s="139"/>
+      <c r="I385" s="139"/>
+      <c r="J385" s="139"/>
       <c r="K385" s="10"/>
       <c r="L385" s="10"/>
       <c r="M385" s="10"/>
-      <c r="N385" s="138"/>
+      <c r="N385" s="143"/>
     </row>
     <row r="386" spans="1:14">
       <c r="A386" s="10"/>
-      <c r="B386" s="128"/>
+      <c r="B386" s="132"/>
       <c r="D386" s="10"/>
-      <c r="E386" s="133"/>
-      <c r="F386" s="134"/>
-      <c r="G386" s="134"/>
-      <c r="H386" s="134"/>
-      <c r="I386" s="134"/>
-      <c r="J386" s="134"/>
+      <c r="E386" s="138"/>
+      <c r="F386" s="139"/>
+      <c r="G386" s="139"/>
+      <c r="H386" s="139"/>
+      <c r="I386" s="139"/>
+      <c r="J386" s="139"/>
       <c r="K386" s="10"/>
       <c r="L386" s="10"/>
       <c r="M386" s="10"/>
-      <c r="N386" s="138"/>
+      <c r="N386" s="143"/>
     </row>
     <row r="387" spans="1:14">
       <c r="A387" s="10"/>
-      <c r="B387" s="128"/>
+      <c r="B387" s="132"/>
       <c r="D387" s="10"/>
-      <c r="E387" s="133"/>
-      <c r="F387" s="134"/>
-      <c r="G387" s="134"/>
-      <c r="H387" s="134"/>
-      <c r="I387" s="134"/>
-      <c r="J387" s="134"/>
+      <c r="E387" s="138"/>
+      <c r="F387" s="139"/>
+      <c r="G387" s="139"/>
+      <c r="H387" s="139"/>
+      <c r="I387" s="139"/>
+      <c r="J387" s="139"/>
       <c r="K387" s="10"/>
       <c r="L387" s="10"/>
       <c r="M387" s="10"/>
-      <c r="N387" s="138"/>
+      <c r="N387" s="143"/>
     </row>
     <row r="388" spans="1:14">
       <c r="A388" s="10"/>
-      <c r="B388" s="128"/>
+      <c r="B388" s="132"/>
       <c r="D388" s="10"/>
-      <c r="E388" s="133"/>
-      <c r="F388" s="134"/>
-      <c r="G388" s="134"/>
-      <c r="H388" s="134"/>
-      <c r="I388" s="134"/>
-      <c r="J388" s="134"/>
+      <c r="E388" s="138"/>
+      <c r="F388" s="139"/>
+      <c r="G388" s="139"/>
+      <c r="H388" s="139"/>
+      <c r="I388" s="139"/>
+      <c r="J388" s="139"/>
       <c r="K388" s="10"/>
       <c r="L388" s="10"/>
       <c r="M388" s="10"/>
-      <c r="N388" s="138"/>
+      <c r="N388" s="143"/>
     </row>
     <row r="389" spans="1:14">
       <c r="A389" s="10"/>
-      <c r="B389" s="128"/>
+      <c r="B389" s="132"/>
       <c r="D389" s="10"/>
-      <c r="E389" s="133"/>
-      <c r="F389" s="134"/>
-      <c r="G389" s="134"/>
-      <c r="H389" s="134"/>
-      <c r="I389" s="134"/>
-      <c r="J389" s="134"/>
+      <c r="E389" s="138"/>
+      <c r="F389" s="139"/>
+      <c r="G389" s="139"/>
+      <c r="H389" s="139"/>
+      <c r="I389" s="139"/>
+      <c r="J389" s="139"/>
       <c r="K389" s="10"/>
       <c r="L389" s="10"/>
       <c r="M389" s="10"/>
-      <c r="N389" s="138"/>
+      <c r="N389" s="143"/>
     </row>
     <row r="390" spans="1:14">
       <c r="A390" s="10"/>
-      <c r="B390" s="128"/>
+      <c r="B390" s="132"/>
       <c r="D390" s="10"/>
-      <c r="E390" s="133"/>
-      <c r="F390" s="134"/>
-      <c r="G390" s="134"/>
-      <c r="H390" s="134"/>
-      <c r="I390" s="134"/>
-      <c r="J390" s="134"/>
+      <c r="E390" s="138"/>
+      <c r="F390" s="139"/>
+      <c r="G390" s="139"/>
+      <c r="H390" s="139"/>
+      <c r="I390" s="139"/>
+      <c r="J390" s="139"/>
       <c r="K390" s="10"/>
       <c r="L390" s="10"/>
       <c r="M390" s="10"/>
-      <c r="N390" s="138"/>
+      <c r="N390" s="143"/>
     </row>
     <row r="391" spans="1:14">
       <c r="A391" s="10"/>
-      <c r="B391" s="128"/>
+      <c r="B391" s="132"/>
       <c r="D391" s="10"/>
-      <c r="E391" s="133"/>
-      <c r="F391" s="134"/>
-      <c r="G391" s="134"/>
-      <c r="H391" s="134"/>
-      <c r="I391" s="134"/>
-      <c r="J391" s="134"/>
+      <c r="E391" s="138"/>
+      <c r="F391" s="139"/>
+      <c r="G391" s="139"/>
+      <c r="H391" s="139"/>
+      <c r="I391" s="139"/>
+      <c r="J391" s="139"/>
       <c r="K391" s="10"/>
       <c r="L391" s="10"/>
       <c r="M391" s="10"/>
-      <c r="N391" s="138"/>
+      <c r="N391" s="143"/>
     </row>
     <row r="392" spans="1:14">
       <c r="A392" s="10"/>
-      <c r="B392" s="128"/>
+      <c r="B392" s="132"/>
       <c r="D392" s="10"/>
-      <c r="E392" s="133"/>
-      <c r="F392" s="134"/>
-      <c r="G392" s="134"/>
-      <c r="H392" s="134"/>
-      <c r="I392" s="134"/>
-      <c r="J392" s="134"/>
+      <c r="E392" s="138"/>
+      <c r="F392" s="139"/>
+      <c r="G392" s="139"/>
+      <c r="H392" s="139"/>
+      <c r="I392" s="139"/>
+      <c r="J392" s="139"/>
       <c r="K392" s="10"/>
       <c r="L392" s="10"/>
       <c r="M392" s="10"/>
-      <c r="N392" s="138"/>
+      <c r="N392" s="143"/>
     </row>
     <row r="393" spans="1:14">
       <c r="A393" s="10"/>
-      <c r="B393" s="128"/>
+      <c r="B393" s="132"/>
       <c r="D393" s="10"/>
-      <c r="E393" s="133"/>
-      <c r="F393" s="134"/>
-      <c r="G393" s="134"/>
-      <c r="H393" s="134"/>
-      <c r="I393" s="134"/>
-      <c r="J393" s="134"/>
+      <c r="E393" s="138"/>
+      <c r="F393" s="139"/>
+      <c r="G393" s="139"/>
+      <c r="H393" s="139"/>
+      <c r="I393" s="139"/>
+      <c r="J393" s="139"/>
       <c r="K393" s="10"/>
       <c r="L393" s="10"/>
       <c r="M393" s="10"/>
-      <c r="N393" s="138"/>
+      <c r="N393" s="143"/>
     </row>
     <row r="394" spans="1:14">
       <c r="A394" s="10"/>
-      <c r="B394" s="128"/>
+      <c r="B394" s="132"/>
       <c r="D394" s="10"/>
-      <c r="E394" s="133"/>
-      <c r="F394" s="134"/>
-      <c r="G394" s="134"/>
-      <c r="H394" s="134"/>
-      <c r="I394" s="134"/>
-      <c r="J394" s="134"/>
+      <c r="E394" s="138"/>
+      <c r="F394" s="139"/>
+      <c r="G394" s="139"/>
+      <c r="H394" s="139"/>
+      <c r="I394" s="139"/>
+      <c r="J394" s="139"/>
       <c r="K394" s="10"/>
       <c r="L394" s="10"/>
       <c r="M394" s="10"/>
-      <c r="N394" s="138"/>
+      <c r="N394" s="143"/>
     </row>
     <row r="395" spans="1:14">
       <c r="A395" s="10"/>
-      <c r="B395" s="128"/>
+      <c r="B395" s="132"/>
       <c r="D395" s="10"/>
-      <c r="E395" s="133"/>
-      <c r="F395" s="134"/>
-      <c r="G395" s="134"/>
-      <c r="H395" s="134"/>
-      <c r="I395" s="134"/>
-      <c r="J395" s="134"/>
+      <c r="E395" s="138"/>
+      <c r="F395" s="139"/>
+      <c r="G395" s="139"/>
+      <c r="H395" s="139"/>
+      <c r="I395" s="139"/>
+      <c r="J395" s="139"/>
       <c r="K395" s="10"/>
       <c r="L395" s="10"/>
       <c r="M395" s="10"/>
-      <c r="N395" s="138"/>
+      <c r="N395" s="143"/>
     </row>
     <row r="396" spans="1:14">
       <c r="A396" s="10"/>
-      <c r="B396" s="128"/>
+      <c r="B396" s="132"/>
       <c r="D396" s="10"/>
-      <c r="E396" s="133"/>
-      <c r="F396" s="134"/>
-      <c r="G396" s="134"/>
-      <c r="H396" s="134"/>
-      <c r="I396" s="134"/>
-      <c r="J396" s="134"/>
+      <c r="E396" s="138"/>
+      <c r="F396" s="139"/>
+      <c r="G396" s="139"/>
+      <c r="H396" s="139"/>
+      <c r="I396" s="139"/>
+      <c r="J396" s="139"/>
       <c r="K396" s="10"/>
       <c r="L396" s="10"/>
       <c r="M396" s="10"/>
-      <c r="N396" s="138"/>
+      <c r="N396" s="143"/>
     </row>
     <row r="397" spans="1:14">
       <c r="A397" s="10"/>
-      <c r="B397" s="128"/>
+      <c r="B397" s="132"/>
       <c r="D397" s="10"/>
-      <c r="E397" s="133"/>
-      <c r="F397" s="134"/>
-      <c r="G397" s="134"/>
-      <c r="H397" s="134"/>
-      <c r="I397" s="134"/>
-      <c r="J397" s="134"/>
+      <c r="E397" s="138"/>
+      <c r="F397" s="139"/>
+      <c r="G397" s="139"/>
+      <c r="H397" s="139"/>
+      <c r="I397" s="139"/>
+      <c r="J397" s="139"/>
       <c r="K397" s="10"/>
       <c r="L397" s="10"/>
       <c r="M397" s="10"/>
-      <c r="N397" s="138"/>
+      <c r="N397" s="143"/>
     </row>
     <row r="398" spans="1:14">
       <c r="A398" s="10"/>
-      <c r="B398" s="128"/>
+      <c r="B398" s="132"/>
       <c r="D398" s="10"/>
-      <c r="E398" s="133"/>
-      <c r="F398" s="134"/>
-      <c r="G398" s="134"/>
-      <c r="H398" s="134"/>
-      <c r="I398" s="134"/>
-      <c r="J398" s="134"/>
+      <c r="E398" s="138"/>
+      <c r="F398" s="139"/>
+      <c r="G398" s="139"/>
+      <c r="H398" s="139"/>
+      <c r="I398" s="139"/>
+      <c r="J398" s="139"/>
       <c r="K398" s="10"/>
       <c r="L398" s="10"/>
       <c r="M398" s="10"/>
-      <c r="N398" s="138"/>
+      <c r="N398" s="143"/>
     </row>
     <row r="399" spans="1:14">
       <c r="A399" s="10"/>
-      <c r="B399" s="128"/>
+      <c r="B399" s="132"/>
       <c r="D399" s="10"/>
-      <c r="E399" s="133"/>
-      <c r="F399" s="134"/>
-      <c r="G399" s="134"/>
-      <c r="H399" s="134"/>
-      <c r="I399" s="134"/>
-      <c r="J399" s="134"/>
+      <c r="E399" s="138"/>
+      <c r="F399" s="139"/>
+      <c r="G399" s="139"/>
+      <c r="H399" s="139"/>
+      <c r="I399" s="139"/>
+      <c r="J399" s="139"/>
       <c r="K399" s="10"/>
       <c r="L399" s="10"/>
       <c r="M399" s="10"/>
-      <c r="N399" s="138"/>
+      <c r="N399" s="143"/>
     </row>
     <row r="400" spans="1:14">
       <c r="A400" s="10"/>
-      <c r="B400" s="128"/>
+      <c r="B400" s="132"/>
       <c r="D400" s="10"/>
-      <c r="E400" s="133"/>
-      <c r="F400" s="134"/>
-      <c r="G400" s="134"/>
-      <c r="H400" s="134"/>
-      <c r="I400" s="134"/>
-      <c r="J400" s="134"/>
+      <c r="E400" s="138"/>
+      <c r="F400" s="139"/>
+      <c r="G400" s="139"/>
+      <c r="H400" s="139"/>
+      <c r="I400" s="139"/>
+      <c r="J400" s="139"/>
       <c r="K400" s="10"/>
       <c r="L400" s="10"/>
       <c r="M400" s="10"/>
-      <c r="N400" s="138"/>
+      <c r="N400" s="143"/>
     </row>
     <row r="401" spans="1:14">
       <c r="A401" s="10"/>
-      <c r="B401" s="128"/>
+      <c r="B401" s="132"/>
       <c r="D401" s="10"/>
-      <c r="E401" s="133"/>
-      <c r="F401" s="134"/>
-      <c r="G401" s="134"/>
-      <c r="H401" s="134"/>
-      <c r="I401" s="134"/>
-      <c r="J401" s="134"/>
+      <c r="E401" s="138"/>
+      <c r="F401" s="139"/>
+      <c r="G401" s="139"/>
+      <c r="H401" s="139"/>
+      <c r="I401" s="139"/>
+      <c r="J401" s="139"/>
       <c r="K401" s="10"/>
       <c r="L401" s="10"/>
       <c r="M401" s="10"/>
-      <c r="N401" s="138"/>
+      <c r="N401" s="143"/>
     </row>
     <row r="402" spans="1:14">
       <c r="A402" s="10"/>
-      <c r="B402" s="128"/>
+      <c r="B402" s="132"/>
       <c r="D402" s="10"/>
-      <c r="E402" s="133"/>
-      <c r="F402" s="134"/>
-      <c r="G402" s="134"/>
-      <c r="H402" s="134"/>
-      <c r="I402" s="134"/>
-      <c r="J402" s="134"/>
+      <c r="E402" s="138"/>
+      <c r="F402" s="139"/>
+      <c r="G402" s="139"/>
+      <c r="H402" s="139"/>
+      <c r="I402" s="139"/>
+      <c r="J402" s="139"/>
       <c r="K402" s="10"/>
       <c r="L402" s="10"/>
       <c r="M402" s="10"/>
-      <c r="N402" s="138"/>
+      <c r="N402" s="143"/>
     </row>
     <row r="403" spans="1:14">
       <c r="A403" s="10"/>
-      <c r="B403" s="128"/>
+      <c r="B403" s="132"/>
       <c r="D403" s="10"/>
-      <c r="E403" s="133"/>
-      <c r="F403" s="134"/>
-      <c r="G403" s="134"/>
-      <c r="H403" s="134"/>
-      <c r="I403" s="134"/>
-      <c r="J403" s="134"/>
+      <c r="E403" s="138"/>
+      <c r="F403" s="139"/>
+      <c r="G403" s="139"/>
+      <c r="H403" s="139"/>
+      <c r="I403" s="139"/>
+      <c r="J403" s="139"/>
       <c r="K403" s="10"/>
       <c r="L403" s="10"/>
       <c r="M403" s="10"/>
-      <c r="N403" s="138"/>
+      <c r="N403" s="143"/>
     </row>
     <row r="404" spans="1:14">
       <c r="A404" s="10"/>
-      <c r="B404" s="128"/>
+      <c r="B404" s="132"/>
       <c r="D404" s="10"/>
-      <c r="E404" s="133"/>
-      <c r="F404" s="134"/>
-      <c r="G404" s="134"/>
-      <c r="H404" s="134"/>
-      <c r="I404" s="134"/>
-      <c r="J404" s="134"/>
+      <c r="E404" s="138"/>
+      <c r="F404" s="139"/>
+      <c r="G404" s="139"/>
+      <c r="H404" s="139"/>
+      <c r="I404" s="139"/>
+      <c r="J404" s="139"/>
       <c r="K404" s="10"/>
       <c r="L404" s="10"/>
       <c r="M404" s="10"/>
-      <c r="N404" s="138"/>
+      <c r="N404" s="143"/>
     </row>
     <row r="405" spans="1:14">
       <c r="A405" s="10"/>
-      <c r="B405" s="128"/>
+      <c r="B405" s="132"/>
       <c r="D405" s="10"/>
-      <c r="E405" s="133"/>
-      <c r="F405" s="134"/>
-      <c r="G405" s="134"/>
-      <c r="H405" s="134"/>
-      <c r="I405" s="134"/>
-      <c r="J405" s="134"/>
+      <c r="E405" s="138"/>
+      <c r="F405" s="139"/>
+      <c r="G405" s="139"/>
+      <c r="H405" s="139"/>
+      <c r="I405" s="139"/>
+      <c r="J405" s="139"/>
       <c r="K405" s="10"/>
       <c r="L405" s="10"/>
       <c r="M405" s="10"/>
-      <c r="N405" s="138"/>
+      <c r="N405" s="143"/>
     </row>
     <row r="406" spans="1:14">
       <c r="A406" s="10"/>
-      <c r="B406" s="128"/>
+      <c r="B406" s="132"/>
       <c r="D406" s="10"/>
-      <c r="E406" s="133"/>
-      <c r="F406" s="134"/>
-      <c r="G406" s="134"/>
-      <c r="H406" s="134"/>
-      <c r="I406" s="134"/>
-      <c r="J406" s="134"/>
+      <c r="E406" s="138"/>
+      <c r="F406" s="139"/>
+      <c r="G406" s="139"/>
+      <c r="H406" s="139"/>
+      <c r="I406" s="139"/>
+      <c r="J406" s="139"/>
       <c r="K406" s="10"/>
       <c r="L406" s="10"/>
       <c r="M406" s="10"/>
-      <c r="N406" s="138"/>
+      <c r="N406" s="143"/>
     </row>
     <row r="407" spans="1:14">
       <c r="A407" s="10"/>
-      <c r="B407" s="128"/>
+      <c r="B407" s="132"/>
       <c r="D407" s="10"/>
-      <c r="E407" s="133"/>
-      <c r="F407" s="134"/>
-      <c r="G407" s="134"/>
-      <c r="H407" s="134"/>
-      <c r="I407" s="134"/>
-      <c r="J407" s="134"/>
+      <c r="E407" s="138"/>
+      <c r="F407" s="139"/>
+      <c r="G407" s="139"/>
+      <c r="H407" s="139"/>
+      <c r="I407" s="139"/>
+      <c r="J407" s="139"/>
       <c r="K407" s="10"/>
       <c r="L407" s="10"/>
       <c r="M407" s="10"/>
-      <c r="N407" s="138"/>
+      <c r="N407" s="143"/>
     </row>
     <row r="408" spans="1:14">
       <c r="A408" s="10"/>
-      <c r="B408" s="128"/>
+      <c r="B408" s="132"/>
       <c r="D408" s="10"/>
-      <c r="E408" s="133"/>
-      <c r="F408" s="134"/>
-      <c r="G408" s="134"/>
-      <c r="H408" s="134"/>
-      <c r="I408" s="134"/>
-      <c r="J408" s="134"/>
+      <c r="E408" s="138"/>
+      <c r="F408" s="139"/>
+      <c r="G408" s="139"/>
+      <c r="H408" s="139"/>
+      <c r="I408" s="139"/>
+      <c r="J408" s="139"/>
       <c r="K408" s="10"/>
       <c r="L408" s="10"/>
       <c r="M408" s="10"/>
-      <c r="N408" s="138"/>
+      <c r="N408" s="143"/>
     </row>
     <row r="409" spans="1:14">
       <c r="A409" s="10"/>
-      <c r="B409" s="128"/>
+      <c r="B409" s="132"/>
       <c r="D409" s="10"/>
-      <c r="E409" s="133"/>
-      <c r="F409" s="134"/>
-      <c r="G409" s="134"/>
-      <c r="H409" s="134"/>
-      <c r="I409" s="134"/>
-      <c r="J409" s="134"/>
+      <c r="E409" s="138"/>
+      <c r="F409" s="139"/>
+      <c r="G409" s="139"/>
+      <c r="H409" s="139"/>
+      <c r="I409" s="139"/>
+      <c r="J409" s="139"/>
       <c r="K409" s="10"/>
       <c r="L409" s="10"/>
       <c r="M409" s="10"/>
-      <c r="N409" s="138"/>
+      <c r="N409" s="143"/>
     </row>
     <row r="410" spans="1:14">
       <c r="A410" s="10"/>
-      <c r="B410" s="128"/>
+      <c r="B410" s="132"/>
       <c r="D410" s="10"/>
-      <c r="E410" s="133"/>
-      <c r="F410" s="134"/>
-      <c r="G410" s="134"/>
-      <c r="H410" s="134"/>
-      <c r="I410" s="134"/>
-      <c r="J410" s="134"/>
+      <c r="E410" s="138"/>
+      <c r="F410" s="139"/>
+      <c r="G410" s="139"/>
+      <c r="H410" s="139"/>
+      <c r="I410" s="139"/>
+      <c r="J410" s="139"/>
       <c r="K410" s="10"/>
       <c r="L410" s="10"/>
       <c r="M410" s="10"/>
-      <c r="N410" s="138"/>
+      <c r="N410" s="143"/>
     </row>
     <row r="411" spans="1:14">
       <c r="A411" s="10"/>
-      <c r="B411" s="128"/>
+      <c r="B411" s="132"/>
       <c r="D411" s="10"/>
-      <c r="E411" s="133"/>
-      <c r="F411" s="134"/>
-      <c r="G411" s="134"/>
-      <c r="H411" s="134"/>
-      <c r="I411" s="134"/>
-      <c r="J411" s="134"/>
+      <c r="E411" s="138"/>
+      <c r="F411" s="139"/>
+      <c r="G411" s="139"/>
+      <c r="H411" s="139"/>
+      <c r="I411" s="139"/>
+      <c r="J411" s="139"/>
       <c r="K411" s="10"/>
       <c r="L411" s="10"/>
       <c r="M411" s="10"/>
-      <c r="N411" s="138"/>
+      <c r="N411" s="143"/>
     </row>
     <row r="412" spans="1:14">
       <c r="A412" s="10"/>
-      <c r="B412" s="128"/>
+      <c r="B412" s="132"/>
       <c r="D412" s="10"/>
-      <c r="E412" s="133"/>
-      <c r="F412" s="134"/>
-      <c r="G412" s="134"/>
-      <c r="H412" s="134"/>
-      <c r="I412" s="134"/>
-      <c r="J412" s="134"/>
+      <c r="E412" s="138"/>
+      <c r="F412" s="139"/>
+      <c r="G412" s="139"/>
+      <c r="H412" s="139"/>
+      <c r="I412" s="139"/>
+      <c r="J412" s="139"/>
       <c r="K412" s="10"/>
       <c r="L412" s="10"/>
       <c r="M412" s="10"/>
-      <c r="N412" s="138"/>
+      <c r="N412" s="143"/>
     </row>
     <row r="413" spans="1:14">
       <c r="A413" s="10"/>
-      <c r="B413" s="128"/>
+      <c r="B413" s="132"/>
       <c r="D413" s="10"/>
-      <c r="E413" s="133"/>
-      <c r="F413" s="134"/>
-      <c r="G413" s="134"/>
-      <c r="H413" s="134"/>
-      <c r="I413" s="134"/>
-      <c r="J413" s="134"/>
+      <c r="E413" s="138"/>
+      <c r="F413" s="139"/>
+      <c r="G413" s="139"/>
+      <c r="H413" s="139"/>
+      <c r="I413" s="139"/>
+      <c r="J413" s="139"/>
       <c r="K413" s="10"/>
       <c r="L413" s="10"/>
       <c r="M413" s="10"/>
-      <c r="N413" s="138"/>
+      <c r="N413" s="143"/>
     </row>
     <row r="414" spans="1:14">
       <c r="A414" s="10"/>
-      <c r="B414" s="128"/>
+      <c r="B414" s="132"/>
       <c r="D414" s="10"/>
-      <c r="E414" s="133"/>
-      <c r="F414" s="134"/>
-      <c r="G414" s="134"/>
-      <c r="H414" s="134"/>
-      <c r="I414" s="134"/>
-      <c r="J414" s="134"/>
+      <c r="E414" s="138"/>
+      <c r="F414" s="139"/>
+      <c r="G414" s="139"/>
+      <c r="H414" s="139"/>
+      <c r="I414" s="139"/>
+      <c r="J414" s="139"/>
       <c r="K414" s="10"/>
       <c r="L414" s="10"/>
       <c r="M414" s="10"/>
-      <c r="N414" s="138"/>
+      <c r="N414" s="143"/>
     </row>
     <row r="415" spans="1:14">
       <c r="A415" s="10"/>
-      <c r="B415" s="128"/>
+      <c r="B415" s="132"/>
       <c r="D415" s="10"/>
-      <c r="E415" s="133"/>
-      <c r="F415" s="134"/>
-      <c r="G415" s="134"/>
-      <c r="H415" s="134"/>
-      <c r="I415" s="134"/>
-      <c r="J415" s="134"/>
+      <c r="E415" s="138"/>
+      <c r="F415" s="139"/>
+      <c r="G415" s="139"/>
+      <c r="H415" s="139"/>
+      <c r="I415" s="139"/>
+      <c r="J415" s="139"/>
       <c r="K415" s="10"/>
       <c r="L415" s="10"/>
       <c r="M415" s="10"/>
-      <c r="N415" s="138"/>
+      <c r="N415" s="143"/>
     </row>
     <row r="416" spans="1:14">
       <c r="A416" s="10"/>
-      <c r="B416" s="128"/>
+      <c r="B416" s="132"/>
       <c r="D416" s="10"/>
-      <c r="E416" s="133"/>
-      <c r="F416" s="134"/>
-      <c r="G416" s="134"/>
-      <c r="H416" s="134"/>
-      <c r="I416" s="134"/>
-      <c r="J416" s="134"/>
+      <c r="E416" s="138"/>
+      <c r="F416" s="139"/>
+      <c r="G416" s="139"/>
+      <c r="H416" s="139"/>
+      <c r="I416" s="139"/>
+      <c r="J416" s="139"/>
       <c r="K416" s="10"/>
       <c r="L416" s="10"/>
       <c r="M416" s="10"/>
-      <c r="N416" s="138"/>
+      <c r="N416" s="143"/>
     </row>
     <row r="417" spans="1:14">
       <c r="A417" s="10"/>
-      <c r="B417" s="128"/>
+      <c r="B417" s="132"/>
       <c r="D417" s="10"/>
-      <c r="E417" s="133"/>
-      <c r="F417" s="134"/>
-      <c r="G417" s="134"/>
-      <c r="H417" s="134"/>
-      <c r="I417" s="134"/>
-      <c r="J417" s="134"/>
+      <c r="E417" s="138"/>
+      <c r="F417" s="139"/>
+      <c r="G417" s="139"/>
+      <c r="H417" s="139"/>
+      <c r="I417" s="139"/>
+      <c r="J417" s="139"/>
       <c r="K417" s="10"/>
       <c r="L417" s="10"/>
       <c r="M417" s="10"/>
-      <c r="N417" s="138"/>
+      <c r="N417" s="143"/>
     </row>
     <row r="418" spans="1:14">
       <c r="A418" s="10"/>
-      <c r="B418" s="128"/>
+      <c r="B418" s="132"/>
       <c r="D418" s="10"/>
-      <c r="E418" s="133"/>
-      <c r="F418" s="134"/>
-      <c r="G418" s="134"/>
-      <c r="H418" s="134"/>
-      <c r="I418" s="134"/>
-      <c r="J418" s="134"/>
+      <c r="E418" s="138"/>
+      <c r="F418" s="139"/>
+      <c r="G418" s="139"/>
+      <c r="H418" s="139"/>
+      <c r="I418" s="139"/>
+      <c r="J418" s="139"/>
       <c r="K418" s="10"/>
       <c r="L418" s="10"/>
       <c r="M418" s="10"/>
-      <c r="N418" s="138"/>
+      <c r="N418" s="143"/>
     </row>
     <row r="419" spans="1:14">
       <c r="A419" s="10"/>
-      <c r="B419" s="128"/>
+      <c r="B419" s="132"/>
       <c r="D419" s="10"/>
-      <c r="E419" s="133"/>
-      <c r="F419" s="134"/>
-      <c r="G419" s="134"/>
-      <c r="H419" s="134"/>
-      <c r="I419" s="134"/>
-      <c r="J419" s="134"/>
+      <c r="E419" s="138"/>
+      <c r="F419" s="139"/>
+      <c r="G419" s="139"/>
+      <c r="H419" s="139"/>
+      <c r="I419" s="139"/>
+      <c r="J419" s="139"/>
       <c r="K419" s="10"/>
       <c r="L419" s="10"/>
       <c r="M419" s="10"/>
-      <c r="N419" s="138"/>
+      <c r="N419" s="143"/>
     </row>
     <row r="420" spans="1:14">
       <c r="A420" s="10"/>
-      <c r="B420" s="128"/>
+      <c r="B420" s="132"/>
       <c r="D420" s="10"/>
-      <c r="E420" s="133"/>
-      <c r="F420" s="134"/>
-      <c r="G420" s="134"/>
-      <c r="H420" s="134"/>
-      <c r="I420" s="134"/>
-      <c r="J420" s="134"/>
+      <c r="E420" s="138"/>
+      <c r="F420" s="139"/>
+      <c r="G420" s="139"/>
+      <c r="H420" s="139"/>
+      <c r="I420" s="139"/>
+      <c r="J420" s="139"/>
       <c r="K420" s="10"/>
       <c r="L420" s="10"/>
       <c r="M420" s="10"/>
-      <c r="N420" s="138"/>
+      <c r="N420" s="143"/>
     </row>
     <row r="421" spans="1:14">
       <c r="A421" s="10"/>
-      <c r="B421" s="128"/>
+      <c r="B421" s="132"/>
       <c r="D421" s="10"/>
-      <c r="E421" s="133"/>
-      <c r="F421" s="134"/>
-      <c r="G421" s="134"/>
-      <c r="H421" s="134"/>
-      <c r="I421" s="134"/>
-      <c r="J421" s="134"/>
+      <c r="E421" s="138"/>
+      <c r="F421" s="139"/>
+      <c r="G421" s="139"/>
+      <c r="H421" s="139"/>
+      <c r="I421" s="139"/>
+      <c r="J421" s="139"/>
       <c r="K421" s="10"/>
       <c r="L421" s="10"/>
       <c r="M421" s="10"/>
-      <c r="N421" s="138"/>
+      <c r="N421" s="143"/>
     </row>
     <row r="422" spans="1:14">
       <c r="A422" s="10"/>
-      <c r="B422" s="128"/>
+      <c r="B422" s="132"/>
       <c r="D422" s="10"/>
-      <c r="E422" s="133"/>
-      <c r="F422" s="134"/>
-      <c r="G422" s="134"/>
-      <c r="H422" s="134"/>
-      <c r="I422" s="134"/>
-      <c r="J422" s="134"/>
+      <c r="E422" s="138"/>
+      <c r="F422" s="139"/>
+      <c r="G422" s="139"/>
+      <c r="H422" s="139"/>
+      <c r="I422" s="139"/>
+      <c r="J422" s="139"/>
       <c r="K422" s="10"/>
       <c r="L422" s="10"/>
       <c r="M422" s="10"/>
-      <c r="N422" s="138"/>
+      <c r="N422" s="143"/>
     </row>
     <row r="423" spans="1:14">
       <c r="A423" s="10"/>
-      <c r="B423" s="128"/>
+      <c r="B423" s="132"/>
       <c r="D423" s="10"/>
-      <c r="E423" s="133"/>
-      <c r="F423" s="134"/>
-      <c r="G423" s="134"/>
-      <c r="H423" s="134"/>
-      <c r="I423" s="134"/>
-      <c r="J423" s="134"/>
+      <c r="E423" s="138"/>
+      <c r="F423" s="139"/>
+      <c r="G423" s="139"/>
+      <c r="H423" s="139"/>
+      <c r="I423" s="139"/>
+      <c r="J423" s="139"/>
       <c r="K423" s="10"/>
       <c r="L423" s="10"/>
       <c r="M423" s="10"/>
-      <c r="N423" s="138"/>
+      <c r="N423" s="143"/>
     </row>
     <row r="424" spans="1:14">
       <c r="A424" s="10"/>
-      <c r="B424" s="128"/>
+      <c r="B424" s="132"/>
       <c r="D424" s="10"/>
-      <c r="E424" s="133"/>
-      <c r="F424" s="134"/>
-      <c r="G424" s="134"/>
-      <c r="H424" s="134"/>
-      <c r="I424" s="134"/>
-      <c r="J424" s="134"/>
+      <c r="E424" s="138"/>
+      <c r="F424" s="139"/>
+      <c r="G424" s="139"/>
+      <c r="H424" s="139"/>
+      <c r="I424" s="139"/>
+      <c r="J424" s="139"/>
       <c r="K424" s="10"/>
       <c r="L424" s="10"/>
       <c r="M424" s="10"/>
-      <c r="N424" s="138"/>
+      <c r="N424" s="143"/>
     </row>
     <row r="425" spans="1:14">
       <c r="A425" s="10"/>
-      <c r="B425" s="128"/>
+      <c r="B425" s="132"/>
       <c r="D425" s="10"/>
-      <c r="E425" s="133"/>
-      <c r="F425" s="134"/>
-      <c r="G425" s="134"/>
-      <c r="H425" s="134"/>
-      <c r="I425" s="134"/>
-      <c r="J425" s="134"/>
+      <c r="E425" s="138"/>
+      <c r="F425" s="139"/>
+      <c r="G425" s="139"/>
+      <c r="H425" s="139"/>
+      <c r="I425" s="139"/>
+      <c r="J425" s="139"/>
       <c r="K425" s="10"/>
       <c r="L425" s="10"/>
       <c r="M425" s="10"/>
-      <c r="N425" s="138"/>
+      <c r="N425" s="143"/>
     </row>
     <row r="426" spans="1:14">
       <c r="A426" s="10"/>
-      <c r="B426" s="128"/>
+      <c r="B426" s="132"/>
       <c r="D426" s="10"/>
-      <c r="E426" s="133"/>
-      <c r="F426" s="134"/>
-      <c r="G426" s="134"/>
-      <c r="H426" s="134"/>
-      <c r="I426" s="134"/>
-      <c r="J426" s="134"/>
+      <c r="E426" s="138"/>
+      <c r="F426" s="139"/>
+      <c r="G426" s="139"/>
+      <c r="H426" s="139"/>
+      <c r="I426" s="139"/>
+      <c r="J426" s="139"/>
       <c r="K426" s="10"/>
       <c r="L426" s="10"/>
       <c r="M426" s="10"/>
-      <c r="N426" s="138"/>
+      <c r="N426" s="143"/>
     </row>
     <row r="427" spans="1:14">
       <c r="A427" s="10"/>
-      <c r="B427" s="128"/>
+      <c r="B427" s="132"/>
       <c r="D427" s="10"/>
-      <c r="E427" s="133"/>
-      <c r="F427" s="134"/>
-      <c r="G427" s="134"/>
-      <c r="H427" s="134"/>
-      <c r="I427" s="134"/>
-      <c r="J427" s="134"/>
+      <c r="E427" s="138"/>
+      <c r="F427" s="139"/>
+      <c r="G427" s="139"/>
+      <c r="H427" s="139"/>
+      <c r="I427" s="139"/>
+      <c r="J427" s="139"/>
       <c r="K427" s="10"/>
       <c r="L427" s="10"/>
       <c r="M427" s="10"/>
-      <c r="N427" s="138"/>
+      <c r="N427" s="143"/>
     </row>
     <row r="428" spans="1:14">
       <c r="A428" s="10"/>
-      <c r="B428" s="128"/>
+      <c r="B428" s="132"/>
       <c r="D428" s="10"/>
-      <c r="E428" s="133"/>
-      <c r="F428" s="134"/>
-      <c r="G428" s="134"/>
-      <c r="H428" s="134"/>
-      <c r="I428" s="134"/>
-      <c r="J428" s="134"/>
+      <c r="E428" s="138"/>
+      <c r="F428" s="139"/>
+      <c r="G428" s="139"/>
+      <c r="H428" s="139"/>
+      <c r="I428" s="139"/>
+      <c r="J428" s="139"/>
       <c r="K428" s="10"/>
       <c r="L428" s="10"/>
       <c r="M428" s="10"/>
-      <c r="N428" s="138"/>
+      <c r="N428" s="143"/>
     </row>
     <row r="429" spans="1:14">
       <c r="A429" s="10"/>
-      <c r="B429" s="128"/>
+      <c r="B429" s="132"/>
       <c r="D429" s="10"/>
-      <c r="E429" s="133"/>
-      <c r="F429" s="134"/>
-      <c r="G429" s="134"/>
-      <c r="H429" s="134"/>
-      <c r="I429" s="134"/>
-      <c r="J429" s="134"/>
+      <c r="E429" s="138"/>
+      <c r="F429" s="139"/>
+      <c r="G429" s="139"/>
+      <c r="H429" s="139"/>
+      <c r="I429" s="139"/>
+      <c r="J429" s="139"/>
       <c r="K429" s="10"/>
       <c r="L429" s="10"/>
       <c r="M429" s="10"/>
-      <c r="N429" s="138"/>
+      <c r="N429" s="143"/>
     </row>
     <row r="430" spans="1:14">
       <c r="A430" s="10"/>
-      <c r="B430" s="128"/>
+      <c r="B430" s="132"/>
       <c r="D430" s="10"/>
-      <c r="E430" s="133"/>
-      <c r="F430" s="134"/>
-      <c r="G430" s="134"/>
-      <c r="H430" s="134"/>
-      <c r="I430" s="134"/>
-      <c r="J430" s="134"/>
+      <c r="E430" s="138"/>
+      <c r="F430" s="139"/>
+      <c r="G430" s="139"/>
+      <c r="H430" s="139"/>
+      <c r="I430" s="139"/>
+      <c r="J430" s="139"/>
       <c r="K430" s="10"/>
       <c r="L430" s="10"/>
       <c r="M430" s="10"/>
-      <c r="N430" s="138"/>
+      <c r="N430" s="143"/>
     </row>
     <row r="431" spans="1:14">
       <c r="A431" s="10"/>
-      <c r="B431" s="128"/>
+      <c r="B431" s="132"/>
       <c r="D431" s="10"/>
-      <c r="E431" s="133"/>
-      <c r="F431" s="134"/>
-      <c r="G431" s="134"/>
-      <c r="H431" s="134"/>
-      <c r="I431" s="134"/>
-      <c r="J431" s="134"/>
+      <c r="E431" s="138"/>
+      <c r="F431" s="139"/>
+      <c r="G431" s="139"/>
+      <c r="H431" s="139"/>
+      <c r="I431" s="139"/>
+      <c r="J431" s="139"/>
       <c r="K431" s="10"/>
       <c r="L431" s="10"/>
       <c r="M431" s="10"/>
-      <c r="N431" s="138"/>
+      <c r="N431" s="143"/>
     </row>
     <row r="432" spans="1:14">
       <c r="A432" s="10"/>
-      <c r="B432" s="128"/>
+      <c r="B432" s="132"/>
       <c r="D432" s="10"/>
-      <c r="E432" s="133"/>
-      <c r="F432" s="134"/>
-      <c r="G432" s="134"/>
-      <c r="H432" s="134"/>
-      <c r="I432" s="134"/>
-      <c r="J432" s="134"/>
+      <c r="E432" s="138"/>
+      <c r="F432" s="139"/>
+      <c r="G432" s="139"/>
+      <c r="H432" s="139"/>
+      <c r="I432" s="139"/>
+      <c r="J432" s="139"/>
       <c r="K432" s="10"/>
       <c r="L432" s="10"/>
       <c r="M432" s="10"/>
-      <c r="N432" s="138"/>
+      <c r="N432" s="143"/>
     </row>
     <row r="433" spans="1:14">
       <c r="A433" s="10"/>
-      <c r="B433" s="128"/>
+      <c r="B433" s="132"/>
       <c r="D433" s="10"/>
-      <c r="E433" s="133"/>
-      <c r="F433" s="134"/>
-      <c r="G433" s="134"/>
-      <c r="H433" s="134"/>
-      <c r="I433" s="134"/>
-      <c r="J433" s="134"/>
+      <c r="E433" s="138"/>
+      <c r="F433" s="139"/>
+      <c r="G433" s="139"/>
+      <c r="H433" s="139"/>
+      <c r="I433" s="139"/>
+      <c r="J433" s="139"/>
       <c r="K433" s="10"/>
       <c r="L433" s="10"/>
       <c r="M433" s="10"/>
-      <c r="N433" s="138"/>
+      <c r="N433" s="143"/>
     </row>
     <row r="434" spans="1:14">
       <c r="A434" s="10"/>
-      <c r="B434" s="128"/>
+      <c r="B434" s="132"/>
       <c r="D434" s="10"/>
-      <c r="E434" s="133"/>
-      <c r="F434" s="134"/>
-      <c r="G434" s="134"/>
-      <c r="H434" s="134"/>
-      <c r="I434" s="134"/>
-      <c r="J434" s="134"/>
+      <c r="E434" s="138"/>
+      <c r="F434" s="139"/>
+      <c r="G434" s="139"/>
+      <c r="H434" s="139"/>
+      <c r="I434" s="139"/>
+      <c r="J434" s="139"/>
       <c r="K434" s="10"/>
       <c r="L434" s="10"/>
       <c r="M434" s="10"/>
-      <c r="N434" s="138"/>
+      <c r="N434" s="143"/>
     </row>
     <row r="435" spans="1:14">
       <c r="A435" s="10"/>
-      <c r="B435" s="128"/>
+      <c r="B435" s="132"/>
       <c r="D435" s="10"/>
-      <c r="E435" s="133"/>
-      <c r="F435" s="134"/>
-      <c r="G435" s="134"/>
-      <c r="H435" s="134"/>
-      <c r="I435" s="134"/>
-      <c r="J435" s="134"/>
+      <c r="E435" s="138"/>
+      <c r="F435" s="139"/>
+      <c r="G435" s="139"/>
+      <c r="H435" s="139"/>
+      <c r="I435" s="139"/>
+      <c r="J435" s="139"/>
       <c r="K435" s="10"/>
       <c r="L435" s="10"/>
       <c r="M435" s="10"/>
-      <c r="N435" s="138"/>
+      <c r="N435" s="143"/>
     </row>
     <row r="436" spans="1:14">
       <c r="A436" s="10"/>
-      <c r="B436" s="128"/>
+      <c r="B436" s="132"/>
       <c r="D436" s="10"/>
-      <c r="E436" s="133"/>
-      <c r="F436" s="134"/>
-      <c r="G436" s="134"/>
-      <c r="H436" s="134"/>
-      <c r="I436" s="134"/>
-      <c r="J436" s="134"/>
+      <c r="E436" s="138"/>
+      <c r="F436" s="139"/>
+      <c r="G436" s="139"/>
+      <c r="H436" s="139"/>
+      <c r="I436" s="139"/>
+      <c r="J436" s="139"/>
       <c r="K436" s="10"/>
       <c r="L436" s="10"/>
       <c r="M436" s="10"/>
-      <c r="N436" s="138"/>
+      <c r="N436" s="143"/>
     </row>
     <row r="437" spans="1:14">
       <c r="A437" s="10"/>
-      <c r="B437" s="128"/>
+      <c r="B437" s="132"/>
       <c r="D437" s="10"/>
-      <c r="E437" s="133"/>
-      <c r="F437" s="134"/>
-      <c r="G437" s="134"/>
-      <c r="H437" s="134"/>
-      <c r="I437" s="134"/>
-      <c r="J437" s="134"/>
+      <c r="E437" s="138"/>
+      <c r="F437" s="139"/>
+      <c r="G437" s="139"/>
+      <c r="H437" s="139"/>
+      <c r="I437" s="139"/>
+      <c r="J437" s="139"/>
       <c r="K437" s="10"/>
       <c r="L437" s="10"/>
       <c r="M437" s="10"/>
-      <c r="N437" s="138"/>
+      <c r="N437" s="143"/>
     </row>
     <row r="438" spans="1:14">
       <c r="A438" s="10"/>
-      <c r="B438" s="128"/>
+      <c r="B438" s="132"/>
       <c r="D438" s="10"/>
-      <c r="E438" s="133"/>
-      <c r="F438" s="134"/>
-      <c r="G438" s="134"/>
-      <c r="H438" s="134"/>
-      <c r="I438" s="134"/>
-      <c r="J438" s="134"/>
+      <c r="E438" s="138"/>
+      <c r="F438" s="139"/>
+      <c r="G438" s="139"/>
+      <c r="H438" s="139"/>
+      <c r="I438" s="139"/>
+      <c r="J438" s="139"/>
       <c r="K438" s="10"/>
       <c r="L438" s="10"/>
       <c r="M438" s="10"/>
-      <c r="N438" s="138"/>
+      <c r="N438" s="143"/>
     </row>
     <row r="439" spans="1:14">
       <c r="A439" s="10"/>
-      <c r="B439" s="128"/>
+      <c r="B439" s="132"/>
       <c r="D439" s="10"/>
-      <c r="E439" s="133"/>
-      <c r="F439" s="134"/>
-      <c r="G439" s="134"/>
-      <c r="H439" s="134"/>
-      <c r="I439" s="134"/>
-      <c r="J439" s="134"/>
+      <c r="E439" s="138"/>
+      <c r="F439" s="139"/>
+      <c r="G439" s="139"/>
+      <c r="H439" s="139"/>
+      <c r="I439" s="139"/>
+      <c r="J439" s="139"/>
       <c r="K439" s="10"/>
       <c r="L439" s="10"/>
       <c r="M439" s="10"/>
-      <c r="N439" s="138"/>
+      <c r="N439" s="143"/>
     </row>
     <row r="440" spans="1:14">
       <c r="A440" s="10"/>
-      <c r="B440" s="128"/>
+      <c r="B440" s="132"/>
       <c r="D440" s="10"/>
-      <c r="E440" s="133"/>
-      <c r="F440" s="134"/>
-      <c r="G440" s="134"/>
-      <c r="H440" s="134"/>
-      <c r="I440" s="134"/>
-      <c r="J440" s="134"/>
+      <c r="E440" s="138"/>
+      <c r="F440" s="139"/>
+      <c r="G440" s="139"/>
+      <c r="H440" s="139"/>
+      <c r="I440" s="139"/>
+      <c r="J440" s="139"/>
       <c r="K440" s="10"/>
       <c r="L440" s="10"/>
       <c r="M440" s="10"/>
-      <c r="N440" s="138"/>
+      <c r="N440" s="143"/>
     </row>
     <row r="441" spans="1:14">
       <c r="A441" s="10"/>
-      <c r="B441" s="128"/>
+      <c r="B441" s="132"/>
       <c r="D441" s="10"/>
-      <c r="E441" s="133"/>
-      <c r="F441" s="134"/>
-      <c r="G441" s="134"/>
-      <c r="H441" s="134"/>
-      <c r="I441" s="134"/>
-      <c r="J441" s="134"/>
+      <c r="E441" s="138"/>
+      <c r="F441" s="139"/>
+      <c r="G441" s="139"/>
+      <c r="H441" s="139"/>
+      <c r="I441" s="139"/>
+      <c r="J441" s="139"/>
       <c r="K441" s="10"/>
       <c r="L441" s="10"/>
       <c r="M441" s="10"/>
-      <c r="N441" s="138"/>
+      <c r="N441" s="143"/>
     </row>
     <row r="442" spans="1:14">
       <c r="A442" s="10"/>
-      <c r="B442" s="128"/>
+      <c r="B442" s="132"/>
       <c r="D442" s="10"/>
-      <c r="E442" s="133"/>
-      <c r="F442" s="134"/>
-      <c r="G442" s="134"/>
-      <c r="H442" s="134"/>
-      <c r="I442" s="134"/>
-      <c r="J442" s="134"/>
+      <c r="E442" s="138"/>
+      <c r="F442" s="139"/>
+      <c r="G442" s="139"/>
+      <c r="H442" s="139"/>
+      <c r="I442" s="139"/>
+      <c r="J442" s="139"/>
       <c r="K442" s="10"/>
       <c r="L442" s="10"/>
       <c r="M442" s="10"/>
-      <c r="N442" s="138"/>
+      <c r="N442" s="143"/>
     </row>
     <row r="443" spans="1:14">
       <c r="A443" s="10"/>
-      <c r="B443" s="128"/>
+      <c r="B443" s="132"/>
       <c r="D443" s="10"/>
-      <c r="E443" s="133"/>
-      <c r="F443" s="134"/>
-      <c r="G443" s="134"/>
-      <c r="H443" s="134"/>
-      <c r="I443" s="134"/>
-      <c r="J443" s="134"/>
+      <c r="E443" s="138"/>
+      <c r="F443" s="139"/>
+      <c r="G443" s="139"/>
+      <c r="H443" s="139"/>
+      <c r="I443" s="139"/>
+      <c r="J443" s="139"/>
       <c r="K443" s="10"/>
       <c r="L443" s="10"/>
       <c r="M443" s="10"/>
-      <c r="N443" s="138"/>
+      <c r="N443" s="143"/>
     </row>
     <row r="444" spans="1:14">
       <c r="A444" s="10"/>
-      <c r="B444" s="128"/>
+      <c r="B444" s="132"/>
       <c r="D444" s="10"/>
-      <c r="E444" s="133"/>
-      <c r="F444" s="134"/>
-      <c r="G444" s="134"/>
-      <c r="H444" s="134"/>
-      <c r="I444" s="134"/>
-      <c r="J444" s="134"/>
+      <c r="E444" s="138"/>
+      <c r="F444" s="139"/>
+      <c r="G444" s="139"/>
+      <c r="H444" s="139"/>
+      <c r="I444" s="139"/>
+      <c r="J444" s="139"/>
       <c r="K444" s="10"/>
       <c r="L444" s="10"/>
       <c r="M444" s="10"/>
-      <c r="N444" s="138"/>
+      <c r="N444" s="143"/>
     </row>
     <row r="445" spans="1:14">
       <c r="A445" s="10"/>
-      <c r="B445" s="128"/>
+      <c r="B445" s="132"/>
       <c r="D445" s="10"/>
-      <c r="E445" s="133"/>
-      <c r="F445" s="134"/>
-      <c r="G445" s="134"/>
-      <c r="H445" s="134"/>
-      <c r="I445" s="134"/>
-      <c r="J445" s="134"/>
+      <c r="E445" s="138"/>
+      <c r="F445" s="139"/>
+      <c r="G445" s="139"/>
+      <c r="H445" s="139"/>
+      <c r="I445" s="139"/>
+      <c r="J445" s="139"/>
       <c r="K445" s="10"/>
       <c r="L445" s="10"/>
       <c r="M445" s="10"/>
-      <c r="N445" s="138"/>
+      <c r="N445" s="143"/>
     </row>
     <row r="446" spans="1:14">
       <c r="A446" s="10"/>
-      <c r="B446" s="128"/>
+      <c r="B446" s="132"/>
       <c r="D446" s="10"/>
-      <c r="E446" s="133"/>
-      <c r="F446" s="134"/>
-      <c r="G446" s="134"/>
-      <c r="H446" s="134"/>
-      <c r="I446" s="134"/>
-      <c r="J446" s="134"/>
+      <c r="E446" s="138"/>
+      <c r="F446" s="139"/>
+      <c r="G446" s="139"/>
+      <c r="H446" s="139"/>
+      <c r="I446" s="139"/>
+      <c r="J446" s="139"/>
       <c r="K446" s="10"/>
       <c r="L446" s="10"/>
       <c r="M446" s="10"/>
-      <c r="N446" s="138"/>
+      <c r="N446" s="143"/>
     </row>
     <row r="447" spans="1:14">
       <c r="A447" s="10"/>
-      <c r="B447" s="128"/>
+      <c r="B447" s="132"/>
       <c r="D447" s="10"/>
-      <c r="E447" s="133"/>
-      <c r="F447" s="134"/>
-      <c r="G447" s="134"/>
-      <c r="H447" s="134"/>
-      <c r="I447" s="134"/>
-      <c r="J447" s="134"/>
+      <c r="E447" s="138"/>
+      <c r="F447" s="139"/>
+      <c r="G447" s="139"/>
+      <c r="H447" s="139"/>
+      <c r="I447" s="139"/>
+      <c r="J447" s="139"/>
       <c r="K447" s="10"/>
       <c r="L447" s="10"/>
       <c r="M447" s="10"/>
-      <c r="N447" s="138"/>
+      <c r="N447" s="143"/>
     </row>
     <row r="448" spans="1:14">
       <c r="A448" s="10"/>
-      <c r="B448" s="128"/>
+      <c r="B448" s="132"/>
       <c r="D448" s="10"/>
-      <c r="E448" s="133"/>
-      <c r="F448" s="134"/>
-      <c r="G448" s="134"/>
-      <c r="H448" s="134"/>
-      <c r="I448" s="134"/>
-      <c r="J448" s="134"/>
+      <c r="E448" s="138"/>
+      <c r="F448" s="139"/>
+      <c r="G448" s="139"/>
+      <c r="H448" s="139"/>
+      <c r="I448" s="139"/>
+      <c r="J448" s="139"/>
       <c r="K448" s="10"/>
       <c r="L448" s="10"/>
       <c r="M448" s="10"/>
-      <c r="N448" s="138"/>
+      <c r="N448" s="143"/>
     </row>
     <row r="449" spans="1:14">
       <c r="A449" s="10"/>
-      <c r="B449" s="128"/>
+      <c r="B449" s="132"/>
       <c r="D449" s="10"/>
-      <c r="E449" s="133"/>
-      <c r="F449" s="134"/>
-      <c r="G449" s="134"/>
-      <c r="H449" s="134"/>
-      <c r="I449" s="134"/>
-      <c r="J449" s="134"/>
+      <c r="E449" s="138"/>
+      <c r="F449" s="139"/>
+      <c r="G449" s="139"/>
+      <c r="H449" s="139"/>
+      <c r="I449" s="139"/>
+      <c r="J449" s="139"/>
       <c r="K449" s="10"/>
       <c r="L449" s="10"/>
       <c r="M449" s="10"/>
-      <c r="N449" s="138"/>
+      <c r="N449" s="143"/>
     </row>
     <row r="450" spans="1:14">
       <c r="A450" s="10"/>
-      <c r="B450" s="128"/>
+      <c r="B450" s="132"/>
       <c r="D450" s="10"/>
-      <c r="E450" s="133"/>
-      <c r="F450" s="134"/>
-      <c r="G450" s="134"/>
-      <c r="H450" s="134"/>
-      <c r="I450" s="134"/>
-      <c r="J450" s="134"/>
+      <c r="E450" s="138"/>
+      <c r="F450" s="139"/>
+      <c r="G450" s="139"/>
+      <c r="H450" s="139"/>
+      <c r="I450" s="139"/>
+      <c r="J450" s="139"/>
       <c r="K450" s="10"/>
       <c r="L450" s="10"/>
       <c r="M450" s="10"/>
-      <c r="N450" s="138"/>
+      <c r="N450" s="143"/>
     </row>
     <row r="451" spans="1:14">
       <c r="A451" s="10"/>
-      <c r="B451" s="128"/>
+      <c r="B451" s="132"/>
       <c r="D451" s="10"/>
-      <c r="E451" s="133"/>
-      <c r="F451" s="134"/>
-      <c r="G451" s="134"/>
-      <c r="H451" s="134"/>
-      <c r="I451" s="134"/>
-      <c r="J451" s="134"/>
+      <c r="E451" s="138"/>
+      <c r="F451" s="139"/>
+      <c r="G451" s="139"/>
+      <c r="H451" s="139"/>
+      <c r="I451" s="139"/>
+      <c r="J451" s="139"/>
       <c r="K451" s="10"/>
       <c r="L451" s="10"/>
       <c r="M451" s="10"/>
-      <c r="N451" s="138"/>
+      <c r="N451" s="143"/>
     </row>
     <row r="452" spans="1:14">
       <c r="A452" s="10"/>
-      <c r="B452" s="128"/>
+      <c r="B452" s="132"/>
       <c r="D452" s="10"/>
-      <c r="E452" s="133"/>
-      <c r="F452" s="134"/>
-      <c r="G452" s="134"/>
-      <c r="H452" s="134"/>
-      <c r="I452" s="134"/>
-      <c r="J452" s="134"/>
+      <c r="E452" s="138"/>
+      <c r="F452" s="139"/>
+      <c r="G452" s="139"/>
+      <c r="H452" s="139"/>
+      <c r="I452" s="139"/>
+      <c r="J452" s="139"/>
       <c r="K452" s="10"/>
       <c r="L452" s="10"/>
       <c r="M452" s="10"/>
-      <c r="N452" s="138"/>
+      <c r="N452" s="143"/>
     </row>
     <row r="453" spans="1:14">
       <c r="A453" s="10"/>
-      <c r="B453" s="128"/>
+      <c r="B453" s="132"/>
       <c r="D453" s="10"/>
-      <c r="E453" s="133"/>
-      <c r="F453" s="134"/>
-      <c r="G453" s="134"/>
-      <c r="H453" s="134"/>
-      <c r="I453" s="134"/>
-      <c r="J453" s="134"/>
+      <c r="E453" s="138"/>
+      <c r="F453" s="139"/>
+      <c r="G453" s="139"/>
+      <c r="H453" s="139"/>
+      <c r="I453" s="139"/>
+      <c r="J453" s="139"/>
       <c r="K453" s="10"/>
       <c r="L453" s="10"/>
       <c r="M453" s="10"/>
-      <c r="N453" s="138"/>
+      <c r="N453" s="143"/>
     </row>
     <row r="454" spans="1:14">
       <c r="A454" s="10"/>
-      <c r="B454" s="128"/>
+      <c r="B454" s="132"/>
       <c r="D454" s="10"/>
-      <c r="E454" s="133"/>
-      <c r="F454" s="134"/>
-      <c r="G454" s="134"/>
-      <c r="H454" s="134"/>
-      <c r="I454" s="134"/>
-      <c r="J454" s="134"/>
+      <c r="E454" s="138"/>
+      <c r="F454" s="139"/>
+      <c r="G454" s="139"/>
+      <c r="H454" s="139"/>
+      <c r="I454" s="139"/>
+      <c r="J454" s="139"/>
       <c r="K454" s="10"/>
       <c r="L454" s="10"/>
       <c r="M454" s="10"/>
-      <c r="N454" s="138"/>
+      <c r="N454" s="143"/>
     </row>
     <row r="455" spans="1:14">
       <c r="A455" s="10"/>
-      <c r="B455" s="128"/>
+      <c r="B455" s="132"/>
       <c r="D455" s="10"/>
-      <c r="E455" s="133"/>
-      <c r="F455" s="134"/>
-      <c r="G455" s="134"/>
-      <c r="H455" s="134"/>
-      <c r="I455" s="134"/>
-      <c r="J455" s="134"/>
+      <c r="E455" s="138"/>
+      <c r="F455" s="139"/>
+      <c r="G455" s="139"/>
+      <c r="H455" s="139"/>
+      <c r="I455" s="139"/>
+      <c r="J455" s="139"/>
       <c r="K455" s="10"/>
       <c r="L455" s="10"/>
       <c r="M455" s="10"/>
-      <c r="N455" s="138"/>
+      <c r="N455" s="143"/>
     </row>
     <row r="456" spans="1:14">
       <c r="A456" s="10"/>
-      <c r="B456" s="128"/>
+      <c r="B456" s="132"/>
       <c r="D456" s="10"/>
-      <c r="E456" s="133"/>
-      <c r="F456" s="134"/>
-      <c r="G456" s="134"/>
-      <c r="H456" s="134"/>
-      <c r="I456" s="134"/>
-      <c r="J456" s="134"/>
+      <c r="E456" s="138"/>
+      <c r="F456" s="139"/>
+      <c r="G456" s="139"/>
+      <c r="H456" s="139"/>
+      <c r="I456" s="139"/>
+      <c r="J456" s="139"/>
       <c r="K456" s="10"/>
       <c r="L456" s="10"/>
       <c r="M456" s="10"/>
-      <c r="N456" s="138"/>
+      <c r="N456" s="143"/>
     </row>
     <row r="457" spans="1:14">
       <c r="A457" s="10"/>
-      <c r="B457" s="128"/>
+      <c r="B457" s="132"/>
       <c r="D457" s="10"/>
-      <c r="E457" s="133"/>
-      <c r="F457" s="134"/>
-      <c r="G457" s="134"/>
-      <c r="H457" s="134"/>
-      <c r="I457" s="134"/>
-      <c r="J457" s="134"/>
+      <c r="E457" s="138"/>
+      <c r="F457" s="139"/>
+      <c r="G457" s="139"/>
+      <c r="H457" s="139"/>
+      <c r="I457" s="139"/>
+      <c r="J457" s="139"/>
       <c r="K457" s="10"/>
       <c r="L457" s="10"/>
       <c r="M457" s="10"/>
-      <c r="N457" s="138"/>
+      <c r="N457" s="143"/>
     </row>
     <row r="458" spans="1:14">
       <c r="A458" s="10"/>
-      <c r="B458" s="128"/>
+      <c r="B458" s="132"/>
       <c r="D458" s="10"/>
-      <c r="E458" s="133"/>
-      <c r="F458" s="134"/>
-      <c r="G458" s="134"/>
-      <c r="H458" s="134"/>
-      <c r="I458" s="134"/>
-      <c r="J458" s="134"/>
+      <c r="E458" s="138"/>
+      <c r="F458" s="139"/>
+      <c r="G458" s="139"/>
+      <c r="H458" s="139"/>
+      <c r="I458" s="139"/>
+      <c r="J458" s="139"/>
       <c r="K458" s="10"/>
       <c r="L458" s="10"/>
       <c r="M458" s="10"/>
-      <c r="N458" s="138"/>
+      <c r="N458" s="143"/>
     </row>
     <row r="459" spans="1:14">
       <c r="A459" s="10"/>
-      <c r="B459" s="128"/>
+      <c r="B459" s="132"/>
       <c r="D459" s="10"/>
-      <c r="E459" s="133"/>
-      <c r="F459" s="134"/>
-      <c r="G459" s="134"/>
-      <c r="H459" s="134"/>
-      <c r="I459" s="134"/>
-      <c r="J459" s="134"/>
+      <c r="E459" s="138"/>
+      <c r="F459" s="139"/>
+      <c r="G459" s="139"/>
+      <c r="H459" s="139"/>
+      <c r="I459" s="139"/>
+      <c r="J459" s="139"/>
       <c r="K459" s="10"/>
       <c r="L459" s="10"/>
       <c r="M459" s="10"/>
-      <c r="N459" s="138"/>
+      <c r="N459" s="143"/>
     </row>
     <row r="460" spans="1:14">
       <c r="A460" s="10"/>
-      <c r="B460" s="128"/>
+      <c r="B460" s="132"/>
       <c r="D460" s="10"/>
-      <c r="E460" s="133"/>
-      <c r="F460" s="134"/>
-      <c r="G460" s="134"/>
-      <c r="H460" s="134"/>
-      <c r="I460" s="134"/>
-      <c r="J460" s="134"/>
+      <c r="E460" s="138"/>
+      <c r="F460" s="139"/>
+      <c r="G460" s="139"/>
+      <c r="H460" s="139"/>
+      <c r="I460" s="139"/>
+      <c r="J460" s="139"/>
       <c r="K460" s="10"/>
       <c r="L460" s="10"/>
       <c r="M460" s="10"/>
-      <c r="N460" s="138"/>
+      <c r="N460" s="143"/>
     </row>
     <row r="461" spans="1:14">
       <c r="A461" s="10"/>
-      <c r="B461" s="128"/>
+      <c r="B461" s="132"/>
       <c r="D461" s="10"/>
-      <c r="E461" s="133"/>
-      <c r="F461" s="134"/>
-      <c r="G461" s="134"/>
-      <c r="H461" s="134"/>
-      <c r="I461" s="134"/>
-      <c r="J461" s="134"/>
+      <c r="E461" s="138"/>
+      <c r="F461" s="139"/>
+      <c r="G461" s="139"/>
+      <c r="H461" s="139"/>
+      <c r="I461" s="139"/>
+      <c r="J461" s="139"/>
       <c r="K461" s="10"/>
       <c r="L461" s="10"/>
       <c r="M461" s="10"/>
-      <c r="N461" s="138"/>
+      <c r="N461" s="143"/>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="10"/>
-      <c r="B462" s="128"/>
+      <c r="B462" s="132"/>
     </row>
     <row r="463" spans="1:1">
       <c r="A463" s="10"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
@@ -1021,12 +1021,12 @@
   <numFmts count="9">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="0.0000_ "/>
-    <numFmt numFmtId="180" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="179" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="0.0000_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
@@ -1150,6 +1150,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
@@ -1158,23 +1173,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1188,16 +1187,69 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -1212,32 +1264,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1250,38 +1279,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1357,37 +1357,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1405,7 +1387,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1417,19 +1423,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1447,73 +1501,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1531,13 +1531,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1590,10 +1590,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1616,33 +1614,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1676,150 +1652,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="38" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1854,16 +1854,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1881,7 +1881,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1896,148 +1896,148 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="180" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="180" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2118,22 +2118,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3349,11 +3349,11 @@
   <dimension ref="A1:BH541"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="H52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F49" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H57" sqref="H57"/>
+      <selection pane="bottomRight" activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="14.8"/>
@@ -5328,7 +5328,7 @@
       </c>
       <c r="M35" s="75">
         <f t="shared" si="5"/>
-        <v>2.67474048442906</v>
+        <v>2.67474048442907</v>
       </c>
       <c r="N35" s="78">
         <f t="shared" si="6"/>
@@ -5776,7 +5776,7 @@
       </c>
       <c r="M43" s="75">
         <f t="shared" si="5"/>
-        <v>3.41615384615385</v>
+        <v>3.41615384615386</v>
       </c>
       <c r="N43" s="78">
         <f t="shared" si="6"/>
@@ -6782,7 +6782,7 @@
         <v>14.41</v>
       </c>
       <c r="I60" s="59">
-        <v>13.77</v>
+        <v>13.66</v>
       </c>
       <c r="J60" s="51">
         <f t="shared" si="8"/>
@@ -6790,33 +6790,36 @@
       </c>
       <c r="K60" s="26">
         <f t="shared" si="0"/>
-        <v>64.0000000000001</v>
+        <v>75</v>
       </c>
       <c r="L60" s="26">
         <f t="shared" si="10"/>
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="M60" s="75">
         <f t="shared" si="5"/>
-        <v>4.503125</v>
+        <v>3.84266666666667</v>
       </c>
       <c r="N60" s="78">
         <f>(F60-$I60)/F60</f>
-        <v>0.0444136016655101</v>
+        <v>0.0520471894517696</v>
       </c>
       <c r="O60" s="79">
         <f>(G60-$I60)/G60</f>
-        <v>0.0357142857142857</v>
+        <v>0.0434173669467787</v>
       </c>
       <c r="P60" s="79">
         <f>(H60-$I60)/H60</f>
-        <v>0.0444136016655101</v>
-      </c>
-      <c r="Q60" s="81"/>
+        <v>0.0520471894517696</v>
+      </c>
+      <c r="Q60" s="79">
+        <f>((F60-$I60)*300+(G60-$I60)*400+(H60-$I60)*300)/(F60*300+G60*400+H60*300)</f>
+        <v>0.0486140130937456</v>
+      </c>
       <c r="R60" s="81"/>
       <c r="S60" s="86">
         <f t="shared" si="9"/>
-        <v>33143</v>
+        <v>28820</v>
       </c>
       <c r="T60" s="91" t="s">
         <v>24</v>
@@ -7132,7 +7135,7 @@
       <c r="C66" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="D66" s="35" t="s">
+      <c r="D66" s="46" t="s">
         <v>183</v>
       </c>
       <c r="E66" s="99">
@@ -7142,10 +7145,10 @@
         <v>19.28</v>
       </c>
       <c r="G66" s="59">
-        <v>19.42</v>
+        <v>19.79</v>
       </c>
       <c r="H66" s="59">
-        <v>19.79</v>
+        <v>20.15</v>
       </c>
       <c r="I66" s="59">
         <v>18.66</v>
@@ -7164,7 +7167,7 @@
       </c>
       <c r="M66" s="75">
         <f t="shared" si="5"/>
-        <v>6.21935483870967</v>
+        <v>6.21935483870966</v>
       </c>
       <c r="N66" s="78">
         <f t="shared" ref="N66:P66" si="15">(F66-$I66)/F66</f>
@@ -7172,15 +7175,15 @@
       </c>
       <c r="O66" s="79">
         <f t="shared" si="15"/>
-        <v>0.0391349124613801</v>
+        <v>0.057099545224861</v>
       </c>
       <c r="P66" s="79">
         <f t="shared" si="15"/>
-        <v>0.057099545224861</v>
+        <v>0.0739454094292803</v>
       </c>
       <c r="Q66" s="79">
         <f>((F66-$I66)*300+(G66-$I66)*600+(H66-$I66)*1100)/(F66*300+G66*600+H66*1100)</f>
-        <v>0.0480806019640352</v>
+        <v>0.0628531250784722</v>
       </c>
       <c r="R66" s="81"/>
       <c r="S66" s="86">
@@ -7201,7 +7204,7 @@
       <c r="C67" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="D67" s="35" t="s">
+      <c r="D67" s="46" t="s">
         <v>186</v>
       </c>
       <c r="E67" s="99">
@@ -7211,7 +7214,7 @@
         <v>72.15</v>
       </c>
       <c r="G67" s="59">
-        <v>73.85</v>
+        <v>76.77</v>
       </c>
       <c r="H67" s="59"/>
       <c r="I67" s="59">
@@ -7239,7 +7242,7 @@
       </c>
       <c r="O67" s="79">
         <f>(G67-$I67)/G67</f>
-        <v>0.0926201760324982</v>
+        <v>0.127132994659372</v>
       </c>
       <c r="P67" s="79" t="e">
         <f>(H67-$I67)/H67</f>
@@ -7247,7 +7250,7 @@
       </c>
       <c r="Q67" s="79">
         <f>((F67-$I67)*100+(G67-$I67)*100)/(F67*100+G67*100)</f>
-        <v>0.0820547945205479</v>
+        <v>0.100053720118184</v>
       </c>
       <c r="R67" s="81"/>
       <c r="S67" s="86">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
@@ -3365,7 +3365,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L62" sqref="L62"/>
+      <selection pane="bottomRight" activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="14.8"/>
@@ -7552,7 +7552,7 @@
       <c r="C72" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="D72" s="36" t="s">
+      <c r="D72" s="47" t="s">
         <v>200</v>
       </c>
       <c r="E72" s="63"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208">
   <si>
     <t>计划编码</t>
   </si>
@@ -1027,6 +1027,12 @@
   </si>
   <si>
     <t>华鲁恒升</t>
+  </si>
+  <si>
+    <t>603351.SH</t>
+  </si>
+  <si>
+    <t>威尔药业</t>
   </si>
 </sst>
 </file>
@@ -1333,7 +1339,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1379,6 +1385,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1714,152 +1726,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2166,13 +2178,19 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3388,11 +3406,11 @@
   <dimension ref="A1:BH541"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="N58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="I60" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O73" sqref="O73"/>
+      <selection pane="bottomRight" activeCell="Q70" sqref="Q70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="14.8"/>
@@ -4065,7 +4083,7 @@
       <c r="B11" s="23">
         <v>44539</v>
       </c>
-      <c r="C11" s="112" t="s">
+      <c r="C11" s="114" t="s">
         <v>44</v>
       </c>
       <c r="D11" s="30" t="s">
@@ -4219,7 +4237,7 @@
       <c r="B14" s="23">
         <v>44525</v>
       </c>
-      <c r="C14" s="113" t="s">
+      <c r="C14" s="115" t="s">
         <v>52</v>
       </c>
       <c r="D14" s="22" t="s">
@@ -4427,7 +4445,7 @@
       <c r="B18" s="23">
         <v>44533</v>
       </c>
-      <c r="C18" s="113" t="s">
+      <c r="C18" s="115" t="s">
         <v>62</v>
       </c>
       <c r="D18" s="22" t="s">
@@ -4634,7 +4652,7 @@
       <c r="B22" s="31">
         <v>44553</v>
       </c>
-      <c r="C22" s="114" t="s">
+      <c r="C22" s="116" t="s">
         <v>52</v>
       </c>
       <c r="D22" s="33" t="s">
@@ -4687,7 +4705,7 @@
       <c r="B23" s="31">
         <v>44546</v>
       </c>
-      <c r="C23" s="112" t="s">
+      <c r="C23" s="114" t="s">
         <v>75</v>
       </c>
       <c r="D23" s="27" t="s">
@@ -4791,7 +4809,7 @@
       <c r="B25" s="31">
         <v>44547</v>
       </c>
-      <c r="C25" s="112" t="s">
+      <c r="C25" s="114" t="s">
         <v>81</v>
       </c>
       <c r="D25" s="27" t="s">
@@ -4844,7 +4862,7 @@
       <c r="B26" s="31">
         <v>44549</v>
       </c>
-      <c r="C26" s="112" t="s">
+      <c r="C26" s="114" t="s">
         <v>44</v>
       </c>
       <c r="D26" s="30" t="s">
@@ -5056,7 +5074,7 @@
       <c r="B30" s="31">
         <v>44549</v>
       </c>
-      <c r="C30" s="115" t="s">
+      <c r="C30" s="117" t="s">
         <v>93</v>
       </c>
       <c r="D30" s="35" t="s">
@@ -5336,7 +5354,7 @@
       <c r="B35" s="37">
         <v>44553</v>
       </c>
-      <c r="C35" s="115" t="s">
+      <c r="C35" s="117" t="s">
         <v>103</v>
       </c>
       <c r="D35" s="36" t="s">
@@ -5367,7 +5385,7 @@
       </c>
       <c r="M35" s="76">
         <f t="shared" si="5"/>
-        <v>2.67474048442907</v>
+        <v>2.67474048442906</v>
       </c>
       <c r="N35" s="79">
         <f t="shared" si="6"/>
@@ -5392,7 +5410,7 @@
       <c r="B36" s="37">
         <v>44553</v>
       </c>
-      <c r="C36" s="115" t="s">
+      <c r="C36" s="117" t="s">
         <v>106</v>
       </c>
       <c r="D36" s="36" t="s">
@@ -5728,7 +5746,7 @@
       <c r="B42" s="37">
         <v>44557</v>
       </c>
-      <c r="C42" s="115" t="s">
+      <c r="C42" s="117" t="s">
         <v>120</v>
       </c>
       <c r="D42" s="35" t="s">
@@ -5815,7 +5833,7 @@
       </c>
       <c r="M43" s="76">
         <f t="shared" si="5"/>
-        <v>3.41615384615386</v>
+        <v>3.41615384615385</v>
       </c>
       <c r="N43" s="79">
         <f t="shared" si="6"/>
@@ -6007,7 +6025,7 @@
       <c r="B47" s="37">
         <v>44565</v>
       </c>
-      <c r="C47" s="114" t="s">
+      <c r="C47" s="116" t="s">
         <v>52</v>
       </c>
       <c r="D47" s="43" t="s">
@@ -6074,7 +6092,7 @@
       <c r="B48" s="37">
         <v>44565</v>
       </c>
-      <c r="C48" s="115" t="s">
+      <c r="C48" s="117" t="s">
         <v>130</v>
       </c>
       <c r="D48" s="35" t="s">
@@ -7127,7 +7145,7 @@
       <c r="D65" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="E65" s="102">
+      <c r="E65" s="104">
         <v>0.72</v>
       </c>
       <c r="F65" s="60"/>
@@ -7177,7 +7195,7 @@
       <c r="D66" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="E66" s="102">
+      <c r="E66" s="104">
         <v>1.3</v>
       </c>
       <c r="F66" s="60">
@@ -7206,7 +7224,7 @@
       </c>
       <c r="M66" s="76">
         <f t="shared" si="5"/>
-        <v>6.21935483870966</v>
+        <v>6.21935483870967</v>
       </c>
       <c r="N66" s="79">
         <f t="shared" ref="N66:P66" si="15">(F66-$I66)/F66</f>
@@ -7246,7 +7264,7 @@
       <c r="D67" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="E67" s="102">
+      <c r="E67" s="104">
         <v>1.2</v>
       </c>
       <c r="F67" s="57">
@@ -7307,7 +7325,7 @@
       <c r="B68" s="37">
         <v>44608</v>
       </c>
-      <c r="C68" s="116" t="s">
+      <c r="C68" s="118" t="s">
         <v>188</v>
       </c>
       <c r="D68" s="42" t="s">
@@ -7448,24 +7466,24 @@
         <v>0.54</v>
       </c>
       <c r="F70" s="69">
-        <v>22.25</v>
+        <v>24.76</v>
       </c>
       <c r="G70" s="69">
-        <v>22.12</v>
+        <v>25.12</v>
       </c>
       <c r="H70" s="69">
-        <v>22.25</v>
+        <v>26.25</v>
       </c>
       <c r="I70" s="69">
-        <v>20.58</v>
+        <v>23.12</v>
       </c>
       <c r="J70" s="71">
         <f t="shared" si="8"/>
-        <v>26.7</v>
+        <v>29.712</v>
       </c>
       <c r="K70" s="72">
         <f t="shared" si="16"/>
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L70" s="72">
         <f>FLOOR(1600/(F70-I70),100)</f>
@@ -7473,28 +7491,28 @@
       </c>
       <c r="M70" s="83">
         <f t="shared" si="5"/>
-        <v>2.66467065868263</v>
+        <v>3.01951219512195</v>
       </c>
       <c r="N70" s="79">
         <f t="shared" si="17"/>
-        <v>0.075056179775281</v>
+        <v>0.0662358642972537</v>
       </c>
       <c r="O70" s="80">
         <f t="shared" si="18"/>
-        <v>0.0696202531645571</v>
+        <v>0.0796178343949045</v>
       </c>
       <c r="P70" s="80">
         <f t="shared" si="19"/>
-        <v>0.075056179775281</v>
+        <v>0.119238095238095</v>
       </c>
       <c r="Q70" s="80">
-        <f>((F70-$I70)*200+(G70-$I70)*400+(H70-$I70)*600)/(F70*200+G70*400+H70*600)</f>
-        <v>0.0732512758931253</v>
+        <f>((F70-$I70)*200+(G70-$I70)*300+(H70-$I70)*400)/(F70*200+G70*300+H70*400)</f>
+        <v>0.0948320863058987</v>
       </c>
       <c r="R70" s="82"/>
       <c r="S70" s="78">
         <f t="shared" si="9"/>
-        <v>20025</v>
+        <v>22284</v>
       </c>
       <c r="T70" s="93" t="s">
         <v>172</v>
@@ -7596,13 +7614,16 @@
         <f>FLOOR(1600/(F72-I72),100)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M72" s="41"/>
-      <c r="N72" s="107"/>
+      <c r="M72" s="83" t="e">
+        <f>(J72-F72)/(F72-I72)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N72" s="109"/>
       <c r="O72" s="82"/>
       <c r="P72" s="82"/>
       <c r="Q72" s="82"/>
       <c r="R72" s="82"/>
-      <c r="S72" s="110"/>
+      <c r="S72" s="112"/>
       <c r="T72" s="41"/>
     </row>
     <row r="73" ht="30" spans="1:20">
@@ -7621,11 +7642,11 @@
       <c r="E73" s="63">
         <v>2.332</v>
       </c>
-      <c r="F73" s="103">
+      <c r="F73" s="105">
         <v>31.81</v>
       </c>
-      <c r="G73" s="103"/>
-      <c r="H73" s="103"/>
+      <c r="G73" s="105"/>
+      <c r="H73" s="105"/>
       <c r="I73" s="57">
         <v>28.87</v>
       </c>
@@ -7641,16 +7662,19 @@
         <f>FLOOR(1600/(F73-I73),100)</f>
         <v>500</v>
       </c>
-      <c r="M73" s="97"/>
+      <c r="M73" s="83">
+        <f>(J73-F73)/(F73-I73)</f>
+        <v>2.16394557823129</v>
+      </c>
       <c r="N73" s="79">
         <f t="shared" si="17"/>
         <v>0.0924237661112857</v>
       </c>
-      <c r="O73" s="108"/>
-      <c r="P73" s="108"/>
-      <c r="Q73" s="108"/>
-      <c r="R73" s="108"/>
-      <c r="S73" s="111"/>
+      <c r="O73" s="110"/>
+      <c r="P73" s="110"/>
+      <c r="Q73" s="110"/>
+      <c r="R73" s="110"/>
+      <c r="S73" s="113"/>
       <c r="T73" s="91" t="s">
         <v>110</v>
       </c>
@@ -7664,19 +7688,19 @@
       <c r="D74" s="100" t="s">
         <v>205</v>
       </c>
-      <c r="E74" s="104">
+      <c r="E74" s="106">
         <v>2.66</v>
       </c>
-      <c r="F74" s="103">
+      <c r="F74" s="105">
         <v>36.66</v>
       </c>
-      <c r="G74" s="103">
+      <c r="G74" s="105">
         <v>37.07</v>
       </c>
-      <c r="H74" s="103">
+      <c r="H74" s="105">
         <v>37.99</v>
       </c>
-      <c r="I74" s="103">
+      <c r="I74" s="105">
         <v>34.4</v>
       </c>
       <c r="J74" s="71">
@@ -7691,7 +7715,10 @@
         <f>FLOOR(1600/(F74-I74),100)</f>
         <v>700</v>
       </c>
-      <c r="M74" s="97"/>
+      <c r="M74" s="83">
+        <f>(J74-F74)/(F74-I74)</f>
+        <v>3.24424778761062</v>
+      </c>
       <c r="N74" s="79">
         <f>(F74-$I74)/F74</f>
         <v>0.0616475722858701</v>
@@ -7708,8 +7735,8 @@
         <f>((F74-$I74)*200+(G74-$I74)*300+(H74-$I74)*200)/(F74*200+G74*300+H74*200)</f>
         <v>0.0756592837127174</v>
       </c>
-      <c r="R74" s="108"/>
-      <c r="S74" s="111"/>
+      <c r="R74" s="110"/>
+      <c r="S74" s="113"/>
       <c r="T74" s="93" t="s">
         <v>172</v>
       </c>
@@ -7717,5807 +7744,5833 @@
     <row r="75" spans="1:14">
       <c r="A75" s="10"/>
       <c r="B75" s="101"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="105"/>
-      <c r="F75" s="106"/>
-      <c r="G75" s="106"/>
-      <c r="H75" s="106"/>
-      <c r="I75" s="106"/>
-      <c r="J75" s="106"/>
-      <c r="K75" s="10"/>
-      <c r="L75" s="10"/>
-      <c r="M75" s="10"/>
-      <c r="N75" s="109"/>
+      <c r="C75" s="102" t="s">
+        <v>206</v>
+      </c>
+      <c r="D75" s="103" t="s">
+        <v>207</v>
+      </c>
+      <c r="E75" s="107">
+        <v>0.619</v>
+      </c>
+      <c r="F75" s="108">
+        <v>33.5</v>
+      </c>
+      <c r="G75" s="108"/>
+      <c r="H75" s="108"/>
+      <c r="I75" s="108">
+        <v>31.2</v>
+      </c>
+      <c r="J75" s="71">
+        <f>(F75+F75*0.2)</f>
+        <v>40.2</v>
+      </c>
+      <c r="K75" s="72">
+        <f>(F75-I75)*100</f>
+        <v>230</v>
+      </c>
+      <c r="L75" s="72">
+        <f>FLOOR(1600/(F75-I75),100)</f>
+        <v>600</v>
+      </c>
+      <c r="M75" s="83">
+        <f>(J75-F75)/(F75-I75)</f>
+        <v>2.91304347826087</v>
+      </c>
+      <c r="N75" s="79">
+        <f>(F75-$I75)/F75</f>
+        <v>0.0686567164179105</v>
+      </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="10"/>
       <c r="B76" s="101"/>
       <c r="D76" s="10"/>
-      <c r="E76" s="105"/>
-      <c r="F76" s="106"/>
-      <c r="G76" s="106"/>
-      <c r="H76" s="106"/>
-      <c r="I76" s="106"/>
-      <c r="J76" s="106"/>
+      <c r="E76" s="107"/>
+      <c r="F76" s="108"/>
+      <c r="G76" s="108"/>
+      <c r="H76" s="108"/>
+      <c r="I76" s="108"/>
+      <c r="J76" s="108"/>
       <c r="K76" s="10"/>
       <c r="L76" s="10"/>
       <c r="M76" s="10"/>
-      <c r="N76" s="109"/>
+      <c r="N76" s="111"/>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="10"/>
       <c r="B77" s="101"/>
       <c r="D77" s="10"/>
-      <c r="E77" s="105"/>
-      <c r="F77" s="106"/>
-      <c r="G77" s="106"/>
-      <c r="H77" s="106"/>
-      <c r="I77" s="106"/>
-      <c r="J77" s="106"/>
+      <c r="E77" s="107"/>
+      <c r="F77" s="108"/>
+      <c r="G77" s="108"/>
+      <c r="H77" s="108"/>
+      <c r="I77" s="108"/>
+      <c r="J77" s="108"/>
       <c r="K77" s="10"/>
       <c r="L77" s="10"/>
       <c r="M77" s="10"/>
-      <c r="N77" s="109"/>
+      <c r="N77" s="111"/>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="10"/>
       <c r="B78" s="101"/>
       <c r="D78" s="10"/>
-      <c r="E78" s="105"/>
-      <c r="F78" s="106"/>
-      <c r="G78" s="106"/>
-      <c r="H78" s="106"/>
-      <c r="I78" s="106"/>
-      <c r="J78" s="106"/>
+      <c r="E78" s="107"/>
+      <c r="F78" s="108"/>
+      <c r="G78" s="108"/>
+      <c r="H78" s="108"/>
+      <c r="I78" s="108"/>
+      <c r="J78" s="108"/>
       <c r="K78" s="10"/>
       <c r="L78" s="10"/>
       <c r="M78" s="10"/>
-      <c r="N78" s="109"/>
+      <c r="N78" s="111"/>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="10"/>
       <c r="B79" s="101"/>
       <c r="D79" s="10"/>
-      <c r="E79" s="105"/>
-      <c r="F79" s="106"/>
-      <c r="G79" s="106"/>
-      <c r="H79" s="106"/>
-      <c r="I79" s="106"/>
-      <c r="J79" s="106"/>
+      <c r="E79" s="107"/>
+      <c r="F79" s="108"/>
+      <c r="G79" s="108"/>
+      <c r="H79" s="108"/>
+      <c r="I79" s="108"/>
+      <c r="J79" s="108"/>
       <c r="K79" s="10"/>
       <c r="L79" s="10"/>
       <c r="M79" s="10"/>
-      <c r="N79" s="109"/>
+      <c r="N79" s="111"/>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="10"/>
       <c r="B80" s="101"/>
       <c r="D80" s="10"/>
-      <c r="E80" s="105"/>
-      <c r="F80" s="106"/>
-      <c r="G80" s="106"/>
-      <c r="H80" s="106"/>
-      <c r="I80" s="106"/>
-      <c r="J80" s="106"/>
+      <c r="E80" s="107"/>
+      <c r="F80" s="108"/>
+      <c r="G80" s="108"/>
+      <c r="H80" s="108"/>
+      <c r="I80" s="108"/>
+      <c r="J80" s="108"/>
       <c r="K80" s="10"/>
       <c r="L80" s="10"/>
       <c r="M80" s="10"/>
-      <c r="N80" s="109"/>
+      <c r="N80" s="111"/>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="10"/>
       <c r="B81" s="101"/>
       <c r="D81" s="10"/>
-      <c r="E81" s="105"/>
-      <c r="F81" s="106"/>
-      <c r="G81" s="106"/>
-      <c r="H81" s="106"/>
-      <c r="I81" s="106"/>
-      <c r="J81" s="106"/>
+      <c r="E81" s="107"/>
+      <c r="F81" s="108"/>
+      <c r="G81" s="108"/>
+      <c r="H81" s="108"/>
+      <c r="I81" s="108"/>
+      <c r="J81" s="108"/>
       <c r="K81" s="10"/>
       <c r="L81" s="10"/>
       <c r="M81" s="10"/>
-      <c r="N81" s="109"/>
+      <c r="N81" s="111"/>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="10"/>
       <c r="B82" s="101"/>
       <c r="D82" s="10"/>
-      <c r="E82" s="105"/>
-      <c r="F82" s="106"/>
-      <c r="G82" s="106"/>
-      <c r="H82" s="106"/>
-      <c r="I82" s="106"/>
-      <c r="J82" s="106"/>
+      <c r="E82" s="107"/>
+      <c r="F82" s="108"/>
+      <c r="G82" s="108"/>
+      <c r="H82" s="108"/>
+      <c r="I82" s="108"/>
+      <c r="J82" s="108"/>
       <c r="K82" s="10"/>
       <c r="L82" s="10"/>
       <c r="M82" s="10"/>
-      <c r="N82" s="109"/>
+      <c r="N82" s="111"/>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="10"/>
       <c r="B83" s="101"/>
       <c r="D83" s="10"/>
-      <c r="E83" s="105"/>
-      <c r="F83" s="106"/>
-      <c r="G83" s="106"/>
-      <c r="H83" s="106"/>
-      <c r="I83" s="106"/>
-      <c r="J83" s="106"/>
+      <c r="E83" s="107"/>
+      <c r="F83" s="108"/>
+      <c r="G83" s="108"/>
+      <c r="H83" s="108"/>
+      <c r="I83" s="108"/>
+      <c r="J83" s="108"/>
       <c r="K83" s="10"/>
       <c r="L83" s="10"/>
       <c r="M83" s="10"/>
-      <c r="N83" s="109"/>
+      <c r="N83" s="111"/>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="10"/>
       <c r="B84" s="101"/>
       <c r="D84" s="10"/>
-      <c r="E84" s="105"/>
-      <c r="F84" s="106"/>
-      <c r="G84" s="106"/>
-      <c r="H84" s="106"/>
-      <c r="I84" s="106"/>
-      <c r="J84" s="106"/>
+      <c r="E84" s="107"/>
+      <c r="F84" s="108"/>
+      <c r="G84" s="108"/>
+      <c r="H84" s="108"/>
+      <c r="I84" s="108"/>
+      <c r="J84" s="108"/>
       <c r="K84" s="10"/>
       <c r="L84" s="10"/>
       <c r="M84" s="10"/>
-      <c r="N84" s="109"/>
+      <c r="N84" s="111"/>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="10"/>
       <c r="B85" s="101"/>
       <c r="D85" s="10"/>
-      <c r="E85" s="105"/>
-      <c r="F85" s="106"/>
-      <c r="G85" s="106"/>
-      <c r="H85" s="106"/>
-      <c r="I85" s="106"/>
-      <c r="J85" s="106"/>
+      <c r="E85" s="107"/>
+      <c r="F85" s="108"/>
+      <c r="G85" s="108"/>
+      <c r="H85" s="108"/>
+      <c r="I85" s="108"/>
+      <c r="J85" s="108"/>
       <c r="K85" s="10"/>
       <c r="L85" s="10"/>
       <c r="M85" s="10"/>
-      <c r="N85" s="109"/>
+      <c r="N85" s="111"/>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="10"/>
       <c r="B86" s="101"/>
       <c r="D86" s="10"/>
-      <c r="E86" s="105"/>
-      <c r="F86" s="106"/>
-      <c r="G86" s="106"/>
-      <c r="H86" s="106"/>
-      <c r="I86" s="106"/>
-      <c r="J86" s="106"/>
+      <c r="E86" s="107"/>
+      <c r="F86" s="108"/>
+      <c r="G86" s="108"/>
+      <c r="H86" s="108"/>
+      <c r="I86" s="108"/>
+      <c r="J86" s="108"/>
       <c r="K86" s="10"/>
       <c r="L86" s="10"/>
       <c r="M86" s="10"/>
-      <c r="N86" s="109"/>
+      <c r="N86" s="111"/>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="10"/>
       <c r="B87" s="101"/>
       <c r="D87" s="10"/>
-      <c r="E87" s="105"/>
-      <c r="F87" s="106"/>
-      <c r="G87" s="106"/>
-      <c r="H87" s="106"/>
-      <c r="I87" s="106"/>
-      <c r="J87" s="106"/>
+      <c r="E87" s="107"/>
+      <c r="F87" s="108"/>
+      <c r="G87" s="108"/>
+      <c r="H87" s="108"/>
+      <c r="I87" s="108"/>
+      <c r="J87" s="108"/>
       <c r="K87" s="10"/>
       <c r="L87" s="10"/>
       <c r="M87" s="10"/>
-      <c r="N87" s="109"/>
+      <c r="N87" s="111"/>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="10"/>
       <c r="B88" s="101"/>
       <c r="D88" s="10"/>
-      <c r="E88" s="105"/>
-      <c r="F88" s="106"/>
-      <c r="G88" s="106"/>
-      <c r="H88" s="106"/>
-      <c r="I88" s="106"/>
-      <c r="J88" s="106"/>
+      <c r="E88" s="107"/>
+      <c r="F88" s="108"/>
+      <c r="G88" s="108"/>
+      <c r="H88" s="108"/>
+      <c r="I88" s="108"/>
+      <c r="J88" s="108"/>
       <c r="K88" s="10"/>
       <c r="L88" s="10"/>
       <c r="M88" s="10"/>
-      <c r="N88" s="109"/>
+      <c r="N88" s="111"/>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="10"/>
       <c r="B89" s="101"/>
       <c r="D89" s="10"/>
-      <c r="E89" s="105"/>
-      <c r="F89" s="106"/>
-      <c r="G89" s="106"/>
-      <c r="H89" s="106"/>
-      <c r="I89" s="106"/>
-      <c r="J89" s="106"/>
+      <c r="E89" s="107"/>
+      <c r="F89" s="108"/>
+      <c r="G89" s="108"/>
+      <c r="H89" s="108"/>
+      <c r="I89" s="108"/>
+      <c r="J89" s="108"/>
       <c r="K89" s="10"/>
       <c r="L89" s="10"/>
       <c r="M89" s="10"/>
-      <c r="N89" s="109"/>
+      <c r="N89" s="111"/>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="10"/>
       <c r="B90" s="101"/>
       <c r="D90" s="10"/>
-      <c r="E90" s="105"/>
-      <c r="F90" s="106"/>
-      <c r="G90" s="106"/>
-      <c r="H90" s="106"/>
-      <c r="I90" s="106"/>
-      <c r="J90" s="106"/>
+      <c r="E90" s="107"/>
+      <c r="F90" s="108"/>
+      <c r="G90" s="108"/>
+      <c r="H90" s="108"/>
+      <c r="I90" s="108"/>
+      <c r="J90" s="108"/>
       <c r="K90" s="10"/>
       <c r="L90" s="10"/>
       <c r="M90" s="10"/>
-      <c r="N90" s="109"/>
+      <c r="N90" s="111"/>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="10"/>
       <c r="B91" s="101"/>
       <c r="D91" s="10"/>
-      <c r="E91" s="105"/>
-      <c r="F91" s="106"/>
-      <c r="G91" s="106"/>
-      <c r="H91" s="106"/>
-      <c r="I91" s="106"/>
-      <c r="J91" s="106"/>
+      <c r="E91" s="107"/>
+      <c r="F91" s="108"/>
+      <c r="G91" s="108"/>
+      <c r="H91" s="108"/>
+      <c r="I91" s="108"/>
+      <c r="J91" s="108"/>
       <c r="K91" s="10"/>
       <c r="L91" s="10"/>
       <c r="M91" s="10"/>
-      <c r="N91" s="109"/>
+      <c r="N91" s="111"/>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="10"/>
       <c r="B92" s="101"/>
       <c r="D92" s="10"/>
-      <c r="E92" s="105"/>
-      <c r="F92" s="106"/>
-      <c r="G92" s="106"/>
-      <c r="H92" s="106"/>
-      <c r="I92" s="106"/>
-      <c r="J92" s="106"/>
+      <c r="E92" s="107"/>
+      <c r="F92" s="108"/>
+      <c r="G92" s="108"/>
+      <c r="H92" s="108"/>
+      <c r="I92" s="108"/>
+      <c r="J92" s="108"/>
       <c r="K92" s="10"/>
       <c r="L92" s="10"/>
       <c r="M92" s="10"/>
-      <c r="N92" s="109"/>
+      <c r="N92" s="111"/>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="10"/>
       <c r="B93" s="101"/>
       <c r="D93" s="10"/>
-      <c r="E93" s="105"/>
-      <c r="F93" s="106"/>
-      <c r="G93" s="106"/>
-      <c r="H93" s="106"/>
-      <c r="I93" s="106"/>
-      <c r="J93" s="106"/>
+      <c r="E93" s="107"/>
+      <c r="F93" s="108"/>
+      <c r="G93" s="108"/>
+      <c r="H93" s="108"/>
+      <c r="I93" s="108"/>
+      <c r="J93" s="108"/>
       <c r="K93" s="10"/>
       <c r="L93" s="10"/>
       <c r="M93" s="10"/>
-      <c r="N93" s="109"/>
+      <c r="N93" s="111"/>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="10"/>
       <c r="B94" s="101"/>
       <c r="D94" s="10"/>
-      <c r="E94" s="105"/>
-      <c r="F94" s="106"/>
-      <c r="G94" s="106"/>
-      <c r="H94" s="106"/>
-      <c r="I94" s="106"/>
-      <c r="J94" s="106"/>
+      <c r="E94" s="107"/>
+      <c r="F94" s="108"/>
+      <c r="G94" s="108"/>
+      <c r="H94" s="108"/>
+      <c r="I94" s="108"/>
+      <c r="J94" s="108"/>
       <c r="K94" s="10"/>
       <c r="L94" s="10"/>
       <c r="M94" s="10"/>
-      <c r="N94" s="109"/>
+      <c r="N94" s="111"/>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="10"/>
       <c r="B95" s="101"/>
       <c r="D95" s="10"/>
-      <c r="E95" s="105"/>
-      <c r="F95" s="106"/>
-      <c r="G95" s="106"/>
-      <c r="H95" s="106"/>
-      <c r="I95" s="106"/>
-      <c r="J95" s="106"/>
+      <c r="E95" s="107"/>
+      <c r="F95" s="108"/>
+      <c r="G95" s="108"/>
+      <c r="H95" s="108"/>
+      <c r="I95" s="108"/>
+      <c r="J95" s="108"/>
       <c r="K95" s="10"/>
       <c r="L95" s="10"/>
       <c r="M95" s="10"/>
-      <c r="N95" s="109"/>
+      <c r="N95" s="111"/>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="10"/>
       <c r="B96" s="101"/>
       <c r="D96" s="10"/>
-      <c r="E96" s="105"/>
-      <c r="F96" s="106"/>
-      <c r="G96" s="106"/>
-      <c r="H96" s="106"/>
-      <c r="I96" s="106"/>
-      <c r="J96" s="106"/>
+      <c r="E96" s="107"/>
+      <c r="F96" s="108"/>
+      <c r="G96" s="108"/>
+      <c r="H96" s="108"/>
+      <c r="I96" s="108"/>
+      <c r="J96" s="108"/>
       <c r="K96" s="10"/>
       <c r="L96" s="10"/>
       <c r="M96" s="10"/>
-      <c r="N96" s="109"/>
+      <c r="N96" s="111"/>
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="10"/>
       <c r="B97" s="101"/>
       <c r="D97" s="10"/>
-      <c r="E97" s="105"/>
-      <c r="F97" s="106"/>
-      <c r="G97" s="106"/>
-      <c r="H97" s="106"/>
-      <c r="I97" s="106"/>
-      <c r="J97" s="106"/>
+      <c r="E97" s="107"/>
+      <c r="F97" s="108"/>
+      <c r="G97" s="108"/>
+      <c r="H97" s="108"/>
+      <c r="I97" s="108"/>
+      <c r="J97" s="108"/>
       <c r="K97" s="10"/>
       <c r="L97" s="10"/>
       <c r="M97" s="10"/>
-      <c r="N97" s="109"/>
+      <c r="N97" s="111"/>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="10"/>
       <c r="B98" s="101"/>
       <c r="D98" s="10"/>
-      <c r="E98" s="105"/>
-      <c r="F98" s="106"/>
-      <c r="G98" s="106"/>
-      <c r="H98" s="106"/>
-      <c r="I98" s="106"/>
-      <c r="J98" s="106"/>
+      <c r="E98" s="107"/>
+      <c r="F98" s="108"/>
+      <c r="G98" s="108"/>
+      <c r="H98" s="108"/>
+      <c r="I98" s="108"/>
+      <c r="J98" s="108"/>
       <c r="K98" s="10"/>
       <c r="L98" s="10"/>
       <c r="M98" s="10"/>
-      <c r="N98" s="109"/>
+      <c r="N98" s="111"/>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="10"/>
       <c r="B99" s="101"/>
       <c r="D99" s="10"/>
-      <c r="E99" s="105"/>
-      <c r="F99" s="106"/>
-      <c r="G99" s="106"/>
-      <c r="H99" s="106"/>
-      <c r="I99" s="106"/>
-      <c r="J99" s="106"/>
+      <c r="E99" s="107"/>
+      <c r="F99" s="108"/>
+      <c r="G99" s="108"/>
+      <c r="H99" s="108"/>
+      <c r="I99" s="108"/>
+      <c r="J99" s="108"/>
       <c r="K99" s="10"/>
       <c r="L99" s="10"/>
       <c r="M99" s="10"/>
-      <c r="N99" s="109"/>
+      <c r="N99" s="111"/>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="10"/>
       <c r="B100" s="101"/>
       <c r="D100" s="10"/>
-      <c r="E100" s="105"/>
-      <c r="F100" s="106"/>
-      <c r="G100" s="106"/>
-      <c r="H100" s="106"/>
-      <c r="I100" s="106"/>
-      <c r="J100" s="106"/>
+      <c r="E100" s="107"/>
+      <c r="F100" s="108"/>
+      <c r="G100" s="108"/>
+      <c r="H100" s="108"/>
+      <c r="I100" s="108"/>
+      <c r="J100" s="108"/>
       <c r="K100" s="10"/>
       <c r="L100" s="10"/>
       <c r="M100" s="10"/>
-      <c r="N100" s="109"/>
+      <c r="N100" s="111"/>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="10"/>
       <c r="B101" s="101"/>
       <c r="D101" s="10"/>
-      <c r="E101" s="105"/>
-      <c r="F101" s="106"/>
-      <c r="G101" s="106"/>
-      <c r="H101" s="106"/>
-      <c r="I101" s="106"/>
-      <c r="J101" s="106"/>
+      <c r="E101" s="107"/>
+      <c r="F101" s="108"/>
+      <c r="G101" s="108"/>
+      <c r="H101" s="108"/>
+      <c r="I101" s="108"/>
+      <c r="J101" s="108"/>
       <c r="K101" s="10"/>
       <c r="L101" s="10"/>
       <c r="M101" s="10"/>
-      <c r="N101" s="109"/>
+      <c r="N101" s="111"/>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="10"/>
       <c r="B102" s="101"/>
       <c r="D102" s="10"/>
-      <c r="E102" s="105"/>
-      <c r="F102" s="106"/>
-      <c r="G102" s="106"/>
-      <c r="H102" s="106"/>
-      <c r="I102" s="106"/>
-      <c r="J102" s="106"/>
+      <c r="E102" s="107"/>
+      <c r="F102" s="108"/>
+      <c r="G102" s="108"/>
+      <c r="H102" s="108"/>
+      <c r="I102" s="108"/>
+      <c r="J102" s="108"/>
       <c r="K102" s="10"/>
       <c r="L102" s="10"/>
       <c r="M102" s="10"/>
-      <c r="N102" s="109"/>
+      <c r="N102" s="111"/>
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="10"/>
       <c r="B103" s="101"/>
       <c r="D103" s="10"/>
-      <c r="E103" s="105"/>
-      <c r="F103" s="106"/>
-      <c r="G103" s="106"/>
-      <c r="H103" s="106"/>
-      <c r="I103" s="106"/>
-      <c r="J103" s="106"/>
+      <c r="E103" s="107"/>
+      <c r="F103" s="108"/>
+      <c r="G103" s="108"/>
+      <c r="H103" s="108"/>
+      <c r="I103" s="108"/>
+      <c r="J103" s="108"/>
       <c r="K103" s="10"/>
       <c r="L103" s="10"/>
       <c r="M103" s="10"/>
-      <c r="N103" s="109"/>
+      <c r="N103" s="111"/>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="10"/>
       <c r="B104" s="101"/>
       <c r="D104" s="10"/>
-      <c r="E104" s="105"/>
-      <c r="F104" s="106"/>
-      <c r="G104" s="106"/>
-      <c r="H104" s="106"/>
-      <c r="I104" s="106"/>
-      <c r="J104" s="106"/>
+      <c r="E104" s="107"/>
+      <c r="F104" s="108"/>
+      <c r="G104" s="108"/>
+      <c r="H104" s="108"/>
+      <c r="I104" s="108"/>
+      <c r="J104" s="108"/>
       <c r="K104" s="10"/>
       <c r="L104" s="10"/>
       <c r="M104" s="10"/>
-      <c r="N104" s="109"/>
+      <c r="N104" s="111"/>
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="10"/>
       <c r="B105" s="101"/>
       <c r="D105" s="10"/>
-      <c r="E105" s="105"/>
-      <c r="F105" s="106"/>
-      <c r="G105" s="106"/>
-      <c r="H105" s="106"/>
-      <c r="I105" s="106"/>
-      <c r="J105" s="106"/>
+      <c r="E105" s="107"/>
+      <c r="F105" s="108"/>
+      <c r="G105" s="108"/>
+      <c r="H105" s="108"/>
+      <c r="I105" s="108"/>
+      <c r="J105" s="108"/>
       <c r="K105" s="10"/>
       <c r="L105" s="10"/>
       <c r="M105" s="10"/>
-      <c r="N105" s="109"/>
+      <c r="N105" s="111"/>
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="10"/>
       <c r="B106" s="101"/>
       <c r="D106" s="10"/>
-      <c r="E106" s="105"/>
-      <c r="F106" s="106"/>
-      <c r="G106" s="106"/>
-      <c r="H106" s="106"/>
-      <c r="I106" s="106"/>
-      <c r="J106" s="106"/>
+      <c r="E106" s="107"/>
+      <c r="F106" s="108"/>
+      <c r="G106" s="108"/>
+      <c r="H106" s="108"/>
+      <c r="I106" s="108"/>
+      <c r="J106" s="108"/>
       <c r="K106" s="10"/>
       <c r="L106" s="10"/>
       <c r="M106" s="10"/>
-      <c r="N106" s="109"/>
+      <c r="N106" s="111"/>
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="10"/>
       <c r="B107" s="101"/>
       <c r="D107" s="10"/>
-      <c r="E107" s="105"/>
-      <c r="F107" s="106"/>
-      <c r="G107" s="106"/>
-      <c r="H107" s="106"/>
-      <c r="I107" s="106"/>
-      <c r="J107" s="106"/>
+      <c r="E107" s="107"/>
+      <c r="F107" s="108"/>
+      <c r="G107" s="108"/>
+      <c r="H107" s="108"/>
+      <c r="I107" s="108"/>
+      <c r="J107" s="108"/>
       <c r="K107" s="10"/>
       <c r="L107" s="10"/>
       <c r="M107" s="10"/>
-      <c r="N107" s="109"/>
+      <c r="N107" s="111"/>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="10"/>
       <c r="B108" s="101"/>
       <c r="D108" s="10"/>
-      <c r="E108" s="105"/>
-      <c r="F108" s="106"/>
-      <c r="G108" s="106"/>
-      <c r="H108" s="106"/>
-      <c r="I108" s="106"/>
-      <c r="J108" s="106"/>
+      <c r="E108" s="107"/>
+      <c r="F108" s="108"/>
+      <c r="G108" s="108"/>
+      <c r="H108" s="108"/>
+      <c r="I108" s="108"/>
+      <c r="J108" s="108"/>
       <c r="K108" s="10"/>
       <c r="L108" s="10"/>
       <c r="M108" s="10"/>
-      <c r="N108" s="109"/>
+      <c r="N108" s="111"/>
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="10"/>
       <c r="B109" s="101"/>
       <c r="D109" s="10"/>
-      <c r="E109" s="105"/>
-      <c r="F109" s="106"/>
-      <c r="G109" s="106"/>
-      <c r="H109" s="106"/>
-      <c r="I109" s="106"/>
-      <c r="J109" s="106"/>
+      <c r="E109" s="107"/>
+      <c r="F109" s="108"/>
+      <c r="G109" s="108"/>
+      <c r="H109" s="108"/>
+      <c r="I109" s="108"/>
+      <c r="J109" s="108"/>
       <c r="K109" s="10"/>
       <c r="L109" s="10"/>
       <c r="M109" s="10"/>
-      <c r="N109" s="109"/>
+      <c r="N109" s="111"/>
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="10"/>
       <c r="B110" s="101"/>
       <c r="D110" s="10"/>
-      <c r="E110" s="105"/>
-      <c r="F110" s="106"/>
-      <c r="G110" s="106"/>
-      <c r="H110" s="106"/>
-      <c r="I110" s="106"/>
-      <c r="J110" s="106"/>
+      <c r="E110" s="107"/>
+      <c r="F110" s="108"/>
+      <c r="G110" s="108"/>
+      <c r="H110" s="108"/>
+      <c r="I110" s="108"/>
+      <c r="J110" s="108"/>
       <c r="K110" s="10"/>
       <c r="L110" s="10"/>
       <c r="M110" s="10"/>
-      <c r="N110" s="109"/>
+      <c r="N110" s="111"/>
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="10"/>
       <c r="B111" s="101"/>
       <c r="D111" s="10"/>
-      <c r="E111" s="105"/>
-      <c r="F111" s="106"/>
-      <c r="G111" s="106"/>
-      <c r="H111" s="106"/>
-      <c r="I111" s="106"/>
-      <c r="J111" s="106"/>
+      <c r="E111" s="107"/>
+      <c r="F111" s="108"/>
+      <c r="G111" s="108"/>
+      <c r="H111" s="108"/>
+      <c r="I111" s="108"/>
+      <c r="J111" s="108"/>
       <c r="K111" s="10"/>
       <c r="L111" s="10"/>
       <c r="M111" s="10"/>
-      <c r="N111" s="109"/>
+      <c r="N111" s="111"/>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="10"/>
       <c r="B112" s="101"/>
       <c r="D112" s="10"/>
-      <c r="E112" s="105"/>
-      <c r="F112" s="106"/>
-      <c r="G112" s="106"/>
-      <c r="H112" s="106"/>
-      <c r="I112" s="106"/>
-      <c r="J112" s="106"/>
+      <c r="E112" s="107"/>
+      <c r="F112" s="108"/>
+      <c r="G112" s="108"/>
+      <c r="H112" s="108"/>
+      <c r="I112" s="108"/>
+      <c r="J112" s="108"/>
       <c r="K112" s="10"/>
       <c r="L112" s="10"/>
       <c r="M112" s="10"/>
-      <c r="N112" s="109"/>
+      <c r="N112" s="111"/>
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="10"/>
       <c r="B113" s="101"/>
       <c r="D113" s="10"/>
-      <c r="E113" s="105"/>
-      <c r="F113" s="106"/>
-      <c r="G113" s="106"/>
-      <c r="H113" s="106"/>
-      <c r="I113" s="106"/>
-      <c r="J113" s="106"/>
+      <c r="E113" s="107"/>
+      <c r="F113" s="108"/>
+      <c r="G113" s="108"/>
+      <c r="H113" s="108"/>
+      <c r="I113" s="108"/>
+      <c r="J113" s="108"/>
       <c r="K113" s="10"/>
       <c r="L113" s="10"/>
       <c r="M113" s="10"/>
-      <c r="N113" s="109"/>
+      <c r="N113" s="111"/>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="10"/>
       <c r="B114" s="101"/>
       <c r="D114" s="10"/>
-      <c r="E114" s="105"/>
-      <c r="F114" s="106"/>
-      <c r="G114" s="106"/>
-      <c r="H114" s="106"/>
-      <c r="I114" s="106"/>
-      <c r="J114" s="106"/>
+      <c r="E114" s="107"/>
+      <c r="F114" s="108"/>
+      <c r="G114" s="108"/>
+      <c r="H114" s="108"/>
+      <c r="I114" s="108"/>
+      <c r="J114" s="108"/>
       <c r="K114" s="10"/>
       <c r="L114" s="10"/>
       <c r="M114" s="10"/>
-      <c r="N114" s="109"/>
+      <c r="N114" s="111"/>
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="10"/>
       <c r="B115" s="101"/>
       <c r="D115" s="10"/>
-      <c r="E115" s="105"/>
-      <c r="F115" s="106"/>
-      <c r="G115" s="106"/>
-      <c r="H115" s="106"/>
-      <c r="I115" s="106"/>
-      <c r="J115" s="106"/>
+      <c r="E115" s="107"/>
+      <c r="F115" s="108"/>
+      <c r="G115" s="108"/>
+      <c r="H115" s="108"/>
+      <c r="I115" s="108"/>
+      <c r="J115" s="108"/>
       <c r="K115" s="10"/>
       <c r="L115" s="10"/>
       <c r="M115" s="10"/>
-      <c r="N115" s="109"/>
+      <c r="N115" s="111"/>
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="10"/>
       <c r="B116" s="101"/>
       <c r="D116" s="10"/>
-      <c r="E116" s="105"/>
-      <c r="F116" s="106"/>
-      <c r="G116" s="106"/>
-      <c r="H116" s="106"/>
-      <c r="I116" s="106"/>
-      <c r="J116" s="106"/>
+      <c r="E116" s="107"/>
+      <c r="F116" s="108"/>
+      <c r="G116" s="108"/>
+      <c r="H116" s="108"/>
+      <c r="I116" s="108"/>
+      <c r="J116" s="108"/>
       <c r="K116" s="10"/>
       <c r="L116" s="10"/>
       <c r="M116" s="10"/>
-      <c r="N116" s="109"/>
+      <c r="N116" s="111"/>
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="10"/>
       <c r="B117" s="101"/>
       <c r="D117" s="10"/>
-      <c r="E117" s="105"/>
-      <c r="F117" s="106"/>
-      <c r="G117" s="106"/>
-      <c r="H117" s="106"/>
-      <c r="I117" s="106"/>
-      <c r="J117" s="106"/>
+      <c r="E117" s="107"/>
+      <c r="F117" s="108"/>
+      <c r="G117" s="108"/>
+      <c r="H117" s="108"/>
+      <c r="I117" s="108"/>
+      <c r="J117" s="108"/>
       <c r="K117" s="10"/>
       <c r="L117" s="10"/>
       <c r="M117" s="10"/>
-      <c r="N117" s="109"/>
+      <c r="N117" s="111"/>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="10"/>
       <c r="B118" s="101"/>
       <c r="D118" s="10"/>
-      <c r="E118" s="105"/>
-      <c r="F118" s="106"/>
-      <c r="G118" s="106"/>
-      <c r="H118" s="106"/>
-      <c r="I118" s="106"/>
-      <c r="J118" s="106"/>
+      <c r="E118" s="107"/>
+      <c r="F118" s="108"/>
+      <c r="G118" s="108"/>
+      <c r="H118" s="108"/>
+      <c r="I118" s="108"/>
+      <c r="J118" s="108"/>
       <c r="K118" s="10"/>
       <c r="L118" s="10"/>
       <c r="M118" s="10"/>
-      <c r="N118" s="109"/>
+      <c r="N118" s="111"/>
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="10"/>
       <c r="B119" s="101"/>
       <c r="D119" s="10"/>
-      <c r="E119" s="105"/>
-      <c r="F119" s="106"/>
-      <c r="G119" s="106"/>
-      <c r="H119" s="106"/>
-      <c r="I119" s="106"/>
-      <c r="J119" s="106"/>
+      <c r="E119" s="107"/>
+      <c r="F119" s="108"/>
+      <c r="G119" s="108"/>
+      <c r="H119" s="108"/>
+      <c r="I119" s="108"/>
+      <c r="J119" s="108"/>
       <c r="K119" s="10"/>
       <c r="L119" s="10"/>
       <c r="M119" s="10"/>
-      <c r="N119" s="109"/>
+      <c r="N119" s="111"/>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="10"/>
       <c r="B120" s="101"/>
       <c r="D120" s="10"/>
-      <c r="E120" s="105"/>
-      <c r="F120" s="106"/>
-      <c r="G120" s="106"/>
-      <c r="H120" s="106"/>
-      <c r="I120" s="106"/>
-      <c r="J120" s="106"/>
+      <c r="E120" s="107"/>
+      <c r="F120" s="108"/>
+      <c r="G120" s="108"/>
+      <c r="H120" s="108"/>
+      <c r="I120" s="108"/>
+      <c r="J120" s="108"/>
       <c r="K120" s="10"/>
       <c r="L120" s="10"/>
       <c r="M120" s="10"/>
-      <c r="N120" s="109"/>
+      <c r="N120" s="111"/>
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="10"/>
       <c r="B121" s="101"/>
       <c r="D121" s="10"/>
-      <c r="E121" s="105"/>
-      <c r="F121" s="106"/>
-      <c r="G121" s="106"/>
-      <c r="H121" s="106"/>
-      <c r="I121" s="106"/>
-      <c r="J121" s="106"/>
+      <c r="E121" s="107"/>
+      <c r="F121" s="108"/>
+      <c r="G121" s="108"/>
+      <c r="H121" s="108"/>
+      <c r="I121" s="108"/>
+      <c r="J121" s="108"/>
       <c r="K121" s="10"/>
       <c r="L121" s="10"/>
       <c r="M121" s="10"/>
-      <c r="N121" s="109"/>
+      <c r="N121" s="111"/>
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="10"/>
       <c r="B122" s="101"/>
       <c r="D122" s="10"/>
-      <c r="E122" s="105"/>
-      <c r="F122" s="106"/>
-      <c r="G122" s="106"/>
-      <c r="H122" s="106"/>
-      <c r="I122" s="106"/>
-      <c r="J122" s="106"/>
+      <c r="E122" s="107"/>
+      <c r="F122" s="108"/>
+      <c r="G122" s="108"/>
+      <c r="H122" s="108"/>
+      <c r="I122" s="108"/>
+      <c r="J122" s="108"/>
       <c r="K122" s="10"/>
       <c r="L122" s="10"/>
       <c r="M122" s="10"/>
-      <c r="N122" s="109"/>
+      <c r="N122" s="111"/>
     </row>
     <row r="123" spans="1:14">
       <c r="A123" s="10"/>
       <c r="B123" s="101"/>
       <c r="D123" s="10"/>
-      <c r="E123" s="105"/>
-      <c r="F123" s="106"/>
-      <c r="G123" s="106"/>
-      <c r="H123" s="106"/>
-      <c r="I123" s="106"/>
-      <c r="J123" s="106"/>
+      <c r="E123" s="107"/>
+      <c r="F123" s="108"/>
+      <c r="G123" s="108"/>
+      <c r="H123" s="108"/>
+      <c r="I123" s="108"/>
+      <c r="J123" s="108"/>
       <c r="K123" s="10"/>
       <c r="L123" s="10"/>
       <c r="M123" s="10"/>
-      <c r="N123" s="109"/>
+      <c r="N123" s="111"/>
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="10"/>
       <c r="B124" s="101"/>
       <c r="D124" s="10"/>
-      <c r="E124" s="105"/>
-      <c r="F124" s="106"/>
-      <c r="G124" s="106"/>
-      <c r="H124" s="106"/>
-      <c r="I124" s="106"/>
-      <c r="J124" s="106"/>
+      <c r="E124" s="107"/>
+      <c r="F124" s="108"/>
+      <c r="G124" s="108"/>
+      <c r="H124" s="108"/>
+      <c r="I124" s="108"/>
+      <c r="J124" s="108"/>
       <c r="K124" s="10"/>
       <c r="L124" s="10"/>
       <c r="M124" s="10"/>
-      <c r="N124" s="109"/>
+      <c r="N124" s="111"/>
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="10"/>
       <c r="B125" s="101"/>
       <c r="D125" s="10"/>
-      <c r="E125" s="105"/>
-      <c r="F125" s="106"/>
-      <c r="G125" s="106"/>
-      <c r="H125" s="106"/>
-      <c r="I125" s="106"/>
-      <c r="J125" s="106"/>
+      <c r="E125" s="107"/>
+      <c r="F125" s="108"/>
+      <c r="G125" s="108"/>
+      <c r="H125" s="108"/>
+      <c r="I125" s="108"/>
+      <c r="J125" s="108"/>
       <c r="K125" s="10"/>
       <c r="L125" s="10"/>
       <c r="M125" s="10"/>
-      <c r="N125" s="109"/>
+      <c r="N125" s="111"/>
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="10"/>
       <c r="B126" s="101"/>
       <c r="D126" s="10"/>
-      <c r="E126" s="105"/>
-      <c r="F126" s="106"/>
-      <c r="G126" s="106"/>
-      <c r="H126" s="106"/>
-      <c r="I126" s="106"/>
-      <c r="J126" s="106"/>
+      <c r="E126" s="107"/>
+      <c r="F126" s="108"/>
+      <c r="G126" s="108"/>
+      <c r="H126" s="108"/>
+      <c r="I126" s="108"/>
+      <c r="J126" s="108"/>
       <c r="K126" s="10"/>
       <c r="L126" s="10"/>
       <c r="M126" s="10"/>
-      <c r="N126" s="109"/>
+      <c r="N126" s="111"/>
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="10"/>
       <c r="B127" s="101"/>
       <c r="D127" s="10"/>
-      <c r="E127" s="105"/>
-      <c r="F127" s="106"/>
-      <c r="G127" s="106"/>
-      <c r="H127" s="106"/>
-      <c r="I127" s="106"/>
-      <c r="J127" s="106"/>
+      <c r="E127" s="107"/>
+      <c r="F127" s="108"/>
+      <c r="G127" s="108"/>
+      <c r="H127" s="108"/>
+      <c r="I127" s="108"/>
+      <c r="J127" s="108"/>
       <c r="K127" s="10"/>
       <c r="L127" s="10"/>
       <c r="M127" s="10"/>
-      <c r="N127" s="109"/>
+      <c r="N127" s="111"/>
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="10"/>
       <c r="B128" s="101"/>
       <c r="D128" s="10"/>
-      <c r="E128" s="105"/>
-      <c r="F128" s="106"/>
-      <c r="G128" s="106"/>
-      <c r="H128" s="106"/>
-      <c r="I128" s="106"/>
-      <c r="J128" s="106"/>
+      <c r="E128" s="107"/>
+      <c r="F128" s="108"/>
+      <c r="G128" s="108"/>
+      <c r="H128" s="108"/>
+      <c r="I128" s="108"/>
+      <c r="J128" s="108"/>
       <c r="K128" s="10"/>
       <c r="L128" s="10"/>
       <c r="M128" s="10"/>
-      <c r="N128" s="109"/>
+      <c r="N128" s="111"/>
     </row>
     <row r="129" spans="1:14">
       <c r="A129" s="10"/>
       <c r="B129" s="101"/>
       <c r="D129" s="10"/>
-      <c r="E129" s="105"/>
-      <c r="F129" s="106"/>
-      <c r="G129" s="106"/>
-      <c r="H129" s="106"/>
-      <c r="I129" s="106"/>
-      <c r="J129" s="106"/>
+      <c r="E129" s="107"/>
+      <c r="F129" s="108"/>
+      <c r="G129" s="108"/>
+      <c r="H129" s="108"/>
+      <c r="I129" s="108"/>
+      <c r="J129" s="108"/>
       <c r="K129" s="10"/>
       <c r="L129" s="10"/>
       <c r="M129" s="10"/>
-      <c r="N129" s="109"/>
+      <c r="N129" s="111"/>
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="10"/>
       <c r="B130" s="101"/>
       <c r="D130" s="10"/>
-      <c r="E130" s="105"/>
-      <c r="F130" s="106"/>
-      <c r="G130" s="106"/>
-      <c r="H130" s="106"/>
-      <c r="I130" s="106"/>
-      <c r="J130" s="106"/>
+      <c r="E130" s="107"/>
+      <c r="F130" s="108"/>
+      <c r="G130" s="108"/>
+      <c r="H130" s="108"/>
+      <c r="I130" s="108"/>
+      <c r="J130" s="108"/>
       <c r="K130" s="10"/>
       <c r="L130" s="10"/>
       <c r="M130" s="10"/>
-      <c r="N130" s="109"/>
+      <c r="N130" s="111"/>
     </row>
     <row r="131" spans="1:14">
       <c r="A131" s="10"/>
       <c r="B131" s="101"/>
       <c r="D131" s="10"/>
-      <c r="E131" s="105"/>
-      <c r="F131" s="106"/>
-      <c r="G131" s="106"/>
-      <c r="H131" s="106"/>
-      <c r="I131" s="106"/>
-      <c r="J131" s="106"/>
+      <c r="E131" s="107"/>
+      <c r="F131" s="108"/>
+      <c r="G131" s="108"/>
+      <c r="H131" s="108"/>
+      <c r="I131" s="108"/>
+      <c r="J131" s="108"/>
       <c r="K131" s="10"/>
       <c r="L131" s="10"/>
       <c r="M131" s="10"/>
-      <c r="N131" s="109"/>
+      <c r="N131" s="111"/>
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="10"/>
       <c r="B132" s="101"/>
       <c r="D132" s="10"/>
-      <c r="E132" s="105"/>
-      <c r="F132" s="106"/>
-      <c r="G132" s="106"/>
-      <c r="H132" s="106"/>
-      <c r="I132" s="106"/>
-      <c r="J132" s="106"/>
+      <c r="E132" s="107"/>
+      <c r="F132" s="108"/>
+      <c r="G132" s="108"/>
+      <c r="H132" s="108"/>
+      <c r="I132" s="108"/>
+      <c r="J132" s="108"/>
       <c r="K132" s="10"/>
       <c r="L132" s="10"/>
       <c r="M132" s="10"/>
-      <c r="N132" s="109"/>
+      <c r="N132" s="111"/>
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="10"/>
       <c r="B133" s="101"/>
       <c r="D133" s="10"/>
-      <c r="E133" s="105"/>
-      <c r="F133" s="106"/>
-      <c r="G133" s="106"/>
-      <c r="H133" s="106"/>
-      <c r="I133" s="106"/>
-      <c r="J133" s="106"/>
+      <c r="E133" s="107"/>
+      <c r="F133" s="108"/>
+      <c r="G133" s="108"/>
+      <c r="H133" s="108"/>
+      <c r="I133" s="108"/>
+      <c r="J133" s="108"/>
       <c r="K133" s="10"/>
       <c r="L133" s="10"/>
       <c r="M133" s="10"/>
-      <c r="N133" s="109"/>
+      <c r="N133" s="111"/>
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="10"/>
       <c r="B134" s="101"/>
       <c r="D134" s="10"/>
-      <c r="E134" s="105"/>
-      <c r="F134" s="106"/>
-      <c r="G134" s="106"/>
-      <c r="H134" s="106"/>
-      <c r="I134" s="106"/>
-      <c r="J134" s="106"/>
+      <c r="E134" s="107"/>
+      <c r="F134" s="108"/>
+      <c r="G134" s="108"/>
+      <c r="H134" s="108"/>
+      <c r="I134" s="108"/>
+      <c r="J134" s="108"/>
       <c r="K134" s="10"/>
       <c r="L134" s="10"/>
       <c r="M134" s="10"/>
-      <c r="N134" s="109"/>
+      <c r="N134" s="111"/>
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="10"/>
       <c r="B135" s="101"/>
       <c r="D135" s="10"/>
-      <c r="E135" s="105"/>
-      <c r="F135" s="106"/>
-      <c r="G135" s="106"/>
-      <c r="H135" s="106"/>
-      <c r="I135" s="106"/>
-      <c r="J135" s="106"/>
+      <c r="E135" s="107"/>
+      <c r="F135" s="108"/>
+      <c r="G135" s="108"/>
+      <c r="H135" s="108"/>
+      <c r="I135" s="108"/>
+      <c r="J135" s="108"/>
       <c r="K135" s="10"/>
       <c r="L135" s="10"/>
       <c r="M135" s="10"/>
-      <c r="N135" s="109"/>
+      <c r="N135" s="111"/>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="10"/>
       <c r="B136" s="101"/>
       <c r="D136" s="10"/>
-      <c r="E136" s="105"/>
-      <c r="F136" s="106"/>
-      <c r="G136" s="106"/>
-      <c r="H136" s="106"/>
-      <c r="I136" s="106"/>
-      <c r="J136" s="106"/>
+      <c r="E136" s="107"/>
+      <c r="F136" s="108"/>
+      <c r="G136" s="108"/>
+      <c r="H136" s="108"/>
+      <c r="I136" s="108"/>
+      <c r="J136" s="108"/>
       <c r="K136" s="10"/>
       <c r="L136" s="10"/>
       <c r="M136" s="10"/>
-      <c r="N136" s="109"/>
+      <c r="N136" s="111"/>
     </row>
     <row r="137" spans="1:14">
       <c r="A137" s="10"/>
       <c r="B137" s="101"/>
       <c r="D137" s="10"/>
-      <c r="E137" s="105"/>
-      <c r="F137" s="106"/>
-      <c r="G137" s="106"/>
-      <c r="H137" s="106"/>
-      <c r="I137" s="106"/>
-      <c r="J137" s="106"/>
+      <c r="E137" s="107"/>
+      <c r="F137" s="108"/>
+      <c r="G137" s="108"/>
+      <c r="H137" s="108"/>
+      <c r="I137" s="108"/>
+      <c r="J137" s="108"/>
       <c r="K137" s="10"/>
       <c r="L137" s="10"/>
       <c r="M137" s="10"/>
-      <c r="N137" s="109"/>
+      <c r="N137" s="111"/>
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="10"/>
       <c r="B138" s="101"/>
       <c r="D138" s="10"/>
-      <c r="E138" s="105"/>
-      <c r="F138" s="106"/>
-      <c r="G138" s="106"/>
-      <c r="H138" s="106"/>
-      <c r="I138" s="106"/>
-      <c r="J138" s="106"/>
+      <c r="E138" s="107"/>
+      <c r="F138" s="108"/>
+      <c r="G138" s="108"/>
+      <c r="H138" s="108"/>
+      <c r="I138" s="108"/>
+      <c r="J138" s="108"/>
       <c r="K138" s="10"/>
       <c r="L138" s="10"/>
       <c r="M138" s="10"/>
-      <c r="N138" s="109"/>
+      <c r="N138" s="111"/>
     </row>
     <row r="139" spans="1:14">
       <c r="A139" s="10"/>
       <c r="B139" s="101"/>
       <c r="D139" s="10"/>
-      <c r="E139" s="105"/>
-      <c r="F139" s="106"/>
-      <c r="G139" s="106"/>
-      <c r="H139" s="106"/>
-      <c r="I139" s="106"/>
-      <c r="J139" s="106"/>
+      <c r="E139" s="107"/>
+      <c r="F139" s="108"/>
+      <c r="G139" s="108"/>
+      <c r="H139" s="108"/>
+      <c r="I139" s="108"/>
+      <c r="J139" s="108"/>
       <c r="K139" s="10"/>
       <c r="L139" s="10"/>
       <c r="M139" s="10"/>
-      <c r="N139" s="109"/>
+      <c r="N139" s="111"/>
     </row>
     <row r="140" spans="1:14">
       <c r="A140" s="10"/>
       <c r="B140" s="101"/>
       <c r="D140" s="10"/>
-      <c r="E140" s="105"/>
-      <c r="F140" s="106"/>
-      <c r="G140" s="106"/>
-      <c r="H140" s="106"/>
-      <c r="I140" s="106"/>
-      <c r="J140" s="106"/>
+      <c r="E140" s="107"/>
+      <c r="F140" s="108"/>
+      <c r="G140" s="108"/>
+      <c r="H140" s="108"/>
+      <c r="I140" s="108"/>
+      <c r="J140" s="108"/>
       <c r="K140" s="10"/>
       <c r="L140" s="10"/>
       <c r="M140" s="10"/>
-      <c r="N140" s="109"/>
+      <c r="N140" s="111"/>
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="10"/>
       <c r="B141" s="101"/>
       <c r="D141" s="10"/>
-      <c r="E141" s="105"/>
-      <c r="F141" s="106"/>
-      <c r="G141" s="106"/>
-      <c r="H141" s="106"/>
-      <c r="I141" s="106"/>
-      <c r="J141" s="106"/>
+      <c r="E141" s="107"/>
+      <c r="F141" s="108"/>
+      <c r="G141" s="108"/>
+      <c r="H141" s="108"/>
+      <c r="I141" s="108"/>
+      <c r="J141" s="108"/>
       <c r="K141" s="10"/>
       <c r="L141" s="10"/>
       <c r="M141" s="10"/>
-      <c r="N141" s="109"/>
+      <c r="N141" s="111"/>
     </row>
     <row r="142" spans="1:14">
       <c r="A142" s="10"/>
       <c r="B142" s="101"/>
       <c r="D142" s="10"/>
-      <c r="E142" s="105"/>
-      <c r="F142" s="106"/>
-      <c r="G142" s="106"/>
-      <c r="H142" s="106"/>
-      <c r="I142" s="106"/>
-      <c r="J142" s="106"/>
+      <c r="E142" s="107"/>
+      <c r="F142" s="108"/>
+      <c r="G142" s="108"/>
+      <c r="H142" s="108"/>
+      <c r="I142" s="108"/>
+      <c r="J142" s="108"/>
       <c r="K142" s="10"/>
       <c r="L142" s="10"/>
       <c r="M142" s="10"/>
-      <c r="N142" s="109"/>
+      <c r="N142" s="111"/>
     </row>
     <row r="143" spans="1:14">
       <c r="A143" s="10"/>
       <c r="B143" s="101"/>
       <c r="D143" s="10"/>
-      <c r="E143" s="105"/>
-      <c r="F143" s="106"/>
-      <c r="G143" s="106"/>
-      <c r="H143" s="106"/>
-      <c r="I143" s="106"/>
-      <c r="J143" s="106"/>
+      <c r="E143" s="107"/>
+      <c r="F143" s="108"/>
+      <c r="G143" s="108"/>
+      <c r="H143" s="108"/>
+      <c r="I143" s="108"/>
+      <c r="J143" s="108"/>
       <c r="K143" s="10"/>
       <c r="L143" s="10"/>
       <c r="M143" s="10"/>
-      <c r="N143" s="109"/>
+      <c r="N143" s="111"/>
     </row>
     <row r="144" spans="1:14">
       <c r="A144" s="10"/>
       <c r="B144" s="101"/>
       <c r="D144" s="10"/>
-      <c r="E144" s="105"/>
-      <c r="F144" s="106"/>
-      <c r="G144" s="106"/>
-      <c r="H144" s="106"/>
-      <c r="I144" s="106"/>
-      <c r="J144" s="106"/>
+      <c r="E144" s="107"/>
+      <c r="F144" s="108"/>
+      <c r="G144" s="108"/>
+      <c r="H144" s="108"/>
+      <c r="I144" s="108"/>
+      <c r="J144" s="108"/>
       <c r="K144" s="10"/>
       <c r="L144" s="10"/>
       <c r="M144" s="10"/>
-      <c r="N144" s="109"/>
+      <c r="N144" s="111"/>
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="10"/>
       <c r="B145" s="101"/>
       <c r="D145" s="10"/>
-      <c r="E145" s="105"/>
-      <c r="F145" s="106"/>
-      <c r="G145" s="106"/>
-      <c r="H145" s="106"/>
-      <c r="I145" s="106"/>
-      <c r="J145" s="106"/>
+      <c r="E145" s="107"/>
+      <c r="F145" s="108"/>
+      <c r="G145" s="108"/>
+      <c r="H145" s="108"/>
+      <c r="I145" s="108"/>
+      <c r="J145" s="108"/>
       <c r="K145" s="10"/>
       <c r="L145" s="10"/>
       <c r="M145" s="10"/>
-      <c r="N145" s="109"/>
+      <c r="N145" s="111"/>
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="10"/>
       <c r="B146" s="101"/>
       <c r="D146" s="10"/>
-      <c r="E146" s="105"/>
-      <c r="F146" s="106"/>
-      <c r="G146" s="106"/>
-      <c r="H146" s="106"/>
-      <c r="I146" s="106"/>
-      <c r="J146" s="106"/>
+      <c r="E146" s="107"/>
+      <c r="F146" s="108"/>
+      <c r="G146" s="108"/>
+      <c r="H146" s="108"/>
+      <c r="I146" s="108"/>
+      <c r="J146" s="108"/>
       <c r="K146" s="10"/>
       <c r="L146" s="10"/>
       <c r="M146" s="10"/>
-      <c r="N146" s="109"/>
+      <c r="N146" s="111"/>
     </row>
     <row r="147" spans="1:14">
       <c r="A147" s="10"/>
       <c r="B147" s="101"/>
       <c r="D147" s="10"/>
-      <c r="E147" s="105"/>
-      <c r="F147" s="106"/>
-      <c r="G147" s="106"/>
-      <c r="H147" s="106"/>
-      <c r="I147" s="106"/>
-      <c r="J147" s="106"/>
+      <c r="E147" s="107"/>
+      <c r="F147" s="108"/>
+      <c r="G147" s="108"/>
+      <c r="H147" s="108"/>
+      <c r="I147" s="108"/>
+      <c r="J147" s="108"/>
       <c r="K147" s="10"/>
       <c r="L147" s="10"/>
       <c r="M147" s="10"/>
-      <c r="N147" s="109"/>
+      <c r="N147" s="111"/>
     </row>
     <row r="148" spans="1:14">
       <c r="A148" s="10"/>
       <c r="B148" s="101"/>
       <c r="D148" s="10"/>
-      <c r="E148" s="105"/>
-      <c r="F148" s="106"/>
-      <c r="G148" s="106"/>
-      <c r="H148" s="106"/>
-      <c r="I148" s="106"/>
-      <c r="J148" s="106"/>
+      <c r="E148" s="107"/>
+      <c r="F148" s="108"/>
+      <c r="G148" s="108"/>
+      <c r="H148" s="108"/>
+      <c r="I148" s="108"/>
+      <c r="J148" s="108"/>
       <c r="K148" s="10"/>
       <c r="L148" s="10"/>
       <c r="M148" s="10"/>
-      <c r="N148" s="109"/>
+      <c r="N148" s="111"/>
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="10"/>
       <c r="B149" s="101"/>
       <c r="D149" s="10"/>
-      <c r="E149" s="105"/>
-      <c r="F149" s="106"/>
-      <c r="G149" s="106"/>
-      <c r="H149" s="106"/>
-      <c r="I149" s="106"/>
-      <c r="J149" s="106"/>
+      <c r="E149" s="107"/>
+      <c r="F149" s="108"/>
+      <c r="G149" s="108"/>
+      <c r="H149" s="108"/>
+      <c r="I149" s="108"/>
+      <c r="J149" s="108"/>
       <c r="K149" s="10"/>
       <c r="L149" s="10"/>
       <c r="M149" s="10"/>
-      <c r="N149" s="109"/>
+      <c r="N149" s="111"/>
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="10"/>
       <c r="B150" s="101"/>
       <c r="D150" s="10"/>
-      <c r="E150" s="105"/>
-      <c r="F150" s="106"/>
-      <c r="G150" s="106"/>
-      <c r="H150" s="106"/>
-      <c r="I150" s="106"/>
-      <c r="J150" s="106"/>
+      <c r="E150" s="107"/>
+      <c r="F150" s="108"/>
+      <c r="G150" s="108"/>
+      <c r="H150" s="108"/>
+      <c r="I150" s="108"/>
+      <c r="J150" s="108"/>
       <c r="K150" s="10"/>
       <c r="L150" s="10"/>
       <c r="M150" s="10"/>
-      <c r="N150" s="109"/>
+      <c r="N150" s="111"/>
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="10"/>
       <c r="B151" s="101"/>
       <c r="D151" s="10"/>
-      <c r="E151" s="105"/>
-      <c r="F151" s="106"/>
-      <c r="G151" s="106"/>
-      <c r="H151" s="106"/>
-      <c r="I151" s="106"/>
-      <c r="J151" s="106"/>
+      <c r="E151" s="107"/>
+      <c r="F151" s="108"/>
+      <c r="G151" s="108"/>
+      <c r="H151" s="108"/>
+      <c r="I151" s="108"/>
+      <c r="J151" s="108"/>
       <c r="K151" s="10"/>
       <c r="L151" s="10"/>
       <c r="M151" s="10"/>
-      <c r="N151" s="109"/>
+      <c r="N151" s="111"/>
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="10"/>
       <c r="B152" s="101"/>
       <c r="D152" s="10"/>
-      <c r="E152" s="105"/>
-      <c r="F152" s="106"/>
-      <c r="G152" s="106"/>
-      <c r="H152" s="106"/>
-      <c r="I152" s="106"/>
-      <c r="J152" s="106"/>
+      <c r="E152" s="107"/>
+      <c r="F152" s="108"/>
+      <c r="G152" s="108"/>
+      <c r="H152" s="108"/>
+      <c r="I152" s="108"/>
+      <c r="J152" s="108"/>
       <c r="K152" s="10"/>
       <c r="L152" s="10"/>
       <c r="M152" s="10"/>
-      <c r="N152" s="109"/>
+      <c r="N152" s="111"/>
     </row>
     <row r="153" spans="1:14">
       <c r="A153" s="10"/>
       <c r="B153" s="101"/>
       <c r="D153" s="10"/>
-      <c r="E153" s="105"/>
-      <c r="F153" s="106"/>
-      <c r="G153" s="106"/>
-      <c r="H153" s="106"/>
-      <c r="I153" s="106"/>
-      <c r="J153" s="106"/>
+      <c r="E153" s="107"/>
+      <c r="F153" s="108"/>
+      <c r="G153" s="108"/>
+      <c r="H153" s="108"/>
+      <c r="I153" s="108"/>
+      <c r="J153" s="108"/>
       <c r="K153" s="10"/>
       <c r="L153" s="10"/>
       <c r="M153" s="10"/>
-      <c r="N153" s="109"/>
+      <c r="N153" s="111"/>
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="10"/>
       <c r="B154" s="101"/>
       <c r="D154" s="10"/>
-      <c r="E154" s="105"/>
-      <c r="F154" s="106"/>
-      <c r="G154" s="106"/>
-      <c r="H154" s="106"/>
-      <c r="I154" s="106"/>
-      <c r="J154" s="106"/>
+      <c r="E154" s="107"/>
+      <c r="F154" s="108"/>
+      <c r="G154" s="108"/>
+      <c r="H154" s="108"/>
+      <c r="I154" s="108"/>
+      <c r="J154" s="108"/>
       <c r="K154" s="10"/>
       <c r="L154" s="10"/>
       <c r="M154" s="10"/>
-      <c r="N154" s="109"/>
+      <c r="N154" s="111"/>
     </row>
     <row r="155" spans="1:14">
       <c r="A155" s="10"/>
       <c r="B155" s="101"/>
       <c r="D155" s="10"/>
-      <c r="E155" s="105"/>
-      <c r="F155" s="106"/>
-      <c r="G155" s="106"/>
-      <c r="H155" s="106"/>
-      <c r="I155" s="106"/>
-      <c r="J155" s="106"/>
+      <c r="E155" s="107"/>
+      <c r="F155" s="108"/>
+      <c r="G155" s="108"/>
+      <c r="H155" s="108"/>
+      <c r="I155" s="108"/>
+      <c r="J155" s="108"/>
       <c r="K155" s="10"/>
       <c r="L155" s="10"/>
       <c r="M155" s="10"/>
-      <c r="N155" s="109"/>
+      <c r="N155" s="111"/>
     </row>
     <row r="156" spans="1:14">
       <c r="A156" s="10"/>
       <c r="B156" s="101"/>
       <c r="D156" s="10"/>
-      <c r="E156" s="105"/>
-      <c r="F156" s="106"/>
-      <c r="G156" s="106"/>
-      <c r="H156" s="106"/>
-      <c r="I156" s="106"/>
-      <c r="J156" s="106"/>
+      <c r="E156" s="107"/>
+      <c r="F156" s="108"/>
+      <c r="G156" s="108"/>
+      <c r="H156" s="108"/>
+      <c r="I156" s="108"/>
+      <c r="J156" s="108"/>
       <c r="K156" s="10"/>
       <c r="L156" s="10"/>
       <c r="M156" s="10"/>
-      <c r="N156" s="109"/>
+      <c r="N156" s="111"/>
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="10"/>
       <c r="B157" s="101"/>
       <c r="D157" s="10"/>
-      <c r="E157" s="105"/>
-      <c r="F157" s="106"/>
-      <c r="G157" s="106"/>
-      <c r="H157" s="106"/>
-      <c r="I157" s="106"/>
-      <c r="J157" s="106"/>
+      <c r="E157" s="107"/>
+      <c r="F157" s="108"/>
+      <c r="G157" s="108"/>
+      <c r="H157" s="108"/>
+      <c r="I157" s="108"/>
+      <c r="J157" s="108"/>
       <c r="K157" s="10"/>
       <c r="L157" s="10"/>
       <c r="M157" s="10"/>
-      <c r="N157" s="109"/>
+      <c r="N157" s="111"/>
     </row>
     <row r="158" spans="1:14">
       <c r="A158" s="10"/>
       <c r="B158" s="101"/>
       <c r="D158" s="10"/>
-      <c r="E158" s="105"/>
-      <c r="F158" s="106"/>
-      <c r="G158" s="106"/>
-      <c r="H158" s="106"/>
-      <c r="I158" s="106"/>
-      <c r="J158" s="106"/>
+      <c r="E158" s="107"/>
+      <c r="F158" s="108"/>
+      <c r="G158" s="108"/>
+      <c r="H158" s="108"/>
+      <c r="I158" s="108"/>
+      <c r="J158" s="108"/>
       <c r="K158" s="10"/>
       <c r="L158" s="10"/>
       <c r="M158" s="10"/>
-      <c r="N158" s="109"/>
+      <c r="N158" s="111"/>
     </row>
     <row r="159" spans="1:14">
       <c r="A159" s="10"/>
       <c r="B159" s="101"/>
       <c r="D159" s="10"/>
-      <c r="E159" s="105"/>
-      <c r="F159" s="106"/>
-      <c r="G159" s="106"/>
-      <c r="H159" s="106"/>
-      <c r="I159" s="106"/>
-      <c r="J159" s="106"/>
+      <c r="E159" s="107"/>
+      <c r="F159" s="108"/>
+      <c r="G159" s="108"/>
+      <c r="H159" s="108"/>
+      <c r="I159" s="108"/>
+      <c r="J159" s="108"/>
       <c r="K159" s="10"/>
       <c r="L159" s="10"/>
       <c r="M159" s="10"/>
-      <c r="N159" s="109"/>
+      <c r="N159" s="111"/>
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="10"/>
       <c r="B160" s="101"/>
       <c r="D160" s="10"/>
-      <c r="E160" s="105"/>
-      <c r="F160" s="106"/>
-      <c r="G160" s="106"/>
-      <c r="H160" s="106"/>
-      <c r="I160" s="106"/>
-      <c r="J160" s="106"/>
+      <c r="E160" s="107"/>
+      <c r="F160" s="108"/>
+      <c r="G160" s="108"/>
+      <c r="H160" s="108"/>
+      <c r="I160" s="108"/>
+      <c r="J160" s="108"/>
       <c r="K160" s="10"/>
       <c r="L160" s="10"/>
       <c r="M160" s="10"/>
-      <c r="N160" s="109"/>
+      <c r="N160" s="111"/>
     </row>
     <row r="161" spans="1:14">
       <c r="A161" s="10"/>
       <c r="B161" s="101"/>
       <c r="D161" s="10"/>
-      <c r="E161" s="105"/>
-      <c r="F161" s="106"/>
-      <c r="G161" s="106"/>
-      <c r="H161" s="106"/>
-      <c r="I161" s="106"/>
-      <c r="J161" s="106"/>
+      <c r="E161" s="107"/>
+      <c r="F161" s="108"/>
+      <c r="G161" s="108"/>
+      <c r="H161" s="108"/>
+      <c r="I161" s="108"/>
+      <c r="J161" s="108"/>
       <c r="K161" s="10"/>
       <c r="L161" s="10"/>
       <c r="M161" s="10"/>
-      <c r="N161" s="109"/>
+      <c r="N161" s="111"/>
     </row>
     <row r="162" spans="1:14">
       <c r="A162" s="10"/>
       <c r="B162" s="101"/>
       <c r="D162" s="10"/>
-      <c r="E162" s="105"/>
-      <c r="F162" s="106"/>
-      <c r="G162" s="106"/>
-      <c r="H162" s="106"/>
-      <c r="I162" s="106"/>
-      <c r="J162" s="106"/>
+      <c r="E162" s="107"/>
+      <c r="F162" s="108"/>
+      <c r="G162" s="108"/>
+      <c r="H162" s="108"/>
+      <c r="I162" s="108"/>
+      <c r="J162" s="108"/>
       <c r="K162" s="10"/>
       <c r="L162" s="10"/>
       <c r="M162" s="10"/>
-      <c r="N162" s="109"/>
+      <c r="N162" s="111"/>
     </row>
     <row r="163" spans="1:14">
       <c r="A163" s="10"/>
       <c r="B163" s="101"/>
       <c r="D163" s="10"/>
-      <c r="E163" s="105"/>
-      <c r="F163" s="106"/>
-      <c r="G163" s="106"/>
-      <c r="H163" s="106"/>
-      <c r="I163" s="106"/>
-      <c r="J163" s="106"/>
+      <c r="E163" s="107"/>
+      <c r="F163" s="108"/>
+      <c r="G163" s="108"/>
+      <c r="H163" s="108"/>
+      <c r="I163" s="108"/>
+      <c r="J163" s="108"/>
       <c r="K163" s="10"/>
       <c r="L163" s="10"/>
       <c r="M163" s="10"/>
-      <c r="N163" s="109"/>
+      <c r="N163" s="111"/>
     </row>
     <row r="164" spans="1:14">
       <c r="A164" s="10"/>
       <c r="B164" s="101"/>
       <c r="D164" s="10"/>
-      <c r="E164" s="105"/>
-      <c r="F164" s="106"/>
-      <c r="G164" s="106"/>
-      <c r="H164" s="106"/>
-      <c r="I164" s="106"/>
-      <c r="J164" s="106"/>
+      <c r="E164" s="107"/>
+      <c r="F164" s="108"/>
+      <c r="G164" s="108"/>
+      <c r="H164" s="108"/>
+      <c r="I164" s="108"/>
+      <c r="J164" s="108"/>
       <c r="K164" s="10"/>
       <c r="L164" s="10"/>
       <c r="M164" s="10"/>
-      <c r="N164" s="109"/>
+      <c r="N164" s="111"/>
     </row>
     <row r="165" spans="1:14">
       <c r="A165" s="10"/>
       <c r="B165" s="101"/>
       <c r="D165" s="10"/>
-      <c r="E165" s="105"/>
-      <c r="F165" s="106"/>
-      <c r="G165" s="106"/>
-      <c r="H165" s="106"/>
-      <c r="I165" s="106"/>
-      <c r="J165" s="106"/>
+      <c r="E165" s="107"/>
+      <c r="F165" s="108"/>
+      <c r="G165" s="108"/>
+      <c r="H165" s="108"/>
+      <c r="I165" s="108"/>
+      <c r="J165" s="108"/>
       <c r="K165" s="10"/>
       <c r="L165" s="10"/>
       <c r="M165" s="10"/>
-      <c r="N165" s="109"/>
+      <c r="N165" s="111"/>
     </row>
     <row r="166" spans="1:14">
       <c r="A166" s="10"/>
       <c r="B166" s="101"/>
       <c r="D166" s="10"/>
-      <c r="E166" s="105"/>
-      <c r="F166" s="106"/>
-      <c r="G166" s="106"/>
-      <c r="H166" s="106"/>
-      <c r="I166" s="106"/>
-      <c r="J166" s="106"/>
+      <c r="E166" s="107"/>
+      <c r="F166" s="108"/>
+      <c r="G166" s="108"/>
+      <c r="H166" s="108"/>
+      <c r="I166" s="108"/>
+      <c r="J166" s="108"/>
       <c r="K166" s="10"/>
       <c r="L166" s="10"/>
       <c r="M166" s="10"/>
-      <c r="N166" s="109"/>
+      <c r="N166" s="111"/>
     </row>
     <row r="167" spans="1:14">
       <c r="A167" s="10"/>
       <c r="B167" s="101"/>
       <c r="D167" s="10"/>
-      <c r="E167" s="105"/>
-      <c r="F167" s="106"/>
-      <c r="G167" s="106"/>
-      <c r="H167" s="106"/>
-      <c r="I167" s="106"/>
-      <c r="J167" s="106"/>
+      <c r="E167" s="107"/>
+      <c r="F167" s="108"/>
+      <c r="G167" s="108"/>
+      <c r="H167" s="108"/>
+      <c r="I167" s="108"/>
+      <c r="J167" s="108"/>
       <c r="K167" s="10"/>
       <c r="L167" s="10"/>
       <c r="M167" s="10"/>
-      <c r="N167" s="109"/>
+      <c r="N167" s="111"/>
     </row>
     <row r="168" spans="1:14">
       <c r="A168" s="10"/>
       <c r="B168" s="101"/>
       <c r="D168" s="10"/>
-      <c r="E168" s="105"/>
-      <c r="F168" s="106"/>
-      <c r="G168" s="106"/>
-      <c r="H168" s="106"/>
-      <c r="I168" s="106"/>
-      <c r="J168" s="106"/>
+      <c r="E168" s="107"/>
+      <c r="F168" s="108"/>
+      <c r="G168" s="108"/>
+      <c r="H168" s="108"/>
+      <c r="I168" s="108"/>
+      <c r="J168" s="108"/>
       <c r="K168" s="10"/>
       <c r="L168" s="10"/>
       <c r="M168" s="10"/>
-      <c r="N168" s="109"/>
+      <c r="N168" s="111"/>
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="10"/>
       <c r="B169" s="101"/>
       <c r="D169" s="10"/>
-      <c r="E169" s="105"/>
-      <c r="F169" s="106"/>
-      <c r="G169" s="106"/>
-      <c r="H169" s="106"/>
-      <c r="I169" s="106"/>
-      <c r="J169" s="106"/>
+      <c r="E169" s="107"/>
+      <c r="F169" s="108"/>
+      <c r="G169" s="108"/>
+      <c r="H169" s="108"/>
+      <c r="I169" s="108"/>
+      <c r="J169" s="108"/>
       <c r="K169" s="10"/>
       <c r="L169" s="10"/>
       <c r="M169" s="10"/>
-      <c r="N169" s="109"/>
+      <c r="N169" s="111"/>
     </row>
     <row r="170" spans="1:14">
       <c r="A170" s="10"/>
       <c r="B170" s="101"/>
       <c r="D170" s="10"/>
-      <c r="E170" s="105"/>
-      <c r="F170" s="106"/>
-      <c r="G170" s="106"/>
-      <c r="H170" s="106"/>
-      <c r="I170" s="106"/>
-      <c r="J170" s="106"/>
+      <c r="E170" s="107"/>
+      <c r="F170" s="108"/>
+      <c r="G170" s="108"/>
+      <c r="H170" s="108"/>
+      <c r="I170" s="108"/>
+      <c r="J170" s="108"/>
       <c r="K170" s="10"/>
       <c r="L170" s="10"/>
       <c r="M170" s="10"/>
-      <c r="N170" s="109"/>
+      <c r="N170" s="111"/>
     </row>
     <row r="171" spans="1:14">
       <c r="A171" s="10"/>
       <c r="B171" s="101"/>
       <c r="D171" s="10"/>
-      <c r="E171" s="105"/>
-      <c r="F171" s="106"/>
-      <c r="G171" s="106"/>
-      <c r="H171" s="106"/>
-      <c r="I171" s="106"/>
-      <c r="J171" s="106"/>
+      <c r="E171" s="107"/>
+      <c r="F171" s="108"/>
+      <c r="G171" s="108"/>
+      <c r="H171" s="108"/>
+      <c r="I171" s="108"/>
+      <c r="J171" s="108"/>
       <c r="K171" s="10"/>
       <c r="L171" s="10"/>
       <c r="M171" s="10"/>
-      <c r="N171" s="109"/>
+      <c r="N171" s="111"/>
     </row>
     <row r="172" spans="1:14">
       <c r="A172" s="10"/>
       <c r="B172" s="101"/>
       <c r="D172" s="10"/>
-      <c r="E172" s="105"/>
-      <c r="F172" s="106"/>
-      <c r="G172" s="106"/>
-      <c r="H172" s="106"/>
-      <c r="I172" s="106"/>
-      <c r="J172" s="106"/>
+      <c r="E172" s="107"/>
+      <c r="F172" s="108"/>
+      <c r="G172" s="108"/>
+      <c r="H172" s="108"/>
+      <c r="I172" s="108"/>
+      <c r="J172" s="108"/>
       <c r="K172" s="10"/>
       <c r="L172" s="10"/>
       <c r="M172" s="10"/>
-      <c r="N172" s="109"/>
+      <c r="N172" s="111"/>
     </row>
     <row r="173" spans="1:14">
       <c r="A173" s="10"/>
       <c r="B173" s="101"/>
       <c r="D173" s="10"/>
-      <c r="E173" s="105"/>
-      <c r="F173" s="106"/>
-      <c r="G173" s="106"/>
-      <c r="H173" s="106"/>
-      <c r="I173" s="106"/>
-      <c r="J173" s="106"/>
+      <c r="E173" s="107"/>
+      <c r="F173" s="108"/>
+      <c r="G173" s="108"/>
+      <c r="H173" s="108"/>
+      <c r="I173" s="108"/>
+      <c r="J173" s="108"/>
       <c r="K173" s="10"/>
       <c r="L173" s="10"/>
       <c r="M173" s="10"/>
-      <c r="N173" s="109"/>
+      <c r="N173" s="111"/>
     </row>
     <row r="174" spans="1:14">
       <c r="A174" s="10"/>
       <c r="B174" s="101"/>
       <c r="D174" s="10"/>
-      <c r="E174" s="105"/>
-      <c r="F174" s="106"/>
-      <c r="G174" s="106"/>
-      <c r="H174" s="106"/>
-      <c r="I174" s="106"/>
-      <c r="J174" s="106"/>
+      <c r="E174" s="107"/>
+      <c r="F174" s="108"/>
+      <c r="G174" s="108"/>
+      <c r="H174" s="108"/>
+      <c r="I174" s="108"/>
+      <c r="J174" s="108"/>
       <c r="K174" s="10"/>
       <c r="L174" s="10"/>
       <c r="M174" s="10"/>
-      <c r="N174" s="109"/>
+      <c r="N174" s="111"/>
     </row>
     <row r="175" spans="1:14">
       <c r="A175" s="10"/>
       <c r="B175" s="101"/>
       <c r="D175" s="10"/>
-      <c r="E175" s="105"/>
-      <c r="F175" s="106"/>
-      <c r="G175" s="106"/>
-      <c r="H175" s="106"/>
-      <c r="I175" s="106"/>
-      <c r="J175" s="106"/>
+      <c r="E175" s="107"/>
+      <c r="F175" s="108"/>
+      <c r="G175" s="108"/>
+      <c r="H175" s="108"/>
+      <c r="I175" s="108"/>
+      <c r="J175" s="108"/>
       <c r="K175" s="10"/>
       <c r="L175" s="10"/>
       <c r="M175" s="10"/>
-      <c r="N175" s="109"/>
+      <c r="N175" s="111"/>
     </row>
     <row r="176" spans="1:14">
       <c r="A176" s="10"/>
       <c r="B176" s="101"/>
       <c r="D176" s="10"/>
-      <c r="E176" s="105"/>
-      <c r="F176" s="106"/>
-      <c r="G176" s="106"/>
-      <c r="H176" s="106"/>
-      <c r="I176" s="106"/>
-      <c r="J176" s="106"/>
+      <c r="E176" s="107"/>
+      <c r="F176" s="108"/>
+      <c r="G176" s="108"/>
+      <c r="H176" s="108"/>
+      <c r="I176" s="108"/>
+      <c r="J176" s="108"/>
       <c r="K176" s="10"/>
       <c r="L176" s="10"/>
       <c r="M176" s="10"/>
-      <c r="N176" s="109"/>
+      <c r="N176" s="111"/>
     </row>
     <row r="177" spans="1:14">
       <c r="A177" s="10"/>
       <c r="B177" s="101"/>
       <c r="D177" s="10"/>
-      <c r="E177" s="105"/>
-      <c r="F177" s="106"/>
-      <c r="G177" s="106"/>
-      <c r="H177" s="106"/>
-      <c r="I177" s="106"/>
-      <c r="J177" s="106"/>
+      <c r="E177" s="107"/>
+      <c r="F177" s="108"/>
+      <c r="G177" s="108"/>
+      <c r="H177" s="108"/>
+      <c r="I177" s="108"/>
+      <c r="J177" s="108"/>
       <c r="K177" s="10"/>
       <c r="L177" s="10"/>
       <c r="M177" s="10"/>
-      <c r="N177" s="109"/>
+      <c r="N177" s="111"/>
     </row>
     <row r="178" spans="1:14">
       <c r="A178" s="10"/>
       <c r="B178" s="101"/>
       <c r="D178" s="10"/>
-      <c r="E178" s="105"/>
-      <c r="F178" s="106"/>
-      <c r="G178" s="106"/>
-      <c r="H178" s="106"/>
-      <c r="I178" s="106"/>
-      <c r="J178" s="106"/>
+      <c r="E178" s="107"/>
+      <c r="F178" s="108"/>
+      <c r="G178" s="108"/>
+      <c r="H178" s="108"/>
+      <c r="I178" s="108"/>
+      <c r="J178" s="108"/>
       <c r="K178" s="10"/>
       <c r="L178" s="10"/>
       <c r="M178" s="10"/>
-      <c r="N178" s="109"/>
+      <c r="N178" s="111"/>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="10"/>
       <c r="B179" s="101"/>
       <c r="D179" s="10"/>
-      <c r="E179" s="105"/>
-      <c r="F179" s="106"/>
-      <c r="G179" s="106"/>
-      <c r="H179" s="106"/>
-      <c r="I179" s="106"/>
-      <c r="J179" s="106"/>
+      <c r="E179" s="107"/>
+      <c r="F179" s="108"/>
+      <c r="G179" s="108"/>
+      <c r="H179" s="108"/>
+      <c r="I179" s="108"/>
+      <c r="J179" s="108"/>
       <c r="K179" s="10"/>
       <c r="L179" s="10"/>
       <c r="M179" s="10"/>
-      <c r="N179" s="109"/>
+      <c r="N179" s="111"/>
     </row>
     <row r="180" spans="1:14">
       <c r="A180" s="10"/>
       <c r="B180" s="101"/>
       <c r="D180" s="10"/>
-      <c r="E180" s="105"/>
-      <c r="F180" s="106"/>
-      <c r="G180" s="106"/>
-      <c r="H180" s="106"/>
-      <c r="I180" s="106"/>
-      <c r="J180" s="106"/>
+      <c r="E180" s="107"/>
+      <c r="F180" s="108"/>
+      <c r="G180" s="108"/>
+      <c r="H180" s="108"/>
+      <c r="I180" s="108"/>
+      <c r="J180" s="108"/>
       <c r="K180" s="10"/>
       <c r="L180" s="10"/>
       <c r="M180" s="10"/>
-      <c r="N180" s="109"/>
+      <c r="N180" s="111"/>
     </row>
     <row r="181" spans="1:14">
       <c r="A181" s="10"/>
       <c r="B181" s="101"/>
       <c r="D181" s="10"/>
-      <c r="E181" s="105"/>
-      <c r="F181" s="106"/>
-      <c r="G181" s="106"/>
-      <c r="H181" s="106"/>
-      <c r="I181" s="106"/>
-      <c r="J181" s="106"/>
+      <c r="E181" s="107"/>
+      <c r="F181" s="108"/>
+      <c r="G181" s="108"/>
+      <c r="H181" s="108"/>
+      <c r="I181" s="108"/>
+      <c r="J181" s="108"/>
       <c r="K181" s="10"/>
       <c r="L181" s="10"/>
       <c r="M181" s="10"/>
-      <c r="N181" s="109"/>
+      <c r="N181" s="111"/>
     </row>
     <row r="182" spans="1:14">
       <c r="A182" s="10"/>
       <c r="B182" s="101"/>
       <c r="D182" s="10"/>
-      <c r="E182" s="105"/>
-      <c r="F182" s="106"/>
-      <c r="G182" s="106"/>
-      <c r="H182" s="106"/>
-      <c r="I182" s="106"/>
-      <c r="J182" s="106"/>
+      <c r="E182" s="107"/>
+      <c r="F182" s="108"/>
+      <c r="G182" s="108"/>
+      <c r="H182" s="108"/>
+      <c r="I182" s="108"/>
+      <c r="J182" s="108"/>
       <c r="K182" s="10"/>
       <c r="L182" s="10"/>
       <c r="M182" s="10"/>
-      <c r="N182" s="109"/>
+      <c r="N182" s="111"/>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="10"/>
       <c r="B183" s="101"/>
       <c r="D183" s="10"/>
-      <c r="E183" s="105"/>
-      <c r="F183" s="106"/>
-      <c r="G183" s="106"/>
-      <c r="H183" s="106"/>
-      <c r="I183" s="106"/>
-      <c r="J183" s="106"/>
+      <c r="E183" s="107"/>
+      <c r="F183" s="108"/>
+      <c r="G183" s="108"/>
+      <c r="H183" s="108"/>
+      <c r="I183" s="108"/>
+      <c r="J183" s="108"/>
       <c r="K183" s="10"/>
       <c r="L183" s="10"/>
       <c r="M183" s="10"/>
-      <c r="N183" s="109"/>
+      <c r="N183" s="111"/>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="10"/>
       <c r="B184" s="101"/>
       <c r="D184" s="10"/>
-      <c r="E184" s="105"/>
-      <c r="F184" s="106"/>
-      <c r="G184" s="106"/>
-      <c r="H184" s="106"/>
-      <c r="I184" s="106"/>
-      <c r="J184" s="106"/>
+      <c r="E184" s="107"/>
+      <c r="F184" s="108"/>
+      <c r="G184" s="108"/>
+      <c r="H184" s="108"/>
+      <c r="I184" s="108"/>
+      <c r="J184" s="108"/>
       <c r="K184" s="10"/>
       <c r="L184" s="10"/>
       <c r="M184" s="10"/>
-      <c r="N184" s="109"/>
+      <c r="N184" s="111"/>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="10"/>
       <c r="B185" s="101"/>
       <c r="D185" s="10"/>
-      <c r="E185" s="105"/>
-      <c r="F185" s="106"/>
-      <c r="G185" s="106"/>
-      <c r="H185" s="106"/>
-      <c r="I185" s="106"/>
-      <c r="J185" s="106"/>
+      <c r="E185" s="107"/>
+      <c r="F185" s="108"/>
+      <c r="G185" s="108"/>
+      <c r="H185" s="108"/>
+      <c r="I185" s="108"/>
+      <c r="J185" s="108"/>
       <c r="K185" s="10"/>
       <c r="L185" s="10"/>
       <c r="M185" s="10"/>
-      <c r="N185" s="109"/>
+      <c r="N185" s="111"/>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="10"/>
       <c r="B186" s="101"/>
       <c r="D186" s="10"/>
-      <c r="E186" s="105"/>
-      <c r="F186" s="106"/>
-      <c r="G186" s="106"/>
-      <c r="H186" s="106"/>
-      <c r="I186" s="106"/>
-      <c r="J186" s="106"/>
+      <c r="E186" s="107"/>
+      <c r="F186" s="108"/>
+      <c r="G186" s="108"/>
+      <c r="H186" s="108"/>
+      <c r="I186" s="108"/>
+      <c r="J186" s="108"/>
       <c r="K186" s="10"/>
       <c r="L186" s="10"/>
       <c r="M186" s="10"/>
-      <c r="N186" s="109"/>
+      <c r="N186" s="111"/>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="10"/>
       <c r="B187" s="101"/>
       <c r="D187" s="10"/>
-      <c r="E187" s="105"/>
-      <c r="F187" s="106"/>
-      <c r="G187" s="106"/>
-      <c r="H187" s="106"/>
-      <c r="I187" s="106"/>
-      <c r="J187" s="106"/>
+      <c r="E187" s="107"/>
+      <c r="F187" s="108"/>
+      <c r="G187" s="108"/>
+      <c r="H187" s="108"/>
+      <c r="I187" s="108"/>
+      <c r="J187" s="108"/>
       <c r="K187" s="10"/>
       <c r="L187" s="10"/>
       <c r="M187" s="10"/>
-      <c r="N187" s="109"/>
+      <c r="N187" s="111"/>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="10"/>
       <c r="B188" s="101"/>
       <c r="D188" s="10"/>
-      <c r="E188" s="105"/>
-      <c r="F188" s="106"/>
-      <c r="G188" s="106"/>
-      <c r="H188" s="106"/>
-      <c r="I188" s="106"/>
-      <c r="J188" s="106"/>
+      <c r="E188" s="107"/>
+      <c r="F188" s="108"/>
+      <c r="G188" s="108"/>
+      <c r="H188" s="108"/>
+      <c r="I188" s="108"/>
+      <c r="J188" s="108"/>
       <c r="K188" s="10"/>
       <c r="L188" s="10"/>
       <c r="M188" s="10"/>
-      <c r="N188" s="109"/>
+      <c r="N188" s="111"/>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="10"/>
       <c r="B189" s="101"/>
       <c r="D189" s="10"/>
-      <c r="E189" s="105"/>
-      <c r="F189" s="106"/>
-      <c r="G189" s="106"/>
-      <c r="H189" s="106"/>
-      <c r="I189" s="106"/>
-      <c r="J189" s="106"/>
+      <c r="E189" s="107"/>
+      <c r="F189" s="108"/>
+      <c r="G189" s="108"/>
+      <c r="H189" s="108"/>
+      <c r="I189" s="108"/>
+      <c r="J189" s="108"/>
       <c r="K189" s="10"/>
       <c r="L189" s="10"/>
       <c r="M189" s="10"/>
-      <c r="N189" s="109"/>
+      <c r="N189" s="111"/>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="10"/>
       <c r="B190" s="101"/>
       <c r="D190" s="10"/>
-      <c r="E190" s="105"/>
-      <c r="F190" s="106"/>
-      <c r="G190" s="106"/>
-      <c r="H190" s="106"/>
-      <c r="I190" s="106"/>
-      <c r="J190" s="106"/>
+      <c r="E190" s="107"/>
+      <c r="F190" s="108"/>
+      <c r="G190" s="108"/>
+      <c r="H190" s="108"/>
+      <c r="I190" s="108"/>
+      <c r="J190" s="108"/>
       <c r="K190" s="10"/>
       <c r="L190" s="10"/>
       <c r="M190" s="10"/>
-      <c r="N190" s="109"/>
+      <c r="N190" s="111"/>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="10"/>
       <c r="B191" s="101"/>
       <c r="D191" s="10"/>
-      <c r="E191" s="105"/>
-      <c r="F191" s="106"/>
-      <c r="G191" s="106"/>
-      <c r="H191" s="106"/>
-      <c r="I191" s="106"/>
-      <c r="J191" s="106"/>
+      <c r="E191" s="107"/>
+      <c r="F191" s="108"/>
+      <c r="G191" s="108"/>
+      <c r="H191" s="108"/>
+      <c r="I191" s="108"/>
+      <c r="J191" s="108"/>
       <c r="K191" s="10"/>
       <c r="L191" s="10"/>
       <c r="M191" s="10"/>
-      <c r="N191" s="109"/>
+      <c r="N191" s="111"/>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="10"/>
       <c r="B192" s="101"/>
       <c r="D192" s="10"/>
-      <c r="E192" s="105"/>
-      <c r="F192" s="106"/>
-      <c r="G192" s="106"/>
-      <c r="H192" s="106"/>
-      <c r="I192" s="106"/>
-      <c r="J192" s="106"/>
+      <c r="E192" s="107"/>
+      <c r="F192" s="108"/>
+      <c r="G192" s="108"/>
+      <c r="H192" s="108"/>
+      <c r="I192" s="108"/>
+      <c r="J192" s="108"/>
       <c r="K192" s="10"/>
       <c r="L192" s="10"/>
       <c r="M192" s="10"/>
-      <c r="N192" s="109"/>
+      <c r="N192" s="111"/>
     </row>
     <row r="193" spans="1:14">
       <c r="A193" s="10"/>
       <c r="B193" s="101"/>
       <c r="D193" s="10"/>
-      <c r="E193" s="105"/>
-      <c r="F193" s="106"/>
-      <c r="G193" s="106"/>
-      <c r="H193" s="106"/>
-      <c r="I193" s="106"/>
-      <c r="J193" s="106"/>
+      <c r="E193" s="107"/>
+      <c r="F193" s="108"/>
+      <c r="G193" s="108"/>
+      <c r="H193" s="108"/>
+      <c r="I193" s="108"/>
+      <c r="J193" s="108"/>
       <c r="K193" s="10"/>
       <c r="L193" s="10"/>
       <c r="M193" s="10"/>
-      <c r="N193" s="109"/>
+      <c r="N193" s="111"/>
     </row>
     <row r="194" spans="1:14">
       <c r="A194" s="10"/>
       <c r="B194" s="101"/>
       <c r="D194" s="10"/>
-      <c r="E194" s="105"/>
-      <c r="F194" s="106"/>
-      <c r="G194" s="106"/>
-      <c r="H194" s="106"/>
-      <c r="I194" s="106"/>
-      <c r="J194" s="106"/>
+      <c r="E194" s="107"/>
+      <c r="F194" s="108"/>
+      <c r="G194" s="108"/>
+      <c r="H194" s="108"/>
+      <c r="I194" s="108"/>
+      <c r="J194" s="108"/>
       <c r="K194" s="10"/>
       <c r="L194" s="10"/>
       <c r="M194" s="10"/>
-      <c r="N194" s="109"/>
+      <c r="N194" s="111"/>
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="10"/>
       <c r="B195" s="101"/>
       <c r="D195" s="10"/>
-      <c r="E195" s="105"/>
-      <c r="F195" s="106"/>
-      <c r="G195" s="106"/>
-      <c r="H195" s="106"/>
-      <c r="I195" s="106"/>
-      <c r="J195" s="106"/>
+      <c r="E195" s="107"/>
+      <c r="F195" s="108"/>
+      <c r="G195" s="108"/>
+      <c r="H195" s="108"/>
+      <c r="I195" s="108"/>
+      <c r="J195" s="108"/>
       <c r="K195" s="10"/>
       <c r="L195" s="10"/>
       <c r="M195" s="10"/>
-      <c r="N195" s="109"/>
+      <c r="N195" s="111"/>
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="10"/>
       <c r="B196" s="101"/>
       <c r="D196" s="10"/>
-      <c r="E196" s="105"/>
-      <c r="F196" s="106"/>
-      <c r="G196" s="106"/>
-      <c r="H196" s="106"/>
-      <c r="I196" s="106"/>
-      <c r="J196" s="106"/>
+      <c r="E196" s="107"/>
+      <c r="F196" s="108"/>
+      <c r="G196" s="108"/>
+      <c r="H196" s="108"/>
+      <c r="I196" s="108"/>
+      <c r="J196" s="108"/>
       <c r="K196" s="10"/>
       <c r="L196" s="10"/>
       <c r="M196" s="10"/>
-      <c r="N196" s="109"/>
+      <c r="N196" s="111"/>
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="10"/>
       <c r="B197" s="101"/>
       <c r="D197" s="10"/>
-      <c r="E197" s="105"/>
-      <c r="F197" s="106"/>
-      <c r="G197" s="106"/>
-      <c r="H197" s="106"/>
-      <c r="I197" s="106"/>
-      <c r="J197" s="106"/>
+      <c r="E197" s="107"/>
+      <c r="F197" s="108"/>
+      <c r="G197" s="108"/>
+      <c r="H197" s="108"/>
+      <c r="I197" s="108"/>
+      <c r="J197" s="108"/>
       <c r="K197" s="10"/>
       <c r="L197" s="10"/>
       <c r="M197" s="10"/>
-      <c r="N197" s="109"/>
+      <c r="N197" s="111"/>
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="10"/>
       <c r="B198" s="101"/>
       <c r="D198" s="10"/>
-      <c r="E198" s="105"/>
-      <c r="F198" s="106"/>
-      <c r="G198" s="106"/>
-      <c r="H198" s="106"/>
-      <c r="I198" s="106"/>
-      <c r="J198" s="106"/>
+      <c r="E198" s="107"/>
+      <c r="F198" s="108"/>
+      <c r="G198" s="108"/>
+      <c r="H198" s="108"/>
+      <c r="I198" s="108"/>
+      <c r="J198" s="108"/>
       <c r="K198" s="10"/>
       <c r="L198" s="10"/>
       <c r="M198" s="10"/>
-      <c r="N198" s="109"/>
+      <c r="N198" s="111"/>
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="10"/>
       <c r="B199" s="101"/>
       <c r="D199" s="10"/>
-      <c r="E199" s="105"/>
-      <c r="F199" s="106"/>
-      <c r="G199" s="106"/>
-      <c r="H199" s="106"/>
-      <c r="I199" s="106"/>
-      <c r="J199" s="106"/>
+      <c r="E199" s="107"/>
+      <c r="F199" s="108"/>
+      <c r="G199" s="108"/>
+      <c r="H199" s="108"/>
+      <c r="I199" s="108"/>
+      <c r="J199" s="108"/>
       <c r="K199" s="10"/>
       <c r="L199" s="10"/>
       <c r="M199" s="10"/>
-      <c r="N199" s="109"/>
+      <c r="N199" s="111"/>
     </row>
     <row r="200" spans="1:14">
       <c r="A200" s="10"/>
       <c r="B200" s="101"/>
       <c r="D200" s="10"/>
-      <c r="E200" s="105"/>
-      <c r="F200" s="106"/>
-      <c r="G200" s="106"/>
-      <c r="H200" s="106"/>
-      <c r="I200" s="106"/>
-      <c r="J200" s="106"/>
+      <c r="E200" s="107"/>
+      <c r="F200" s="108"/>
+      <c r="G200" s="108"/>
+      <c r="H200" s="108"/>
+      <c r="I200" s="108"/>
+      <c r="J200" s="108"/>
       <c r="K200" s="10"/>
       <c r="L200" s="10"/>
       <c r="M200" s="10"/>
-      <c r="N200" s="109"/>
+      <c r="N200" s="111"/>
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="10"/>
       <c r="B201" s="101"/>
       <c r="D201" s="10"/>
-      <c r="E201" s="105"/>
-      <c r="F201" s="106"/>
-      <c r="G201" s="106"/>
-      <c r="H201" s="106"/>
-      <c r="I201" s="106"/>
-      <c r="J201" s="106"/>
+      <c r="E201" s="107"/>
+      <c r="F201" s="108"/>
+      <c r="G201" s="108"/>
+      <c r="H201" s="108"/>
+      <c r="I201" s="108"/>
+      <c r="J201" s="108"/>
       <c r="K201" s="10"/>
       <c r="L201" s="10"/>
       <c r="M201" s="10"/>
-      <c r="N201" s="109"/>
+      <c r="N201" s="111"/>
     </row>
     <row r="202" spans="1:14">
       <c r="A202" s="10"/>
       <c r="B202" s="101"/>
       <c r="D202" s="10"/>
-      <c r="E202" s="105"/>
-      <c r="F202" s="106"/>
-      <c r="G202" s="106"/>
-      <c r="H202" s="106"/>
-      <c r="I202" s="106"/>
-      <c r="J202" s="106"/>
+      <c r="E202" s="107"/>
+      <c r="F202" s="108"/>
+      <c r="G202" s="108"/>
+      <c r="H202" s="108"/>
+      <c r="I202" s="108"/>
+      <c r="J202" s="108"/>
       <c r="K202" s="10"/>
       <c r="L202" s="10"/>
       <c r="M202" s="10"/>
-      <c r="N202" s="109"/>
+      <c r="N202" s="111"/>
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="10"/>
       <c r="B203" s="101"/>
       <c r="D203" s="10"/>
-      <c r="E203" s="105"/>
-      <c r="F203" s="106"/>
-      <c r="G203" s="106"/>
-      <c r="H203" s="106"/>
-      <c r="I203" s="106"/>
-      <c r="J203" s="106"/>
+      <c r="E203" s="107"/>
+      <c r="F203" s="108"/>
+      <c r="G203" s="108"/>
+      <c r="H203" s="108"/>
+      <c r="I203" s="108"/>
+      <c r="J203" s="108"/>
       <c r="K203" s="10"/>
       <c r="L203" s="10"/>
       <c r="M203" s="10"/>
-      <c r="N203" s="109"/>
+      <c r="N203" s="111"/>
     </row>
     <row r="204" spans="1:14">
       <c r="A204" s="10"/>
       <c r="B204" s="101"/>
       <c r="D204" s="10"/>
-      <c r="E204" s="105"/>
-      <c r="F204" s="106"/>
-      <c r="G204" s="106"/>
-      <c r="H204" s="106"/>
-      <c r="I204" s="106"/>
-      <c r="J204" s="106"/>
+      <c r="E204" s="107"/>
+      <c r="F204" s="108"/>
+      <c r="G204" s="108"/>
+      <c r="H204" s="108"/>
+      <c r="I204" s="108"/>
+      <c r="J204" s="108"/>
       <c r="K204" s="10"/>
       <c r="L204" s="10"/>
       <c r="M204" s="10"/>
-      <c r="N204" s="109"/>
+      <c r="N204" s="111"/>
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="10"/>
       <c r="B205" s="101"/>
       <c r="D205" s="10"/>
-      <c r="E205" s="105"/>
-      <c r="F205" s="106"/>
-      <c r="G205" s="106"/>
-      <c r="H205" s="106"/>
-      <c r="I205" s="106"/>
-      <c r="J205" s="106"/>
+      <c r="E205" s="107"/>
+      <c r="F205" s="108"/>
+      <c r="G205" s="108"/>
+      <c r="H205" s="108"/>
+      <c r="I205" s="108"/>
+      <c r="J205" s="108"/>
       <c r="K205" s="10"/>
       <c r="L205" s="10"/>
       <c r="M205" s="10"/>
-      <c r="N205" s="109"/>
+      <c r="N205" s="111"/>
     </row>
     <row r="206" spans="1:14">
       <c r="A206" s="10"/>
       <c r="B206" s="101"/>
       <c r="D206" s="10"/>
-      <c r="E206" s="105"/>
-      <c r="F206" s="106"/>
-      <c r="G206" s="106"/>
-      <c r="H206" s="106"/>
-      <c r="I206" s="106"/>
-      <c r="J206" s="106"/>
+      <c r="E206" s="107"/>
+      <c r="F206" s="108"/>
+      <c r="G206" s="108"/>
+      <c r="H206" s="108"/>
+      <c r="I206" s="108"/>
+      <c r="J206" s="108"/>
       <c r="K206" s="10"/>
       <c r="L206" s="10"/>
       <c r="M206" s="10"/>
-      <c r="N206" s="109"/>
+      <c r="N206" s="111"/>
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="10"/>
       <c r="B207" s="101"/>
       <c r="D207" s="10"/>
-      <c r="E207" s="105"/>
-      <c r="F207" s="106"/>
-      <c r="G207" s="106"/>
-      <c r="H207" s="106"/>
-      <c r="I207" s="106"/>
-      <c r="J207" s="106"/>
+      <c r="E207" s="107"/>
+      <c r="F207" s="108"/>
+      <c r="G207" s="108"/>
+      <c r="H207" s="108"/>
+      <c r="I207" s="108"/>
+      <c r="J207" s="108"/>
       <c r="K207" s="10"/>
       <c r="L207" s="10"/>
       <c r="M207" s="10"/>
-      <c r="N207" s="109"/>
+      <c r="N207" s="111"/>
     </row>
     <row r="208" spans="1:14">
       <c r="A208" s="10"/>
       <c r="B208" s="101"/>
       <c r="D208" s="10"/>
-      <c r="E208" s="105"/>
-      <c r="F208" s="106"/>
-      <c r="G208" s="106"/>
-      <c r="H208" s="106"/>
-      <c r="I208" s="106"/>
-      <c r="J208" s="106"/>
+      <c r="E208" s="107"/>
+      <c r="F208" s="108"/>
+      <c r="G208" s="108"/>
+      <c r="H208" s="108"/>
+      <c r="I208" s="108"/>
+      <c r="J208" s="108"/>
       <c r="K208" s="10"/>
       <c r="L208" s="10"/>
       <c r="M208" s="10"/>
-      <c r="N208" s="109"/>
+      <c r="N208" s="111"/>
     </row>
     <row r="209" spans="1:14">
       <c r="A209" s="10"/>
       <c r="B209" s="101"/>
       <c r="D209" s="10"/>
-      <c r="E209" s="105"/>
-      <c r="F209" s="106"/>
-      <c r="G209" s="106"/>
-      <c r="H209" s="106"/>
-      <c r="I209" s="106"/>
-      <c r="J209" s="106"/>
+      <c r="E209" s="107"/>
+      <c r="F209" s="108"/>
+      <c r="G209" s="108"/>
+      <c r="H209" s="108"/>
+      <c r="I209" s="108"/>
+      <c r="J209" s="108"/>
       <c r="K209" s="10"/>
       <c r="L209" s="10"/>
       <c r="M209" s="10"/>
-      <c r="N209" s="109"/>
+      <c r="N209" s="111"/>
     </row>
     <row r="210" spans="1:14">
       <c r="A210" s="10"/>
       <c r="B210" s="101"/>
       <c r="D210" s="10"/>
-      <c r="E210" s="105"/>
-      <c r="F210" s="106"/>
-      <c r="G210" s="106"/>
-      <c r="H210" s="106"/>
-      <c r="I210" s="106"/>
-      <c r="J210" s="106"/>
+      <c r="E210" s="107"/>
+      <c r="F210" s="108"/>
+      <c r="G210" s="108"/>
+      <c r="H210" s="108"/>
+      <c r="I210" s="108"/>
+      <c r="J210" s="108"/>
       <c r="K210" s="10"/>
       <c r="L210" s="10"/>
       <c r="M210" s="10"/>
-      <c r="N210" s="109"/>
+      <c r="N210" s="111"/>
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="10"/>
       <c r="B211" s="101"/>
       <c r="D211" s="10"/>
-      <c r="E211" s="105"/>
-      <c r="F211" s="106"/>
-      <c r="G211" s="106"/>
-      <c r="H211" s="106"/>
-      <c r="I211" s="106"/>
-      <c r="J211" s="106"/>
+      <c r="E211" s="107"/>
+      <c r="F211" s="108"/>
+      <c r="G211" s="108"/>
+      <c r="H211" s="108"/>
+      <c r="I211" s="108"/>
+      <c r="J211" s="108"/>
       <c r="K211" s="10"/>
       <c r="L211" s="10"/>
       <c r="M211" s="10"/>
-      <c r="N211" s="109"/>
+      <c r="N211" s="111"/>
     </row>
     <row r="212" spans="1:14">
       <c r="A212" s="10"/>
       <c r="B212" s="101"/>
       <c r="D212" s="10"/>
-      <c r="E212" s="105"/>
-      <c r="F212" s="106"/>
-      <c r="G212" s="106"/>
-      <c r="H212" s="106"/>
-      <c r="I212" s="106"/>
-      <c r="J212" s="106"/>
+      <c r="E212" s="107"/>
+      <c r="F212" s="108"/>
+      <c r="G212" s="108"/>
+      <c r="H212" s="108"/>
+      <c r="I212" s="108"/>
+      <c r="J212" s="108"/>
       <c r="K212" s="10"/>
       <c r="L212" s="10"/>
       <c r="M212" s="10"/>
-      <c r="N212" s="109"/>
+      <c r="N212" s="111"/>
     </row>
     <row r="213" spans="1:14">
       <c r="A213" s="10"/>
       <c r="B213" s="101"/>
       <c r="D213" s="10"/>
-      <c r="E213" s="105"/>
-      <c r="F213" s="106"/>
-      <c r="G213" s="106"/>
-      <c r="H213" s="106"/>
-      <c r="I213" s="106"/>
-      <c r="J213" s="106"/>
+      <c r="E213" s="107"/>
+      <c r="F213" s="108"/>
+      <c r="G213" s="108"/>
+      <c r="H213" s="108"/>
+      <c r="I213" s="108"/>
+      <c r="J213" s="108"/>
       <c r="K213" s="10"/>
       <c r="L213" s="10"/>
       <c r="M213" s="10"/>
-      <c r="N213" s="109"/>
+      <c r="N213" s="111"/>
     </row>
     <row r="214" spans="1:14">
       <c r="A214" s="10"/>
       <c r="B214" s="101"/>
       <c r="D214" s="10"/>
-      <c r="E214" s="105"/>
-      <c r="F214" s="106"/>
-      <c r="G214" s="106"/>
-      <c r="H214" s="106"/>
-      <c r="I214" s="106"/>
-      <c r="J214" s="106"/>
+      <c r="E214" s="107"/>
+      <c r="F214" s="108"/>
+      <c r="G214" s="108"/>
+      <c r="H214" s="108"/>
+      <c r="I214" s="108"/>
+      <c r="J214" s="108"/>
       <c r="K214" s="10"/>
       <c r="L214" s="10"/>
       <c r="M214" s="10"/>
-      <c r="N214" s="109"/>
+      <c r="N214" s="111"/>
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="10"/>
       <c r="B215" s="101"/>
       <c r="D215" s="10"/>
-      <c r="E215" s="105"/>
-      <c r="F215" s="106"/>
-      <c r="G215" s="106"/>
-      <c r="H215" s="106"/>
-      <c r="I215" s="106"/>
-      <c r="J215" s="106"/>
+      <c r="E215" s="107"/>
+      <c r="F215" s="108"/>
+      <c r="G215" s="108"/>
+      <c r="H215" s="108"/>
+      <c r="I215" s="108"/>
+      <c r="J215" s="108"/>
       <c r="K215" s="10"/>
       <c r="L215" s="10"/>
       <c r="M215" s="10"/>
-      <c r="N215" s="109"/>
+      <c r="N215" s="111"/>
     </row>
     <row r="216" spans="1:14">
       <c r="A216" s="10"/>
       <c r="B216" s="101"/>
       <c r="D216" s="10"/>
-      <c r="E216" s="105"/>
-      <c r="F216" s="106"/>
-      <c r="G216" s="106"/>
-      <c r="H216" s="106"/>
-      <c r="I216" s="106"/>
-      <c r="J216" s="106"/>
+      <c r="E216" s="107"/>
+      <c r="F216" s="108"/>
+      <c r="G216" s="108"/>
+      <c r="H216" s="108"/>
+      <c r="I216" s="108"/>
+      <c r="J216" s="108"/>
       <c r="K216" s="10"/>
       <c r="L216" s="10"/>
       <c r="M216" s="10"/>
-      <c r="N216" s="109"/>
+      <c r="N216" s="111"/>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="10"/>
       <c r="B217" s="101"/>
       <c r="D217" s="10"/>
-      <c r="E217" s="105"/>
-      <c r="F217" s="106"/>
-      <c r="G217" s="106"/>
-      <c r="H217" s="106"/>
-      <c r="I217" s="106"/>
-      <c r="J217" s="106"/>
+      <c r="E217" s="107"/>
+      <c r="F217" s="108"/>
+      <c r="G217" s="108"/>
+      <c r="H217" s="108"/>
+      <c r="I217" s="108"/>
+      <c r="J217" s="108"/>
       <c r="K217" s="10"/>
       <c r="L217" s="10"/>
       <c r="M217" s="10"/>
-      <c r="N217" s="109"/>
+      <c r="N217" s="111"/>
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="10"/>
       <c r="B218" s="101"/>
       <c r="D218" s="10"/>
-      <c r="E218" s="105"/>
-      <c r="F218" s="106"/>
-      <c r="G218" s="106"/>
-      <c r="H218" s="106"/>
-      <c r="I218" s="106"/>
-      <c r="J218" s="106"/>
+      <c r="E218" s="107"/>
+      <c r="F218" s="108"/>
+      <c r="G218" s="108"/>
+      <c r="H218" s="108"/>
+      <c r="I218" s="108"/>
+      <c r="J218" s="108"/>
       <c r="K218" s="10"/>
       <c r="L218" s="10"/>
       <c r="M218" s="10"/>
-      <c r="N218" s="109"/>
+      <c r="N218" s="111"/>
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="10"/>
       <c r="B219" s="101"/>
       <c r="D219" s="10"/>
-      <c r="E219" s="105"/>
-      <c r="F219" s="106"/>
-      <c r="G219" s="106"/>
-      <c r="H219" s="106"/>
-      <c r="I219" s="106"/>
-      <c r="J219" s="106"/>
+      <c r="E219" s="107"/>
+      <c r="F219" s="108"/>
+      <c r="G219" s="108"/>
+      <c r="H219" s="108"/>
+      <c r="I219" s="108"/>
+      <c r="J219" s="108"/>
       <c r="K219" s="10"/>
       <c r="L219" s="10"/>
       <c r="M219" s="10"/>
-      <c r="N219" s="109"/>
+      <c r="N219" s="111"/>
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="10"/>
       <c r="B220" s="101"/>
       <c r="D220" s="10"/>
-      <c r="E220" s="105"/>
-      <c r="F220" s="106"/>
-      <c r="G220" s="106"/>
-      <c r="H220" s="106"/>
-      <c r="I220" s="106"/>
-      <c r="J220" s="106"/>
+      <c r="E220" s="107"/>
+      <c r="F220" s="108"/>
+      <c r="G220" s="108"/>
+      <c r="H220" s="108"/>
+      <c r="I220" s="108"/>
+      <c r="J220" s="108"/>
       <c r="K220" s="10"/>
       <c r="L220" s="10"/>
       <c r="M220" s="10"/>
-      <c r="N220" s="109"/>
+      <c r="N220" s="111"/>
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="10"/>
       <c r="B221" s="101"/>
       <c r="D221" s="10"/>
-      <c r="E221" s="105"/>
-      <c r="F221" s="106"/>
-      <c r="G221" s="106"/>
-      <c r="H221" s="106"/>
-      <c r="I221" s="106"/>
-      <c r="J221" s="106"/>
+      <c r="E221" s="107"/>
+      <c r="F221" s="108"/>
+      <c r="G221" s="108"/>
+      <c r="H221" s="108"/>
+      <c r="I221" s="108"/>
+      <c r="J221" s="108"/>
       <c r="K221" s="10"/>
       <c r="L221" s="10"/>
       <c r="M221" s="10"/>
-      <c r="N221" s="109"/>
+      <c r="N221" s="111"/>
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="10"/>
       <c r="B222" s="101"/>
       <c r="D222" s="10"/>
-      <c r="E222" s="105"/>
-      <c r="F222" s="106"/>
-      <c r="G222" s="106"/>
-      <c r="H222" s="106"/>
-      <c r="I222" s="106"/>
-      <c r="J222" s="106"/>
+      <c r="E222" s="107"/>
+      <c r="F222" s="108"/>
+      <c r="G222" s="108"/>
+      <c r="H222" s="108"/>
+      <c r="I222" s="108"/>
+      <c r="J222" s="108"/>
       <c r="K222" s="10"/>
       <c r="L222" s="10"/>
       <c r="M222" s="10"/>
-      <c r="N222" s="109"/>
+      <c r="N222" s="111"/>
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="10"/>
       <c r="B223" s="101"/>
       <c r="D223" s="10"/>
-      <c r="E223" s="105"/>
-      <c r="F223" s="106"/>
-      <c r="G223" s="106"/>
-      <c r="H223" s="106"/>
-      <c r="I223" s="106"/>
-      <c r="J223" s="106"/>
+      <c r="E223" s="107"/>
+      <c r="F223" s="108"/>
+      <c r="G223" s="108"/>
+      <c r="H223" s="108"/>
+      <c r="I223" s="108"/>
+      <c r="J223" s="108"/>
       <c r="K223" s="10"/>
       <c r="L223" s="10"/>
       <c r="M223" s="10"/>
-      <c r="N223" s="109"/>
+      <c r="N223" s="111"/>
     </row>
     <row r="224" spans="1:14">
       <c r="A224" s="10"/>
       <c r="B224" s="101"/>
       <c r="D224" s="10"/>
-      <c r="E224" s="105"/>
-      <c r="F224" s="106"/>
-      <c r="G224" s="106"/>
-      <c r="H224" s="106"/>
-      <c r="I224" s="106"/>
-      <c r="J224" s="106"/>
+      <c r="E224" s="107"/>
+      <c r="F224" s="108"/>
+      <c r="G224" s="108"/>
+      <c r="H224" s="108"/>
+      <c r="I224" s="108"/>
+      <c r="J224" s="108"/>
       <c r="K224" s="10"/>
       <c r="L224" s="10"/>
       <c r="M224" s="10"/>
-      <c r="N224" s="109"/>
+      <c r="N224" s="111"/>
     </row>
     <row r="225" spans="1:14">
       <c r="A225" s="10"/>
       <c r="B225" s="101"/>
       <c r="D225" s="10"/>
-      <c r="E225" s="105"/>
-      <c r="F225" s="106"/>
-      <c r="G225" s="106"/>
-      <c r="H225" s="106"/>
-      <c r="I225" s="106"/>
-      <c r="J225" s="106"/>
+      <c r="E225" s="107"/>
+      <c r="F225" s="108"/>
+      <c r="G225" s="108"/>
+      <c r="H225" s="108"/>
+      <c r="I225" s="108"/>
+      <c r="J225" s="108"/>
       <c r="K225" s="10"/>
       <c r="L225" s="10"/>
       <c r="M225" s="10"/>
-      <c r="N225" s="109"/>
+      <c r="N225" s="111"/>
     </row>
     <row r="226" spans="1:14">
       <c r="A226" s="10"/>
       <c r="B226" s="101"/>
       <c r="D226" s="10"/>
-      <c r="E226" s="105"/>
-      <c r="F226" s="106"/>
-      <c r="G226" s="106"/>
-      <c r="H226" s="106"/>
-      <c r="I226" s="106"/>
-      <c r="J226" s="106"/>
+      <c r="E226" s="107"/>
+      <c r="F226" s="108"/>
+      <c r="G226" s="108"/>
+      <c r="H226" s="108"/>
+      <c r="I226" s="108"/>
+      <c r="J226" s="108"/>
       <c r="K226" s="10"/>
       <c r="L226" s="10"/>
       <c r="M226" s="10"/>
-      <c r="N226" s="109"/>
+      <c r="N226" s="111"/>
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="10"/>
       <c r="B227" s="101"/>
       <c r="D227" s="10"/>
-      <c r="E227" s="105"/>
-      <c r="F227" s="106"/>
-      <c r="G227" s="106"/>
-      <c r="H227" s="106"/>
-      <c r="I227" s="106"/>
-      <c r="J227" s="106"/>
+      <c r="E227" s="107"/>
+      <c r="F227" s="108"/>
+      <c r="G227" s="108"/>
+      <c r="H227" s="108"/>
+      <c r="I227" s="108"/>
+      <c r="J227" s="108"/>
       <c r="K227" s="10"/>
       <c r="L227" s="10"/>
       <c r="M227" s="10"/>
-      <c r="N227" s="109"/>
+      <c r="N227" s="111"/>
     </row>
     <row r="228" spans="1:14">
       <c r="A228" s="10"/>
       <c r="B228" s="101"/>
       <c r="D228" s="10"/>
-      <c r="E228" s="105"/>
-      <c r="F228" s="106"/>
-      <c r="G228" s="106"/>
-      <c r="H228" s="106"/>
-      <c r="I228" s="106"/>
-      <c r="J228" s="106"/>
+      <c r="E228" s="107"/>
+      <c r="F228" s="108"/>
+      <c r="G228" s="108"/>
+      <c r="H228" s="108"/>
+      <c r="I228" s="108"/>
+      <c r="J228" s="108"/>
       <c r="K228" s="10"/>
       <c r="L228" s="10"/>
       <c r="M228" s="10"/>
-      <c r="N228" s="109"/>
+      <c r="N228" s="111"/>
     </row>
     <row r="229" spans="1:14">
       <c r="A229" s="10"/>
       <c r="B229" s="101"/>
       <c r="D229" s="10"/>
-      <c r="E229" s="105"/>
-      <c r="F229" s="106"/>
-      <c r="G229" s="106"/>
-      <c r="H229" s="106"/>
-      <c r="I229" s="106"/>
-      <c r="J229" s="106"/>
+      <c r="E229" s="107"/>
+      <c r="F229" s="108"/>
+      <c r="G229" s="108"/>
+      <c r="H229" s="108"/>
+      <c r="I229" s="108"/>
+      <c r="J229" s="108"/>
       <c r="K229" s="10"/>
       <c r="L229" s="10"/>
       <c r="M229" s="10"/>
-      <c r="N229" s="109"/>
+      <c r="N229" s="111"/>
     </row>
     <row r="230" spans="1:14">
       <c r="A230" s="10"/>
       <c r="B230" s="101"/>
       <c r="D230" s="10"/>
-      <c r="E230" s="105"/>
-      <c r="F230" s="106"/>
-      <c r="G230" s="106"/>
-      <c r="H230" s="106"/>
-      <c r="I230" s="106"/>
-      <c r="J230" s="106"/>
+      <c r="E230" s="107"/>
+      <c r="F230" s="108"/>
+      <c r="G230" s="108"/>
+      <c r="H230" s="108"/>
+      <c r="I230" s="108"/>
+      <c r="J230" s="108"/>
       <c r="K230" s="10"/>
       <c r="L230" s="10"/>
       <c r="M230" s="10"/>
-      <c r="N230" s="109"/>
+      <c r="N230" s="111"/>
     </row>
     <row r="231" spans="1:14">
       <c r="A231" s="10"/>
       <c r="B231" s="101"/>
       <c r="D231" s="10"/>
-      <c r="E231" s="105"/>
-      <c r="F231" s="106"/>
-      <c r="G231" s="106"/>
-      <c r="H231" s="106"/>
-      <c r="I231" s="106"/>
-      <c r="J231" s="106"/>
+      <c r="E231" s="107"/>
+      <c r="F231" s="108"/>
+      <c r="G231" s="108"/>
+      <c r="H231" s="108"/>
+      <c r="I231" s="108"/>
+      <c r="J231" s="108"/>
       <c r="K231" s="10"/>
       <c r="L231" s="10"/>
       <c r="M231" s="10"/>
-      <c r="N231" s="109"/>
+      <c r="N231" s="111"/>
     </row>
     <row r="232" spans="1:14">
       <c r="A232" s="10"/>
       <c r="B232" s="101"/>
       <c r="D232" s="10"/>
-      <c r="E232" s="105"/>
-      <c r="F232" s="106"/>
-      <c r="G232" s="106"/>
-      <c r="H232" s="106"/>
-      <c r="I232" s="106"/>
-      <c r="J232" s="106"/>
+      <c r="E232" s="107"/>
+      <c r="F232" s="108"/>
+      <c r="G232" s="108"/>
+      <c r="H232" s="108"/>
+      <c r="I232" s="108"/>
+      <c r="J232" s="108"/>
       <c r="K232" s="10"/>
       <c r="L232" s="10"/>
       <c r="M232" s="10"/>
-      <c r="N232" s="109"/>
+      <c r="N232" s="111"/>
     </row>
     <row r="233" spans="1:14">
       <c r="A233" s="10"/>
       <c r="B233" s="101"/>
       <c r="D233" s="10"/>
-      <c r="E233" s="105"/>
-      <c r="F233" s="106"/>
-      <c r="G233" s="106"/>
-      <c r="H233" s="106"/>
-      <c r="I233" s="106"/>
-      <c r="J233" s="106"/>
+      <c r="E233" s="107"/>
+      <c r="F233" s="108"/>
+      <c r="G233" s="108"/>
+      <c r="H233" s="108"/>
+      <c r="I233" s="108"/>
+      <c r="J233" s="108"/>
       <c r="K233" s="10"/>
       <c r="L233" s="10"/>
       <c r="M233" s="10"/>
-      <c r="N233" s="109"/>
+      <c r="N233" s="111"/>
     </row>
     <row r="234" spans="1:14">
       <c r="A234" s="10"/>
       <c r="B234" s="101"/>
       <c r="D234" s="10"/>
-      <c r="E234" s="105"/>
-      <c r="F234" s="106"/>
-      <c r="G234" s="106"/>
-      <c r="H234" s="106"/>
-      <c r="I234" s="106"/>
-      <c r="J234" s="106"/>
+      <c r="E234" s="107"/>
+      <c r="F234" s="108"/>
+      <c r="G234" s="108"/>
+      <c r="H234" s="108"/>
+      <c r="I234" s="108"/>
+      <c r="J234" s="108"/>
       <c r="K234" s="10"/>
       <c r="L234" s="10"/>
       <c r="M234" s="10"/>
-      <c r="N234" s="109"/>
+      <c r="N234" s="111"/>
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="10"/>
       <c r="B235" s="101"/>
       <c r="D235" s="10"/>
-      <c r="E235" s="105"/>
-      <c r="F235" s="106"/>
-      <c r="G235" s="106"/>
-      <c r="H235" s="106"/>
-      <c r="I235" s="106"/>
-      <c r="J235" s="106"/>
+      <c r="E235" s="107"/>
+      <c r="F235" s="108"/>
+      <c r="G235" s="108"/>
+      <c r="H235" s="108"/>
+      <c r="I235" s="108"/>
+      <c r="J235" s="108"/>
       <c r="K235" s="10"/>
       <c r="L235" s="10"/>
       <c r="M235" s="10"/>
-      <c r="N235" s="109"/>
+      <c r="N235" s="111"/>
     </row>
     <row r="236" spans="1:14">
       <c r="A236" s="10"/>
       <c r="B236" s="101"/>
       <c r="D236" s="10"/>
-      <c r="E236" s="105"/>
-      <c r="F236" s="106"/>
-      <c r="G236" s="106"/>
-      <c r="H236" s="106"/>
-      <c r="I236" s="106"/>
-      <c r="J236" s="106"/>
+      <c r="E236" s="107"/>
+      <c r="F236" s="108"/>
+      <c r="G236" s="108"/>
+      <c r="H236" s="108"/>
+      <c r="I236" s="108"/>
+      <c r="J236" s="108"/>
       <c r="K236" s="10"/>
       <c r="L236" s="10"/>
       <c r="M236" s="10"/>
-      <c r="N236" s="109"/>
+      <c r="N236" s="111"/>
     </row>
     <row r="237" spans="1:14">
       <c r="A237" s="10"/>
       <c r="B237" s="101"/>
       <c r="D237" s="10"/>
-      <c r="E237" s="105"/>
-      <c r="F237" s="106"/>
-      <c r="G237" s="106"/>
-      <c r="H237" s="106"/>
-      <c r="I237" s="106"/>
-      <c r="J237" s="106"/>
+      <c r="E237" s="107"/>
+      <c r="F237" s="108"/>
+      <c r="G237" s="108"/>
+      <c r="H237" s="108"/>
+      <c r="I237" s="108"/>
+      <c r="J237" s="108"/>
       <c r="K237" s="10"/>
       <c r="L237" s="10"/>
       <c r="M237" s="10"/>
-      <c r="N237" s="109"/>
+      <c r="N237" s="111"/>
     </row>
     <row r="238" spans="1:14">
       <c r="A238" s="10"/>
       <c r="B238" s="101"/>
       <c r="D238" s="10"/>
-      <c r="E238" s="105"/>
-      <c r="F238" s="106"/>
-      <c r="G238" s="106"/>
-      <c r="H238" s="106"/>
-      <c r="I238" s="106"/>
-      <c r="J238" s="106"/>
+      <c r="E238" s="107"/>
+      <c r="F238" s="108"/>
+      <c r="G238" s="108"/>
+      <c r="H238" s="108"/>
+      <c r="I238" s="108"/>
+      <c r="J238" s="108"/>
       <c r="K238" s="10"/>
       <c r="L238" s="10"/>
       <c r="M238" s="10"/>
-      <c r="N238" s="109"/>
+      <c r="N238" s="111"/>
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="10"/>
       <c r="B239" s="101"/>
       <c r="D239" s="10"/>
-      <c r="E239" s="105"/>
-      <c r="F239" s="106"/>
-      <c r="G239" s="106"/>
-      <c r="H239" s="106"/>
-      <c r="I239" s="106"/>
-      <c r="J239" s="106"/>
+      <c r="E239" s="107"/>
+      <c r="F239" s="108"/>
+      <c r="G239" s="108"/>
+      <c r="H239" s="108"/>
+      <c r="I239" s="108"/>
+      <c r="J239" s="108"/>
       <c r="K239" s="10"/>
       <c r="L239" s="10"/>
       <c r="M239" s="10"/>
-      <c r="N239" s="109"/>
+      <c r="N239" s="111"/>
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="10"/>
       <c r="B240" s="101"/>
       <c r="D240" s="10"/>
-      <c r="E240" s="105"/>
-      <c r="F240" s="106"/>
-      <c r="G240" s="106"/>
-      <c r="H240" s="106"/>
-      <c r="I240" s="106"/>
-      <c r="J240" s="106"/>
+      <c r="E240" s="107"/>
+      <c r="F240" s="108"/>
+      <c r="G240" s="108"/>
+      <c r="H240" s="108"/>
+      <c r="I240" s="108"/>
+      <c r="J240" s="108"/>
       <c r="K240" s="10"/>
       <c r="L240" s="10"/>
       <c r="M240" s="10"/>
-      <c r="N240" s="109"/>
+      <c r="N240" s="111"/>
     </row>
     <row r="241" spans="1:14">
       <c r="A241" s="10"/>
       <c r="B241" s="101"/>
       <c r="D241" s="10"/>
-      <c r="E241" s="105"/>
-      <c r="F241" s="106"/>
-      <c r="G241" s="106"/>
-      <c r="H241" s="106"/>
-      <c r="I241" s="106"/>
-      <c r="J241" s="106"/>
+      <c r="E241" s="107"/>
+      <c r="F241" s="108"/>
+      <c r="G241" s="108"/>
+      <c r="H241" s="108"/>
+      <c r="I241" s="108"/>
+      <c r="J241" s="108"/>
       <c r="K241" s="10"/>
       <c r="L241" s="10"/>
       <c r="M241" s="10"/>
-      <c r="N241" s="109"/>
+      <c r="N241" s="111"/>
     </row>
     <row r="242" spans="1:14">
       <c r="A242" s="10"/>
       <c r="B242" s="101"/>
       <c r="D242" s="10"/>
-      <c r="E242" s="105"/>
-      <c r="F242" s="106"/>
-      <c r="G242" s="106"/>
-      <c r="H242" s="106"/>
-      <c r="I242" s="106"/>
-      <c r="J242" s="106"/>
+      <c r="E242" s="107"/>
+      <c r="F242" s="108"/>
+      <c r="G242" s="108"/>
+      <c r="H242" s="108"/>
+      <c r="I242" s="108"/>
+      <c r="J242" s="108"/>
       <c r="K242" s="10"/>
       <c r="L242" s="10"/>
       <c r="M242" s="10"/>
-      <c r="N242" s="109"/>
+      <c r="N242" s="111"/>
     </row>
     <row r="243" spans="1:14">
       <c r="A243" s="10"/>
       <c r="B243" s="101"/>
       <c r="D243" s="10"/>
-      <c r="E243" s="105"/>
-      <c r="F243" s="106"/>
-      <c r="G243" s="106"/>
-      <c r="H243" s="106"/>
-      <c r="I243" s="106"/>
-      <c r="J243" s="106"/>
+      <c r="E243" s="107"/>
+      <c r="F243" s="108"/>
+      <c r="G243" s="108"/>
+      <c r="H243" s="108"/>
+      <c r="I243" s="108"/>
+      <c r="J243" s="108"/>
       <c r="K243" s="10"/>
       <c r="L243" s="10"/>
       <c r="M243" s="10"/>
-      <c r="N243" s="109"/>
+      <c r="N243" s="111"/>
     </row>
     <row r="244" spans="1:14">
       <c r="A244" s="10"/>
       <c r="B244" s="101"/>
       <c r="D244" s="10"/>
-      <c r="E244" s="105"/>
-      <c r="F244" s="106"/>
-      <c r="G244" s="106"/>
-      <c r="H244" s="106"/>
-      <c r="I244" s="106"/>
-      <c r="J244" s="106"/>
+      <c r="E244" s="107"/>
+      <c r="F244" s="108"/>
+      <c r="G244" s="108"/>
+      <c r="H244" s="108"/>
+      <c r="I244" s="108"/>
+      <c r="J244" s="108"/>
       <c r="K244" s="10"/>
       <c r="L244" s="10"/>
       <c r="M244" s="10"/>
-      <c r="N244" s="109"/>
+      <c r="N244" s="111"/>
     </row>
     <row r="245" spans="1:14">
       <c r="A245" s="10"/>
       <c r="B245" s="101"/>
       <c r="D245" s="10"/>
-      <c r="E245" s="105"/>
-      <c r="F245" s="106"/>
-      <c r="G245" s="106"/>
-      <c r="H245" s="106"/>
-      <c r="I245" s="106"/>
-      <c r="J245" s="106"/>
+      <c r="E245" s="107"/>
+      <c r="F245" s="108"/>
+      <c r="G245" s="108"/>
+      <c r="H245" s="108"/>
+      <c r="I245" s="108"/>
+      <c r="J245" s="108"/>
       <c r="K245" s="10"/>
       <c r="L245" s="10"/>
       <c r="M245" s="10"/>
-      <c r="N245" s="109"/>
+      <c r="N245" s="111"/>
     </row>
     <row r="246" spans="1:14">
       <c r="A246" s="10"/>
       <c r="B246" s="101"/>
       <c r="D246" s="10"/>
-      <c r="E246" s="105"/>
-      <c r="F246" s="106"/>
-      <c r="G246" s="106"/>
-      <c r="H246" s="106"/>
-      <c r="I246" s="106"/>
-      <c r="J246" s="106"/>
+      <c r="E246" s="107"/>
+      <c r="F246" s="108"/>
+      <c r="G246" s="108"/>
+      <c r="H246" s="108"/>
+      <c r="I246" s="108"/>
+      <c r="J246" s="108"/>
       <c r="K246" s="10"/>
       <c r="L246" s="10"/>
       <c r="M246" s="10"/>
-      <c r="N246" s="109"/>
+      <c r="N246" s="111"/>
     </row>
     <row r="247" spans="1:14">
       <c r="A247" s="10"/>
       <c r="B247" s="101"/>
       <c r="D247" s="10"/>
-      <c r="E247" s="105"/>
-      <c r="F247" s="106"/>
-      <c r="G247" s="106"/>
-      <c r="H247" s="106"/>
-      <c r="I247" s="106"/>
-      <c r="J247" s="106"/>
+      <c r="E247" s="107"/>
+      <c r="F247" s="108"/>
+      <c r="G247" s="108"/>
+      <c r="H247" s="108"/>
+      <c r="I247" s="108"/>
+      <c r="J247" s="108"/>
       <c r="K247" s="10"/>
       <c r="L247" s="10"/>
       <c r="M247" s="10"/>
-      <c r="N247" s="109"/>
+      <c r="N247" s="111"/>
     </row>
     <row r="248" spans="1:14">
       <c r="A248" s="10"/>
       <c r="B248" s="101"/>
       <c r="D248" s="10"/>
-      <c r="E248" s="105"/>
-      <c r="F248" s="106"/>
-      <c r="G248" s="106"/>
-      <c r="H248" s="106"/>
-      <c r="I248" s="106"/>
-      <c r="J248" s="106"/>
+      <c r="E248" s="107"/>
+      <c r="F248" s="108"/>
+      <c r="G248" s="108"/>
+      <c r="H248" s="108"/>
+      <c r="I248" s="108"/>
+      <c r="J248" s="108"/>
       <c r="K248" s="10"/>
       <c r="L248" s="10"/>
       <c r="M248" s="10"/>
-      <c r="N248" s="109"/>
+      <c r="N248" s="111"/>
     </row>
     <row r="249" spans="1:14">
       <c r="A249" s="10"/>
       <c r="B249" s="101"/>
       <c r="D249" s="10"/>
-      <c r="E249" s="105"/>
-      <c r="F249" s="106"/>
-      <c r="G249" s="106"/>
-      <c r="H249" s="106"/>
-      <c r="I249" s="106"/>
-      <c r="J249" s="106"/>
+      <c r="E249" s="107"/>
+      <c r="F249" s="108"/>
+      <c r="G249" s="108"/>
+      <c r="H249" s="108"/>
+      <c r="I249" s="108"/>
+      <c r="J249" s="108"/>
       <c r="K249" s="10"/>
       <c r="L249" s="10"/>
       <c r="M249" s="10"/>
-      <c r="N249" s="109"/>
+      <c r="N249" s="111"/>
     </row>
     <row r="250" spans="1:14">
       <c r="A250" s="10"/>
       <c r="B250" s="101"/>
       <c r="D250" s="10"/>
-      <c r="E250" s="105"/>
-      <c r="F250" s="106"/>
-      <c r="G250" s="106"/>
-      <c r="H250" s="106"/>
-      <c r="I250" s="106"/>
-      <c r="J250" s="106"/>
+      <c r="E250" s="107"/>
+      <c r="F250" s="108"/>
+      <c r="G250" s="108"/>
+      <c r="H250" s="108"/>
+      <c r="I250" s="108"/>
+      <c r="J250" s="108"/>
       <c r="K250" s="10"/>
       <c r="L250" s="10"/>
       <c r="M250" s="10"/>
-      <c r="N250" s="109"/>
+      <c r="N250" s="111"/>
     </row>
     <row r="251" spans="1:14">
       <c r="A251" s="10"/>
       <c r="B251" s="101"/>
       <c r="D251" s="10"/>
-      <c r="E251" s="105"/>
-      <c r="F251" s="106"/>
-      <c r="G251" s="106"/>
-      <c r="H251" s="106"/>
-      <c r="I251" s="106"/>
-      <c r="J251" s="106"/>
+      <c r="E251" s="107"/>
+      <c r="F251" s="108"/>
+      <c r="G251" s="108"/>
+      <c r="H251" s="108"/>
+      <c r="I251" s="108"/>
+      <c r="J251" s="108"/>
       <c r="K251" s="10"/>
       <c r="L251" s="10"/>
       <c r="M251" s="10"/>
-      <c r="N251" s="109"/>
+      <c r="N251" s="111"/>
     </row>
     <row r="252" spans="1:14">
       <c r="A252" s="10"/>
       <c r="B252" s="101"/>
       <c r="D252" s="10"/>
-      <c r="E252" s="105"/>
-      <c r="F252" s="106"/>
-      <c r="G252" s="106"/>
-      <c r="H252" s="106"/>
-      <c r="I252" s="106"/>
-      <c r="J252" s="106"/>
+      <c r="E252" s="107"/>
+      <c r="F252" s="108"/>
+      <c r="G252" s="108"/>
+      <c r="H252" s="108"/>
+      <c r="I252" s="108"/>
+      <c r="J252" s="108"/>
       <c r="K252" s="10"/>
       <c r="L252" s="10"/>
       <c r="M252" s="10"/>
-      <c r="N252" s="109"/>
+      <c r="N252" s="111"/>
     </row>
     <row r="253" spans="1:14">
       <c r="A253" s="10"/>
       <c r="B253" s="101"/>
       <c r="D253" s="10"/>
-      <c r="E253" s="105"/>
-      <c r="F253" s="106"/>
-      <c r="G253" s="106"/>
-      <c r="H253" s="106"/>
-      <c r="I253" s="106"/>
-      <c r="J253" s="106"/>
+      <c r="E253" s="107"/>
+      <c r="F253" s="108"/>
+      <c r="G253" s="108"/>
+      <c r="H253" s="108"/>
+      <c r="I253" s="108"/>
+      <c r="J253" s="108"/>
       <c r="K253" s="10"/>
       <c r="L253" s="10"/>
       <c r="M253" s="10"/>
-      <c r="N253" s="109"/>
+      <c r="N253" s="111"/>
     </row>
     <row r="254" spans="1:14">
       <c r="A254" s="10"/>
       <c r="B254" s="101"/>
       <c r="D254" s="10"/>
-      <c r="E254" s="105"/>
-      <c r="F254" s="106"/>
-      <c r="G254" s="106"/>
-      <c r="H254" s="106"/>
-      <c r="I254" s="106"/>
-      <c r="J254" s="106"/>
+      <c r="E254" s="107"/>
+      <c r="F254" s="108"/>
+      <c r="G254" s="108"/>
+      <c r="H254" s="108"/>
+      <c r="I254" s="108"/>
+      <c r="J254" s="108"/>
       <c r="K254" s="10"/>
       <c r="L254" s="10"/>
       <c r="M254" s="10"/>
-      <c r="N254" s="109"/>
+      <c r="N254" s="111"/>
     </row>
     <row r="255" spans="1:14">
       <c r="A255" s="10"/>
       <c r="B255" s="101"/>
       <c r="D255" s="10"/>
-      <c r="E255" s="105"/>
-      <c r="F255" s="106"/>
-      <c r="G255" s="106"/>
-      <c r="H255" s="106"/>
-      <c r="I255" s="106"/>
-      <c r="J255" s="106"/>
+      <c r="E255" s="107"/>
+      <c r="F255" s="108"/>
+      <c r="G255" s="108"/>
+      <c r="H255" s="108"/>
+      <c r="I255" s="108"/>
+      <c r="J255" s="108"/>
       <c r="K255" s="10"/>
       <c r="L255" s="10"/>
       <c r="M255" s="10"/>
-      <c r="N255" s="109"/>
+      <c r="N255" s="111"/>
     </row>
     <row r="256" spans="1:14">
       <c r="A256" s="10"/>
       <c r="B256" s="101"/>
       <c r="D256" s="10"/>
-      <c r="E256" s="105"/>
-      <c r="F256" s="106"/>
-      <c r="G256" s="106"/>
-      <c r="H256" s="106"/>
-      <c r="I256" s="106"/>
-      <c r="J256" s="106"/>
+      <c r="E256" s="107"/>
+      <c r="F256" s="108"/>
+      <c r="G256" s="108"/>
+      <c r="H256" s="108"/>
+      <c r="I256" s="108"/>
+      <c r="J256" s="108"/>
       <c r="K256" s="10"/>
       <c r="L256" s="10"/>
       <c r="M256" s="10"/>
-      <c r="N256" s="109"/>
+      <c r="N256" s="111"/>
     </row>
     <row r="257" spans="1:14">
       <c r="A257" s="10"/>
       <c r="B257" s="101"/>
       <c r="D257" s="10"/>
-      <c r="E257" s="105"/>
-      <c r="F257" s="106"/>
-      <c r="G257" s="106"/>
-      <c r="H257" s="106"/>
-      <c r="I257" s="106"/>
-      <c r="J257" s="106"/>
+      <c r="E257" s="107"/>
+      <c r="F257" s="108"/>
+      <c r="G257" s="108"/>
+      <c r="H257" s="108"/>
+      <c r="I257" s="108"/>
+      <c r="J257" s="108"/>
       <c r="K257" s="10"/>
       <c r="L257" s="10"/>
       <c r="M257" s="10"/>
-      <c r="N257" s="109"/>
+      <c r="N257" s="111"/>
     </row>
     <row r="258" spans="1:14">
       <c r="A258" s="10"/>
       <c r="B258" s="101"/>
       <c r="D258" s="10"/>
-      <c r="E258" s="105"/>
-      <c r="F258" s="106"/>
-      <c r="G258" s="106"/>
-      <c r="H258" s="106"/>
-      <c r="I258" s="106"/>
-      <c r="J258" s="106"/>
+      <c r="E258" s="107"/>
+      <c r="F258" s="108"/>
+      <c r="G258" s="108"/>
+      <c r="H258" s="108"/>
+      <c r="I258" s="108"/>
+      <c r="J258" s="108"/>
       <c r="K258" s="10"/>
       <c r="L258" s="10"/>
       <c r="M258" s="10"/>
-      <c r="N258" s="109"/>
+      <c r="N258" s="111"/>
     </row>
     <row r="259" spans="1:14">
       <c r="A259" s="10"/>
       <c r="B259" s="101"/>
       <c r="D259" s="10"/>
-      <c r="E259" s="105"/>
-      <c r="F259" s="106"/>
-      <c r="G259" s="106"/>
-      <c r="H259" s="106"/>
-      <c r="I259" s="106"/>
-      <c r="J259" s="106"/>
+      <c r="E259" s="107"/>
+      <c r="F259" s="108"/>
+      <c r="G259" s="108"/>
+      <c r="H259" s="108"/>
+      <c r="I259" s="108"/>
+      <c r="J259" s="108"/>
       <c r="K259" s="10"/>
       <c r="L259" s="10"/>
       <c r="M259" s="10"/>
-      <c r="N259" s="109"/>
+      <c r="N259" s="111"/>
     </row>
     <row r="260" spans="1:14">
       <c r="A260" s="10"/>
       <c r="B260" s="101"/>
       <c r="D260" s="10"/>
-      <c r="E260" s="105"/>
-      <c r="F260" s="106"/>
-      <c r="G260" s="106"/>
-      <c r="H260" s="106"/>
-      <c r="I260" s="106"/>
-      <c r="J260" s="106"/>
+      <c r="E260" s="107"/>
+      <c r="F260" s="108"/>
+      <c r="G260" s="108"/>
+      <c r="H260" s="108"/>
+      <c r="I260" s="108"/>
+      <c r="J260" s="108"/>
       <c r="K260" s="10"/>
       <c r="L260" s="10"/>
       <c r="M260" s="10"/>
-      <c r="N260" s="109"/>
+      <c r="N260" s="111"/>
     </row>
     <row r="261" spans="1:14">
       <c r="A261" s="10"/>
       <c r="B261" s="101"/>
       <c r="D261" s="10"/>
-      <c r="E261" s="105"/>
-      <c r="F261" s="106"/>
-      <c r="G261" s="106"/>
-      <c r="H261" s="106"/>
-      <c r="I261" s="106"/>
-      <c r="J261" s="106"/>
+      <c r="E261" s="107"/>
+      <c r="F261" s="108"/>
+      <c r="G261" s="108"/>
+      <c r="H261" s="108"/>
+      <c r="I261" s="108"/>
+      <c r="J261" s="108"/>
       <c r="K261" s="10"/>
       <c r="L261" s="10"/>
       <c r="M261" s="10"/>
-      <c r="N261" s="109"/>
+      <c r="N261" s="111"/>
     </row>
     <row r="262" spans="1:14">
       <c r="A262" s="10"/>
       <c r="B262" s="101"/>
       <c r="D262" s="10"/>
-      <c r="E262" s="105"/>
-      <c r="F262" s="106"/>
-      <c r="G262" s="106"/>
-      <c r="H262" s="106"/>
-      <c r="I262" s="106"/>
-      <c r="J262" s="106"/>
+      <c r="E262" s="107"/>
+      <c r="F262" s="108"/>
+      <c r="G262" s="108"/>
+      <c r="H262" s="108"/>
+      <c r="I262" s="108"/>
+      <c r="J262" s="108"/>
       <c r="K262" s="10"/>
       <c r="L262" s="10"/>
       <c r="M262" s="10"/>
-      <c r="N262" s="109"/>
+      <c r="N262" s="111"/>
     </row>
     <row r="263" spans="1:14">
       <c r="A263" s="10"/>
       <c r="B263" s="101"/>
       <c r="D263" s="10"/>
-      <c r="E263" s="105"/>
-      <c r="F263" s="106"/>
-      <c r="G263" s="106"/>
-      <c r="H263" s="106"/>
-      <c r="I263" s="106"/>
-      <c r="J263" s="106"/>
+      <c r="E263" s="107"/>
+      <c r="F263" s="108"/>
+      <c r="G263" s="108"/>
+      <c r="H263" s="108"/>
+      <c r="I263" s="108"/>
+      <c r="J263" s="108"/>
       <c r="K263" s="10"/>
       <c r="L263" s="10"/>
       <c r="M263" s="10"/>
-      <c r="N263" s="109"/>
+      <c r="N263" s="111"/>
     </row>
     <row r="264" spans="1:14">
       <c r="A264" s="10"/>
       <c r="B264" s="101"/>
       <c r="D264" s="10"/>
-      <c r="E264" s="105"/>
-      <c r="F264" s="106"/>
-      <c r="G264" s="106"/>
-      <c r="H264" s="106"/>
-      <c r="I264" s="106"/>
-      <c r="J264" s="106"/>
+      <c r="E264" s="107"/>
+      <c r="F264" s="108"/>
+      <c r="G264" s="108"/>
+      <c r="H264" s="108"/>
+      <c r="I264" s="108"/>
+      <c r="J264" s="108"/>
       <c r="K264" s="10"/>
       <c r="L264" s="10"/>
       <c r="M264" s="10"/>
-      <c r="N264" s="109"/>
+      <c r="N264" s="111"/>
     </row>
     <row r="265" spans="1:14">
       <c r="A265" s="10"/>
       <c r="B265" s="101"/>
       <c r="D265" s="10"/>
-      <c r="E265" s="105"/>
-      <c r="F265" s="106"/>
-      <c r="G265" s="106"/>
-      <c r="H265" s="106"/>
-      <c r="I265" s="106"/>
-      <c r="J265" s="106"/>
+      <c r="E265" s="107"/>
+      <c r="F265" s="108"/>
+      <c r="G265" s="108"/>
+      <c r="H265" s="108"/>
+      <c r="I265" s="108"/>
+      <c r="J265" s="108"/>
       <c r="K265" s="10"/>
       <c r="L265" s="10"/>
       <c r="M265" s="10"/>
-      <c r="N265" s="109"/>
+      <c r="N265" s="111"/>
     </row>
     <row r="266" spans="1:14">
       <c r="A266" s="10"/>
       <c r="B266" s="101"/>
       <c r="D266" s="10"/>
-      <c r="E266" s="105"/>
-      <c r="F266" s="106"/>
-      <c r="G266" s="106"/>
-      <c r="H266" s="106"/>
-      <c r="I266" s="106"/>
-      <c r="J266" s="106"/>
+      <c r="E266" s="107"/>
+      <c r="F266" s="108"/>
+      <c r="G266" s="108"/>
+      <c r="H266" s="108"/>
+      <c r="I266" s="108"/>
+      <c r="J266" s="108"/>
       <c r="K266" s="10"/>
       <c r="L266" s="10"/>
       <c r="M266" s="10"/>
-      <c r="N266" s="109"/>
+      <c r="N266" s="111"/>
     </row>
     <row r="267" spans="1:14">
       <c r="A267" s="10"/>
       <c r="B267" s="101"/>
       <c r="D267" s="10"/>
-      <c r="E267" s="105"/>
-      <c r="F267" s="106"/>
-      <c r="G267" s="106"/>
-      <c r="H267" s="106"/>
-      <c r="I267" s="106"/>
-      <c r="J267" s="106"/>
+      <c r="E267" s="107"/>
+      <c r="F267" s="108"/>
+      <c r="G267" s="108"/>
+      <c r="H267" s="108"/>
+      <c r="I267" s="108"/>
+      <c r="J267" s="108"/>
       <c r="K267" s="10"/>
       <c r="L267" s="10"/>
       <c r="M267" s="10"/>
-      <c r="N267" s="109"/>
+      <c r="N267" s="111"/>
     </row>
     <row r="268" spans="1:14">
       <c r="A268" s="10"/>
       <c r="B268" s="101"/>
       <c r="D268" s="10"/>
-      <c r="E268" s="105"/>
-      <c r="F268" s="106"/>
-      <c r="G268" s="106"/>
-      <c r="H268" s="106"/>
-      <c r="I268" s="106"/>
-      <c r="J268" s="106"/>
+      <c r="E268" s="107"/>
+      <c r="F268" s="108"/>
+      <c r="G268" s="108"/>
+      <c r="H268" s="108"/>
+      <c r="I268" s="108"/>
+      <c r="J268" s="108"/>
       <c r="K268" s="10"/>
       <c r="L268" s="10"/>
       <c r="M268" s="10"/>
-      <c r="N268" s="109"/>
+      <c r="N268" s="111"/>
     </row>
     <row r="269" spans="1:14">
       <c r="A269" s="10"/>
       <c r="B269" s="101"/>
       <c r="D269" s="10"/>
-      <c r="E269" s="105"/>
-      <c r="F269" s="106"/>
-      <c r="G269" s="106"/>
-      <c r="H269" s="106"/>
-      <c r="I269" s="106"/>
-      <c r="J269" s="106"/>
+      <c r="E269" s="107"/>
+      <c r="F269" s="108"/>
+      <c r="G269" s="108"/>
+      <c r="H269" s="108"/>
+      <c r="I269" s="108"/>
+      <c r="J269" s="108"/>
       <c r="K269" s="10"/>
       <c r="L269" s="10"/>
       <c r="M269" s="10"/>
-      <c r="N269" s="109"/>
+      <c r="N269" s="111"/>
     </row>
     <row r="270" spans="1:14">
       <c r="A270" s="10"/>
       <c r="B270" s="101"/>
       <c r="D270" s="10"/>
-      <c r="E270" s="105"/>
-      <c r="F270" s="106"/>
-      <c r="G270" s="106"/>
-      <c r="H270" s="106"/>
-      <c r="I270" s="106"/>
-      <c r="J270" s="106"/>
+      <c r="E270" s="107"/>
+      <c r="F270" s="108"/>
+      <c r="G270" s="108"/>
+      <c r="H270" s="108"/>
+      <c r="I270" s="108"/>
+      <c r="J270" s="108"/>
       <c r="K270" s="10"/>
       <c r="L270" s="10"/>
       <c r="M270" s="10"/>
-      <c r="N270" s="109"/>
+      <c r="N270" s="111"/>
     </row>
     <row r="271" spans="1:14">
       <c r="A271" s="10"/>
       <c r="B271" s="101"/>
       <c r="D271" s="10"/>
-      <c r="E271" s="105"/>
-      <c r="F271" s="106"/>
-      <c r="G271" s="106"/>
-      <c r="H271" s="106"/>
-      <c r="I271" s="106"/>
-      <c r="J271" s="106"/>
+      <c r="E271" s="107"/>
+      <c r="F271" s="108"/>
+      <c r="G271" s="108"/>
+      <c r="H271" s="108"/>
+      <c r="I271" s="108"/>
+      <c r="J271" s="108"/>
       <c r="K271" s="10"/>
       <c r="L271" s="10"/>
       <c r="M271" s="10"/>
-      <c r="N271" s="109"/>
+      <c r="N271" s="111"/>
     </row>
     <row r="272" spans="1:14">
       <c r="A272" s="10"/>
       <c r="B272" s="101"/>
       <c r="D272" s="10"/>
-      <c r="E272" s="105"/>
-      <c r="F272" s="106"/>
-      <c r="G272" s="106"/>
-      <c r="H272" s="106"/>
-      <c r="I272" s="106"/>
-      <c r="J272" s="106"/>
+      <c r="E272" s="107"/>
+      <c r="F272" s="108"/>
+      <c r="G272" s="108"/>
+      <c r="H272" s="108"/>
+      <c r="I272" s="108"/>
+      <c r="J272" s="108"/>
       <c r="K272" s="10"/>
       <c r="L272" s="10"/>
       <c r="M272" s="10"/>
-      <c r="N272" s="109"/>
+      <c r="N272" s="111"/>
     </row>
     <row r="273" spans="1:14">
       <c r="A273" s="10"/>
       <c r="B273" s="101"/>
       <c r="D273" s="10"/>
-      <c r="E273" s="105"/>
-      <c r="F273" s="106"/>
-      <c r="G273" s="106"/>
-      <c r="H273" s="106"/>
-      <c r="I273" s="106"/>
-      <c r="J273" s="106"/>
+      <c r="E273" s="107"/>
+      <c r="F273" s="108"/>
+      <c r="G273" s="108"/>
+      <c r="H273" s="108"/>
+      <c r="I273" s="108"/>
+      <c r="J273" s="108"/>
       <c r="K273" s="10"/>
       <c r="L273" s="10"/>
       <c r="M273" s="10"/>
-      <c r="N273" s="109"/>
+      <c r="N273" s="111"/>
     </row>
     <row r="274" spans="1:14">
       <c r="A274" s="10"/>
       <c r="B274" s="101"/>
       <c r="D274" s="10"/>
-      <c r="E274" s="105"/>
-      <c r="F274" s="106"/>
-      <c r="G274" s="106"/>
-      <c r="H274" s="106"/>
-      <c r="I274" s="106"/>
-      <c r="J274" s="106"/>
+      <c r="E274" s="107"/>
+      <c r="F274" s="108"/>
+      <c r="G274" s="108"/>
+      <c r="H274" s="108"/>
+      <c r="I274" s="108"/>
+      <c r="J274" s="108"/>
       <c r="K274" s="10"/>
       <c r="L274" s="10"/>
       <c r="M274" s="10"/>
-      <c r="N274" s="109"/>
+      <c r="N274" s="111"/>
     </row>
     <row r="275" spans="1:14">
       <c r="A275" s="10"/>
       <c r="B275" s="101"/>
       <c r="D275" s="10"/>
-      <c r="E275" s="105"/>
-      <c r="F275" s="106"/>
-      <c r="G275" s="106"/>
-      <c r="H275" s="106"/>
-      <c r="I275" s="106"/>
-      <c r="J275" s="106"/>
+      <c r="E275" s="107"/>
+      <c r="F275" s="108"/>
+      <c r="G275" s="108"/>
+      <c r="H275" s="108"/>
+      <c r="I275" s="108"/>
+      <c r="J275" s="108"/>
       <c r="K275" s="10"/>
       <c r="L275" s="10"/>
       <c r="M275" s="10"/>
-      <c r="N275" s="109"/>
+      <c r="N275" s="111"/>
     </row>
     <row r="276" spans="1:14">
       <c r="A276" s="10"/>
       <c r="B276" s="101"/>
       <c r="D276" s="10"/>
-      <c r="E276" s="105"/>
-      <c r="F276" s="106"/>
-      <c r="G276" s="106"/>
-      <c r="H276" s="106"/>
-      <c r="I276" s="106"/>
-      <c r="J276" s="106"/>
+      <c r="E276" s="107"/>
+      <c r="F276" s="108"/>
+      <c r="G276" s="108"/>
+      <c r="H276" s="108"/>
+      <c r="I276" s="108"/>
+      <c r="J276" s="108"/>
       <c r="K276" s="10"/>
       <c r="L276" s="10"/>
       <c r="M276" s="10"/>
-      <c r="N276" s="109"/>
+      <c r="N276" s="111"/>
     </row>
     <row r="277" spans="1:14">
       <c r="A277" s="10"/>
       <c r="B277" s="101"/>
       <c r="D277" s="10"/>
-      <c r="E277" s="105"/>
-      <c r="F277" s="106"/>
-      <c r="G277" s="106"/>
-      <c r="H277" s="106"/>
-      <c r="I277" s="106"/>
-      <c r="J277" s="106"/>
+      <c r="E277" s="107"/>
+      <c r="F277" s="108"/>
+      <c r="G277" s="108"/>
+      <c r="H277" s="108"/>
+      <c r="I277" s="108"/>
+      <c r="J277" s="108"/>
       <c r="K277" s="10"/>
       <c r="L277" s="10"/>
       <c r="M277" s="10"/>
-      <c r="N277" s="109"/>
+      <c r="N277" s="111"/>
     </row>
     <row r="278" spans="1:14">
       <c r="A278" s="10"/>
       <c r="B278" s="101"/>
       <c r="D278" s="10"/>
-      <c r="E278" s="105"/>
-      <c r="F278" s="106"/>
-      <c r="G278" s="106"/>
-      <c r="H278" s="106"/>
-      <c r="I278" s="106"/>
-      <c r="J278" s="106"/>
+      <c r="E278" s="107"/>
+      <c r="F278" s="108"/>
+      <c r="G278" s="108"/>
+      <c r="H278" s="108"/>
+      <c r="I278" s="108"/>
+      <c r="J278" s="108"/>
       <c r="K278" s="10"/>
       <c r="L278" s="10"/>
       <c r="M278" s="10"/>
-      <c r="N278" s="109"/>
+      <c r="N278" s="111"/>
     </row>
     <row r="279" spans="1:14">
       <c r="A279" s="10"/>
       <c r="B279" s="101"/>
       <c r="D279" s="10"/>
-      <c r="E279" s="105"/>
-      <c r="F279" s="106"/>
-      <c r="G279" s="106"/>
-      <c r="H279" s="106"/>
-      <c r="I279" s="106"/>
-      <c r="J279" s="106"/>
+      <c r="E279" s="107"/>
+      <c r="F279" s="108"/>
+      <c r="G279" s="108"/>
+      <c r="H279" s="108"/>
+      <c r="I279" s="108"/>
+      <c r="J279" s="108"/>
       <c r="K279" s="10"/>
       <c r="L279" s="10"/>
       <c r="M279" s="10"/>
-      <c r="N279" s="109"/>
+      <c r="N279" s="111"/>
     </row>
     <row r="280" spans="1:14">
       <c r="A280" s="10"/>
       <c r="B280" s="101"/>
       <c r="D280" s="10"/>
-      <c r="E280" s="105"/>
-      <c r="F280" s="106"/>
-      <c r="G280" s="106"/>
-      <c r="H280" s="106"/>
-      <c r="I280" s="106"/>
-      <c r="J280" s="106"/>
+      <c r="E280" s="107"/>
+      <c r="F280" s="108"/>
+      <c r="G280" s="108"/>
+      <c r="H280" s="108"/>
+      <c r="I280" s="108"/>
+      <c r="J280" s="108"/>
       <c r="K280" s="10"/>
       <c r="L280" s="10"/>
       <c r="M280" s="10"/>
-      <c r="N280" s="109"/>
+      <c r="N280" s="111"/>
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="10"/>
       <c r="B281" s="101"/>
       <c r="D281" s="10"/>
-      <c r="E281" s="105"/>
-      <c r="F281" s="106"/>
-      <c r="G281" s="106"/>
-      <c r="H281" s="106"/>
-      <c r="I281" s="106"/>
-      <c r="J281" s="106"/>
+      <c r="E281" s="107"/>
+      <c r="F281" s="108"/>
+      <c r="G281" s="108"/>
+      <c r="H281" s="108"/>
+      <c r="I281" s="108"/>
+      <c r="J281" s="108"/>
       <c r="K281" s="10"/>
       <c r="L281" s="10"/>
       <c r="M281" s="10"/>
-      <c r="N281" s="109"/>
+      <c r="N281" s="111"/>
     </row>
     <row r="282" spans="1:14">
       <c r="A282" s="10"/>
       <c r="B282" s="101"/>
       <c r="D282" s="10"/>
-      <c r="E282" s="105"/>
-      <c r="F282" s="106"/>
-      <c r="G282" s="106"/>
-      <c r="H282" s="106"/>
-      <c r="I282" s="106"/>
-      <c r="J282" s="106"/>
+      <c r="E282" s="107"/>
+      <c r="F282" s="108"/>
+      <c r="G282" s="108"/>
+      <c r="H282" s="108"/>
+      <c r="I282" s="108"/>
+      <c r="J282" s="108"/>
       <c r="K282" s="10"/>
       <c r="L282" s="10"/>
       <c r="M282" s="10"/>
-      <c r="N282" s="109"/>
+      <c r="N282" s="111"/>
     </row>
     <row r="283" spans="1:14">
       <c r="A283" s="10"/>
       <c r="B283" s="101"/>
       <c r="D283" s="10"/>
-      <c r="E283" s="105"/>
-      <c r="F283" s="106"/>
-      <c r="G283" s="106"/>
-      <c r="H283" s="106"/>
-      <c r="I283" s="106"/>
-      <c r="J283" s="106"/>
+      <c r="E283" s="107"/>
+      <c r="F283" s="108"/>
+      <c r="G283" s="108"/>
+      <c r="H283" s="108"/>
+      <c r="I283" s="108"/>
+      <c r="J283" s="108"/>
       <c r="K283" s="10"/>
       <c r="L283" s="10"/>
       <c r="M283" s="10"/>
-      <c r="N283" s="109"/>
+      <c r="N283" s="111"/>
     </row>
     <row r="284" spans="1:14">
       <c r="A284" s="10"/>
       <c r="B284" s="101"/>
       <c r="D284" s="10"/>
-      <c r="E284" s="105"/>
-      <c r="F284" s="106"/>
-      <c r="G284" s="106"/>
-      <c r="H284" s="106"/>
-      <c r="I284" s="106"/>
-      <c r="J284" s="106"/>
+      <c r="E284" s="107"/>
+      <c r="F284" s="108"/>
+      <c r="G284" s="108"/>
+      <c r="H284" s="108"/>
+      <c r="I284" s="108"/>
+      <c r="J284" s="108"/>
       <c r="K284" s="10"/>
       <c r="L284" s="10"/>
       <c r="M284" s="10"/>
-      <c r="N284" s="109"/>
+      <c r="N284" s="111"/>
     </row>
     <row r="285" spans="1:14">
       <c r="A285" s="10"/>
       <c r="B285" s="101"/>
       <c r="D285" s="10"/>
-      <c r="E285" s="105"/>
-      <c r="F285" s="106"/>
-      <c r="G285" s="106"/>
-      <c r="H285" s="106"/>
-      <c r="I285" s="106"/>
-      <c r="J285" s="106"/>
+      <c r="E285" s="107"/>
+      <c r="F285" s="108"/>
+      <c r="G285" s="108"/>
+      <c r="H285" s="108"/>
+      <c r="I285" s="108"/>
+      <c r="J285" s="108"/>
       <c r="K285" s="10"/>
       <c r="L285" s="10"/>
       <c r="M285" s="10"/>
-      <c r="N285" s="109"/>
+      <c r="N285" s="111"/>
     </row>
     <row r="286" spans="1:14">
       <c r="A286" s="10"/>
       <c r="B286" s="101"/>
       <c r="D286" s="10"/>
-      <c r="E286" s="105"/>
-      <c r="F286" s="106"/>
-      <c r="G286" s="106"/>
-      <c r="H286" s="106"/>
-      <c r="I286" s="106"/>
-      <c r="J286" s="106"/>
+      <c r="E286" s="107"/>
+      <c r="F286" s="108"/>
+      <c r="G286" s="108"/>
+      <c r="H286" s="108"/>
+      <c r="I286" s="108"/>
+      <c r="J286" s="108"/>
       <c r="K286" s="10"/>
       <c r="L286" s="10"/>
       <c r="M286" s="10"/>
-      <c r="N286" s="109"/>
+      <c r="N286" s="111"/>
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="10"/>
       <c r="B287" s="101"/>
       <c r="D287" s="10"/>
-      <c r="E287" s="105"/>
-      <c r="F287" s="106"/>
-      <c r="G287" s="106"/>
-      <c r="H287" s="106"/>
-      <c r="I287" s="106"/>
-      <c r="J287" s="106"/>
+      <c r="E287" s="107"/>
+      <c r="F287" s="108"/>
+      <c r="G287" s="108"/>
+      <c r="H287" s="108"/>
+      <c r="I287" s="108"/>
+      <c r="J287" s="108"/>
       <c r="K287" s="10"/>
       <c r="L287" s="10"/>
       <c r="M287" s="10"/>
-      <c r="N287" s="109"/>
+      <c r="N287" s="111"/>
     </row>
     <row r="288" spans="1:14">
       <c r="A288" s="10"/>
       <c r="B288" s="101"/>
       <c r="D288" s="10"/>
-      <c r="E288" s="105"/>
-      <c r="F288" s="106"/>
-      <c r="G288" s="106"/>
-      <c r="H288" s="106"/>
-      <c r="I288" s="106"/>
-      <c r="J288" s="106"/>
+      <c r="E288" s="107"/>
+      <c r="F288" s="108"/>
+      <c r="G288" s="108"/>
+      <c r="H288" s="108"/>
+      <c r="I288" s="108"/>
+      <c r="J288" s="108"/>
       <c r="K288" s="10"/>
       <c r="L288" s="10"/>
       <c r="M288" s="10"/>
-      <c r="N288" s="109"/>
+      <c r="N288" s="111"/>
     </row>
     <row r="289" spans="1:14">
       <c r="A289" s="10"/>
       <c r="B289" s="101"/>
       <c r="D289" s="10"/>
-      <c r="E289" s="105"/>
-      <c r="F289" s="106"/>
-      <c r="G289" s="106"/>
-      <c r="H289" s="106"/>
-      <c r="I289" s="106"/>
-      <c r="J289" s="106"/>
+      <c r="E289" s="107"/>
+      <c r="F289" s="108"/>
+      <c r="G289" s="108"/>
+      <c r="H289" s="108"/>
+      <c r="I289" s="108"/>
+      <c r="J289" s="108"/>
       <c r="K289" s="10"/>
       <c r="L289" s="10"/>
       <c r="M289" s="10"/>
-      <c r="N289" s="109"/>
+      <c r="N289" s="111"/>
     </row>
     <row r="290" spans="1:14">
       <c r="A290" s="10"/>
       <c r="B290" s="101"/>
       <c r="D290" s="10"/>
-      <c r="E290" s="105"/>
-      <c r="F290" s="106"/>
-      <c r="G290" s="106"/>
-      <c r="H290" s="106"/>
-      <c r="I290" s="106"/>
-      <c r="J290" s="106"/>
+      <c r="E290" s="107"/>
+      <c r="F290" s="108"/>
+      <c r="G290" s="108"/>
+      <c r="H290" s="108"/>
+      <c r="I290" s="108"/>
+      <c r="J290" s="108"/>
       <c r="K290" s="10"/>
       <c r="L290" s="10"/>
       <c r="M290" s="10"/>
-      <c r="N290" s="109"/>
+      <c r="N290" s="111"/>
     </row>
     <row r="291" spans="1:14">
       <c r="A291" s="10"/>
       <c r="B291" s="101"/>
       <c r="D291" s="10"/>
-      <c r="E291" s="105"/>
-      <c r="F291" s="106"/>
-      <c r="G291" s="106"/>
-      <c r="H291" s="106"/>
-      <c r="I291" s="106"/>
-      <c r="J291" s="106"/>
+      <c r="E291" s="107"/>
+      <c r="F291" s="108"/>
+      <c r="G291" s="108"/>
+      <c r="H291" s="108"/>
+      <c r="I291" s="108"/>
+      <c r="J291" s="108"/>
       <c r="K291" s="10"/>
       <c r="L291" s="10"/>
       <c r="M291" s="10"/>
-      <c r="N291" s="109"/>
+      <c r="N291" s="111"/>
     </row>
     <row r="292" spans="1:14">
       <c r="A292" s="10"/>
       <c r="B292" s="101"/>
       <c r="D292" s="10"/>
-      <c r="E292" s="105"/>
-      <c r="F292" s="106"/>
-      <c r="G292" s="106"/>
-      <c r="H292" s="106"/>
-      <c r="I292" s="106"/>
-      <c r="J292" s="106"/>
+      <c r="E292" s="107"/>
+      <c r="F292" s="108"/>
+      <c r="G292" s="108"/>
+      <c r="H292" s="108"/>
+      <c r="I292" s="108"/>
+      <c r="J292" s="108"/>
       <c r="K292" s="10"/>
       <c r="L292" s="10"/>
       <c r="M292" s="10"/>
-      <c r="N292" s="109"/>
+      <c r="N292" s="111"/>
     </row>
     <row r="293" spans="1:14">
       <c r="A293" s="10"/>
       <c r="B293" s="101"/>
       <c r="D293" s="10"/>
-      <c r="E293" s="105"/>
-      <c r="F293" s="106"/>
-      <c r="G293" s="106"/>
-      <c r="H293" s="106"/>
-      <c r="I293" s="106"/>
-      <c r="J293" s="106"/>
+      <c r="E293" s="107"/>
+      <c r="F293" s="108"/>
+      <c r="G293" s="108"/>
+      <c r="H293" s="108"/>
+      <c r="I293" s="108"/>
+      <c r="J293" s="108"/>
       <c r="K293" s="10"/>
       <c r="L293" s="10"/>
       <c r="M293" s="10"/>
-      <c r="N293" s="109"/>
+      <c r="N293" s="111"/>
     </row>
     <row r="294" spans="1:14">
       <c r="A294" s="10"/>
       <c r="B294" s="101"/>
       <c r="D294" s="10"/>
-      <c r="E294" s="105"/>
-      <c r="F294" s="106"/>
-      <c r="G294" s="106"/>
-      <c r="H294" s="106"/>
-      <c r="I294" s="106"/>
-      <c r="J294" s="106"/>
+      <c r="E294" s="107"/>
+      <c r="F294" s="108"/>
+      <c r="G294" s="108"/>
+      <c r="H294" s="108"/>
+      <c r="I294" s="108"/>
+      <c r="J294" s="108"/>
       <c r="K294" s="10"/>
       <c r="L294" s="10"/>
       <c r="M294" s="10"/>
-      <c r="N294" s="109"/>
+      <c r="N294" s="111"/>
     </row>
     <row r="295" spans="1:14">
       <c r="A295" s="10"/>
       <c r="B295" s="101"/>
       <c r="D295" s="10"/>
-      <c r="E295" s="105"/>
-      <c r="F295" s="106"/>
-      <c r="G295" s="106"/>
-      <c r="H295" s="106"/>
-      <c r="I295" s="106"/>
-      <c r="J295" s="106"/>
+      <c r="E295" s="107"/>
+      <c r="F295" s="108"/>
+      <c r="G295" s="108"/>
+      <c r="H295" s="108"/>
+      <c r="I295" s="108"/>
+      <c r="J295" s="108"/>
       <c r="K295" s="10"/>
       <c r="L295" s="10"/>
       <c r="M295" s="10"/>
-      <c r="N295" s="109"/>
+      <c r="N295" s="111"/>
     </row>
     <row r="296" spans="1:14">
       <c r="A296" s="10"/>
       <c r="B296" s="101"/>
       <c r="D296" s="10"/>
-      <c r="E296" s="105"/>
-      <c r="F296" s="106"/>
-      <c r="G296" s="106"/>
-      <c r="H296" s="106"/>
-      <c r="I296" s="106"/>
-      <c r="J296" s="106"/>
+      <c r="E296" s="107"/>
+      <c r="F296" s="108"/>
+      <c r="G296" s="108"/>
+      <c r="H296" s="108"/>
+      <c r="I296" s="108"/>
+      <c r="J296" s="108"/>
       <c r="K296" s="10"/>
       <c r="L296" s="10"/>
       <c r="M296" s="10"/>
-      <c r="N296" s="109"/>
+      <c r="N296" s="111"/>
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="10"/>
       <c r="B297" s="101"/>
       <c r="D297" s="10"/>
-      <c r="E297" s="105"/>
-      <c r="F297" s="106"/>
-      <c r="G297" s="106"/>
-      <c r="H297" s="106"/>
-      <c r="I297" s="106"/>
-      <c r="J297" s="106"/>
+      <c r="E297" s="107"/>
+      <c r="F297" s="108"/>
+      <c r="G297" s="108"/>
+      <c r="H297" s="108"/>
+      <c r="I297" s="108"/>
+      <c r="J297" s="108"/>
       <c r="K297" s="10"/>
       <c r="L297" s="10"/>
       <c r="M297" s="10"/>
-      <c r="N297" s="109"/>
+      <c r="N297" s="111"/>
     </row>
     <row r="298" spans="1:14">
       <c r="A298" s="10"/>
       <c r="B298" s="101"/>
       <c r="D298" s="10"/>
-      <c r="E298" s="105"/>
-      <c r="F298" s="106"/>
-      <c r="G298" s="106"/>
-      <c r="H298" s="106"/>
-      <c r="I298" s="106"/>
-      <c r="J298" s="106"/>
+      <c r="E298" s="107"/>
+      <c r="F298" s="108"/>
+      <c r="G298" s="108"/>
+      <c r="H298" s="108"/>
+      <c r="I298" s="108"/>
+      <c r="J298" s="108"/>
       <c r="K298" s="10"/>
       <c r="L298" s="10"/>
       <c r="M298" s="10"/>
-      <c r="N298" s="109"/>
+      <c r="N298" s="111"/>
     </row>
     <row r="299" spans="1:14">
       <c r="A299" s="10"/>
       <c r="B299" s="101"/>
       <c r="D299" s="10"/>
-      <c r="E299" s="105"/>
-      <c r="F299" s="106"/>
-      <c r="G299" s="106"/>
-      <c r="H299" s="106"/>
-      <c r="I299" s="106"/>
-      <c r="J299" s="106"/>
+      <c r="E299" s="107"/>
+      <c r="F299" s="108"/>
+      <c r="G299" s="108"/>
+      <c r="H299" s="108"/>
+      <c r="I299" s="108"/>
+      <c r="J299" s="108"/>
       <c r="K299" s="10"/>
       <c r="L299" s="10"/>
       <c r="M299" s="10"/>
-      <c r="N299" s="109"/>
+      <c r="N299" s="111"/>
     </row>
     <row r="300" spans="1:14">
       <c r="A300" s="10"/>
       <c r="B300" s="101"/>
       <c r="D300" s="10"/>
-      <c r="E300" s="105"/>
-      <c r="F300" s="106"/>
-      <c r="G300" s="106"/>
-      <c r="H300" s="106"/>
-      <c r="I300" s="106"/>
-      <c r="J300" s="106"/>
+      <c r="E300" s="107"/>
+      <c r="F300" s="108"/>
+      <c r="G300" s="108"/>
+      <c r="H300" s="108"/>
+      <c r="I300" s="108"/>
+      <c r="J300" s="108"/>
       <c r="K300" s="10"/>
       <c r="L300" s="10"/>
       <c r="M300" s="10"/>
-      <c r="N300" s="109"/>
+      <c r="N300" s="111"/>
     </row>
     <row r="301" spans="1:14">
       <c r="A301" s="10"/>
       <c r="B301" s="101"/>
       <c r="D301" s="10"/>
-      <c r="E301" s="105"/>
-      <c r="F301" s="106"/>
-      <c r="G301" s="106"/>
-      <c r="H301" s="106"/>
-      <c r="I301" s="106"/>
-      <c r="J301" s="106"/>
+      <c r="E301" s="107"/>
+      <c r="F301" s="108"/>
+      <c r="G301" s="108"/>
+      <c r="H301" s="108"/>
+      <c r="I301" s="108"/>
+      <c r="J301" s="108"/>
       <c r="K301" s="10"/>
       <c r="L301" s="10"/>
       <c r="M301" s="10"/>
-      <c r="N301" s="109"/>
+      <c r="N301" s="111"/>
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="10"/>
       <c r="B302" s="101"/>
       <c r="D302" s="10"/>
-      <c r="E302" s="105"/>
-      <c r="F302" s="106"/>
-      <c r="G302" s="106"/>
-      <c r="H302" s="106"/>
-      <c r="I302" s="106"/>
-      <c r="J302" s="106"/>
+      <c r="E302" s="107"/>
+      <c r="F302" s="108"/>
+      <c r="G302" s="108"/>
+      <c r="H302" s="108"/>
+      <c r="I302" s="108"/>
+      <c r="J302" s="108"/>
       <c r="K302" s="10"/>
       <c r="L302" s="10"/>
       <c r="M302" s="10"/>
-      <c r="N302" s="109"/>
+      <c r="N302" s="111"/>
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="10"/>
       <c r="B303" s="101"/>
       <c r="D303" s="10"/>
-      <c r="E303" s="105"/>
-      <c r="F303" s="106"/>
-      <c r="G303" s="106"/>
-      <c r="H303" s="106"/>
-      <c r="I303" s="106"/>
-      <c r="J303" s="106"/>
+      <c r="E303" s="107"/>
+      <c r="F303" s="108"/>
+      <c r="G303" s="108"/>
+      <c r="H303" s="108"/>
+      <c r="I303" s="108"/>
+      <c r="J303" s="108"/>
       <c r="K303" s="10"/>
       <c r="L303" s="10"/>
       <c r="M303" s="10"/>
-      <c r="N303" s="109"/>
+      <c r="N303" s="111"/>
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="10"/>
       <c r="B304" s="101"/>
       <c r="D304" s="10"/>
-      <c r="E304" s="105"/>
-      <c r="F304" s="106"/>
-      <c r="G304" s="106"/>
-      <c r="H304" s="106"/>
-      <c r="I304" s="106"/>
-      <c r="J304" s="106"/>
+      <c r="E304" s="107"/>
+      <c r="F304" s="108"/>
+      <c r="G304" s="108"/>
+      <c r="H304" s="108"/>
+      <c r="I304" s="108"/>
+      <c r="J304" s="108"/>
       <c r="K304" s="10"/>
       <c r="L304" s="10"/>
       <c r="M304" s="10"/>
-      <c r="N304" s="109"/>
+      <c r="N304" s="111"/>
     </row>
     <row r="305" spans="1:14">
       <c r="A305" s="10"/>
       <c r="B305" s="101"/>
       <c r="D305" s="10"/>
-      <c r="E305" s="105"/>
-      <c r="F305" s="106"/>
-      <c r="G305" s="106"/>
-      <c r="H305" s="106"/>
-      <c r="I305" s="106"/>
-      <c r="J305" s="106"/>
+      <c r="E305" s="107"/>
+      <c r="F305" s="108"/>
+      <c r="G305" s="108"/>
+      <c r="H305" s="108"/>
+      <c r="I305" s="108"/>
+      <c r="J305" s="108"/>
       <c r="K305" s="10"/>
       <c r="L305" s="10"/>
       <c r="M305" s="10"/>
-      <c r="N305" s="109"/>
+      <c r="N305" s="111"/>
     </row>
     <row r="306" spans="1:14">
       <c r="A306" s="10"/>
       <c r="B306" s="101"/>
       <c r="D306" s="10"/>
-      <c r="E306" s="105"/>
-      <c r="F306" s="106"/>
-      <c r="G306" s="106"/>
-      <c r="H306" s="106"/>
-      <c r="I306" s="106"/>
-      <c r="J306" s="106"/>
+      <c r="E306" s="107"/>
+      <c r="F306" s="108"/>
+      <c r="G306" s="108"/>
+      <c r="H306" s="108"/>
+      <c r="I306" s="108"/>
+      <c r="J306" s="108"/>
       <c r="K306" s="10"/>
       <c r="L306" s="10"/>
       <c r="M306" s="10"/>
-      <c r="N306" s="109"/>
+      <c r="N306" s="111"/>
     </row>
     <row r="307" spans="1:14">
       <c r="A307" s="10"/>
       <c r="B307" s="101"/>
       <c r="D307" s="10"/>
-      <c r="E307" s="105"/>
-      <c r="F307" s="106"/>
-      <c r="G307" s="106"/>
-      <c r="H307" s="106"/>
-      <c r="I307" s="106"/>
-      <c r="J307" s="106"/>
+      <c r="E307" s="107"/>
+      <c r="F307" s="108"/>
+      <c r="G307" s="108"/>
+      <c r="H307" s="108"/>
+      <c r="I307" s="108"/>
+      <c r="J307" s="108"/>
       <c r="K307" s="10"/>
       <c r="L307" s="10"/>
       <c r="M307" s="10"/>
-      <c r="N307" s="109"/>
+      <c r="N307" s="111"/>
     </row>
     <row r="308" spans="1:14">
       <c r="A308" s="10"/>
       <c r="B308" s="101"/>
       <c r="D308" s="10"/>
-      <c r="E308" s="105"/>
-      <c r="F308" s="106"/>
-      <c r="G308" s="106"/>
-      <c r="H308" s="106"/>
-      <c r="I308" s="106"/>
-      <c r="J308" s="106"/>
+      <c r="E308" s="107"/>
+      <c r="F308" s="108"/>
+      <c r="G308" s="108"/>
+      <c r="H308" s="108"/>
+      <c r="I308" s="108"/>
+      <c r="J308" s="108"/>
       <c r="K308" s="10"/>
       <c r="L308" s="10"/>
       <c r="M308" s="10"/>
-      <c r="N308" s="109"/>
+      <c r="N308" s="111"/>
     </row>
     <row r="309" spans="1:14">
       <c r="A309" s="10"/>
       <c r="B309" s="101"/>
       <c r="D309" s="10"/>
-      <c r="E309" s="105"/>
-      <c r="F309" s="106"/>
-      <c r="G309" s="106"/>
-      <c r="H309" s="106"/>
-      <c r="I309" s="106"/>
-      <c r="J309" s="106"/>
+      <c r="E309" s="107"/>
+      <c r="F309" s="108"/>
+      <c r="G309" s="108"/>
+      <c r="H309" s="108"/>
+      <c r="I309" s="108"/>
+      <c r="J309" s="108"/>
       <c r="K309" s="10"/>
       <c r="L309" s="10"/>
       <c r="M309" s="10"/>
-      <c r="N309" s="109"/>
+      <c r="N309" s="111"/>
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="10"/>
       <c r="B310" s="101"/>
       <c r="D310" s="10"/>
-      <c r="E310" s="105"/>
-      <c r="F310" s="106"/>
-      <c r="G310" s="106"/>
-      <c r="H310" s="106"/>
-      <c r="I310" s="106"/>
-      <c r="J310" s="106"/>
+      <c r="E310" s="107"/>
+      <c r="F310" s="108"/>
+      <c r="G310" s="108"/>
+      <c r="H310" s="108"/>
+      <c r="I310" s="108"/>
+      <c r="J310" s="108"/>
       <c r="K310" s="10"/>
       <c r="L310" s="10"/>
       <c r="M310" s="10"/>
-      <c r="N310" s="109"/>
+      <c r="N310" s="111"/>
     </row>
     <row r="311" spans="1:14">
       <c r="A311" s="10"/>
       <c r="B311" s="101"/>
       <c r="D311" s="10"/>
-      <c r="E311" s="105"/>
-      <c r="F311" s="106"/>
-      <c r="G311" s="106"/>
-      <c r="H311" s="106"/>
-      <c r="I311" s="106"/>
-      <c r="J311" s="106"/>
+      <c r="E311" s="107"/>
+      <c r="F311" s="108"/>
+      <c r="G311" s="108"/>
+      <c r="H311" s="108"/>
+      <c r="I311" s="108"/>
+      <c r="J311" s="108"/>
       <c r="K311" s="10"/>
       <c r="L311" s="10"/>
       <c r="M311" s="10"/>
-      <c r="N311" s="109"/>
+      <c r="N311" s="111"/>
     </row>
     <row r="312" spans="1:14">
       <c r="A312" s="10"/>
       <c r="B312" s="101"/>
       <c r="D312" s="10"/>
-      <c r="E312" s="105"/>
-      <c r="F312" s="106"/>
-      <c r="G312" s="106"/>
-      <c r="H312" s="106"/>
-      <c r="I312" s="106"/>
-      <c r="J312" s="106"/>
+      <c r="E312" s="107"/>
+      <c r="F312" s="108"/>
+      <c r="G312" s="108"/>
+      <c r="H312" s="108"/>
+      <c r="I312" s="108"/>
+      <c r="J312" s="108"/>
       <c r="K312" s="10"/>
       <c r="L312" s="10"/>
       <c r="M312" s="10"/>
-      <c r="N312" s="109"/>
+      <c r="N312" s="111"/>
     </row>
     <row r="313" spans="1:14">
       <c r="A313" s="10"/>
       <c r="B313" s="101"/>
       <c r="D313" s="10"/>
-      <c r="E313" s="105"/>
-      <c r="F313" s="106"/>
-      <c r="G313" s="106"/>
-      <c r="H313" s="106"/>
-      <c r="I313" s="106"/>
-      <c r="J313" s="106"/>
+      <c r="E313" s="107"/>
+      <c r="F313" s="108"/>
+      <c r="G313" s="108"/>
+      <c r="H313" s="108"/>
+      <c r="I313" s="108"/>
+      <c r="J313" s="108"/>
       <c r="K313" s="10"/>
       <c r="L313" s="10"/>
       <c r="M313" s="10"/>
-      <c r="N313" s="109"/>
+      <c r="N313" s="111"/>
     </row>
     <row r="314" spans="1:14">
       <c r="A314" s="10"/>
       <c r="B314" s="101"/>
       <c r="D314" s="10"/>
-      <c r="E314" s="105"/>
-      <c r="F314" s="106"/>
-      <c r="G314" s="106"/>
-      <c r="H314" s="106"/>
-      <c r="I314" s="106"/>
-      <c r="J314" s="106"/>
+      <c r="E314" s="107"/>
+      <c r="F314" s="108"/>
+      <c r="G314" s="108"/>
+      <c r="H314" s="108"/>
+      <c r="I314" s="108"/>
+      <c r="J314" s="108"/>
       <c r="K314" s="10"/>
       <c r="L314" s="10"/>
       <c r="M314" s="10"/>
-      <c r="N314" s="109"/>
+      <c r="N314" s="111"/>
     </row>
     <row r="315" spans="1:14">
       <c r="A315" s="10"/>
       <c r="B315" s="101"/>
       <c r="D315" s="10"/>
-      <c r="E315" s="105"/>
-      <c r="F315" s="106"/>
-      <c r="G315" s="106"/>
-      <c r="H315" s="106"/>
-      <c r="I315" s="106"/>
-      <c r="J315" s="106"/>
+      <c r="E315" s="107"/>
+      <c r="F315" s="108"/>
+      <c r="G315" s="108"/>
+      <c r="H315" s="108"/>
+      <c r="I315" s="108"/>
+      <c r="J315" s="108"/>
       <c r="K315" s="10"/>
       <c r="L315" s="10"/>
       <c r="M315" s="10"/>
-      <c r="N315" s="109"/>
+      <c r="N315" s="111"/>
     </row>
     <row r="316" spans="1:14">
       <c r="A316" s="10"/>
       <c r="B316" s="101"/>
       <c r="D316" s="10"/>
-      <c r="E316" s="105"/>
-      <c r="F316" s="106"/>
-      <c r="G316" s="106"/>
-      <c r="H316" s="106"/>
-      <c r="I316" s="106"/>
-      <c r="J316" s="106"/>
+      <c r="E316" s="107"/>
+      <c r="F316" s="108"/>
+      <c r="G316" s="108"/>
+      <c r="H316" s="108"/>
+      <c r="I316" s="108"/>
+      <c r="J316" s="108"/>
       <c r="K316" s="10"/>
       <c r="L316" s="10"/>
       <c r="M316" s="10"/>
-      <c r="N316" s="109"/>
+      <c r="N316" s="111"/>
     </row>
     <row r="317" spans="1:14">
       <c r="A317" s="10"/>
       <c r="B317" s="101"/>
       <c r="D317" s="10"/>
-      <c r="E317" s="105"/>
-      <c r="F317" s="106"/>
-      <c r="G317" s="106"/>
-      <c r="H317" s="106"/>
-      <c r="I317" s="106"/>
-      <c r="J317" s="106"/>
+      <c r="E317" s="107"/>
+      <c r="F317" s="108"/>
+      <c r="G317" s="108"/>
+      <c r="H317" s="108"/>
+      <c r="I317" s="108"/>
+      <c r="J317" s="108"/>
       <c r="K317" s="10"/>
       <c r="L317" s="10"/>
       <c r="M317" s="10"/>
-      <c r="N317" s="109"/>
+      <c r="N317" s="111"/>
     </row>
     <row r="318" spans="1:14">
       <c r="A318" s="10"/>
       <c r="B318" s="101"/>
       <c r="D318" s="10"/>
-      <c r="E318" s="105"/>
-      <c r="F318" s="106"/>
-      <c r="G318" s="106"/>
-      <c r="H318" s="106"/>
-      <c r="I318" s="106"/>
-      <c r="J318" s="106"/>
+      <c r="E318" s="107"/>
+      <c r="F318" s="108"/>
+      <c r="G318" s="108"/>
+      <c r="H318" s="108"/>
+      <c r="I318" s="108"/>
+      <c r="J318" s="108"/>
       <c r="K318" s="10"/>
       <c r="L318" s="10"/>
       <c r="M318" s="10"/>
-      <c r="N318" s="109"/>
+      <c r="N318" s="111"/>
     </row>
     <row r="319" spans="1:14">
       <c r="A319" s="10"/>
       <c r="B319" s="101"/>
       <c r="D319" s="10"/>
-      <c r="E319" s="105"/>
-      <c r="F319" s="106"/>
-      <c r="G319" s="106"/>
-      <c r="H319" s="106"/>
-      <c r="I319" s="106"/>
-      <c r="J319" s="106"/>
+      <c r="E319" s="107"/>
+      <c r="F319" s="108"/>
+      <c r="G319" s="108"/>
+      <c r="H319" s="108"/>
+      <c r="I319" s="108"/>
+      <c r="J319" s="108"/>
       <c r="K319" s="10"/>
       <c r="L319" s="10"/>
       <c r="M319" s="10"/>
-      <c r="N319" s="109"/>
+      <c r="N319" s="111"/>
     </row>
     <row r="320" spans="1:14">
       <c r="A320" s="10"/>
       <c r="B320" s="101"/>
       <c r="D320" s="10"/>
-      <c r="E320" s="105"/>
-      <c r="F320" s="106"/>
-      <c r="G320" s="106"/>
-      <c r="H320" s="106"/>
-      <c r="I320" s="106"/>
-      <c r="J320" s="106"/>
+      <c r="E320" s="107"/>
+      <c r="F320" s="108"/>
+      <c r="G320" s="108"/>
+      <c r="H320" s="108"/>
+      <c r="I320" s="108"/>
+      <c r="J320" s="108"/>
       <c r="K320" s="10"/>
       <c r="L320" s="10"/>
       <c r="M320" s="10"/>
-      <c r="N320" s="109"/>
+      <c r="N320" s="111"/>
     </row>
     <row r="321" spans="1:14">
       <c r="A321" s="10"/>
       <c r="B321" s="101"/>
       <c r="D321" s="10"/>
-      <c r="E321" s="105"/>
-      <c r="F321" s="106"/>
-      <c r="G321" s="106"/>
-      <c r="H321" s="106"/>
-      <c r="I321" s="106"/>
-      <c r="J321" s="106"/>
+      <c r="E321" s="107"/>
+      <c r="F321" s="108"/>
+      <c r="G321" s="108"/>
+      <c r="H321" s="108"/>
+      <c r="I321" s="108"/>
+      <c r="J321" s="108"/>
       <c r="K321" s="10"/>
       <c r="L321" s="10"/>
       <c r="M321" s="10"/>
-      <c r="N321" s="109"/>
+      <c r="N321" s="111"/>
     </row>
     <row r="322" spans="1:14">
       <c r="A322" s="10"/>
       <c r="B322" s="101"/>
       <c r="D322" s="10"/>
-      <c r="E322" s="105"/>
-      <c r="F322" s="106"/>
-      <c r="G322" s="106"/>
-      <c r="H322" s="106"/>
-      <c r="I322" s="106"/>
-      <c r="J322" s="106"/>
+      <c r="E322" s="107"/>
+      <c r="F322" s="108"/>
+      <c r="G322" s="108"/>
+      <c r="H322" s="108"/>
+      <c r="I322" s="108"/>
+      <c r="J322" s="108"/>
       <c r="K322" s="10"/>
       <c r="L322" s="10"/>
       <c r="M322" s="10"/>
-      <c r="N322" s="109"/>
+      <c r="N322" s="111"/>
     </row>
     <row r="323" spans="1:14">
       <c r="A323" s="10"/>
       <c r="B323" s="101"/>
       <c r="D323" s="10"/>
-      <c r="E323" s="105"/>
-      <c r="F323" s="106"/>
-      <c r="G323" s="106"/>
-      <c r="H323" s="106"/>
-      <c r="I323" s="106"/>
-      <c r="J323" s="106"/>
+      <c r="E323" s="107"/>
+      <c r="F323" s="108"/>
+      <c r="G323" s="108"/>
+      <c r="H323" s="108"/>
+      <c r="I323" s="108"/>
+      <c r="J323" s="108"/>
       <c r="K323" s="10"/>
       <c r="L323" s="10"/>
       <c r="M323" s="10"/>
-      <c r="N323" s="109"/>
+      <c r="N323" s="111"/>
     </row>
     <row r="324" spans="1:14">
       <c r="A324" s="10"/>
       <c r="B324" s="101"/>
       <c r="D324" s="10"/>
-      <c r="E324" s="105"/>
-      <c r="F324" s="106"/>
-      <c r="G324" s="106"/>
-      <c r="H324" s="106"/>
-      <c r="I324" s="106"/>
-      <c r="J324" s="106"/>
+      <c r="E324" s="107"/>
+      <c r="F324" s="108"/>
+      <c r="G324" s="108"/>
+      <c r="H324" s="108"/>
+      <c r="I324" s="108"/>
+      <c r="J324" s="108"/>
       <c r="K324" s="10"/>
       <c r="L324" s="10"/>
       <c r="M324" s="10"/>
-      <c r="N324" s="109"/>
+      <c r="N324" s="111"/>
     </row>
     <row r="325" spans="1:14">
       <c r="A325" s="10"/>
       <c r="B325" s="101"/>
       <c r="D325" s="10"/>
-      <c r="E325" s="105"/>
-      <c r="F325" s="106"/>
-      <c r="G325" s="106"/>
-      <c r="H325" s="106"/>
-      <c r="I325" s="106"/>
-      <c r="J325" s="106"/>
+      <c r="E325" s="107"/>
+      <c r="F325" s="108"/>
+      <c r="G325" s="108"/>
+      <c r="H325" s="108"/>
+      <c r="I325" s="108"/>
+      <c r="J325" s="108"/>
       <c r="K325" s="10"/>
       <c r="L325" s="10"/>
       <c r="M325" s="10"/>
-      <c r="N325" s="109"/>
+      <c r="N325" s="111"/>
     </row>
     <row r="326" spans="1:14">
       <c r="A326" s="10"/>
       <c r="B326" s="101"/>
       <c r="D326" s="10"/>
-      <c r="E326" s="105"/>
-      <c r="F326" s="106"/>
-      <c r="G326" s="106"/>
-      <c r="H326" s="106"/>
-      <c r="I326" s="106"/>
-      <c r="J326" s="106"/>
+      <c r="E326" s="107"/>
+      <c r="F326" s="108"/>
+      <c r="G326" s="108"/>
+      <c r="H326" s="108"/>
+      <c r="I326" s="108"/>
+      <c r="J326" s="108"/>
       <c r="K326" s="10"/>
       <c r="L326" s="10"/>
       <c r="M326" s="10"/>
-      <c r="N326" s="109"/>
+      <c r="N326" s="111"/>
     </row>
     <row r="327" spans="1:14">
       <c r="A327" s="10"/>
       <c r="B327" s="101"/>
       <c r="D327" s="10"/>
-      <c r="E327" s="105"/>
-      <c r="F327" s="106"/>
-      <c r="G327" s="106"/>
-      <c r="H327" s="106"/>
-      <c r="I327" s="106"/>
-      <c r="J327" s="106"/>
+      <c r="E327" s="107"/>
+      <c r="F327" s="108"/>
+      <c r="G327" s="108"/>
+      <c r="H327" s="108"/>
+      <c r="I327" s="108"/>
+      <c r="J327" s="108"/>
       <c r="K327" s="10"/>
       <c r="L327" s="10"/>
       <c r="M327" s="10"/>
-      <c r="N327" s="109"/>
+      <c r="N327" s="111"/>
     </row>
     <row r="328" spans="1:14">
       <c r="A328" s="10"/>
       <c r="B328" s="101"/>
       <c r="D328" s="10"/>
-      <c r="E328" s="105"/>
-      <c r="F328" s="106"/>
-      <c r="G328" s="106"/>
-      <c r="H328" s="106"/>
-      <c r="I328" s="106"/>
-      <c r="J328" s="106"/>
+      <c r="E328" s="107"/>
+      <c r="F328" s="108"/>
+      <c r="G328" s="108"/>
+      <c r="H328" s="108"/>
+      <c r="I328" s="108"/>
+      <c r="J328" s="108"/>
       <c r="K328" s="10"/>
       <c r="L328" s="10"/>
       <c r="M328" s="10"/>
-      <c r="N328" s="109"/>
+      <c r="N328" s="111"/>
     </row>
     <row r="329" spans="1:14">
       <c r="A329" s="10"/>
       <c r="B329" s="101"/>
       <c r="D329" s="10"/>
-      <c r="E329" s="105"/>
-      <c r="F329" s="106"/>
-      <c r="G329" s="106"/>
-      <c r="H329" s="106"/>
-      <c r="I329" s="106"/>
-      <c r="J329" s="106"/>
+      <c r="E329" s="107"/>
+      <c r="F329" s="108"/>
+      <c r="G329" s="108"/>
+      <c r="H329" s="108"/>
+      <c r="I329" s="108"/>
+      <c r="J329" s="108"/>
       <c r="K329" s="10"/>
       <c r="L329" s="10"/>
       <c r="M329" s="10"/>
-      <c r="N329" s="109"/>
+      <c r="N329" s="111"/>
     </row>
     <row r="330" spans="1:14">
       <c r="A330" s="10"/>
       <c r="B330" s="101"/>
       <c r="D330" s="10"/>
-      <c r="E330" s="105"/>
-      <c r="F330" s="106"/>
-      <c r="G330" s="106"/>
-      <c r="H330" s="106"/>
-      <c r="I330" s="106"/>
-      <c r="J330" s="106"/>
+      <c r="E330" s="107"/>
+      <c r="F330" s="108"/>
+      <c r="G330" s="108"/>
+      <c r="H330" s="108"/>
+      <c r="I330" s="108"/>
+      <c r="J330" s="108"/>
       <c r="K330" s="10"/>
       <c r="L330" s="10"/>
       <c r="M330" s="10"/>
-      <c r="N330" s="109"/>
+      <c r="N330" s="111"/>
     </row>
     <row r="331" spans="1:14">
       <c r="A331" s="10"/>
       <c r="B331" s="101"/>
       <c r="D331" s="10"/>
-      <c r="E331" s="105"/>
-      <c r="F331" s="106"/>
-      <c r="G331" s="106"/>
-      <c r="H331" s="106"/>
-      <c r="I331" s="106"/>
-      <c r="J331" s="106"/>
+      <c r="E331" s="107"/>
+      <c r="F331" s="108"/>
+      <c r="G331" s="108"/>
+      <c r="H331" s="108"/>
+      <c r="I331" s="108"/>
+      <c r="J331" s="108"/>
       <c r="K331" s="10"/>
       <c r="L331" s="10"/>
       <c r="M331" s="10"/>
-      <c r="N331" s="109"/>
+      <c r="N331" s="111"/>
     </row>
     <row r="332" spans="1:14">
       <c r="A332" s="10"/>
       <c r="B332" s="101"/>
       <c r="D332" s="10"/>
-      <c r="E332" s="105"/>
-      <c r="F332" s="106"/>
-      <c r="G332" s="106"/>
-      <c r="H332" s="106"/>
-      <c r="I332" s="106"/>
-      <c r="J332" s="106"/>
+      <c r="E332" s="107"/>
+      <c r="F332" s="108"/>
+      <c r="G332" s="108"/>
+      <c r="H332" s="108"/>
+      <c r="I332" s="108"/>
+      <c r="J332" s="108"/>
       <c r="K332" s="10"/>
       <c r="L332" s="10"/>
       <c r="M332" s="10"/>
-      <c r="N332" s="109"/>
+      <c r="N332" s="111"/>
     </row>
     <row r="333" spans="1:14">
       <c r="A333" s="10"/>
       <c r="B333" s="101"/>
       <c r="D333" s="10"/>
-      <c r="E333" s="105"/>
-      <c r="F333" s="106"/>
-      <c r="G333" s="106"/>
-      <c r="H333" s="106"/>
-      <c r="I333" s="106"/>
-      <c r="J333" s="106"/>
+      <c r="E333" s="107"/>
+      <c r="F333" s="108"/>
+      <c r="G333" s="108"/>
+      <c r="H333" s="108"/>
+      <c r="I333" s="108"/>
+      <c r="J333" s="108"/>
       <c r="K333" s="10"/>
       <c r="L333" s="10"/>
       <c r="M333" s="10"/>
-      <c r="N333" s="109"/>
+      <c r="N333" s="111"/>
     </row>
     <row r="334" spans="1:14">
       <c r="A334" s="10"/>
       <c r="B334" s="101"/>
       <c r="D334" s="10"/>
-      <c r="E334" s="105"/>
-      <c r="F334" s="106"/>
-      <c r="G334" s="106"/>
-      <c r="H334" s="106"/>
-      <c r="I334" s="106"/>
-      <c r="J334" s="106"/>
+      <c r="E334" s="107"/>
+      <c r="F334" s="108"/>
+      <c r="G334" s="108"/>
+      <c r="H334" s="108"/>
+      <c r="I334" s="108"/>
+      <c r="J334" s="108"/>
       <c r="K334" s="10"/>
       <c r="L334" s="10"/>
       <c r="M334" s="10"/>
-      <c r="N334" s="109"/>
+      <c r="N334" s="111"/>
     </row>
     <row r="335" spans="1:14">
       <c r="A335" s="10"/>
       <c r="B335" s="101"/>
       <c r="D335" s="10"/>
-      <c r="E335" s="105"/>
-      <c r="F335" s="106"/>
-      <c r="G335" s="106"/>
-      <c r="H335" s="106"/>
-      <c r="I335" s="106"/>
-      <c r="J335" s="106"/>
+      <c r="E335" s="107"/>
+      <c r="F335" s="108"/>
+      <c r="G335" s="108"/>
+      <c r="H335" s="108"/>
+      <c r="I335" s="108"/>
+      <c r="J335" s="108"/>
       <c r="K335" s="10"/>
       <c r="L335" s="10"/>
       <c r="M335" s="10"/>
-      <c r="N335" s="109"/>
+      <c r="N335" s="111"/>
     </row>
     <row r="336" spans="1:14">
       <c r="A336" s="10"/>
       <c r="B336" s="101"/>
       <c r="D336" s="10"/>
-      <c r="E336" s="105"/>
-      <c r="F336" s="106"/>
-      <c r="G336" s="106"/>
-      <c r="H336" s="106"/>
-      <c r="I336" s="106"/>
-      <c r="J336" s="106"/>
+      <c r="E336" s="107"/>
+      <c r="F336" s="108"/>
+      <c r="G336" s="108"/>
+      <c r="H336" s="108"/>
+      <c r="I336" s="108"/>
+      <c r="J336" s="108"/>
       <c r="K336" s="10"/>
       <c r="L336" s="10"/>
       <c r="M336" s="10"/>
-      <c r="N336" s="109"/>
+      <c r="N336" s="111"/>
     </row>
     <row r="337" spans="1:14">
       <c r="A337" s="10"/>
       <c r="B337" s="101"/>
       <c r="D337" s="10"/>
-      <c r="E337" s="105"/>
-      <c r="F337" s="106"/>
-      <c r="G337" s="106"/>
-      <c r="H337" s="106"/>
-      <c r="I337" s="106"/>
-      <c r="J337" s="106"/>
+      <c r="E337" s="107"/>
+      <c r="F337" s="108"/>
+      <c r="G337" s="108"/>
+      <c r="H337" s="108"/>
+      <c r="I337" s="108"/>
+      <c r="J337" s="108"/>
       <c r="K337" s="10"/>
       <c r="L337" s="10"/>
       <c r="M337" s="10"/>
-      <c r="N337" s="109"/>
+      <c r="N337" s="111"/>
     </row>
     <row r="338" spans="1:14">
       <c r="A338" s="10"/>
       <c r="B338" s="101"/>
       <c r="D338" s="10"/>
-      <c r="E338" s="105"/>
-      <c r="F338" s="106"/>
-      <c r="G338" s="106"/>
-      <c r="H338" s="106"/>
-      <c r="I338" s="106"/>
-      <c r="J338" s="106"/>
+      <c r="E338" s="107"/>
+      <c r="F338" s="108"/>
+      <c r="G338" s="108"/>
+      <c r="H338" s="108"/>
+      <c r="I338" s="108"/>
+      <c r="J338" s="108"/>
       <c r="K338" s="10"/>
       <c r="L338" s="10"/>
       <c r="M338" s="10"/>
-      <c r="N338" s="109"/>
+      <c r="N338" s="111"/>
     </row>
     <row r="339" spans="1:14">
       <c r="A339" s="10"/>
       <c r="B339" s="101"/>
       <c r="D339" s="10"/>
-      <c r="E339" s="105"/>
-      <c r="F339" s="106"/>
-      <c r="G339" s="106"/>
-      <c r="H339" s="106"/>
-      <c r="I339" s="106"/>
-      <c r="J339" s="106"/>
+      <c r="E339" s="107"/>
+      <c r="F339" s="108"/>
+      <c r="G339" s="108"/>
+      <c r="H339" s="108"/>
+      <c r="I339" s="108"/>
+      <c r="J339" s="108"/>
       <c r="K339" s="10"/>
       <c r="L339" s="10"/>
       <c r="M339" s="10"/>
-      <c r="N339" s="109"/>
+      <c r="N339" s="111"/>
     </row>
     <row r="340" spans="1:14">
       <c r="A340" s="10"/>
       <c r="B340" s="101"/>
       <c r="D340" s="10"/>
-      <c r="E340" s="105"/>
-      <c r="F340" s="106"/>
-      <c r="G340" s="106"/>
-      <c r="H340" s="106"/>
-      <c r="I340" s="106"/>
-      <c r="J340" s="106"/>
+      <c r="E340" s="107"/>
+      <c r="F340" s="108"/>
+      <c r="G340" s="108"/>
+      <c r="H340" s="108"/>
+      <c r="I340" s="108"/>
+      <c r="J340" s="108"/>
       <c r="K340" s="10"/>
       <c r="L340" s="10"/>
       <c r="M340" s="10"/>
-      <c r="N340" s="109"/>
+      <c r="N340" s="111"/>
     </row>
     <row r="341" spans="1:14">
       <c r="A341" s="10"/>
       <c r="B341" s="101"/>
       <c r="D341" s="10"/>
-      <c r="E341" s="105"/>
-      <c r="F341" s="106"/>
-      <c r="G341" s="106"/>
-      <c r="H341" s="106"/>
-      <c r="I341" s="106"/>
-      <c r="J341" s="106"/>
+      <c r="E341" s="107"/>
+      <c r="F341" s="108"/>
+      <c r="G341" s="108"/>
+      <c r="H341" s="108"/>
+      <c r="I341" s="108"/>
+      <c r="J341" s="108"/>
       <c r="K341" s="10"/>
       <c r="L341" s="10"/>
       <c r="M341" s="10"/>
-      <c r="N341" s="109"/>
+      <c r="N341" s="111"/>
     </row>
     <row r="342" spans="1:14">
       <c r="A342" s="10"/>
       <c r="B342" s="101"/>
       <c r="D342" s="10"/>
-      <c r="E342" s="105"/>
-      <c r="F342" s="106"/>
-      <c r="G342" s="106"/>
-      <c r="H342" s="106"/>
-      <c r="I342" s="106"/>
-      <c r="J342" s="106"/>
+      <c r="E342" s="107"/>
+      <c r="F342" s="108"/>
+      <c r="G342" s="108"/>
+      <c r="H342" s="108"/>
+      <c r="I342" s="108"/>
+      <c r="J342" s="108"/>
       <c r="K342" s="10"/>
       <c r="L342" s="10"/>
       <c r="M342" s="10"/>
-      <c r="N342" s="109"/>
+      <c r="N342" s="111"/>
     </row>
     <row r="343" spans="1:14">
       <c r="A343" s="10"/>
       <c r="B343" s="101"/>
       <c r="D343" s="10"/>
-      <c r="E343" s="105"/>
-      <c r="F343" s="106"/>
-      <c r="G343" s="106"/>
-      <c r="H343" s="106"/>
-      <c r="I343" s="106"/>
-      <c r="J343" s="106"/>
+      <c r="E343" s="107"/>
+      <c r="F343" s="108"/>
+      <c r="G343" s="108"/>
+      <c r="H343" s="108"/>
+      <c r="I343" s="108"/>
+      <c r="J343" s="108"/>
       <c r="K343" s="10"/>
       <c r="L343" s="10"/>
       <c r="M343" s="10"/>
-      <c r="N343" s="109"/>
+      <c r="N343" s="111"/>
     </row>
     <row r="344" spans="1:14">
       <c r="A344" s="10"/>
       <c r="B344" s="101"/>
       <c r="D344" s="10"/>
-      <c r="E344" s="105"/>
-      <c r="F344" s="106"/>
-      <c r="G344" s="106"/>
-      <c r="H344" s="106"/>
-      <c r="I344" s="106"/>
-      <c r="J344" s="106"/>
+      <c r="E344" s="107"/>
+      <c r="F344" s="108"/>
+      <c r="G344" s="108"/>
+      <c r="H344" s="108"/>
+      <c r="I344" s="108"/>
+      <c r="J344" s="108"/>
       <c r="K344" s="10"/>
       <c r="L344" s="10"/>
       <c r="M344" s="10"/>
-      <c r="N344" s="109"/>
+      <c r="N344" s="111"/>
     </row>
     <row r="345" spans="1:14">
       <c r="A345" s="10"/>
       <c r="B345" s="101"/>
       <c r="D345" s="10"/>
-      <c r="E345" s="105"/>
-      <c r="F345" s="106"/>
-      <c r="G345" s="106"/>
-      <c r="H345" s="106"/>
-      <c r="I345" s="106"/>
-      <c r="J345" s="106"/>
+      <c r="E345" s="107"/>
+      <c r="F345" s="108"/>
+      <c r="G345" s="108"/>
+      <c r="H345" s="108"/>
+      <c r="I345" s="108"/>
+      <c r="J345" s="108"/>
       <c r="K345" s="10"/>
       <c r="L345" s="10"/>
       <c r="M345" s="10"/>
-      <c r="N345" s="109"/>
+      <c r="N345" s="111"/>
     </row>
     <row r="346" spans="1:14">
       <c r="A346" s="10"/>
       <c r="B346" s="101"/>
       <c r="D346" s="10"/>
-      <c r="E346" s="105"/>
-      <c r="F346" s="106"/>
-      <c r="G346" s="106"/>
-      <c r="H346" s="106"/>
-      <c r="I346" s="106"/>
-      <c r="J346" s="106"/>
+      <c r="E346" s="107"/>
+      <c r="F346" s="108"/>
+      <c r="G346" s="108"/>
+      <c r="H346" s="108"/>
+      <c r="I346" s="108"/>
+      <c r="J346" s="108"/>
       <c r="K346" s="10"/>
       <c r="L346" s="10"/>
       <c r="M346" s="10"/>
-      <c r="N346" s="109"/>
+      <c r="N346" s="111"/>
     </row>
     <row r="347" spans="1:14">
       <c r="A347" s="10"/>
       <c r="B347" s="101"/>
       <c r="D347" s="10"/>
-      <c r="E347" s="105"/>
-      <c r="F347" s="106"/>
-      <c r="G347" s="106"/>
-      <c r="H347" s="106"/>
-      <c r="I347" s="106"/>
-      <c r="J347" s="106"/>
+      <c r="E347" s="107"/>
+      <c r="F347" s="108"/>
+      <c r="G347" s="108"/>
+      <c r="H347" s="108"/>
+      <c r="I347" s="108"/>
+      <c r="J347" s="108"/>
       <c r="K347" s="10"/>
       <c r="L347" s="10"/>
       <c r="M347" s="10"/>
-      <c r="N347" s="109"/>
+      <c r="N347" s="111"/>
     </row>
     <row r="348" spans="1:14">
       <c r="A348" s="10"/>
       <c r="B348" s="101"/>
       <c r="D348" s="10"/>
-      <c r="E348" s="105"/>
-      <c r="F348" s="106"/>
-      <c r="G348" s="106"/>
-      <c r="H348" s="106"/>
-      <c r="I348" s="106"/>
-      <c r="J348" s="106"/>
+      <c r="E348" s="107"/>
+      <c r="F348" s="108"/>
+      <c r="G348" s="108"/>
+      <c r="H348" s="108"/>
+      <c r="I348" s="108"/>
+      <c r="J348" s="108"/>
       <c r="K348" s="10"/>
       <c r="L348" s="10"/>
       <c r="M348" s="10"/>
-      <c r="N348" s="109"/>
+      <c r="N348" s="111"/>
     </row>
     <row r="349" spans="1:14">
       <c r="A349" s="10"/>
       <c r="B349" s="101"/>
       <c r="D349" s="10"/>
-      <c r="E349" s="105"/>
-      <c r="F349" s="106"/>
-      <c r="G349" s="106"/>
-      <c r="H349" s="106"/>
-      <c r="I349" s="106"/>
-      <c r="J349" s="106"/>
+      <c r="E349" s="107"/>
+      <c r="F349" s="108"/>
+      <c r="G349" s="108"/>
+      <c r="H349" s="108"/>
+      <c r="I349" s="108"/>
+      <c r="J349" s="108"/>
       <c r="K349" s="10"/>
       <c r="L349" s="10"/>
       <c r="M349" s="10"/>
-      <c r="N349" s="109"/>
+      <c r="N349" s="111"/>
     </row>
     <row r="350" spans="1:14">
       <c r="A350" s="10"/>
       <c r="B350" s="101"/>
       <c r="D350" s="10"/>
-      <c r="E350" s="105"/>
-      <c r="F350" s="106"/>
-      <c r="G350" s="106"/>
-      <c r="H350" s="106"/>
-      <c r="I350" s="106"/>
-      <c r="J350" s="106"/>
+      <c r="E350" s="107"/>
+      <c r="F350" s="108"/>
+      <c r="G350" s="108"/>
+      <c r="H350" s="108"/>
+      <c r="I350" s="108"/>
+      <c r="J350" s="108"/>
       <c r="K350" s="10"/>
       <c r="L350" s="10"/>
       <c r="M350" s="10"/>
-      <c r="N350" s="109"/>
+      <c r="N350" s="111"/>
     </row>
     <row r="351" spans="1:14">
       <c r="A351" s="10"/>
       <c r="B351" s="101"/>
       <c r="D351" s="10"/>
-      <c r="E351" s="105"/>
-      <c r="F351" s="106"/>
-      <c r="G351" s="106"/>
-      <c r="H351" s="106"/>
-      <c r="I351" s="106"/>
-      <c r="J351" s="106"/>
+      <c r="E351" s="107"/>
+      <c r="F351" s="108"/>
+      <c r="G351" s="108"/>
+      <c r="H351" s="108"/>
+      <c r="I351" s="108"/>
+      <c r="J351" s="108"/>
       <c r="K351" s="10"/>
       <c r="L351" s="10"/>
       <c r="M351" s="10"/>
-      <c r="N351" s="109"/>
+      <c r="N351" s="111"/>
     </row>
     <row r="352" spans="1:14">
       <c r="A352" s="10"/>
       <c r="B352" s="101"/>
       <c r="D352" s="10"/>
-      <c r="E352" s="105"/>
-      <c r="F352" s="106"/>
-      <c r="G352" s="106"/>
-      <c r="H352" s="106"/>
-      <c r="I352" s="106"/>
-      <c r="J352" s="106"/>
+      <c r="E352" s="107"/>
+      <c r="F352" s="108"/>
+      <c r="G352" s="108"/>
+      <c r="H352" s="108"/>
+      <c r="I352" s="108"/>
+      <c r="J352" s="108"/>
       <c r="K352" s="10"/>
       <c r="L352" s="10"/>
       <c r="M352" s="10"/>
-      <c r="N352" s="109"/>
+      <c r="N352" s="111"/>
     </row>
     <row r="353" spans="1:14">
       <c r="A353" s="10"/>
       <c r="B353" s="101"/>
       <c r="D353" s="10"/>
-      <c r="E353" s="105"/>
-      <c r="F353" s="106"/>
-      <c r="G353" s="106"/>
-      <c r="H353" s="106"/>
-      <c r="I353" s="106"/>
-      <c r="J353" s="106"/>
+      <c r="E353" s="107"/>
+      <c r="F353" s="108"/>
+      <c r="G353" s="108"/>
+      <c r="H353" s="108"/>
+      <c r="I353" s="108"/>
+      <c r="J353" s="108"/>
       <c r="K353" s="10"/>
       <c r="L353" s="10"/>
       <c r="M353" s="10"/>
-      <c r="N353" s="109"/>
+      <c r="N353" s="111"/>
     </row>
     <row r="354" spans="1:14">
       <c r="A354" s="10"/>
       <c r="B354" s="101"/>
       <c r="D354" s="10"/>
-      <c r="E354" s="105"/>
-      <c r="F354" s="106"/>
-      <c r="G354" s="106"/>
-      <c r="H354" s="106"/>
-      <c r="I354" s="106"/>
-      <c r="J354" s="106"/>
+      <c r="E354" s="107"/>
+      <c r="F354" s="108"/>
+      <c r="G354" s="108"/>
+      <c r="H354" s="108"/>
+      <c r="I354" s="108"/>
+      <c r="J354" s="108"/>
       <c r="K354" s="10"/>
       <c r="L354" s="10"/>
       <c r="M354" s="10"/>
-      <c r="N354" s="109"/>
+      <c r="N354" s="111"/>
     </row>
     <row r="355" spans="1:14">
       <c r="A355" s="10"/>
       <c r="B355" s="101"/>
       <c r="D355" s="10"/>
-      <c r="E355" s="105"/>
-      <c r="F355" s="106"/>
-      <c r="G355" s="106"/>
-      <c r="H355" s="106"/>
-      <c r="I355" s="106"/>
-      <c r="J355" s="106"/>
+      <c r="E355" s="107"/>
+      <c r="F355" s="108"/>
+      <c r="G355" s="108"/>
+      <c r="H355" s="108"/>
+      <c r="I355" s="108"/>
+      <c r="J355" s="108"/>
       <c r="K355" s="10"/>
       <c r="L355" s="10"/>
       <c r="M355" s="10"/>
-      <c r="N355" s="109"/>
+      <c r="N355" s="111"/>
     </row>
     <row r="356" spans="1:14">
       <c r="A356" s="10"/>
       <c r="B356" s="101"/>
       <c r="D356" s="10"/>
-      <c r="E356" s="105"/>
-      <c r="F356" s="106"/>
-      <c r="G356" s="106"/>
-      <c r="H356" s="106"/>
-      <c r="I356" s="106"/>
-      <c r="J356" s="106"/>
+      <c r="E356" s="107"/>
+      <c r="F356" s="108"/>
+      <c r="G356" s="108"/>
+      <c r="H356" s="108"/>
+      <c r="I356" s="108"/>
+      <c r="J356" s="108"/>
       <c r="K356" s="10"/>
       <c r="L356" s="10"/>
       <c r="M356" s="10"/>
-      <c r="N356" s="109"/>
+      <c r="N356" s="111"/>
     </row>
     <row r="357" spans="1:14">
       <c r="A357" s="10"/>
       <c r="B357" s="101"/>
       <c r="D357" s="10"/>
-      <c r="E357" s="105"/>
-      <c r="F357" s="106"/>
-      <c r="G357" s="106"/>
-      <c r="H357" s="106"/>
-      <c r="I357" s